--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087">
   <si>
     <t>ID</t>
   </si>
@@ -2786,250 +2786,499 @@
     <t>Set a building</t>
   </si>
   <si>
+    <t>设置一栋建筑</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
     <t>Rotate a building</t>
   </si>
   <si>
+    <t>旋转一栋建筑</t>
+  </si>
+  <si>
     <t>Increase priority in the area</t>
   </si>
   <si>
+    <t>增加该区域优先级</t>
+  </si>
+  <si>
     <t>Change high priority area</t>
   </si>
   <si>
+    <t>更改高优先级区域</t>
+  </si>
+  <si>
     <t>Deconstruct a building</t>
   </si>
   <si>
+    <t>拆除一栋建筑</t>
+  </si>
+  <si>
     <t>Show building statistics</t>
   </si>
   <si>
+    <t>显示建筑资料</t>
+  </si>
+  <si>
     <t>Create terraforming area</t>
   </si>
   <si>
+    <t>创建地形平整区域</t>
+  </si>
+  <si>
     <t>Change terraforming area</t>
   </si>
   <si>
+    <t>更改地形平整区域</t>
+  </si>
+  <si>
     <t>Rotate terraforming area</t>
   </si>
   <si>
+    <t>旋转地形平整区域</t>
+  </si>
+  <si>
     <t>Change terraforming strength</t>
   </si>
   <si>
+    <t>更改地形平整人力</t>
+  </si>
+  <si>
     <t>Collect resources in the area</t>
   </si>
   <si>
+    <t>在该区域收集资源</t>
+  </si>
+  <si>
     <t>Change area size</t>
   </si>
   <si>
+    <t>更改区域大小</t>
+  </si>
+  <si>
     <t>Set a building in the area</t>
   </si>
   <si>
+    <t>在该区域设置一栋建筑</t>
+  </si>
+  <si>
     <t>Change building size</t>
   </si>
   <si>
+    <t>更改建筑大小</t>
+  </si>
+  <si>
     <t>Set road mark</t>
   </si>
   <si>
+    <t>设置路标</t>
+  </si>
+  <si>
     <t>Change road mark</t>
   </si>
   <si>
+    <t>更改路标</t>
+  </si>
+  <si>
     <t>Remove road in the area</t>
   </si>
   <si>
+    <t>移除该区域的道路</t>
+  </si>
+  <si>
     <t>Select a pasture of the same type or any empty one</t>
   </si>
   <si>
+    <t>选择闲置或是同类型的牧场</t>
+  </si>
+  <si>
     <t>Creating hills</t>
   </si>
   <si>
+    <t>创造丘陵</t>
+  </si>
+  <si>
     <t>Let you create hill or cavity.</t>
   </si>
   <si>
+    <t>使你创造丘陵或山洞。</t>
+  </si>
+  <si>
     <t>Create slope</t>
   </si>
   <si>
+    <t>创建斜坡</t>
+  </si>
+  <si>
     <t>Let you create routes.</t>
   </si>
   <si>
+    <t>使你创造道路。</t>
+  </si>
+  <si>
     <t>Area up</t>
   </si>
   <si>
+    <t>面积</t>
+  </si>
+  <si>
     <t>Let you dig up or dig down area.</t>
   </si>
   <si>
+    <t>使你向上或向下挖掘地区</t>
+  </si>
+  <si>
     <t>Landscape align</t>
   </si>
   <si>
+    <t>地形对齐</t>
+  </si>
+  <si>
     <t>Let you align area.</t>
   </si>
   <si>
+    <t>使你对齐区域。</t>
+  </si>
+  <si>
     <t>Living place. Capacity: 3 residents. Happiness: +3. Strenght: +6. Action area: 100.</t>
   </si>
   <si>
+    <t>居住地。容量：3个居民。幸福：+3.强度：+6.行动区域：100.</t>
+  </si>
+  <si>
     <t>Temporary house. Capacity: 18 residents. Happiness: +3. Strenght: +6. Action area: 100.</t>
   </si>
   <si>
+    <t>临时房屋。容量：18个居民。幸福：+3.强度：+6.行动区域：100.</t>
+  </si>
+  <si>
     <t>Clay gathering. 12 workers.</t>
   </si>
   <si>
+    <t>开采粘土。12名工人</t>
+  </si>
+  <si>
     <t>Ore gathering. 12 workers.</t>
   </si>
   <si>
+    <t>开采矿石。12名工人</t>
+  </si>
+  <si>
     <t>Fish gathering. 3 workers. Action radius: 30.</t>
   </si>
   <si>
+    <t>捕鱼。3名工人。行动半径：30.</t>
+  </si>
+  <si>
     <t>Forest growing and logs gathering. 4 workers. Action radius: 40.</t>
   </si>
   <si>
+    <t>植树及砍树。4名工人。行动半径：40.</t>
+  </si>
+  <si>
     <t>Plants and edible roots gathering. 3 workers. Action radius: 50.</t>
   </si>
   <si>
+    <t>采集植物及可食用根茎。3名工人。行动半径：50.</t>
+  </si>
+  <si>
     <t>Residents healing. Capacity: 9 places.</t>
   </si>
   <si>
+    <t>治疗居民。容量：9个位子。</t>
+  </si>
+  <si>
     <t>Meat and hides gathering, pasture defending. 4 workers. Action radius: 50.</t>
   </si>
   <si>
+    <t>收集肉和兽皮，保护牧场。4名工人。行动半径：50.</t>
+  </si>
+  <si>
     <t>Firewood producing. 3 workers.</t>
   </si>
   <si>
+    <t>生产木柴。3名工人。</t>
+  </si>
+  <si>
     <t>Children education for increaisng productivity. Capacity: 10 places.</t>
   </si>
   <si>
+    <t>儿童生产力提升教育。容量：10个位子。</t>
+  </si>
+  <si>
     <t>Tools producing. 1 worker.</t>
   </si>
   <si>
+    <t>生产工具。1名工人。</t>
+  </si>
+  <si>
     <t>Clothes sewing. 1 worker.</t>
   </si>
   <si>
+    <t>衣物缝制。1名工人。</t>
+  </si>
+  <si>
     <t>Source of water.</t>
   </si>
   <si>
+    <t>水源。</t>
+  </si>
+  <si>
     <t>Herbal gathering for healing people. 2 workers.</t>
   </si>
   <si>
+    <t>为医生采集草药。2名工人。</t>
+  </si>
+  <si>
     <t>Food distribution. 5 workers.</t>
   </si>
   <si>
+    <t>食物分配。5名工人。</t>
+  </si>
+  <si>
     <t>Alcohol producing to improve happiness level. 1 worker.</t>
   </si>
   <si>
+    <t>生产酒以提高幸福度。1名工人。</t>
+  </si>
+  <si>
     <t>Burning dead people. 1 pyre for 1 corpse.</t>
   </si>
   <si>
+    <t>焚烧尸体。每具尸体需要一堆柴。</t>
+  </si>
+  <si>
     <t>Cows keeping for meat gathering. Food: water, hay during cold time. Hunter required for the protection of wild enemies.</t>
   </si>
   <si>
+    <t>养牛保持肉累补给。食物：水，干草在寒冷的时候。需要猎人保护。</t>
+  </si>
+  <si>
     <t>Chickens keeping for meat gathering. Food: water, oat during cold time. Hunter required for the protection of wild enemies.</t>
   </si>
   <si>
+    <t>养鸡保持肉累补给。食物：水，燕麦在寒冷的时候。需要猎人保护。</t>
+  </si>
+  <si>
     <t>Pigs keeping for meat gathering. Food: water, oat during cold time. Hunter required for the protection of wild enemies.</t>
   </si>
   <si>
+    <t>养猪保持肉累补给。食物：水，燕麦在寒冷的时候。需要猎人保护。</t>
+  </si>
+  <si>
     <t>Sheeps keeping for meat gathering. Food: water, hay during cold time. Hunter required for the protection of wild enemies.</t>
   </si>
   <si>
+    <t>养羊保持肉累补给。食物：水，干草在寒冷的时候。需要猎人保护。</t>
+  </si>
+  <si>
     <t>Vegetables and fruits gathering.</t>
   </si>
   <si>
+    <t>收集水果及蔬菜。</t>
+  </si>
+  <si>
     <t>Gathering of vegetables, crops and building materials.</t>
   </si>
   <si>
+    <t>收集蔬菜，作物及建筑材料。</t>
+  </si>
+  <si>
     <t>Increases people's speed.</t>
   </si>
   <si>
+    <t>提高居民速度。</t>
+  </si>
+  <si>
     <t>Double-increases people's speed.</t>
   </si>
   <si>
+    <t>双倍提高居民速度。</t>
+  </si>
+  <si>
     <t>Flour producing for bakery. 2 workers.</t>
   </si>
   <si>
+    <t>面粉生产。2名工人。</t>
+  </si>
+  <si>
     <t>Bread and bakes producing. Windmill required. 2 workers.</t>
   </si>
   <si>
+    <t>面包烘焙生产。需要风车。2名工人。</t>
+  </si>
+  <si>
     <t>Keeping resources for people.</t>
   </si>
   <si>
+    <t>为居民保管资源。</t>
+  </si>
+  <si>
     <t>Keeping building materials.</t>
   </si>
   <si>
+    <t>保管建筑材料。</t>
+  </si>
+  <si>
     <t>Cost iron smelting. 1 worker.</t>
   </si>
   <si>
+    <t>熔铁。1名工人。</t>
+  </si>
+  <si>
     <t>Coal producing. 1 worker.</t>
   </si>
   <si>
+    <t>生产木炭。1名工人。</t>
+  </si>
+  <si>
     <t>Wooden tools producing. 2 workers.</t>
   </si>
   <si>
+    <t>生产木制工具。2名工人。</t>
+  </si>
+  <si>
     <t>Stone gathering. 12 workers.</t>
   </si>
   <si>
+    <t>开采石料。12名工人。</t>
+  </si>
+  <si>
     <t>Autosaving...</t>
   </si>
   <si>
+    <t>自动存储中...</t>
+  </si>
+  <si>
     <t>Are you sure you want to quit?</t>
   </si>
   <si>
+    <t>你确定要退出游戏？</t>
+  </si>
+  <si>
     <t>Saving...</t>
   </si>
   <si>
+    <t>存储中...</t>
+  </si>
+  <si>
     <t>Pneumonia</t>
   </si>
   <si>
+    <t>肺炎</t>
+  </si>
+  <si>
     <t>Avitaminosis</t>
   </si>
   <si>
+    <t>维生素缺乏症</t>
+  </si>
+  <si>
     <t>Plague</t>
   </si>
   <si>
+    <t>瘟疫</t>
+  </si>
+  <si>
     <t>Rabies</t>
   </si>
   <si>
+    <t>狂犬病</t>
+  </si>
+  <si>
     <t>Stonepit</t>
   </si>
   <si>
     <t>Corner section</t>
   </si>
   <si>
+    <t>角截面</t>
+  </si>
+  <si>
     <t>Tee-section</t>
   </si>
   <si>
+    <t>T型截面</t>
+  </si>
+  <si>
     <t>Cross section</t>
   </si>
   <si>
+    <t>横截面</t>
+  </si>
+  <si>
     <t>Eggs</t>
   </si>
   <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
     <t>Milk</t>
   </si>
   <si>
+    <t>牛奶</t>
+  </si>
+  <si>
     <t>Collect hay</t>
   </si>
   <si>
+    <t>收集干草</t>
+  </si>
+  <si>
     <t>Kill the animal</t>
   </si>
   <si>
+    <t>杀掉这只动物</t>
+  </si>
+  <si>
     <t>Take the resource</t>
   </si>
   <si>
+    <t>带上资源</t>
+  </si>
+  <si>
     <t>Mine the resource</t>
   </si>
   <si>
+    <t>开采资源</t>
+  </si>
+  <si>
     <t>Gather the resource</t>
   </si>
   <si>
+    <t>采集资源</t>
+  </si>
+  <si>
     <t>Build</t>
   </si>
   <si>
+    <t>建造</t>
+  </si>
+  <si>
     <t>Quench</t>
   </si>
   <si>
+    <t>终止</t>
+  </si>
+  <si>
     <t>Repair</t>
   </si>
   <si>
+    <t>修理</t>
+  </si>
+  <si>
     <t>Drop the resource</t>
   </si>
   <si>
+    <t>扔掉资源</t>
+  </si>
+  <si>
     <t>Interact</t>
+  </si>
+  <si>
+    <t>互相作用</t>
   </si>
 </sst>
 </file>
@@ -3042,7 +3291,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3070,14 +3319,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3091,22 +3377,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3128,93 +3454,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3259,7 +3501,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3277,43 +3573,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3331,19 +3627,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3361,25 +3651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3391,37 +3663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3510,15 +3752,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -3540,17 +3773,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3566,11 +3793,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3589,16 +3822,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3607,133 +3849,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3756,16 +3998,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4125,8 +4367,8 @@
   <sheetPr/>
   <dimension ref="A1:E683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A631" workbookViewId="0">
-      <selection activeCell="D651" sqref="D651"/>
+    <sheetView tabSelected="1" topLeftCell="A659" workbookViewId="0">
+      <selection activeCell="D638" sqref="D638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -11407,7 +11649,9 @@
         <v>921</v>
       </c>
       <c r="C581" s="14"/>
-      <c r="D581" s="15"/>
+      <c r="D581" s="15" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="16">
@@ -11417,167 +11661,201 @@
         <v>565</v>
       </c>
       <c r="C582" s="18"/>
-      <c r="D582" s="19"/>
+      <c r="D582" s="19" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="12">
         <v>582</v>
       </c>
       <c r="B583" s="13" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C583" s="14"/>
-      <c r="D583" s="15"/>
+      <c r="D583" s="15" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="16">
         <v>583</v>
       </c>
       <c r="B584" s="17" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C584" s="18"/>
-      <c r="D584" s="19"/>
+      <c r="D584" s="19" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="12">
         <v>584</v>
       </c>
       <c r="B585" s="13" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C585" s="14"/>
-      <c r="D585" s="15"/>
+      <c r="D585" s="15" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="16">
         <v>585</v>
       </c>
       <c r="B586" s="17" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="C586" s="18"/>
-      <c r="D586" s="19"/>
+      <c r="D586" s="19" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="12">
         <v>586</v>
       </c>
       <c r="B587" s="13" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="C587" s="14"/>
-      <c r="D587" s="15"/>
+      <c r="D587" s="15" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="16">
         <v>587</v>
       </c>
       <c r="B588" s="17" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="C588" s="18"/>
-      <c r="D588" s="19"/>
+      <c r="D588" s="19" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="12">
         <v>588</v>
       </c>
       <c r="B589" s="13" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="C589" s="14"/>
-      <c r="D589" s="15"/>
+      <c r="D589" s="15" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="16">
         <v>589</v>
       </c>
       <c r="B590" s="17" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="C590" s="18"/>
-      <c r="D590" s="19"/>
+      <c r="D590" s="19" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="12">
         <v>590</v>
       </c>
       <c r="B591" s="13" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="C591" s="14"/>
-      <c r="D591" s="15"/>
+      <c r="D591" s="15" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="16">
         <v>591</v>
       </c>
       <c r="B592" s="17" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
       <c r="C592" s="18"/>
-      <c r="D592" s="19"/>
+      <c r="D592" s="19" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="12">
         <v>592</v>
       </c>
       <c r="B593" s="13" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="C593" s="14"/>
-      <c r="D593" s="15"/>
+      <c r="D593" s="15" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="16">
         <v>593</v>
       </c>
       <c r="B594" s="17" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="C594" s="18"/>
-      <c r="D594" s="19"/>
+      <c r="D594" s="19" t="s">
+        <v>947</v>
+      </c>
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="12">
         <v>594</v>
       </c>
       <c r="B595" s="13" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
       <c r="C595" s="14"/>
-      <c r="D595" s="15"/>
+      <c r="D595" s="15" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="16">
         <v>595</v>
       </c>
       <c r="B596" s="17" t="s">
-        <v>935</v>
+        <v>950</v>
       </c>
       <c r="C596" s="18"/>
-      <c r="D596" s="19"/>
+      <c r="D596" s="19" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="12">
         <v>596</v>
       </c>
       <c r="B597" s="13" t="s">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="C597" s="14"/>
-      <c r="D597" s="15"/>
+      <c r="D597" s="15" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="16">
         <v>597</v>
       </c>
       <c r="B598" s="17" t="s">
-        <v>937</v>
+        <v>954</v>
       </c>
       <c r="C598" s="18"/>
-      <c r="D598" s="19"/>
+      <c r="D598" s="19" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="12">
@@ -11592,100 +11870,120 @@
         <v>599</v>
       </c>
       <c r="B600" s="17" t="s">
-        <v>938</v>
+        <v>956</v>
       </c>
       <c r="C600" s="18"/>
-      <c r="D600" s="19"/>
+      <c r="D600" s="19" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="12">
         <v>600</v>
       </c>
       <c r="B601" s="13" t="s">
-        <v>939</v>
+        <v>958</v>
       </c>
       <c r="C601" s="14"/>
-      <c r="D601" s="15"/>
+      <c r="D601" s="15" t="s">
+        <v>959</v>
+      </c>
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="16">
         <v>601</v>
       </c>
       <c r="B602" s="17" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="C602" s="18"/>
-      <c r="D602" s="19"/>
+      <c r="D602" s="19" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="12">
         <v>602</v>
       </c>
       <c r="B603" s="13" t="s">
-        <v>941</v>
+        <v>962</v>
       </c>
       <c r="C603" s="14"/>
-      <c r="D603" s="15"/>
+      <c r="D603" s="15" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="16">
         <v>603</v>
       </c>
       <c r="B604" s="17" t="s">
-        <v>942</v>
+        <v>964</v>
       </c>
       <c r="C604" s="18"/>
-      <c r="D604" s="19"/>
+      <c r="D604" s="19" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="12">
         <v>604</v>
       </c>
       <c r="B605" s="13" t="s">
-        <v>943</v>
+        <v>966</v>
       </c>
       <c r="C605" s="14"/>
-      <c r="D605" s="15"/>
+      <c r="D605" s="15" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="16">
         <v>605</v>
       </c>
       <c r="B606" s="17" t="s">
-        <v>944</v>
+        <v>968</v>
       </c>
       <c r="C606" s="18"/>
-      <c r="D606" s="19"/>
+      <c r="D606" s="19" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="12">
         <v>606</v>
       </c>
       <c r="B607" s="13" t="s">
-        <v>945</v>
+        <v>970</v>
       </c>
       <c r="C607" s="14"/>
-      <c r="D607" s="15"/>
+      <c r="D607" s="15" t="s">
+        <v>971</v>
+      </c>
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="16">
         <v>607</v>
       </c>
       <c r="B608" s="17" t="s">
-        <v>946</v>
+        <v>972</v>
       </c>
       <c r="C608" s="18"/>
-      <c r="D608" s="19"/>
+      <c r="D608" s="19" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="12">
         <v>608</v>
       </c>
       <c r="B609" s="13" t="s">
-        <v>947</v>
+        <v>974</v>
       </c>
       <c r="C609" s="14"/>
-      <c r="D609" s="15"/>
+      <c r="D609" s="15" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="16">
@@ -11740,10 +12038,12 @@
         <v>615</v>
       </c>
       <c r="B616" s="17" t="s">
-        <v>948</v>
+        <v>976</v>
       </c>
       <c r="C616" s="18"/>
-      <c r="D616" s="19"/>
+      <c r="D616" s="15" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="12">
@@ -11758,20 +12058,24 @@
         <v>617</v>
       </c>
       <c r="B618" s="17" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="C618" s="18"/>
-      <c r="D618" s="19"/>
+      <c r="D618" s="19" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="12">
         <v>618</v>
       </c>
       <c r="B619" s="13" t="s">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="C619" s="14"/>
-      <c r="D619" s="15"/>
+      <c r="D619" s="19" t="s">
+        <v>981</v>
+      </c>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="16">
@@ -11786,60 +12090,72 @@
         <v>620</v>
       </c>
       <c r="B621" s="13" t="s">
-        <v>951</v>
+        <v>982</v>
       </c>
       <c r="C621" s="14"/>
-      <c r="D621" s="15"/>
+      <c r="D621" s="15" t="s">
+        <v>983</v>
+      </c>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="16">
         <v>621</v>
       </c>
       <c r="B622" s="17" t="s">
-        <v>952</v>
+        <v>984</v>
       </c>
       <c r="C622" s="18"/>
-      <c r="D622" s="19"/>
+      <c r="D622" s="19" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="12">
         <v>622</v>
       </c>
       <c r="B623" s="20" t="s">
-        <v>953</v>
+        <v>986</v>
       </c>
       <c r="C623" s="14"/>
-      <c r="D623" s="15"/>
+      <c r="D623" s="15" t="s">
+        <v>987</v>
+      </c>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="16">
         <v>623</v>
       </c>
       <c r="B624" s="17" t="s">
-        <v>954</v>
+        <v>988</v>
       </c>
       <c r="C624" s="18"/>
-      <c r="D624" s="19"/>
+      <c r="D624" s="19" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="12">
         <v>624</v>
       </c>
       <c r="B625" s="13" t="s">
-        <v>955</v>
+        <v>990</v>
       </c>
       <c r="C625" s="14"/>
-      <c r="D625" s="15"/>
+      <c r="D625" s="15" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="16">
         <v>625</v>
       </c>
       <c r="B626" s="21" t="s">
-        <v>956</v>
+        <v>992</v>
       </c>
       <c r="C626" s="18"/>
-      <c r="D626" s="19"/>
+      <c r="D626" s="19" t="s">
+        <v>993</v>
+      </c>
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="12">
@@ -11854,240 +12170,288 @@
         <v>627</v>
       </c>
       <c r="B628" s="21" t="s">
-        <v>957</v>
+        <v>994</v>
       </c>
       <c r="C628" s="18"/>
-      <c r="D628" s="19"/>
+      <c r="D628" s="19" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="12">
         <v>628</v>
       </c>
       <c r="B629" s="20" t="s">
-        <v>958</v>
+        <v>996</v>
       </c>
       <c r="C629" s="14"/>
-      <c r="D629" s="15"/>
+      <c r="D629" s="15" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="16">
         <v>629</v>
       </c>
       <c r="B630" s="21" t="s">
-        <v>959</v>
+        <v>998</v>
       </c>
       <c r="C630" s="18"/>
-      <c r="D630" s="19"/>
+      <c r="D630" s="19" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="12">
         <v>630</v>
       </c>
       <c r="B631" s="20" t="s">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="C631" s="14"/>
-      <c r="D631" s="15"/>
+      <c r="D631" s="15" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="16">
         <v>631</v>
       </c>
       <c r="B632" s="21" t="s">
-        <v>961</v>
+        <v>1002</v>
       </c>
       <c r="C632" s="18"/>
-      <c r="D632" s="19"/>
+      <c r="D632" s="19" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="12">
         <v>632</v>
       </c>
       <c r="B633" s="20" t="s">
-        <v>962</v>
+        <v>1004</v>
       </c>
       <c r="C633" s="14"/>
-      <c r="D633" s="15"/>
+      <c r="D633" s="15" t="s">
+        <v>1005</v>
+      </c>
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="16">
         <v>633</v>
       </c>
       <c r="B634" s="21" t="s">
-        <v>963</v>
+        <v>1006</v>
       </c>
       <c r="C634" s="18"/>
-      <c r="D634" s="19"/>
+      <c r="D634" s="19" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="12">
         <v>634</v>
       </c>
       <c r="B635" s="20" t="s">
-        <v>964</v>
+        <v>1008</v>
       </c>
       <c r="C635" s="14"/>
-      <c r="D635" s="15"/>
+      <c r="D635" s="15" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="16">
         <v>635</v>
       </c>
       <c r="B636" s="21" t="s">
-        <v>965</v>
+        <v>1010</v>
       </c>
       <c r="C636" s="18"/>
-      <c r="D636" s="19"/>
+      <c r="D636" s="19" t="s">
+        <v>1011</v>
+      </c>
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="12">
         <v>636</v>
       </c>
       <c r="B637" s="20" t="s">
-        <v>966</v>
+        <v>1012</v>
       </c>
       <c r="C637" s="14"/>
-      <c r="D637" s="15"/>
+      <c r="D637" s="15" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="16">
         <v>637</v>
       </c>
       <c r="B638" s="21" t="s">
-        <v>967</v>
+        <v>1014</v>
       </c>
       <c r="C638" s="18"/>
-      <c r="D638" s="19"/>
+      <c r="D638" s="19" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="12">
         <v>638</v>
       </c>
       <c r="B639" s="20" t="s">
-        <v>968</v>
+        <v>1016</v>
       </c>
       <c r="C639" s="14"/>
-      <c r="D639" s="15"/>
+      <c r="D639" s="19" t="s">
+        <v>1017</v>
+      </c>
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="16">
         <v>639</v>
       </c>
       <c r="B640" s="21" t="s">
-        <v>969</v>
+        <v>1018</v>
       </c>
       <c r="C640" s="18"/>
-      <c r="D640" s="19"/>
+      <c r="D640" s="19" t="s">
+        <v>1019</v>
+      </c>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="12">
         <v>640</v>
       </c>
       <c r="B641" s="20" t="s">
-        <v>970</v>
+        <v>1020</v>
       </c>
       <c r="C641" s="14"/>
-      <c r="D641" s="15"/>
+      <c r="D641" s="15" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="16">
         <v>641</v>
       </c>
       <c r="B642" s="21" t="s">
-        <v>971</v>
+        <v>1022</v>
       </c>
       <c r="C642" s="18"/>
-      <c r="D642" s="19"/>
+      <c r="D642" s="19" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="12">
         <v>642</v>
       </c>
       <c r="B643" s="20" t="s">
-        <v>972</v>
+        <v>1024</v>
       </c>
       <c r="C643" s="14"/>
-      <c r="D643" s="15"/>
+      <c r="D643" s="15" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="16">
         <v>643</v>
       </c>
       <c r="B644" s="21" t="s">
-        <v>973</v>
+        <v>1026</v>
       </c>
       <c r="C644" s="18"/>
-      <c r="D644" s="19"/>
+      <c r="D644" s="19" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="12">
         <v>644</v>
       </c>
       <c r="B645" s="20" t="s">
-        <v>974</v>
+        <v>1028</v>
       </c>
       <c r="C645" s="14"/>
-      <c r="D645" s="15"/>
+      <c r="D645" s="15" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="16">
         <v>645</v>
       </c>
       <c r="B646" s="21" t="s">
-        <v>975</v>
+        <v>1030</v>
       </c>
       <c r="C646" s="18"/>
-      <c r="D646" s="19"/>
+      <c r="D646" s="19" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="12">
         <v>646</v>
       </c>
       <c r="B647" s="20" t="s">
-        <v>976</v>
+        <v>1032</v>
       </c>
       <c r="C647" s="14"/>
-      <c r="D647" s="15"/>
+      <c r="D647" s="15" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="16">
         <v>647</v>
       </c>
       <c r="B648" s="21" t="s">
-        <v>977</v>
+        <v>1034</v>
       </c>
       <c r="C648" s="18"/>
-      <c r="D648" s="19"/>
+      <c r="D648" s="19" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="12">
         <v>648</v>
       </c>
       <c r="B649" s="20" t="s">
-        <v>978</v>
+        <v>1036</v>
       </c>
       <c r="C649" s="14"/>
-      <c r="D649" s="15"/>
+      <c r="D649" s="15" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="16">
         <v>649</v>
       </c>
       <c r="B650" s="21" t="s">
-        <v>979</v>
+        <v>1038</v>
       </c>
       <c r="C650" s="18"/>
-      <c r="D650" s="19"/>
+      <c r="D650" s="19" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="12">
         <v>650</v>
       </c>
       <c r="B651" s="20" t="s">
-        <v>980</v>
+        <v>1040</v>
       </c>
       <c r="C651" s="14"/>
-      <c r="D651" s="15"/>
+      <c r="D651" s="15" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="16">
@@ -12134,80 +12498,96 @@
         <v>656</v>
       </c>
       <c r="B657" s="20" t="s">
-        <v>981</v>
+        <v>1042</v>
       </c>
       <c r="C657" s="14"/>
-      <c r="D657" s="15"/>
+      <c r="D657" s="15" t="s">
+        <v>1043</v>
+      </c>
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="16">
         <v>657</v>
       </c>
       <c r="B658" s="21" t="s">
-        <v>982</v>
+        <v>1044</v>
       </c>
       <c r="C658" s="18"/>
-      <c r="D658" s="19"/>
+      <c r="D658" s="19" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="12">
         <v>658</v>
       </c>
       <c r="B659" s="20" t="s">
-        <v>983</v>
+        <v>1046</v>
       </c>
       <c r="C659" s="14"/>
-      <c r="D659" s="15"/>
+      <c r="D659" s="15" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="16">
         <v>659</v>
       </c>
       <c r="B660" s="21" t="s">
-        <v>984</v>
+        <v>1048</v>
       </c>
       <c r="C660" s="18"/>
-      <c r="D660" s="19"/>
+      <c r="D660" s="19" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="12">
         <v>660</v>
       </c>
       <c r="B661" s="20" t="s">
-        <v>985</v>
+        <v>1050</v>
       </c>
       <c r="C661" s="14"/>
-      <c r="D661" s="15"/>
+      <c r="D661" s="15" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="16">
         <v>661</v>
       </c>
       <c r="B662" s="21" t="s">
-        <v>986</v>
+        <v>1052</v>
       </c>
       <c r="C662" s="18"/>
-      <c r="D662" s="19"/>
+      <c r="D662" s="19" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="12">
         <v>662</v>
       </c>
       <c r="B663" s="20" t="s">
-        <v>987</v>
+        <v>1054</v>
       </c>
       <c r="C663" s="14"/>
-      <c r="D663" s="15"/>
+      <c r="D663" s="15" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="16">
         <v>663</v>
       </c>
       <c r="B664" s="21" t="s">
-        <v>988</v>
+        <v>1056</v>
       </c>
       <c r="C664" s="18"/>
-      <c r="D664" s="19"/>
+      <c r="D664" s="19" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="12">
@@ -12222,30 +12602,36 @@
         <v>665</v>
       </c>
       <c r="B666" s="21" t="s">
-        <v>989</v>
+        <v>1057</v>
       </c>
       <c r="C666" s="18"/>
-      <c r="D666" s="19"/>
+      <c r="D666" s="19" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="12">
         <v>666</v>
       </c>
       <c r="B667" s="20" t="s">
-        <v>990</v>
+        <v>1059</v>
       </c>
       <c r="C667" s="14"/>
-      <c r="D667" s="15"/>
+      <c r="D667" s="15" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="16">
         <v>667</v>
       </c>
       <c r="B668" s="21" t="s">
-        <v>991</v>
+        <v>1061</v>
       </c>
       <c r="C668" s="18"/>
-      <c r="D668" s="19"/>
+      <c r="D668" s="19" t="s">
+        <v>1062</v>
+      </c>
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="12">
@@ -12276,120 +12662,144 @@
         <v>671</v>
       </c>
       <c r="B672" s="21" t="s">
-        <v>992</v>
+        <v>1063</v>
       </c>
       <c r="C672" s="18"/>
-      <c r="D672" s="19"/>
+      <c r="D672" s="19" t="s">
+        <v>1064</v>
+      </c>
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="12">
         <v>672</v>
       </c>
       <c r="B673" s="20" t="s">
-        <v>993</v>
+        <v>1065</v>
       </c>
       <c r="C673" s="14"/>
-      <c r="D673" s="15"/>
+      <c r="D673" s="15" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="674" spans="1:4">
       <c r="A674" s="16">
         <v>673</v>
       </c>
       <c r="B674" s="21" t="s">
-        <v>994</v>
+        <v>1067</v>
       </c>
       <c r="C674" s="18"/>
-      <c r="D674" s="19"/>
+      <c r="D674" s="19" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="675" spans="1:4">
       <c r="A675" s="12">
         <v>674</v>
       </c>
       <c r="B675" s="20" t="s">
-        <v>995</v>
+        <v>1069</v>
       </c>
       <c r="C675" s="14"/>
-      <c r="D675" s="15"/>
+      <c r="D675" s="15" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="16">
         <v>675</v>
       </c>
       <c r="B676" s="21" t="s">
-        <v>996</v>
+        <v>1071</v>
       </c>
       <c r="C676" s="18"/>
-      <c r="D676" s="19"/>
+      <c r="D676" s="19" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="677" spans="1:4">
       <c r="A677" s="12">
         <v>676</v>
       </c>
       <c r="B677" s="20" t="s">
-        <v>997</v>
+        <v>1073</v>
       </c>
       <c r="C677" s="14"/>
-      <c r="D677" s="15"/>
+      <c r="D677" s="15" t="s">
+        <v>1074</v>
+      </c>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="16">
         <v>677</v>
       </c>
       <c r="B678" s="21" t="s">
-        <v>998</v>
+        <v>1075</v>
       </c>
       <c r="C678" s="18"/>
-      <c r="D678" s="19"/>
+      <c r="D678" s="19" t="s">
+        <v>1076</v>
+      </c>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" s="12">
         <v>678</v>
       </c>
       <c r="B679" s="20" t="s">
-        <v>999</v>
+        <v>1077</v>
       </c>
       <c r="C679" s="14"/>
-      <c r="D679" s="15"/>
+      <c r="D679" s="15" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="16">
         <v>679</v>
       </c>
       <c r="B680" s="21" t="s">
-        <v>1000</v>
+        <v>1079</v>
       </c>
       <c r="C680" s="18"/>
-      <c r="D680" s="19"/>
+      <c r="D680" s="19" t="s">
+        <v>1080</v>
+      </c>
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="12">
         <v>680</v>
       </c>
       <c r="B681" s="20" t="s">
-        <v>1001</v>
+        <v>1081</v>
       </c>
       <c r="C681" s="14"/>
-      <c r="D681" s="15"/>
+      <c r="D681" s="15" t="s">
+        <v>1082</v>
+      </c>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="16">
         <v>681</v>
       </c>
       <c r="B682" s="21" t="s">
-        <v>1002</v>
+        <v>1083</v>
       </c>
       <c r="C682" s="18"/>
-      <c r="D682" s="19"/>
+      <c r="D682" s="19" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="12">
         <v>682</v>
       </c>
       <c r="B683" s="20" t="s">
-        <v>1003</v>
+        <v>1085</v>
       </c>
       <c r="C683" s="14"/>
-      <c r="D683" s="15"/>
+      <c r="D683" s="15" t="s">
+        <v>1086</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135">
   <si>
     <t>ID</t>
   </si>
@@ -207,10 +207,10 @@
     <t>木柴</t>
   </si>
   <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>煤炭</t>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>木炭</t>
   </si>
   <si>
     <t>Stone</t>
@@ -345,10 +345,10 @@
     <t>采石场</t>
   </si>
   <si>
-    <t>Mine</t>
-  </si>
-  <si>
-    <t>矿井</t>
+    <t>Ore mine</t>
+  </si>
+  <si>
+    <t>矿山</t>
   </si>
   <si>
     <t>Clay mine</t>
@@ -369,19 +369,19 @@
     <t>铁匠铺</t>
   </si>
   <si>
-    <t>Herbalist's shop</t>
-  </si>
-  <si>
-    <t>药铺</t>
-  </si>
-  <si>
-    <t>Fisherman's hut</t>
+    <t>Herbalist's hut</t>
+  </si>
+  <si>
+    <t>药师小屋</t>
+  </si>
+  <si>
+    <t>Fisherman's lodge</t>
   </si>
   <si>
     <t>渔人小屋</t>
   </si>
   <si>
-    <t>Gatherer's house</t>
+    <t>Gatherer's hut</t>
   </si>
   <si>
     <t>采集者小屋</t>
@@ -405,7 +405,7 @@
     <t>栏舍</t>
   </si>
   <si>
-    <t>Garden</t>
+    <t>Orchard</t>
   </si>
   <si>
     <t>果园</t>
@@ -855,19 +855,19 @@
     <t>磨坊工人</t>
   </si>
   <si>
-    <t>Stonemason. Gets stone. Mine required.</t>
-  </si>
-  <si>
-    <t>石工。获取石头。需要矿井。</t>
-  </si>
-  <si>
-    <t>Miner. Gets ore. Mine required.</t>
-  </si>
-  <si>
-    <t>矿工。获取矿石。需要矿井。</t>
-  </si>
-  <si>
-    <t>Fisherman. Catches fish. Fishing hut required.</t>
+    <t>Stonemason. Gets stone. Stone quarry required.</t>
+  </si>
+  <si>
+    <t>石工。获取石头。需要采石场。</t>
+  </si>
+  <si>
+    <t>Miner. Gets ore. Ore mine required.</t>
+  </si>
+  <si>
+    <t>矿工。获取矿石。需要矿山。</t>
+  </si>
+  <si>
+    <t>Fisherman. Catches fish. Fisherman's lodge required.</t>
   </si>
   <si>
     <t>渔夫。捕鱼。需要渔人小屋。</t>
@@ -879,7 +879,7 @@
     <t>伐木工人。劈柴。需要伐木小屋。</t>
   </si>
   <si>
-    <t>Blacksmith. Manufactures tools. The blacksmith's workshop is required.</t>
+    <t>Blacksmith. Manufactures tools. Blacksmith's shop required.</t>
   </si>
   <si>
     <t>铁匠。生产工具。需要铁匠铺。</t>
@@ -909,7 +909,7 @@
     <t>猎人。捕杀野生动物。需要猎人小屋。</t>
   </si>
   <si>
-    <t>Gatherer. Gathers plants. Gatherer's house required.</t>
+    <t>Gatherer. Gathers plants. Gatherer's hut required.</t>
   </si>
   <si>
     <t>采集者。采集植物。需要采集者小屋。</t>
@@ -918,13 +918,13 @@
     <t>Farmer: grows crops and fruits. Fields or gardens required.</t>
   </si>
   <si>
-    <t>农夫。种植作物及水果。需要农田或花园。</t>
-  </si>
-  <si>
-    <t>Teacher. Teaches teenagers. School required.</t>
-  </si>
-  <si>
-    <t>教师。教育青少年。需要学校。</t>
+    <t>农夫：种植作物及水果。需要农田或花园。</t>
+  </si>
+  <si>
+    <t>Teacher. Teaches children. School required.</t>
+  </si>
+  <si>
+    <t>教师。教育儿童。需要学校。</t>
   </si>
   <si>
     <t>Herdsman. Cares about cattle. Pasture required.</t>
@@ -942,25 +942,25 @@
     <t>Claydigger: gets clay. Clay mine required.</t>
   </si>
   <si>
-    <t>粘土挖掘工。获取粘土。需要粘土矿。</t>
-  </si>
-  <si>
-    <t>Herbalist: gathers herbs. Herbalist's shop required.</t>
-  </si>
-  <si>
-    <t>药师。采集草药。需要药铺。</t>
+    <t>粘土挖掘工：获取粘土。需要粘土矿。</t>
+  </si>
+  <si>
+    <t>Herbalist: gathers herbs. Herbalist's hut required.</t>
+  </si>
+  <si>
+    <t>药师：采集草药。需要药铺。</t>
   </si>
   <si>
     <t>Healer. Heals villagers from diseases. Healer's shop required.</t>
   </si>
   <si>
-    <t>医生。治愈村民的疾病。需要诊所。</t>
-  </si>
-  <si>
-    <t>Baker. Makes cakes, bread and pies. Bakery required.</t>
-  </si>
-  <si>
-    <t>面包师。制作蛋糕、面包、馅饼。需要面包房。</t>
+    <t>医生：治愈村民的疾病。需要诊所。</t>
+  </si>
+  <si>
+    <t>Baker. Makes bread and pies. Bakery required.</t>
+  </si>
+  <si>
+    <t>面包师。制作面包及馅饼。需要面包房。</t>
   </si>
   <si>
     <t>Baker</t>
@@ -987,10 +987,10 @@
     <t>磨坊工人。把谷物磨成面粉。需要风车。</t>
   </si>
   <si>
-    <t>Kilner. Produces coal from logs. Kiln required.</t>
-  </si>
-  <si>
-    <t>陶工。把木料加工成煤炭。需要烧窑。</t>
+    <t>Kilner. Produces charcoal from logs. Kiln required.</t>
+  </si>
+  <si>
+    <t>陶工。把木料加工成木炭。需要烧窑。</t>
   </si>
   <si>
     <t>Smelter. Produces cast iron. Furnace​ required.</t>
@@ -1498,10 +1498,10 @@
     <t>你将失去目前所有的进度。确定要重新开始吗？</t>
   </si>
   <si>
-    <t>New save game</t>
-  </si>
-  <si>
-    <t>保存新存档</t>
+    <t>New saved game</t>
+  </si>
+  <si>
+    <t>新保存的存档</t>
   </si>
   <si>
     <t>The villager does not have a job</t>
@@ -1558,10 +1558,10 @@
     <t>没有可用的柴火供暖</t>
   </si>
   <si>
-    <t>No water available for drinking</t>
-  </si>
-  <si>
-    <t>饮用水不足</t>
+    <t>No water for animals</t>
+  </si>
+  <si>
+    <t>没有水给动物</t>
   </si>
   <si>
     <t>No food is available</t>
@@ -1732,12 +1732,6 @@
     <t>发现新资源：</t>
   </si>
   <si>
-    <t>Too cold to grow crops.</t>
-  </si>
-  <si>
-    <t>对种庄稼来说太冷了。</t>
-  </si>
-  <si>
     <t>Pause</t>
   </si>
   <si>
@@ -2062,7 +2056,7 @@
     <t>转到事件</t>
   </si>
   <si>
-    <t>Mini map</t>
+    <t>Minimap</t>
   </si>
   <si>
     <t>小地图</t>
@@ -2074,7 +2068,7 @@
     <t>孩子</t>
   </si>
   <si>
-    <t>Do not hesitate to poseess villagers by clicking on their portraits. Use that mode to speed up fileds harvesting, buildings construction, to protect your coops from wild animals or simply just ot wander around aimlessly.</t>
+    <t>Do not hesitate to occupy villagers by clicking on their portraits. Use this mode to speed up the harvesting of fields, buildings construction, to protect your coops from wild animals or simply just ot wander around aimlessly.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -2170,16 +2164,16 @@
     <t>所有的作物和植物会在冬天死亡。在这之前，你会在农田收到警告。如果发生这样的情况，你必须立刻收割成熟的庄稼。</t>
   </si>
   <si>
-    <t>Fish is the most affordable source of food. Fishermen can extract fish during not only in warm seasons but also during winter.</t>
+    <t>Fish is the most affordable source of food. Fishermen can extract fish during not only warm seasons but also during winter.</t>
   </si>
   <si>
     <t>鱼是最实惠的食物来源。渔夫们不但可以在温暖的季节里捕鱼，在寒冷的冬季依然可以。</t>
   </si>
   <si>
-    <t>Coal is much more effective than firewood, but it is more difficult to get. Build a kiln and hire a kilner to produce charcoal from firewood. You can build several kilns to increase charcoal productivity.</t>
-  </si>
-  <si>
-    <t>煤炭比木柴更有效率，但是更难获得。建造一个烧窑并且聘请一个陶工来用木柴生产木炭。你可以建立多个烧窑来提高木炭的生产力。</t>
+    <t>Charcoal is much more effective than firewood, but it is more difficult to get. Build a kiln and hire a kilner to produce charcoal from firewood. You can build several kilns to increase charcoal productivity.</t>
+  </si>
+  <si>
+    <t>木炭比木柴更有效率，但是更难获得。建造一个烧窑并且聘请一个陶工来用木柴生产木炭。你可以建立多个烧窑来提高木炭的生产力。</t>
   </si>
   <si>
     <t>Build houses in the lowlands to avoid a lightning strike. The building will burn if struck by lightning. You must extinguish the fire as soon as you can with water from a well. So you must have at least one well in each settlement.</t>
@@ -2254,7 +2248,7 @@
     <t>你的村民在道路上会走的更快，而不是在泥地或草地上。在建筑物之间修建道路可以节省时间以提高生产力。</t>
   </si>
   <si>
-    <t>You can increase a villagers' productivity if you provide them with tools. A blacksmith makes tools in his blacksmith's shop with the various ingredients.</t>
+    <t>You can increase a villagers' productivity if you provide them with tools. A blacksmith makes tools in his blacksmith's shop with various ingredients.</t>
   </si>
   <si>
     <t>如果你为你的村民提供工具，可以增加他们的生产力。铁匠会在他的铁匠铺里用各种原料制造工具。</t>
@@ -2272,7 +2266,7 @@
     <t>增加人口的唯一途径便是生育。如果你的房子还有空间它将可用。</t>
   </si>
   <si>
-    <t>A fishermen's productivity depends on where they fish. If a lake is large and deep, fishermen will be able to supply the village with fish for a long time. If a lake is shallow and small, they will have to relocate to another fishing hut soon.</t>
+    <t>A fishermen's productivity depends on where they fish. If a lake is large and deep, fishermen will be able to supply the village with fish for a long time. If a lake is shallow and small, they will have to relocate to another fisherman's lodge soon.</t>
   </si>
   <si>
     <t>渔夫的生产力取决于他们捕鱼的地方。如果是一个又大又深的湖，那么渔夫便可以在很长一段时间内为这个村庄提供鱼。如果是一个又小又浅的湖，他们很快便会被迫搬迁至另一个渔人小屋。</t>
@@ -2546,10 +2540,10 @@
     <t>资源上限：</t>
   </si>
   <si>
-    <t>Let your mentor teach teenagers. Educated people work faster and better than uneducated.</t>
-  </si>
-  <si>
-    <t>让你的导师去教导青少年。受过教育的居民比未受教育的工作的更快更好。</t>
+    <t>Let your mentor teach children. Educated people work faster and better than uneducated.</t>
+  </si>
+  <si>
+    <t>让你的导师去教导儿童。受过教育的居民比未受教育的工作的更快更好。</t>
   </si>
   <si>
     <t>Allows you to hire hunters to gather meat and skins, and also defend pastures and people from wild animals.</t>
@@ -2693,10 +2687,10 @@
     <t>房屋内的居民数量</t>
   </si>
   <si>
-    <t>Traveling speed</t>
-  </si>
-  <si>
-    <t>行走速度</t>
+    <t>Movement speed</t>
+  </si>
+  <si>
+    <t>移动速度</t>
   </si>
   <si>
     <t>Flatten the ground area</t>
@@ -2723,19 +2717,19 @@
     <t>塑造一个山丘</t>
   </si>
   <si>
-    <t>Number of idle people</t>
+    <t>Number of idle villagers</t>
   </si>
   <si>
     <t>空闲的居民数量</t>
   </si>
   <si>
-    <t>Number of hungry people</t>
+    <t>Number of hungry villagers</t>
   </si>
   <si>
     <t>饥饿的居民数量</t>
   </si>
   <si>
-    <t>Number of frozen people</t>
+    <t>Number of frozen villagers</t>
   </si>
   <si>
     <t>冻僵的居民数量</t>
@@ -2903,16 +2897,16 @@
     <t>选择闲置或是同类型的牧场</t>
   </si>
   <si>
-    <t>Creating hills</t>
+    <t>Hills creation</t>
   </si>
   <si>
     <t>创造丘陵</t>
   </si>
   <si>
-    <t>Let you create hill or cavity.</t>
-  </si>
-  <si>
-    <t>使你创造丘陵或山洞。</t>
+    <t>Allows you to create hill or cavity.</t>
+  </si>
+  <si>
+    <t>允许你创造丘陵或山洞。</t>
   </si>
   <si>
     <t>Create slope</t>
@@ -2933,10 +2927,10 @@
     <t>面积</t>
   </si>
   <si>
-    <t>Let you dig up or dig down area.</t>
-  </si>
-  <si>
-    <t>使你向上或向下挖掘地区</t>
+    <t>Let you raise or lower an area.</t>
+  </si>
+  <si>
+    <t>使你抬升或降低一个区域</t>
   </si>
   <si>
     <t>Landscape align</t>
@@ -3005,7 +2999,7 @@
     <t>开采矿石。工人数量：%WORKER_COUNT%。</t>
   </si>
   <si>
-    <t>Fish gathering. Number of workers: %WORKER_COUNT%. Action radius: %ACTION_RADIUS%.</t>
+    <t>Fish catching. Number of workers: %WORKER_COUNT%. Action radius: %ACTION_RADIUS%.</t>
   </si>
   <si>
     <t>捕鱼。工人数量：%WORKER_COUNT%。行动半径：%ACTION_RADIUS%。</t>
@@ -3167,7 +3161,7 @@
     <t>熔铁。工人数量：%WORKER_COUNT%。</t>
   </si>
   <si>
-    <t>Coal producing. Number of workers: %WORKER_COUNT%.</t>
+    <t>Charcoal producing. Number of workers: %WORKER_COUNT%.</t>
   </si>
   <si>
     <t>生产木炭。工人数量：%WORKER_COUNT%。</t>
@@ -3179,7 +3173,7 @@
     <t>生产木制工具。工人数量：%WORKER_COUNT%。</t>
   </si>
   <si>
-    <t>Stone gathering. Number of workers: %WORKER_COUNT%.</t>
+    <t>Stone mining. Number of workers: %WORKER_COUNT%.</t>
   </si>
   <si>
     <t>开采石料。工人数量：%WORKER_COUNT%。</t>
@@ -3233,7 +3227,7 @@
     <t>角截面</t>
   </si>
   <si>
-    <t>Tee-section</t>
+    <t>T-section</t>
   </si>
   <si>
     <t>T型截面</t>
@@ -3359,10 +3353,10 @@
     <t>读取存档列表</t>
   </si>
   <si>
-    <t>Start to construct a ship for sending an expedition. Required resources for construction:</t>
-  </si>
-  <si>
-    <t>开始为派遣远征队建造一艘船。建造所需资源：</t>
+    <t>Start construction of a ship for an expedition. Requires resources for construction.</t>
+  </si>
+  <si>
+    <t>开始为远征队建造一艘船。建造所需资源：</t>
   </si>
   <si>
     <t>Start organizing and preparation expedition to be sent. Required materials and provision for journey.</t>
@@ -3383,10 +3377,10 @@
     <t>建造一艘船</t>
   </si>
   <si>
-    <t>Select the expedition purpose and send them. You can select only one purpose.</t>
-  </si>
-  <si>
-    <t>选择一个远征目的地并派遣他们。你只能选择一个目的地。</t>
+    <t>Select the expedition goal and send it. You can select only one goal.</t>
+  </si>
+  <si>
+    <t>选择一个远征目标并派遣他们。你只能选择一个目标。</t>
   </si>
   <si>
     <t>Look out for new trees</t>
@@ -3407,16 +3401,16 @@
     <t>寻找新的动物</t>
   </si>
   <si>
-    <t>Expedition completing</t>
-  </si>
-  <si>
-    <t>远征队正在回归</t>
+    <t>Expedition completion</t>
+  </si>
+  <si>
+    <t>远征完成</t>
   </si>
   <si>
     <t>Time of expedition completing:</t>
   </si>
   <si>
-    <t>远征队回归时间：</t>
+    <t>远征完成时间：</t>
   </si>
   <si>
     <t>You will discover new kinds of resource production in case of success, and you will lose your ship and crew in case of failure.</t>
@@ -3425,7 +3419,7 @@
     <t>顺利的话你会获得新的资源生产种类，失败的话你会失去你的船和船员。</t>
   </si>
   <si>
-    <t>Adverse season</t>
+    <t>Unfavorable season</t>
   </si>
   <si>
     <t>不利的季节</t>
@@ -3436,10 +3430,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3483,6 +3477,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3499,14 +3501,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3519,10 +3514,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3539,22 +3550,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3590,6 +3585,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3598,15 +3600,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3651,91 +3645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3753,7 +3663,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3765,7 +3771,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3777,7 +3795,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3789,31 +3807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3875,10 +3869,75 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3907,81 +3966,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3990,19 +3984,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4011,112 +4005,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4508,8 +4502,8 @@
   <sheetPr/>
   <dimension ref="A1:E706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B679" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A684" workbookViewId="0">
+      <selection activeCell="B706" sqref="B706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -9091,13 +9085,9 @@
       <c r="A375" s="3">
         <v>374</v>
       </c>
-      <c r="B375" s="5" t="s">
-        <v>571</v>
-      </c>
+      <c r="B375" s="5"/>
       <c r="C375" s="3"/>
-      <c r="D375" s="3" t="s">
-        <v>572</v>
-      </c>
+      <c r="D375" s="3"/>
       <c r="E375" s="7"/>
     </row>
     <row r="376" spans="1:5">
@@ -9105,11 +9095,11 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E376" s="7"/>
     </row>
@@ -9118,11 +9108,11 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E377" s="7"/>
     </row>
@@ -9131,11 +9121,11 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C378" s="3"/>
       <c r="D378" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E378" s="7"/>
     </row>
@@ -9144,11 +9134,11 @@
         <v>378</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C379" s="3"/>
       <c r="D379" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E379" s="7"/>
     </row>
@@ -9184,11 +9174,11 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C383" s="3"/>
       <c r="D383" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E383" s="7"/>
     </row>
@@ -9197,11 +9187,11 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E384" s="7"/>
     </row>
@@ -9210,11 +9200,11 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C385" s="3"/>
       <c r="D385" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E385" s="7"/>
     </row>
@@ -9250,11 +9240,11 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C389" s="3"/>
       <c r="D389" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E389" s="7"/>
     </row>
@@ -9272,11 +9262,11 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E391" s="7"/>
     </row>
@@ -9285,11 +9275,11 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E392" s="7"/>
     </row>
@@ -9298,11 +9288,11 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C393" s="3"/>
       <c r="D393" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E393" s="7"/>
     </row>
@@ -9311,11 +9301,11 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C394" s="3"/>
       <c r="D394" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E394" s="7"/>
     </row>
@@ -9324,11 +9314,11 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E395" s="7"/>
     </row>
@@ -9337,11 +9327,11 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C396" s="3"/>
       <c r="D396" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E396" s="7"/>
     </row>
@@ -9350,11 +9340,11 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C397" s="3"/>
       <c r="D397" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E397" s="7"/>
     </row>
@@ -9363,11 +9353,11 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C398" s="3"/>
       <c r="D398" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E398" s="7"/>
     </row>
@@ -9389,7 +9379,7 @@
       </c>
       <c r="C400" s="3"/>
       <c r="D400" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E400" s="7"/>
     </row>
@@ -9398,11 +9388,11 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E401" s="7"/>
     </row>
@@ -9411,11 +9401,11 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C402" s="3"/>
       <c r="D402" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>4</v>
@@ -9426,11 +9416,11 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C403" s="3"/>
       <c r="D403" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E403" s="2"/>
     </row>
@@ -9439,7 +9429,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C404" s="3"/>
       <c r="D404" s="3" t="s">
@@ -9452,11 +9442,11 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C405" s="3"/>
       <c r="D405" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E405" s="2"/>
     </row>
@@ -9483,11 +9473,11 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C408" s="3"/>
       <c r="D408" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E408" s="2"/>
     </row>
@@ -9496,11 +9486,11 @@
         <v>408</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C409" s="3"/>
       <c r="D409" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E409" s="2"/>
     </row>
@@ -9527,11 +9517,11 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C412" s="3"/>
       <c r="D412" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E412" s="2"/>
     </row>
@@ -9540,11 +9530,11 @@
         <v>412</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C413" s="3"/>
       <c r="D413" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E413" s="2"/>
     </row>
@@ -9553,11 +9543,11 @@
         <v>413</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C414" s="3"/>
       <c r="D414" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E414" s="2"/>
     </row>
@@ -9566,11 +9556,11 @@
         <v>414</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C415" s="3"/>
       <c r="D415" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E415" s="2"/>
     </row>
@@ -9579,11 +9569,11 @@
         <v>415</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C416" s="3"/>
       <c r="D416" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E416" s="2"/>
     </row>
@@ -9592,11 +9582,11 @@
         <v>416</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E417" s="2"/>
     </row>
@@ -9614,11 +9604,11 @@
         <v>418</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C419" s="3"/>
       <c r="D419" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E419" s="2"/>
     </row>
@@ -9627,11 +9617,11 @@
         <v>419</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C420" s="3"/>
       <c r="D420" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E420" s="2"/>
     </row>
@@ -9640,11 +9630,11 @@
         <v>420</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E421" s="2"/>
     </row>
@@ -9653,11 +9643,11 @@
         <v>421</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C422" s="3"/>
       <c r="D422" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E422" s="2"/>
     </row>
@@ -9666,11 +9656,11 @@
         <v>422</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C423" s="3"/>
       <c r="D423" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E423" s="2"/>
     </row>
@@ -9679,11 +9669,11 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E424" s="2"/>
     </row>
@@ -9701,13 +9691,13 @@
         <v>425</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C426" s="3">
         <v>222</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E426" s="2"/>
     </row>
@@ -9716,7 +9706,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3" t="s">
@@ -9729,13 +9719,13 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C428" s="3">
         <v>7</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E428" s="2"/>
     </row>
@@ -9744,13 +9734,13 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C429" s="3">
         <v>9</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E429" s="2"/>
     </row>
@@ -9765,11 +9755,11 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E431" s="2"/>
     </row>
@@ -9793,11 +9783,11 @@
         <v>433</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E434" s="2"/>
     </row>
@@ -9806,11 +9796,11 @@
         <v>434</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C435" s="3"/>
       <c r="D435" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E435" s="2"/>
     </row>
@@ -9819,11 +9809,11 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E436" s="2"/>
     </row>
@@ -9832,11 +9822,11 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E437" s="2"/>
     </row>
@@ -9845,11 +9835,11 @@
         <v>437</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E438" s="2"/>
     </row>
@@ -9858,11 +9848,11 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E439" s="2"/>
     </row>
@@ -9871,11 +9861,11 @@
         <v>439</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E440" s="2"/>
     </row>
@@ -9884,11 +9874,11 @@
         <v>440</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E441" s="2"/>
     </row>
@@ -9897,11 +9887,11 @@
         <v>441</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E442" s="2"/>
     </row>
@@ -9910,11 +9900,11 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E443" s="2"/>
     </row>
@@ -9923,11 +9913,11 @@
         <v>443</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E444" s="2"/>
     </row>
@@ -9936,11 +9926,11 @@
         <v>444</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E445" s="2"/>
     </row>
@@ -9958,11 +9948,11 @@
         <v>446</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E447" s="2"/>
     </row>
@@ -9971,11 +9961,11 @@
         <v>447</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E448" s="2"/>
     </row>
@@ -9984,11 +9974,11 @@
         <v>448</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E449" s="2"/>
     </row>
@@ -9997,11 +9987,11 @@
         <v>449</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E450" s="2"/>
     </row>
@@ -10010,11 +10000,11 @@
         <v>450</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E451" s="2"/>
     </row>
@@ -10023,13 +10013,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D452" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="C452" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="D452" s="3" t="s">
-        <v>687</v>
       </c>
       <c r="E452" s="2"/>
     </row>
@@ -10038,11 +10028,11 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E453" s="2"/>
     </row>
@@ -10051,11 +10041,11 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C454" s="3"/>
       <c r="D454" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E454" s="2"/>
     </row>
@@ -10064,11 +10054,11 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C455" s="3"/>
       <c r="D455" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E455" s="2"/>
     </row>
@@ -10077,11 +10067,11 @@
         <v>455</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C456" s="3"/>
       <c r="D456" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E456" s="2"/>
     </row>
@@ -10090,11 +10080,11 @@
         <v>456</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C457" s="3"/>
       <c r="D457" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E457" s="2"/>
     </row>
@@ -10103,11 +10093,11 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C458" s="3"/>
       <c r="D458" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E458" s="2"/>
     </row>
@@ -10116,11 +10106,11 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C459" s="3"/>
       <c r="D459" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E459" s="2"/>
     </row>
@@ -10129,11 +10119,11 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C460" s="3"/>
       <c r="D460" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E460" s="2"/>
     </row>
@@ -10142,11 +10132,11 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C461" s="3"/>
       <c r="D461" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E461" s="2"/>
     </row>
@@ -10155,11 +10145,11 @@
         <v>461</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C462" s="3"/>
       <c r="D462" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E462" s="2"/>
     </row>
@@ -10168,11 +10158,11 @@
         <v>462</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C463" s="3"/>
       <c r="D463" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E463" s="2"/>
     </row>
@@ -10181,7 +10171,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C464" s="3"/>
       <c r="D464" s="3" t="s">
@@ -10194,7 +10184,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C465" s="3"/>
       <c r="D465" s="3" t="s">
@@ -10207,7 +10197,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C466" s="3"/>
       <c r="D466" s="3" t="s">
@@ -10220,7 +10210,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C467" s="3"/>
       <c r="D467" s="3" t="s">
@@ -10233,11 +10223,11 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C468" s="3"/>
       <c r="D468" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E468" s="2"/>
     </row>
@@ -10246,7 +10236,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C469" s="3"/>
       <c r="D469" s="3" t="s">
@@ -10259,13 +10249,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E470" s="2"/>
     </row>
@@ -10274,13 +10264,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E471" s="2"/>
     </row>
@@ -10289,13 +10279,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E472" s="2"/>
     </row>
@@ -10304,13 +10294,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E473" s="2"/>
     </row>
@@ -10319,13 +10309,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E474" s="2"/>
     </row>
@@ -10334,13 +10324,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E475" s="2"/>
     </row>
@@ -10349,13 +10339,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E476" s="2"/>
     </row>
@@ -10364,13 +10354,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E477" s="2"/>
     </row>
@@ -10379,13 +10369,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E478" s="2"/>
     </row>
@@ -10394,13 +10384,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E479" s="2"/>
     </row>
@@ -10409,13 +10399,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E480" s="2"/>
     </row>
@@ -10424,13 +10414,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E481" s="2"/>
     </row>
@@ -10439,13 +10429,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E482" s="2"/>
     </row>
@@ -10454,13 +10444,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E483" s="2"/>
     </row>
@@ -10469,13 +10459,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E484" s="2"/>
     </row>
@@ -10484,13 +10474,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E485" s="2"/>
     </row>
@@ -10499,13 +10489,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E486" s="2"/>
     </row>
@@ -10514,13 +10504,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E487" s="2"/>
     </row>
@@ -10529,13 +10519,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E488" s="2"/>
     </row>
@@ -10544,13 +10534,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E489" s="2"/>
     </row>
@@ -10559,13 +10549,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E490" s="2"/>
     </row>
@@ -10574,13 +10564,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E491" s="2"/>
     </row>
@@ -10589,13 +10579,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E492" s="2"/>
     </row>
@@ -10604,13 +10594,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E493" s="2"/>
     </row>
@@ -10619,13 +10609,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E494" s="2"/>
     </row>
@@ -10634,13 +10624,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E495" s="2"/>
     </row>
@@ -10649,13 +10639,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E496" s="2"/>
     </row>
@@ -10664,13 +10654,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E497" s="2"/>
     </row>
@@ -10679,13 +10669,13 @@
         <v>497</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E498" s="2"/>
     </row>
@@ -10694,13 +10684,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E499" s="2"/>
     </row>
@@ -10709,13 +10699,13 @@
         <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E500" s="2"/>
     </row>
@@ -10724,13 +10714,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E501" s="2"/>
     </row>
@@ -10739,16 +10729,16 @@
         <v>501</v>
       </c>
       <c r="B502" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D502" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="E502" s="11" t="s">
         <v>779</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="D502" s="10" t="s">
-        <v>780</v>
-      </c>
-      <c r="E502" s="11" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -10756,13 +10746,13 @@
         <v>502</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D503" s="10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E503" s="11"/>
     </row>
@@ -10771,11 +10761,11 @@
         <v>503</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C504" s="3"/>
       <c r="D504" s="10" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E504" s="11"/>
     </row>
@@ -10784,11 +10774,11 @@
         <v>504</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C505" s="3"/>
       <c r="D505" s="10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E505" s="11"/>
     </row>
@@ -10797,11 +10787,11 @@
         <v>505</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C506" s="3"/>
       <c r="D506" s="10" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E506" s="11"/>
     </row>
@@ -10810,11 +10800,11 @@
         <v>506</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C507" s="3"/>
       <c r="D507" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E507" s="11"/>
     </row>
@@ -10823,11 +10813,11 @@
         <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C508" s="3"/>
       <c r="D508" s="10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E508" s="11"/>
     </row>
@@ -10836,11 +10826,11 @@
         <v>508</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C509" s="3"/>
       <c r="D509" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E509" s="11"/>
     </row>
@@ -10849,11 +10839,11 @@
         <v>509</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C510" s="3"/>
       <c r="D510" s="10" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E510" s="11"/>
     </row>
@@ -10862,11 +10852,11 @@
         <v>510</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C511" s="3"/>
       <c r="D511" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E511" s="11"/>
     </row>
@@ -10875,11 +10865,11 @@
         <v>511</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C512" s="3"/>
       <c r="D512" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E512" s="11"/>
     </row>
@@ -10888,11 +10878,11 @@
         <v>512</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C513" s="3"/>
       <c r="D513" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E513" s="11"/>
     </row>
@@ -10901,11 +10891,11 @@
         <v>513</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C514" s="3"/>
       <c r="D514" s="10" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E514" s="11"/>
     </row>
@@ -10914,11 +10904,11 @@
         <v>514</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C515" s="3"/>
       <c r="D515" s="10" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E515" s="11"/>
     </row>
@@ -10927,13 +10917,13 @@
         <v>515</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C516" s="3">
         <v>20</v>
       </c>
       <c r="D516" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E516" s="11"/>
     </row>
@@ -10942,13 +10932,13 @@
         <v>516</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C517" s="3">
         <v>20</v>
       </c>
       <c r="D517" s="10" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E517" s="11"/>
     </row>
@@ -10957,13 +10947,13 @@
         <v>517</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C518" s="3">
         <v>20</v>
       </c>
       <c r="D518" s="10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E518" s="11"/>
     </row>
@@ -10972,13 +10962,13 @@
         <v>518</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C519" s="3">
         <v>20</v>
       </c>
       <c r="D519" s="10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E519" s="11"/>
     </row>
@@ -10987,13 +10977,13 @@
         <v>519</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C520" s="3">
         <v>20</v>
       </c>
       <c r="D520" s="10" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E520" s="11"/>
     </row>
@@ -11002,13 +10992,13 @@
         <v>520</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C521" s="3">
         <v>20</v>
       </c>
       <c r="D521" s="10" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E521" s="11"/>
     </row>
@@ -11017,11 +11007,11 @@
         <v>521</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C522" s="3"/>
       <c r="D522" s="10" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E522" s="11"/>
     </row>
@@ -11030,13 +11020,13 @@
         <v>522</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C523" s="3">
         <v>33</v>
       </c>
       <c r="D523" s="10" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E523" s="11"/>
     </row>
@@ -11045,11 +11035,11 @@
         <v>523</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C524" s="3"/>
       <c r="D524" s="10" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E524" s="11"/>
     </row>
@@ -11058,11 +11048,11 @@
         <v>524</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C525" s="3"/>
       <c r="D525" s="10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E525" s="11"/>
     </row>
@@ -11071,11 +11061,11 @@
         <v>525</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C526" s="3"/>
       <c r="D526" s="10" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E526" s="11"/>
     </row>
@@ -11084,11 +11074,11 @@
         <v>526</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C527" s="3"/>
       <c r="D527" s="10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E527" s="11"/>
     </row>
@@ -11097,11 +11087,11 @@
         <v>527</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C528" s="3"/>
       <c r="D528" s="10" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E528" s="11"/>
     </row>
@@ -11110,11 +11100,11 @@
         <v>528</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C529" s="3"/>
       <c r="D529" s="10" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E529" s="11"/>
     </row>
@@ -11141,11 +11131,11 @@
         <v>531</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C532" s="3"/>
       <c r="D532" s="10" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E532" s="11"/>
     </row>
@@ -11163,11 +11153,11 @@
         <v>533</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C534" s="3"/>
       <c r="D534" s="10" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E534" s="11"/>
     </row>
@@ -11176,13 +11166,13 @@
         <v>534</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C535" s="3">
         <v>16</v>
       </c>
       <c r="D535" s="10" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E535" s="11"/>
     </row>
@@ -11191,13 +11181,13 @@
         <v>535</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C536" s="3">
         <v>222</v>
       </c>
       <c r="D536" s="10" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E536" s="11"/>
     </row>
@@ -11206,13 +11196,13 @@
         <v>536</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C537" s="3">
         <v>222</v>
       </c>
       <c r="D537" s="10" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E537" s="11"/>
     </row>
@@ -11221,13 +11211,13 @@
         <v>537</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C538" s="3">
         <v>222</v>
       </c>
       <c r="D538" s="10" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E538" s="11"/>
     </row>
@@ -11236,13 +11226,13 @@
         <v>538</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C539" s="3">
         <v>222</v>
       </c>
       <c r="D539" s="10" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E539" s="11"/>
     </row>
@@ -11251,13 +11241,13 @@
         <v>539</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C540" s="3">
         <v>222</v>
       </c>
       <c r="D540" s="10" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E540" s="11"/>
     </row>
@@ -11266,13 +11256,13 @@
         <v>540</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C541" s="3">
         <v>222</v>
       </c>
       <c r="D541" s="10" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E541" s="11"/>
     </row>
@@ -11281,11 +11271,11 @@
         <v>541</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C542" s="3"/>
       <c r="D542" s="10" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E542" s="11"/>
     </row>
@@ -11294,13 +11284,13 @@
         <v>542</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C543" s="3">
         <v>28</v>
       </c>
       <c r="D543" s="10" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E543" s="11"/>
     </row>
@@ -11309,13 +11299,13 @@
         <v>543</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C544" s="3">
         <v>30</v>
       </c>
       <c r="D544" s="10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E544" s="11"/>
     </row>
@@ -11324,13 +11314,13 @@
         <v>544</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C545" s="3">
         <v>30</v>
       </c>
       <c r="D545" s="10" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E545" s="11"/>
     </row>
@@ -11339,13 +11329,13 @@
         <v>545</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C546" s="3">
         <v>30</v>
       </c>
       <c r="D546" s="10" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E546" s="11"/>
     </row>
@@ -11354,11 +11344,11 @@
         <v>546</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C547" s="3"/>
       <c r="D547" s="10" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E547" s="11"/>
     </row>
@@ -11367,11 +11357,11 @@
         <v>547</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C548" s="3"/>
       <c r="D548" s="10" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E548" s="11"/>
     </row>
@@ -11380,11 +11370,11 @@
         <v>548</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C549" s="3"/>
       <c r="D549" s="10" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E549" s="11"/>
     </row>
@@ -11393,11 +11383,11 @@
         <v>549</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C550" s="3"/>
       <c r="D550" s="10" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E550" s="11"/>
     </row>
@@ -11406,11 +11396,11 @@
         <v>550</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C551" s="3"/>
       <c r="D551" s="10" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E551" s="11"/>
     </row>
@@ -11419,7 +11409,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C552" s="3"/>
       <c r="D552" s="10" t="s">
@@ -11432,11 +11422,11 @@
         <v>552</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C553" s="3"/>
       <c r="D553" s="10" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E553" s="11"/>
     </row>
@@ -11445,11 +11435,11 @@
         <v>553</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C554" s="3"/>
       <c r="D554" s="10" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E554" s="11"/>
     </row>
@@ -11458,11 +11448,11 @@
         <v>554</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C555" s="3"/>
       <c r="D555" s="10" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E555" s="11"/>
     </row>
@@ -11471,11 +11461,11 @@
         <v>555</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C556" s="3"/>
       <c r="D556" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E556" s="11"/>
     </row>
@@ -11484,11 +11474,11 @@
         <v>556</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C557" s="3"/>
       <c r="D557" s="10" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E557" s="11"/>
     </row>
@@ -11497,11 +11487,11 @@
         <v>557</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C558" s="3"/>
       <c r="D558" s="10" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E558" s="11"/>
     </row>
@@ -11510,11 +11500,11 @@
         <v>558</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C559" s="3"/>
       <c r="D559" s="10" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E559" s="11"/>
     </row>
@@ -11523,11 +11513,11 @@
         <v>559</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C560" s="3"/>
       <c r="D560" s="10" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E560" s="11"/>
     </row>
@@ -11536,11 +11526,11 @@
         <v>560</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C561" s="3"/>
       <c r="D561" s="10" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E561" s="11"/>
     </row>
@@ -11549,11 +11539,11 @@
         <v>561</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C562" s="3"/>
       <c r="D562" s="10" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E562" s="11"/>
     </row>
@@ -11562,11 +11552,11 @@
         <v>562</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C563" s="3"/>
       <c r="D563" s="10" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E563" s="11"/>
     </row>
@@ -11575,11 +11565,11 @@
         <v>563</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C564" s="3"/>
       <c r="D564" s="10" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E564" s="11"/>
     </row>
@@ -11588,11 +11578,11 @@
         <v>564</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C565" s="3"/>
       <c r="D565" s="10" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E565" s="11"/>
     </row>
@@ -11601,11 +11591,11 @@
         <v>565</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="10" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E566" s="11"/>
     </row>
@@ -11614,11 +11604,11 @@
         <v>566</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C567" s="3"/>
       <c r="D567" s="10" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E567" s="11"/>
     </row>
@@ -11627,11 +11617,11 @@
         <v>567</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C568" s="3"/>
       <c r="D568" s="10" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E568" s="11"/>
     </row>
@@ -11649,11 +11639,11 @@
         <v>569</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C570" s="3"/>
       <c r="D570" s="10" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E570" s="11"/>
     </row>
@@ -11662,11 +11652,11 @@
         <v>570</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C571" s="3"/>
       <c r="D571" s="10" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E571" s="11"/>
     </row>
@@ -11675,11 +11665,11 @@
         <v>571</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C572" s="3"/>
       <c r="D572" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E572" s="11"/>
     </row>
@@ -11688,11 +11678,11 @@
         <v>572</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C573" s="3"/>
       <c r="D573" s="10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E573" s="11"/>
     </row>
@@ -11701,11 +11691,11 @@
         <v>573</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C574" s="3"/>
       <c r="D574" s="10" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E574" s="11"/>
     </row>
@@ -11732,11 +11722,11 @@
         <v>576</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C577" s="3"/>
       <c r="D577" s="10" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E577" s="11"/>
     </row>
@@ -11745,11 +11735,11 @@
         <v>577</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C578" s="3"/>
       <c r="D578" s="10" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E578" s="11"/>
     </row>
@@ -11758,11 +11748,11 @@
         <v>578</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C579" s="3"/>
       <c r="D579" s="10" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E579" s="11"/>
     </row>
@@ -11771,11 +11761,11 @@
         <v>579</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C580" s="3"/>
       <c r="D580" s="10" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E580" s="11"/>
     </row>
@@ -11784,11 +11774,11 @@
         <v>580</v>
       </c>
       <c r="B581" s="13" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C581" s="14"/>
       <c r="D581" s="14" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>4</v>
@@ -11808,11 +11798,11 @@
         <v>582</v>
       </c>
       <c r="B583" s="13" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C583" s="14"/>
       <c r="D583" s="14" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E583" s="2"/>
     </row>
@@ -11821,11 +11811,11 @@
         <v>583</v>
       </c>
       <c r="B584" s="16" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C584" s="17"/>
       <c r="D584" s="17" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E584" s="2"/>
     </row>
@@ -11834,11 +11824,11 @@
         <v>584</v>
       </c>
       <c r="B585" s="13" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C585" s="14"/>
       <c r="D585" s="14" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E585" s="2"/>
     </row>
@@ -11847,11 +11837,11 @@
         <v>585</v>
       </c>
       <c r="B586" s="16" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C586" s="17"/>
       <c r="D586" s="17" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E586" s="2"/>
     </row>
@@ -11860,11 +11850,11 @@
         <v>586</v>
       </c>
       <c r="B587" s="13" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C587" s="14"/>
       <c r="D587" s="14" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E587" s="2"/>
     </row>
@@ -11873,11 +11863,11 @@
         <v>587</v>
       </c>
       <c r="B588" s="16" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C588" s="17"/>
       <c r="D588" s="17" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E588" s="2"/>
     </row>
@@ -11886,11 +11876,11 @@
         <v>588</v>
       </c>
       <c r="B589" s="13" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C589" s="14"/>
       <c r="D589" s="14" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E589" s="2"/>
     </row>
@@ -11899,11 +11889,11 @@
         <v>589</v>
       </c>
       <c r="B590" s="16" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C590" s="17"/>
       <c r="D590" s="17" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E590" s="2"/>
     </row>
@@ -11912,11 +11902,11 @@
         <v>590</v>
       </c>
       <c r="B591" s="13" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C591" s="14"/>
       <c r="D591" s="14" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E591" s="2"/>
     </row>
@@ -11925,11 +11915,11 @@
         <v>591</v>
       </c>
       <c r="B592" s="16" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C592" s="17"/>
       <c r="D592" s="17" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E592" s="2"/>
     </row>
@@ -11938,11 +11928,11 @@
         <v>592</v>
       </c>
       <c r="B593" s="13" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C593" s="14"/>
       <c r="D593" s="14" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E593" s="2"/>
     </row>
@@ -11951,11 +11941,11 @@
         <v>593</v>
       </c>
       <c r="B594" s="16" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C594" s="17"/>
       <c r="D594" s="17" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E594" s="2"/>
     </row>
@@ -11964,11 +11954,11 @@
         <v>594</v>
       </c>
       <c r="B595" s="13" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C595" s="14"/>
       <c r="D595" s="14" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E595" s="2"/>
     </row>
@@ -11977,11 +11967,11 @@
         <v>595</v>
       </c>
       <c r="B596" s="16" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C596" s="17"/>
       <c r="D596" s="17" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E596" s="2"/>
     </row>
@@ -11990,11 +11980,11 @@
         <v>596</v>
       </c>
       <c r="B597" s="13" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C597" s="14"/>
       <c r="D597" s="14" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E597" s="2"/>
     </row>
@@ -12003,11 +11993,11 @@
         <v>597</v>
       </c>
       <c r="B598" s="16" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C598" s="17"/>
       <c r="D598" s="17" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E598" s="2"/>
     </row>
@@ -12025,11 +12015,11 @@
         <v>599</v>
       </c>
       <c r="B600" s="16" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C600" s="17"/>
       <c r="D600" s="17" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E600" s="2"/>
     </row>
@@ -12038,11 +12028,11 @@
         <v>600</v>
       </c>
       <c r="B601" s="13" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C601" s="14"/>
       <c r="D601" s="14" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E601" s="2"/>
     </row>
@@ -12051,11 +12041,11 @@
         <v>601</v>
       </c>
       <c r="B602" s="16" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C602" s="17"/>
       <c r="D602" s="17" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E602" s="2"/>
     </row>
@@ -12064,11 +12054,11 @@
         <v>602</v>
       </c>
       <c r="B603" s="13" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C603" s="14"/>
       <c r="D603" s="14" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E603" s="2"/>
     </row>
@@ -12077,11 +12067,11 @@
         <v>603</v>
       </c>
       <c r="B604" s="16" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C604" s="17"/>
       <c r="D604" s="17" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E604" s="2"/>
     </row>
@@ -12090,11 +12080,11 @@
         <v>604</v>
       </c>
       <c r="B605" s="13" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C605" s="14"/>
       <c r="D605" s="14" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E605" s="2"/>
     </row>
@@ -12103,11 +12093,11 @@
         <v>605</v>
       </c>
       <c r="B606" s="16" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C606" s="17"/>
       <c r="D606" s="17" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E606" s="2"/>
     </row>
@@ -12116,11 +12106,11 @@
         <v>606</v>
       </c>
       <c r="B607" s="13" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C607" s="14"/>
       <c r="D607" s="14" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E607" s="2"/>
     </row>
@@ -12129,11 +12119,11 @@
         <v>607</v>
       </c>
       <c r="B608" s="16" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C608" s="17"/>
       <c r="D608" s="17" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E608" s="2"/>
     </row>
@@ -12142,13 +12132,13 @@
         <v>608</v>
       </c>
       <c r="B609" s="13" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C609" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D609" s="14" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E609" s="2"/>
     </row>
@@ -12157,13 +12147,13 @@
         <v>609</v>
       </c>
       <c r="B610" s="16" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C610" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D610" s="14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E610" s="2"/>
     </row>
@@ -12172,13 +12162,13 @@
         <v>610</v>
       </c>
       <c r="B611" s="13" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C611" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D611" s="14" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E611" s="2"/>
     </row>
@@ -12187,13 +12177,13 @@
         <v>611</v>
       </c>
       <c r="B612" s="16" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C612" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D612" s="14" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E612" s="2"/>
     </row>
@@ -12202,13 +12192,13 @@
         <v>612</v>
       </c>
       <c r="B613" s="13" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C613" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D613" s="14" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E613" s="2"/>
     </row>
@@ -12235,13 +12225,13 @@
         <v>615</v>
       </c>
       <c r="B616" s="16" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C616" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D616" s="14" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E616" s="2"/>
     </row>
@@ -12250,13 +12240,13 @@
         <v>616</v>
       </c>
       <c r="B617" s="13" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C617" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D617" s="14" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E617" s="2"/>
     </row>
@@ -12265,11 +12255,11 @@
         <v>617</v>
       </c>
       <c r="B618" s="16" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C618" s="17"/>
       <c r="D618" s="17" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E618" s="2"/>
     </row>
@@ -12278,11 +12268,11 @@
         <v>618</v>
       </c>
       <c r="B619" s="13" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C619" s="14"/>
       <c r="D619" s="17" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E619" s="2"/>
     </row>
@@ -12300,13 +12290,13 @@
         <v>620</v>
       </c>
       <c r="B621" s="13" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C621" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D621" s="14" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E621" s="2"/>
     </row>
@@ -12315,13 +12305,13 @@
         <v>621</v>
       </c>
       <c r="B622" s="16" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C622" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D622" s="17" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E622" s="2"/>
     </row>
@@ -12330,13 +12320,13 @@
         <v>622</v>
       </c>
       <c r="B623" s="18" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C623" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D623" s="14" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E623" s="2"/>
     </row>
@@ -12345,13 +12335,13 @@
         <v>623</v>
       </c>
       <c r="B624" s="16" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C624" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D624" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E624" s="2"/>
     </row>
@@ -12360,13 +12350,13 @@
         <v>624</v>
       </c>
       <c r="B625" s="13" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C625" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D625" s="14" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E625" s="2"/>
     </row>
@@ -12375,13 +12365,13 @@
         <v>625</v>
       </c>
       <c r="B626" s="19" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C626" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D626" s="17" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E626" s="2"/>
     </row>
@@ -12390,13 +12380,13 @@
         <v>626</v>
       </c>
       <c r="B627" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C627" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D627" s="14" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E627" s="2"/>
     </row>
@@ -12405,13 +12395,13 @@
         <v>627</v>
       </c>
       <c r="B628" s="19" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C628" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D628" s="17" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E628" s="2"/>
     </row>
@@ -12420,11 +12410,11 @@
         <v>628</v>
       </c>
       <c r="B629" s="18" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C629" s="14"/>
       <c r="D629" s="14" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E629" s="2"/>
     </row>
@@ -12433,11 +12423,11 @@
         <v>629</v>
       </c>
       <c r="B630" s="19" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C630" s="17"/>
       <c r="D630" s="17" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E630" s="2"/>
     </row>
@@ -12446,11 +12436,11 @@
         <v>630</v>
       </c>
       <c r="B631" s="18" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C631" s="14"/>
       <c r="D631" s="14" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E631" s="2"/>
     </row>
@@ -12459,13 +12449,13 @@
         <v>631</v>
       </c>
       <c r="B632" s="19" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C632" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D632" s="17" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E632" s="2"/>
     </row>
@@ -12483,13 +12473,13 @@
         <v>633</v>
       </c>
       <c r="B634" s="19" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C634" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D634" s="17" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E634" s="2"/>
     </row>
@@ -12498,13 +12488,13 @@
         <v>634</v>
       </c>
       <c r="B635" s="18" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C635" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D635" s="14" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E635" s="2"/>
     </row>
@@ -12513,13 +12503,13 @@
         <v>635</v>
       </c>
       <c r="B636" s="19" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C636" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D636" s="17" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E636" s="2"/>
     </row>
@@ -12528,13 +12518,13 @@
         <v>636</v>
       </c>
       <c r="B637" s="18" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C637" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D637" s="14" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E637" s="2"/>
     </row>
@@ -12543,13 +12533,13 @@
         <v>637</v>
       </c>
       <c r="B638" s="19" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C638" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D638" s="17" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E638" s="2"/>
     </row>
@@ -12558,13 +12548,13 @@
         <v>638</v>
       </c>
       <c r="B639" s="18" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C639" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D639" s="17" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E639" s="2"/>
     </row>
@@ -12573,13 +12563,13 @@
         <v>639</v>
       </c>
       <c r="B640" s="19" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C640" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D640" s="17" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E640" s="2"/>
     </row>
@@ -12588,13 +12578,13 @@
         <v>640</v>
       </c>
       <c r="B641" s="18" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C641" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D641" s="14" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E641" s="2"/>
     </row>
@@ -12603,11 +12593,11 @@
         <v>641</v>
       </c>
       <c r="B642" s="19" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C642" s="17"/>
       <c r="D642" s="17" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E642" s="2"/>
     </row>
@@ -12616,11 +12606,11 @@
         <v>642</v>
       </c>
       <c r="B643" s="18" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C643" s="14"/>
       <c r="D643" s="14" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E643" s="2"/>
     </row>
@@ -12629,13 +12619,13 @@
         <v>643</v>
       </c>
       <c r="B644" s="19" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C644" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D644" s="17" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E644" s="2"/>
     </row>
@@ -12644,13 +12634,13 @@
         <v>644</v>
       </c>
       <c r="B645" s="18" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C645" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D645" s="14" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E645" s="2"/>
     </row>
@@ -12659,11 +12649,11 @@
         <v>645</v>
       </c>
       <c r="B646" s="19" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C646" s="17"/>
       <c r="D646" s="17" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E646" s="2"/>
     </row>
@@ -12672,11 +12662,11 @@
         <v>646</v>
       </c>
       <c r="B647" s="18" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C647" s="14"/>
       <c r="D647" s="14" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E647" s="2"/>
     </row>
@@ -12685,11 +12675,11 @@
         <v>647</v>
       </c>
       <c r="B648" s="19" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C648" s="17"/>
       <c r="D648" s="17" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E648" s="2"/>
     </row>
@@ -12698,11 +12688,11 @@
         <v>648</v>
       </c>
       <c r="B649" s="18" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C649" s="14"/>
       <c r="D649" s="14" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E649" s="2"/>
     </row>
@@ -12711,11 +12701,11 @@
         <v>649</v>
       </c>
       <c r="B650" s="19" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C650" s="17"/>
       <c r="D650" s="17" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E650" s="2"/>
     </row>
@@ -12724,11 +12714,11 @@
         <v>650</v>
       </c>
       <c r="B651" s="18" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C651" s="14"/>
       <c r="D651" s="14" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E651" s="2"/>
     </row>
@@ -12782,11 +12772,11 @@
         <v>656</v>
       </c>
       <c r="B657" s="18" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C657" s="14"/>
       <c r="D657" s="14" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E657" s="2"/>
     </row>
@@ -12795,11 +12785,11 @@
         <v>657</v>
       </c>
       <c r="B658" s="19" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C658" s="17"/>
       <c r="D658" s="17" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E658" s="2"/>
     </row>
@@ -12808,11 +12798,11 @@
         <v>658</v>
       </c>
       <c r="B659" s="18" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C659" s="14"/>
       <c r="D659" s="14" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E659" s="2"/>
     </row>
@@ -12821,11 +12811,11 @@
         <v>659</v>
       </c>
       <c r="B660" s="19" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C660" s="17"/>
       <c r="D660" s="17" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E660" s="2"/>
     </row>
@@ -12834,11 +12824,11 @@
         <v>660</v>
       </c>
       <c r="B661" s="18" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C661" s="14"/>
       <c r="D661" s="14" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E661" s="2"/>
     </row>
@@ -12847,11 +12837,11 @@
         <v>661</v>
       </c>
       <c r="B662" s="19" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C662" s="17"/>
       <c r="D662" s="17" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E662" s="2"/>
     </row>
@@ -12860,11 +12850,11 @@
         <v>662</v>
       </c>
       <c r="B663" s="18" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C663" s="14"/>
       <c r="D663" s="14" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E663" s="2"/>
     </row>
@@ -12891,11 +12881,11 @@
         <v>665</v>
       </c>
       <c r="B666" s="19" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C666" s="17"/>
       <c r="D666" s="17" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E666" s="2"/>
     </row>
@@ -12904,11 +12894,11 @@
         <v>666</v>
       </c>
       <c r="B667" s="18" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C667" s="14"/>
       <c r="D667" s="14" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E667" s="2"/>
     </row>
@@ -12917,11 +12907,11 @@
         <v>667</v>
       </c>
       <c r="B668" s="19" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C668" s="17"/>
       <c r="D668" s="17" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E668" s="2"/>
     </row>
@@ -12957,11 +12947,11 @@
         <v>671</v>
       </c>
       <c r="B672" s="19" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C672" s="17"/>
       <c r="D672" s="17" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E672" s="2"/>
     </row>
@@ -12970,11 +12960,11 @@
         <v>672</v>
       </c>
       <c r="B673" s="18" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C673" s="14"/>
       <c r="D673" s="14" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E673" s="2"/>
     </row>
@@ -12983,11 +12973,11 @@
         <v>673</v>
       </c>
       <c r="B674" s="19" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C674" s="17"/>
       <c r="D674" s="17" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E674" s="2"/>
     </row>
@@ -12996,11 +12986,11 @@
         <v>674</v>
       </c>
       <c r="B675" s="18" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C675" s="14"/>
       <c r="D675" s="14" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E675" s="2"/>
     </row>
@@ -13009,11 +12999,11 @@
         <v>675</v>
       </c>
       <c r="B676" s="19" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C676" s="17"/>
       <c r="D676" s="17" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E676" s="2"/>
     </row>
@@ -13022,11 +13012,11 @@
         <v>676</v>
       </c>
       <c r="B677" s="18" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C677" s="14"/>
       <c r="D677" s="14" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E677" s="2"/>
     </row>
@@ -13035,11 +13025,11 @@
         <v>677</v>
       </c>
       <c r="B678" s="19" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C678" s="17"/>
       <c r="D678" s="17" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E678" s="2"/>
     </row>
@@ -13048,11 +13038,11 @@
         <v>678</v>
       </c>
       <c r="B679" s="18" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C679" s="14"/>
       <c r="D679" s="14" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E679" s="2"/>
     </row>
@@ -13061,11 +13051,11 @@
         <v>679</v>
       </c>
       <c r="B680" s="19" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C680" s="17"/>
       <c r="D680" s="17" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E680" s="2"/>
     </row>
@@ -13074,11 +13064,11 @@
         <v>680</v>
       </c>
       <c r="B681" s="18" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C681" s="14"/>
       <c r="D681" s="14" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E681" s="2"/>
     </row>
@@ -13087,11 +13077,11 @@
         <v>681</v>
       </c>
       <c r="B682" s="19" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C682" s="17"/>
       <c r="D682" s="17" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E682" s="2"/>
     </row>
@@ -13100,11 +13090,11 @@
         <v>682</v>
       </c>
       <c r="B683" s="18" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C683" s="14"/>
       <c r="D683" s="14" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E683" s="2"/>
     </row>
@@ -13113,11 +13103,11 @@
         <v>683</v>
       </c>
       <c r="B684" s="20" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C684" s="20"/>
       <c r="D684" s="20" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E684" s="2"/>
     </row>
@@ -13135,11 +13125,11 @@
         <v>685</v>
       </c>
       <c r="B686" s="20" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C686" s="20"/>
       <c r="D686" s="20" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E686" s="2"/>
     </row>
@@ -13148,11 +13138,11 @@
         <v>686</v>
       </c>
       <c r="B687" s="21" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C687" s="21"/>
       <c r="D687" s="21" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E687" s="2"/>
     </row>
@@ -13161,11 +13151,11 @@
         <v>687</v>
       </c>
       <c r="B688" s="20" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C688" s="20"/>
       <c r="D688" s="20" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E688" s="2"/>
     </row>
@@ -13174,11 +13164,11 @@
         <v>688</v>
       </c>
       <c r="B689" s="21" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C689" s="21"/>
       <c r="D689" s="21" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E689" s="2"/>
     </row>
@@ -13196,11 +13186,11 @@
         <v>690</v>
       </c>
       <c r="B691" s="21" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C691" s="21"/>
       <c r="D691" s="21" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E691" s="2"/>
     </row>
@@ -13209,11 +13199,11 @@
         <v>691</v>
       </c>
       <c r="B692" s="20" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C692" s="20"/>
       <c r="D692" s="20" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E692" s="2"/>
     </row>
@@ -13240,11 +13230,11 @@
         <v>694</v>
       </c>
       <c r="B695" s="21" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C695" s="21"/>
       <c r="D695" s="21" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E695" s="2"/>
     </row>
@@ -13253,11 +13243,11 @@
         <v>695</v>
       </c>
       <c r="B696" s="20" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C696" s="20"/>
       <c r="D696" s="20" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E696" s="2"/>
     </row>
@@ -13266,11 +13256,11 @@
         <v>696</v>
       </c>
       <c r="B697" s="21" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C697" s="21"/>
       <c r="D697" s="21" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E697" s="2"/>
     </row>
@@ -13279,11 +13269,11 @@
         <v>697</v>
       </c>
       <c r="B698" s="20" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C698" s="20"/>
       <c r="D698" s="20" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E698" s="2"/>
     </row>
@@ -13292,11 +13282,11 @@
         <v>698</v>
       </c>
       <c r="B699" s="21" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C699" s="21"/>
       <c r="D699" s="21" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E699" s="2"/>
     </row>
@@ -13305,11 +13295,11 @@
         <v>699</v>
       </c>
       <c r="B700" s="20" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C700" s="20"/>
       <c r="D700" s="20" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E700" s="2"/>
     </row>
@@ -13318,11 +13308,11 @@
         <v>700</v>
       </c>
       <c r="B701" s="21" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C701" s="21"/>
       <c r="D701" s="21" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E701" s="2"/>
     </row>
@@ -13331,11 +13321,11 @@
         <v>701</v>
       </c>
       <c r="B702" s="20" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C702" s="20"/>
       <c r="D702" s="20" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E702" s="2"/>
     </row>
@@ -13344,11 +13334,11 @@
         <v>702</v>
       </c>
       <c r="B703" s="21" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C703" s="21"/>
       <c r="D703" s="21" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E703" s="2"/>
     </row>
@@ -13357,11 +13347,11 @@
         <v>703</v>
       </c>
       <c r="B704" s="20" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C704" s="20"/>
       <c r="D704" s="20" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E704" s="2"/>
     </row>
@@ -13370,11 +13360,11 @@
         <v>704</v>
       </c>
       <c r="B705" s="21" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C705" s="21"/>
       <c r="D705" s="21" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E705" s="2"/>
     </row>
@@ -13383,11 +13373,11 @@
         <v>705</v>
       </c>
       <c r="B706" s="20" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C706" s="20"/>
       <c r="D706" s="20" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E706" s="2"/>
     </row>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="zh-cn" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134">
   <si>
     <t>ID</t>
   </si>
@@ -264,7 +264,7 @@
     <t>Light clothing</t>
   </si>
   <si>
-    <t>轻便的衣物</t>
+    <t>简陋的衣物</t>
   </si>
   <si>
     <t>Low-quality tools</t>
@@ -348,7 +348,7 @@
     <t>Ore mine</t>
   </si>
   <si>
-    <t>矿山</t>
+    <t>矿洞</t>
   </si>
   <si>
     <t>Clay mine</t>
@@ -372,7 +372,7 @@
     <t>Herbalist's hut</t>
   </si>
   <si>
-    <t>药师小屋</t>
+    <t>炼金小屋</t>
   </si>
   <si>
     <t>Fisherman's lodge</t>
@@ -492,7 +492,7 @@
     <t>Click on a building to deconstruct</t>
   </si>
   <si>
-    <t>点击一个建筑物来拆除</t>
+    <t>拆除建筑</t>
   </si>
   <si>
     <t>Building priority</t>
@@ -606,7 +606,7 @@
     <t>Pause or resume work</t>
   </si>
   <si>
-    <t>暂停或恢复工作</t>
+    <t>暂停或继续工作</t>
   </si>
   <si>
     <t>Number of people working in the building</t>
@@ -762,13 +762,13 @@
     <t>Forester</t>
   </si>
   <si>
-    <t>护林员</t>
+    <t>守林人</t>
   </si>
   <si>
     <t>Builder</t>
   </si>
   <si>
-    <t>建筑师</t>
+    <t>建筑工</t>
   </si>
   <si>
     <t>Laborer</t>
@@ -858,85 +858,85 @@
     <t>Stonemason. Gets stone. Stone quarry required.</t>
   </si>
   <si>
-    <t>石工。获取石头。需要采石场。</t>
+    <t>石工：获取石头。需要采石场。</t>
   </si>
   <si>
     <t>Miner. Gets ore. Ore mine required.</t>
   </si>
   <si>
-    <t>矿工。获取矿石。需要矿山。</t>
+    <t>矿工：获取矿石。需要矿洞。</t>
   </si>
   <si>
     <t>Fisherman. Catches fish. Fisherman's lodge required.</t>
   </si>
   <si>
-    <t>渔夫。捕鱼。需要渔人小屋。</t>
+    <t>渔夫：捕鱼。需要渔人小屋。</t>
   </si>
   <si>
     <t>Lumberjack. Cuts logs for firewood. Lumberjack's lodge required.</t>
   </si>
   <si>
-    <t>伐木工人。劈柴。需要伐木小屋。</t>
+    <t>伐木工人：劈柴。需要伐木小屋。</t>
   </si>
   <si>
     <t>Blacksmith. Manufactures tools. Blacksmith's shop required.</t>
   </si>
   <si>
-    <t>铁匠。生产工具。需要铁匠铺。</t>
+    <t>铁匠：生产工具。需要铁匠铺。</t>
   </si>
   <si>
     <t>Forester. Cuts and plants trees. Forester's lodge required.</t>
   </si>
   <si>
-    <t>护林员。砍树及种树。需要森林小屋。</t>
+    <t>守林人：砍树及种树。需要森林小屋。</t>
   </si>
   <si>
     <t>Builder. Constructs buildings and prepares resources.</t>
   </si>
   <si>
-    <t>建筑师。建造建筑物及准备资源。</t>
+    <t>建筑工：建造建筑物及准备资源。</t>
   </si>
   <si>
     <t>Laborer. Collects resources from land.</t>
   </si>
   <si>
-    <t>工人。从地上收集资源。</t>
+    <t>工人：从地上收集资源。</t>
   </si>
   <si>
     <t>Hunter. Hunts for wild animals. Hunter's lodge is required.</t>
   </si>
   <si>
-    <t>猎人。捕杀野生动物。需要猎人小屋。</t>
+    <t>猎人：捕杀野生动物。需要猎人小屋。</t>
   </si>
   <si>
     <t>Gatherer. Gathers plants. Gatherer's hut required.</t>
   </si>
   <si>
-    <t>采集者。采集植物。需要采集者小屋。</t>
+    <t>采集者：采集植物。需要采集者小屋。</t>
   </si>
   <si>
     <t>Farmer: grows crops and fruits. Fields or gardens required.</t>
   </si>
   <si>
-    <t>农夫：种植作物及水果。需要农田或花园。</t>
+    <t>农夫：种植作物及水果。需要农田或果园。</t>
   </si>
   <si>
     <t>Teacher. Teaches children. School required.</t>
   </si>
   <si>
-    <t>教师。教育儿童。需要学校。</t>
+    <t>教师：教育儿童。需要学校。</t>
   </si>
   <si>
     <t>Herdsman. Cares about cattle. Pasture required.</t>
   </si>
   <si>
-    <t>牧民。照料牲口。需要牧场。</t>
+    <t>牧民：照料牲口。需要牧场。</t>
   </si>
   <si>
     <t>Tailor. Sews clothing. Weaver's workshop required.</t>
   </si>
   <si>
-    <t>裁缝。缝制衣物。需要纺织工坊。</t>
+    <t>裁缝：缝制衣物。需要纺织工坊。</t>
   </si>
   <si>
     <t>Claydigger: gets clay. Clay mine required.</t>
@@ -948,7 +948,7 @@
     <t>Herbalist: gathers herbs. Herbalist's hut required.</t>
   </si>
   <si>
-    <t>药师：采集草药。需要药铺。</t>
+    <t>药师：采集草药。需要炼金小屋。</t>
   </si>
   <si>
     <t>Healer. Heals villagers from diseases. Healer's shop required.</t>
@@ -960,7 +960,7 @@
     <t>Baker. Makes bread and pies. Bakery required.</t>
   </si>
   <si>
-    <t>面包师。制作面包及馅饼。需要面包房。</t>
+    <t>面包师：制作面包及馅饼。需要面包房。</t>
   </si>
   <si>
     <t>Baker</t>
@@ -972,7 +972,7 @@
     <t>Innkeeper. Makes alcohol. Tavern required.</t>
   </si>
   <si>
-    <t>酒馆老板。酿酒。需要酒馆。</t>
+    <t>酒馆老板：酿酒。需要酒馆。</t>
   </si>
   <si>
     <t>Innkeeper</t>
@@ -984,25 +984,25 @@
     <t>Miller. Makes flour from grain. Windmill required.</t>
   </si>
   <si>
-    <t>磨坊工人。把谷物磨成面粉。需要风车。</t>
+    <t>磨坊工人：把谷物磨成面粉。需要风车。</t>
   </si>
   <si>
     <t>Kilner. Produces charcoal from logs. Kiln required.</t>
   </si>
   <si>
-    <t>陶工。把木料加工成木炭。需要烧窑。</t>
+    <t>陶工：把木料加工成木炭。需要烧窑。</t>
   </si>
   <si>
     <t>Smelter. Produces cast iron. Furnace​ required.</t>
   </si>
   <si>
-    <t>熔炼工人。生产铸铁。需要熔炉。</t>
+    <t>熔炼工人：生产铸铁。需要熔炉。</t>
   </si>
   <si>
     <t>Carpenter. Makes primitive tools. Carpenter's shop required.</t>
   </si>
   <si>
-    <t>木匠。制作原始工具。需要木工房。</t>
+    <t>木匠：制作原始工具。需要木工房。</t>
   </si>
   <si>
     <t>Growth progress</t>
@@ -1056,7 +1056,7 @@
     <t>Show the villager on the screen</t>
   </si>
   <si>
-    <t>在屏幕上显示村民</t>
+    <t>定位到下一位村民</t>
   </si>
   <si>
     <t>Select relocation mode</t>
@@ -1104,13 +1104,13 @@
     <t>Load selected game</t>
   </si>
   <si>
-    <t>载入所选游戏</t>
+    <t>载入所选存档</t>
   </si>
   <si>
     <t>Delete selected game</t>
   </si>
   <si>
-    <t>删除所选游戏</t>
+    <t>删除所选存档</t>
   </si>
   <si>
     <t>Delete</t>
@@ -1170,13 +1170,13 @@
     <t>Save current game</t>
   </si>
   <si>
-    <t>保存当前游戏</t>
+    <t>保存游戏</t>
   </si>
   <si>
     <t>Load saved game</t>
   </si>
   <si>
-    <t>读取保存的游戏</t>
+    <t>读取存档</t>
   </si>
   <si>
     <t>Language</t>
@@ -1278,21 +1278,15 @@
     <t>Load default settings</t>
   </si>
   <si>
-    <t>载入默认设置</t>
+    <t>恢复默认设置</t>
   </si>
   <si>
     <t>Load game</t>
   </si>
   <si>
-    <t>读取游戏</t>
-  </si>
-  <si>
     <t>Save game</t>
   </si>
   <si>
-    <t>保存游戏</t>
-  </si>
-  <si>
     <t>Close</t>
   </si>
   <si>
@@ -1362,7 +1356,7 @@
     <t>of</t>
   </si>
   <si>
-    <t>关于</t>
+    <t>/</t>
   </si>
   <si>
     <t>Loading game level...</t>
@@ -1501,7 +1495,7 @@
     <t>New saved game</t>
   </si>
   <si>
-    <t>新保存的存档</t>
+    <t>保存新的存档</t>
   </si>
   <si>
     <t>The villager does not have a job</t>
@@ -1603,19 +1597,19 @@
     <t>Map ID</t>
   </si>
   <si>
-    <t>地图序号</t>
+    <t>地图ID</t>
   </si>
   <si>
     <t>Push the button to change the village name</t>
   </si>
   <si>
-    <t>点击按钮更改村庄名称</t>
+    <t>点击按钮随机生成村庄名称</t>
   </si>
   <si>
     <t>Push the button to create new generation code</t>
   </si>
   <si>
-    <t>点击按钮创建新地图代号</t>
+    <t>点击按钮随机生成地图ID</t>
   </si>
   <si>
     <t>Map size</t>
@@ -1633,7 +1627,7 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>普通</t>
+    <t>中</t>
   </si>
   <si>
     <t>Large</t>
@@ -1645,7 +1639,7 @@
     <t>Relief</t>
   </si>
   <si>
-    <t>安定</t>
+    <t>地形</t>
   </si>
   <si>
     <t>Plains</t>
@@ -1687,6 +1681,9 @@
     <t>Cancel</t>
   </si>
   <si>
+    <t>取消</t>
+  </si>
+  <si>
     <t>Expedition was sent</t>
   </si>
   <si>
@@ -1759,7 +1756,7 @@
     <t>Select the building to show statistics</t>
   </si>
   <si>
-    <t>选择你要查看的建筑</t>
+    <t>查看建筑</t>
   </si>
   <si>
     <t>Bloom</t>
@@ -1957,13 +1954,13 @@
     <t>Bridge stairs</t>
   </si>
   <si>
-    <t>桥梁阶梯</t>
+    <t>桥坡</t>
   </si>
   <si>
     <t>Bridge section</t>
   </si>
   <si>
-    <t>桥梁断面</t>
+    <t>桥面</t>
   </si>
   <si>
     <t>You cannot demolish the last warehouse</t>
@@ -2423,19 +2420,19 @@
     <t>Visible</t>
   </si>
   <si>
-    <t>可见的</t>
+    <t>显示</t>
   </si>
   <si>
     <t>Translucent</t>
   </si>
   <si>
-    <t>半透明的</t>
+    <t>半透明</t>
   </si>
   <si>
     <t>Invisible</t>
   </si>
   <si>
-    <t>不可见的</t>
+    <t>隐藏</t>
   </si>
   <si>
     <t>Fast-growing</t>
@@ -2672,7 +2669,7 @@
     <t>Number of builders</t>
   </si>
   <si>
-    <t>建筑师数量</t>
+    <t>建筑工数量</t>
   </si>
   <si>
     <t>Number of workers in the building</t>
@@ -2696,25 +2693,25 @@
     <t>Flatten the ground area</t>
   </si>
   <si>
-    <t>平整该区域</t>
+    <t>平整区域</t>
   </si>
   <si>
     <t>Raise or lower the ground area</t>
   </si>
   <si>
-    <t>抬升或者降低该区域</t>
+    <t>抬升或者降低区域</t>
   </si>
   <si>
     <t>Create a slope</t>
   </si>
   <si>
-    <t>塑造一个坡度</t>
+    <t>改造成坡度</t>
   </si>
   <si>
     <t>Create a hill</t>
   </si>
   <si>
-    <t>塑造一个山丘</t>
+    <t>改造成山丘</t>
   </si>
   <si>
     <t>Number of idle villagers</t>
@@ -2792,19 +2789,19 @@
     <t>Set a building</t>
   </si>
   <si>
-    <t>设置一栋建筑</t>
+    <t>放置建筑物</t>
   </si>
   <si>
     <t>Rotate a building</t>
   </si>
   <si>
-    <t>旋转一栋建筑</t>
+    <t>旋转建筑物</t>
   </si>
   <si>
     <t>Increase priority in the area</t>
   </si>
   <si>
-    <t>增加该区域优先级</t>
+    <t>增加区域优先级</t>
   </si>
   <si>
     <t>Change high priority area</t>
@@ -2828,31 +2825,31 @@
     <t>Create terraforming area</t>
   </si>
   <si>
-    <t>创建地形平整区域</t>
+    <t>创建地形改造区域</t>
   </si>
   <si>
     <t>Change terraforming area</t>
   </si>
   <si>
-    <t>更改地形平整区域</t>
+    <t>更改地形改造区域</t>
   </si>
   <si>
     <t>Rotate terraforming area</t>
   </si>
   <si>
-    <t>旋转地形平整区域</t>
+    <t>旋转地形改造区域</t>
   </si>
   <si>
     <t>Change terraforming strength</t>
   </si>
   <si>
-    <t>更改地形平整人力</t>
+    <t>更改地形改造人力</t>
   </si>
   <si>
     <t>Collect resources in the area</t>
   </si>
   <si>
-    <t>在该区域收集资源</t>
+    <t>设定资源收集区域</t>
   </si>
   <si>
     <t>Change area size</t>
@@ -2876,13 +2873,13 @@
     <t>Set road mark</t>
   </si>
   <si>
-    <t>设置路标</t>
+    <t>设定道路</t>
   </si>
   <si>
     <t>Change road mark</t>
   </si>
   <si>
-    <t>更改路标</t>
+    <t>更改道路</t>
   </si>
   <si>
     <t>Remove road in the area</t>
@@ -3224,19 +3221,19 @@
     <t>Corner section</t>
   </si>
   <si>
-    <t>角截面</t>
+    <t>L型桥面</t>
   </si>
   <si>
     <t>T-section</t>
   </si>
   <si>
-    <t>T型截面</t>
+    <t>T型桥面</t>
   </si>
   <si>
     <t>Cross section</t>
   </si>
   <si>
-    <t>横截面</t>
+    <t>十字桥面</t>
   </si>
   <si>
     <t>Eggs</t>
@@ -3332,13 +3329,13 @@
     <t>Map generation</t>
   </si>
   <si>
-    <t>地图生成</t>
+    <t>地图生成中...</t>
   </si>
   <si>
     <t>Port</t>
   </si>
   <si>
-    <t>端口</t>
+    <t>港口</t>
   </si>
   <si>
     <t>Expedition organizing to search for usefull resources. Number of workers: %WORKER_COUNT%.</t>
@@ -3350,7 +3347,7 @@
     <t>Loading save game list...</t>
   </si>
   <si>
-    <t>读取存档列表</t>
+    <t>读取存档列表...</t>
   </si>
   <si>
     <t>Start construction of a ship for an expedition. Requires resources for construction.</t>
@@ -3431,9 +3428,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3463,12 +3460,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3485,36 +3512,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3523,17 +3520,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3554,7 +3543,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3577,32 +3582,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3645,37 +3642,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3693,13 +3684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3711,61 +3696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3783,13 +3720,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3801,13 +3750,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3869,6 +3866,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3893,21 +3910,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3926,28 +3928,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3972,10 +3969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3984,133 +3981,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4502,8 +4499,8 @@
   <sheetPr/>
   <dimension ref="A1:E706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A684" workbookViewId="0">
-      <selection activeCell="B706" sqref="B706"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="D429" sqref="D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7956,7 +7953,7 @@
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="E283" s="2"/>
     </row>
@@ -7965,11 +7962,11 @@
         <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="E284" s="2"/>
     </row>
@@ -7978,11 +7975,11 @@
         <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E285" s="2"/>
     </row>
@@ -7991,11 +7988,11 @@
         <v>285</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E286" s="2"/>
     </row>
@@ -8013,11 +8010,11 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E288" s="2"/>
     </row>
@@ -8026,11 +8023,11 @@
         <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E289" s="2"/>
     </row>
@@ -8039,11 +8036,11 @@
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E290" s="2"/>
     </row>
@@ -8052,11 +8049,11 @@
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E291" s="2"/>
     </row>
@@ -8065,11 +8062,11 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E292" s="2"/>
     </row>
@@ -8078,11 +8075,11 @@
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E293" s="2"/>
     </row>
@@ -8091,11 +8088,11 @@
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E294" s="2"/>
     </row>
@@ -8104,11 +8101,11 @@
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E295" s="2"/>
     </row>
@@ -8117,11 +8114,11 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E296" s="2"/>
     </row>
@@ -8130,11 +8127,11 @@
         <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E297" s="2"/>
     </row>
@@ -8143,11 +8140,11 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E298" s="2"/>
     </row>
@@ -8156,11 +8153,11 @@
         <v>298</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E299" s="2"/>
     </row>
@@ -8169,14 +8166,14 @@
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E300" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8184,11 +8181,11 @@
         <v>300</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E301" s="7"/>
     </row>
@@ -8197,11 +8194,11 @@
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E302" s="7"/>
     </row>
@@ -8210,11 +8207,11 @@
         <v>302</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E303" s="7"/>
     </row>
@@ -8223,11 +8220,11 @@
         <v>303</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E304" s="7"/>
     </row>
@@ -8236,11 +8233,11 @@
         <v>304</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E305" s="7"/>
     </row>
@@ -8285,11 +8282,11 @@
         <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E310" s="7"/>
     </row>
@@ -8298,7 +8295,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3" t="s">
@@ -8365,11 +8362,11 @@
         <v>317</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E318" s="7"/>
     </row>
@@ -8378,11 +8375,11 @@
         <v>318</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E319" s="7"/>
     </row>
@@ -8391,11 +8388,11 @@
         <v>319</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E320" s="7"/>
     </row>
@@ -8404,11 +8401,11 @@
         <v>320</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E321" s="7"/>
     </row>
@@ -8417,11 +8414,11 @@
         <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E322" s="7"/>
     </row>
@@ -8430,11 +8427,11 @@
         <v>322</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E323" s="7"/>
     </row>
@@ -8443,11 +8440,11 @@
         <v>323</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E324" s="7"/>
     </row>
@@ -8456,11 +8453,11 @@
         <v>324</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E325" s="7"/>
     </row>
@@ -8469,11 +8466,11 @@
         <v>325</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E326" s="7"/>
     </row>
@@ -8482,11 +8479,11 @@
         <v>326</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E327" s="7"/>
     </row>
@@ -8495,11 +8492,11 @@
         <v>327</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E328" s="7"/>
     </row>
@@ -8508,11 +8505,11 @@
         <v>328</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E329" s="7"/>
     </row>
@@ -8521,11 +8518,11 @@
         <v>329</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E330" s="7"/>
     </row>
@@ -8552,11 +8549,11 @@
         <v>332</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C333" s="3"/>
       <c r="D333" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E333" s="7"/>
     </row>
@@ -8565,11 +8562,11 @@
         <v>333</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E334" s="7"/>
     </row>
@@ -8578,11 +8575,11 @@
         <v>334</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E335" s="7"/>
     </row>
@@ -8591,11 +8588,11 @@
         <v>335</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E336" s="7"/>
     </row>
@@ -8604,11 +8601,11 @@
         <v>336</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E337" s="7"/>
     </row>
@@ -8617,11 +8614,11 @@
         <v>337</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C338" s="3"/>
       <c r="D338" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E338" s="7"/>
     </row>
@@ -8630,11 +8627,11 @@
         <v>338</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E339" s="7"/>
     </row>
@@ -8643,11 +8640,11 @@
         <v>339</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E340" s="7"/>
     </row>
@@ -8656,11 +8653,11 @@
         <v>340</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E341" s="7"/>
     </row>
@@ -8669,11 +8666,11 @@
         <v>341</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E342" s="7"/>
     </row>
@@ -8682,11 +8679,11 @@
         <v>342</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E343" s="7"/>
     </row>
@@ -8695,11 +8692,11 @@
         <v>343</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E344" s="7"/>
     </row>
@@ -8708,11 +8705,11 @@
         <v>344</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E345" s="7"/>
     </row>
@@ -8721,11 +8718,11 @@
         <v>345</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E346" s="7"/>
     </row>
@@ -8743,11 +8740,11 @@
         <v>347</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E348" s="7"/>
     </row>
@@ -8765,11 +8762,11 @@
         <v>349</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E350" s="7"/>
     </row>
@@ -8778,11 +8775,11 @@
         <v>350</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E351" s="7"/>
     </row>
@@ -8791,11 +8788,11 @@
         <v>351</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E352" s="7"/>
     </row>
@@ -8804,11 +8801,11 @@
         <v>352</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E353" s="7"/>
     </row>
@@ -8817,11 +8814,11 @@
         <v>353</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E354" s="7"/>
     </row>
@@ -8830,11 +8827,11 @@
         <v>354</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E355" s="7"/>
     </row>
@@ -8843,11 +8840,11 @@
         <v>355</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E356" s="7"/>
     </row>
@@ -8856,11 +8853,11 @@
         <v>356</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E357" s="7"/>
     </row>
@@ -8869,11 +8866,11 @@
         <v>357</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C358" s="3"/>
       <c r="D358" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E358" s="7"/>
     </row>
@@ -8882,11 +8879,11 @@
         <v>358</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C359" s="3"/>
       <c r="D359" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E359" s="7"/>
     </row>
@@ -8895,11 +8892,11 @@
         <v>359</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E360" s="7"/>
     </row>
@@ -8908,11 +8905,11 @@
         <v>360</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E361" s="7"/>
     </row>
@@ -8921,11 +8918,11 @@
         <v>361</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C362" s="3"/>
       <c r="D362" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E362" s="7"/>
     </row>
@@ -8934,11 +8931,11 @@
         <v>362</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E363" s="7"/>
     </row>
@@ -8947,11 +8944,11 @@
         <v>363</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E364" s="7"/>
     </row>
@@ -8960,11 +8957,11 @@
         <v>364</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3" t="s">
-        <v>482</v>
+        <v>554</v>
       </c>
       <c r="E365" s="7"/>
     </row>
@@ -8973,11 +8970,11 @@
         <v>365</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E366" s="7"/>
     </row>
@@ -8986,11 +8983,11 @@
         <v>366</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E367" s="7"/>
     </row>
@@ -8999,11 +8996,11 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E368" s="7"/>
     </row>
@@ -9012,11 +9009,11 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E369" s="7"/>
     </row>
@@ -9025,11 +9022,11 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E370" s="7"/>
     </row>
@@ -9038,11 +9035,11 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C371" s="3"/>
       <c r="D371" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E371" s="7"/>
     </row>
@@ -9051,11 +9048,11 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E372" s="7"/>
     </row>
@@ -9073,11 +9070,11 @@
         <v>373</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E374" s="7"/>
     </row>
@@ -9095,11 +9092,11 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E376" s="7"/>
     </row>
@@ -9108,11 +9105,11 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E377" s="7"/>
     </row>
@@ -9121,11 +9118,11 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C378" s="3"/>
       <c r="D378" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E378" s="7"/>
     </row>
@@ -9134,11 +9131,11 @@
         <v>378</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C379" s="3"/>
       <c r="D379" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E379" s="7"/>
     </row>
@@ -9174,11 +9171,11 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C383" s="3"/>
       <c r="D383" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E383" s="7"/>
     </row>
@@ -9187,11 +9184,11 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E384" s="7"/>
     </row>
@@ -9200,11 +9197,11 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C385" s="3"/>
       <c r="D385" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E385" s="7"/>
     </row>
@@ -9240,11 +9237,11 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C389" s="3"/>
       <c r="D389" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E389" s="7"/>
     </row>
@@ -9262,11 +9259,11 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E391" s="7"/>
     </row>
@@ -9275,11 +9272,11 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E392" s="7"/>
     </row>
@@ -9288,11 +9285,11 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C393" s="3"/>
       <c r="D393" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E393" s="7"/>
     </row>
@@ -9301,11 +9298,11 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C394" s="3"/>
       <c r="D394" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E394" s="7"/>
     </row>
@@ -9314,11 +9311,11 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E395" s="7"/>
     </row>
@@ -9327,11 +9324,11 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C396" s="3"/>
       <c r="D396" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E396" s="7"/>
     </row>
@@ -9340,11 +9337,11 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C397" s="3"/>
       <c r="D397" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E397" s="7"/>
     </row>
@@ -9353,11 +9350,11 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C398" s="3"/>
       <c r="D398" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E398" s="7"/>
     </row>
@@ -9379,7 +9376,7 @@
       </c>
       <c r="C400" s="3"/>
       <c r="D400" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E400" s="7"/>
     </row>
@@ -9388,11 +9385,11 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E401" s="7"/>
     </row>
@@ -9401,11 +9398,11 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C402" s="3"/>
       <c r="D402" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>4</v>
@@ -9416,11 +9413,11 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C403" s="3"/>
       <c r="D403" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E403" s="2"/>
     </row>
@@ -9429,7 +9426,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C404" s="3"/>
       <c r="D404" s="3" t="s">
@@ -9442,11 +9439,11 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C405" s="3"/>
       <c r="D405" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E405" s="2"/>
     </row>
@@ -9473,11 +9470,11 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C408" s="3"/>
       <c r="D408" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E408" s="2"/>
     </row>
@@ -9486,11 +9483,11 @@
         <v>408</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C409" s="3"/>
       <c r="D409" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E409" s="2"/>
     </row>
@@ -9517,11 +9514,11 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C412" s="3"/>
       <c r="D412" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E412" s="2"/>
     </row>
@@ -9530,11 +9527,11 @@
         <v>412</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C413" s="3"/>
       <c r="D413" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E413" s="2"/>
     </row>
@@ -9543,11 +9540,11 @@
         <v>413</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C414" s="3"/>
       <c r="D414" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E414" s="2"/>
     </row>
@@ -9556,11 +9553,11 @@
         <v>414</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C415" s="3"/>
       <c r="D415" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E415" s="2"/>
     </row>
@@ -9569,11 +9566,11 @@
         <v>415</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C416" s="3"/>
       <c r="D416" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E416" s="2"/>
     </row>
@@ -9582,11 +9579,11 @@
         <v>416</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E417" s="2"/>
     </row>
@@ -9604,11 +9601,11 @@
         <v>418</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C419" s="3"/>
       <c r="D419" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E419" s="2"/>
     </row>
@@ -9617,11 +9614,11 @@
         <v>419</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C420" s="3"/>
       <c r="D420" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E420" s="2"/>
     </row>
@@ -9630,11 +9627,11 @@
         <v>420</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E421" s="2"/>
     </row>
@@ -9643,11 +9640,11 @@
         <v>421</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C422" s="3"/>
       <c r="D422" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E422" s="2"/>
     </row>
@@ -9656,11 +9653,11 @@
         <v>422</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C423" s="3"/>
       <c r="D423" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E423" s="2"/>
     </row>
@@ -9669,11 +9666,11 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E424" s="2"/>
     </row>
@@ -9691,13 +9688,13 @@
         <v>425</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C426" s="3">
         <v>222</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E426" s="2"/>
     </row>
@@ -9706,7 +9703,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3" t="s">
@@ -9719,13 +9716,13 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C428" s="3">
         <v>7</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E428" s="2"/>
     </row>
@@ -9734,13 +9731,13 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C429" s="3">
         <v>9</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E429" s="2"/>
     </row>
@@ -9755,11 +9752,11 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E431" s="2"/>
     </row>
@@ -9783,11 +9780,11 @@
         <v>433</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E434" s="2"/>
     </row>
@@ -9796,11 +9793,11 @@
         <v>434</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C435" s="3"/>
       <c r="D435" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E435" s="2"/>
     </row>
@@ -9809,11 +9806,11 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E436" s="2"/>
     </row>
@@ -9822,11 +9819,11 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E437" s="2"/>
     </row>
@@ -9835,11 +9832,11 @@
         <v>437</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E438" s="2"/>
     </row>
@@ -9848,11 +9845,11 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E439" s="2"/>
     </row>
@@ -9861,11 +9858,11 @@
         <v>439</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E440" s="2"/>
     </row>
@@ -9874,11 +9871,11 @@
         <v>440</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E441" s="2"/>
     </row>
@@ -9887,11 +9884,11 @@
         <v>441</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E442" s="2"/>
     </row>
@@ -9900,11 +9897,11 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E443" s="2"/>
     </row>
@@ -9913,11 +9910,11 @@
         <v>443</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E444" s="2"/>
     </row>
@@ -9926,11 +9923,11 @@
         <v>444</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E445" s="2"/>
     </row>
@@ -9948,11 +9945,11 @@
         <v>446</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E447" s="2"/>
     </row>
@@ -9961,11 +9958,11 @@
         <v>447</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E448" s="2"/>
     </row>
@@ -9974,11 +9971,11 @@
         <v>448</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E449" s="2"/>
     </row>
@@ -9987,11 +9984,11 @@
         <v>449</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E450" s="2"/>
     </row>
@@ -10000,11 +9997,11 @@
         <v>450</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E451" s="2"/>
     </row>
@@ -10013,13 +10010,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C452" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="C452" s="3" t="s">
+      <c r="D452" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="D452" s="3" t="s">
-        <v>685</v>
       </c>
       <c r="E452" s="2"/>
     </row>
@@ -10028,11 +10025,11 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E453" s="2"/>
     </row>
@@ -10041,11 +10038,11 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C454" s="3"/>
       <c r="D454" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E454" s="2"/>
     </row>
@@ -10054,11 +10051,11 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C455" s="3"/>
       <c r="D455" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E455" s="2"/>
     </row>
@@ -10067,11 +10064,11 @@
         <v>455</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C456" s="3"/>
       <c r="D456" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E456" s="2"/>
     </row>
@@ -10080,11 +10077,11 @@
         <v>456</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C457" s="3"/>
       <c r="D457" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E457" s="2"/>
     </row>
@@ -10093,11 +10090,11 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C458" s="3"/>
       <c r="D458" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E458" s="2"/>
     </row>
@@ -10106,11 +10103,11 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C459" s="3"/>
       <c r="D459" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E459" s="2"/>
     </row>
@@ -10119,11 +10116,11 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C460" s="3"/>
       <c r="D460" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E460" s="2"/>
     </row>
@@ -10132,11 +10129,11 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C461" s="3"/>
       <c r="D461" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E461" s="2"/>
     </row>
@@ -10145,11 +10142,11 @@
         <v>461</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C462" s="3"/>
       <c r="D462" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E462" s="2"/>
     </row>
@@ -10158,11 +10155,11 @@
         <v>462</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C463" s="3"/>
       <c r="D463" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E463" s="2"/>
     </row>
@@ -10171,11 +10168,11 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C464" s="3"/>
       <c r="D464" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E464" s="2"/>
     </row>
@@ -10184,11 +10181,11 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C465" s="3"/>
       <c r="D465" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E465" s="2"/>
     </row>
@@ -10197,11 +10194,11 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C466" s="3"/>
       <c r="D466" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E466" s="2"/>
     </row>
@@ -10210,11 +10207,11 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C467" s="3"/>
       <c r="D467" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E467" s="2"/>
     </row>
@@ -10223,11 +10220,11 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C468" s="3"/>
       <c r="D468" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E468" s="2"/>
     </row>
@@ -10236,11 +10233,11 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C469" s="3"/>
       <c r="D469" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E469" s="2"/>
     </row>
@@ -10249,13 +10246,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D470" s="3" t="s">
         <v>713</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>714</v>
       </c>
       <c r="E470" s="2"/>
     </row>
@@ -10264,13 +10261,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D471" s="3" t="s">
         <v>715</v>
-      </c>
-      <c r="C471" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D471" s="3" t="s">
-        <v>716</v>
       </c>
       <c r="E471" s="2"/>
     </row>
@@ -10279,13 +10276,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D472" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D472" s="3" t="s">
-        <v>718</v>
       </c>
       <c r="E472" s="2"/>
     </row>
@@ -10294,13 +10291,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D473" s="3" t="s">
         <v>719</v>
-      </c>
-      <c r="C473" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D473" s="3" t="s">
-        <v>720</v>
       </c>
       <c r="E473" s="2"/>
     </row>
@@ -10309,13 +10306,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D474" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="C474" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D474" s="3" t="s">
-        <v>722</v>
       </c>
       <c r="E474" s="2"/>
     </row>
@@ -10324,13 +10321,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D475" s="3" t="s">
         <v>723</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D475" s="3" t="s">
-        <v>724</v>
       </c>
       <c r="E475" s="2"/>
     </row>
@@ -10339,13 +10336,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D476" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D476" s="3" t="s">
-        <v>726</v>
       </c>
       <c r="E476" s="2"/>
     </row>
@@ -10354,13 +10351,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D477" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="C477" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D477" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="E477" s="2"/>
     </row>
@@ -10369,13 +10366,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D478" s="3" t="s">
         <v>729</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D478" s="3" t="s">
-        <v>730</v>
       </c>
       <c r="E478" s="2"/>
     </row>
@@ -10384,13 +10381,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D479" s="3" t="s">
         <v>731</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D479" s="3" t="s">
-        <v>732</v>
       </c>
       <c r="E479" s="2"/>
     </row>
@@ -10399,13 +10396,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D480" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="C480" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D480" s="3" t="s">
-        <v>734</v>
       </c>
       <c r="E480" s="2"/>
     </row>
@@ -10414,13 +10411,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D481" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D481" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="E481" s="2"/>
     </row>
@@ -10429,13 +10426,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D482" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="C482" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D482" s="3" t="s">
-        <v>738</v>
       </c>
       <c r="E482" s="2"/>
     </row>
@@ -10444,13 +10441,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D483" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D483" s="3" t="s">
-        <v>740</v>
       </c>
       <c r="E483" s="2"/>
     </row>
@@ -10459,13 +10456,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D484" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="C484" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D484" s="3" t="s">
-        <v>742</v>
       </c>
       <c r="E484" s="2"/>
     </row>
@@ -10474,13 +10471,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D485" s="3" t="s">
         <v>743</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D485" s="3" t="s">
-        <v>744</v>
       </c>
       <c r="E485" s="2"/>
     </row>
@@ -10489,13 +10486,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D486" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D486" s="3" t="s">
-        <v>746</v>
       </c>
       <c r="E486" s="2"/>
     </row>
@@ -10504,13 +10501,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D487" s="3" t="s">
         <v>747</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D487" s="3" t="s">
-        <v>748</v>
       </c>
       <c r="E487" s="2"/>
     </row>
@@ -10519,13 +10516,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D488" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>750</v>
       </c>
       <c r="E488" s="2"/>
     </row>
@@ -10534,13 +10531,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D489" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="C489" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>752</v>
       </c>
       <c r="E489" s="2"/>
     </row>
@@ -10549,13 +10546,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D490" s="3" t="s">
         <v>753</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D490" s="3" t="s">
-        <v>754</v>
       </c>
       <c r="E490" s="2"/>
     </row>
@@ -10564,13 +10561,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D491" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D491" s="3" t="s">
-        <v>756</v>
       </c>
       <c r="E491" s="2"/>
     </row>
@@ -10579,13 +10576,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D492" s="3" t="s">
         <v>757</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D492" s="3" t="s">
-        <v>758</v>
       </c>
       <c r="E492" s="2"/>
     </row>
@@ -10594,13 +10591,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D493" s="3" t="s">
         <v>759</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D493" s="3" t="s">
-        <v>760</v>
       </c>
       <c r="E493" s="2"/>
     </row>
@@ -10609,13 +10606,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D494" s="3" t="s">
         <v>761</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D494" s="3" t="s">
-        <v>762</v>
       </c>
       <c r="E494" s="2"/>
     </row>
@@ -10624,13 +10621,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D495" s="3" t="s">
         <v>763</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D495" s="3" t="s">
-        <v>764</v>
       </c>
       <c r="E495" s="2"/>
     </row>
@@ -10639,13 +10636,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D496" s="3" t="s">
         <v>765</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D496" s="3" t="s">
-        <v>766</v>
       </c>
       <c r="E496" s="2"/>
     </row>
@@ -10654,13 +10651,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D497" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>768</v>
       </c>
       <c r="E497" s="2"/>
     </row>
@@ -10669,13 +10666,13 @@
         <v>497</v>
       </c>
       <c r="B498" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D498" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D498" s="3" t="s">
-        <v>770</v>
       </c>
       <c r="E498" s="2"/>
     </row>
@@ -10684,13 +10681,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D499" s="3" t="s">
         <v>771</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D499" s="3" t="s">
-        <v>772</v>
       </c>
       <c r="E499" s="2"/>
     </row>
@@ -10699,13 +10696,13 @@
         <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D500" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D500" s="3" t="s">
-        <v>774</v>
       </c>
       <c r="E500" s="2"/>
     </row>
@@ -10714,13 +10711,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D501" s="3" t="s">
         <v>775</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>776</v>
       </c>
       <c r="E501" s="2"/>
     </row>
@@ -10729,16 +10726,16 @@
         <v>501</v>
       </c>
       <c r="B502" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D502" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="C502" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D502" s="10" t="s">
+      <c r="E502" s="11" t="s">
         <v>778</v>
-      </c>
-      <c r="E502" s="11" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -10746,13 +10743,13 @@
         <v>502</v>
       </c>
       <c r="B503" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D503" s="10" t="s">
         <v>780</v>
-      </c>
-      <c r="C503" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D503" s="10" t="s">
-        <v>781</v>
       </c>
       <c r="E503" s="11"/>
     </row>
@@ -10761,11 +10758,11 @@
         <v>503</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C504" s="3"/>
       <c r="D504" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E504" s="11"/>
     </row>
@@ -10774,11 +10771,11 @@
         <v>504</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C505" s="3"/>
       <c r="D505" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E505" s="11"/>
     </row>
@@ -10787,11 +10784,11 @@
         <v>505</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C506" s="3"/>
       <c r="D506" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E506" s="11"/>
     </row>
@@ -10800,11 +10797,11 @@
         <v>506</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C507" s="3"/>
       <c r="D507" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E507" s="11"/>
     </row>
@@ -10813,11 +10810,11 @@
         <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C508" s="3"/>
       <c r="D508" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E508" s="11"/>
     </row>
@@ -10826,11 +10823,11 @@
         <v>508</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C509" s="3"/>
       <c r="D509" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E509" s="11"/>
     </row>
@@ -10839,11 +10836,11 @@
         <v>509</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C510" s="3"/>
       <c r="D510" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E510" s="11"/>
     </row>
@@ -10852,11 +10849,11 @@
         <v>510</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C511" s="3"/>
       <c r="D511" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E511" s="11"/>
     </row>
@@ -10865,11 +10862,11 @@
         <v>511</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C512" s="3"/>
       <c r="D512" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E512" s="11"/>
     </row>
@@ -10878,11 +10875,11 @@
         <v>512</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C513" s="3"/>
       <c r="D513" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E513" s="11"/>
     </row>
@@ -10891,11 +10888,11 @@
         <v>513</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C514" s="3"/>
       <c r="D514" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E514" s="11"/>
     </row>
@@ -10904,11 +10901,11 @@
         <v>514</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C515" s="3"/>
       <c r="D515" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E515" s="11"/>
     </row>
@@ -10917,13 +10914,13 @@
         <v>515</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C516" s="3">
         <v>20</v>
       </c>
       <c r="D516" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E516" s="11"/>
     </row>
@@ -10932,13 +10929,13 @@
         <v>516</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C517" s="3">
         <v>20</v>
       </c>
       <c r="D517" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E517" s="11"/>
     </row>
@@ -10947,13 +10944,13 @@
         <v>517</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C518" s="3">
         <v>20</v>
       </c>
       <c r="D518" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E518" s="11"/>
     </row>
@@ -10962,13 +10959,13 @@
         <v>518</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C519" s="3">
         <v>20</v>
       </c>
       <c r="D519" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E519" s="11"/>
     </row>
@@ -10977,13 +10974,13 @@
         <v>519</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C520" s="3">
         <v>20</v>
       </c>
       <c r="D520" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E520" s="11"/>
     </row>
@@ -10992,13 +10989,13 @@
         <v>520</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C521" s="3">
         <v>20</v>
       </c>
       <c r="D521" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E521" s="11"/>
     </row>
@@ -11007,11 +11004,11 @@
         <v>521</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C522" s="3"/>
       <c r="D522" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E522" s="11"/>
     </row>
@@ -11020,13 +11017,13 @@
         <v>522</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C523" s="3">
         <v>33</v>
       </c>
       <c r="D523" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E523" s="11"/>
     </row>
@@ -11035,11 +11032,11 @@
         <v>523</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C524" s="3"/>
       <c r="D524" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E524" s="11"/>
     </row>
@@ -11048,11 +11045,11 @@
         <v>524</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C525" s="3"/>
       <c r="D525" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E525" s="11"/>
     </row>
@@ -11061,11 +11058,11 @@
         <v>525</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C526" s="3"/>
       <c r="D526" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E526" s="11"/>
     </row>
@@ -11074,11 +11071,11 @@
         <v>526</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C527" s="3"/>
       <c r="D527" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E527" s="11"/>
     </row>
@@ -11087,11 +11084,11 @@
         <v>527</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C528" s="3"/>
       <c r="D528" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E528" s="11"/>
     </row>
@@ -11100,11 +11097,11 @@
         <v>528</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C529" s="3"/>
       <c r="D529" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E529" s="11"/>
     </row>
@@ -11131,11 +11128,11 @@
         <v>531</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C532" s="3"/>
       <c r="D532" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E532" s="11"/>
     </row>
@@ -11153,11 +11150,11 @@
         <v>533</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C534" s="3"/>
       <c r="D534" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E534" s="11"/>
     </row>
@@ -11166,13 +11163,13 @@
         <v>534</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C535" s="3">
         <v>16</v>
       </c>
       <c r="D535" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E535" s="11"/>
     </row>
@@ -11181,13 +11178,13 @@
         <v>535</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C536" s="3">
         <v>222</v>
       </c>
       <c r="D536" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E536" s="11"/>
     </row>
@@ -11196,13 +11193,13 @@
         <v>536</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C537" s="3">
         <v>222</v>
       </c>
       <c r="D537" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E537" s="11"/>
     </row>
@@ -11211,13 +11208,13 @@
         <v>537</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C538" s="3">
         <v>222</v>
       </c>
       <c r="D538" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E538" s="11"/>
     </row>
@@ -11226,13 +11223,13 @@
         <v>538</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C539" s="3">
         <v>222</v>
       </c>
       <c r="D539" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E539" s="11"/>
     </row>
@@ -11241,13 +11238,13 @@
         <v>539</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C540" s="3">
         <v>222</v>
       </c>
       <c r="D540" s="10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E540" s="11"/>
     </row>
@@ -11256,13 +11253,13 @@
         <v>540</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C541" s="3">
         <v>222</v>
       </c>
       <c r="D541" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E541" s="11"/>
     </row>
@@ -11271,11 +11268,11 @@
         <v>541</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C542" s="3"/>
       <c r="D542" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E542" s="11"/>
     </row>
@@ -11284,13 +11281,13 @@
         <v>542</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C543" s="3">
         <v>28</v>
       </c>
       <c r="D543" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E543" s="11"/>
     </row>
@@ -11299,13 +11296,13 @@
         <v>543</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C544" s="3">
         <v>30</v>
       </c>
       <c r="D544" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E544" s="11"/>
     </row>
@@ -11314,13 +11311,13 @@
         <v>544</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C545" s="3">
         <v>30</v>
       </c>
       <c r="D545" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E545" s="11"/>
     </row>
@@ -11329,13 +11326,13 @@
         <v>545</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C546" s="3">
         <v>30</v>
       </c>
       <c r="D546" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E546" s="11"/>
     </row>
@@ -11344,11 +11341,11 @@
         <v>546</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C547" s="3"/>
       <c r="D547" s="10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E547" s="11"/>
     </row>
@@ -11357,11 +11354,11 @@
         <v>547</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C548" s="3"/>
       <c r="D548" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E548" s="11"/>
     </row>
@@ -11370,11 +11367,11 @@
         <v>548</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C549" s="3"/>
       <c r="D549" s="10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E549" s="11"/>
     </row>
@@ -11383,11 +11380,11 @@
         <v>549</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C550" s="3"/>
       <c r="D550" s="10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E550" s="11"/>
     </row>
@@ -11396,11 +11393,11 @@
         <v>550</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C551" s="3"/>
       <c r="D551" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E551" s="11"/>
     </row>
@@ -11409,7 +11406,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C552" s="3"/>
       <c r="D552" s="10" t="s">
@@ -11422,11 +11419,11 @@
         <v>552</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C553" s="3"/>
       <c r="D553" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E553" s="11"/>
     </row>
@@ -11435,11 +11432,11 @@
         <v>553</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C554" s="3"/>
       <c r="D554" s="10" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E554" s="11"/>
     </row>
@@ -11448,11 +11445,11 @@
         <v>554</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C555" s="3"/>
       <c r="D555" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E555" s="11"/>
     </row>
@@ -11461,11 +11458,11 @@
         <v>555</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C556" s="3"/>
       <c r="D556" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E556" s="11"/>
     </row>
@@ -11474,11 +11471,11 @@
         <v>556</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C557" s="3"/>
       <c r="D557" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E557" s="11"/>
     </row>
@@ -11487,11 +11484,11 @@
         <v>557</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C558" s="3"/>
       <c r="D558" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E558" s="11"/>
     </row>
@@ -11500,11 +11497,11 @@
         <v>558</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C559" s="3"/>
       <c r="D559" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E559" s="11"/>
     </row>
@@ -11513,11 +11510,11 @@
         <v>559</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C560" s="3"/>
       <c r="D560" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E560" s="11"/>
     </row>
@@ -11526,11 +11523,11 @@
         <v>560</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C561" s="3"/>
       <c r="D561" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E561" s="11"/>
     </row>
@@ -11539,11 +11536,11 @@
         <v>561</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C562" s="3"/>
       <c r="D562" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E562" s="11"/>
     </row>
@@ -11552,11 +11549,11 @@
         <v>562</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C563" s="3"/>
       <c r="D563" s="10" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E563" s="11"/>
     </row>
@@ -11565,11 +11562,11 @@
         <v>563</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C564" s="3"/>
       <c r="D564" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E564" s="11"/>
     </row>
@@ -11578,11 +11575,11 @@
         <v>564</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C565" s="3"/>
       <c r="D565" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E565" s="11"/>
     </row>
@@ -11591,11 +11588,11 @@
         <v>565</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E566" s="11"/>
     </row>
@@ -11604,11 +11601,11 @@
         <v>566</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C567" s="3"/>
       <c r="D567" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E567" s="11"/>
     </row>
@@ -11617,11 +11614,11 @@
         <v>567</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C568" s="3"/>
       <c r="D568" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E568" s="11"/>
     </row>
@@ -11639,11 +11636,11 @@
         <v>569</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C570" s="3"/>
       <c r="D570" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E570" s="11"/>
     </row>
@@ -11652,11 +11649,11 @@
         <v>570</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C571" s="3"/>
       <c r="D571" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E571" s="11"/>
     </row>
@@ -11665,11 +11662,11 @@
         <v>571</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C572" s="3"/>
       <c r="D572" s="10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E572" s="11"/>
     </row>
@@ -11678,11 +11675,11 @@
         <v>572</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C573" s="3"/>
       <c r="D573" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E573" s="11"/>
     </row>
@@ -11691,11 +11688,11 @@
         <v>573</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C574" s="3"/>
       <c r="D574" s="10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E574" s="11"/>
     </row>
@@ -11722,11 +11719,11 @@
         <v>576</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C577" s="3"/>
       <c r="D577" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E577" s="11"/>
     </row>
@@ -11735,11 +11732,11 @@
         <v>577</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C578" s="3"/>
       <c r="D578" s="10" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E578" s="11"/>
     </row>
@@ -11748,11 +11745,11 @@
         <v>578</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C579" s="3"/>
       <c r="D579" s="10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E579" s="11"/>
     </row>
@@ -11761,11 +11758,11 @@
         <v>579</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C580" s="3"/>
       <c r="D580" s="10" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E580" s="11"/>
     </row>
@@ -11774,11 +11771,11 @@
         <v>580</v>
       </c>
       <c r="B581" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C581" s="14"/>
       <c r="D581" s="14" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>4</v>
@@ -11798,11 +11795,11 @@
         <v>582</v>
       </c>
       <c r="B583" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C583" s="14"/>
       <c r="D583" s="14" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E583" s="2"/>
     </row>
@@ -11811,11 +11808,11 @@
         <v>583</v>
       </c>
       <c r="B584" s="16" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C584" s="17"/>
       <c r="D584" s="17" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E584" s="2"/>
     </row>
@@ -11824,11 +11821,11 @@
         <v>584</v>
       </c>
       <c r="B585" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C585" s="14"/>
       <c r="D585" s="14" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E585" s="2"/>
     </row>
@@ -11837,11 +11834,11 @@
         <v>585</v>
       </c>
       <c r="B586" s="16" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C586" s="17"/>
       <c r="D586" s="17" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E586" s="2"/>
     </row>
@@ -11850,11 +11847,11 @@
         <v>586</v>
       </c>
       <c r="B587" s="13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C587" s="14"/>
       <c r="D587" s="14" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E587" s="2"/>
     </row>
@@ -11863,11 +11860,11 @@
         <v>587</v>
       </c>
       <c r="B588" s="16" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C588" s="17"/>
       <c r="D588" s="17" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E588" s="2"/>
     </row>
@@ -11876,11 +11873,11 @@
         <v>588</v>
       </c>
       <c r="B589" s="13" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C589" s="14"/>
       <c r="D589" s="14" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E589" s="2"/>
     </row>
@@ -11889,11 +11886,11 @@
         <v>589</v>
       </c>
       <c r="B590" s="16" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C590" s="17"/>
       <c r="D590" s="17" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E590" s="2"/>
     </row>
@@ -11902,11 +11899,11 @@
         <v>590</v>
       </c>
       <c r="B591" s="13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C591" s="14"/>
       <c r="D591" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E591" s="2"/>
     </row>
@@ -11915,11 +11912,11 @@
         <v>591</v>
       </c>
       <c r="B592" s="16" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C592" s="17"/>
       <c r="D592" s="17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E592" s="2"/>
     </row>
@@ -11928,11 +11925,11 @@
         <v>592</v>
       </c>
       <c r="B593" s="13" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C593" s="14"/>
       <c r="D593" s="14" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E593" s="2"/>
     </row>
@@ -11941,11 +11938,11 @@
         <v>593</v>
       </c>
       <c r="B594" s="16" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C594" s="17"/>
       <c r="D594" s="17" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E594" s="2"/>
     </row>
@@ -11954,11 +11951,11 @@
         <v>594</v>
       </c>
       <c r="B595" s="13" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C595" s="14"/>
       <c r="D595" s="14" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E595" s="2"/>
     </row>
@@ -11967,11 +11964,11 @@
         <v>595</v>
       </c>
       <c r="B596" s="16" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C596" s="17"/>
       <c r="D596" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E596" s="2"/>
     </row>
@@ -11980,11 +11977,11 @@
         <v>596</v>
       </c>
       <c r="B597" s="13" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C597" s="14"/>
       <c r="D597" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E597" s="2"/>
     </row>
@@ -11993,11 +11990,11 @@
         <v>597</v>
       </c>
       <c r="B598" s="16" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C598" s="17"/>
       <c r="D598" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E598" s="2"/>
     </row>
@@ -12015,11 +12012,11 @@
         <v>599</v>
       </c>
       <c r="B600" s="16" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C600" s="17"/>
       <c r="D600" s="17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E600" s="2"/>
     </row>
@@ -12028,11 +12025,11 @@
         <v>600</v>
       </c>
       <c r="B601" s="13" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C601" s="14"/>
       <c r="D601" s="14" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E601" s="2"/>
     </row>
@@ -12041,11 +12038,11 @@
         <v>601</v>
       </c>
       <c r="B602" s="16" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C602" s="17"/>
       <c r="D602" s="17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E602" s="2"/>
     </row>
@@ -12054,11 +12051,11 @@
         <v>602</v>
       </c>
       <c r="B603" s="13" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C603" s="14"/>
       <c r="D603" s="14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E603" s="2"/>
     </row>
@@ -12067,11 +12064,11 @@
         <v>603</v>
       </c>
       <c r="B604" s="16" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C604" s="17"/>
       <c r="D604" s="17" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E604" s="2"/>
     </row>
@@ -12080,11 +12077,11 @@
         <v>604</v>
       </c>
       <c r="B605" s="13" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C605" s="14"/>
       <c r="D605" s="14" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E605" s="2"/>
     </row>
@@ -12093,11 +12090,11 @@
         <v>605</v>
       </c>
       <c r="B606" s="16" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C606" s="17"/>
       <c r="D606" s="17" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E606" s="2"/>
     </row>
@@ -12106,11 +12103,11 @@
         <v>606</v>
       </c>
       <c r="B607" s="13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C607" s="14"/>
       <c r="D607" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E607" s="2"/>
     </row>
@@ -12119,11 +12116,11 @@
         <v>607</v>
       </c>
       <c r="B608" s="16" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C608" s="17"/>
       <c r="D608" s="17" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E608" s="2"/>
     </row>
@@ -12132,13 +12129,13 @@
         <v>608</v>
       </c>
       <c r="B609" s="13" t="s">
+        <v>974</v>
+      </c>
+      <c r="C609" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D609" s="14" t="s">
         <v>975</v>
-      </c>
-      <c r="C609" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="D609" s="14" t="s">
-        <v>976</v>
       </c>
       <c r="E609" s="2"/>
     </row>
@@ -12147,13 +12144,13 @@
         <v>609</v>
       </c>
       <c r="B610" s="16" t="s">
+        <v>976</v>
+      </c>
+      <c r="C610" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D610" s="14" t="s">
         <v>977</v>
-      </c>
-      <c r="C610" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="D610" s="14" t="s">
-        <v>978</v>
       </c>
       <c r="E610" s="2"/>
     </row>
@@ -12162,13 +12159,13 @@
         <v>610</v>
       </c>
       <c r="B611" s="13" t="s">
+        <v>978</v>
+      </c>
+      <c r="C611" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D611" s="14" t="s">
         <v>979</v>
-      </c>
-      <c r="C611" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="D611" s="14" t="s">
-        <v>980</v>
       </c>
       <c r="E611" s="2"/>
     </row>
@@ -12177,13 +12174,13 @@
         <v>611</v>
       </c>
       <c r="B612" s="16" t="s">
+        <v>980</v>
+      </c>
+      <c r="C612" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D612" s="14" t="s">
         <v>981</v>
-      </c>
-      <c r="C612" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="D612" s="14" t="s">
-        <v>982</v>
       </c>
       <c r="E612" s="2"/>
     </row>
@@ -12192,13 +12189,13 @@
         <v>612</v>
       </c>
       <c r="B613" s="13" t="s">
+        <v>982</v>
+      </c>
+      <c r="C613" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D613" s="14" t="s">
         <v>983</v>
-      </c>
-      <c r="C613" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="D613" s="14" t="s">
-        <v>984</v>
       </c>
       <c r="E613" s="2"/>
     </row>
@@ -12225,13 +12222,13 @@
         <v>615</v>
       </c>
       <c r="B616" s="16" t="s">
+        <v>984</v>
+      </c>
+      <c r="C616" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D616" s="14" t="s">
         <v>985</v>
-      </c>
-      <c r="C616" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="D616" s="14" t="s">
-        <v>986</v>
       </c>
       <c r="E616" s="2"/>
     </row>
@@ -12240,13 +12237,13 @@
         <v>616</v>
       </c>
       <c r="B617" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="C617" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D617" s="14" t="s">
         <v>987</v>
-      </c>
-      <c r="C617" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="D617" s="14" t="s">
-        <v>988</v>
       </c>
       <c r="E617" s="2"/>
     </row>
@@ -12255,11 +12252,11 @@
         <v>617</v>
       </c>
       <c r="B618" s="16" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C618" s="17"/>
       <c r="D618" s="17" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E618" s="2"/>
     </row>
@@ -12268,11 +12265,11 @@
         <v>618</v>
       </c>
       <c r="B619" s="13" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C619" s="14"/>
       <c r="D619" s="17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E619" s="2"/>
     </row>
@@ -12290,13 +12287,13 @@
         <v>620</v>
       </c>
       <c r="B621" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="C621" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D621" s="14" t="s">
         <v>993</v>
-      </c>
-      <c r="C621" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="D621" s="14" t="s">
-        <v>994</v>
       </c>
       <c r="E621" s="2"/>
     </row>
@@ -12305,13 +12302,13 @@
         <v>621</v>
       </c>
       <c r="B622" s="16" t="s">
+        <v>994</v>
+      </c>
+      <c r="C622" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D622" s="17" t="s">
         <v>995</v>
-      </c>
-      <c r="C622" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="D622" s="17" t="s">
-        <v>996</v>
       </c>
       <c r="E622" s="2"/>
     </row>
@@ -12320,13 +12317,13 @@
         <v>622</v>
       </c>
       <c r="B623" s="18" t="s">
+        <v>996</v>
+      </c>
+      <c r="C623" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D623" s="14" t="s">
         <v>997</v>
-      </c>
-      <c r="C623" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="D623" s="14" t="s">
-        <v>998</v>
       </c>
       <c r="E623" s="2"/>
     </row>
@@ -12335,13 +12332,13 @@
         <v>623</v>
       </c>
       <c r="B624" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C624" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D624" s="17" t="s">
         <v>999</v>
-      </c>
-      <c r="C624" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="D624" s="17" t="s">
-        <v>1000</v>
       </c>
       <c r="E624" s="2"/>
     </row>
@@ -12350,13 +12347,13 @@
         <v>624</v>
       </c>
       <c r="B625" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C625" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D625" s="14" t="s">
         <v>1001</v>
-      </c>
-      <c r="C625" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="D625" s="14" t="s">
-        <v>1002</v>
       </c>
       <c r="E625" s="2"/>
     </row>
@@ -12365,13 +12362,13 @@
         <v>625</v>
       </c>
       <c r="B626" s="19" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C626" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D626" s="17" t="s">
         <v>1003</v>
-      </c>
-      <c r="C626" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="D626" s="17" t="s">
-        <v>1004</v>
       </c>
       <c r="E626" s="2"/>
     </row>
@@ -12380,13 +12377,13 @@
         <v>626</v>
       </c>
       <c r="B627" s="18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C627" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D627" s="14" t="s">
         <v>1005</v>
-      </c>
-      <c r="C627" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="D627" s="14" t="s">
-        <v>1006</v>
       </c>
       <c r="E627" s="2"/>
     </row>
@@ -12395,13 +12392,13 @@
         <v>627</v>
       </c>
       <c r="B628" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C628" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D628" s="17" t="s">
         <v>1007</v>
-      </c>
-      <c r="C628" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="D628" s="17" t="s">
-        <v>1008</v>
       </c>
       <c r="E628" s="2"/>
     </row>
@@ -12410,11 +12407,11 @@
         <v>628</v>
       </c>
       <c r="B629" s="18" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C629" s="14"/>
       <c r="D629" s="14" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E629" s="2"/>
     </row>
@@ -12423,11 +12420,11 @@
         <v>629</v>
       </c>
       <c r="B630" s="19" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C630" s="17"/>
       <c r="D630" s="17" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E630" s="2"/>
     </row>
@@ -12436,11 +12433,11 @@
         <v>630</v>
       </c>
       <c r="B631" s="18" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C631" s="14"/>
       <c r="D631" s="14" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E631" s="2"/>
     </row>
@@ -12449,13 +12446,13 @@
         <v>631</v>
       </c>
       <c r="B632" s="19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C632" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D632" s="17" t="s">
         <v>1015</v>
-      </c>
-      <c r="C632" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="D632" s="17" t="s">
-        <v>1016</v>
       </c>
       <c r="E632" s="2"/>
     </row>
@@ -12473,13 +12470,13 @@
         <v>633</v>
       </c>
       <c r="B634" s="19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C634" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D634" s="17" t="s">
         <v>1017</v>
-      </c>
-      <c r="C634" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="D634" s="17" t="s">
-        <v>1018</v>
       </c>
       <c r="E634" s="2"/>
     </row>
@@ -12488,13 +12485,13 @@
         <v>634</v>
       </c>
       <c r="B635" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C635" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D635" s="14" t="s">
         <v>1019</v>
-      </c>
-      <c r="C635" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="D635" s="14" t="s">
-        <v>1020</v>
       </c>
       <c r="E635" s="2"/>
     </row>
@@ -12503,13 +12500,13 @@
         <v>635</v>
       </c>
       <c r="B636" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C636" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D636" s="17" t="s">
         <v>1021</v>
-      </c>
-      <c r="C636" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="D636" s="17" t="s">
-        <v>1022</v>
       </c>
       <c r="E636" s="2"/>
     </row>
@@ -12518,13 +12515,13 @@
         <v>636</v>
       </c>
       <c r="B637" s="18" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C637" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D637" s="14" t="s">
         <v>1023</v>
-      </c>
-      <c r="C637" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="D637" s="14" t="s">
-        <v>1024</v>
       </c>
       <c r="E637" s="2"/>
     </row>
@@ -12533,13 +12530,13 @@
         <v>637</v>
       </c>
       <c r="B638" s="19" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C638" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D638" s="17" t="s">
         <v>1025</v>
-      </c>
-      <c r="C638" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="D638" s="17" t="s">
-        <v>1026</v>
       </c>
       <c r="E638" s="2"/>
     </row>
@@ -12548,13 +12545,13 @@
         <v>638</v>
       </c>
       <c r="B639" s="18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C639" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D639" s="17" t="s">
         <v>1027</v>
-      </c>
-      <c r="C639" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="D639" s="17" t="s">
-        <v>1028</v>
       </c>
       <c r="E639" s="2"/>
     </row>
@@ -12563,13 +12560,13 @@
         <v>639</v>
       </c>
       <c r="B640" s="19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C640" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D640" s="17" t="s">
         <v>1029</v>
-      </c>
-      <c r="C640" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="D640" s="17" t="s">
-        <v>1030</v>
       </c>
       <c r="E640" s="2"/>
     </row>
@@ -12578,13 +12575,13 @@
         <v>640</v>
       </c>
       <c r="B641" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C641" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D641" s="14" t="s">
         <v>1031</v>
-      </c>
-      <c r="C641" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="D641" s="14" t="s">
-        <v>1032</v>
       </c>
       <c r="E641" s="2"/>
     </row>
@@ -12593,11 +12590,11 @@
         <v>641</v>
       </c>
       <c r="B642" s="19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C642" s="17"/>
       <c r="D642" s="17" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E642" s="2"/>
     </row>
@@ -12606,11 +12603,11 @@
         <v>642</v>
       </c>
       <c r="B643" s="18" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C643" s="14"/>
       <c r="D643" s="14" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E643" s="2"/>
     </row>
@@ -12619,13 +12616,13 @@
         <v>643</v>
       </c>
       <c r="B644" s="19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C644" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D644" s="17" t="s">
         <v>1037</v>
-      </c>
-      <c r="C644" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="D644" s="17" t="s">
-        <v>1038</v>
       </c>
       <c r="E644" s="2"/>
     </row>
@@ -12634,13 +12631,13 @@
         <v>644</v>
       </c>
       <c r="B645" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C645" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D645" s="14" t="s">
         <v>1039</v>
-      </c>
-      <c r="C645" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="D645" s="14" t="s">
-        <v>1040</v>
       </c>
       <c r="E645" s="2"/>
     </row>
@@ -12649,11 +12646,11 @@
         <v>645</v>
       </c>
       <c r="B646" s="19" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C646" s="17"/>
       <c r="D646" s="17" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E646" s="2"/>
     </row>
@@ -12662,11 +12659,11 @@
         <v>646</v>
       </c>
       <c r="B647" s="18" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C647" s="14"/>
       <c r="D647" s="14" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E647" s="2"/>
     </row>
@@ -12675,11 +12672,11 @@
         <v>647</v>
       </c>
       <c r="B648" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C648" s="17"/>
       <c r="D648" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E648" s="2"/>
     </row>
@@ -12688,11 +12685,11 @@
         <v>648</v>
       </c>
       <c r="B649" s="18" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C649" s="14"/>
       <c r="D649" s="14" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E649" s="2"/>
     </row>
@@ -12701,11 +12698,11 @@
         <v>649</v>
       </c>
       <c r="B650" s="19" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C650" s="17"/>
       <c r="D650" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E650" s="2"/>
     </row>
@@ -12714,11 +12711,11 @@
         <v>650</v>
       </c>
       <c r="B651" s="18" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C651" s="14"/>
       <c r="D651" s="14" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E651" s="2"/>
     </row>
@@ -12772,11 +12769,11 @@
         <v>656</v>
       </c>
       <c r="B657" s="18" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C657" s="14"/>
       <c r="D657" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E657" s="2"/>
     </row>
@@ -12785,11 +12782,11 @@
         <v>657</v>
       </c>
       <c r="B658" s="19" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C658" s="17"/>
       <c r="D658" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E658" s="2"/>
     </row>
@@ -12798,11 +12795,11 @@
         <v>658</v>
       </c>
       <c r="B659" s="18" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C659" s="14"/>
       <c r="D659" s="14" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E659" s="2"/>
     </row>
@@ -12811,11 +12808,11 @@
         <v>659</v>
       </c>
       <c r="B660" s="19" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C660" s="17"/>
       <c r="D660" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E660" s="2"/>
     </row>
@@ -12824,11 +12821,11 @@
         <v>660</v>
       </c>
       <c r="B661" s="18" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C661" s="14"/>
       <c r="D661" s="14" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E661" s="2"/>
     </row>
@@ -12837,11 +12834,11 @@
         <v>661</v>
       </c>
       <c r="B662" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C662" s="17"/>
       <c r="D662" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E662" s="2"/>
     </row>
@@ -12850,11 +12847,11 @@
         <v>662</v>
       </c>
       <c r="B663" s="18" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C663" s="14"/>
       <c r="D663" s="14" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E663" s="2"/>
     </row>
@@ -12881,11 +12878,11 @@
         <v>665</v>
       </c>
       <c r="B666" s="19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C666" s="17"/>
       <c r="D666" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E666" s="2"/>
     </row>
@@ -12894,11 +12891,11 @@
         <v>666</v>
       </c>
       <c r="B667" s="18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C667" s="14"/>
+      <c r="D667" s="17" t="s">
         <v>1069</v>
-      </c>
-      <c r="C667" s="14"/>
-      <c r="D667" s="14" t="s">
-        <v>1070</v>
       </c>
       <c r="E667" s="2"/>
     </row>
@@ -12907,11 +12904,11 @@
         <v>667</v>
       </c>
       <c r="B668" s="19" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C668" s="17"/>
       <c r="D668" s="17" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E668" s="2"/>
     </row>
@@ -12947,11 +12944,11 @@
         <v>671</v>
       </c>
       <c r="B672" s="19" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C672" s="17"/>
       <c r="D672" s="17" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E672" s="2"/>
     </row>
@@ -12960,11 +12957,11 @@
         <v>672</v>
       </c>
       <c r="B673" s="18" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C673" s="14"/>
       <c r="D673" s="14" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E673" s="2"/>
     </row>
@@ -12973,11 +12970,11 @@
         <v>673</v>
       </c>
       <c r="B674" s="19" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C674" s="17"/>
       <c r="D674" s="17" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E674" s="2"/>
     </row>
@@ -12986,11 +12983,11 @@
         <v>674</v>
       </c>
       <c r="B675" s="18" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C675" s="14"/>
       <c r="D675" s="14" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E675" s="2"/>
     </row>
@@ -12999,11 +12996,11 @@
         <v>675</v>
       </c>
       <c r="B676" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C676" s="17"/>
       <c r="D676" s="17" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E676" s="2"/>
     </row>
@@ -13012,11 +13009,11 @@
         <v>676</v>
       </c>
       <c r="B677" s="18" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C677" s="14"/>
       <c r="D677" s="14" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E677" s="2"/>
     </row>
@@ -13025,11 +13022,11 @@
         <v>677</v>
       </c>
       <c r="B678" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C678" s="17"/>
       <c r="D678" s="17" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E678" s="2"/>
     </row>
@@ -13038,11 +13035,11 @@
         <v>678</v>
       </c>
       <c r="B679" s="18" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C679" s="14"/>
       <c r="D679" s="14" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E679" s="2"/>
     </row>
@@ -13051,11 +13048,11 @@
         <v>679</v>
       </c>
       <c r="B680" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C680" s="17"/>
       <c r="D680" s="17" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E680" s="2"/>
     </row>
@@ -13064,11 +13061,11 @@
         <v>680</v>
       </c>
       <c r="B681" s="18" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C681" s="14"/>
       <c r="D681" s="14" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E681" s="2"/>
     </row>
@@ -13077,11 +13074,11 @@
         <v>681</v>
       </c>
       <c r="B682" s="19" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C682" s="17"/>
       <c r="D682" s="17" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E682" s="2"/>
     </row>
@@ -13090,11 +13087,11 @@
         <v>682</v>
       </c>
       <c r="B683" s="18" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C683" s="14"/>
       <c r="D683" s="14" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E683" s="2"/>
     </row>
@@ -13103,11 +13100,11 @@
         <v>683</v>
       </c>
       <c r="B684" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C684" s="20"/>
       <c r="D684" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E684" s="2"/>
     </row>
@@ -13125,11 +13122,11 @@
         <v>685</v>
       </c>
       <c r="B686" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C686" s="20"/>
       <c r="D686" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E686" s="2"/>
     </row>
@@ -13138,11 +13135,11 @@
         <v>686</v>
       </c>
       <c r="B687" s="21" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C687" s="21"/>
       <c r="D687" s="21" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E687" s="2"/>
     </row>
@@ -13151,11 +13148,11 @@
         <v>687</v>
       </c>
       <c r="B688" s="20" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C688" s="20"/>
       <c r="D688" s="20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E688" s="2"/>
     </row>
@@ -13164,11 +13161,11 @@
         <v>688</v>
       </c>
       <c r="B689" s="21" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C689" s="21"/>
       <c r="D689" s="21" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E689" s="2"/>
     </row>
@@ -13186,11 +13183,11 @@
         <v>690</v>
       </c>
       <c r="B691" s="21" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C691" s="21"/>
       <c r="D691" s="21" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E691" s="2"/>
     </row>
@@ -13199,11 +13196,11 @@
         <v>691</v>
       </c>
       <c r="B692" s="20" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C692" s="20"/>
       <c r="D692" s="20" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E692" s="2"/>
     </row>
@@ -13230,11 +13227,11 @@
         <v>694</v>
       </c>
       <c r="B695" s="21" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C695" s="21"/>
       <c r="D695" s="21" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E695" s="2"/>
     </row>
@@ -13243,11 +13240,11 @@
         <v>695</v>
       </c>
       <c r="B696" s="20" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C696" s="20"/>
       <c r="D696" s="20" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E696" s="2"/>
     </row>
@@ -13256,11 +13253,11 @@
         <v>696</v>
       </c>
       <c r="B697" s="21" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C697" s="21"/>
       <c r="D697" s="21" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E697" s="2"/>
     </row>
@@ -13269,11 +13266,11 @@
         <v>697</v>
       </c>
       <c r="B698" s="20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C698" s="20"/>
       <c r="D698" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E698" s="2"/>
     </row>
@@ -13282,11 +13279,11 @@
         <v>698</v>
       </c>
       <c r="B699" s="21" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C699" s="21"/>
       <c r="D699" s="21" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E699" s="2"/>
     </row>
@@ -13295,11 +13292,11 @@
         <v>699</v>
       </c>
       <c r="B700" s="20" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C700" s="20"/>
       <c r="D700" s="20" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E700" s="2"/>
     </row>
@@ -13308,11 +13305,11 @@
         <v>700</v>
       </c>
       <c r="B701" s="21" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C701" s="21"/>
       <c r="D701" s="21" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E701" s="2"/>
     </row>
@@ -13321,11 +13318,11 @@
         <v>701</v>
       </c>
       <c r="B702" s="20" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C702" s="20"/>
       <c r="D702" s="20" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E702" s="2"/>
     </row>
@@ -13334,11 +13331,11 @@
         <v>702</v>
       </c>
       <c r="B703" s="21" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C703" s="21"/>
       <c r="D703" s="21" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E703" s="2"/>
     </row>
@@ -13347,11 +13344,11 @@
         <v>703</v>
       </c>
       <c r="B704" s="20" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C704" s="20"/>
       <c r="D704" s="20" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E704" s="2"/>
     </row>
@@ -13360,11 +13357,11 @@
         <v>704</v>
       </c>
       <c r="B705" s="21" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C705" s="21"/>
       <c r="D705" s="21" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E705" s="2"/>
     </row>
@@ -13373,11 +13370,11 @@
         <v>705</v>
       </c>
       <c r="B706" s="20" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C706" s="20"/>
       <c r="D706" s="20" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E706" s="2"/>
     </row>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -3427,10 +3427,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3460,67 +3460,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3537,6 +3477,104 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3562,44 +3600,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3642,7 +3642,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3654,7 +3678,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3666,25 +3726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3696,13 +3738,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3714,19 +3762,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3738,73 +3798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3866,11 +3866,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3882,21 +3888,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3930,6 +3921,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3969,10 +3969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3981,133 +3981,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4499,8 +4499,8 @@
   <sheetPr/>
   <dimension ref="A1:E706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="D429" sqref="D429"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -3185,7 +3185,7 @@
     <t>Are you sure you want to quit?</t>
   </si>
   <si>
-    <t>你确定要退出游戏？</t>
+    <t>你确定要退出游戏？退出后来官方中文交流群：574083350 交流一下游戏心得吧！</t>
   </si>
   <si>
     <t>Saving...</t>
@@ -3427,10 +3427,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3466,22 +3466,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3489,10 +3473,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3503,16 +3503,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3520,7 +3512,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3542,15 +3534,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3565,16 +3558,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3589,15 +3590,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3642,7 +3642,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3660,43 +3750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3708,13 +3768,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3726,85 +3804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3866,6 +3866,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3895,56 +3934,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3963,16 +3954,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3981,133 +3981,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4499,8 +4499,8 @@
   <sheetPr/>
   <dimension ref="A1:E706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
+      <selection activeCell="D658" sqref="D658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -588,7 +588,7 @@
     <t>Filling progress</t>
   </si>
   <si>
-    <t>填充进度</t>
+    <t>容量</t>
   </si>
   <si>
     <t>Lock the window</t>
@@ -618,7 +618,7 @@
     <t>Current and maximum amount of people in the building</t>
   </si>
   <si>
-    <t>建筑物中的当前人数和最大人数</t>
+    <t>建筑物中当前人数及最大人数</t>
   </si>
   <si>
     <t>People working in the profession</t>
@@ -1362,7 +1362,7 @@
     <t>Loading game level...</t>
   </si>
   <si>
-    <t>加载游戏中...</t>
+    <t>游戏加载中...</t>
   </si>
   <si>
     <t>Clearing building area</t>
@@ -1762,13 +1762,13 @@
     <t>Bloom</t>
   </si>
   <si>
-    <t>繁殖</t>
+    <t>光照强度</t>
   </si>
   <si>
     <t>Strong</t>
   </si>
   <si>
-    <t>强壮</t>
+    <t>强</t>
   </si>
   <si>
     <t>year</t>
@@ -2044,7 +2044,7 @@
     <t>A baby has been born</t>
   </si>
   <si>
-    <t>一个婴儿出身了</t>
+    <t>一个婴儿出生了</t>
   </si>
   <si>
     <t>Go to the event</t>
@@ -2095,13 +2095,13 @@
     <t>died during childbirth</t>
   </si>
   <si>
-    <t>分娩时死亡</t>
+    <t>难产死亡</t>
   </si>
   <si>
     <t>The child died during childbirth</t>
   </si>
   <si>
-    <t>孩子在分娩时死亡</t>
+    <t>孩子因难产死亡</t>
   </si>
   <si>
     <t>died in an accident</t>
@@ -2296,7 +2296,7 @@
     <t>Don't forget to harvest firewood for the winter, or your people will freeze to death. Build a lumberjack's lodge from the resource gathering group and hire lumberjacks - they will deliver wood to the lodge and make firewood.</t>
   </si>
   <si>
-    <t>不要忘了在过冬的时候收集木柴，或是你的村民被冻死。从资源收集分类建造一间伐木小屋然后雇佣伐木工人，他们会向锯木厂提供木材然后加工成木柴。</t>
+    <t>不要忘了在过冬的时候收集木柴，或是你的村民被冻死。从资源收集分类建造一间伐木小屋然后雇佣伐木工人，他们会向提供木材然后加工成木柴。</t>
   </si>
   <si>
     <t>Construct residential houses to increase the village population. People will settle into the houses, create families and bear children. Hostels can accommodate a lot of people, but villagers can't marry and bear children there.</t>
@@ -2438,19 +2438,19 @@
     <t>Fast-growing</t>
   </si>
   <si>
-    <t>快速增长</t>
+    <t>快速生长</t>
   </si>
   <si>
     <t>Normal-growing</t>
   </si>
   <si>
-    <t>普通增长</t>
+    <t>普通生长</t>
   </si>
   <si>
     <t>Slow-growing</t>
   </si>
   <si>
-    <t>慢速增长</t>
+    <t>慢速生长</t>
   </si>
   <si>
     <t>Fast perennials</t>
@@ -2480,7 +2480,7 @@
     <t>You cannot build in this area</t>
   </si>
   <si>
-    <t>不可在此区域建造</t>
+    <t>无法在此区域建造</t>
   </si>
   <si>
     <t>Child %NAME% has grown up and is ready to study</t>
@@ -2504,7 +2504,7 @@
     <t>tile</t>
   </si>
   <si>
-    <t>瓦片</t>
+    <t>地块</t>
   </si>
   <si>
     <t>Windmill</t>
@@ -2528,7 +2528,7 @@
     <t>Not enough space</t>
   </si>
   <si>
-    <t>空间不够了</t>
+    <t>尺寸不足</t>
   </si>
   <si>
     <t>Resource limit:</t>
@@ -2606,19 +2606,19 @@
     <t>Current and maximum amount of resources</t>
   </si>
   <si>
-    <t>当前及最大资源总量</t>
+    <t>当前/最大资源量</t>
   </si>
   <si>
     <t>Current and maximum number of students</t>
   </si>
   <si>
-    <t>当前及最大学生数量</t>
+    <t>当前/最大学生数</t>
   </si>
   <si>
     <t>Current and maximum number of sick people</t>
   </si>
   <si>
-    <t>当前及最大病人数量</t>
+    <t>当前/最大病人数</t>
   </si>
   <si>
     <t>Burning time</t>
@@ -2717,13 +2717,13 @@
     <t>Number of idle villagers</t>
   </si>
   <si>
-    <t>空闲的居民数量</t>
+    <t>空闲居民数量</t>
   </si>
   <si>
     <t>Number of hungry villagers</t>
   </si>
   <si>
-    <t>饥饿的居民数量</t>
+    <t>饥饿居民数量</t>
   </si>
   <si>
     <t>Number of frozen villagers</t>
@@ -3305,7 +3305,7 @@
     <t>Interact</t>
   </si>
   <si>
-    <t>互相作用</t>
+    <t>交互</t>
   </si>
   <si>
     <t>Cancel resource gathering in the area</t>
@@ -3427,10 +3427,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3467,7 +3467,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3481,8 +3510,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3496,88 +3573,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3588,16 +3588,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3642,13 +3642,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3660,31 +3684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3702,19 +3702,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3726,7 +3732,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3738,13 +3762,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3756,55 +3792,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3866,6 +3866,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3883,9 +3907,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3905,27 +3946,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3939,40 +3963,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3981,133 +3981,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4499,8 +4499,8 @@
   <sheetPr/>
   <dimension ref="A1:E706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
-      <selection activeCell="D658" sqref="D658"/>
+    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="D567" sqref="D567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="zh-cn" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224">
   <si>
     <t>ID</t>
   </si>
@@ -3420,6 +3420,276 @@
   </si>
   <si>
     <t>不利的季节</t>
+  </si>
+  <si>
+    <t>This is your new village. During the next several minutes we will show you the game basics and teach you the main principles.</t>
+  </si>
+  <si>
+    <t>这是你的新村庄。在接下来的几分钟时间里，我们将向你展示游戏的基础知识，并教你主要原则。你也可以加入交流群：574083350 来进行交流。</t>
+  </si>
+  <si>
+    <t>Each villager must have a living space, where they can eat, get warm during the cold months and have a family. If the villager does not have a shelter he/she will not be able to eat or get warm. In this case they will either freeze to death or die from starvation. All homeless people are marked with a special icon. Let's build a dwelling for this homeless one.</t>
+  </si>
+  <si>
+    <t>每个村民都需要住处，他们可以在里面吃饭、休息、在寒冷的冬天取暖，并且拥有一个家庭。如果村民没有一个可以庇护他的地方，他/她将无法吃东西或是取暖。在这种情况下，他们要么会而是，要么便会冻死。所有无家可归的人都会有一个特殊的图标标记。让我们给无家可归的人建造一个住处吧。</t>
+  </si>
+  <si>
+    <t>Press the residential buildings group button to open the list of available houses. Then press the build house button.</t>
+  </si>
+  <si>
+    <t>按下“住宅”按钮可以打开可用住宅列表。然后[左键单击]“小型住宅”按钮以开始建造一个住宅。</t>
+  </si>
+  <si>
+    <t>In the building information window you can see the name, building area, necessary resources, building time and required number of builders. Choose the location of the building so that the whole building area is marked with only green tiles. Then left click to confirm construction.</t>
+  </si>
+  <si>
+    <t>在建筑信息窗口中可以看到名称、建筑面积、所需的资源、建筑时间以及所需的建筑工数量。选择你想建造的位置，使得整个建筑区域都变成绿色的格子。然后[左键单击]来确认该位置。</t>
+  </si>
+  <si>
+    <t>Building construction site is now marked. All available laborers will prepare resources immediately. Right-click to switch off the building mode.</t>
+  </si>
+  <si>
+    <t>建筑工地现在已经被标记了。所有可用的劳动力都会立即准备资源。[右键单击]来退出建筑模式。</t>
+  </si>
+  <si>
+    <t>Select construction site by clicking on it.</t>
+  </si>
+  <si>
+    <t>通过[左键单击]来选择建筑工地。</t>
+  </si>
+  <si>
+    <t>You can see building construction progress bar in the upper part of window.</t>
+  </si>
+  <si>
+    <t>在窗口上面部分可以看到建筑的施工进度。</t>
+  </si>
+  <si>
+    <t>Below you can see the required resources and construction time. Prepared recourses are shown in the upper part of resource block while total needed amount is in the lower part.</t>
+  </si>
+  <si>
+    <t>Necessary building resources are stored at the warehouse. Select highlighted warehouse.</t>
+  </si>
+  <si>
+    <t>These are the resources stored at this particular warehouse. On top of them is the warehouse fill-meter. Do not let it go up to 100% or you will not be able to store new resources.</t>
+  </si>
+  <si>
+    <t>This is your village overview window. It shows the total amount of all resources in all your storage combined. On the left side of this window you can see weather and population info. The total population is shown next to the village name.</t>
+  </si>
+  <si>
+    <t>All available unemployed villagers will start gathering resources - they take them from the closest warehouse and carry to the construction site.</t>
+  </si>
+  <si>
+    <t>Now you need to assign builders. Select the building under construction.</t>
+  </si>
+  <si>
+    <t>Set two builders by using increase or decrease buttons or by pressing the necessary number instead of 0 on your keyboard.</t>
+  </si>
+  <si>
+    <t>All the required resources are on site. Builders are assigned. Now simply wait for the house to be built.</t>
+  </si>
+  <si>
+    <t>Select the constructed house.</t>
+  </si>
+  <si>
+    <t>This window shows the list of all vilagers who live in the house, their gender, name, age and profession.</t>
+  </si>
+  <si>
+    <t>Below you can find the list of resources that villagers use to cope with hunger and to get warm during cold times. They will begin to move the resources as soon as they move in the house.</t>
+  </si>
+  <si>
+    <t>There are several types of houses in game, each of them have their own unique characteristics: number of dwellers, durability and happiness bonus, which affects workers productivity.</t>
+  </si>
+  <si>
+    <t>In the upper right area of screen you can see the minimap. It displays the map of the island, planned and built constructions, and the current position of the camera.</t>
+  </si>
+  <si>
+    <t>In the bottom left area of screen you can find the game events log. Besides the list there is panel of filter keys, which can be used to swicth on/off the display of certain events.</t>
+  </si>
+  <si>
+    <t>Some buildings can be upgraded. Workers will partially dissasemble and then rebuild it. Improved buildings have higher characteristics. Click the upgrade button in the window of newly built house.</t>
+  </si>
+  <si>
+    <t>This is the upgrade information window. Here you can see the stats of the improved house and resources you need to perform the upgrade.</t>
+  </si>
+  <si>
+    <t>You can now start the construction work as you have all resources you need in the warehouse. Press the construction button to the right of information window.</t>
+  </si>
+  <si>
+    <t>You can speed up time so the wait for construction to finish will be less. Press the time acceleration button.</t>
+  </si>
+  <si>
+    <t>Now let's wait wait for the improved house version to be built.</t>
+  </si>
+  <si>
+    <t>You can pause the game process to take your time with assigning tasks to your settlers. In this case, all tasks will be saved and set to the order of execution. Just press the pause button.</t>
+  </si>
+  <si>
+    <t>Now open the group of common information by pressing the specified button.</t>
+  </si>
+  <si>
+    <t>Press the button and window with list of professions will open.</t>
+  </si>
+  <si>
+    <t>Now you no longer need builders, you can decrease their number. Set the current number to '0' using the interface buttons or keyboard.</t>
+  </si>
+  <si>
+    <t>You can perform the same actions with any other profession, even if there is no work for them. As soon as work appears, settlers assigned to it will start to work.</t>
+  </si>
+  <si>
+    <t>You need to assign two construction workers again.</t>
+  </si>
+  <si>
+    <t>All settlers need to eat or they will starve to death. There are lots of methods of food production.</t>
+  </si>
+  <si>
+    <t>All these methods are listed in the food production's group. Open it by pressing the button shown.</t>
+  </si>
+  <si>
+    <t>Now press the button to begin building the fisherman's lodge.</t>
+  </si>
+  <si>
+    <t>Сhoose the place where the fisherman's lodge will be built. Use move and rotation to set the construction with the entrance on coast and the rest on water. Building layout will help you with this .</t>
+  </si>
+  <si>
+    <t>To leave building mode, just click the second mouse button and continue.</t>
+  </si>
+  <si>
+    <t>Wait until construction of fisherman's lodge has finished.</t>
+  </si>
+  <si>
+    <t>Select the fisherman's lodge you've just built.</t>
+  </si>
+  <si>
+    <t>Now assign three fishermen for the job.</t>
+  </si>
+  <si>
+    <t>Fishermen will start fishing immediately.</t>
+  </si>
+  <si>
+    <t>Select the fisherman's lodge.</t>
+  </si>
+  <si>
+    <t>As soon as they fill the store with their catch, one of them will carry it to the barn.</t>
+  </si>
+  <si>
+    <t>Wait for a while untill the fisherman's lodge storrage is full.</t>
+  </si>
+  <si>
+    <t>The storage is full! One of the fishermen will be going to carry the catch to a barn. Left-click them.</t>
+  </si>
+  <si>
+    <t>This is the villagers window. Each villager has a number of characteristics, one of which is age. You can see it to the right from the name. Below are scales of happiness, which affects productivity, clothing and its condition, and also tools condition scale. Further down you can see icons to show his/her home and workplace.</t>
+  </si>
+  <si>
+    <t>To take direct control of a settler and manage them directly, click on their avatar.</t>
+  </si>
+  <si>
+    <t>Now carry resources to barn - the large building with barrels at the entrance - which is situated near ghe well. Get close to the doorstep until you see hint about interaction and then leave resources there.</t>
+  </si>
+  <si>
+    <t>If you leave resources lying on the ground, someone will come for them and move them to warehouse.</t>
+  </si>
+  <si>
+    <t>Press the Escape button to leave character control view.</t>
+  </si>
+  <si>
+    <t>Besides food, you need to collect construction and craftable resources, like wood, which is used in the construction of almost every building.</t>
+  </si>
+  <si>
+    <t>Open resource gathering group to send workers for wood cutting.</t>
+  </si>
+  <si>
+    <t>Now click on wood gathering, and then select an area with trees. Press the left mouse button to confirm wood cutting of it.</t>
+  </si>
+  <si>
+    <t>Click right mouse button to leave resource gathering mode.</t>
+  </si>
+  <si>
+    <t>Free labourers will start chopping trees and gather wood immediately.</t>
+  </si>
+  <si>
+    <t>Click on a highlighted woodcutter.</t>
+  </si>
+  <si>
+    <t>Switch to first-person villager control mode.</t>
+  </si>
+  <si>
+    <t>Use "Horn" ability by pressing 1 key. This will temporary speed up villagers, raising their spirit.</t>
+  </si>
+  <si>
+    <t>When it is warm fields are one of the best food sources. Let's create it.</t>
+  </si>
+  <si>
+    <t>Open food production group.</t>
+  </si>
+  <si>
+    <t>Press field construction button.</t>
+  </si>
+  <si>
+    <t>Fields have a tunable size, so you need to click the left mouse button and, while holding it, move coursor, stretching its area.</t>
+  </si>
+  <si>
+    <t>Click the right mouse button to leave from construction mode.</t>
+  </si>
+  <si>
+    <t>Wait for your builders to construct the field.</t>
+  </si>
+  <si>
+    <t>There are different crops, which you can plant on fields. Every crop has its own set of characteristics and weather and requirements for care.</t>
+  </si>
+  <si>
+    <t>The current weather is displayed in village window as icon and temperature value.</t>
+  </si>
+  <si>
+    <t>The current season affects both crops and villagers. Crops do not grow during cold seasons.</t>
+  </si>
+  <si>
+    <t>Select the field by clicking on it.</t>
+  </si>
+  <si>
+    <t>In the list of crops click on 'Potato' and confirm your choice.</t>
+  </si>
+  <si>
+    <t>Now assign a farmer to this field.</t>
+  </si>
+  <si>
+    <t>Every plant needs water. A farmer will automatically carry water from the well after seeding the field. If moisture is above the required level, the farmer will loosen soil to dry it.</t>
+  </si>
+  <si>
+    <t>Start the tutorial</t>
+  </si>
+  <si>
+    <t>Plants can grow without water, but they will grow very slowly, and there is a chance that they will not be harvestable in time before cold weather.</t>
+  </si>
+  <si>
+    <t>Many crops are yet to be discovered by the villagers. You can send Maritime Explorers on expeditions from a port. Groups of explorers will travel in search of new plants, orchard trees, animals and new ways to get food.</t>
+  </si>
+  <si>
+    <t>Villagers can eat common plants as well. These plants can be collected by gatherers from bushes that grow mainly in forests. Let's build a gatherer's hut. Firstly, we have to flatten the area, as many buildings can not be built on slopes.</t>
+  </si>
+  <si>
+    <t>Click on the button to open terraforming tools group.</t>
+  </si>
+  <si>
+    <t>Now press the flatten button.</t>
+  </si>
+  <si>
+    <t>Select a 12x12 area, click the left mouse button, then choose height level and confirm it by clicking the left mouse button again. Look at the time needed for flattening in the setup window - the lower the number, the quicker.</t>
+  </si>
+  <si>
+    <t>Wait until workers finish flattening the ground.</t>
+  </si>
+  <si>
+    <t>Let's build the gatherer's house on the area we've just terraformed. Open food production group.</t>
+  </si>
+  <si>
+    <t>Press build gatherer's hut button.</t>
+  </si>
+  <si>
+    <t>Place gatherer's hut on the recently terraformed area.</t>
+  </si>
+  <si>
+    <t>We have covered the basics. You will find many more opportunities in game! You can learn about them from tooltips available for most of ingame elements. Good luck!</t>
   </si>
 </sst>
 </file>
@@ -3427,10 +3697,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3459,20 +3729,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3482,14 +3738,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3502,17 +3751,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3526,6 +3788,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3534,9 +3803,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3566,6 +3835,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3581,6 +3858,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3589,21 +3867,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3631,25 +3901,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
         <bgColor theme="0" tint="-0.149998474074526"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -3660,13 +3912,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3684,37 +3948,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3726,19 +3978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3762,13 +4002,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3780,13 +4038,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3798,18 +4068,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3842,19 +4106,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3862,15 +4113,6 @@
       </top>
       <bottom style="thin">
         <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3886,6 +4128,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3916,36 +4197,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3958,8 +4209,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3969,10 +4220,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3981,16 +4232,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3999,16 +4250,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4020,98 +4271,98 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4130,16 +4381,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4497,10 +4740,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E706"/>
+  <dimension ref="A1:E790"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
-      <selection activeCell="D567" sqref="D567"/>
+    <sheetView tabSelected="1" topLeftCell="A696" workbookViewId="0">
+      <selection activeCell="D713" sqref="D713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -11770,11 +12013,11 @@
       <c r="A581" s="12">
         <v>580</v>
       </c>
-      <c r="B581" s="13" t="s">
+      <c r="B581" s="12" t="s">
         <v>922</v>
       </c>
-      <c r="C581" s="14"/>
-      <c r="D581" s="14" t="s">
+      <c r="C581" s="12"/>
+      <c r="D581" s="12" t="s">
         <v>923</v>
       </c>
       <c r="E581" s="2" t="s">
@@ -11782,36 +12025,36 @@
       </c>
     </row>
     <row r="582" spans="1:5">
-      <c r="A582" s="15">
+      <c r="A582" s="13">
         <v>581</v>
       </c>
-      <c r="B582" s="16"/>
-      <c r="C582" s="17"/>
-      <c r="D582" s="17"/>
+      <c r="B582" s="13"/>
+      <c r="C582" s="13"/>
+      <c r="D582" s="13"/>
       <c r="E582" s="2"/>
     </row>
     <row r="583" spans="1:5">
       <c r="A583" s="12">
         <v>582</v>
       </c>
-      <c r="B583" s="13" t="s">
+      <c r="B583" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="C583" s="14"/>
-      <c r="D583" s="14" t="s">
+      <c r="C583" s="12"/>
+      <c r="D583" s="12" t="s">
         <v>925</v>
       </c>
       <c r="E583" s="2"/>
     </row>
     <row r="584" spans="1:5">
-      <c r="A584" s="15">
+      <c r="A584" s="13">
         <v>583</v>
       </c>
-      <c r="B584" s="16" t="s">
+      <c r="B584" s="13" t="s">
         <v>926</v>
       </c>
-      <c r="C584" s="17"/>
-      <c r="D584" s="17" t="s">
+      <c r="C584" s="13"/>
+      <c r="D584" s="13" t="s">
         <v>927</v>
       </c>
       <c r="E584" s="2"/>
@@ -11820,24 +12063,24 @@
       <c r="A585" s="12">
         <v>584</v>
       </c>
-      <c r="B585" s="13" t="s">
+      <c r="B585" s="12" t="s">
         <v>928</v>
       </c>
-      <c r="C585" s="14"/>
-      <c r="D585" s="14" t="s">
+      <c r="C585" s="12"/>
+      <c r="D585" s="12" t="s">
         <v>929</v>
       </c>
       <c r="E585" s="2"/>
     </row>
     <row r="586" spans="1:5">
-      <c r="A586" s="15">
+      <c r="A586" s="13">
         <v>585</v>
       </c>
-      <c r="B586" s="16" t="s">
+      <c r="B586" s="13" t="s">
         <v>930</v>
       </c>
-      <c r="C586" s="17"/>
-      <c r="D586" s="17" t="s">
+      <c r="C586" s="13"/>
+      <c r="D586" s="13" t="s">
         <v>931</v>
       </c>
       <c r="E586" s="2"/>
@@ -11846,24 +12089,24 @@
       <c r="A587" s="12">
         <v>586</v>
       </c>
-      <c r="B587" s="13" t="s">
+      <c r="B587" s="12" t="s">
         <v>932</v>
       </c>
-      <c r="C587" s="14"/>
-      <c r="D587" s="14" t="s">
+      <c r="C587" s="12"/>
+      <c r="D587" s="12" t="s">
         <v>933</v>
       </c>
       <c r="E587" s="2"/>
     </row>
     <row r="588" spans="1:5">
-      <c r="A588" s="15">
+      <c r="A588" s="13">
         <v>587</v>
       </c>
-      <c r="B588" s="16" t="s">
+      <c r="B588" s="13" t="s">
         <v>934</v>
       </c>
-      <c r="C588" s="17"/>
-      <c r="D588" s="17" t="s">
+      <c r="C588" s="13"/>
+      <c r="D588" s="13" t="s">
         <v>935</v>
       </c>
       <c r="E588" s="2"/>
@@ -11872,24 +12115,24 @@
       <c r="A589" s="12">
         <v>588</v>
       </c>
-      <c r="B589" s="13" t="s">
+      <c r="B589" s="12" t="s">
         <v>936</v>
       </c>
-      <c r="C589" s="14"/>
-      <c r="D589" s="14" t="s">
+      <c r="C589" s="12"/>
+      <c r="D589" s="12" t="s">
         <v>937</v>
       </c>
       <c r="E589" s="2"/>
     </row>
     <row r="590" spans="1:5">
-      <c r="A590" s="15">
+      <c r="A590" s="13">
         <v>589</v>
       </c>
-      <c r="B590" s="16" t="s">
+      <c r="B590" s="13" t="s">
         <v>938</v>
       </c>
-      <c r="C590" s="17"/>
-      <c r="D590" s="17" t="s">
+      <c r="C590" s="13"/>
+      <c r="D590" s="13" t="s">
         <v>939</v>
       </c>
       <c r="E590" s="2"/>
@@ -11898,24 +12141,24 @@
       <c r="A591" s="12">
         <v>590</v>
       </c>
-      <c r="B591" s="13" t="s">
+      <c r="B591" s="12" t="s">
         <v>940</v>
       </c>
-      <c r="C591" s="14"/>
-      <c r="D591" s="14" t="s">
+      <c r="C591" s="12"/>
+      <c r="D591" s="12" t="s">
         <v>941</v>
       </c>
       <c r="E591" s="2"/>
     </row>
     <row r="592" spans="1:5">
-      <c r="A592" s="15">
+      <c r="A592" s="13">
         <v>591</v>
       </c>
-      <c r="B592" s="16" t="s">
+      <c r="B592" s="13" t="s">
         <v>942</v>
       </c>
-      <c r="C592" s="17"/>
-      <c r="D592" s="17" t="s">
+      <c r="C592" s="13"/>
+      <c r="D592" s="13" t="s">
         <v>943</v>
       </c>
       <c r="E592" s="2"/>
@@ -11924,24 +12167,24 @@
       <c r="A593" s="12">
         <v>592</v>
       </c>
-      <c r="B593" s="13" t="s">
+      <c r="B593" s="12" t="s">
         <v>944</v>
       </c>
-      <c r="C593" s="14"/>
-      <c r="D593" s="14" t="s">
+      <c r="C593" s="12"/>
+      <c r="D593" s="12" t="s">
         <v>945</v>
       </c>
       <c r="E593" s="2"/>
     </row>
     <row r="594" spans="1:5">
-      <c r="A594" s="15">
+      <c r="A594" s="13">
         <v>593</v>
       </c>
-      <c r="B594" s="16" t="s">
+      <c r="B594" s="13" t="s">
         <v>946</v>
       </c>
-      <c r="C594" s="17"/>
-      <c r="D594" s="17" t="s">
+      <c r="C594" s="13"/>
+      <c r="D594" s="13" t="s">
         <v>947</v>
       </c>
       <c r="E594" s="2"/>
@@ -11950,24 +12193,24 @@
       <c r="A595" s="12">
         <v>594</v>
       </c>
-      <c r="B595" s="13" t="s">
+      <c r="B595" s="12" t="s">
         <v>948</v>
       </c>
-      <c r="C595" s="14"/>
-      <c r="D595" s="14" t="s">
+      <c r="C595" s="12"/>
+      <c r="D595" s="12" t="s">
         <v>949</v>
       </c>
       <c r="E595" s="2"/>
     </row>
     <row r="596" spans="1:5">
-      <c r="A596" s="15">
+      <c r="A596" s="13">
         <v>595</v>
       </c>
-      <c r="B596" s="16" t="s">
+      <c r="B596" s="13" t="s">
         <v>950</v>
       </c>
-      <c r="C596" s="17"/>
-      <c r="D596" s="17" t="s">
+      <c r="C596" s="13"/>
+      <c r="D596" s="13" t="s">
         <v>951</v>
       </c>
       <c r="E596" s="2"/>
@@ -11976,24 +12219,24 @@
       <c r="A597" s="12">
         <v>596</v>
       </c>
-      <c r="B597" s="13" t="s">
+      <c r="B597" s="12" t="s">
         <v>952</v>
       </c>
-      <c r="C597" s="14"/>
-      <c r="D597" s="14" t="s">
+      <c r="C597" s="12"/>
+      <c r="D597" s="12" t="s">
         <v>953</v>
       </c>
       <c r="E597" s="2"/>
     </row>
     <row r="598" spans="1:5">
-      <c r="A598" s="15">
+      <c r="A598" s="13">
         <v>597</v>
       </c>
-      <c r="B598" s="16" t="s">
+      <c r="B598" s="13" t="s">
         <v>954</v>
       </c>
-      <c r="C598" s="17"/>
-      <c r="D598" s="17" t="s">
+      <c r="C598" s="13"/>
+      <c r="D598" s="13" t="s">
         <v>955</v>
       </c>
       <c r="E598" s="2"/>
@@ -12002,20 +12245,20 @@
       <c r="A599" s="12">
         <v>598</v>
       </c>
-      <c r="B599" s="13"/>
-      <c r="C599" s="14"/>
-      <c r="D599" s="14"/>
+      <c r="B599" s="12"/>
+      <c r="C599" s="12"/>
+      <c r="D599" s="12"/>
       <c r="E599" s="2"/>
     </row>
     <row r="600" spans="1:5">
-      <c r="A600" s="15">
+      <c r="A600" s="13">
         <v>599</v>
       </c>
-      <c r="B600" s="16" t="s">
+      <c r="B600" s="13" t="s">
         <v>956</v>
       </c>
-      <c r="C600" s="17"/>
-      <c r="D600" s="17" t="s">
+      <c r="C600" s="13"/>
+      <c r="D600" s="13" t="s">
         <v>957</v>
       </c>
       <c r="E600" s="2"/>
@@ -12024,24 +12267,24 @@
       <c r="A601" s="12">
         <v>600</v>
       </c>
-      <c r="B601" s="13" t="s">
+      <c r="B601" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="C601" s="14"/>
-      <c r="D601" s="14" t="s">
+      <c r="C601" s="12"/>
+      <c r="D601" s="12" t="s">
         <v>959</v>
       </c>
       <c r="E601" s="2"/>
     </row>
     <row r="602" spans="1:5">
-      <c r="A602" s="15">
+      <c r="A602" s="13">
         <v>601</v>
       </c>
-      <c r="B602" s="16" t="s">
+      <c r="B602" s="13" t="s">
         <v>960</v>
       </c>
-      <c r="C602" s="17"/>
-      <c r="D602" s="17" t="s">
+      <c r="C602" s="13"/>
+      <c r="D602" s="13" t="s">
         <v>961</v>
       </c>
       <c r="E602" s="2"/>
@@ -12050,24 +12293,24 @@
       <c r="A603" s="12">
         <v>602</v>
       </c>
-      <c r="B603" s="13" t="s">
+      <c r="B603" s="12" t="s">
         <v>962</v>
       </c>
-      <c r="C603" s="14"/>
-      <c r="D603" s="14" t="s">
+      <c r="C603" s="12"/>
+      <c r="D603" s="12" t="s">
         <v>963</v>
       </c>
       <c r="E603" s="2"/>
     </row>
     <row r="604" spans="1:5">
-      <c r="A604" s="15">
+      <c r="A604" s="13">
         <v>603</v>
       </c>
-      <c r="B604" s="16" t="s">
+      <c r="B604" s="13" t="s">
         <v>964</v>
       </c>
-      <c r="C604" s="17"/>
-      <c r="D604" s="17" t="s">
+      <c r="C604" s="13"/>
+      <c r="D604" s="13" t="s">
         <v>965</v>
       </c>
       <c r="E604" s="2"/>
@@ -12076,24 +12319,24 @@
       <c r="A605" s="12">
         <v>604</v>
       </c>
-      <c r="B605" s="13" t="s">
+      <c r="B605" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="C605" s="14"/>
-      <c r="D605" s="14" t="s">
+      <c r="C605" s="12"/>
+      <c r="D605" s="12" t="s">
         <v>967</v>
       </c>
       <c r="E605" s="2"/>
     </row>
     <row r="606" spans="1:5">
-      <c r="A606" s="15">
+      <c r="A606" s="13">
         <v>605</v>
       </c>
-      <c r="B606" s="16" t="s">
+      <c r="B606" s="13" t="s">
         <v>968</v>
       </c>
-      <c r="C606" s="17"/>
-      <c r="D606" s="17" t="s">
+      <c r="C606" s="13"/>
+      <c r="D606" s="13" t="s">
         <v>969</v>
       </c>
       <c r="E606" s="2"/>
@@ -12102,24 +12345,24 @@
       <c r="A607" s="12">
         <v>606</v>
       </c>
-      <c r="B607" s="13" t="s">
+      <c r="B607" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="C607" s="14"/>
-      <c r="D607" s="14" t="s">
+      <c r="C607" s="12"/>
+      <c r="D607" s="12" t="s">
         <v>971</v>
       </c>
       <c r="E607" s="2"/>
     </row>
     <row r="608" spans="1:5">
-      <c r="A608" s="15">
+      <c r="A608" s="13">
         <v>607</v>
       </c>
-      <c r="B608" s="16" t="s">
+      <c r="B608" s="13" t="s">
         <v>972</v>
       </c>
-      <c r="C608" s="17"/>
-      <c r="D608" s="17" t="s">
+      <c r="C608" s="13"/>
+      <c r="D608" s="13" t="s">
         <v>973</v>
       </c>
       <c r="E608" s="2"/>
@@ -12128,28 +12371,28 @@
       <c r="A609" s="12">
         <v>608</v>
       </c>
-      <c r="B609" s="13" t="s">
+      <c r="B609" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="C609" s="14" t="s">
+      <c r="C609" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D609" s="14" t="s">
+      <c r="D609" s="12" t="s">
         <v>975</v>
       </c>
       <c r="E609" s="2"/>
     </row>
     <row r="610" spans="1:5">
-      <c r="A610" s="15">
+      <c r="A610" s="13">
         <v>609</v>
       </c>
-      <c r="B610" s="16" t="s">
+      <c r="B610" s="13" t="s">
         <v>976</v>
       </c>
-      <c r="C610" s="17" t="s">
+      <c r="C610" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="D610" s="14" t="s">
+      <c r="D610" s="13" t="s">
         <v>977</v>
       </c>
       <c r="E610" s="2"/>
@@ -12158,28 +12401,28 @@
       <c r="A611" s="12">
         <v>610</v>
       </c>
-      <c r="B611" s="13" t="s">
+      <c r="B611" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="C611" s="14" t="s">
+      <c r="C611" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D611" s="14" t="s">
+      <c r="D611" s="12" t="s">
         <v>979</v>
       </c>
       <c r="E611" s="2"/>
     </row>
     <row r="612" spans="1:5">
-      <c r="A612" s="15">
+      <c r="A612" s="13">
         <v>611</v>
       </c>
-      <c r="B612" s="16" t="s">
+      <c r="B612" s="13" t="s">
         <v>980</v>
       </c>
-      <c r="C612" s="17" t="s">
+      <c r="C612" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="D612" s="14" t="s">
+      <c r="D612" s="13" t="s">
         <v>981</v>
       </c>
       <c r="E612" s="2"/>
@@ -12188,46 +12431,46 @@
       <c r="A613" s="12">
         <v>612</v>
       </c>
-      <c r="B613" s="13" t="s">
+      <c r="B613" s="12" t="s">
         <v>982</v>
       </c>
-      <c r="C613" s="14" t="s">
+      <c r="C613" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D613" s="14" t="s">
+      <c r="D613" s="12" t="s">
         <v>983</v>
       </c>
       <c r="E613" s="2"/>
     </row>
     <row r="614" spans="1:5">
-      <c r="A614" s="15">
+      <c r="A614" s="13">
         <v>613</v>
       </c>
-      <c r="B614" s="16"/>
-      <c r="C614" s="17"/>
-      <c r="D614" s="17"/>
+      <c r="B614" s="13"/>
+      <c r="C614" s="13"/>
+      <c r="D614" s="13"/>
       <c r="E614" s="2"/>
     </row>
     <row r="615" spans="1:5">
       <c r="A615" s="12">
         <v>614</v>
       </c>
-      <c r="B615" s="13"/>
-      <c r="C615" s="14"/>
-      <c r="D615" s="14"/>
+      <c r="B615" s="12"/>
+      <c r="C615" s="12"/>
+      <c r="D615" s="12"/>
       <c r="E615" s="2"/>
     </row>
     <row r="616" spans="1:5">
-      <c r="A616" s="15">
+      <c r="A616" s="13">
         <v>615</v>
       </c>
-      <c r="B616" s="16" t="s">
+      <c r="B616" s="13" t="s">
         <v>984</v>
       </c>
-      <c r="C616" s="17" t="s">
+      <c r="C616" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="D616" s="14" t="s">
+      <c r="D616" s="13" t="s">
         <v>985</v>
       </c>
       <c r="E616" s="2"/>
@@ -12236,26 +12479,26 @@
       <c r="A617" s="12">
         <v>616</v>
       </c>
-      <c r="B617" s="13" t="s">
+      <c r="B617" s="12" t="s">
         <v>986</v>
       </c>
-      <c r="C617" s="14" t="s">
+      <c r="C617" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D617" s="14" t="s">
+      <c r="D617" s="12" t="s">
         <v>987</v>
       </c>
       <c r="E617" s="2"/>
     </row>
     <row r="618" spans="1:5">
-      <c r="A618" s="15">
+      <c r="A618" s="13">
         <v>617</v>
       </c>
-      <c r="B618" s="16" t="s">
+      <c r="B618" s="13" t="s">
         <v>988</v>
       </c>
-      <c r="C618" s="17"/>
-      <c r="D618" s="17" t="s">
+      <c r="C618" s="13"/>
+      <c r="D618" s="13" t="s">
         <v>989</v>
       </c>
       <c r="E618" s="2"/>
@@ -12264,50 +12507,50 @@
       <c r="A619" s="12">
         <v>618</v>
       </c>
-      <c r="B619" s="13" t="s">
+      <c r="B619" s="12" t="s">
         <v>990</v>
       </c>
-      <c r="C619" s="14"/>
-      <c r="D619" s="17" t="s">
+      <c r="C619" s="12"/>
+      <c r="D619" s="12" t="s">
         <v>991</v>
       </c>
       <c r="E619" s="2"/>
     </row>
     <row r="620" spans="1:5">
-      <c r="A620" s="15">
+      <c r="A620" s="13">
         <v>619</v>
       </c>
-      <c r="B620" s="16"/>
-      <c r="C620" s="17"/>
-      <c r="D620" s="17"/>
+      <c r="B620" s="13"/>
+      <c r="C620" s="13"/>
+      <c r="D620" s="13"/>
       <c r="E620" s="2"/>
     </row>
     <row r="621" spans="1:5">
       <c r="A621" s="12">
         <v>620</v>
       </c>
-      <c r="B621" s="13" t="s">
+      <c r="B621" s="12" t="s">
         <v>992</v>
       </c>
-      <c r="C621" s="14" t="s">
+      <c r="C621" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D621" s="14" t="s">
+      <c r="D621" s="12" t="s">
         <v>993</v>
       </c>
       <c r="E621" s="2"/>
     </row>
     <row r="622" spans="1:5">
-      <c r="A622" s="15">
+      <c r="A622" s="13">
         <v>621</v>
       </c>
-      <c r="B622" s="16" t="s">
+      <c r="B622" s="13" t="s">
         <v>994</v>
       </c>
-      <c r="C622" s="17" t="s">
+      <c r="C622" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="D622" s="17" t="s">
+      <c r="D622" s="13" t="s">
         <v>995</v>
       </c>
       <c r="E622" s="2"/>
@@ -12316,28 +12559,28 @@
       <c r="A623" s="12">
         <v>622</v>
       </c>
-      <c r="B623" s="18" t="s">
+      <c r="B623" s="12" t="s">
         <v>996</v>
       </c>
-      <c r="C623" s="14" t="s">
+      <c r="C623" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D623" s="14" t="s">
+      <c r="D623" s="12" t="s">
         <v>997</v>
       </c>
       <c r="E623" s="2"/>
     </row>
     <row r="624" spans="1:5">
-      <c r="A624" s="15">
+      <c r="A624" s="13">
         <v>623</v>
       </c>
-      <c r="B624" s="16" t="s">
+      <c r="B624" s="13" t="s">
         <v>998</v>
       </c>
-      <c r="C624" s="17" t="s">
+      <c r="C624" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="D624" s="17" t="s">
+      <c r="D624" s="13" t="s">
         <v>999</v>
       </c>
       <c r="E624" s="2"/>
@@ -12346,28 +12589,28 @@
       <c r="A625" s="12">
         <v>624</v>
       </c>
-      <c r="B625" s="13" t="s">
+      <c r="B625" s="12" t="s">
         <v>1000</v>
       </c>
-      <c r="C625" s="14" t="s">
+      <c r="C625" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D625" s="14" t="s">
+      <c r="D625" s="12" t="s">
         <v>1001</v>
       </c>
       <c r="E625" s="2"/>
     </row>
     <row r="626" spans="1:5">
-      <c r="A626" s="15">
+      <c r="A626" s="13">
         <v>625</v>
       </c>
-      <c r="B626" s="19" t="s">
+      <c r="B626" s="13" t="s">
         <v>1002</v>
       </c>
-      <c r="C626" s="17" t="s">
+      <c r="C626" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="D626" s="17" t="s">
+      <c r="D626" s="13" t="s">
         <v>1003</v>
       </c>
       <c r="E626" s="2"/>
@@ -12376,28 +12619,28 @@
       <c r="A627" s="12">
         <v>626</v>
       </c>
-      <c r="B627" s="18" t="s">
+      <c r="B627" s="12" t="s">
         <v>1004</v>
       </c>
-      <c r="C627" s="14" t="s">
+      <c r="C627" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D627" s="14" t="s">
+      <c r="D627" s="12" t="s">
         <v>1005</v>
       </c>
       <c r="E627" s="2"/>
     </row>
     <row r="628" spans="1:5">
-      <c r="A628" s="15">
+      <c r="A628" s="13">
         <v>627</v>
       </c>
-      <c r="B628" s="19" t="s">
+      <c r="B628" s="13" t="s">
         <v>1006</v>
       </c>
-      <c r="C628" s="17" t="s">
+      <c r="C628" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="D628" s="17" t="s">
+      <c r="D628" s="13" t="s">
         <v>1007</v>
       </c>
       <c r="E628" s="2"/>
@@ -12406,24 +12649,24 @@
       <c r="A629" s="12">
         <v>628</v>
       </c>
-      <c r="B629" s="18" t="s">
+      <c r="B629" s="12" t="s">
         <v>1008</v>
       </c>
-      <c r="C629" s="14"/>
-      <c r="D629" s="14" t="s">
+      <c r="C629" s="12"/>
+      <c r="D629" s="12" t="s">
         <v>1009</v>
       </c>
       <c r="E629" s="2"/>
     </row>
     <row r="630" spans="1:5">
-      <c r="A630" s="15">
+      <c r="A630" s="13">
         <v>629</v>
       </c>
-      <c r="B630" s="19" t="s">
+      <c r="B630" s="13" t="s">
         <v>1010</v>
       </c>
-      <c r="C630" s="17"/>
-      <c r="D630" s="17" t="s">
+      <c r="C630" s="13"/>
+      <c r="D630" s="13" t="s">
         <v>1011</v>
       </c>
       <c r="E630" s="2"/>
@@ -12432,26 +12675,26 @@
       <c r="A631" s="12">
         <v>630</v>
       </c>
-      <c r="B631" s="18" t="s">
+      <c r="B631" s="12" t="s">
         <v>1012</v>
       </c>
-      <c r="C631" s="14"/>
-      <c r="D631" s="14" t="s">
+      <c r="C631" s="12"/>
+      <c r="D631" s="12" t="s">
         <v>1013</v>
       </c>
       <c r="E631" s="2"/>
     </row>
     <row r="632" spans="1:5">
-      <c r="A632" s="15">
+      <c r="A632" s="13">
         <v>631</v>
       </c>
-      <c r="B632" s="19" t="s">
+      <c r="B632" s="13" t="s">
         <v>1014</v>
       </c>
-      <c r="C632" s="17" t="s">
+      <c r="C632" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="D632" s="17" t="s">
+      <c r="D632" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="E632" s="2"/>
@@ -12460,22 +12703,22 @@
       <c r="A633" s="12">
         <v>632</v>
       </c>
-      <c r="B633" s="18"/>
-      <c r="C633" s="14"/>
-      <c r="D633" s="14"/>
+      <c r="B633" s="12"/>
+      <c r="C633" s="12"/>
+      <c r="D633" s="12"/>
       <c r="E633" s="2"/>
     </row>
     <row r="634" spans="1:5">
-      <c r="A634" s="15">
+      <c r="A634" s="13">
         <v>633</v>
       </c>
-      <c r="B634" s="19" t="s">
+      <c r="B634" s="13" t="s">
         <v>1016</v>
       </c>
-      <c r="C634" s="17" t="s">
+      <c r="C634" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="D634" s="17" t="s">
+      <c r="D634" s="13" t="s">
         <v>1017</v>
       </c>
       <c r="E634" s="2"/>
@@ -12484,28 +12727,28 @@
       <c r="A635" s="12">
         <v>634</v>
       </c>
-      <c r="B635" s="18" t="s">
+      <c r="B635" s="12" t="s">
         <v>1018</v>
       </c>
-      <c r="C635" s="14" t="s">
+      <c r="C635" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D635" s="14" t="s">
+      <c r="D635" s="12" t="s">
         <v>1019</v>
       </c>
       <c r="E635" s="2"/>
     </row>
     <row r="636" spans="1:5">
-      <c r="A636" s="15">
+      <c r="A636" s="13">
         <v>635</v>
       </c>
-      <c r="B636" s="19" t="s">
+      <c r="B636" s="13" t="s">
         <v>1020</v>
       </c>
-      <c r="C636" s="17" t="s">
+      <c r="C636" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="D636" s="17" t="s">
+      <c r="D636" s="13" t="s">
         <v>1021</v>
       </c>
       <c r="E636" s="2"/>
@@ -12514,28 +12757,28 @@
       <c r="A637" s="12">
         <v>636</v>
       </c>
-      <c r="B637" s="18" t="s">
+      <c r="B637" s="12" t="s">
         <v>1022</v>
       </c>
-      <c r="C637" s="14" t="s">
+      <c r="C637" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D637" s="14" t="s">
+      <c r="D637" s="12" t="s">
         <v>1023</v>
       </c>
       <c r="E637" s="2"/>
     </row>
     <row r="638" spans="1:5">
-      <c r="A638" s="15">
+      <c r="A638" s="13">
         <v>637</v>
       </c>
-      <c r="B638" s="19" t="s">
+      <c r="B638" s="13" t="s">
         <v>1024</v>
       </c>
-      <c r="C638" s="17" t="s">
+      <c r="C638" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="D638" s="17" t="s">
+      <c r="D638" s="13" t="s">
         <v>1025</v>
       </c>
       <c r="E638" s="2"/>
@@ -12544,28 +12787,28 @@
       <c r="A639" s="12">
         <v>638</v>
       </c>
-      <c r="B639" s="18" t="s">
+      <c r="B639" s="12" t="s">
         <v>1026</v>
       </c>
-      <c r="C639" s="14" t="s">
+      <c r="C639" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D639" s="17" t="s">
+      <c r="D639" s="12" t="s">
         <v>1027</v>
       </c>
       <c r="E639" s="2"/>
     </row>
     <row r="640" spans="1:5">
-      <c r="A640" s="15">
+      <c r="A640" s="13">
         <v>639</v>
       </c>
-      <c r="B640" s="19" t="s">
+      <c r="B640" s="13" t="s">
         <v>1028</v>
       </c>
-      <c r="C640" s="17" t="s">
+      <c r="C640" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="D640" s="17" t="s">
+      <c r="D640" s="13" t="s">
         <v>1029</v>
       </c>
       <c r="E640" s="2"/>
@@ -12574,26 +12817,26 @@
       <c r="A641" s="12">
         <v>640</v>
       </c>
-      <c r="B641" s="18" t="s">
+      <c r="B641" s="12" t="s">
         <v>1030</v>
       </c>
-      <c r="C641" s="14" t="s">
+      <c r="C641" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D641" s="14" t="s">
+      <c r="D641" s="12" t="s">
         <v>1031</v>
       </c>
       <c r="E641" s="2"/>
     </row>
     <row r="642" spans="1:5">
-      <c r="A642" s="15">
+      <c r="A642" s="13">
         <v>641</v>
       </c>
-      <c r="B642" s="19" t="s">
+      <c r="B642" s="13" t="s">
         <v>1032</v>
       </c>
-      <c r="C642" s="17"/>
-      <c r="D642" s="17" t="s">
+      <c r="C642" s="13"/>
+      <c r="D642" s="13" t="s">
         <v>1033</v>
       </c>
       <c r="E642" s="2"/>
@@ -12602,26 +12845,26 @@
       <c r="A643" s="12">
         <v>642</v>
       </c>
-      <c r="B643" s="18" t="s">
+      <c r="B643" s="12" t="s">
         <v>1034</v>
       </c>
-      <c r="C643" s="14"/>
-      <c r="D643" s="14" t="s">
+      <c r="C643" s="12"/>
+      <c r="D643" s="12" t="s">
         <v>1035</v>
       </c>
       <c r="E643" s="2"/>
     </row>
     <row r="644" spans="1:5">
-      <c r="A644" s="15">
+      <c r="A644" s="13">
         <v>643</v>
       </c>
-      <c r="B644" s="19" t="s">
+      <c r="B644" s="13" t="s">
         <v>1036</v>
       </c>
-      <c r="C644" s="17" t="s">
+      <c r="C644" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="D644" s="17" t="s">
+      <c r="D644" s="13" t="s">
         <v>1037</v>
       </c>
       <c r="E644" s="2"/>
@@ -12630,26 +12873,26 @@
       <c r="A645" s="12">
         <v>644</v>
       </c>
-      <c r="B645" s="18" t="s">
+      <c r="B645" s="12" t="s">
         <v>1038</v>
       </c>
-      <c r="C645" s="14" t="s">
+      <c r="C645" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D645" s="14" t="s">
+      <c r="D645" s="12" t="s">
         <v>1039</v>
       </c>
       <c r="E645" s="2"/>
     </row>
     <row r="646" spans="1:5">
-      <c r="A646" s="15">
+      <c r="A646" s="13">
         <v>645</v>
       </c>
-      <c r="B646" s="19" t="s">
+      <c r="B646" s="13" t="s">
         <v>1040</v>
       </c>
-      <c r="C646" s="17"/>
-      <c r="D646" s="17" t="s">
+      <c r="C646" s="13"/>
+      <c r="D646" s="13" t="s">
         <v>1041</v>
       </c>
       <c r="E646" s="2"/>
@@ -12658,24 +12901,24 @@
       <c r="A647" s="12">
         <v>646</v>
       </c>
-      <c r="B647" s="18" t="s">
+      <c r="B647" s="12" t="s">
         <v>1042</v>
       </c>
-      <c r="C647" s="14"/>
-      <c r="D647" s="14" t="s">
+      <c r="C647" s="12"/>
+      <c r="D647" s="12" t="s">
         <v>1043</v>
       </c>
       <c r="E647" s="2"/>
     </row>
     <row r="648" spans="1:5">
-      <c r="A648" s="15">
+      <c r="A648" s="13">
         <v>647</v>
       </c>
-      <c r="B648" s="19" t="s">
+      <c r="B648" s="13" t="s">
         <v>1044</v>
       </c>
-      <c r="C648" s="17"/>
-      <c r="D648" s="17" t="s">
+      <c r="C648" s="13"/>
+      <c r="D648" s="13" t="s">
         <v>1045</v>
       </c>
       <c r="E648" s="2"/>
@@ -12684,24 +12927,24 @@
       <c r="A649" s="12">
         <v>648</v>
       </c>
-      <c r="B649" s="18" t="s">
+      <c r="B649" s="12" t="s">
         <v>1046</v>
       </c>
-      <c r="C649" s="14"/>
-      <c r="D649" s="14" t="s">
+      <c r="C649" s="12"/>
+      <c r="D649" s="12" t="s">
         <v>1047</v>
       </c>
       <c r="E649" s="2"/>
     </row>
     <row r="650" spans="1:5">
-      <c r="A650" s="15">
+      <c r="A650" s="13">
         <v>649</v>
       </c>
-      <c r="B650" s="19" t="s">
+      <c r="B650" s="13" t="s">
         <v>1048</v>
       </c>
-      <c r="C650" s="17"/>
-      <c r="D650" s="17" t="s">
+      <c r="C650" s="13"/>
+      <c r="D650" s="13" t="s">
         <v>1049</v>
       </c>
       <c r="E650" s="2"/>
@@ -12710,82 +12953,82 @@
       <c r="A651" s="12">
         <v>650</v>
       </c>
-      <c r="B651" s="18" t="s">
+      <c r="B651" s="12" t="s">
         <v>1050</v>
       </c>
-      <c r="C651" s="14"/>
-      <c r="D651" s="14" t="s">
+      <c r="C651" s="12"/>
+      <c r="D651" s="12" t="s">
         <v>1051</v>
       </c>
       <c r="E651" s="2"/>
     </row>
     <row r="652" spans="1:5">
-      <c r="A652" s="15">
+      <c r="A652" s="13">
         <v>651</v>
       </c>
-      <c r="B652" s="19"/>
-      <c r="C652" s="17"/>
-      <c r="D652" s="17"/>
+      <c r="B652" s="13"/>
+      <c r="C652" s="13"/>
+      <c r="D652" s="13"/>
       <c r="E652" s="2"/>
     </row>
     <row r="653" spans="1:5">
       <c r="A653" s="12">
         <v>652</v>
       </c>
-      <c r="B653" s="18"/>
-      <c r="C653" s="14"/>
-      <c r="D653" s="14"/>
+      <c r="B653" s="12"/>
+      <c r="C653" s="12"/>
+      <c r="D653" s="12"/>
       <c r="E653" s="2"/>
     </row>
     <row r="654" spans="1:5">
-      <c r="A654" s="15">
+      <c r="A654" s="13">
         <v>653</v>
       </c>
-      <c r="B654" s="19"/>
-      <c r="C654" s="17"/>
-      <c r="D654" s="17"/>
+      <c r="B654" s="13"/>
+      <c r="C654" s="13"/>
+      <c r="D654" s="13"/>
       <c r="E654" s="2"/>
     </row>
     <row r="655" spans="1:5">
       <c r="A655" s="12">
         <v>654</v>
       </c>
-      <c r="B655" s="18"/>
-      <c r="C655" s="14"/>
-      <c r="D655" s="14"/>
+      <c r="B655" s="12"/>
+      <c r="C655" s="12"/>
+      <c r="D655" s="12"/>
       <c r="E655" s="2"/>
     </row>
     <row r="656" spans="1:5">
-      <c r="A656" s="15">
+      <c r="A656" s="13">
         <v>655</v>
       </c>
-      <c r="B656" s="19"/>
-      <c r="C656" s="17"/>
-      <c r="D656" s="17"/>
+      <c r="B656" s="13"/>
+      <c r="C656" s="13"/>
+      <c r="D656" s="13"/>
       <c r="E656" s="2"/>
     </row>
     <row r="657" spans="1:5">
       <c r="A657" s="12">
         <v>656</v>
       </c>
-      <c r="B657" s="18" t="s">
+      <c r="B657" s="12" t="s">
         <v>1052</v>
       </c>
-      <c r="C657" s="14"/>
-      <c r="D657" s="14" t="s">
+      <c r="C657" s="12"/>
+      <c r="D657" s="12" t="s">
         <v>1053</v>
       </c>
       <c r="E657" s="2"/>
     </row>
     <row r="658" spans="1:5">
-      <c r="A658" s="15">
+      <c r="A658" s="13">
         <v>657</v>
       </c>
-      <c r="B658" s="19" t="s">
+      <c r="B658" s="13" t="s">
         <v>1054</v>
       </c>
-      <c r="C658" s="17"/>
-      <c r="D658" s="17" t="s">
+      <c r="C658" s="13"/>
+      <c r="D658" s="13" t="s">
         <v>1055</v>
       </c>
       <c r="E658" s="2"/>
@@ -12794,24 +13037,24 @@
       <c r="A659" s="12">
         <v>658</v>
       </c>
-      <c r="B659" s="18" t="s">
+      <c r="B659" s="12" t="s">
         <v>1056</v>
       </c>
-      <c r="C659" s="14"/>
-      <c r="D659" s="14" t="s">
+      <c r="C659" s="12"/>
+      <c r="D659" s="12" t="s">
         <v>1057</v>
       </c>
       <c r="E659" s="2"/>
     </row>
     <row r="660" spans="1:5">
-      <c r="A660" s="15">
+      <c r="A660" s="13">
         <v>659</v>
       </c>
-      <c r="B660" s="19" t="s">
+      <c r="B660" s="13" t="s">
         <v>1058</v>
       </c>
-      <c r="C660" s="17"/>
-      <c r="D660" s="17" t="s">
+      <c r="C660" s="13"/>
+      <c r="D660" s="13" t="s">
         <v>1059</v>
       </c>
       <c r="E660" s="2"/>
@@ -12820,24 +13063,24 @@
       <c r="A661" s="12">
         <v>660</v>
       </c>
-      <c r="B661" s="18" t="s">
+      <c r="B661" s="12" t="s">
         <v>1060</v>
       </c>
-      <c r="C661" s="14"/>
-      <c r="D661" s="14" t="s">
+      <c r="C661" s="12"/>
+      <c r="D661" s="12" t="s">
         <v>1061</v>
       </c>
       <c r="E661" s="2"/>
     </row>
     <row r="662" spans="1:5">
-      <c r="A662" s="15">
+      <c r="A662" s="13">
         <v>661</v>
       </c>
-      <c r="B662" s="19" t="s">
+      <c r="B662" s="13" t="s">
         <v>1062</v>
       </c>
-      <c r="C662" s="17"/>
-      <c r="D662" s="17" t="s">
+      <c r="C662" s="13"/>
+      <c r="D662" s="13" t="s">
         <v>1063</v>
       </c>
       <c r="E662" s="2"/>
@@ -12846,42 +13089,42 @@
       <c r="A663" s="12">
         <v>662</v>
       </c>
-      <c r="B663" s="18" t="s">
+      <c r="B663" s="12" t="s">
         <v>1064</v>
       </c>
-      <c r="C663" s="14"/>
-      <c r="D663" s="14" t="s">
+      <c r="C663" s="12"/>
+      <c r="D663" s="12" t="s">
         <v>1065</v>
       </c>
       <c r="E663" s="2"/>
     </row>
     <row r="664" spans="1:5">
-      <c r="A664" s="15">
+      <c r="A664" s="13">
         <v>663</v>
       </c>
-      <c r="B664" s="19"/>
-      <c r="C664" s="17"/>
-      <c r="D664" s="17"/>
+      <c r="B664" s="13"/>
+      <c r="C664" s="13"/>
+      <c r="D664" s="13"/>
       <c r="E664" s="2"/>
     </row>
     <row r="665" spans="1:5">
       <c r="A665" s="12">
         <v>664</v>
       </c>
-      <c r="B665" s="18"/>
-      <c r="C665" s="14"/>
-      <c r="D665" s="14"/>
+      <c r="B665" s="12"/>
+      <c r="C665" s="12"/>
+      <c r="D665" s="12"/>
       <c r="E665" s="2"/>
     </row>
     <row r="666" spans="1:5">
-      <c r="A666" s="15">
+      <c r="A666" s="13">
         <v>665</v>
       </c>
-      <c r="B666" s="19" t="s">
+      <c r="B666" s="13" t="s">
         <v>1066</v>
       </c>
-      <c r="C666" s="17"/>
-      <c r="D666" s="17" t="s">
+      <c r="C666" s="13"/>
+      <c r="D666" s="13" t="s">
         <v>1067</v>
       </c>
       <c r="E666" s="2"/>
@@ -12890,24 +13133,24 @@
       <c r="A667" s="12">
         <v>666</v>
       </c>
-      <c r="B667" s="18" t="s">
+      <c r="B667" s="12" t="s">
         <v>1068</v>
       </c>
-      <c r="C667" s="14"/>
-      <c r="D667" s="17" t="s">
+      <c r="C667" s="12"/>
+      <c r="D667" s="12" t="s">
         <v>1069</v>
       </c>
       <c r="E667" s="2"/>
     </row>
     <row r="668" spans="1:5">
-      <c r="A668" s="15">
+      <c r="A668" s="13">
         <v>667</v>
       </c>
-      <c r="B668" s="19" t="s">
+      <c r="B668" s="13" t="s">
         <v>1070</v>
       </c>
-      <c r="C668" s="17"/>
-      <c r="D668" s="17" t="s">
+      <c r="C668" s="13"/>
+      <c r="D668" s="13" t="s">
         <v>1071</v>
       </c>
       <c r="E668" s="2"/>
@@ -12916,38 +13159,38 @@
       <c r="A669" s="12">
         <v>668</v>
       </c>
-      <c r="B669" s="18"/>
-      <c r="C669" s="14"/>
-      <c r="D669" s="14"/>
+      <c r="B669" s="12"/>
+      <c r="C669" s="12"/>
+      <c r="D669" s="12"/>
       <c r="E669" s="2"/>
     </row>
     <row r="670" spans="1:5">
-      <c r="A670" s="15">
+      <c r="A670" s="13">
         <v>669</v>
       </c>
-      <c r="B670" s="19"/>
-      <c r="C670" s="17"/>
-      <c r="D670" s="17"/>
+      <c r="B670" s="13"/>
+      <c r="C670" s="13"/>
+      <c r="D670" s="13"/>
       <c r="E670" s="2"/>
     </row>
     <row r="671" spans="1:5">
       <c r="A671" s="12">
         <v>670</v>
       </c>
-      <c r="B671" s="18"/>
-      <c r="C671" s="14"/>
-      <c r="D671" s="14"/>
+      <c r="B671" s="12"/>
+      <c r="C671" s="12"/>
+      <c r="D671" s="12"/>
       <c r="E671" s="2"/>
     </row>
     <row r="672" spans="1:5">
-      <c r="A672" s="15">
+      <c r="A672" s="13">
         <v>671</v>
       </c>
-      <c r="B672" s="19" t="s">
+      <c r="B672" s="13" t="s">
         <v>1072</v>
       </c>
-      <c r="C672" s="17"/>
-      <c r="D672" s="17" t="s">
+      <c r="C672" s="13"/>
+      <c r="D672" s="13" t="s">
         <v>1073</v>
       </c>
       <c r="E672" s="2"/>
@@ -12956,24 +13199,24 @@
       <c r="A673" s="12">
         <v>672</v>
       </c>
-      <c r="B673" s="18" t="s">
+      <c r="B673" s="12" t="s">
         <v>1074</v>
       </c>
-      <c r="C673" s="14"/>
-      <c r="D673" s="14" t="s">
+      <c r="C673" s="12"/>
+      <c r="D673" s="12" t="s">
         <v>1075</v>
       </c>
       <c r="E673" s="2"/>
     </row>
     <row r="674" spans="1:5">
-      <c r="A674" s="15">
+      <c r="A674" s="13">
         <v>673</v>
       </c>
-      <c r="B674" s="19" t="s">
+      <c r="B674" s="13" t="s">
         <v>1076</v>
       </c>
-      <c r="C674" s="17"/>
-      <c r="D674" s="17" t="s">
+      <c r="C674" s="13"/>
+      <c r="D674" s="13" t="s">
         <v>1077</v>
       </c>
       <c r="E674" s="2"/>
@@ -12982,24 +13225,24 @@
       <c r="A675" s="12">
         <v>674</v>
       </c>
-      <c r="B675" s="18" t="s">
+      <c r="B675" s="12" t="s">
         <v>1078</v>
       </c>
-      <c r="C675" s="14"/>
-      <c r="D675" s="14" t="s">
+      <c r="C675" s="12"/>
+      <c r="D675" s="12" t="s">
         <v>1079</v>
       </c>
       <c r="E675" s="2"/>
     </row>
     <row r="676" spans="1:5">
-      <c r="A676" s="15">
+      <c r="A676" s="13">
         <v>675</v>
       </c>
-      <c r="B676" s="19" t="s">
+      <c r="B676" s="13" t="s">
         <v>1080</v>
       </c>
-      <c r="C676" s="17"/>
-      <c r="D676" s="17" t="s">
+      <c r="C676" s="13"/>
+      <c r="D676" s="13" t="s">
         <v>1081</v>
       </c>
       <c r="E676" s="2"/>
@@ -13008,24 +13251,24 @@
       <c r="A677" s="12">
         <v>676</v>
       </c>
-      <c r="B677" s="18" t="s">
+      <c r="B677" s="12" t="s">
         <v>1082</v>
       </c>
-      <c r="C677" s="14"/>
-      <c r="D677" s="14" t="s">
+      <c r="C677" s="12"/>
+      <c r="D677" s="12" t="s">
         <v>1083</v>
       </c>
       <c r="E677" s="2"/>
     </row>
     <row r="678" spans="1:5">
-      <c r="A678" s="15">
+      <c r="A678" s="13">
         <v>677</v>
       </c>
-      <c r="B678" s="19" t="s">
+      <c r="B678" s="13" t="s">
         <v>1084</v>
       </c>
-      <c r="C678" s="17"/>
-      <c r="D678" s="17" t="s">
+      <c r="C678" s="13"/>
+      <c r="D678" s="13" t="s">
         <v>1085</v>
       </c>
       <c r="E678" s="2"/>
@@ -13034,24 +13277,24 @@
       <c r="A679" s="12">
         <v>678</v>
       </c>
-      <c r="B679" s="18" t="s">
+      <c r="B679" s="12" t="s">
         <v>1086</v>
       </c>
-      <c r="C679" s="14"/>
-      <c r="D679" s="14" t="s">
+      <c r="C679" s="12"/>
+      <c r="D679" s="12" t="s">
         <v>1087</v>
       </c>
       <c r="E679" s="2"/>
     </row>
     <row r="680" spans="1:5">
-      <c r="A680" s="15">
+      <c r="A680" s="13">
         <v>679</v>
       </c>
-      <c r="B680" s="19" t="s">
+      <c r="B680" s="13" t="s">
         <v>1088</v>
       </c>
-      <c r="C680" s="17"/>
-      <c r="D680" s="17" t="s">
+      <c r="C680" s="13"/>
+      <c r="D680" s="13" t="s">
         <v>1089</v>
       </c>
       <c r="E680" s="2"/>
@@ -13060,24 +13303,24 @@
       <c r="A681" s="12">
         <v>680</v>
       </c>
-      <c r="B681" s="18" t="s">
+      <c r="B681" s="12" t="s">
         <v>1090</v>
       </c>
-      <c r="C681" s="14"/>
-      <c r="D681" s="14" t="s">
+      <c r="C681" s="12"/>
+      <c r="D681" s="12" t="s">
         <v>1091</v>
       </c>
       <c r="E681" s="2"/>
     </row>
     <row r="682" spans="1:5">
-      <c r="A682" s="15">
+      <c r="A682" s="13">
         <v>681</v>
       </c>
-      <c r="B682" s="19" t="s">
+      <c r="B682" s="13" t="s">
         <v>1092</v>
       </c>
-      <c r="C682" s="17"/>
-      <c r="D682" s="17" t="s">
+      <c r="C682" s="13"/>
+      <c r="D682" s="13" t="s">
         <v>1093</v>
       </c>
       <c r="E682" s="2"/>
@@ -13086,297 +13329,1173 @@
       <c r="A683" s="12">
         <v>682</v>
       </c>
-      <c r="B683" s="18" t="s">
+      <c r="B683" s="12" t="s">
         <v>1094</v>
       </c>
-      <c r="C683" s="14"/>
-      <c r="D683" s="14" t="s">
+      <c r="C683" s="12"/>
+      <c r="D683" s="12" t="s">
         <v>1095</v>
       </c>
       <c r="E683" s="2"/>
     </row>
     <row r="684" spans="1:5">
-      <c r="A684" s="20">
+      <c r="A684" s="13">
         <v>683</v>
       </c>
-      <c r="B684" s="20" t="s">
+      <c r="B684" s="13" t="s">
         <v>1096</v>
       </c>
-      <c r="C684" s="20"/>
-      <c r="D684" s="20" t="s">
+      <c r="C684" s="13"/>
+      <c r="D684" s="13" t="s">
         <v>1097</v>
       </c>
       <c r="E684" s="2"/>
     </row>
     <row r="685" spans="1:5">
-      <c r="A685" s="21">
+      <c r="A685" s="12">
         <v>684</v>
       </c>
-      <c r="B685" s="21"/>
-      <c r="C685" s="21"/>
-      <c r="D685" s="21"/>
+      <c r="B685" s="12"/>
+      <c r="C685" s="12"/>
+      <c r="D685" s="12"/>
       <c r="E685" s="2"/>
     </row>
     <row r="686" spans="1:5">
-      <c r="A686" s="20">
+      <c r="A686" s="13">
         <v>685</v>
       </c>
-      <c r="B686" s="20" t="s">
+      <c r="B686" s="13" t="s">
         <v>1098</v>
       </c>
-      <c r="C686" s="20"/>
-      <c r="D686" s="20" t="s">
+      <c r="C686" s="13"/>
+      <c r="D686" s="13" t="s">
         <v>1099</v>
       </c>
       <c r="E686" s="2"/>
     </row>
     <row r="687" spans="1:5">
-      <c r="A687" s="21">
+      <c r="A687" s="12">
         <v>686</v>
       </c>
-      <c r="B687" s="21" t="s">
+      <c r="B687" s="12" t="s">
         <v>1100</v>
       </c>
-      <c r="C687" s="21"/>
-      <c r="D687" s="21" t="s">
+      <c r="C687" s="12"/>
+      <c r="D687" s="12" t="s">
         <v>1101</v>
       </c>
       <c r="E687" s="2"/>
     </row>
     <row r="688" spans="1:5">
-      <c r="A688" s="20">
+      <c r="A688" s="13">
         <v>687</v>
       </c>
-      <c r="B688" s="20" t="s">
+      <c r="B688" s="13" t="s">
         <v>1102</v>
       </c>
-      <c r="C688" s="20"/>
-      <c r="D688" s="20" t="s">
+      <c r="C688" s="13"/>
+      <c r="D688" s="13" t="s">
         <v>1103</v>
       </c>
       <c r="E688" s="2"/>
     </row>
     <row r="689" spans="1:5">
-      <c r="A689" s="21">
+      <c r="A689" s="12">
         <v>688</v>
       </c>
-      <c r="B689" s="21" t="s">
+      <c r="B689" s="12" t="s">
         <v>1104</v>
       </c>
-      <c r="C689" s="21"/>
-      <c r="D689" s="21" t="s">
+      <c r="C689" s="12"/>
+      <c r="D689" s="12" t="s">
         <v>1105</v>
       </c>
       <c r="E689" s="2"/>
     </row>
     <row r="690" spans="1:5">
-      <c r="A690" s="20">
+      <c r="A690" s="13">
         <v>689</v>
       </c>
-      <c r="B690" s="20"/>
-      <c r="C690" s="20"/>
-      <c r="D690" s="20"/>
+      <c r="B690" s="13"/>
+      <c r="C690" s="13"/>
+      <c r="D690" s="13"/>
       <c r="E690" s="2"/>
     </row>
     <row r="691" spans="1:5">
-      <c r="A691" s="21">
+      <c r="A691" s="12">
         <v>690</v>
       </c>
-      <c r="B691" s="21" t="s">
+      <c r="B691" s="12" t="s">
         <v>1106</v>
       </c>
-      <c r="C691" s="21"/>
-      <c r="D691" s="21" t="s">
+      <c r="C691" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D691" s="12" t="s">
         <v>1107</v>
       </c>
       <c r="E691" s="2"/>
     </row>
     <row r="692" spans="1:5">
-      <c r="A692" s="20">
+      <c r="A692" s="13">
         <v>691</v>
       </c>
-      <c r="B692" s="20" t="s">
+      <c r="B692" s="13" t="s">
         <v>1108</v>
       </c>
-      <c r="C692" s="20"/>
-      <c r="D692" s="20" t="s">
+      <c r="C692" s="13"/>
+      <c r="D692" s="13" t="s">
         <v>1109</v>
       </c>
       <c r="E692" s="2"/>
     </row>
     <row r="693" spans="1:5">
-      <c r="A693" s="21">
+      <c r="A693" s="12">
         <v>692</v>
       </c>
-      <c r="B693" s="21"/>
-      <c r="C693" s="21"/>
-      <c r="D693" s="21"/>
+      <c r="B693" s="12"/>
+      <c r="C693" s="12"/>
+      <c r="D693" s="12"/>
       <c r="E693" s="2"/>
     </row>
     <row r="694" spans="1:5">
-      <c r="A694" s="20">
+      <c r="A694" s="13">
         <v>693</v>
       </c>
-      <c r="B694" s="20"/>
-      <c r="C694" s="20"/>
-      <c r="D694" s="20"/>
+      <c r="B694" s="13"/>
+      <c r="C694" s="13"/>
+      <c r="D694" s="13"/>
       <c r="E694" s="2"/>
     </row>
     <row r="695" spans="1:5">
-      <c r="A695" s="21">
+      <c r="A695" s="12">
         <v>694</v>
       </c>
-      <c r="B695" s="21" t="s">
+      <c r="B695" s="12" t="s">
         <v>1110</v>
       </c>
-      <c r="C695" s="21"/>
-      <c r="D695" s="21" t="s">
+      <c r="C695" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D695" s="12" t="s">
         <v>1111</v>
       </c>
       <c r="E695" s="2"/>
     </row>
     <row r="696" spans="1:5">
-      <c r="A696" s="20">
+      <c r="A696" s="13">
         <v>695</v>
       </c>
-      <c r="B696" s="20" t="s">
+      <c r="B696" s="13" t="s">
         <v>1112</v>
       </c>
-      <c r="C696" s="20"/>
-      <c r="D696" s="20" t="s">
+      <c r="C696" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D696" s="13" t="s">
         <v>1113</v>
       </c>
       <c r="E696" s="2"/>
     </row>
     <row r="697" spans="1:5">
-      <c r="A697" s="21">
+      <c r="A697" s="12">
         <v>696</v>
       </c>
-      <c r="B697" s="21" t="s">
+      <c r="B697" s="12" t="s">
         <v>1114</v>
       </c>
-      <c r="C697" s="21"/>
-      <c r="D697" s="21" t="s">
+      <c r="C697" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D697" s="12" t="s">
         <v>1115</v>
       </c>
       <c r="E697" s="2"/>
     </row>
     <row r="698" spans="1:5">
-      <c r="A698" s="20">
+      <c r="A698" s="13">
         <v>697</v>
       </c>
-      <c r="B698" s="20" t="s">
+      <c r="B698" s="13" t="s">
         <v>1116</v>
       </c>
-      <c r="C698" s="20"/>
-      <c r="D698" s="20" t="s">
+      <c r="C698" s="13"/>
+      <c r="D698" s="13" t="s">
         <v>1117</v>
       </c>
       <c r="E698" s="2"/>
     </row>
     <row r="699" spans="1:5">
-      <c r="A699" s="21">
+      <c r="A699" s="12">
         <v>698</v>
       </c>
-      <c r="B699" s="21" t="s">
+      <c r="B699" s="12" t="s">
         <v>1118</v>
       </c>
-      <c r="C699" s="21"/>
-      <c r="D699" s="21" t="s">
+      <c r="C699" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D699" s="12" t="s">
         <v>1119</v>
       </c>
       <c r="E699" s="2"/>
     </row>
     <row r="700" spans="1:5">
-      <c r="A700" s="20">
+      <c r="A700" s="13">
         <v>699</v>
       </c>
-      <c r="B700" s="20" t="s">
+      <c r="B700" s="13" t="s">
         <v>1120</v>
       </c>
-      <c r="C700" s="20"/>
-      <c r="D700" s="20" t="s">
+      <c r="C700" s="13"/>
+      <c r="D700" s="13" t="s">
         <v>1121</v>
       </c>
       <c r="E700" s="2"/>
     </row>
     <row r="701" spans="1:5">
-      <c r="A701" s="21">
+      <c r="A701" s="12">
         <v>700</v>
       </c>
-      <c r="B701" s="21" t="s">
+      <c r="B701" s="12" t="s">
         <v>1122</v>
       </c>
-      <c r="C701" s="21"/>
-      <c r="D701" s="21" t="s">
+      <c r="C701" s="12"/>
+      <c r="D701" s="12" t="s">
         <v>1123</v>
       </c>
       <c r="E701" s="2"/>
     </row>
     <row r="702" spans="1:5">
-      <c r="A702" s="20">
+      <c r="A702" s="13">
         <v>701</v>
       </c>
-      <c r="B702" s="20" t="s">
+      <c r="B702" s="13" t="s">
         <v>1124</v>
       </c>
-      <c r="C702" s="20"/>
-      <c r="D702" s="20" t="s">
+      <c r="C702" s="13"/>
+      <c r="D702" s="13" t="s">
         <v>1125</v>
       </c>
       <c r="E702" s="2"/>
     </row>
     <row r="703" spans="1:5">
-      <c r="A703" s="21">
+      <c r="A703" s="12">
         <v>702</v>
       </c>
-      <c r="B703" s="21" t="s">
+      <c r="B703" s="12" t="s">
         <v>1126</v>
       </c>
-      <c r="C703" s="21"/>
-      <c r="D703" s="21" t="s">
+      <c r="C703" s="12"/>
+      <c r="D703" s="12" t="s">
         <v>1127</v>
       </c>
       <c r="E703" s="2"/>
     </row>
     <row r="704" spans="1:5">
-      <c r="A704" s="20">
+      <c r="A704" s="13">
         <v>703</v>
       </c>
-      <c r="B704" s="20" t="s">
+      <c r="B704" s="13" t="s">
         <v>1128</v>
       </c>
-      <c r="C704" s="20"/>
-      <c r="D704" s="20" t="s">
+      <c r="C704" s="13"/>
+      <c r="D704" s="13" t="s">
         <v>1129</v>
       </c>
       <c r="E704" s="2"/>
     </row>
     <row r="705" spans="1:5">
-      <c r="A705" s="21">
+      <c r="A705" s="12">
         <v>704</v>
       </c>
-      <c r="B705" s="21" t="s">
+      <c r="B705" s="12" t="s">
         <v>1130</v>
       </c>
-      <c r="C705" s="21"/>
-      <c r="D705" s="21" t="s">
+      <c r="C705" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D705" s="12" t="s">
         <v>1131</v>
       </c>
       <c r="E705" s="2"/>
     </row>
     <row r="706" spans="1:5">
-      <c r="A706" s="20">
+      <c r="A706" s="13">
         <v>705</v>
       </c>
-      <c r="B706" s="20" t="s">
+      <c r="B706" s="13" t="s">
         <v>1132</v>
       </c>
-      <c r="C706" s="20"/>
-      <c r="D706" s="20" t="s">
+      <c r="C706" s="13"/>
+      <c r="D706" s="13" t="s">
         <v>1133</v>
       </c>
       <c r="E706" s="2"/>
+    </row>
+    <row r="707" spans="1:4">
+      <c r="A707" s="12">
+        <v>706</v>
+      </c>
+      <c r="B707" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C707" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D707" s="12" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4">
+      <c r="A708" s="13">
+        <v>707</v>
+      </c>
+      <c r="B708" s="13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C708" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D708" s="13" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4">
+      <c r="A709" s="12">
+        <v>708</v>
+      </c>
+      <c r="B709" s="12" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C709" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D709" s="12" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4">
+      <c r="A710" s="13">
+        <v>709</v>
+      </c>
+      <c r="B710" s="13" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C710" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D710" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4">
+      <c r="A711" s="12">
+        <v>710</v>
+      </c>
+      <c r="B711" s="12" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C711" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D711" s="12" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4">
+      <c r="A712" s="13">
+        <v>711</v>
+      </c>
+      <c r="B712" s="13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C712" s="13"/>
+      <c r="D712" s="13" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4">
+      <c r="A713" s="12">
+        <v>712</v>
+      </c>
+      <c r="B713" s="12" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C713" s="12"/>
+      <c r="D713" s="12" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4">
+      <c r="A714" s="13">
+        <v>713</v>
+      </c>
+      <c r="B714" s="13" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C714" s="13"/>
+      <c r="D714" s="13"/>
+    </row>
+    <row r="715" spans="1:4">
+      <c r="A715" s="12">
+        <v>714</v>
+      </c>
+      <c r="B715" s="12" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C715" s="12"/>
+      <c r="D715" s="12"/>
+    </row>
+    <row r="716" spans="1:4">
+      <c r="A716" s="13">
+        <v>715</v>
+      </c>
+      <c r="B716" s="13" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C716" s="13"/>
+      <c r="D716" s="13"/>
+    </row>
+    <row r="717" spans="1:4">
+      <c r="A717" s="12">
+        <v>716</v>
+      </c>
+      <c r="B717" s="12" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C717" s="12"/>
+      <c r="D717" s="12"/>
+    </row>
+    <row r="718" spans="1:4">
+      <c r="A718" s="13">
+        <v>717</v>
+      </c>
+      <c r="B718" s="13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C718" s="13"/>
+      <c r="D718" s="13"/>
+    </row>
+    <row r="719" spans="1:4">
+      <c r="A719" s="12">
+        <v>718</v>
+      </c>
+      <c r="B719" s="12" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C719" s="12"/>
+      <c r="D719" s="12"/>
+    </row>
+    <row r="720" spans="1:4">
+      <c r="A720" s="13">
+        <v>719</v>
+      </c>
+      <c r="B720" s="13" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C720" s="13"/>
+      <c r="D720" s="13"/>
+    </row>
+    <row r="721" spans="1:4">
+      <c r="A721" s="12">
+        <v>720</v>
+      </c>
+      <c r="B721" s="12" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C721" s="12"/>
+      <c r="D721" s="12"/>
+    </row>
+    <row r="722" spans="1:4">
+      <c r="A722" s="13">
+        <v>721</v>
+      </c>
+      <c r="B722" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C722" s="13"/>
+      <c r="D722" s="13"/>
+    </row>
+    <row r="723" spans="1:4">
+      <c r="A723" s="12">
+        <v>722</v>
+      </c>
+      <c r="B723" s="12" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C723" s="12"/>
+      <c r="D723" s="12"/>
+    </row>
+    <row r="724" spans="1:4">
+      <c r="A724" s="13">
+        <v>723</v>
+      </c>
+      <c r="B724" s="13" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C724" s="13"/>
+      <c r="D724" s="13"/>
+    </row>
+    <row r="725" spans="1:4">
+      <c r="A725" s="12">
+        <v>724</v>
+      </c>
+      <c r="B725" s="12" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C725" s="12"/>
+      <c r="D725" s="12"/>
+    </row>
+    <row r="726" spans="1:4">
+      <c r="A726" s="13">
+        <v>725</v>
+      </c>
+      <c r="B726" s="13" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C726" s="13"/>
+      <c r="D726" s="13"/>
+    </row>
+    <row r="727" spans="1:4">
+      <c r="A727" s="12">
+        <v>726</v>
+      </c>
+      <c r="B727" s="12" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C727" s="12"/>
+      <c r="D727" s="12"/>
+    </row>
+    <row r="728" spans="1:4">
+      <c r="A728" s="13">
+        <v>727</v>
+      </c>
+      <c r="B728" s="13" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C728" s="13"/>
+      <c r="D728" s="13"/>
+    </row>
+    <row r="729" spans="1:4">
+      <c r="A729" s="12">
+        <v>728</v>
+      </c>
+      <c r="B729" s="12" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C729" s="12"/>
+      <c r="D729" s="12"/>
+    </row>
+    <row r="730" spans="1:4">
+      <c r="A730" s="13">
+        <v>729</v>
+      </c>
+      <c r="B730" s="13" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C730" s="13"/>
+      <c r="D730" s="13"/>
+    </row>
+    <row r="731" spans="1:4">
+      <c r="A731" s="12">
+        <v>730</v>
+      </c>
+      <c r="B731" s="12" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C731" s="12"/>
+      <c r="D731" s="12"/>
+    </row>
+    <row r="732" spans="1:4">
+      <c r="A732" s="13">
+        <v>731</v>
+      </c>
+      <c r="B732" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C732" s="13"/>
+      <c r="D732" s="13"/>
+    </row>
+    <row r="733" spans="1:4">
+      <c r="A733" s="12">
+        <v>732</v>
+      </c>
+      <c r="B733" s="12" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C733" s="12"/>
+      <c r="D733" s="12"/>
+    </row>
+    <row r="734" spans="1:4">
+      <c r="A734" s="13">
+        <v>733</v>
+      </c>
+      <c r="B734" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C734" s="13"/>
+      <c r="D734" s="13"/>
+    </row>
+    <row r="735" spans="1:4">
+      <c r="A735" s="12">
+        <v>734</v>
+      </c>
+      <c r="B735" s="12" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C735" s="12"/>
+      <c r="D735" s="12"/>
+    </row>
+    <row r="736" spans="1:4">
+      <c r="A736" s="13">
+        <v>735</v>
+      </c>
+      <c r="B736" s="13" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C736" s="13"/>
+      <c r="D736" s="13"/>
+    </row>
+    <row r="737" spans="1:4">
+      <c r="A737" s="12">
+        <v>736</v>
+      </c>
+      <c r="B737" s="12" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C737" s="12"/>
+      <c r="D737" s="12"/>
+    </row>
+    <row r="738" spans="1:4">
+      <c r="A738" s="13">
+        <v>737</v>
+      </c>
+      <c r="B738" s="13" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C738" s="13"/>
+      <c r="D738" s="13"/>
+    </row>
+    <row r="739" spans="1:4">
+      <c r="A739" s="12">
+        <v>738</v>
+      </c>
+      <c r="B739" s="12" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C739" s="12"/>
+      <c r="D739" s="12"/>
+    </row>
+    <row r="740" spans="1:4">
+      <c r="A740" s="13">
+        <v>739</v>
+      </c>
+      <c r="B740" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C740" s="13"/>
+      <c r="D740" s="13"/>
+    </row>
+    <row r="741" spans="1:4">
+      <c r="A741" s="12">
+        <v>740</v>
+      </c>
+      <c r="B741" s="12" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C741" s="12"/>
+      <c r="D741" s="12"/>
+    </row>
+    <row r="742" spans="1:4">
+      <c r="A742" s="13">
+        <v>741</v>
+      </c>
+      <c r="B742" s="13" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C742" s="13"/>
+      <c r="D742" s="13"/>
+    </row>
+    <row r="743" spans="1:4">
+      <c r="A743" s="12">
+        <v>742</v>
+      </c>
+      <c r="B743" s="12" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C743" s="12"/>
+      <c r="D743" s="12"/>
+    </row>
+    <row r="744" spans="1:4">
+      <c r="A744" s="13">
+        <v>743</v>
+      </c>
+      <c r="B744" s="13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C744" s="13"/>
+      <c r="D744" s="13"/>
+    </row>
+    <row r="745" spans="1:4">
+      <c r="A745" s="12">
+        <v>744</v>
+      </c>
+      <c r="B745" s="12" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C745" s="12"/>
+      <c r="D745" s="12"/>
+    </row>
+    <row r="746" spans="1:4">
+      <c r="A746" s="13">
+        <v>745</v>
+      </c>
+      <c r="B746" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C746" s="13"/>
+      <c r="D746" s="13"/>
+    </row>
+    <row r="747" spans="1:4">
+      <c r="A747" s="12">
+        <v>746</v>
+      </c>
+      <c r="B747" s="12" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C747" s="12"/>
+      <c r="D747" s="12"/>
+    </row>
+    <row r="748" spans="1:4">
+      <c r="A748" s="13">
+        <v>747</v>
+      </c>
+      <c r="B748" s="13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C748" s="13"/>
+      <c r="D748" s="13"/>
+    </row>
+    <row r="749" spans="1:4">
+      <c r="A749" s="12">
+        <v>748</v>
+      </c>
+      <c r="B749" s="12" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C749" s="12"/>
+      <c r="D749" s="12"/>
+    </row>
+    <row r="750" spans="1:4">
+      <c r="A750" s="13">
+        <v>749</v>
+      </c>
+      <c r="B750" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C750" s="13"/>
+      <c r="D750" s="13"/>
+    </row>
+    <row r="751" spans="1:4">
+      <c r="A751" s="12">
+        <v>750</v>
+      </c>
+      <c r="B751" s="12" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C751" s="12"/>
+      <c r="D751" s="12"/>
+    </row>
+    <row r="752" spans="1:4">
+      <c r="A752" s="13">
+        <v>751</v>
+      </c>
+      <c r="B752" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C752" s="13"/>
+      <c r="D752" s="13"/>
+    </row>
+    <row r="753" spans="1:4">
+      <c r="A753" s="12">
+        <v>752</v>
+      </c>
+      <c r="B753" s="12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C753" s="12"/>
+      <c r="D753" s="12"/>
+    </row>
+    <row r="754" spans="1:4">
+      <c r="A754" s="13">
+        <v>753</v>
+      </c>
+      <c r="B754" s="13" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C754" s="13"/>
+      <c r="D754" s="13"/>
+    </row>
+    <row r="755" spans="1:4">
+      <c r="A755" s="12">
+        <v>754</v>
+      </c>
+      <c r="B755" s="12" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C755" s="12"/>
+      <c r="D755" s="12"/>
+    </row>
+    <row r="756" spans="1:4">
+      <c r="A756" s="13">
+        <v>755</v>
+      </c>
+      <c r="B756" s="13" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C756" s="13"/>
+      <c r="D756" s="13"/>
+    </row>
+    <row r="757" spans="1:4">
+      <c r="A757" s="12">
+        <v>756</v>
+      </c>
+      <c r="B757" s="12" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C757" s="12"/>
+      <c r="D757" s="12"/>
+    </row>
+    <row r="758" spans="1:4">
+      <c r="A758" s="13">
+        <v>757</v>
+      </c>
+      <c r="B758" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C758" s="13"/>
+      <c r="D758" s="13"/>
+    </row>
+    <row r="759" spans="1:4">
+      <c r="A759" s="12">
+        <v>758</v>
+      </c>
+      <c r="B759" s="12" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C759" s="12"/>
+      <c r="D759" s="12"/>
+    </row>
+    <row r="760" spans="1:4">
+      <c r="A760" s="13">
+        <v>759</v>
+      </c>
+      <c r="B760" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C760" s="13"/>
+      <c r="D760" s="13"/>
+    </row>
+    <row r="761" spans="1:4">
+      <c r="A761" s="12">
+        <v>760</v>
+      </c>
+      <c r="B761" s="12" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C761" s="12"/>
+      <c r="D761" s="12"/>
+    </row>
+    <row r="762" spans="1:4">
+      <c r="A762" s="13">
+        <v>761</v>
+      </c>
+      <c r="B762" s="13" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C762" s="13"/>
+      <c r="D762" s="13"/>
+    </row>
+    <row r="763" spans="1:4">
+      <c r="A763" s="12">
+        <v>762</v>
+      </c>
+      <c r="B763" s="12" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C763" s="12"/>
+      <c r="D763" s="12"/>
+    </row>
+    <row r="764" spans="1:4">
+      <c r="A764" s="13">
+        <v>763</v>
+      </c>
+      <c r="B764" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C764" s="13"/>
+      <c r="D764" s="13"/>
+    </row>
+    <row r="765" spans="1:4">
+      <c r="A765" s="12">
+        <v>764</v>
+      </c>
+      <c r="B765" s="12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C765" s="12"/>
+      <c r="D765" s="12"/>
+    </row>
+    <row r="766" spans="1:4">
+      <c r="A766" s="13">
+        <v>765</v>
+      </c>
+      <c r="B766" s="13" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C766" s="13"/>
+      <c r="D766" s="13"/>
+    </row>
+    <row r="767" spans="1:4">
+      <c r="A767" s="12">
+        <v>766</v>
+      </c>
+      <c r="B767" s="12" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C767" s="12"/>
+      <c r="D767" s="12"/>
+    </row>
+    <row r="768" spans="1:4">
+      <c r="A768" s="13">
+        <v>767</v>
+      </c>
+      <c r="B768" s="13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C768" s="13"/>
+      <c r="D768" s="13"/>
+    </row>
+    <row r="769" spans="1:4">
+      <c r="A769" s="12">
+        <v>768</v>
+      </c>
+      <c r="B769" s="12" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C769" s="12"/>
+      <c r="D769" s="12"/>
+    </row>
+    <row r="770" spans="1:4">
+      <c r="A770" s="13">
+        <v>769</v>
+      </c>
+      <c r="B770" s="13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C770" s="13"/>
+      <c r="D770" s="13"/>
+    </row>
+    <row r="771" spans="1:4">
+      <c r="A771" s="12">
+        <v>770</v>
+      </c>
+      <c r="B771" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C771" s="12"/>
+      <c r="D771" s="12"/>
+    </row>
+    <row r="772" spans="1:4">
+      <c r="A772" s="13">
+        <v>771</v>
+      </c>
+      <c r="B772" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C772" s="13"/>
+      <c r="D772" s="13"/>
+    </row>
+    <row r="773" spans="1:4">
+      <c r="A773" s="12">
+        <v>772</v>
+      </c>
+      <c r="B773" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C773" s="12"/>
+      <c r="D773" s="12"/>
+    </row>
+    <row r="774" spans="1:4">
+      <c r="A774" s="13">
+        <v>773</v>
+      </c>
+      <c r="B774" s="13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C774" s="13"/>
+      <c r="D774" s="13"/>
+    </row>
+    <row r="775" spans="1:4">
+      <c r="A775" s="12">
+        <v>774</v>
+      </c>
+      <c r="B775" s="12" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C775" s="12"/>
+      <c r="D775" s="12"/>
+    </row>
+    <row r="776" spans="1:4">
+      <c r="A776" s="13">
+        <v>775</v>
+      </c>
+      <c r="B776" s="13" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C776" s="13"/>
+      <c r="D776" s="13"/>
+    </row>
+    <row r="777" spans="1:4">
+      <c r="A777" s="12">
+        <v>776</v>
+      </c>
+      <c r="B777" s="12" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C777" s="12"/>
+      <c r="D777" s="12"/>
+    </row>
+    <row r="778" spans="1:4">
+      <c r="A778" s="13">
+        <v>777</v>
+      </c>
+      <c r="B778" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C778" s="13"/>
+      <c r="D778" s="13"/>
+    </row>
+    <row r="779" spans="1:4">
+      <c r="A779" s="12">
+        <v>778</v>
+      </c>
+      <c r="B779" s="12" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C779" s="12"/>
+      <c r="D779" s="12"/>
+    </row>
+    <row r="780" spans="1:4">
+      <c r="A780" s="13">
+        <v>779</v>
+      </c>
+      <c r="B780" s="13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C780" s="13"/>
+      <c r="D780" s="13"/>
+    </row>
+    <row r="781" spans="1:4">
+      <c r="A781" s="12">
+        <v>780</v>
+      </c>
+      <c r="B781" s="12" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C781" s="12"/>
+      <c r="D781" s="12"/>
+    </row>
+    <row r="782" spans="1:4">
+      <c r="A782" s="13">
+        <v>781</v>
+      </c>
+      <c r="B782" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C782" s="13"/>
+      <c r="D782" s="13"/>
+    </row>
+    <row r="783" spans="1:4">
+      <c r="A783" s="12">
+        <v>782</v>
+      </c>
+      <c r="B783" s="12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C783" s="12"/>
+      <c r="D783" s="12"/>
+    </row>
+    <row r="784" spans="1:4">
+      <c r="A784" s="13">
+        <v>783</v>
+      </c>
+      <c r="B784" s="13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C784" s="13"/>
+      <c r="D784" s="13"/>
+    </row>
+    <row r="785" spans="1:4">
+      <c r="A785" s="12">
+        <v>784</v>
+      </c>
+      <c r="B785" s="12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C785" s="12"/>
+      <c r="D785" s="12"/>
+    </row>
+    <row r="786" spans="1:4">
+      <c r="A786" s="13">
+        <v>785</v>
+      </c>
+      <c r="B786" s="13" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C786" s="13"/>
+      <c r="D786" s="13"/>
+    </row>
+    <row r="787" spans="1:4">
+      <c r="A787" s="12">
+        <v>786</v>
+      </c>
+      <c r="B787" s="12" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C787" s="12"/>
+      <c r="D787" s="12"/>
+    </row>
+    <row r="788" spans="1:4">
+      <c r="A788" s="13">
+        <v>787</v>
+      </c>
+      <c r="B788" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C788" s="13"/>
+      <c r="D788" s="13"/>
+    </row>
+    <row r="789" spans="1:4">
+      <c r="A789" s="12">
+        <v>788</v>
+      </c>
+      <c r="B789" s="12" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C789" s="12"/>
+      <c r="D789" s="12"/>
+    </row>
+    <row r="790" spans="1:4">
+      <c r="A790" s="13">
+        <v>789</v>
+      </c>
+      <c r="B790" s="13" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C790" s="13"/>
+      <c r="D790" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="zh-cn" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300">
   <si>
     <t>ID</t>
   </si>
@@ -456,7 +456,7 @@
     <t>Collect wood</t>
   </si>
   <si>
-    <t>收集木头</t>
+    <t>收集木材</t>
   </si>
   <si>
     <t>Collect stone</t>
@@ -3467,229 +3467,457 @@
     <t>Below you can see the required resources and construction time. Prepared recourses are shown in the upper part of resource block while total needed amount is in the lower part.</t>
   </si>
   <si>
+    <t>下面部分可以看到所需的资源及建造时间。准备好的资源显示在上面一排数字，而总共所需要的显示在下面一排</t>
+  </si>
+  <si>
     <t>Necessary building resources are stored at the warehouse. Select highlighted warehouse.</t>
   </si>
   <si>
+    <t>所有的建筑用资源都存放在“仓库”中。选择高亮显示的“仓库”</t>
+  </si>
+  <si>
     <t>These are the resources stored at this particular warehouse. On top of them is the warehouse fill-meter. Do not let it go up to 100% or you will not be able to store new resources.</t>
   </si>
   <si>
+    <t>这些都是存储在这个特定的“仓库”内的资源。他们的顶部是“仓库”的计量表。不要让他达到100%。否则你将无法存储更多的资源。</t>
+  </si>
+  <si>
     <t>This is your village overview window. It shows the total amount of all resources in all your storage combined. On the left side of this window you can see weather and population info. The total population is shown next to the village name.</t>
   </si>
   <si>
+    <t>这是你的村庄概览窗口。它显示了所有仓储设施内的所有资源总和。在这个窗口的左边，你可以看到天气以及人口信息。总人口显示在了村庄的旁边。</t>
+  </si>
+  <si>
     <t>All available unemployed villagers will start gathering resources - they take them from the closest warehouse and carry to the construction site.</t>
   </si>
   <si>
+    <t>所有可用的无业居民会开始收集资源，他们会把资源带到仓库，并运输到建筑工地。</t>
+  </si>
+  <si>
     <t>Now you need to assign builders. Select the building under construction.</t>
   </si>
   <si>
+    <t>现在你需要分配建筑工。选择施工中的建筑。</t>
+  </si>
+  <si>
     <t>Set two builders by using increase or decrease buttons or by pressing the necessary number instead of 0 on your keyboard.</t>
   </si>
   <si>
+    <t>通过增加或减少按钮来设置两名建筑工，而不通过键盘上的[0]。</t>
+  </si>
+  <si>
     <t>All the required resources are on site. Builders are assigned. Now simply wait for the house to be built.</t>
   </si>
   <si>
+    <t>所有的资源都已经运到了建筑工地。建筑工也已经分配完成。现在只需要等待房屋建成。</t>
+  </si>
+  <si>
     <t>Select the constructed house.</t>
   </si>
   <si>
+    <t>选择已经造好的房子。</t>
+  </si>
+  <si>
     <t>This window shows the list of all vilagers who live in the house, their gender, name, age and profession.</t>
   </si>
   <si>
+    <t>这个窗口显示了所有居住在这里的村民，他们的性别、姓名、年龄和职业。</t>
+  </si>
+  <si>
     <t>Below you can find the list of resources that villagers use to cope with hunger and to get warm during cold times. They will begin to move the resources as soon as they move in the house.</t>
   </si>
   <si>
+    <t>下面部分显示了这所房屋内居民用来充饥以及抵御寒冷的资源列表。当他们在房子里的时候便会减少这些资源。</t>
+  </si>
+  <si>
     <t>There are several types of houses in game, each of them have their own unique characteristics: number of dwellers, durability and happiness bonus, which affects workers productivity.</t>
   </si>
   <si>
+    <t>游戏内有多种类型的房屋，每栋房屋都有他们各自的特性：居民数量、耐久度、幸福度，从而影响居民的生产效率。</t>
+  </si>
+  <si>
     <t>In the upper right area of screen you can see the minimap. It displays the map of the island, planned and built constructions, and the current position of the camera.</t>
   </si>
   <si>
+    <t>在屏幕的右上方可以看到“小地图”。它显示了整座岛的地图、计划及建造的房屋以及目前的摄像机位置。</t>
+  </si>
+  <si>
     <t>In the bottom left area of screen you can find the game events log. Besides the list there is panel of filter keys, which can be used to swicth on/off the display of certain events.</t>
   </si>
   <si>
+    <t>屏幕的左下角是游戏的“事件日志”。而且列表的右边还有过滤按钮面板，可以显示或者隐藏某些事件的显示。</t>
+  </si>
+  <si>
     <t>Some buildings can be upgraded. Workers will partially dissasemble and then rebuild it. Improved buildings have higher characteristics. Click the upgrade button in the window of newly built house.</t>
   </si>
   <si>
+    <t>部分建筑物是可以升级的。建筑工会拆除并重建它的某些部分。进阶的建筑拥有更高的特性。[左键单击]新建房屋窗口中的“升级”按钮。</t>
+  </si>
+  <si>
     <t>This is the upgrade information window. Here you can see the stats of the improved house and resources you need to perform the upgrade.</t>
   </si>
   <si>
+    <t>这是升级信息窗口。在这里，你可以看到升级房屋所需要的资源。</t>
+  </si>
+  <si>
     <t>You can now start the construction work as you have all resources you need in the warehouse. Press the construction button to the right of information window.</t>
   </si>
   <si>
+    <t>你现在可以开始升级工作，因为你的仓库中有你需要的资源。按下“建造”按钮来确认信息窗口。</t>
+  </si>
+  <si>
     <t>You can speed up time so the wait for construction to finish will be less. Press the time acceleration button.</t>
   </si>
   <si>
+    <t>你还可以加速游戏来减少需要等待的时间。按下“加速”按钮。</t>
+  </si>
+  <si>
     <t>Now let's wait wait for the improved house version to be built.</t>
   </si>
   <si>
+    <t>现在让我们等待进阶房屋建造完成。</t>
+  </si>
+  <si>
     <t>You can pause the game process to take your time with assigning tasks to your settlers. In this case, all tasks will be saved and set to the order of execution. Just press the pause button.</t>
   </si>
   <si>
+    <t>你可以暂停游戏来给自己更多的时间分配任务给居民。在这种情况下所有的任务都会按照顺序保存。只需要按下“暂停”按钮。</t>
+  </si>
+  <si>
     <t>Now open the group of common information by pressing the specified button.</t>
   </si>
   <si>
+    <t>现在，通过指定的按钮来打开“一般信息”按钮组。</t>
+  </si>
+  <si>
     <t>Press the button and window with list of professions will open.</t>
   </si>
   <si>
+    <t>按下这个按钮可以打开“职业”窗口。</t>
+  </si>
+  <si>
     <t>Now you no longer need builders, you can decrease their number. Set the current number to '0' using the interface buttons or keyboard.</t>
   </si>
   <si>
+    <t>现在暂时不再需要建筑工，你可以减少他们的数量。将当前数字设置为“0”。</t>
+  </si>
+  <si>
     <t>You can perform the same actions with any other profession, even if there is no work for them. As soon as work appears, settlers assigned to it will start to work.</t>
   </si>
   <si>
+    <t>你也可以对其他的职业进行同样的操作，即使没有工作。一旦出现工作，被分配的居民将会立即开始工作。</t>
+  </si>
+  <si>
     <t>You need to assign two construction workers again.</t>
   </si>
   <si>
+    <t>你需要再指派两名建筑工。</t>
+  </si>
+  <si>
     <t>All settlers need to eat or they will starve to death. There are lots of methods of food production.</t>
   </si>
   <si>
+    <t>所有的居民都需要吃东西，否则便会饿死。在这里有多种方式来获取食物。</t>
+  </si>
+  <si>
     <t>All these methods are listed in the food production's group. Open it by pressing the button shown.</t>
   </si>
   <si>
+    <t>所有的方法都会现在是“食物”按钮组中。按下高亮的按钮来打开它们。</t>
+  </si>
+  <si>
     <t>Now press the button to begin building the fisherman's lodge.</t>
   </si>
   <si>
+    <t>现在按下这个按钮来开始建造“渔人小屋”。</t>
+  </si>
+  <si>
     <t>Сhoose the place where the fisherman's lodge will be built. Use move and rotation to set the construction with the entrance on coast and the rest on water. Building layout will help you with this .</t>
   </si>
   <si>
+    <t>选择一个需要建造“渔人小屋”的位置。使用移动和旋转来设置入口已经延生到水中的位置。建筑布局会对你有所帮助。</t>
+  </si>
+  <si>
     <t>To leave building mode, just click the second mouse button and continue.</t>
   </si>
   <si>
+    <t>要离开建筑模式只需要单机[鼠标右键]并继续。</t>
+  </si>
+  <si>
     <t>Wait until construction of fisherman's lodge has finished.</t>
   </si>
   <si>
+    <t>等待“渔人小屋”建造完成。</t>
+  </si>
+  <si>
     <t>Select the fisherman's lodge you've just built.</t>
   </si>
   <si>
+    <t>选择刚刚造好的“渔人小屋”。</t>
+  </si>
+  <si>
     <t>Now assign three fishermen for the job.</t>
   </si>
   <si>
+    <t>现在分配三名渔夫。</t>
+  </si>
+  <si>
     <t>Fishermen will start fishing immediately.</t>
   </si>
   <si>
+    <t>渔夫将会立即开始捕鱼。</t>
+  </si>
+  <si>
     <t>Select the fisherman's lodge.</t>
   </si>
   <si>
+    <t>选择“渔民小屋”。</t>
+  </si>
+  <si>
     <t>As soon as they fill the store with their catch, one of them will carry it to the barn.</t>
   </si>
   <si>
+    <t>当他们捕到足够的鱼时，他们中的一个便会将这些鱼运送到“谷仓”。</t>
+  </si>
+  <si>
     <t>Wait for a while untill the fisherman's lodge storrage is full.</t>
   </si>
   <si>
+    <t>稍等片刻，直到“渔人小屋”的存储空间充满。</t>
+  </si>
+  <si>
     <t>The storage is full! One of the fishermen will be going to carry the catch to a barn. Left-click them.</t>
   </si>
   <si>
+    <t>存储空间充满！其中一个渔夫将要运送这些鱼到“谷仓”去。[左键点击]他。</t>
+  </si>
+  <si>
     <t>This is the villagers window. Each villager has a number of characteristics, one of which is age. You can see it to the right from the name. Below are scales of happiness, which affects productivity, clothing and its condition, and also tools condition scale. Further down you can see icons to show his/her home and workplace.</t>
   </si>
   <si>
+    <t>这是居民窗口。每个村民都有一系列的特性，其中之一便是年龄。你可以在名字的旁边看到它们。下面是幸福度，影响生产力、服装及它的状态，同时也包括工具耐久度。再往下，你可以看到他的家庭和工作的图标。</t>
+  </si>
+  <si>
     <t>To take direct control of a settler and manage them directly, click on their avatar.</t>
   </si>
   <si>
+    <t>你还可以通过点击他的头像来直接控制他。</t>
+  </si>
+  <si>
     <t>Now carry resources to barn - the large building with barrels at the entrance - which is situated near ghe well. Get close to the doorstep until you see hint about interaction and then leave resources there.</t>
   </si>
   <si>
+    <t>现在控制他靠近“谷仓”知道看到“交互”提示，然后更具提示[左键点击]将背负的资源放入谷仓。</t>
+  </si>
+  <si>
     <t>If you leave resources lying on the ground, someone will come for them and move them to warehouse.</t>
   </si>
   <si>
+    <t>如果你直接把资源扔在地上，便会有人找到它们，然后将这些资源搬进指定的仓库。</t>
+  </si>
+  <si>
     <t>Press the Escape button to leave character control view.</t>
   </si>
   <si>
+    <t>按下[Escape]按键退出居民控制模式。</t>
+  </si>
+  <si>
     <t>Besides food, you need to collect construction and craftable resources, like wood, which is used in the construction of almost every building.</t>
   </si>
   <si>
+    <t>除了食物，你还需要收集建筑及制作资源，比如大多数事情都要用到的“木头”。</t>
+  </si>
+  <si>
     <t>Open resource gathering group to send workers for wood cutting.</t>
   </si>
   <si>
+    <t>打开“收集所有资源”按钮组来派遣工人去砍伐树木。</t>
+  </si>
+  <si>
     <t>Now click on wood gathering, and then select an area with trees. Press the left mouse button to confirm wood cutting of it.</t>
   </si>
   <si>
+    <t>现在点击“收集木材”按钮然后选择一个区域。按下鼠标左键来确认。</t>
+  </si>
+  <si>
     <t>Click right mouse button to leave resource gathering mode.</t>
   </si>
   <si>
+    <t>单击[鼠标右键]离开资源收集模式。</t>
+  </si>
+  <si>
     <t>Free labourers will start chopping trees and gather wood immediately.</t>
   </si>
   <si>
+    <t>自由的工人将会开始砍伐并收集树木。</t>
+  </si>
+  <si>
     <t>Click on a highlighted woodcutter.</t>
   </si>
   <si>
+    <t>点击一个高亮的樵夫。</t>
+  </si>
+  <si>
     <t>Switch to first-person villager control mode.</t>
   </si>
   <si>
+    <t>切换到第一人称来进入居民控制模式。</t>
+  </si>
+  <si>
     <t>Use "Horn" ability by pressing 1 key. This will temporary speed up villagers, raising their spirit.</t>
   </si>
   <si>
+    <t>按下[1]键来使用“喇叭”技能。这将会临时加快村民的工作速度，提高他们的精神。</t>
+  </si>
+  <si>
     <t>When it is warm fields are one of the best food sources. Let's create it.</t>
   </si>
   <si>
+    <t>温暖的田野是获取食物的最好方式之一。让我们来建造它们。</t>
+  </si>
+  <si>
     <t>Open food production group.</t>
   </si>
   <si>
+    <t>打开“食物生产”按钮组。</t>
+  </si>
+  <si>
     <t>Press field construction button.</t>
   </si>
   <si>
+    <t>按下“农田”建造按钮。</t>
+  </si>
+  <si>
     <t>Fields have a tunable size, so you need to click the left mouse button and, while holding it, move coursor, stretching its area.</t>
   </si>
   <si>
+    <t>“农田”是可以自由调节大小的，你只需要按住[鼠标左键]拉伸它的面积。</t>
+  </si>
+  <si>
     <t>Click the right mouse button to leave from construction mode.</t>
   </si>
   <si>
+    <t>点击[鼠标右键]离开建造模式。</t>
+  </si>
+  <si>
     <t>Wait for your builders to construct the field.</t>
   </si>
   <si>
+    <t>等待你的建筑工完成“农田”的建造。</t>
+  </si>
+  <si>
     <t>There are different crops, which you can plant on fields. Every crop has its own set of characteristics and weather and requirements for care.</t>
   </si>
   <si>
+    <t>这里有多种不同的作物孔易供你选择。每一种作物都有自己的特性以及对天气和湿度的要求。</t>
+  </si>
+  <si>
     <t>The current weather is displayed in village window as icon and temperature value.</t>
   </si>
   <si>
+    <t>当前天气会在“村庄”窗口中以图标显示，而温度会显示具体的数值。</t>
+  </si>
+  <si>
     <t>The current season affects both crops and villagers. Crops do not grow during cold seasons.</t>
   </si>
   <si>
+    <t>当前的季节会影响作物的生长以及居民。在寒冷的季节里，作物将无法生长。</t>
+  </si>
+  <si>
     <t>Select the field by clicking on it.</t>
   </si>
   <si>
+    <t>通过点击来选择字段。</t>
+  </si>
+  <si>
     <t>In the list of crops click on 'Potato' and confirm your choice.</t>
   </si>
   <si>
+    <t>在作物名单中选择“土豆”，并确认。</t>
+  </si>
+  <si>
     <t>Now assign a farmer to this field.</t>
   </si>
   <si>
+    <t>现在分配一个农夫到这块“农田”。</t>
+  </si>
+  <si>
     <t>Every plant needs water. A farmer will automatically carry water from the well after seeding the field. If moisture is above the required level, the farmer will loosen soil to dry it.</t>
   </si>
   <si>
+    <t>所有的植物都需要水。农夫在播种后会自动从水井取水来灌溉农田。如果水分吵过规定的水平，农夫将会想办法让土壤变得干燥。</t>
+  </si>
+  <si>
     <t>Start the tutorial</t>
   </si>
   <si>
+    <t>开始教学</t>
+  </si>
+  <si>
     <t>Plants can grow without water, but they will grow very slowly, and there is a chance that they will not be harvestable in time before cold weather.</t>
   </si>
   <si>
+    <t>作物在缺水的情况下也可以生长，但是会生长的十分缓慢，并且当进入寒冷的季节后将有几率断收。</t>
+  </si>
+  <si>
     <t>Many crops are yet to be discovered by the villagers. You can send Maritime Explorers on expeditions from a port. Groups of explorers will travel in search of new plants, orchard trees, animals and new ways to get food.</t>
   </si>
   <si>
+    <t>许多的作物还没有被发现。你可以通过港口派遣远征队去探险。探险队会寻找新的植物、树木、动物或是新的获取食物的方式。</t>
+  </si>
+  <si>
     <t>Villagers can eat common plants as well. These plants can be collected by gatherers from bushes that grow mainly in forests. Let's build a gatherer's hut. Firstly, we have to flatten the area, as many buildings can not be built on slopes.</t>
   </si>
   <si>
+    <t>居民们也可以吃到普通的食物。这些食物可以从主要生长在森林里的灌木丛中被采集。让我们建立一栋“采集者小屋”。首先，我们必须使建筑区域变平，因为许多建筑物都无法造在斜坡上。</t>
+  </si>
+  <si>
     <t>Click on the button to open terraforming tools group.</t>
   </si>
   <si>
+    <t>打开“地形改造”按钮组。</t>
+  </si>
+  <si>
     <t>Now press the flatten button.</t>
   </si>
   <si>
+    <t>现在点击“平整”按钮。</t>
+  </si>
+  <si>
     <t>Select a 12x12 area, click the left mouse button, then choose height level and confirm it by clicking the left mouse button again. Look at the time needed for flattening in the setup window - the lower the number, the quicker.</t>
   </si>
   <si>
+    <t>通过鼠标左键选择一个12*12的区域，然后单机鼠标左键以确认高度，这是需要注意平整窗口中的所需时间，数字越小，速度越快。</t>
+  </si>
+  <si>
     <t>Wait until workers finish flattening the ground.</t>
   </si>
   <si>
+    <t>等待工人完成平地。</t>
+  </si>
+  <si>
     <t>Let's build the gatherer's house on the area we've just terraformed. Open food production group.</t>
   </si>
   <si>
+    <t>让我们建造刚刚提到的“采集者小屋”。打开“食物生产”按钮组。</t>
+  </si>
+  <si>
     <t>Press build gatherer's hut button.</t>
   </si>
   <si>
+    <t>点击建造“采集者小屋”按钮。</t>
+  </si>
+  <si>
     <t>Place gatherer's hut on the recently terraformed area.</t>
   </si>
   <si>
+    <t>将“采集者小屋”放置到刚刚平整的地方。</t>
+  </si>
+  <si>
     <t>We have covered the basics. You will find many more opportunities in game! You can learn about them from tooltips available for most of ingame elements. Good luck!</t>
+  </si>
+  <si>
+    <t>我们已经完成了基础教程。你可以在游戏中学到更多的知识，祝你好运！你也可以加入交流群：574083350 来进行交流。</t>
   </si>
 </sst>
 </file>
@@ -3698,9 +3926,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3729,75 +3957,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3818,17 +3979,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3843,14 +4048,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3859,15 +4056,46 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3906,7 +4134,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3918,7 +4230,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3936,19 +4260,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3960,115 +4284,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4117,6 +4345,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4132,26 +4384,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4171,21 +4408,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4201,16 +4423,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4220,10 +4448,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4232,19 +4460,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4253,112 +4481,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4742,8 +4970,8 @@
   <sheetPr/>
   <dimension ref="A1:E790"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A696" workbookViewId="0">
-      <selection activeCell="D713" sqref="D713"/>
+    <sheetView tabSelected="1" topLeftCell="A765" workbookViewId="0">
+      <selection activeCell="D794" sqref="D794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -13722,7 +13950,9 @@
       <c r="B713" s="12" t="s">
         <v>1146</v>
       </c>
-      <c r="C713" s="12"/>
+      <c r="C713" s="12" t="s">
+        <v>683</v>
+      </c>
       <c r="D713" s="12" t="s">
         <v>1147</v>
       </c>
@@ -13734,768 +13964,1010 @@
       <c r="B714" s="13" t="s">
         <v>1148</v>
       </c>
-      <c r="C714" s="13"/>
-      <c r="D714" s="13"/>
+      <c r="C714" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D714" s="13" t="s">
+        <v>1149</v>
+      </c>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="12">
         <v>714</v>
       </c>
       <c r="B715" s="12" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C715" s="12"/>
-      <c r="D715" s="12"/>
+        <v>1150</v>
+      </c>
+      <c r="C715" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D715" s="12" t="s">
+        <v>1151</v>
+      </c>
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="13">
         <v>715</v>
       </c>
       <c r="B716" s="13" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C716" s="13"/>
-      <c r="D716" s="13"/>
+        <v>1152</v>
+      </c>
+      <c r="C716" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D716" s="13" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="12">
         <v>716</v>
       </c>
       <c r="B717" s="12" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C717" s="12"/>
-      <c r="D717" s="12"/>
+        <v>1154</v>
+      </c>
+      <c r="C717" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D717" s="12" t="s">
+        <v>1155</v>
+      </c>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="13">
         <v>717</v>
       </c>
       <c r="B718" s="13" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C718" s="13"/>
-      <c r="D718" s="13"/>
+        <v>1156</v>
+      </c>
+      <c r="C718" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D718" s="13" t="s">
+        <v>1157</v>
+      </c>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="12">
         <v>718</v>
       </c>
       <c r="B719" s="12" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C719" s="12"/>
-      <c r="D719" s="12"/>
+        <v>1158</v>
+      </c>
+      <c r="C719" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D719" s="12" t="s">
+        <v>1159</v>
+      </c>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="13">
         <v>719</v>
       </c>
       <c r="B720" s="13" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C720" s="13"/>
-      <c r="D720" s="13"/>
+        <v>1160</v>
+      </c>
+      <c r="C720" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D720" s="13" t="s">
+        <v>1161</v>
+      </c>
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="12">
         <v>720</v>
       </c>
       <c r="B721" s="12" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C721" s="12"/>
-      <c r="D721" s="12"/>
+        <v>1162</v>
+      </c>
+      <c r="C721" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D721" s="12" t="s">
+        <v>1163</v>
+      </c>
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="13">
         <v>721</v>
       </c>
       <c r="B722" s="13" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="C722" s="13"/>
-      <c r="D722" s="13"/>
+      <c r="D722" s="13" t="s">
+        <v>1165</v>
+      </c>
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="12">
         <v>722</v>
       </c>
       <c r="B723" s="12" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C723" s="12"/>
-      <c r="D723" s="12"/>
+        <v>1166</v>
+      </c>
+      <c r="C723" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D723" s="12" t="s">
+        <v>1167</v>
+      </c>
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="13">
         <v>723</v>
       </c>
       <c r="B724" s="13" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C724" s="13"/>
-      <c r="D724" s="13"/>
+        <v>1168</v>
+      </c>
+      <c r="C724" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D724" s="13" t="s">
+        <v>1169</v>
+      </c>
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="12">
         <v>724</v>
       </c>
       <c r="B725" s="12" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C725" s="12"/>
-      <c r="D725" s="12"/>
+        <v>1170</v>
+      </c>
+      <c r="C725" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D725" s="12" t="s">
+        <v>1171</v>
+      </c>
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="13">
         <v>725</v>
       </c>
       <c r="B726" s="13" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C726" s="13"/>
-      <c r="D726" s="13"/>
+        <v>1172</v>
+      </c>
+      <c r="C726" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D726" s="13" t="s">
+        <v>1173</v>
+      </c>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="12">
         <v>726</v>
       </c>
       <c r="B727" s="12" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C727" s="12"/>
-      <c r="D727" s="12"/>
+        <v>1174</v>
+      </c>
+      <c r="C727" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D727" s="12" t="s">
+        <v>1175</v>
+      </c>
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="13">
         <v>727</v>
       </c>
       <c r="B728" s="13" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C728" s="13"/>
-      <c r="D728" s="13"/>
+        <v>1176</v>
+      </c>
+      <c r="C728" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D728" s="13" t="s">
+        <v>1177</v>
+      </c>
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="12">
         <v>728</v>
       </c>
       <c r="B729" s="12" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C729" s="12"/>
-      <c r="D729" s="12"/>
+        <v>1178</v>
+      </c>
+      <c r="C729" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D729" s="12" t="s">
+        <v>1179</v>
+      </c>
     </row>
     <row r="730" spans="1:4">
       <c r="A730" s="13">
         <v>729</v>
       </c>
       <c r="B730" s="13" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C730" s="13"/>
-      <c r="D730" s="13"/>
+        <v>1180</v>
+      </c>
+      <c r="C730" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D730" s="13" t="s">
+        <v>1181</v>
+      </c>
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="12">
         <v>730</v>
       </c>
       <c r="B731" s="12" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C731" s="12"/>
-      <c r="D731" s="12"/>
+        <v>1182</v>
+      </c>
+      <c r="C731" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D731" s="12" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="13">
         <v>731</v>
       </c>
       <c r="B732" s="13" t="s">
-        <v>1166</v>
+        <v>1184</v>
       </c>
       <c r="C732" s="13"/>
-      <c r="D732" s="13"/>
+      <c r="D732" s="13" t="s">
+        <v>1185</v>
+      </c>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="12">
         <v>732</v>
       </c>
       <c r="B733" s="12" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C733" s="12"/>
-      <c r="D733" s="12"/>
+        <v>1186</v>
+      </c>
+      <c r="C733" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D733" s="12" t="s">
+        <v>1187</v>
+      </c>
     </row>
     <row r="734" spans="1:4">
       <c r="A734" s="13">
         <v>733</v>
       </c>
       <c r="B734" s="13" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C734" s="13"/>
-      <c r="D734" s="13"/>
+        <v>1188</v>
+      </c>
+      <c r="C734" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D734" s="13" t="s">
+        <v>1189</v>
+      </c>
     </row>
     <row r="735" spans="1:4">
       <c r="A735" s="12">
         <v>734</v>
       </c>
       <c r="B735" s="12" t="s">
-        <v>1169</v>
+        <v>1190</v>
       </c>
       <c r="C735" s="12"/>
-      <c r="D735" s="12"/>
+      <c r="D735" s="12" t="s">
+        <v>1191</v>
+      </c>
     </row>
     <row r="736" spans="1:4">
       <c r="A736" s="13">
         <v>735</v>
       </c>
       <c r="B736" s="13" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C736" s="13"/>
-      <c r="D736" s="13"/>
+        <v>1192</v>
+      </c>
+      <c r="C736" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D736" s="13" t="s">
+        <v>1193</v>
+      </c>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="12">
         <v>736</v>
       </c>
       <c r="B737" s="12" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C737" s="12"/>
-      <c r="D737" s="12"/>
+        <v>1194</v>
+      </c>
+      <c r="C737" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D737" s="12" t="s">
+        <v>1195</v>
+      </c>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="13">
         <v>737</v>
       </c>
       <c r="B738" s="13" t="s">
-        <v>1172</v>
+        <v>1196</v>
       </c>
       <c r="C738" s="13"/>
-      <c r="D738" s="13"/>
+      <c r="D738" s="13" t="s">
+        <v>1197</v>
+      </c>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="12">
         <v>738</v>
       </c>
       <c r="B739" s="12" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C739" s="12"/>
-      <c r="D739" s="12"/>
+        <v>1198</v>
+      </c>
+      <c r="C739" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D739" s="12" t="s">
+        <v>1199</v>
+      </c>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="13">
         <v>739</v>
       </c>
       <c r="B740" s="13" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C740" s="13"/>
-      <c r="D740" s="13"/>
+        <v>1200</v>
+      </c>
+      <c r="C740" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D740" s="13" t="s">
+        <v>1201</v>
+      </c>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="12">
         <v>740</v>
       </c>
       <c r="B741" s="12" t="s">
-        <v>1175</v>
+        <v>1202</v>
       </c>
       <c r="C741" s="12"/>
-      <c r="D741" s="12"/>
+      <c r="D741" s="12" t="s">
+        <v>1203</v>
+      </c>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="13">
         <v>741</v>
       </c>
       <c r="B742" s="13" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C742" s="13"/>
-      <c r="D742" s="13"/>
+        <v>1204</v>
+      </c>
+      <c r="C742" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D742" s="13" t="s">
+        <v>1205</v>
+      </c>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="12">
         <v>742</v>
       </c>
       <c r="B743" s="12" t="s">
-        <v>1177</v>
+        <v>1206</v>
       </c>
       <c r="C743" s="12"/>
-      <c r="D743" s="12"/>
+      <c r="D743" s="12" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="13">
         <v>743</v>
       </c>
       <c r="B744" s="13" t="s">
-        <v>1178</v>
+        <v>1208</v>
       </c>
       <c r="C744" s="13"/>
-      <c r="D744" s="13"/>
+      <c r="D744" s="13" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="12">
         <v>744</v>
       </c>
       <c r="B745" s="12" t="s">
-        <v>1179</v>
+        <v>1210</v>
       </c>
       <c r="C745" s="12"/>
-      <c r="D745" s="12"/>
+      <c r="D745" s="12" t="s">
+        <v>1211</v>
+      </c>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="13">
         <v>745</v>
       </c>
       <c r="B746" s="13" t="s">
-        <v>1179</v>
+        <v>1210</v>
       </c>
       <c r="C746" s="13"/>
-      <c r="D746" s="13"/>
+      <c r="D746" s="12" t="s">
+        <v>1211</v>
+      </c>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="12">
         <v>746</v>
       </c>
       <c r="B747" s="12" t="s">
-        <v>1180</v>
+        <v>1212</v>
       </c>
       <c r="C747" s="12"/>
-      <c r="D747" s="12"/>
+      <c r="D747" s="12" t="s">
+        <v>1213</v>
+      </c>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="13">
         <v>747</v>
       </c>
       <c r="B748" s="13" t="s">
-        <v>1181</v>
+        <v>1214</v>
       </c>
       <c r="C748" s="13"/>
-      <c r="D748" s="13"/>
+      <c r="D748" s="13" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="12">
         <v>748</v>
       </c>
       <c r="B749" s="12" t="s">
-        <v>1182</v>
+        <v>1216</v>
       </c>
       <c r="C749" s="12"/>
-      <c r="D749" s="12"/>
+      <c r="D749" s="12" t="s">
+        <v>1217</v>
+      </c>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="13">
         <v>749</v>
       </c>
       <c r="B750" s="13" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C750" s="13"/>
-      <c r="D750" s="13"/>
+        <v>1218</v>
+      </c>
+      <c r="C750" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D750" s="13" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="12">
         <v>750</v>
       </c>
       <c r="B751" s="12" t="s">
-        <v>1184</v>
+        <v>1220</v>
       </c>
       <c r="C751" s="12"/>
-      <c r="D751" s="12"/>
+      <c r="D751" s="12" t="s">
+        <v>1221</v>
+      </c>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="13">
         <v>751</v>
       </c>
       <c r="B752" s="13" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C752" s="13"/>
-      <c r="D752" s="13"/>
+        <v>1222</v>
+      </c>
+      <c r="C752" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D752" s="13" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="12">
         <v>752</v>
       </c>
       <c r="B753" s="12" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C753" s="12"/>
-      <c r="D753" s="12"/>
+        <v>1224</v>
+      </c>
+      <c r="C753" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D753" s="12" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="13">
         <v>753</v>
       </c>
       <c r="B754" s="13" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C754" s="13"/>
-      <c r="D754" s="13"/>
+        <v>1226</v>
+      </c>
+      <c r="C754" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D754" s="13" t="s">
+        <v>1227</v>
+      </c>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="12">
         <v>754</v>
       </c>
       <c r="B755" s="12" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C755" s="12"/>
-      <c r="D755" s="12"/>
+        <v>1228</v>
+      </c>
+      <c r="C755" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D755" s="12" t="s">
+        <v>1229</v>
+      </c>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="13">
         <v>755</v>
       </c>
       <c r="B756" s="13" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C756" s="13"/>
-      <c r="D756" s="13"/>
+        <v>1230</v>
+      </c>
+      <c r="C756" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D756" s="13" t="s">
+        <v>1231</v>
+      </c>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="12">
         <v>756</v>
       </c>
       <c r="B757" s="12" t="s">
-        <v>1190</v>
+        <v>1232</v>
       </c>
       <c r="C757" s="12"/>
-      <c r="D757" s="12"/>
+      <c r="D757" s="12" t="s">
+        <v>1233</v>
+      </c>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="13">
         <v>757</v>
       </c>
       <c r="B758" s="13" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C758" s="13"/>
-      <c r="D758" s="13"/>
+        <v>1234</v>
+      </c>
+      <c r="C758" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D758" s="13" t="s">
+        <v>1235</v>
+      </c>
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="12">
         <v>758</v>
       </c>
       <c r="B759" s="12" t="s">
-        <v>1192</v>
+        <v>1236</v>
       </c>
       <c r="C759" s="12"/>
-      <c r="D759" s="12"/>
+      <c r="D759" s="12" t="s">
+        <v>1237</v>
+      </c>
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="13">
         <v>759</v>
       </c>
       <c r="B760" s="13" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C760" s="13"/>
-      <c r="D760" s="13"/>
+        <v>1238</v>
+      </c>
+      <c r="C760" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D760" s="13" t="s">
+        <v>1239</v>
+      </c>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="12">
         <v>760</v>
       </c>
       <c r="B761" s="12" t="s">
-        <v>1194</v>
+        <v>1240</v>
       </c>
       <c r="C761" s="12"/>
-      <c r="D761" s="12"/>
+      <c r="D761" s="12" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="13">
         <v>761</v>
       </c>
       <c r="B762" s="13" t="s">
-        <v>1195</v>
+        <v>1242</v>
       </c>
       <c r="C762" s="13"/>
-      <c r="D762" s="13"/>
+      <c r="D762" s="13" t="s">
+        <v>1243</v>
+      </c>
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="12">
         <v>762</v>
       </c>
       <c r="B763" s="12" t="s">
-        <v>1196</v>
+        <v>1244</v>
       </c>
       <c r="C763" s="12"/>
-      <c r="D763" s="12"/>
+      <c r="D763" s="12" t="s">
+        <v>1245</v>
+      </c>
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="13">
         <v>763</v>
       </c>
       <c r="B764" s="13" t="s">
-        <v>1197</v>
+        <v>1246</v>
       </c>
       <c r="C764" s="13"/>
-      <c r="D764" s="13"/>
+      <c r="D764" s="13" t="s">
+        <v>1247</v>
+      </c>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="12">
         <v>764</v>
       </c>
       <c r="B765" s="12" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C765" s="12"/>
-      <c r="D765" s="12"/>
+        <v>1248</v>
+      </c>
+      <c r="C765" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D765" s="12" t="s">
+        <v>1249</v>
+      </c>
     </row>
     <row r="766" spans="1:4">
       <c r="A766" s="13">
         <v>765</v>
       </c>
       <c r="B766" s="13" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C766" s="13"/>
-      <c r="D766" s="13"/>
+        <v>1250</v>
+      </c>
+      <c r="C766" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D766" s="13" t="s">
+        <v>1251</v>
+      </c>
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="12">
         <v>766</v>
       </c>
       <c r="B767" s="12" t="s">
-        <v>1200</v>
+        <v>1252</v>
       </c>
       <c r="C767" s="12"/>
-      <c r="D767" s="12"/>
+      <c r="D767" s="12" t="s">
+        <v>1253</v>
+      </c>
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="13">
         <v>767</v>
       </c>
       <c r="B768" s="13" t="s">
-        <v>1201</v>
+        <v>1254</v>
       </c>
       <c r="C768" s="13"/>
-      <c r="D768" s="13"/>
+      <c r="D768" s="13" t="s">
+        <v>1255</v>
+      </c>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="12">
         <v>768</v>
       </c>
       <c r="B769" s="12" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C769" s="12"/>
-      <c r="D769" s="12"/>
+        <v>1256</v>
+      </c>
+      <c r="C769" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D769" s="12" t="s">
+        <v>1257</v>
+      </c>
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="13">
         <v>769</v>
       </c>
       <c r="B770" s="13" t="s">
-        <v>1203</v>
+        <v>1258</v>
       </c>
       <c r="C770" s="13"/>
-      <c r="D770" s="13"/>
+      <c r="D770" s="13" t="s">
+        <v>1259</v>
+      </c>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="12">
         <v>770</v>
       </c>
       <c r="B771" s="12" t="s">
-        <v>1204</v>
+        <v>1260</v>
       </c>
       <c r="C771" s="12"/>
-      <c r="D771" s="12"/>
+      <c r="D771" s="12" t="s">
+        <v>1261</v>
+      </c>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="13">
         <v>771</v>
       </c>
       <c r="B772" s="13" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C772" s="13"/>
-      <c r="D772" s="13"/>
+        <v>1262</v>
+      </c>
+      <c r="C772" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D772" s="13" t="s">
+        <v>1263</v>
+      </c>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="12">
         <v>772</v>
       </c>
       <c r="B773" s="12" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C773" s="12"/>
-      <c r="D773" s="12"/>
+        <v>1264</v>
+      </c>
+      <c r="C773" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D773" s="12" t="s">
+        <v>1265</v>
+      </c>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="13">
         <v>773</v>
       </c>
       <c r="B774" s="13" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C774" s="13"/>
-      <c r="D774" s="13"/>
+        <v>1266</v>
+      </c>
+      <c r="C774" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D774" s="13" t="s">
+        <v>1267</v>
+      </c>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="12">
         <v>774</v>
       </c>
       <c r="B775" s="12" t="s">
-        <v>1208</v>
+        <v>1268</v>
       </c>
       <c r="C775" s="12"/>
-      <c r="D775" s="12"/>
+      <c r="D775" s="12" t="s">
+        <v>1269</v>
+      </c>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="13">
         <v>775</v>
       </c>
       <c r="B776" s="13" t="s">
-        <v>1209</v>
+        <v>1270</v>
       </c>
       <c r="C776" s="13"/>
-      <c r="D776" s="13"/>
+      <c r="D776" s="13" t="s">
+        <v>1271</v>
+      </c>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="12">
         <v>776</v>
       </c>
       <c r="B777" s="12" t="s">
-        <v>1210</v>
+        <v>1272</v>
       </c>
       <c r="C777" s="12"/>
-      <c r="D777" s="12"/>
+      <c r="D777" s="12" t="s">
+        <v>1273</v>
+      </c>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="13">
         <v>777</v>
       </c>
       <c r="B778" s="13" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C778" s="13"/>
-      <c r="D778" s="13"/>
+        <v>1274</v>
+      </c>
+      <c r="C778" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D778" s="13" t="s">
+        <v>1275</v>
+      </c>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="12">
         <v>778</v>
       </c>
       <c r="B779" s="12" t="s">
-        <v>1212</v>
+        <v>1276</v>
       </c>
       <c r="C779" s="12"/>
-      <c r="D779" s="12"/>
+      <c r="D779" s="12" t="s">
+        <v>1277</v>
+      </c>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="13">
         <v>779</v>
       </c>
       <c r="B780" s="13" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C780" s="13"/>
-      <c r="D780" s="13"/>
+        <v>1278</v>
+      </c>
+      <c r="C780" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D780" s="13" t="s">
+        <v>1279</v>
+      </c>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="12">
         <v>780</v>
       </c>
       <c r="B781" s="12" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C781" s="12"/>
-      <c r="D781" s="12"/>
+        <v>1280</v>
+      </c>
+      <c r="C781" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D781" s="12" t="s">
+        <v>1281</v>
+      </c>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="13">
         <v>781</v>
       </c>
       <c r="B782" s="13" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C782" s="13"/>
-      <c r="D782" s="13"/>
+        <v>1282</v>
+      </c>
+      <c r="C782" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D782" s="13" t="s">
+        <v>1283</v>
+      </c>
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="12">
         <v>782</v>
       </c>
       <c r="B783" s="12" t="s">
-        <v>1216</v>
+        <v>1284</v>
       </c>
       <c r="C783" s="12"/>
-      <c r="D783" s="12"/>
+      <c r="D783" s="12" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="13">
         <v>783</v>
       </c>
       <c r="B784" s="13" t="s">
-        <v>1217</v>
+        <v>1286</v>
       </c>
       <c r="C784" s="13"/>
-      <c r="D784" s="13"/>
+      <c r="D784" s="13" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="12">
         <v>784</v>
       </c>
       <c r="B785" s="12" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C785" s="12"/>
-      <c r="D785" s="12"/>
+        <v>1288</v>
+      </c>
+      <c r="C785" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D785" s="12" t="s">
+        <v>1289</v>
+      </c>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="13">
         <v>785</v>
       </c>
       <c r="B786" s="13" t="s">
-        <v>1219</v>
+        <v>1290</v>
       </c>
       <c r="C786" s="13"/>
-      <c r="D786" s="13"/>
+      <c r="D786" s="13" t="s">
+        <v>1291</v>
+      </c>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="12">
         <v>786</v>
       </c>
       <c r="B787" s="12" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C787" s="12"/>
-      <c r="D787" s="12"/>
+        <v>1292</v>
+      </c>
+      <c r="C787" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D787" s="12" t="s">
+        <v>1293</v>
+      </c>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="13">
         <v>787</v>
       </c>
       <c r="B788" s="13" t="s">
-        <v>1221</v>
+        <v>1294</v>
       </c>
       <c r="C788" s="13"/>
-      <c r="D788" s="13"/>
+      <c r="D788" s="13" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="12">
         <v>788</v>
       </c>
       <c r="B789" s="12" t="s">
-        <v>1222</v>
+        <v>1296</v>
       </c>
       <c r="C789" s="12"/>
-      <c r="D789" s="12"/>
+      <c r="D789" s="12" t="s">
+        <v>1297</v>
+      </c>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="13">
         <v>789</v>
       </c>
       <c r="B790" s="13" t="s">
-        <v>1223</v>
+        <v>1298</v>
       </c>
       <c r="C790" s="13"/>
-      <c r="D790" s="13"/>
+      <c r="D790" s="13" t="s">
+        <v>1299</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="20880" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="zh-cn" sheetId="1" r:id="rId1"/>
@@ -1074,13 +1074,13 @@
     <t>Number of unemployed people</t>
   </si>
   <si>
-    <t>失业的居民数量</t>
+    <t>失业村民数量</t>
   </si>
   <si>
     <t>Number of all adult villagers</t>
   </si>
   <si>
-    <t>所有成年的居民数量</t>
+    <t>成年村民数量</t>
   </si>
   <si>
     <t>Maximum number of people in the profession</t>
@@ -1888,7 +1888,7 @@
     <t>Show or hide messages about residents</t>
   </si>
   <si>
-    <t>显示或隐藏居民消息</t>
+    <t>显示或隐藏村民消息</t>
   </si>
   <si>
     <t>Show or hide messages about expeditions</t>
@@ -2212,7 +2212,7 @@
     <t>Hunters aren't only used for the production of food, they also gather hides. Build a hunter's hovel at the borders of your village and hunters will protect your people from being infected with rabies by wild animals.</t>
   </si>
   <si>
-    <t>猎人不光用于收集食物，还可以用来收集毛皮。在你的村庄边缘建造一栋猎人小屋，那么猎人便可以保护你的居民不被野兽传染狂犬病。</t>
+    <t>猎人不光用于收集食物，还可以用来收集毛皮。在你的村庄边缘建造一栋猎人小屋，那么猎人便可以保护你的村民不被野兽传染狂犬病。</t>
   </si>
   <si>
     <t>Every crop has unique temperature and humidity requirements. So choose the crop wisely – it must be fit for the current weather and season, thus yielding a rich harvest.</t>
@@ -2272,7 +2272,7 @@
     <t>A warehouse has limited capacity, and if you fill it up, your residents will not be able to add resources there. In the end, you will not be able to construct buildings and gather resources. To avoid this, your warehouses must always have free space.</t>
   </si>
   <si>
-    <t>一个仓库的容量是有限的，如果你填满了它，你的居民将无法继续向那里存储资源。子哦后，你将会无法建造建筑物以及收集资源。为了避免这一点，你必须保持仓库有一定的空余。</t>
+    <t>一个仓库的容量是有限的，如果你填满了它，你的村民将无法继续向那里存储资源。最后，你将会无法建造建筑物以及收集资源。为了避免这一点，你必须保持仓库有一定的空余。</t>
   </si>
   <si>
     <t>Wood gathering by laborers gives fast, but temporary resource growth. To collect wood choose the collect resources group. Click the 'collect wood' button and select an area - free villagers will start gathering wood immediately.</t>
@@ -2408,7 +2408,7 @@
     <t>People icons</t>
   </si>
   <si>
-    <t>居民图标</t>
+    <t>村民图标</t>
   </si>
   <si>
     <t>Buildings icons</t>
@@ -2540,13 +2540,13 @@
     <t>Let your mentor teach children. Educated people work faster and better than uneducated.</t>
   </si>
   <si>
-    <t>让你的导师去教导儿童。受过教育的居民比未受教育的工作的更快更好。</t>
+    <t>让你的导师去教导儿童。受过教育的村民比未受教育的工作的更快更好。</t>
   </si>
   <si>
     <t>Allows you to hire hunters to gather meat and skins, and also defend pastures and people from wild animals.</t>
   </si>
   <si>
-    <t>允许你雇佣猎人来捕杀猎物以保护草原和居民，并得到肉和皮。</t>
+    <t>允许你雇佣猎人来捕杀猎物以保护牧场及村民，并得到肉和皮。</t>
   </si>
   <si>
     <t>Allows you to hire gatherers to gather vegetables, berries, edible roots, and other edible plants in the forest.</t>
@@ -2675,13 +2675,13 @@
     <t>Number of workers in the building</t>
   </si>
   <si>
-    <t>建筑内的工人数量</t>
+    <t>建筑中工人的数量</t>
   </si>
   <si>
     <t>Number of residents in the building</t>
   </si>
   <si>
-    <t>房屋内的居民数量</t>
+    <t>房屋中村民的数量</t>
   </si>
   <si>
     <t>Movement speed</t>
@@ -2717,19 +2717,19 @@
     <t>Number of idle villagers</t>
   </si>
   <si>
-    <t>空闲居民数量</t>
+    <t>空闲的村民数量</t>
   </si>
   <si>
     <t>Number of hungry villagers</t>
   </si>
   <si>
-    <t>饥饿居民数量</t>
+    <t>饥饿的村民数量</t>
   </si>
   <si>
     <t>Number of frozen villagers</t>
   </si>
   <si>
-    <t>冻僵的居民数量</t>
+    <t>冻僵的村民数量</t>
   </si>
   <si>
     <t>Village population</t>
@@ -2945,43 +2945,43 @@
     <t>Small size living place. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
   </si>
   <si>
-    <t>小型居住地。容量：%WORKER_COUNT%个居民。幸福：+3。强度：+6。</t>
+    <t>小型居住地。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
   </si>
   <si>
     <t>Medium size living place. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
   </si>
   <si>
-    <t>中型居住地。容量：%WORKER_COUNT%个居民。幸福：+3。强度：+6。</t>
+    <t>中型居住地。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
   </si>
   <si>
     <t>Improved medium size living place. Have extra bedrooms. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
   </si>
   <si>
-    <t>进阶中型居住地。有额外的卧室。容量：%WORKER_COUNT%个居民。幸福：+3。强度：+6。</t>
+    <t>进阶中型居住地。有额外的卧室。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
   </si>
   <si>
     <t>Large size living place. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
   </si>
   <si>
-    <t>大型居住地。容量：%WORKER_COUNT%个居民。幸福：+3。强度：+6。</t>
+    <t>大型居住地。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
   </si>
   <si>
     <t>Improved large size living place. Have extra bedrooms. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
   </si>
   <si>
-    <t>进阶大型居住地。有额外的卧室。容量：%WORKER_COUNT%个居民。幸福：+3。强度：+6。</t>
+    <t>进阶大型居住地。有额外的卧室。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
   </si>
   <si>
     <t>Temporary house. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
   </si>
   <si>
-    <t>临时房屋。容量：18个居民。幸福：+3。强度：+6。</t>
+    <t>临时房屋。容量：18个村民。幸福：+3。强度：+6。</t>
   </si>
   <si>
     <t>Improved temporary house. Have extra living rooms. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
   </si>
   <si>
-    <t>进阶临时房屋。有额外的起居室。容量：18个居民。幸福：+3。强度：+6。</t>
+    <t>进阶临时房屋。有额外的起居室。容量：18个村民。幸福：+3。强度：+6。</t>
   </si>
   <si>
     <t>Clay gathering. Number of workers: %WORKER_COUNT%.</t>
@@ -3017,7 +3017,7 @@
     <t>Residents healing. Number of workers: %WORKER_COUNT%. Capacity: %VISITORS_COUNT% places.</t>
   </si>
   <si>
-    <t>治疗居民。工人数量：%WORKER_COUNT%。容量：%VISITORS_COUNT%个位子。</t>
+    <t>治疗村民。工人数量：%WORKER_COUNT%。容量：%VISITORS_COUNT%个位子。</t>
   </si>
   <si>
     <t>Meat and hides gathering, pasture defending. Number of workers: %WORKER_COUNT%. Action radius: %ACTION_RADIUS%.</t>
@@ -3143,7 +3143,7 @@
     <t>Keeping resources for people.</t>
   </si>
   <si>
-    <t>为居民保管资源。</t>
+    <t>为村民保管资源。</t>
   </si>
   <si>
     <t>Keeping building materials.</t>
@@ -3491,7 +3491,7 @@
     <t>All available unemployed villagers will start gathering resources - they take them from the closest warehouse and carry to the construction site.</t>
   </si>
   <si>
-    <t>所有可用的无业居民会开始收集资源，他们会把资源带到仓库，并运输到建筑工地。</t>
+    <t>所有可用的无业村民会开始收集资源，他们会把资源带到仓库，并运输到建筑工地。</t>
   </si>
   <si>
     <t>Now you need to assign builders. Select the building under construction.</t>
@@ -3527,13 +3527,13 @@
     <t>Below you can find the list of resources that villagers use to cope with hunger and to get warm during cold times. They will begin to move the resources as soon as they move in the house.</t>
   </si>
   <si>
-    <t>下面部分显示了这所房屋内居民用来充饥以及抵御寒冷的资源列表。当他们在房子里的时候便会减少这些资源。</t>
+    <t>下面部分显示了这所房屋内村民用来充饥以及抵御寒冷的资源列表。当他们在房子里的时候便会减少这些资源。</t>
   </si>
   <si>
     <t>There are several types of houses in game, each of them have their own unique characteristics: number of dwellers, durability and happiness bonus, which affects workers productivity.</t>
   </si>
   <si>
-    <t>游戏内有多种类型的房屋，每栋房屋都有他们各自的特性：居民数量、耐久度、幸福度，从而影响居民的生产效率。</t>
+    <t>游戏内有多种类型的房屋，每栋房屋都有他们各自的特性：村民数量、耐久度、幸福度，从而影响村民的生产效率。</t>
   </si>
   <si>
     <t>In the upper right area of screen you can see the minimap. It displays the map of the island, planned and built constructions, and the current position of the camera.</t>
@@ -3581,7 +3581,7 @@
     <t>You can pause the game process to take your time with assigning tasks to your settlers. In this case, all tasks will be saved and set to the order of execution. Just press the pause button.</t>
   </si>
   <si>
-    <t>你可以暂停游戏来给自己更多的时间分配任务给居民。在这种情况下所有的任务都会按照顺序保存。只需要按下“暂停”按钮。</t>
+    <t>你可以暂停游戏来给自己更多的时间分配任务给村民。在这种情况下所有的任务都会按照顺序保存。只需要按下“暂停”按钮。</t>
   </si>
   <si>
     <t>Now open the group of common information by pressing the specified button.</t>
@@ -3605,7 +3605,7 @@
     <t>You can perform the same actions with any other profession, even if there is no work for them. As soon as work appears, settlers assigned to it will start to work.</t>
   </si>
   <si>
-    <t>你也可以对其他的职业进行同样的操作，即使没有工作。一旦出现工作，被分配的居民将会立即开始工作。</t>
+    <t>你也可以对其他的职业进行同样的操作，即使没有工作。一旦出现工作，被分配的村民将会立即开始工作。</t>
   </si>
   <si>
     <t>You need to assign two construction workers again.</t>
@@ -3617,7 +3617,7 @@
     <t>All settlers need to eat or they will starve to death. There are lots of methods of food production.</t>
   </si>
   <si>
-    <t>所有的居民都需要吃东西，否则便会饿死。在这里有多种方式来获取食物。</t>
+    <t>所有的村民都需要吃东西，否则便会饿死。在这里有多种方式来获取食物。</t>
   </si>
   <si>
     <t>All these methods are listed in the food production's group. Open it by pressing the button shown.</t>
@@ -3695,7 +3695,7 @@
     <t>This is the villagers window. Each villager has a number of characteristics, one of which is age. You can see it to the right from the name. Below are scales of happiness, which affects productivity, clothing and its condition, and also tools condition scale. Further down you can see icons to show his/her home and workplace.</t>
   </si>
   <si>
-    <t>这是居民窗口。每个村民都有一系列的特性，其中之一便是年龄。你可以在名字的旁边看到它们。下面是幸福度，影响生产力、服装及它的状态，同时也包括工具耐久度。再往下，你可以看到他的家庭和工作的图标。</t>
+    <t>这是村民窗口。每个村民都有一系列的特性，其中之一便是年龄。你可以在名字的旁边看到它们。下面是幸福度，影响生产力、服装及它的状态，同时也包括工具耐久度。再往下，你可以看到他的家庭和工作的图标。</t>
   </si>
   <si>
     <t>To take direct control of a settler and manage them directly, click on their avatar.</t>
@@ -3719,7 +3719,7 @@
     <t>Press the Escape button to leave character control view.</t>
   </si>
   <si>
-    <t>按下[Escape]按键退出居民控制模式。</t>
+    <t>按下[Escape]按键退出村民控制模式。</t>
   </si>
   <si>
     <t>Besides food, you need to collect construction and craftable resources, like wood, which is used in the construction of almost every building.</t>
@@ -3761,7 +3761,7 @@
     <t>Switch to first-person villager control mode.</t>
   </si>
   <si>
-    <t>切换到第一人称来进入居民控制模式。</t>
+    <t>切换到第一人称来进入村民控制模式。</t>
   </si>
   <si>
     <t>Use "Horn" ability by pressing 1 key. This will temporary speed up villagers, raising their spirit.</t>
@@ -3821,7 +3821,7 @@
     <t>The current season affects both crops and villagers. Crops do not grow during cold seasons.</t>
   </si>
   <si>
-    <t>当前的季节会影响作物的生长以及居民。在寒冷的季节里，作物将无法生长。</t>
+    <t>当前的季节会影响作物的生长以及村民。在寒冷的季节里，作物将无法生长。</t>
   </si>
   <si>
     <t>Select the field by clicking on it.</t>
@@ -3869,7 +3869,7 @@
     <t>Villagers can eat common plants as well. These plants can be collected by gatherers from bushes that grow mainly in forests. Let's build a gatherer's hut. Firstly, we have to flatten the area, as many buildings can not be built on slopes.</t>
   </si>
   <si>
-    <t>居民们也可以吃到普通的食物。这些食物可以从主要生长在森林里的灌木丛中被采集。让我们建立一栋“采集者小屋”。首先，我们必须使建筑区域变平，因为许多建筑物都无法造在斜坡上。</t>
+    <t>村民们也可以吃到普通的食物。这些食物可以从主要生长在森林里的灌木丛中被采集。让我们建立一栋“采集者小屋”。首先，我们必须使建筑区域变平，因为许多建筑物都无法造在斜坡上。</t>
   </si>
   <si>
     <t>Click on the button to open terraforming tools group.</t>
@@ -3925,9 +3925,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -3957,18 +3957,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3979,38 +3980,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4018,37 +3990,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4072,17 +4013,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4093,9 +4062,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4134,55 +4134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4194,25 +4146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4236,7 +4170,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4248,7 +4194,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4260,19 +4212,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4284,13 +4230,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4363,8 +4363,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4387,23 +4426,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4418,40 +4442,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4460,133 +4460,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4970,8 +4970,8 @@
   <sheetPr/>
   <dimension ref="A1:E790"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A765" workbookViewId="0">
-      <selection activeCell="D794" sqref="D794"/>
+    <sheetView tabSelected="1" topLeftCell="C768" workbookViewId="0">
+      <selection activeCell="E793" sqref="E793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -14964,7 +14964,9 @@
       <c r="B790" s="13" t="s">
         <v>1298</v>
       </c>
-      <c r="C790" s="13"/>
+      <c r="C790" s="13" t="s">
+        <v>683</v>
+      </c>
       <c r="D790" s="13" t="s">
         <v>1299</v>
       </c>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304">
   <si>
     <t>ID</t>
   </si>
@@ -549,7 +549,7 @@
     <t>Resource gathering</t>
   </si>
   <si>
-    <t>资源收集</t>
+    <t>资源采集</t>
   </si>
   <si>
     <t>Food production</t>
@@ -1323,28 +1323,28 @@
     <t>儿童</t>
   </si>
   <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>夏天</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>冬天</t>
-  </si>
-  <si>
-    <t>Fall</t>
-  </si>
-  <si>
-    <t>秋天</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>春天</t>
+    <t>Summer.</t>
+  </si>
+  <si>
+    <t>夏天.</t>
+  </si>
+  <si>
+    <t>Winter.</t>
+  </si>
+  <si>
+    <t>冬天.</t>
+  </si>
+  <si>
+    <t>Fall.</t>
+  </si>
+  <si>
+    <t>秋天.</t>
+  </si>
+  <si>
+    <t>Spring.</t>
+  </si>
+  <si>
+    <t>春天.</t>
   </si>
   <si>
     <t>total</t>
@@ -1771,58 +1771,58 @@
     <t>强</t>
   </si>
   <si>
-    <t>year</t>
+    <t>Year</t>
   </si>
   <si>
     <t>年</t>
   </si>
   <si>
-    <t>Early summer</t>
-  </si>
-  <si>
-    <t>初夏</t>
-  </si>
-  <si>
-    <t>Late summer</t>
-  </si>
-  <si>
-    <t>夏末</t>
-  </si>
-  <si>
-    <t>Early spring</t>
-  </si>
-  <si>
-    <t>初春</t>
-  </si>
-  <si>
-    <t>Late spring</t>
-  </si>
-  <si>
-    <t>春末</t>
-  </si>
-  <si>
-    <t>Early winter</t>
-  </si>
-  <si>
-    <t>初冬</t>
-  </si>
-  <si>
-    <t>Late winter</t>
-  </si>
-  <si>
-    <t>冬末</t>
-  </si>
-  <si>
-    <t>Early fall</t>
-  </si>
-  <si>
-    <t>初秋</t>
-  </si>
-  <si>
-    <t>Late fall</t>
-  </si>
-  <si>
-    <t>秋末</t>
+    <t>Early summer.</t>
+  </si>
+  <si>
+    <t>初夏.</t>
+  </si>
+  <si>
+    <t>Late summer.</t>
+  </si>
+  <si>
+    <t>夏末.</t>
+  </si>
+  <si>
+    <t>Early spring.</t>
+  </si>
+  <si>
+    <t>初春.</t>
+  </si>
+  <si>
+    <t>Late spring.</t>
+  </si>
+  <si>
+    <t>春末.</t>
+  </si>
+  <si>
+    <t>Early winter.</t>
+  </si>
+  <si>
+    <t>初冬.</t>
+  </si>
+  <si>
+    <t>Late winter.</t>
+  </si>
+  <si>
+    <t>冬末.</t>
+  </si>
+  <si>
+    <t>Early fall.</t>
+  </si>
+  <si>
+    <t>初秋.</t>
+  </si>
+  <si>
+    <t>Late fall.</t>
+  </si>
+  <si>
+    <t>秋末.</t>
   </si>
   <si>
     <t>英语</t>
@@ -2227,10 +2227,10 @@
     <t>为你的村民制作衣服以减少木柴及煤炭的消耗。在猎人的帮助下收集毛皮，建造纺织工坊然后制作温暖的皮衣。</t>
   </si>
   <si>
-    <t>Build a marketplace to provide a balanced diet for your citizens. If you don't do this your people could develop avitaminosis.</t>
-  </si>
-  <si>
-    <t>建立一个集市，为你的村民提供均衡的饮食。如果你不这样做，你的人民可能会出现维生素缺乏症。</t>
+    <t>Build a marketplace to provide a balanced diet for your citizens. If you don't do this your people could develop scurvy.</t>
+  </si>
+  <si>
+    <t>建立一个集市，为你的村民提供均衡的饮食。如果你不这样做，你的人民可能会出现坏血病。</t>
   </si>
   <si>
     <t>Clay is a required construction material for some buildings. You can gather clay only in a clay mine.</t>
@@ -2942,46 +2942,46 @@
     <t>使你对齐区域。</t>
   </si>
   <si>
-    <t>Small size living place. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>小型居住地。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
-  </si>
-  <si>
-    <t>Medium size living place. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>中型居住地。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
-  </si>
-  <si>
-    <t>Improved medium size living place. Have extra bedrooms. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>进阶中型居住地。有额外的卧室。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
-  </si>
-  <si>
-    <t>Large size living place. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>大型居住地。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
-  </si>
-  <si>
-    <t>Improved large size living place. Have extra bedrooms. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>进阶大型居住地。有额外的卧室。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
-  </si>
-  <si>
-    <t>Temporary house. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>临时房屋。容量：18个村民。幸福：+3。强度：+6。</t>
-  </si>
-  <si>
-    <t>Improved temporary house. Have extra living rooms. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>进阶临时房屋。有额外的起居室。容量：18个村民。幸福：+3。强度：+6。</t>
+    <t>Small size living place. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
+  </si>
+  <si>
+    <t>小型居住地。低怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
+  </si>
+  <si>
+    <t>Medium size living place. Above average pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
+  </si>
+  <si>
+    <t>中型居住地。高于平均的怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
+  </si>
+  <si>
+    <t>Improved medium size living place. Have extra bedrooms. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
+  </si>
+  <si>
+    <t>进阶中型居住地。有额外的卧室。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
+  </si>
+  <si>
+    <t>Large size living place. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
+  </si>
+  <si>
+    <t>大型居住地。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
+  </si>
+  <si>
+    <t>Improved large size living place. Have extra bedrooms. Extremely high pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
+  </si>
+  <si>
+    <t>进阶大型居住地。有额外的卧室。超高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
+  </si>
+  <si>
+    <t>Temporary house. Extremely low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
+  </si>
+  <si>
+    <t>临时房屋。超高怀孕几率。容量：18个村民。幸福：+3。强度：+6。</t>
+  </si>
+  <si>
+    <t>Improved temporary house. Have extra living rooms. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
+  </si>
+  <si>
+    <t>进阶临时房屋。有额外的起居室。低怀孕几率容量：18个村民。幸福：+3。强度：+6。</t>
   </si>
   <si>
     <t>Clay gathering. Number of workers: %WORKER_COUNT%.</t>
@@ -3200,10 +3200,10 @@
     <t>肺炎</t>
   </si>
   <si>
-    <t>Avitaminosis</t>
-  </si>
-  <si>
-    <t>维生素缺乏症</t>
+    <t>Scurvy</t>
+  </si>
+  <si>
+    <t>坏血病</t>
   </si>
   <si>
     <t>Plague</t>
@@ -3572,7 +3572,7 @@
     <t>你还可以加速游戏来减少需要等待的时间。按下“加速”按钮。</t>
   </si>
   <si>
-    <t>Now let's wait wait for the improved house version to be built.</t>
+    <t>Now let's wait for the improved house version to be built.</t>
   </si>
   <si>
     <t>现在让我们等待进阶房屋建造完成。</t>
@@ -3914,10 +3914,22 @@
     <t>将“采集者小屋”放置到刚刚平整的地方。</t>
   </si>
   <si>
-    <t>We have covered the basics. You will find many more opportunities in game! You can learn about them from tooltips available for most of ingame elements. Good luck!</t>
-  </si>
-  <si>
-    <t>我们已经完成了基础教程。你可以在游戏中学到更多的知识，祝你好运！你也可以加入交流群：574083350 来进行交流。</t>
+    <t>We have now covered the basics. You will find many more opportunities in game and learn about them from tooltips. Just one more bit of advice to end on - keep an eye on your food and firewood balance. Don't let them deplete, or your people may starve and freeze to death. Good luck!</t>
+  </si>
+  <si>
+    <t>我们已经完成了基础教程。你可以在游戏中获得更多的机会，并且通过“小贴士”学习到更多的内容。另外请维持你的食物及木柴在一个平衡点，以免你的村民饿死或冻死。祝你好运！你也可以加入交流群：574083350 来进行交流。</t>
+  </si>
+  <si>
+    <t>Improved shack</t>
+  </si>
+  <si>
+    <t>进阶棚屋</t>
+  </si>
+  <si>
+    <t>Improved small size living place. Have extra bedroom. Average pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
+  </si>
+  <si>
+    <t>进阶小型居住地。高于平均的怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
   </si>
 </sst>
 </file>
@@ -3925,10 +3937,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3958,14 +3970,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3981,15 +3985,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4013,6 +4009,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4020,7 +4038,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4035,28 +4061,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4078,16 +4091,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4095,7 +4100,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4134,7 +4146,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4146,61 +4254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4212,67 +4272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4290,13 +4290,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4345,6 +4357,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4362,24 +4398,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4389,21 +4412,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4432,13 +4440,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4448,10 +4460,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4460,19 +4472,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4481,112 +4493,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4968,10 +4980,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E790"/>
+  <dimension ref="A1:E799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C768" workbookViewId="0">
-      <selection activeCell="E793" sqref="E793"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -14360,7 +14372,9 @@
       <c r="B743" s="12" t="s">
         <v>1206</v>
       </c>
-      <c r="C743" s="12"/>
+      <c r="C743" s="12" t="s">
+        <v>683</v>
+      </c>
       <c r="D743" s="12" t="s">
         <v>1207</v>
       </c>
@@ -14393,13 +14407,9 @@
       <c r="A746" s="13">
         <v>745</v>
       </c>
-      <c r="B746" s="13" t="s">
-        <v>1210</v>
-      </c>
+      <c r="B746" s="13"/>
       <c r="C746" s="13"/>
-      <c r="D746" s="12" t="s">
-        <v>1211</v>
-      </c>
+      <c r="D746" s="12"/>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="12">
@@ -14604,7 +14614,9 @@
       <c r="B762" s="13" t="s">
         <v>1242</v>
       </c>
-      <c r="C762" s="13"/>
+      <c r="C762" s="13" t="s">
+        <v>683</v>
+      </c>
       <c r="D762" s="13" t="s">
         <v>1243</v>
       </c>
@@ -14969,6 +14981,88 @@
       </c>
       <c r="D790" s="13" t="s">
         <v>1299</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4">
+      <c r="A791" s="12">
+        <v>790</v>
+      </c>
+      <c r="B791" s="12"/>
+      <c r="C791" s="12"/>
+      <c r="D791" s="12"/>
+    </row>
+    <row r="792" spans="1:4">
+      <c r="A792" s="13">
+        <v>791</v>
+      </c>
+      <c r="B792" s="13"/>
+      <c r="C792" s="13"/>
+      <c r="D792" s="13"/>
+    </row>
+    <row r="793" spans="1:4">
+      <c r="A793" s="12">
+        <v>792</v>
+      </c>
+      <c r="B793" s="12"/>
+      <c r="C793" s="12"/>
+      <c r="D793" s="12"/>
+    </row>
+    <row r="794" spans="1:4">
+      <c r="A794" s="13">
+        <v>793</v>
+      </c>
+      <c r="B794" s="13"/>
+      <c r="C794" s="13"/>
+      <c r="D794" s="13"/>
+    </row>
+    <row r="795" spans="1:4">
+      <c r="A795" s="12">
+        <v>794</v>
+      </c>
+      <c r="B795" s="12"/>
+      <c r="C795" s="12"/>
+      <c r="D795" s="12"/>
+    </row>
+    <row r="796" spans="1:4">
+      <c r="A796" s="13">
+        <v>795</v>
+      </c>
+      <c r="B796" s="13"/>
+      <c r="C796" s="13"/>
+      <c r="D796" s="13"/>
+    </row>
+    <row r="797" spans="1:4">
+      <c r="A797" s="12">
+        <v>796</v>
+      </c>
+      <c r="B797" s="12"/>
+      <c r="C797" s="12"/>
+      <c r="D797" s="12"/>
+    </row>
+    <row r="798" spans="1:4">
+      <c r="A798" s="13">
+        <v>797</v>
+      </c>
+      <c r="B798" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C798" s="13"/>
+      <c r="D798" s="13" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4">
+      <c r="A799" s="12">
+        <v>798</v>
+      </c>
+      <c r="B799" s="12" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C799" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D799" s="12" t="s">
+        <v>1303</v>
       </c>
     </row>
   </sheetData>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303">
   <si>
     <t>ID</t>
   </si>
@@ -324,7 +324,7 @@
     <t>Lumberjack's lodge</t>
   </si>
   <si>
-    <t>伐木小屋</t>
+    <t>樵场</t>
   </si>
   <si>
     <t>Sawmill</t>
@@ -504,7 +504,7 @@
     <t>Select the area to increase building and gathering priority</t>
   </si>
   <si>
-    <t>选择区域来增加建筑和采集优先级</t>
+    <t>选择区域来增加建筑及采集优先级</t>
   </si>
   <si>
     <t>Village info</t>
@@ -696,7 +696,7 @@
     <t>Temperature and weather</t>
   </si>
   <si>
-    <t>温度和天气</t>
+    <t>温度及天气</t>
   </si>
   <si>
     <t>Village age</t>
@@ -750,7 +750,7 @@
     <t>Lumberjack</t>
   </si>
   <si>
-    <t>伐木工人</t>
+    <t>樵夫</t>
   </si>
   <si>
     <t>Blacksmith</t>
@@ -774,7 +774,7 @@
     <t>Laborer</t>
   </si>
   <si>
-    <t>工人</t>
+    <t>劳工</t>
   </si>
   <si>
     <t>Hunter</t>
@@ -834,13 +834,13 @@
     <t>Kilner</t>
   </si>
   <si>
-    <t>陶工</t>
+    <t>窑工</t>
   </si>
   <si>
     <t>Smelter</t>
   </si>
   <si>
-    <t>熔炼工人</t>
+    <t>熔炼工</t>
   </si>
   <si>
     <t>Carpenter</t>
@@ -858,13 +858,13 @@
     <t>Stonemason. Gets stone. Stone quarry required.</t>
   </si>
   <si>
-    <t>石工：获取石头。需要采石场。</t>
+    <t>石工：开采石头。需要采石场。</t>
   </si>
   <si>
     <t>Miner. Gets ore. Ore mine required.</t>
   </si>
   <si>
-    <t>矿工：获取矿石。需要矿洞。</t>
+    <t>矿工：开采矿石。需要矿洞。</t>
   </si>
   <si>
     <t>Fisherman. Catches fish. Fisherman's lodge required.</t>
@@ -876,7 +876,7 @@
     <t>Lumberjack. Cuts logs for firewood. Lumberjack's lodge required.</t>
   </si>
   <si>
-    <t>伐木工人：劈柴。需要伐木小屋。</t>
+    <t>樵夫：劈柴。需要樵场。</t>
   </si>
   <si>
     <t>Blacksmith. Manufactures tools. Blacksmith's shop required.</t>
@@ -900,7 +900,7 @@
     <t>Laborer. Collects resources from land.</t>
   </si>
   <si>
-    <t>工人：从地上收集资源。</t>
+    <t>劳工：从地上收集资源。</t>
   </si>
   <si>
     <t>Hunter. Hunts for wild animals. Hunter's lodge is required.</t>
@@ -942,7 +942,7 @@
     <t>Claydigger: gets clay. Clay mine required.</t>
   </si>
   <si>
-    <t>粘土挖掘工：获取粘土。需要粘土矿。</t>
+    <t>粘土挖掘工：挖掘粘土。需要粘土矿。</t>
   </si>
   <si>
     <t>Herbalist: gathers herbs. Herbalist's hut required.</t>
@@ -954,7 +954,7 @@
     <t>Healer. Heals villagers from diseases. Healer's shop required.</t>
   </si>
   <si>
-    <t>医生：治愈村民的疾病。需要诊所。</t>
+    <t>医生：给村民疾病。需要诊所。</t>
   </si>
   <si>
     <t>Baker. Makes bread and pies. Bakery required.</t>
@@ -990,13 +990,13 @@
     <t>Kilner. Produces charcoal from logs. Kiln required.</t>
   </si>
   <si>
-    <t>陶工：把木料加工成木炭。需要烧窑。</t>
+    <t>窑工：把木料加工成木炭。需要烧窑。</t>
   </si>
   <si>
     <t>Smelter. Produces cast iron. Furnace​ required.</t>
   </si>
   <si>
-    <t>熔炼工人：生产铸铁。需要熔炉。</t>
+    <t>熔炼工：生产铸铁。需要熔炉。</t>
   </si>
   <si>
     <t>Carpenter. Makes primitive tools. Carpenter's shop required.</t>
@@ -1014,13 +1014,13 @@
     <t>Gather immediately</t>
   </si>
   <si>
-    <t>立刻采集</t>
+    <t>立即收割</t>
   </si>
   <si>
     <t>Set the resource limit</t>
   </si>
   <si>
-    <t>设置资源上限</t>
+    <t>设定资源上限</t>
   </si>
   <si>
     <t>Choose the recipe</t>
@@ -1038,19 +1038,19 @@
     <t>Enable/disable trees planting</t>
   </si>
   <si>
-    <t>启用/禁用 树木种植</t>
+    <t>启用/禁用 植树</t>
   </si>
   <si>
     <t>Enable/disable trees planting mode</t>
   </si>
   <si>
-    <t>启用/禁用 树木砍伐</t>
+    <t>启用/禁用 砍树</t>
   </si>
   <si>
     <t>Occupied places</t>
   </si>
   <si>
-    <t>占用地区</t>
+    <t>占用地块</t>
   </si>
   <si>
     <t>Show the villager on the screen</t>
@@ -1092,7 +1092,7 @@
     <t>Information about the villager</t>
   </si>
   <si>
-    <t>村民的信息</t>
+    <t>村民信息</t>
   </si>
   <si>
     <t>Current amount of resources</t>
@@ -1146,7 +1146,7 @@
     <t>Increase game speed</t>
   </si>
   <si>
-    <t>提高游戏速度</t>
+    <t>加快游戏速度</t>
   </si>
   <si>
     <t>Decrease game speed</t>
@@ -1218,9 +1218,6 @@
     <t>SSAO</t>
   </si>
   <si>
-    <t>SSAO - 屏幕空间环境光遮蔽</t>
-  </si>
-  <si>
     <t>Shadow Quality</t>
   </si>
   <si>
@@ -1374,7 +1371,7 @@
     <t>Building deconstruction</t>
   </si>
   <si>
-    <t>建筑坍塌</t>
+    <t>建筑被摧毁了</t>
   </si>
   <si>
     <t>Translated By Leonardokeay
@@ -1384,7 +1381,7 @@
     <t>Building burning</t>
   </si>
   <si>
-    <t>建筑在燃烧</t>
+    <t>建筑着火了</t>
   </si>
   <si>
     <t>The villager froze to death</t>
@@ -1471,13 +1468,16 @@
     <t>You will lose all current progress. Are you sure you want to load the game?</t>
   </si>
   <si>
-    <t>你将失去目前所有的进度。确定要载入吗？</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>你将失去所有当前进度。确定要载入吗？</t>
   </si>
   <si>
     <t>Are you sure you want to rewrite the saved game?</t>
   </si>
   <si>
-    <t>你确定要重新开始这个存档吗？</t>
+    <t>你确定要覆盖这个存档吗？</t>
   </si>
   <si>
     <t>Are you sure you want to delete this save game?</t>
@@ -1489,7 +1489,7 @@
     <t>You will lose all current progress. Do you still want to start a new game?</t>
   </si>
   <si>
-    <t>你将失去目前所有的进度。确定要重新开始吗？</t>
+    <t>你将失去所有当前进度。确定要重新开始吗？</t>
   </si>
   <si>
     <t>New saved game</t>
@@ -1531,25 +1531,25 @@
     <t>The building in standby mode</t>
   </si>
   <si>
-    <t>该建筑暂停施工</t>
+    <t>这栋建筑已经暂停施工</t>
   </si>
   <si>
     <t>No workers are assigned to the building</t>
   </si>
   <si>
-    <t>没有工人被分配到该建筑</t>
+    <t>这栋建筑没有任何工人</t>
   </si>
   <si>
     <t>The building is full</t>
   </si>
   <si>
-    <t>这栋建筑已经满了</t>
+    <t>这栋栋建筑已经满了</t>
   </si>
   <si>
     <t>No fuel available for heating</t>
   </si>
   <si>
-    <t>没有可用的柴火供暖</t>
+    <t>没有可用的柴火取暖</t>
   </si>
   <si>
     <t>No water for animals</t>
@@ -1567,13 +1567,13 @@
     <t>The building is on fire</t>
   </si>
   <si>
-    <t>该建筑着火了</t>
+    <t>这栋建筑着火了</t>
   </si>
   <si>
     <t>The building has been destroyed</t>
   </si>
   <si>
-    <t>该建筑已损毁</t>
+    <t>这栋建筑被摧毁了</t>
   </si>
   <si>
     <t>The limit has been reached</t>
@@ -1693,7 +1693,7 @@
     <t>The building was destroyed, the area needs clearing</t>
   </si>
   <si>
-    <t>该建筑已损毁，需要清理废墟</t>
+    <t>这栋建筑已损毁，需要清理废墟</t>
   </si>
   <si>
     <t>Expedition was lost. Ship and crew has gone.</t>
@@ -1774,7 +1774,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>年</t>
+    <t>年份</t>
   </si>
   <si>
     <t>Early summer.</t>
@@ -1858,7 +1858,7 @@
     <t>Save game error</t>
   </si>
   <si>
-    <t>保存游戏错误</t>
+    <t>保存游戏出错</t>
   </si>
   <si>
     <t>Small residential house</t>
@@ -1876,13 +1876,13 @@
     <t>Show or hide disaster news</t>
   </si>
   <si>
-    <t>显示或隐藏灾害消息</t>
+    <t>显示或隐藏灾害信息</t>
   </si>
   <si>
     <t>Show or hide storage messages</t>
   </si>
   <si>
-    <t>显示或隐藏仓储消息</t>
+    <t>显示或隐藏仓储信息</t>
   </si>
   <si>
     <t>Show or hide messages about residents</t>
@@ -2020,13 +2020,13 @@
     <t>: demolition started</t>
   </si>
   <si>
-    <t>: 开始摧毁</t>
+    <t>: 开始拆除</t>
   </si>
   <si>
     <t>The road has been built</t>
   </si>
   <si>
-    <t>这条路建好了</t>
+    <t>这条路铺好了</t>
   </si>
   <si>
     <t>The road has been destroyed</t>
@@ -2038,7 +2038,7 @@
     <t>The building is almost full</t>
   </si>
   <si>
-    <t>该建筑快满了</t>
+    <t>这栋建筑快满了</t>
   </si>
   <si>
     <t>A baby has been born</t>
@@ -2068,9 +2068,6 @@
     <t>Do not hesitate to occupy villagers by clicking on their portraits. Use this mode to speed up the harvesting of fields, buildings construction, to protect your coops from wild animals or simply just ot wander around aimlessly.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>毫不犹豫的点击村民的头像。使用这种模式加快农田收割、建筑建造、从野兽嘴下保护栏舍或者只是漫无目的的游走。</t>
   </si>
   <si>
@@ -2149,7 +2146,7 @@
     <t>You must restart the game to apply the language settings.</t>
   </si>
   <si>
-    <t>你必须重新启动游戏来应用语言设置。</t>
+    <t>你必须重新启动游戏来使语言设置生效。</t>
   </si>
   <si>
     <t>Teenager</t>
@@ -2158,7 +2155,7 @@
     <t>All crops and plants die in the winter. Before this, you will see a warning over the field. If this happens, you must harvest the ripe crops immediately.</t>
   </si>
   <si>
-    <t>所有的作物和植物会在冬天死亡。在这之前，你会在农田收到警告。如果发生这样的情况，你必须立刻收割成熟的庄稼。</t>
+    <t>所有的作物和植物都会在冬天死亡。在这之前，你会在农田看到警告。如果发生这样的情况，你必须立刻收割成熟的庄稼。</t>
   </si>
   <si>
     <t>Fish is the most affordable source of food. Fishermen can extract fish during not only warm seasons but also during winter.</t>
@@ -2170,7 +2167,7 @@
     <t>Charcoal is much more effective than firewood, but it is more difficult to get. Build a kiln and hire a kilner to produce charcoal from firewood. You can build several kilns to increase charcoal productivity.</t>
   </si>
   <si>
-    <t>木炭比木柴更有效率，但是更难获得。建造一个烧窑并且聘请一个陶工来用木柴生产木炭。你可以建立多个烧窑来提高木炭的生产力。</t>
+    <t>木炭比木柴更有效率，但是更难获得。建造一个烧窑并且聘请一个窑工来用木柴生产木炭。你可以建立多个烧窑来提高木炭的生产力。</t>
   </si>
   <si>
     <t>Build houses in the lowlands to avoid a lightning strike. The building will burn if struck by lightning. You must extinguish the fire as soon as you can with water from a well. So you must have at least one well in each settlement.</t>
@@ -2194,37 +2191,37 @@
     <t>There are many wild animals living in the forest, and they are not averse to eating cattle from your pastures. To avoid wild animal attacks you should build pastures as far as possible from the forest and protect these areas by assigning hunters.</t>
   </si>
   <si>
-    <t>有许多野生动物生活在森林中，它们并不介意在你的牧场里吃牛。为了避免野生动物的攻击，你应该在尽可能远离森林的地方建立牧场并且把这些地区分配到猎人的保护之下。</t>
+    <t>有许多野生动物生活在森林中，它们并不介意吃掉你牧场里的牲口。为了避免野生动物的袭击，你应该在尽可能远离森林的地方建立牧场并且把这些地区纳入猎人的保护之下。</t>
   </si>
   <si>
     <t>Villagers can only eat and keep warm in their houses, so homeless people can die of hunger and hypothermia. Don't forget to build houses and hostels for your people. You can identify these people easily – all homeless villagers have an icons over their heads.</t>
   </si>
   <si>
-    <t>村民只在他们的房子里吃饭及取暖，所以无家可归的人会死于饥饿和寒冷。不要忘了为你的人民建造房屋和旅馆。所有无家可归的人对会有一个图标顶在头上，你会很容易发现他们的。</t>
+    <t>村民只在他们的房子里吃饭和取暖，所以无家可归的人会死于饥饿和寒冷。不要忘了为你的人民建造房屋和旅馆。所有无家可归的人对会有一个图标顶在头上，你会很容易发现他们的。</t>
   </si>
   <si>
     <t>Your villagers can't bury their dead without a pyre, and this can lead to dangerous contagious infections. Build enough pyres to avoid decomposition of bodies and the spread of disease.</t>
   </si>
   <si>
-    <t>你的村民无法再没有木柴的情况下举行葬礼，而且这可能会导致危险的瘟疫。建造足够的木柴堆来避免疾病的传染。</t>
+    <t>你的村民无法在没有柴堆的情况下焚烧尸体，而且这可能会导致危险的瘟疫。建造足够的柴堆以避免滋生瘟疫。</t>
   </si>
   <si>
     <t>Hunters aren't only used for the production of food, they also gather hides. Build a hunter's hovel at the borders of your village and hunters will protect your people from being infected with rabies by wild animals.</t>
   </si>
   <si>
-    <t>猎人不光用于收集食物，还可以用来收集毛皮。在你的村庄边缘建造一栋猎人小屋，那么猎人便可以保护你的村民不被野兽传染狂犬病。</t>
+    <t>猎人不光能收集食物，还可以收集毛皮。在你的村庄边缘建造一栋猎人小屋，那么猎人便可以保护你的村民不被野兽传染狂犬病。</t>
   </si>
   <si>
     <t>Every crop has unique temperature and humidity requirements. So choose the crop wisely – it must be fit for the current weather and season, thus yielding a rich harvest.</t>
   </si>
   <si>
-    <t>每一种植物都有着其独特的温度及湿度要求。因此，在适宜的天气和季节选择明智的作物，可以获得更高的产量。</t>
+    <t>每一种植物都有着其独特的温度及湿度要求。因此，在适宜的天气和季节选择合适的作物，可以获得更高的产量。</t>
   </si>
   <si>
     <t>Make clothes for your villagers to reduce firewood and coal consumption. Gather hides with the help of hunters, build weaver's workshops and make warm leather clothes.</t>
   </si>
   <si>
-    <t>为你的村民制作衣服以减少木柴及煤炭的消耗。在猎人的帮助下收集毛皮，建造纺织工坊然后制作温暖的皮衣。</t>
+    <t>为你的村民缝制衣物以减少木柴及煤炭的消耗。在猎人的帮助下收集毛皮，建造纺织工坊然后制作温暖的皮衣。</t>
   </si>
   <si>
     <t>Build a marketplace to provide a balanced diet for your citizens. If you don't do this your people could develop scurvy.</t>
@@ -2236,13 +2233,13 @@
     <t>Clay is a required construction material for some buildings. You can gather clay only in a clay mine.</t>
   </si>
   <si>
-    <t>粘土是某些建筑所需要的建筑材料。你只能在粘土矿获取粘土。</t>
+    <t>粘土是某些建筑所需要的建筑材料。你只能在粘土矿挖掘粘土。</t>
   </si>
   <si>
     <t>Your civilians walk faster on a road rather than on dirt or grass. Build pathways and roads between buildings to save time and increase workers productivity.</t>
   </si>
   <si>
-    <t>你的村民在道路上会走的更快，而不是在泥地或草地上。在建筑物之间修建道路可以节省时间以提高生产力。</t>
+    <t>你的村民在道路上会走的更快，而不是在泥地或草地上。在建筑物之间铺设道路可以节省时间以提高生产力。</t>
   </si>
   <si>
     <t>You can increase a villagers' productivity if you provide them with tools. A blacksmith makes tools in his blacksmith's shop with various ingredients.</t>
@@ -2254,7 +2251,7 @@
     <t>Trees grow over time, the older the tree is the more resources it contains. Don't rush to cut down small trees, let them grow and they will give you more wood. Cut down big trees first.</t>
   </si>
   <si>
-    <t>随之时间的推移，树木年龄的增长，它们便能提供更多的资源。不要急于砍伐小树，让它们成长，它们便能给你更多的木材。记得先砍大树！</t>
+    <t>随着时间的推移，树木年龄的增长，它们便能提供更多的资源。不要急于砍伐小树，让它们成长，它们便能给你更多的木材。记得先砍大树！</t>
   </si>
   <si>
     <t>The only way to increase your village's population is childbearing. It will be available if you have space in your houses.</t>
@@ -2278,13 +2275,13 @@
     <t>Wood gathering by laborers gives fast, but temporary resource growth. To collect wood choose the collect resources group. Click the 'collect wood' button and select an area - free villagers will start gathering wood immediately.</t>
   </si>
   <si>
-    <t>雇佣临时工手机木头会更快，但只是临时的。为了收集木材选择资源收集分类。点击“收集木材”按钮，然后选择一个区域，那些自由的村民便会立刻开始收集木材。</t>
+    <t>雇佣劳工收集木头会更快，但只是临时的。为了收集木材选择采集所有资源分类。点击“采集木材”按钮，然后选择一个区域，那些自由的村民便会立刻开始收集木材。</t>
   </si>
   <si>
     <t>Build a forester's lodge from the resource gathering group to create small, but steady flow of wood. Click on the building button for a forester's lodge and select a point deep in the forest to construct the building.</t>
   </si>
   <si>
-    <t>从资源收集分类中建造一间森林小屋，已提供稳定的木材来源。点击森林小屋的的建造按钮，然后选择森林深处某一点来建造。</t>
+    <t>从资源收集分类中建造一间森林小屋来提供稳定的木材来源。点击森林小屋的建造按钮，然后选择森林深处某一点来建造。</t>
   </si>
   <si>
     <t>First, you must provide your villagers with food. Hunting or gathering is the easiest way to get food. Gathering is not available during winter, but hunting is available all year round.</t>
@@ -2296,7 +2293,7 @@
     <t>Don't forget to harvest firewood for the winter, or your people will freeze to death. Build a lumberjack's lodge from the resource gathering group and hire lumberjacks - they will deliver wood to the lodge and make firewood.</t>
   </si>
   <si>
-    <t>不要忘了在过冬的时候收集木柴，或是你的村民被冻死。从资源收集分类建造一间伐木小屋然后雇佣伐木工人，他们会向提供木材然后加工成木柴。</t>
+    <t>不要忘了在过冬的时候准备木柴，或是让你的村民被冻死。从资源收集分类建造樵场然后雇佣樵夫，他们会将木材加工成木柴。</t>
   </si>
   <si>
     <t>Construct residential houses to increase the village population. People will settle into the houses, create families and bear children. Hostels can accommodate a lot of people, but villagers can't marry and bear children there.</t>
@@ -2350,7 +2347,7 @@
     <t>No space for new buildings? Use terraforming tools to flatten an area to create more room for construction.</t>
   </si>
   <si>
-    <t>没有建筑空间？使用地形工具来平整出一块区域以便于建造。</t>
+    <t>没有建筑空间？使用地形工具来平整出一块区域用于建造。</t>
   </si>
   <si>
     <t>Translated By Edgar
@@ -2540,7 +2537,7 @@
     <t>Let your mentor teach children. Educated people work faster and better than uneducated.</t>
   </si>
   <si>
-    <t>让你的导师去教导儿童。受过教育的村民比未受教育的工作的更快更好。</t>
+    <t>让你的教师去教导儿童。受过教育的村民比未受教育的工作的更快更好。</t>
   </si>
   <si>
     <t>Allows you to hire hunters to gather meat and skins, and also defend pastures and people from wild animals.</t>
@@ -2945,37 +2942,37 @@
     <t>Small size living place. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
   </si>
   <si>
-    <t>小型居住地。低怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
+    <t>小型住所。低怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
   </si>
   <si>
     <t>Medium size living place. Above average pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
   </si>
   <si>
-    <t>中型居住地。高于平均的怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
+    <t>中型住所。高于平均的怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
   </si>
   <si>
     <t>Improved medium size living place. Have extra bedrooms. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
   </si>
   <si>
-    <t>进阶中型居住地。有额外的卧室。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
+    <t>进阶中型住所。有额外的卧室。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
   </si>
   <si>
     <t>Large size living place. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
   </si>
   <si>
-    <t>大型居住地。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
+    <t>大型住所。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
   </si>
   <si>
     <t>Improved large size living place. Have extra bedrooms. Extremely high pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
   </si>
   <si>
-    <t>进阶大型居住地。有额外的卧室。超高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
+    <t>进阶大型住所。有额外的卧室。超高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
   </si>
   <si>
     <t>Temporary house. Extremely low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
   </si>
   <si>
-    <t>临时房屋。超高怀孕几率。容量：18个村民。幸福：+3。强度：+6。</t>
+    <t>临时房屋。超低怀孕几率。容量：18个村民。幸福：+3。强度：+6。</t>
   </si>
   <si>
     <t>Improved temporary house. Have extra living rooms. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
@@ -3425,7 +3422,7 @@
     <t>This is your new village. During the next several minutes we will show you the game basics and teach you the main principles.</t>
   </si>
   <si>
-    <t>这是你的新村庄。在接下来的几分钟时间里，我们将向你展示游戏的基础知识，并教你主要原则。你也可以加入交流群：574083350 来进行交流。</t>
+    <t>这是你的新村庄。在接下来的几分钟时间里，我们将向你展示游戏的基础知识，并教你一些主要的原则。你也可以加入交流群：574083350 来进行交流。</t>
   </si>
   <si>
     <t>Each villager must have a living space, where they can eat, get warm during the cold months and have a family. If the villager does not have a shelter he/she will not be able to eat or get warm. In this case they will either freeze to death or die from starvation. All homeless people are marked with a special icon. Let's build a dwelling for this homeless one.</t>
@@ -3449,7 +3446,7 @@
     <t>Building construction site is now marked. All available laborers will prepare resources immediately. Right-click to switch off the building mode.</t>
   </si>
   <si>
-    <t>建筑工地现在已经被标记了。所有可用的劳动力都会立即准备资源。[右键单击]来退出建筑模式。</t>
+    <t>建筑工地现在已经被标记了。所有可用的劳工都会立即准备资源。[右键单击]来退出建筑模式。</t>
   </si>
   <si>
     <t>Select construction site by clicking on it.</t>
@@ -3917,7 +3914,7 @@
     <t>We have now covered the basics. You will find many more opportunities in game and learn about them from tooltips. Just one more bit of advice to end on - keep an eye on your food and firewood balance. Don't let them deplete, or your people may starve and freeze to death. Good luck!</t>
   </si>
   <si>
-    <t>我们已经完成了基础教程。你可以在游戏中获得更多的机会，并且通过“小贴士”学习到更多的内容。另外请维持你的食物及木柴在一个平衡点，以免你的村民饿死或冻死。祝你好运！你也可以加入交流群：574083350 来进行交流。</t>
+    <t>现在我们已经完成了基础教程。你可以在游戏中获得更多的机会，并且通过“小贴士”学习到更多的内容。另外请维持你的食物及木柴在一个平衡点，以免你的村民饿死或冻死。祝你好运！你也可以加入交流群：574083350 来进行交流。</t>
   </si>
   <si>
     <t>Improved shack</t>
@@ -3929,7 +3926,7 @@
     <t>Improved small size living place. Have extra bedroom. Average pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
   </si>
   <si>
-    <t>进阶小型居住地。高于平均的怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
+    <t>进阶小型住所。高于平均的怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
   </si>
 </sst>
 </file>
@@ -3938,9 +3935,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3969,6 +3966,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -3985,10 +3989,47 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4008,20 +4049,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -4031,7 +4058,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4047,27 +4074,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -4093,21 +4105,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4146,13 +4143,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4164,13 +4173,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4188,6 +4197,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4200,7 +4221,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4212,55 +4287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4273,42 +4306,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4367,6 +4364,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4396,26 +4408,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4433,6 +4425,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -4440,17 +4443,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4460,10 +4457,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4472,133 +4469,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4982,8 +4979,8 @@
   <sheetPr/>
   <dimension ref="A1:E799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A777" workbookViewId="0">
+      <selection activeCell="D779" sqref="D779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8275,7 +8272,7 @@
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E270" s="2"/>
     </row>
@@ -8284,11 +8281,11 @@
         <v>270</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E271" s="2"/>
     </row>
@@ -8297,11 +8294,11 @@
         <v>271</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E272" s="2"/>
     </row>
@@ -8310,11 +8307,11 @@
         <v>272</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E273" s="2"/>
     </row>
@@ -8323,11 +8320,11 @@
         <v>273</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E274" s="2"/>
     </row>
@@ -8336,11 +8333,11 @@
         <v>274</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E275" s="2"/>
     </row>
@@ -8349,11 +8346,11 @@
         <v>275</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E276" s="2"/>
     </row>
@@ -8362,11 +8359,11 @@
         <v>276</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E277" s="2"/>
     </row>
@@ -8375,11 +8372,11 @@
         <v>277</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E278" s="2"/>
     </row>
@@ -8388,11 +8385,11 @@
         <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E279" s="2"/>
     </row>
@@ -8401,11 +8398,11 @@
         <v>279</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E280" s="2"/>
     </row>
@@ -8432,7 +8429,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3" t="s">
@@ -8445,7 +8442,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3" t="s">
@@ -8458,11 +8455,11 @@
         <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E285" s="2"/>
     </row>
@@ -8471,11 +8468,11 @@
         <v>285</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E286" s="2"/>
     </row>
@@ -8493,11 +8490,11 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E288" s="2"/>
     </row>
@@ -8506,11 +8503,11 @@
         <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E289" s="2"/>
     </row>
@@ -8519,11 +8516,11 @@
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E290" s="2"/>
     </row>
@@ -8532,11 +8529,11 @@
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E291" s="2"/>
     </row>
@@ -8545,11 +8542,11 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E292" s="2"/>
     </row>
@@ -8558,11 +8555,11 @@
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E293" s="2"/>
     </row>
@@ -8571,11 +8568,11 @@
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E294" s="2"/>
     </row>
@@ -8584,11 +8581,11 @@
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E295" s="2"/>
     </row>
@@ -8597,11 +8594,11 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E296" s="2"/>
     </row>
@@ -8610,11 +8607,11 @@
         <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E297" s="2"/>
     </row>
@@ -8623,11 +8620,11 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E298" s="2"/>
     </row>
@@ -8636,11 +8633,11 @@
         <v>298</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E299" s="2"/>
     </row>
@@ -8649,14 +8646,14 @@
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E300" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="E300" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8664,11 +8661,11 @@
         <v>300</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E301" s="7"/>
     </row>
@@ -8677,11 +8674,11 @@
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E302" s="7"/>
     </row>
@@ -8690,11 +8687,11 @@
         <v>302</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E303" s="7"/>
     </row>
@@ -8703,11 +8700,11 @@
         <v>303</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E304" s="7"/>
     </row>
@@ -8716,11 +8713,11 @@
         <v>304</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E305" s="7"/>
     </row>
@@ -8765,11 +8762,11 @@
         <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E310" s="7"/>
     </row>
@@ -8778,7 +8775,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3" t="s">
@@ -8845,11 +8842,11 @@
         <v>317</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E318" s="7"/>
     </row>
@@ -8858,11 +8855,11 @@
         <v>318</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E319" s="7"/>
     </row>
@@ -8871,11 +8868,11 @@
         <v>319</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E320" s="7"/>
     </row>
@@ -8884,11 +8881,11 @@
         <v>320</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E321" s="7"/>
     </row>
@@ -8897,11 +8894,11 @@
         <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E322" s="7"/>
     </row>
@@ -8910,11 +8907,11 @@
         <v>322</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E323" s="7"/>
     </row>
@@ -8923,11 +8920,11 @@
         <v>323</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E324" s="7"/>
     </row>
@@ -8936,11 +8933,11 @@
         <v>324</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E325" s="7"/>
     </row>
@@ -8949,9 +8946,11 @@
         <v>325</v>
       </c>
       <c r="B326" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C326" s="3"/>
       <c r="D326" s="3" t="s">
         <v>484</v>
       </c>
@@ -8990,7 +8989,9 @@
       <c r="B329" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C329" s="3"/>
+      <c r="C329" s="3" t="s">
+        <v>483</v>
+      </c>
       <c r="D329" s="3" t="s">
         <v>490</v>
       </c>
@@ -9496,7 +9497,7 @@
       </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E369" s="7"/>
     </row>
@@ -10496,10 +10497,10 @@
         <v>682</v>
       </c>
       <c r="C452" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D452" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="D452" s="3" t="s">
-        <v>684</v>
       </c>
       <c r="E452" s="2"/>
     </row>
@@ -10508,11 +10509,11 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E453" s="2"/>
     </row>
@@ -10521,11 +10522,11 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C454" s="3"/>
       <c r="D454" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E454" s="2"/>
     </row>
@@ -10534,11 +10535,11 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C455" s="3"/>
       <c r="D455" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E455" s="2"/>
     </row>
@@ -10547,11 +10548,11 @@
         <v>455</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C456" s="3"/>
       <c r="D456" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E456" s="2"/>
     </row>
@@ -10560,11 +10561,11 @@
         <v>456</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C457" s="3"/>
       <c r="D457" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E457" s="2"/>
     </row>
@@ -10573,11 +10574,11 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C458" s="3"/>
       <c r="D458" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E458" s="2"/>
     </row>
@@ -10586,11 +10587,11 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C459" s="3"/>
       <c r="D459" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E459" s="2"/>
     </row>
@@ -10599,11 +10600,11 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C460" s="3"/>
       <c r="D460" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E460" s="2"/>
     </row>
@@ -10612,11 +10613,11 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C461" s="3"/>
       <c r="D461" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E461" s="2"/>
     </row>
@@ -10625,11 +10626,11 @@
         <v>461</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C462" s="3"/>
       <c r="D462" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E462" s="2"/>
     </row>
@@ -10638,11 +10639,11 @@
         <v>462</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C463" s="3"/>
       <c r="D463" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E463" s="2"/>
     </row>
@@ -10651,11 +10652,11 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C464" s="3"/>
       <c r="D464" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E464" s="2"/>
     </row>
@@ -10664,11 +10665,11 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C465" s="3"/>
       <c r="D465" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E465" s="2"/>
     </row>
@@ -10677,11 +10678,11 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C466" s="3"/>
       <c r="D466" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E466" s="2"/>
     </row>
@@ -10690,11 +10691,11 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C467" s="3"/>
       <c r="D467" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E467" s="2"/>
     </row>
@@ -10703,11 +10704,11 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C468" s="3"/>
       <c r="D468" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E468" s="2"/>
     </row>
@@ -10716,11 +10717,11 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C469" s="3"/>
       <c r="D469" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E469" s="2"/>
     </row>
@@ -10729,13 +10730,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D470" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>713</v>
       </c>
       <c r="E470" s="2"/>
     </row>
@@ -10744,13 +10745,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D471" s="3" t="s">
         <v>714</v>
-      </c>
-      <c r="C471" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D471" s="3" t="s">
-        <v>715</v>
       </c>
       <c r="E471" s="2"/>
     </row>
@@ -10759,13 +10760,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D472" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D472" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="E472" s="2"/>
     </row>
@@ -10774,13 +10775,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D473" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="C473" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D473" s="3" t="s">
-        <v>719</v>
       </c>
       <c r="E473" s="2"/>
     </row>
@@ -10789,13 +10790,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D474" s="3" t="s">
         <v>720</v>
-      </c>
-      <c r="C474" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D474" s="3" t="s">
-        <v>721</v>
       </c>
       <c r="E474" s="2"/>
     </row>
@@ -10804,13 +10805,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D475" s="3" t="s">
         <v>722</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D475" s="3" t="s">
-        <v>723</v>
       </c>
       <c r="E475" s="2"/>
     </row>
@@ -10819,13 +10820,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D476" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D476" s="3" t="s">
-        <v>725</v>
       </c>
       <c r="E476" s="2"/>
     </row>
@@ -10834,13 +10835,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D477" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="C477" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D477" s="3" t="s">
-        <v>727</v>
       </c>
       <c r="E477" s="2"/>
     </row>
@@ -10849,13 +10850,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D478" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D478" s="3" t="s">
-        <v>729</v>
       </c>
       <c r="E478" s="2"/>
     </row>
@@ -10864,13 +10865,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D479" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D479" s="3" t="s">
-        <v>731</v>
       </c>
       <c r="E479" s="2"/>
     </row>
@@ -10879,13 +10880,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D480" s="3" t="s">
         <v>732</v>
-      </c>
-      <c r="C480" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D480" s="3" t="s">
-        <v>733</v>
       </c>
       <c r="E480" s="2"/>
     </row>
@@ -10894,13 +10895,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D481" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D481" s="3" t="s">
-        <v>735</v>
       </c>
       <c r="E481" s="2"/>
     </row>
@@ -10909,13 +10910,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D482" s="3" t="s">
         <v>736</v>
-      </c>
-      <c r="C482" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D482" s="3" t="s">
-        <v>737</v>
       </c>
       <c r="E482" s="2"/>
     </row>
@@ -10924,13 +10925,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D483" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D483" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="E483" s="2"/>
     </row>
@@ -10939,13 +10940,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D484" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="C484" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D484" s="3" t="s">
-        <v>741</v>
       </c>
       <c r="E484" s="2"/>
     </row>
@@ -10954,13 +10955,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D485" s="3" t="s">
         <v>742</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D485" s="3" t="s">
-        <v>743</v>
       </c>
       <c r="E485" s="2"/>
     </row>
@@ -10969,13 +10970,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D486" s="3" t="s">
         <v>744</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D486" s="3" t="s">
-        <v>745</v>
       </c>
       <c r="E486" s="2"/>
     </row>
@@ -10984,13 +10985,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D487" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D487" s="3" t="s">
-        <v>747</v>
       </c>
       <c r="E487" s="2"/>
     </row>
@@ -10999,13 +11000,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D488" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>749</v>
       </c>
       <c r="E488" s="2"/>
     </row>
@@ -11014,13 +11015,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D489" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="C489" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>751</v>
       </c>
       <c r="E489" s="2"/>
     </row>
@@ -11029,13 +11030,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D490" s="3" t="s">
         <v>752</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D490" s="3" t="s">
-        <v>753</v>
       </c>
       <c r="E490" s="2"/>
     </row>
@@ -11044,13 +11045,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D491" s="3" t="s">
         <v>754</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D491" s="3" t="s">
-        <v>755</v>
       </c>
       <c r="E491" s="2"/>
     </row>
@@ -11059,13 +11060,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D492" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D492" s="3" t="s">
-        <v>757</v>
       </c>
       <c r="E492" s="2"/>
     </row>
@@ -11074,13 +11075,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D493" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D493" s="3" t="s">
-        <v>759</v>
       </c>
       <c r="E493" s="2"/>
     </row>
@@ -11089,13 +11090,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D494" s="3" t="s">
         <v>760</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D494" s="3" t="s">
-        <v>761</v>
       </c>
       <c r="E494" s="2"/>
     </row>
@@ -11104,13 +11105,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D495" s="3" t="s">
         <v>762</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D495" s="3" t="s">
-        <v>763</v>
       </c>
       <c r="E495" s="2"/>
     </row>
@@ -11119,13 +11120,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D496" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D496" s="3" t="s">
-        <v>765</v>
       </c>
       <c r="E496" s="2"/>
     </row>
@@ -11134,13 +11135,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D497" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>767</v>
       </c>
       <c r="E497" s="2"/>
     </row>
@@ -11149,13 +11150,13 @@
         <v>497</v>
       </c>
       <c r="B498" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D498" s="3" t="s">
         <v>768</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D498" s="3" t="s">
-        <v>769</v>
       </c>
       <c r="E498" s="2"/>
     </row>
@@ -11164,13 +11165,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D499" s="3" t="s">
         <v>770</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D499" s="3" t="s">
-        <v>771</v>
       </c>
       <c r="E499" s="2"/>
     </row>
@@ -11179,13 +11180,13 @@
         <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D500" s="3" t="s">
         <v>772</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D500" s="3" t="s">
-        <v>773</v>
       </c>
       <c r="E500" s="2"/>
     </row>
@@ -11194,13 +11195,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D501" s="3" t="s">
         <v>774</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>775</v>
       </c>
       <c r="E501" s="2"/>
     </row>
@@ -11209,16 +11210,16 @@
         <v>501</v>
       </c>
       <c r="B502" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D502" s="10" t="s">
         <v>776</v>
       </c>
-      <c r="C502" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D502" s="10" t="s">
+      <c r="E502" s="11" t="s">
         <v>777</v>
-      </c>
-      <c r="E502" s="11" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11226,13 +11227,13 @@
         <v>502</v>
       </c>
       <c r="B503" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D503" s="10" t="s">
         <v>779</v>
-      </c>
-      <c r="C503" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D503" s="10" t="s">
-        <v>780</v>
       </c>
       <c r="E503" s="11"/>
     </row>
@@ -11241,11 +11242,11 @@
         <v>503</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C504" s="3"/>
       <c r="D504" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E504" s="11"/>
     </row>
@@ -11254,11 +11255,11 @@
         <v>504</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C505" s="3"/>
       <c r="D505" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E505" s="11"/>
     </row>
@@ -11267,11 +11268,11 @@
         <v>505</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C506" s="3"/>
       <c r="D506" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E506" s="11"/>
     </row>
@@ -11280,11 +11281,11 @@
         <v>506</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C507" s="3"/>
       <c r="D507" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E507" s="11"/>
     </row>
@@ -11293,11 +11294,11 @@
         <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C508" s="3"/>
       <c r="D508" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E508" s="11"/>
     </row>
@@ -11306,11 +11307,11 @@
         <v>508</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C509" s="3"/>
       <c r="D509" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E509" s="11"/>
     </row>
@@ -11319,11 +11320,11 @@
         <v>509</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C510" s="3"/>
       <c r="D510" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E510" s="11"/>
     </row>
@@ -11332,11 +11333,11 @@
         <v>510</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C511" s="3"/>
       <c r="D511" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E511" s="11"/>
     </row>
@@ -11345,11 +11346,11 @@
         <v>511</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C512" s="3"/>
       <c r="D512" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E512" s="11"/>
     </row>
@@ -11358,11 +11359,11 @@
         <v>512</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C513" s="3"/>
       <c r="D513" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E513" s="11"/>
     </row>
@@ -11371,11 +11372,11 @@
         <v>513</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C514" s="3"/>
       <c r="D514" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E514" s="11"/>
     </row>
@@ -11384,11 +11385,11 @@
         <v>514</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C515" s="3"/>
       <c r="D515" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E515" s="11"/>
     </row>
@@ -11397,13 +11398,13 @@
         <v>515</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C516" s="3">
         <v>20</v>
       </c>
       <c r="D516" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E516" s="11"/>
     </row>
@@ -11412,13 +11413,13 @@
         <v>516</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C517" s="3">
         <v>20</v>
       </c>
       <c r="D517" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E517" s="11"/>
     </row>
@@ -11427,13 +11428,13 @@
         <v>517</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C518" s="3">
         <v>20</v>
       </c>
       <c r="D518" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E518" s="11"/>
     </row>
@@ -11442,13 +11443,13 @@
         <v>518</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C519" s="3">
         <v>20</v>
       </c>
       <c r="D519" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E519" s="11"/>
     </row>
@@ -11457,13 +11458,13 @@
         <v>519</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C520" s="3">
         <v>20</v>
       </c>
       <c r="D520" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E520" s="11"/>
     </row>
@@ -11472,13 +11473,13 @@
         <v>520</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C521" s="3">
         <v>20</v>
       </c>
       <c r="D521" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E521" s="11"/>
     </row>
@@ -11487,11 +11488,11 @@
         <v>521</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C522" s="3"/>
       <c r="D522" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E522" s="11"/>
     </row>
@@ -11500,13 +11501,13 @@
         <v>522</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C523" s="3">
         <v>33</v>
       </c>
       <c r="D523" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E523" s="11"/>
     </row>
@@ -11515,11 +11516,11 @@
         <v>523</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C524" s="3"/>
       <c r="D524" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E524" s="11"/>
     </row>
@@ -11528,11 +11529,11 @@
         <v>524</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C525" s="3"/>
       <c r="D525" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E525" s="11"/>
     </row>
@@ -11541,11 +11542,11 @@
         <v>525</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C526" s="3"/>
       <c r="D526" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E526" s="11"/>
     </row>
@@ -11554,11 +11555,11 @@
         <v>526</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C527" s="3"/>
       <c r="D527" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E527" s="11"/>
     </row>
@@ -11567,11 +11568,11 @@
         <v>527</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C528" s="3"/>
       <c r="D528" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E528" s="11"/>
     </row>
@@ -11580,11 +11581,11 @@
         <v>528</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C529" s="3"/>
       <c r="D529" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E529" s="11"/>
     </row>
@@ -11611,11 +11612,11 @@
         <v>531</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C532" s="3"/>
       <c r="D532" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E532" s="11"/>
     </row>
@@ -11633,11 +11634,11 @@
         <v>533</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C534" s="3"/>
       <c r="D534" s="10" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E534" s="11"/>
     </row>
@@ -11646,13 +11647,13 @@
         <v>534</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C535" s="3">
         <v>16</v>
       </c>
       <c r="D535" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E535" s="11"/>
     </row>
@@ -11661,13 +11662,13 @@
         <v>535</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C536" s="3">
         <v>222</v>
       </c>
       <c r="D536" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E536" s="11"/>
     </row>
@@ -11676,13 +11677,13 @@
         <v>536</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C537" s="3">
         <v>222</v>
       </c>
       <c r="D537" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E537" s="11"/>
     </row>
@@ -11691,13 +11692,13 @@
         <v>537</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C538" s="3">
         <v>222</v>
       </c>
       <c r="D538" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E538" s="11"/>
     </row>
@@ -11706,13 +11707,13 @@
         <v>538</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C539" s="3">
         <v>222</v>
       </c>
       <c r="D539" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E539" s="11"/>
     </row>
@@ -11721,13 +11722,13 @@
         <v>539</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C540" s="3">
         <v>222</v>
       </c>
       <c r="D540" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E540" s="11"/>
     </row>
@@ -11736,13 +11737,13 @@
         <v>540</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C541" s="3">
         <v>222</v>
       </c>
       <c r="D541" s="10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E541" s="11"/>
     </row>
@@ -11751,11 +11752,11 @@
         <v>541</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C542" s="3"/>
       <c r="D542" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E542" s="11"/>
     </row>
@@ -11764,13 +11765,13 @@
         <v>542</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C543" s="3">
         <v>28</v>
       </c>
       <c r="D543" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E543" s="11"/>
     </row>
@@ -11779,13 +11780,13 @@
         <v>543</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C544" s="3">
         <v>30</v>
       </c>
       <c r="D544" s="10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E544" s="11"/>
     </row>
@@ -11794,13 +11795,13 @@
         <v>544</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C545" s="3">
         <v>30</v>
       </c>
       <c r="D545" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E545" s="11"/>
     </row>
@@ -11809,13 +11810,13 @@
         <v>545</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C546" s="3">
         <v>30</v>
       </c>
       <c r="D546" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E546" s="11"/>
     </row>
@@ -11824,11 +11825,11 @@
         <v>546</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C547" s="3"/>
       <c r="D547" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E547" s="11"/>
     </row>
@@ -11837,11 +11838,11 @@
         <v>547</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C548" s="3"/>
       <c r="D548" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E548" s="11"/>
     </row>
@@ -11850,11 +11851,11 @@
         <v>548</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C549" s="3"/>
       <c r="D549" s="10" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E549" s="11"/>
     </row>
@@ -11863,11 +11864,11 @@
         <v>549</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C550" s="3"/>
       <c r="D550" s="10" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E550" s="11"/>
     </row>
@@ -11876,11 +11877,11 @@
         <v>550</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C551" s="3"/>
       <c r="D551" s="10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E551" s="11"/>
     </row>
@@ -11889,7 +11890,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C552" s="3"/>
       <c r="D552" s="10" t="s">
@@ -11902,11 +11903,11 @@
         <v>552</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C553" s="3"/>
       <c r="D553" s="10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E553" s="11"/>
     </row>
@@ -11915,11 +11916,11 @@
         <v>553</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C554" s="3"/>
       <c r="D554" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E554" s="11"/>
     </row>
@@ -11928,11 +11929,11 @@
         <v>554</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C555" s="3"/>
       <c r="D555" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E555" s="11"/>
     </row>
@@ -11941,11 +11942,11 @@
         <v>555</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C556" s="3"/>
       <c r="D556" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E556" s="11"/>
     </row>
@@ -11954,11 +11955,11 @@
         <v>556</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C557" s="3"/>
       <c r="D557" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E557" s="11"/>
     </row>
@@ -11967,11 +11968,11 @@
         <v>557</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C558" s="3"/>
       <c r="D558" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E558" s="11"/>
     </row>
@@ -11980,11 +11981,11 @@
         <v>558</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C559" s="3"/>
       <c r="D559" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E559" s="11"/>
     </row>
@@ -11993,11 +11994,11 @@
         <v>559</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C560" s="3"/>
       <c r="D560" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E560" s="11"/>
     </row>
@@ -12006,11 +12007,11 @@
         <v>560</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C561" s="3"/>
       <c r="D561" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E561" s="11"/>
     </row>
@@ -12019,11 +12020,11 @@
         <v>561</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C562" s="3"/>
       <c r="D562" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E562" s="11"/>
     </row>
@@ -12032,11 +12033,11 @@
         <v>562</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C563" s="3"/>
       <c r="D563" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E563" s="11"/>
     </row>
@@ -12045,11 +12046,11 @@
         <v>563</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C564" s="3"/>
       <c r="D564" s="10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E564" s="11"/>
     </row>
@@ -12058,11 +12059,11 @@
         <v>564</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C565" s="3"/>
       <c r="D565" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E565" s="11"/>
     </row>
@@ -12071,11 +12072,11 @@
         <v>565</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E566" s="11"/>
     </row>
@@ -12084,11 +12085,11 @@
         <v>566</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C567" s="3"/>
       <c r="D567" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E567" s="11"/>
     </row>
@@ -12097,11 +12098,11 @@
         <v>567</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C568" s="3"/>
       <c r="D568" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E568" s="11"/>
     </row>
@@ -12119,11 +12120,11 @@
         <v>569</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C570" s="3"/>
       <c r="D570" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E570" s="11"/>
     </row>
@@ -12132,11 +12133,11 @@
         <v>570</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C571" s="3"/>
       <c r="D571" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E571" s="11"/>
     </row>
@@ -12145,11 +12146,11 @@
         <v>571</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C572" s="3"/>
       <c r="D572" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E572" s="11"/>
     </row>
@@ -12158,11 +12159,11 @@
         <v>572</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C573" s="3"/>
       <c r="D573" s="10" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E573" s="11"/>
     </row>
@@ -12171,11 +12172,11 @@
         <v>573</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C574" s="3"/>
       <c r="D574" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E574" s="11"/>
     </row>
@@ -12202,11 +12203,11 @@
         <v>576</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C577" s="3"/>
       <c r="D577" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E577" s="11"/>
     </row>
@@ -12215,11 +12216,11 @@
         <v>577</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C578" s="3"/>
       <c r="D578" s="10" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E578" s="11"/>
     </row>
@@ -12228,11 +12229,11 @@
         <v>578</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C579" s="3"/>
       <c r="D579" s="10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E579" s="11"/>
     </row>
@@ -12241,11 +12242,11 @@
         <v>579</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C580" s="3"/>
       <c r="D580" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E580" s="11"/>
     </row>
@@ -12254,11 +12255,11 @@
         <v>580</v>
       </c>
       <c r="B581" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C581" s="12"/>
       <c r="D581" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>4</v>
@@ -12278,11 +12279,11 @@
         <v>582</v>
       </c>
       <c r="B583" s="12" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C583" s="12"/>
       <c r="D583" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E583" s="2"/>
     </row>
@@ -12291,11 +12292,11 @@
         <v>583</v>
       </c>
       <c r="B584" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C584" s="13"/>
       <c r="D584" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E584" s="2"/>
     </row>
@@ -12304,11 +12305,11 @@
         <v>584</v>
       </c>
       <c r="B585" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C585" s="12"/>
       <c r="D585" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E585" s="2"/>
     </row>
@@ -12317,11 +12318,11 @@
         <v>585</v>
       </c>
       <c r="B586" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C586" s="13"/>
       <c r="D586" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E586" s="2"/>
     </row>
@@ -12330,11 +12331,11 @@
         <v>586</v>
       </c>
       <c r="B587" s="12" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C587" s="12"/>
       <c r="D587" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E587" s="2"/>
     </row>
@@ -12343,11 +12344,11 @@
         <v>587</v>
       </c>
       <c r="B588" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C588" s="13"/>
       <c r="D588" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E588" s="2"/>
     </row>
@@ -12356,11 +12357,11 @@
         <v>588</v>
       </c>
       <c r="B589" s="12" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C589" s="12"/>
       <c r="D589" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E589" s="2"/>
     </row>
@@ -12369,11 +12370,11 @@
         <v>589</v>
       </c>
       <c r="B590" s="13" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C590" s="13"/>
       <c r="D590" s="13" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E590" s="2"/>
     </row>
@@ -12382,11 +12383,11 @@
         <v>590</v>
       </c>
       <c r="B591" s="12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C591" s="12"/>
       <c r="D591" s="12" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E591" s="2"/>
     </row>
@@ -12395,11 +12396,11 @@
         <v>591</v>
       </c>
       <c r="B592" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C592" s="13"/>
       <c r="D592" s="13" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E592" s="2"/>
     </row>
@@ -12408,11 +12409,11 @@
         <v>592</v>
       </c>
       <c r="B593" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C593" s="12"/>
       <c r="D593" s="12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E593" s="2"/>
     </row>
@@ -12421,11 +12422,11 @@
         <v>593</v>
       </c>
       <c r="B594" s="13" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C594" s="13"/>
       <c r="D594" s="13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E594" s="2"/>
     </row>
@@ -12434,11 +12435,11 @@
         <v>594</v>
       </c>
       <c r="B595" s="12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C595" s="12"/>
       <c r="D595" s="12" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E595" s="2"/>
     </row>
@@ -12447,11 +12448,11 @@
         <v>595</v>
       </c>
       <c r="B596" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C596" s="13"/>
       <c r="D596" s="13" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E596" s="2"/>
     </row>
@@ -12460,11 +12461,11 @@
         <v>596</v>
       </c>
       <c r="B597" s="12" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C597" s="12"/>
       <c r="D597" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E597" s="2"/>
     </row>
@@ -12473,11 +12474,11 @@
         <v>597</v>
       </c>
       <c r="B598" s="13" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C598" s="13"/>
       <c r="D598" s="13" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E598" s="2"/>
     </row>
@@ -12495,11 +12496,11 @@
         <v>599</v>
       </c>
       <c r="B600" s="13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C600" s="13"/>
       <c r="D600" s="13" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E600" s="2"/>
     </row>
@@ -12508,11 +12509,11 @@
         <v>600</v>
       </c>
       <c r="B601" s="12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C601" s="12"/>
       <c r="D601" s="12" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E601" s="2"/>
     </row>
@@ -12521,11 +12522,11 @@
         <v>601</v>
       </c>
       <c r="B602" s="13" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C602" s="13"/>
       <c r="D602" s="13" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E602" s="2"/>
     </row>
@@ -12534,11 +12535,11 @@
         <v>602</v>
       </c>
       <c r="B603" s="12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C603" s="12"/>
       <c r="D603" s="12" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E603" s="2"/>
     </row>
@@ -12547,11 +12548,11 @@
         <v>603</v>
       </c>
       <c r="B604" s="13" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C604" s="13"/>
       <c r="D604" s="13" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E604" s="2"/>
     </row>
@@ -12560,11 +12561,11 @@
         <v>604</v>
       </c>
       <c r="B605" s="12" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C605" s="12"/>
       <c r="D605" s="12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E605" s="2"/>
     </row>
@@ -12573,11 +12574,11 @@
         <v>605</v>
       </c>
       <c r="B606" s="13" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C606" s="13"/>
       <c r="D606" s="13" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E606" s="2"/>
     </row>
@@ -12586,11 +12587,11 @@
         <v>606</v>
       </c>
       <c r="B607" s="12" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C607" s="12"/>
       <c r="D607" s="12" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E607" s="2"/>
     </row>
@@ -12599,11 +12600,11 @@
         <v>607</v>
       </c>
       <c r="B608" s="13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C608" s="13"/>
       <c r="D608" s="13" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E608" s="2"/>
     </row>
@@ -12612,13 +12613,13 @@
         <v>608</v>
       </c>
       <c r="B609" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="C609" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D609" s="12" t="s">
         <v>974</v>
-      </c>
-      <c r="C609" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D609" s="12" t="s">
-        <v>975</v>
       </c>
       <c r="E609" s="2"/>
     </row>
@@ -12627,13 +12628,13 @@
         <v>609</v>
       </c>
       <c r="B610" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="C610" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D610" s="13" t="s">
         <v>976</v>
-      </c>
-      <c r="C610" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D610" s="13" t="s">
-        <v>977</v>
       </c>
       <c r="E610" s="2"/>
     </row>
@@ -12642,13 +12643,13 @@
         <v>610</v>
       </c>
       <c r="B611" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="C611" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D611" s="12" t="s">
         <v>978</v>
-      </c>
-      <c r="C611" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D611" s="12" t="s">
-        <v>979</v>
       </c>
       <c r="E611" s="2"/>
     </row>
@@ -12657,13 +12658,13 @@
         <v>611</v>
       </c>
       <c r="B612" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="C612" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D612" s="13" t="s">
         <v>980</v>
-      </c>
-      <c r="C612" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D612" s="13" t="s">
-        <v>981</v>
       </c>
       <c r="E612" s="2"/>
     </row>
@@ -12672,13 +12673,13 @@
         <v>612</v>
       </c>
       <c r="B613" s="12" t="s">
+        <v>981</v>
+      </c>
+      <c r="C613" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D613" s="12" t="s">
         <v>982</v>
-      </c>
-      <c r="C613" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D613" s="12" t="s">
-        <v>983</v>
       </c>
       <c r="E613" s="2"/>
     </row>
@@ -12705,13 +12706,13 @@
         <v>615</v>
       </c>
       <c r="B616" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="C616" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D616" s="13" t="s">
         <v>984</v>
-      </c>
-      <c r="C616" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D616" s="13" t="s">
-        <v>985</v>
       </c>
       <c r="E616" s="2"/>
     </row>
@@ -12720,13 +12721,13 @@
         <v>616</v>
       </c>
       <c r="B617" s="12" t="s">
+        <v>985</v>
+      </c>
+      <c r="C617" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D617" s="12" t="s">
         <v>986</v>
-      </c>
-      <c r="C617" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D617" s="12" t="s">
-        <v>987</v>
       </c>
       <c r="E617" s="2"/>
     </row>
@@ -12735,11 +12736,11 @@
         <v>617</v>
       </c>
       <c r="B618" s="13" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C618" s="13"/>
       <c r="D618" s="13" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E618" s="2"/>
     </row>
@@ -12748,11 +12749,11 @@
         <v>618</v>
       </c>
       <c r="B619" s="12" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C619" s="12"/>
       <c r="D619" s="12" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E619" s="2"/>
     </row>
@@ -12770,13 +12771,13 @@
         <v>620</v>
       </c>
       <c r="B621" s="12" t="s">
+        <v>991</v>
+      </c>
+      <c r="C621" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D621" s="12" t="s">
         <v>992</v>
-      </c>
-      <c r="C621" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D621" s="12" t="s">
-        <v>993</v>
       </c>
       <c r="E621" s="2"/>
     </row>
@@ -12785,13 +12786,13 @@
         <v>621</v>
       </c>
       <c r="B622" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="C622" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D622" s="13" t="s">
         <v>994</v>
-      </c>
-      <c r="C622" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D622" s="13" t="s">
-        <v>995</v>
       </c>
       <c r="E622" s="2"/>
     </row>
@@ -12800,13 +12801,13 @@
         <v>622</v>
       </c>
       <c r="B623" s="12" t="s">
+        <v>995</v>
+      </c>
+      <c r="C623" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D623" s="12" t="s">
         <v>996</v>
-      </c>
-      <c r="C623" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D623" s="12" t="s">
-        <v>997</v>
       </c>
       <c r="E623" s="2"/>
     </row>
@@ -12815,13 +12816,13 @@
         <v>623</v>
       </c>
       <c r="B624" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="C624" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D624" s="13" t="s">
         <v>998</v>
-      </c>
-      <c r="C624" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D624" s="13" t="s">
-        <v>999</v>
       </c>
       <c r="E624" s="2"/>
     </row>
@@ -12830,13 +12831,13 @@
         <v>624</v>
       </c>
       <c r="B625" s="12" t="s">
+        <v>999</v>
+      </c>
+      <c r="C625" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D625" s="12" t="s">
         <v>1000</v>
-      </c>
-      <c r="C625" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D625" s="12" t="s">
-        <v>1001</v>
       </c>
       <c r="E625" s="2"/>
     </row>
@@ -12845,13 +12846,13 @@
         <v>625</v>
       </c>
       <c r="B626" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C626" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D626" s="13" t="s">
         <v>1002</v>
-      </c>
-      <c r="C626" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D626" s="13" t="s">
-        <v>1003</v>
       </c>
       <c r="E626" s="2"/>
     </row>
@@ -12860,13 +12861,13 @@
         <v>626</v>
       </c>
       <c r="B627" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C627" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D627" s="12" t="s">
         <v>1004</v>
-      </c>
-      <c r="C627" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D627" s="12" t="s">
-        <v>1005</v>
       </c>
       <c r="E627" s="2"/>
     </row>
@@ -12875,13 +12876,13 @@
         <v>627</v>
       </c>
       <c r="B628" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C628" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D628" s="13" t="s">
         <v>1006</v>
-      </c>
-      <c r="C628" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D628" s="13" t="s">
-        <v>1007</v>
       </c>
       <c r="E628" s="2"/>
     </row>
@@ -12890,11 +12891,11 @@
         <v>628</v>
       </c>
       <c r="B629" s="12" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C629" s="12"/>
       <c r="D629" s="12" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E629" s="2"/>
     </row>
@@ -12903,11 +12904,11 @@
         <v>629</v>
       </c>
       <c r="B630" s="13" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C630" s="13"/>
       <c r="D630" s="13" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E630" s="2"/>
     </row>
@@ -12916,11 +12917,11 @@
         <v>630</v>
       </c>
       <c r="B631" s="12" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C631" s="12"/>
       <c r="D631" s="12" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E631" s="2"/>
     </row>
@@ -12929,13 +12930,13 @@
         <v>631</v>
       </c>
       <c r="B632" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C632" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D632" s="13" t="s">
         <v>1014</v>
-      </c>
-      <c r="C632" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D632" s="13" t="s">
-        <v>1015</v>
       </c>
       <c r="E632" s="2"/>
     </row>
@@ -12953,13 +12954,13 @@
         <v>633</v>
       </c>
       <c r="B634" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C634" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D634" s="13" t="s">
         <v>1016</v>
-      </c>
-      <c r="C634" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D634" s="13" t="s">
-        <v>1017</v>
       </c>
       <c r="E634" s="2"/>
     </row>
@@ -12968,13 +12969,13 @@
         <v>634</v>
       </c>
       <c r="B635" s="12" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C635" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D635" s="12" t="s">
         <v>1018</v>
-      </c>
-      <c r="C635" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D635" s="12" t="s">
-        <v>1019</v>
       </c>
       <c r="E635" s="2"/>
     </row>
@@ -12983,13 +12984,13 @@
         <v>635</v>
       </c>
       <c r="B636" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C636" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D636" s="13" t="s">
         <v>1020</v>
-      </c>
-      <c r="C636" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D636" s="13" t="s">
-        <v>1021</v>
       </c>
       <c r="E636" s="2"/>
     </row>
@@ -12998,13 +12999,13 @@
         <v>636</v>
       </c>
       <c r="B637" s="12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C637" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D637" s="12" t="s">
         <v>1022</v>
-      </c>
-      <c r="C637" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D637" s="12" t="s">
-        <v>1023</v>
       </c>
       <c r="E637" s="2"/>
     </row>
@@ -13013,13 +13014,13 @@
         <v>637</v>
       </c>
       <c r="B638" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C638" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D638" s="13" t="s">
         <v>1024</v>
-      </c>
-      <c r="C638" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D638" s="13" t="s">
-        <v>1025</v>
       </c>
       <c r="E638" s="2"/>
     </row>
@@ -13028,13 +13029,13 @@
         <v>638</v>
       </c>
       <c r="B639" s="12" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C639" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D639" s="12" t="s">
         <v>1026</v>
-      </c>
-      <c r="C639" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D639" s="12" t="s">
-        <v>1027</v>
       </c>
       <c r="E639" s="2"/>
     </row>
@@ -13043,13 +13044,13 @@
         <v>639</v>
       </c>
       <c r="B640" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C640" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D640" s="13" t="s">
         <v>1028</v>
-      </c>
-      <c r="C640" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D640" s="13" t="s">
-        <v>1029</v>
       </c>
       <c r="E640" s="2"/>
     </row>
@@ -13058,13 +13059,13 @@
         <v>640</v>
       </c>
       <c r="B641" s="12" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C641" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D641" s="12" t="s">
         <v>1030</v>
-      </c>
-      <c r="C641" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D641" s="12" t="s">
-        <v>1031</v>
       </c>
       <c r="E641" s="2"/>
     </row>
@@ -13073,11 +13074,11 @@
         <v>641</v>
       </c>
       <c r="B642" s="13" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C642" s="13"/>
       <c r="D642" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E642" s="2"/>
     </row>
@@ -13086,11 +13087,11 @@
         <v>642</v>
       </c>
       <c r="B643" s="12" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C643" s="12"/>
       <c r="D643" s="12" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E643" s="2"/>
     </row>
@@ -13099,13 +13100,13 @@
         <v>643</v>
       </c>
       <c r="B644" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C644" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D644" s="13" t="s">
         <v>1036</v>
-      </c>
-      <c r="C644" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D644" s="13" t="s">
-        <v>1037</v>
       </c>
       <c r="E644" s="2"/>
     </row>
@@ -13114,13 +13115,13 @@
         <v>644</v>
       </c>
       <c r="B645" s="12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C645" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D645" s="12" t="s">
         <v>1038</v>
-      </c>
-      <c r="C645" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D645" s="12" t="s">
-        <v>1039</v>
       </c>
       <c r="E645" s="2"/>
     </row>
@@ -13129,11 +13130,11 @@
         <v>645</v>
       </c>
       <c r="B646" s="13" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C646" s="13"/>
       <c r="D646" s="13" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E646" s="2"/>
     </row>
@@ -13142,11 +13143,11 @@
         <v>646</v>
       </c>
       <c r="B647" s="12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C647" s="12"/>
       <c r="D647" s="12" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E647" s="2"/>
     </row>
@@ -13155,11 +13156,11 @@
         <v>647</v>
       </c>
       <c r="B648" s="13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C648" s="13"/>
       <c r="D648" s="13" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E648" s="2"/>
     </row>
@@ -13168,11 +13169,11 @@
         <v>648</v>
       </c>
       <c r="B649" s="12" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C649" s="12"/>
       <c r="D649" s="12" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E649" s="2"/>
     </row>
@@ -13181,11 +13182,11 @@
         <v>649</v>
       </c>
       <c r="B650" s="13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C650" s="13"/>
       <c r="D650" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E650" s="2"/>
     </row>
@@ -13194,11 +13195,11 @@
         <v>650</v>
       </c>
       <c r="B651" s="12" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C651" s="12"/>
       <c r="D651" s="12" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E651" s="2"/>
     </row>
@@ -13252,11 +13253,11 @@
         <v>656</v>
       </c>
       <c r="B657" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C657" s="12"/>
       <c r="D657" s="12" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E657" s="2"/>
     </row>
@@ -13265,11 +13266,11 @@
         <v>657</v>
       </c>
       <c r="B658" s="13" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C658" s="13"/>
       <c r="D658" s="13" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E658" s="2"/>
     </row>
@@ -13278,11 +13279,11 @@
         <v>658</v>
       </c>
       <c r="B659" s="12" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C659" s="12"/>
       <c r="D659" s="12" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E659" s="2"/>
     </row>
@@ -13291,11 +13292,11 @@
         <v>659</v>
       </c>
       <c r="B660" s="13" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C660" s="13"/>
       <c r="D660" s="13" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E660" s="2"/>
     </row>
@@ -13304,11 +13305,11 @@
         <v>660</v>
       </c>
       <c r="B661" s="12" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C661" s="12"/>
       <c r="D661" s="12" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E661" s="2"/>
     </row>
@@ -13317,11 +13318,11 @@
         <v>661</v>
       </c>
       <c r="B662" s="13" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C662" s="13"/>
       <c r="D662" s="13" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E662" s="2"/>
     </row>
@@ -13330,11 +13331,11 @@
         <v>662</v>
       </c>
       <c r="B663" s="12" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C663" s="12"/>
       <c r="D663" s="12" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E663" s="2"/>
     </row>
@@ -13361,11 +13362,11 @@
         <v>665</v>
       </c>
       <c r="B666" s="13" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C666" s="13"/>
       <c r="D666" s="13" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E666" s="2"/>
     </row>
@@ -13374,11 +13375,11 @@
         <v>666</v>
       </c>
       <c r="B667" s="12" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C667" s="12"/>
       <c r="D667" s="12" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E667" s="2"/>
     </row>
@@ -13387,11 +13388,11 @@
         <v>667</v>
       </c>
       <c r="B668" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C668" s="13"/>
       <c r="D668" s="13" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E668" s="2"/>
     </row>
@@ -13427,11 +13428,11 @@
         <v>671</v>
       </c>
       <c r="B672" s="13" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C672" s="13"/>
       <c r="D672" s="13" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E672" s="2"/>
     </row>
@@ -13440,11 +13441,11 @@
         <v>672</v>
       </c>
       <c r="B673" s="12" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C673" s="12"/>
       <c r="D673" s="12" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E673" s="2"/>
     </row>
@@ -13453,11 +13454,11 @@
         <v>673</v>
       </c>
       <c r="B674" s="13" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C674" s="13"/>
       <c r="D674" s="13" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E674" s="2"/>
     </row>
@@ -13466,11 +13467,11 @@
         <v>674</v>
       </c>
       <c r="B675" s="12" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C675" s="12"/>
       <c r="D675" s="12" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E675" s="2"/>
     </row>
@@ -13479,11 +13480,11 @@
         <v>675</v>
       </c>
       <c r="B676" s="13" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C676" s="13"/>
       <c r="D676" s="13" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E676" s="2"/>
     </row>
@@ -13492,11 +13493,11 @@
         <v>676</v>
       </c>
       <c r="B677" s="12" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C677" s="12"/>
       <c r="D677" s="12" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E677" s="2"/>
     </row>
@@ -13505,11 +13506,11 @@
         <v>677</v>
       </c>
       <c r="B678" s="13" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C678" s="13"/>
       <c r="D678" s="13" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E678" s="2"/>
     </row>
@@ -13518,11 +13519,11 @@
         <v>678</v>
       </c>
       <c r="B679" s="12" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C679" s="12"/>
       <c r="D679" s="12" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E679" s="2"/>
     </row>
@@ -13531,11 +13532,11 @@
         <v>679</v>
       </c>
       <c r="B680" s="13" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C680" s="13"/>
       <c r="D680" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E680" s="2"/>
     </row>
@@ -13544,11 +13545,11 @@
         <v>680</v>
       </c>
       <c r="B681" s="12" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C681" s="12"/>
       <c r="D681" s="12" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E681" s="2"/>
     </row>
@@ -13557,11 +13558,11 @@
         <v>681</v>
       </c>
       <c r="B682" s="13" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C682" s="13"/>
       <c r="D682" s="13" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E682" s="2"/>
     </row>
@@ -13570,11 +13571,11 @@
         <v>682</v>
       </c>
       <c r="B683" s="12" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C683" s="12"/>
       <c r="D683" s="12" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E683" s="2"/>
     </row>
@@ -13583,11 +13584,11 @@
         <v>683</v>
       </c>
       <c r="B684" s="13" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C684" s="13"/>
       <c r="D684" s="13" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E684" s="2"/>
     </row>
@@ -13605,11 +13606,11 @@
         <v>685</v>
       </c>
       <c r="B686" s="13" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C686" s="13"/>
       <c r="D686" s="13" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E686" s="2"/>
     </row>
@@ -13618,11 +13619,11 @@
         <v>686</v>
       </c>
       <c r="B687" s="12" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C687" s="12"/>
       <c r="D687" s="12" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E687" s="2"/>
     </row>
@@ -13631,11 +13632,11 @@
         <v>687</v>
       </c>
       <c r="B688" s="13" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C688" s="13"/>
       <c r="D688" s="13" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E688" s="2"/>
     </row>
@@ -13644,11 +13645,11 @@
         <v>688</v>
       </c>
       <c r="B689" s="12" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C689" s="12"/>
       <c r="D689" s="12" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E689" s="2"/>
     </row>
@@ -13666,13 +13667,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="12" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C691" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D691" s="12" t="s">
         <v>1106</v>
-      </c>
-      <c r="C691" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D691" s="12" t="s">
-        <v>1107</v>
       </c>
       <c r="E691" s="2"/>
     </row>
@@ -13681,11 +13682,11 @@
         <v>691</v>
       </c>
       <c r="B692" s="13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C692" s="13"/>
       <c r="D692" s="13" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E692" s="2"/>
     </row>
@@ -13712,13 +13713,13 @@
         <v>694</v>
       </c>
       <c r="B695" s="12" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C695" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D695" s="12" t="s">
         <v>1110</v>
-      </c>
-      <c r="C695" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D695" s="12" t="s">
-        <v>1111</v>
       </c>
       <c r="E695" s="2"/>
     </row>
@@ -13727,13 +13728,13 @@
         <v>695</v>
       </c>
       <c r="B696" s="13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C696" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D696" s="13" t="s">
         <v>1112</v>
-      </c>
-      <c r="C696" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D696" s="13" t="s">
-        <v>1113</v>
       </c>
       <c r="E696" s="2"/>
     </row>
@@ -13742,13 +13743,13 @@
         <v>696</v>
       </c>
       <c r="B697" s="12" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C697" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D697" s="12" t="s">
         <v>1114</v>
-      </c>
-      <c r="C697" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D697" s="12" t="s">
-        <v>1115</v>
       </c>
       <c r="E697" s="2"/>
     </row>
@@ -13757,11 +13758,11 @@
         <v>697</v>
       </c>
       <c r="B698" s="13" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C698" s="13"/>
       <c r="D698" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E698" s="2"/>
     </row>
@@ -13770,13 +13771,13 @@
         <v>698</v>
       </c>
       <c r="B699" s="12" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C699" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D699" s="12" t="s">
         <v>1118</v>
-      </c>
-      <c r="C699" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D699" s="12" t="s">
-        <v>1119</v>
       </c>
       <c r="E699" s="2"/>
     </row>
@@ -13785,11 +13786,11 @@
         <v>699</v>
       </c>
       <c r="B700" s="13" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C700" s="13"/>
       <c r="D700" s="13" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E700" s="2"/>
     </row>
@@ -13798,11 +13799,11 @@
         <v>700</v>
       </c>
       <c r="B701" s="12" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C701" s="12"/>
       <c r="D701" s="12" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E701" s="2"/>
     </row>
@@ -13811,11 +13812,11 @@
         <v>701</v>
       </c>
       <c r="B702" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C702" s="13"/>
       <c r="D702" s="13" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E702" s="2"/>
     </row>
@@ -13824,11 +13825,11 @@
         <v>702</v>
       </c>
       <c r="B703" s="12" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C703" s="12"/>
       <c r="D703" s="12" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E703" s="2"/>
     </row>
@@ -13837,11 +13838,11 @@
         <v>703</v>
       </c>
       <c r="B704" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C704" s="13"/>
       <c r="D704" s="13" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E704" s="2"/>
     </row>
@@ -13850,13 +13851,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C705" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D705" s="12" t="s">
         <v>1130</v>
-      </c>
-      <c r="C705" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D705" s="12" t="s">
-        <v>1131</v>
       </c>
       <c r="E705" s="2"/>
     </row>
@@ -13865,11 +13866,11 @@
         <v>705</v>
       </c>
       <c r="B706" s="13" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C706" s="13"/>
       <c r="D706" s="13" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E706" s="2"/>
     </row>
@@ -13878,13 +13879,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C707" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D707" s="12" t="s">
         <v>1134</v>
-      </c>
-      <c r="C707" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D707" s="12" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -13892,13 +13893,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="13" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C708" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D708" s="13" t="s">
         <v>1136</v>
-      </c>
-      <c r="C708" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D708" s="13" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -13906,13 +13907,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C709" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D709" s="12" t="s">
         <v>1138</v>
-      </c>
-      <c r="C709" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D709" s="12" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13920,13 +13921,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C710" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D710" s="13" t="s">
         <v>1140</v>
-      </c>
-      <c r="C710" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D710" s="13" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -13934,13 +13935,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C711" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D711" s="12" t="s">
         <v>1142</v>
-      </c>
-      <c r="C711" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D711" s="12" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -13948,11 +13949,11 @@
         <v>711</v>
       </c>
       <c r="B712" s="13" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C712" s="13"/>
       <c r="D712" s="13" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -13960,13 +13961,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="12" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C713" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D713" s="12" t="s">
         <v>1146</v>
-      </c>
-      <c r="C713" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D713" s="12" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13974,13 +13975,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="13" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C714" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D714" s="13" t="s">
         <v>1148</v>
-      </c>
-      <c r="C714" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D714" s="13" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -13988,13 +13989,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="12" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C715" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D715" s="12" t="s">
         <v>1150</v>
-      </c>
-      <c r="C715" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D715" s="12" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -14002,13 +14003,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="13" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C716" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D716" s="13" t="s">
         <v>1152</v>
-      </c>
-      <c r="C716" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D716" s="13" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -14016,13 +14017,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="12" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C717" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D717" s="12" t="s">
         <v>1154</v>
-      </c>
-      <c r="C717" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D717" s="12" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -14030,13 +14031,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="13" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C718" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D718" s="13" t="s">
         <v>1156</v>
-      </c>
-      <c r="C718" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D718" s="13" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -14044,13 +14045,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="12" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C719" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D719" s="12" t="s">
         <v>1158</v>
-      </c>
-      <c r="C719" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D719" s="12" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -14058,13 +14059,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C720" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D720" s="13" t="s">
         <v>1160</v>
-      </c>
-      <c r="C720" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D720" s="13" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -14072,13 +14073,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="12" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C721" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D721" s="12" t="s">
         <v>1162</v>
-      </c>
-      <c r="C721" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D721" s="12" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -14086,11 +14087,11 @@
         <v>721</v>
       </c>
       <c r="B722" s="13" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C722" s="13"/>
       <c r="D722" s="13" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -14098,13 +14099,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="12" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C723" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D723" s="12" t="s">
         <v>1166</v>
-      </c>
-      <c r="C723" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D723" s="12" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -14112,13 +14113,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C724" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D724" s="13" t="s">
         <v>1168</v>
-      </c>
-      <c r="C724" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D724" s="13" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -14126,13 +14127,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="12" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C725" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D725" s="12" t="s">
         <v>1170</v>
-      </c>
-      <c r="C725" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D725" s="12" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -14140,13 +14141,13 @@
         <v>725</v>
       </c>
       <c r="B726" s="13" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C726" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D726" s="13" t="s">
         <v>1172</v>
-      </c>
-      <c r="C726" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D726" s="13" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -14154,13 +14155,13 @@
         <v>726</v>
       </c>
       <c r="B727" s="12" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C727" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D727" s="12" t="s">
         <v>1174</v>
-      </c>
-      <c r="C727" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D727" s="12" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -14168,13 +14169,13 @@
         <v>727</v>
       </c>
       <c r="B728" s="13" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C728" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D728" s="13" t="s">
         <v>1176</v>
-      </c>
-      <c r="C728" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D728" s="13" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -14182,13 +14183,13 @@
         <v>728</v>
       </c>
       <c r="B729" s="12" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C729" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D729" s="12" t="s">
         <v>1178</v>
-      </c>
-      <c r="C729" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D729" s="12" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -14196,13 +14197,13 @@
         <v>729</v>
       </c>
       <c r="B730" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C730" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D730" s="13" t="s">
         <v>1180</v>
-      </c>
-      <c r="C730" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D730" s="13" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -14210,13 +14211,13 @@
         <v>730</v>
       </c>
       <c r="B731" s="12" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C731" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D731" s="12" t="s">
         <v>1182</v>
-      </c>
-      <c r="C731" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D731" s="12" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -14224,11 +14225,11 @@
         <v>731</v>
       </c>
       <c r="B732" s="13" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C732" s="13"/>
       <c r="D732" s="13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -14236,13 +14237,13 @@
         <v>732</v>
       </c>
       <c r="B733" s="12" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C733" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D733" s="12" t="s">
         <v>1186</v>
-      </c>
-      <c r="C733" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D733" s="12" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -14250,13 +14251,13 @@
         <v>733</v>
       </c>
       <c r="B734" s="13" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C734" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D734" s="13" t="s">
         <v>1188</v>
-      </c>
-      <c r="C734" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D734" s="13" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -14264,11 +14265,11 @@
         <v>734</v>
       </c>
       <c r="B735" s="12" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C735" s="12"/>
       <c r="D735" s="12" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -14276,13 +14277,13 @@
         <v>735</v>
       </c>
       <c r="B736" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C736" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D736" s="13" t="s">
         <v>1192</v>
-      </c>
-      <c r="C736" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D736" s="13" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -14290,13 +14291,13 @@
         <v>736</v>
       </c>
       <c r="B737" s="12" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C737" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D737" s="12" t="s">
         <v>1194</v>
-      </c>
-      <c r="C737" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D737" s="12" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -14304,11 +14305,11 @@
         <v>737</v>
       </c>
       <c r="B738" s="13" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C738" s="13"/>
       <c r="D738" s="13" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -14316,13 +14317,13 @@
         <v>738</v>
       </c>
       <c r="B739" s="12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C739" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D739" s="12" t="s">
         <v>1198</v>
-      </c>
-      <c r="C739" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D739" s="12" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -14330,13 +14331,13 @@
         <v>739</v>
       </c>
       <c r="B740" s="13" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C740" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D740" s="13" t="s">
         <v>1200</v>
-      </c>
-      <c r="C740" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D740" s="13" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -14344,11 +14345,11 @@
         <v>740</v>
       </c>
       <c r="B741" s="12" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C741" s="12"/>
       <c r="D741" s="12" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -14356,13 +14357,13 @@
         <v>741</v>
       </c>
       <c r="B742" s="13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C742" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D742" s="13" t="s">
         <v>1204</v>
-      </c>
-      <c r="C742" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D742" s="13" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -14370,13 +14371,13 @@
         <v>742</v>
       </c>
       <c r="B743" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C743" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D743" s="12" t="s">
         <v>1206</v>
-      </c>
-      <c r="C743" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D743" s="12" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -14384,11 +14385,11 @@
         <v>743</v>
       </c>
       <c r="B744" s="13" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C744" s="13"/>
       <c r="D744" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -14396,11 +14397,11 @@
         <v>744</v>
       </c>
       <c r="B745" s="12" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C745" s="12"/>
       <c r="D745" s="12" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -14416,11 +14417,11 @@
         <v>746</v>
       </c>
       <c r="B747" s="12" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C747" s="12"/>
       <c r="D747" s="12" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -14428,11 +14429,11 @@
         <v>747</v>
       </c>
       <c r="B748" s="13" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C748" s="13"/>
       <c r="D748" s="13" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -14440,11 +14441,11 @@
         <v>748</v>
       </c>
       <c r="B749" s="12" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C749" s="12"/>
       <c r="D749" s="12" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -14452,13 +14453,13 @@
         <v>749</v>
       </c>
       <c r="B750" s="13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C750" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D750" s="13" t="s">
         <v>1218</v>
-      </c>
-      <c r="C750" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D750" s="13" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -14466,11 +14467,11 @@
         <v>750</v>
       </c>
       <c r="B751" s="12" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C751" s="12"/>
       <c r="D751" s="12" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -14478,13 +14479,13 @@
         <v>751</v>
       </c>
       <c r="B752" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C752" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D752" s="13" t="s">
         <v>1222</v>
-      </c>
-      <c r="C752" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D752" s="13" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -14492,13 +14493,13 @@
         <v>752</v>
       </c>
       <c r="B753" s="12" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C753" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D753" s="12" t="s">
         <v>1224</v>
-      </c>
-      <c r="C753" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D753" s="12" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -14506,13 +14507,13 @@
         <v>753</v>
       </c>
       <c r="B754" s="13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C754" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D754" s="13" t="s">
         <v>1226</v>
-      </c>
-      <c r="C754" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D754" s="13" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -14520,13 +14521,13 @@
         <v>754</v>
       </c>
       <c r="B755" s="12" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C755" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D755" s="12" t="s">
         <v>1228</v>
-      </c>
-      <c r="C755" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D755" s="12" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -14534,13 +14535,13 @@
         <v>755</v>
       </c>
       <c r="B756" s="13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C756" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D756" s="13" t="s">
         <v>1230</v>
-      </c>
-      <c r="C756" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D756" s="13" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -14548,11 +14549,11 @@
         <v>756</v>
       </c>
       <c r="B757" s="12" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C757" s="12"/>
       <c r="D757" s="12" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -14560,13 +14561,13 @@
         <v>757</v>
       </c>
       <c r="B758" s="13" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C758" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D758" s="13" t="s">
         <v>1234</v>
-      </c>
-      <c r="C758" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D758" s="13" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -14574,11 +14575,11 @@
         <v>758</v>
       </c>
       <c r="B759" s="12" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C759" s="12"/>
       <c r="D759" s="12" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -14586,13 +14587,13 @@
         <v>759</v>
       </c>
       <c r="B760" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C760" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D760" s="13" t="s">
         <v>1238</v>
-      </c>
-      <c r="C760" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D760" s="13" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -14600,11 +14601,11 @@
         <v>760</v>
       </c>
       <c r="B761" s="12" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C761" s="12"/>
       <c r="D761" s="12" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -14612,13 +14613,13 @@
         <v>761</v>
       </c>
       <c r="B762" s="13" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C762" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D762" s="13" t="s">
         <v>1242</v>
-      </c>
-      <c r="C762" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D762" s="13" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -14626,11 +14627,11 @@
         <v>762</v>
       </c>
       <c r="B763" s="12" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C763" s="12"/>
       <c r="D763" s="12" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -14638,11 +14639,11 @@
         <v>763</v>
       </c>
       <c r="B764" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C764" s="13"/>
       <c r="D764" s="13" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -14650,13 +14651,13 @@
         <v>764</v>
       </c>
       <c r="B765" s="12" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C765" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D765" s="12" t="s">
         <v>1248</v>
-      </c>
-      <c r="C765" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D765" s="12" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -14664,13 +14665,13 @@
         <v>765</v>
       </c>
       <c r="B766" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C766" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D766" s="13" t="s">
         <v>1250</v>
-      </c>
-      <c r="C766" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D766" s="13" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -14678,11 +14679,11 @@
         <v>766</v>
       </c>
       <c r="B767" s="12" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C767" s="12"/>
       <c r="D767" s="12" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -14690,11 +14691,11 @@
         <v>767</v>
       </c>
       <c r="B768" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C768" s="13"/>
       <c r="D768" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -14702,13 +14703,13 @@
         <v>768</v>
       </c>
       <c r="B769" s="12" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C769" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D769" s="12" t="s">
         <v>1256</v>
-      </c>
-      <c r="C769" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D769" s="12" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -14716,11 +14717,11 @@
         <v>769</v>
       </c>
       <c r="B770" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C770" s="13"/>
       <c r="D770" s="13" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -14728,11 +14729,11 @@
         <v>770</v>
       </c>
       <c r="B771" s="12" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C771" s="12"/>
       <c r="D771" s="12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -14740,13 +14741,13 @@
         <v>771</v>
       </c>
       <c r="B772" s="13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C772" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D772" s="13" t="s">
         <v>1262</v>
-      </c>
-      <c r="C772" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D772" s="13" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -14754,13 +14755,13 @@
         <v>772</v>
       </c>
       <c r="B773" s="12" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C773" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D773" s="12" t="s">
         <v>1264</v>
-      </c>
-      <c r="C773" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D773" s="12" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -14768,13 +14769,13 @@
         <v>773</v>
       </c>
       <c r="B774" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C774" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D774" s="13" t="s">
         <v>1266</v>
-      </c>
-      <c r="C774" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D774" s="13" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -14782,11 +14783,11 @@
         <v>774</v>
       </c>
       <c r="B775" s="12" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C775" s="12"/>
       <c r="D775" s="12" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -14794,11 +14795,11 @@
         <v>775</v>
       </c>
       <c r="B776" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C776" s="13"/>
       <c r="D776" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -14806,11 +14807,11 @@
         <v>776</v>
       </c>
       <c r="B777" s="12" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C777" s="12"/>
       <c r="D777" s="12" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -14818,13 +14819,13 @@
         <v>777</v>
       </c>
       <c r="B778" s="13" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C778" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D778" s="13" t="s">
         <v>1274</v>
-      </c>
-      <c r="C778" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D778" s="13" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -14832,11 +14833,11 @@
         <v>778</v>
       </c>
       <c r="B779" s="12" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C779" s="12"/>
       <c r="D779" s="12" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -14844,13 +14845,13 @@
         <v>779</v>
       </c>
       <c r="B780" s="13" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C780" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D780" s="13" t="s">
         <v>1278</v>
-      </c>
-      <c r="C780" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D780" s="13" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -14858,13 +14859,13 @@
         <v>780</v>
       </c>
       <c r="B781" s="12" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C781" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D781" s="12" t="s">
         <v>1280</v>
-      </c>
-      <c r="C781" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D781" s="12" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14872,13 +14873,13 @@
         <v>781</v>
       </c>
       <c r="B782" s="13" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C782" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D782" s="13" t="s">
         <v>1282</v>
-      </c>
-      <c r="C782" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D782" s="13" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -14886,11 +14887,11 @@
         <v>782</v>
       </c>
       <c r="B783" s="12" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C783" s="12"/>
       <c r="D783" s="12" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14898,11 +14899,11 @@
         <v>783</v>
       </c>
       <c r="B784" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C784" s="13"/>
       <c r="D784" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14910,13 +14911,13 @@
         <v>784</v>
       </c>
       <c r="B785" s="12" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C785" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D785" s="12" t="s">
         <v>1288</v>
-      </c>
-      <c r="C785" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D785" s="12" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -14924,11 +14925,11 @@
         <v>785</v>
       </c>
       <c r="B786" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C786" s="13"/>
       <c r="D786" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14936,13 +14937,13 @@
         <v>786</v>
       </c>
       <c r="B787" s="12" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C787" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D787" s="12" t="s">
         <v>1292</v>
-      </c>
-      <c r="C787" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D787" s="12" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14950,11 +14951,11 @@
         <v>787</v>
       </c>
       <c r="B788" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C788" s="13"/>
       <c r="D788" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -14962,11 +14963,11 @@
         <v>788</v>
       </c>
       <c r="B789" s="12" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C789" s="12"/>
       <c r="D789" s="12" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -14974,13 +14975,13 @@
         <v>789</v>
       </c>
       <c r="B790" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C790" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D790" s="13" t="s">
         <v>1298</v>
-      </c>
-      <c r="C790" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D790" s="13" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -15044,11 +15045,11 @@
         <v>797</v>
       </c>
       <c r="B798" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C798" s="13"/>
       <c r="D798" s="13" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -15056,13 +15057,13 @@
         <v>798</v>
       </c>
       <c r="B799" s="12" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C799" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D799" s="12" t="s">
         <v>1302</v>
-      </c>
-      <c r="C799" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D799" s="12" t="s">
-        <v>1303</v>
       </c>
     </row>
   </sheetData>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -1687,7 +1687,7 @@
     <t>Expedition was sent</t>
   </si>
   <si>
-    <t>远征队已被派遣</t>
+    <t>探险队已被派遣</t>
   </si>
   <si>
     <t>The building was destroyed, the area needs clearing</t>
@@ -1699,7 +1699,7 @@
     <t>Expedition was lost. Ship and crew has gone.</t>
   </si>
   <si>
-    <t>远征队失败了。船和船员已经走了。</t>
+    <t>探险失败了。船和船员都没了。</t>
   </si>
   <si>
     <t>Off</t>
@@ -1720,7 +1720,7 @@
     <t>Expedition successfully completed!</t>
   </si>
   <si>
-    <t>远征顺利完成！</t>
+    <t>探险顺利完成！</t>
   </si>
   <si>
     <t>New resources discovered:</t>
@@ -1894,7 +1894,7 @@
     <t>Show or hide messages about expeditions</t>
   </si>
   <si>
-    <t>显示或隐藏远征队消息</t>
+    <t>显示或隐藏探险队消息</t>
   </si>
   <si>
     <t>Show or hide general information</t>
@@ -3338,7 +3338,7 @@
     <t>Expedition organizing to search for usefull resources. Number of workers: %WORKER_COUNT%.</t>
   </si>
   <si>
-    <t>成立远征队寻找有用的资源。工人数量：%WORKER_COUNT%。</t>
+    <t>成立探险队寻找有用的资源。工人数量：%WORKER_COUNT%。</t>
   </si>
   <si>
     <t>Loading save game list...</t>
@@ -3350,19 +3350,19 @@
     <t>Start construction of a ship for an expedition. Requires resources for construction.</t>
   </si>
   <si>
-    <t>开始为远征队建造一艘船。建造所需资源：</t>
+    <t>开始为探险队建造一艘船。建造所需资源：</t>
   </si>
   <si>
     <t>Start organizing and preparation expedition to be sent. Required materials and provision for journey.</t>
   </si>
   <si>
-    <t>开始组织及准备展开远征。远征所需资源及物资。</t>
+    <t>开始组织及准备展开探险。探险所需资源及物资。</t>
   </si>
   <si>
     <t>Build a ship to send an expedition. And then collect provisions for the journey.</t>
   </si>
   <si>
-    <t>为远征队建造一艘船。然后收集远征所需的物资。</t>
+    <t>为探险队建造一艘船。然后收集探险所需的物资。</t>
   </si>
   <si>
     <t>Construct a ship</t>
@@ -3374,7 +3374,7 @@
     <t>Select the expedition goal and send it. You can select only one goal.</t>
   </si>
   <si>
-    <t>选择一个远征目标并派遣他们。你只能选择一个目标。</t>
+    <t>选择一个探险目标并派遣他们。你只能选择一个目标。</t>
   </si>
   <si>
     <t>Look out for new trees</t>
@@ -3398,13 +3398,13 @@
     <t>Expedition completion</t>
   </si>
   <si>
-    <t>远征完成</t>
+    <t>探险完成</t>
   </si>
   <si>
     <t>Time of expedition completing:</t>
   </si>
   <si>
-    <t>远征完成时间：</t>
+    <t>探险完成时间：</t>
   </si>
   <si>
     <t>You will discover new kinds of resource production in case of success, and you will lose your ship and crew in case of failure.</t>
@@ -3428,19 +3428,19 @@
     <t>Each villager must have a living space, where they can eat, get warm during the cold months and have a family. If the villager does not have a shelter he/she will not be able to eat or get warm. In this case they will either freeze to death or die from starvation. All homeless people are marked with a special icon. Let's build a dwelling for this homeless one.</t>
   </si>
   <si>
-    <t>每个村民都需要住处，他们可以在里面吃饭、休息、在寒冷的冬天取暖，并且拥有一个家庭。如果村民没有一个可以庇护他的地方，他/她将无法吃东西或是取暖。在这种情况下，他们要么会而是，要么便会冻死。所有无家可归的人都会有一个特殊的图标标记。让我们给无家可归的人建造一个住处吧。</t>
+    <t>每个村民都需要住处，他们可以在里面吃饭、休息、在寒冷的冬天取暖并拥有一个家庭。如果村民没有一个可以庇护他的地方，他/她将无法吃东西或是取暖。在这种情况下，他们不是饿死，便是冻死。所有无家可归的人都会有一个特殊的图标标记。让我们给无家可归的人造一个住处吧。</t>
   </si>
   <si>
     <t>Press the residential buildings group button to open the list of available houses. Then press the build house button.</t>
   </si>
   <si>
-    <t>按下“住宅”按钮可以打开可用住宅列表。然后[左键单击]“小型住宅”按钮以开始建造一个住宅。</t>
+    <t>按下&lt;住宅&gt;按钮可以打开可用住宅列表。然后[左键单击] &lt;小型住宅&gt;按钮来建造一栋住宅。</t>
   </si>
   <si>
     <t>In the building information window you can see the name, building area, necessary resources, building time and required number of builders. Choose the location of the building so that the whole building area is marked with only green tiles. Then left click to confirm construction.</t>
   </si>
   <si>
-    <t>在建筑信息窗口中可以看到名称、建筑面积、所需的资源、建筑时间以及所需的建筑工数量。选择你想建造的位置，使得整个建筑区域都变成绿色的格子。然后[左键单击]来确认该位置。</t>
+    <t>在建筑信息窗口中可以看到名称、建筑面积、所需资源、建筑时间以及所需的建筑工数量。选择你想建造的位置，使得整个建筑区域都变成绿色的格子。然后[左键单击]来确认该位置。</t>
   </si>
   <si>
     <t>Building construction site is now marked. All available laborers will prepare resources immediately. Right-click to switch off the building mode.</t>
@@ -3458,37 +3458,37 @@
     <t>You can see building construction progress bar in the upper part of window.</t>
   </si>
   <si>
-    <t>在窗口上面部分可以看到建筑的施工进度。</t>
+    <t>在窗口的上部可以看到建筑的施工进度。</t>
   </si>
   <si>
     <t>Below you can see the required resources and construction time. Prepared recourses are shown in the upper part of resource block while total needed amount is in the lower part.</t>
   </si>
   <si>
-    <t>下面部分可以看到所需的资源及建造时间。准备好的资源显示在上面一排数字，而总共所需要的显示在下面一排</t>
+    <t>下面可以看到所需资源及建造时间。准备好的资源数目显示在上面一排，而所需资源数目显示在下面一排。</t>
   </si>
   <si>
     <t>Necessary building resources are stored at the warehouse. Select highlighted warehouse.</t>
   </si>
   <si>
-    <t>所有的建筑用资源都存放在“仓库”中。选择高亮显示的“仓库”</t>
+    <t>所有的建筑用资源都存放在“仓库”内。选择高亮显示的“仓库”</t>
   </si>
   <si>
     <t>These are the resources stored at this particular warehouse. On top of them is the warehouse fill-meter. Do not let it go up to 100% or you will not be able to store new resources.</t>
   </si>
   <si>
-    <t>这些都是存储在这个特定的“仓库”内的资源。他们的顶部是“仓库”的计量表。不要让他达到100%。否则你将无法存储更多的资源。</t>
+    <t>这些都是存储在这个特定“仓库”内的资源。他们的上面是“仓库”的计量表。不要让它达到100%。否则你将无法存储更多的资源。</t>
   </si>
   <si>
     <t>This is your village overview window. It shows the total amount of all resources in all your storage combined. On the left side of this window you can see weather and population info. The total population is shown next to the village name.</t>
   </si>
   <si>
-    <t>这是你的村庄概览窗口。它显示了所有仓储设施内的所有资源总和。在这个窗口的左边，你可以看到天气以及人口信息。总人口显示在了村庄的旁边。</t>
+    <t>这是你的村庄概览窗口。它显示了所有仓储设施内的资源总和。在这个窗口的左边，你可以看到天气以及人口信息。总人口显示在了村庄名称旁边。</t>
   </si>
   <si>
     <t>All available unemployed villagers will start gathering resources - they take them from the closest warehouse and carry to the construction site.</t>
   </si>
   <si>
-    <t>所有可用的无业村民会开始收集资源，他们会把资源带到仓库，并运输到建筑工地。</t>
+    <t>所有的无业村民会开始收集资源，他们会把资源带到仓库，并运输到建筑工地。</t>
   </si>
   <si>
     <t>Now you need to assign builders. Select the building under construction.</t>
@@ -3500,13 +3500,13 @@
     <t>Set two builders by using increase or decrease buttons or by pressing the necessary number instead of 0 on your keyboard.</t>
   </si>
   <si>
-    <t>通过增加或减少按钮来设置两名建筑工，而不通过键盘上的[0]。</t>
+    <t>通过&lt;加减&gt;按钮或是键盘[数字键]来设置两名建筑工。</t>
   </si>
   <si>
     <t>All the required resources are on site. Builders are assigned. Now simply wait for the house to be built.</t>
   </si>
   <si>
-    <t>所有的资源都已经运到了建筑工地。建筑工也已经分配完成。现在只需要等待房屋建成。</t>
+    <t>所有资源都已经运到了建筑工地。建筑工也已经分配完成。现在只需要等待房屋建成。</t>
   </si>
   <si>
     <t>Select the constructed house.</t>
@@ -3518,55 +3518,55 @@
     <t>This window shows the list of all vilagers who live in the house, their gender, name, age and profession.</t>
   </si>
   <si>
-    <t>这个窗口显示了所有居住在这里的村民，他们的性别、姓名、年龄和职业。</t>
+    <t>这个窗口显示了所有住户的性别、姓名、年龄和职业。</t>
   </si>
   <si>
     <t>Below you can find the list of resources that villagers use to cope with hunger and to get warm during cold times. They will begin to move the resources as soon as they move in the house.</t>
   </si>
   <si>
-    <t>下面部分显示了这所房屋内村民用来充饥以及抵御寒冷的资源列表。当他们在房子里的时候便会减少这些资源。</t>
+    <t>下面则显示了这所房屋内的村民用来充饥及取暖的资源列表。当他们在房子里时便会减少这些资源。</t>
   </si>
   <si>
     <t>There are several types of houses in game, each of them have their own unique characteristics: number of dwellers, durability and happiness bonus, which affects workers productivity.</t>
   </si>
   <si>
-    <t>游戏内有多种类型的房屋，每栋房屋都有他们各自的特性：村民数量、耐久度、幸福度，从而影响村民的生产效率。</t>
+    <t>游戏内有多种类型的房屋，每种房屋都有着不同的特性：村民数量、耐久度、幸福度，从而影响村民的生产效率。</t>
   </si>
   <si>
     <t>In the upper right area of screen you can see the minimap. It displays the map of the island, planned and built constructions, and the current position of the camera.</t>
   </si>
   <si>
-    <t>在屏幕的右上方可以看到“小地图”。它显示了整座岛的地图、计划及建造的房屋以及目前的摄像机位置。</t>
+    <t>在屏幕的右上方可以看到“小地图”。它显示了整座岛的地图、计划及建造的房屋以及目前摄像机位置。</t>
   </si>
   <si>
     <t>In the bottom left area of screen you can find the game events log. Besides the list there is panel of filter keys, which can be used to swicth on/off the display of certain events.</t>
   </si>
   <si>
-    <t>屏幕的左下角是游戏的“事件日志”。而且列表的右边还有过滤按钮面板，可以显示或者隐藏某些事件的显示。</t>
+    <t>屏幕的左下角是游戏的“事件日志”。而且列表的右边还有过滤按钮面板，可以显示或者隐藏某些事件。</t>
   </si>
   <si>
     <t>Some buildings can be upgraded. Workers will partially dissasemble and then rebuild it. Improved buildings have higher characteristics. Click the upgrade button in the window of newly built house.</t>
   </si>
   <si>
-    <t>部分建筑物是可以升级的。建筑工会拆除并重建它的某些部分。进阶的建筑拥有更高的特性。[左键单击]新建房屋窗口中的“升级”按钮。</t>
+    <t>部分建筑物是可以升级的。建筑工会拆除并重建它的某些部分。进阶的建筑拥有更高的特性。[左键单击]新建房屋窗口中的&lt;升级&gt;按钮。</t>
   </si>
   <si>
     <t>This is the upgrade information window. Here you can see the stats of the improved house and resources you need to perform the upgrade.</t>
   </si>
   <si>
-    <t>这是升级信息窗口。在这里，你可以看到升级房屋所需要的资源。</t>
+    <t>这是升级信息窗口。在这里，你可以看到升级房屋的所需资源。</t>
   </si>
   <si>
     <t>You can now start the construction work as you have all resources you need in the warehouse. Press the construction button to the right of information window.</t>
   </si>
   <si>
-    <t>你现在可以开始升级工作，因为你的仓库中有你需要的资源。按下“建造”按钮来确认信息窗口。</t>
+    <t>你现在可以开始升级工作，因为你的仓库中有你需要的资源。按下&lt;建造&gt;按钮来确认信息窗口。</t>
   </si>
   <si>
     <t>You can speed up time so the wait for construction to finish will be less. Press the time acceleration button.</t>
   </si>
   <si>
-    <t>你还可以加速游戏来减少需要等待的时间。按下“加速”按钮。</t>
+    <t>你还可以加速游戏来减少需要等待的时间。按下&lt;加速&gt;按钮。</t>
   </si>
   <si>
     <t>Now let's wait for the improved house version to be built.</t>
@@ -3578,31 +3578,31 @@
     <t>You can pause the game process to take your time with assigning tasks to your settlers. In this case, all tasks will be saved and set to the order of execution. Just press the pause button.</t>
   </si>
   <si>
-    <t>你可以暂停游戏来给自己更多的时间分配任务给村民。在这种情况下所有的任务都会按照顺序保存。只需要按下“暂停”按钮。</t>
+    <t>你可以暂停游戏来给自己更多的时间分配任务给村民。在这种情况下所有的任务都会按照顺序保存。只需要按下&lt;暂停&gt;按钮。</t>
   </si>
   <si>
     <t>Now open the group of common information by pressing the specified button.</t>
   </si>
   <si>
-    <t>现在，通过指定的按钮来打开“一般信息”按钮组。</t>
+    <t>现在通过指定的按钮来打开&lt;一般信息&gt;按钮组。</t>
   </si>
   <si>
     <t>Press the button and window with list of professions will open.</t>
   </si>
   <si>
-    <t>按下这个按钮可以打开“职业”窗口。</t>
+    <t>按下这个按钮可以打开职业窗口。</t>
   </si>
   <si>
     <t>Now you no longer need builders, you can decrease their number. Set the current number to '0' using the interface buttons or keyboard.</t>
   </si>
   <si>
-    <t>现在暂时不再需要建筑工，你可以减少他们的数量。将当前数字设置为“0”。</t>
+    <t>现在暂时不需要建筑工，你可以减少他们的数量。将当前数字设为0。</t>
   </si>
   <si>
     <t>You can perform the same actions with any other profession, even if there is no work for them. As soon as work appears, settlers assigned to it will start to work.</t>
   </si>
   <si>
-    <t>你也可以对其他的职业进行同样的操作，即使没有工作。一旦出现工作，被分配的村民将会立即开始工作。</t>
+    <t>你也可以对其他的职业进行同样的操作，即使没有工作。一旦出现工作，被分配的村民会立即开始工作。</t>
   </si>
   <si>
     <t>You need to assign two construction workers again.</t>
@@ -3614,31 +3614,31 @@
     <t>All settlers need to eat or they will starve to death. There are lots of methods of food production.</t>
   </si>
   <si>
-    <t>所有的村民都需要吃东西，否则便会饿死。在这里有多种方式来获取食物。</t>
+    <t>所有的村民都需要吃东西，否则便会饿死。在这里有多种方式可以获取食物。</t>
   </si>
   <si>
     <t>All these methods are listed in the food production's group. Open it by pressing the button shown.</t>
   </si>
   <si>
-    <t>所有的方法都会现在是“食物”按钮组中。按下高亮的按钮来打开它们。</t>
+    <t>所有的方法都会显示在&lt;食物&gt;按钮组中。按下高亮的按钮来打开它们。</t>
   </si>
   <si>
     <t>Now press the button to begin building the fisherman's lodge.</t>
   </si>
   <si>
-    <t>现在按下这个按钮来开始建造“渔人小屋”。</t>
+    <t>现在按下这个按钮来建造“渔人小屋”。</t>
   </si>
   <si>
     <t>Сhoose the place where the fisherman's lodge will be built. Use move and rotation to set the construction with the entrance on coast and the rest on water. Building layout will help you with this .</t>
   </si>
   <si>
-    <t>选择一个需要建造“渔人小屋”的位置。使用移动和旋转来设置入口已经延生到水中的位置。建筑布局会对你有所帮助。</t>
+    <t>选择一个需要建造“渔人小屋”的位置。使用移动和旋转来设置入口以及延伸到水中的位置。建筑布局会对你有所帮助。</t>
   </si>
   <si>
     <t>To leave building mode, just click the second mouse button and continue.</t>
   </si>
   <si>
-    <t>要离开建筑模式只需要单机[鼠标右键]并继续。</t>
+    <t>要离开建筑模式只需要[鼠标右键]并继续。</t>
   </si>
   <si>
     <t>Wait until construction of fisherman's lodge has finished.</t>
@@ -3650,7 +3650,7 @@
     <t>Select the fisherman's lodge you've just built.</t>
   </si>
   <si>
-    <t>选择刚刚造好的“渔人小屋”。</t>
+    <t>选择刚刚建好的“渔人小屋”。</t>
   </si>
   <si>
     <t>Now assign three fishermen for the job.</t>
@@ -3668,7 +3668,7 @@
     <t>Select the fisherman's lodge.</t>
   </si>
   <si>
-    <t>选择“渔民小屋”。</t>
+    <t>选择“渔人小屋”。</t>
   </si>
   <si>
     <t>As soon as they fill the store with their catch, one of them will carry it to the barn.</t>
@@ -3686,13 +3686,13 @@
     <t>The storage is full! One of the fishermen will be going to carry the catch to a barn. Left-click them.</t>
   </si>
   <si>
-    <t>存储空间充满！其中一个渔夫将要运送这些鱼到“谷仓”去。[左键点击]他。</t>
+    <t>存储空间充满！其中一个渔夫将要运送这些鱼到“谷仓”去。[鼠标左键]点击他。</t>
   </si>
   <si>
     <t>This is the villagers window. Each villager has a number of characteristics, one of which is age. You can see it to the right from the name. Below are scales of happiness, which affects productivity, clothing and its condition, and also tools condition scale. Further down you can see icons to show his/her home and workplace.</t>
   </si>
   <si>
-    <t>这是村民窗口。每个村民都有一系列的特性，其中之一便是年龄。你可以在名字的旁边看到它们。下面是幸福度，影响生产力、服装及它的状态，同时也包括工具耐久度。再往下，你可以看到他的家庭和工作的图标。</t>
+    <t>这是村民信息窗口。每个村民都有一系列的特性，其中之一便是年龄。你可以在名字旁边看到它们。下面是影响生产力的情绪、服装及服装的状态，同时也包括工具耐久度。再往下，你可以看到他的家庭和工作图标。</t>
   </si>
   <si>
     <t>To take direct control of a settler and manage them directly, click on their avatar.</t>
@@ -3704,7 +3704,7 @@
     <t>Now carry resources to barn - the large building with barrels at the entrance - which is situated near ghe well. Get close to the doorstep until you see hint about interaction and then leave resources there.</t>
   </si>
   <si>
-    <t>现在控制他靠近“谷仓”知道看到“交互”提示，然后更具提示[左键点击]将背负的资源放入谷仓。</t>
+    <t>现在控制他靠近“谷仓”直到看到&lt;交互&gt;提示，然后根据提示单击[鼠标左键]将背负的资源放入谷仓。</t>
   </si>
   <si>
     <t>If you leave resources lying on the ground, someone will come for them and move them to warehouse.</t>
@@ -3716,7 +3716,7 @@
     <t>Press the Escape button to leave character control view.</t>
   </si>
   <si>
-    <t>按下[Escape]按键退出村民控制模式。</t>
+    <t>按下[Escape]键退出村民控制模式。</t>
   </si>
   <si>
     <t>Besides food, you need to collect construction and craftable resources, like wood, which is used in the construction of almost every building.</t>
@@ -3728,13 +3728,13 @@
     <t>Open resource gathering group to send workers for wood cutting.</t>
   </si>
   <si>
-    <t>打开“收集所有资源”按钮组来派遣工人去砍伐树木。</t>
+    <t>打开&lt;收集所有资源&gt;按钮组来派遣工人去砍伐树木。</t>
   </si>
   <si>
     <t>Now click on wood gathering, and then select an area with trees. Press the left mouse button to confirm wood cutting of it.</t>
   </si>
   <si>
-    <t>现在点击“收集木材”按钮然后选择一个区域。按下鼠标左键来确认。</t>
+    <t>现在点击&lt;收集木材&gt;按钮然后选择一片区域。按下[鼠标左键]来确认。</t>
   </si>
   <si>
     <t>Click right mouse button to leave resource gathering mode.</t>
@@ -3746,13 +3746,13 @@
     <t>Free labourers will start chopping trees and gather wood immediately.</t>
   </si>
   <si>
-    <t>自由的工人将会开始砍伐并收集树木。</t>
+    <t>自由的劳工将会开始砍伐并收集树木。</t>
   </si>
   <si>
     <t>Click on a highlighted woodcutter.</t>
   </si>
   <si>
-    <t>点击一个高亮的樵夫。</t>
+    <t>点击一个高亮的伐木工。</t>
   </si>
   <si>
     <t>Switch to first-person villager control mode.</t>
@@ -3770,19 +3770,19 @@
     <t>When it is warm fields are one of the best food sources. Let's create it.</t>
   </si>
   <si>
-    <t>温暖的田野是获取食物的最好方式之一。让我们来建造它们。</t>
+    <t>温暖的季节里“农田”是获取食物的最好方式之一。让我们来建造它们。</t>
   </si>
   <si>
     <t>Open food production group.</t>
   </si>
   <si>
-    <t>打开“食物生产”按钮组。</t>
+    <t>打开&lt;食物生产&gt;按钮组。</t>
   </si>
   <si>
     <t>Press field construction button.</t>
   </si>
   <si>
-    <t>按下“农田”建造按钮。</t>
+    <t>按下&lt;农田&gt;建造按钮。</t>
   </si>
   <si>
     <t>Fields have a tunable size, so you need to click the left mouse button and, while holding it, move coursor, stretching its area.</t>
@@ -3806,7 +3806,7 @@
     <t>There are different crops, which you can plant on fields. Every crop has its own set of characteristics and weather and requirements for care.</t>
   </si>
   <si>
-    <t>这里有多种不同的作物孔易供你选择。每一种作物都有自己的特性以及对天气和湿度的要求。</t>
+    <t>这里有多种不同的作物供你选择。每一种作物都有自己的特性以及对天气和湿度的要求。</t>
   </si>
   <si>
     <t>The current weather is displayed in village window as icon and temperature value.</t>
@@ -3824,7 +3824,7 @@
     <t>Select the field by clicking on it.</t>
   </si>
   <si>
-    <t>通过点击来选择字段。</t>
+    <t>通过点击来选择“农田”。</t>
   </si>
   <si>
     <t>In the list of crops click on 'Potato' and confirm your choice.</t>
@@ -3842,25 +3842,25 @@
     <t>Every plant needs water. A farmer will automatically carry water from the well after seeding the field. If moisture is above the required level, the farmer will loosen soil to dry it.</t>
   </si>
   <si>
-    <t>所有的植物都需要水。农夫在播种后会自动从水井取水来灌溉农田。如果水分吵过规定的水平，农夫将会想办法让土壤变得干燥。</t>
+    <t>所有的植物都需要水。农夫在播种后会自动从水井取水来灌溉农田。如果水分超过规定的水平，农夫将会想办法让土壤变得干燥。</t>
   </si>
   <si>
     <t>Start the tutorial</t>
   </si>
   <si>
-    <t>开始教学</t>
+    <t>教学模式</t>
   </si>
   <si>
     <t>Plants can grow without water, but they will grow very slowly, and there is a chance that they will not be harvestable in time before cold weather.</t>
   </si>
   <si>
-    <t>作物在缺水的情况下也可以生长，但是会生长的十分缓慢，并且当进入寒冷的季节后将有几率断收。</t>
+    <t>作物在缺水的情况下也可以生长，但是会生长的十分缓慢，并且当进入寒冷的季节后将有几率绝收。</t>
   </si>
   <si>
     <t>Many crops are yet to be discovered by the villagers. You can send Maritime Explorers on expeditions from a port. Groups of explorers will travel in search of new plants, orchard trees, animals and new ways to get food.</t>
   </si>
   <si>
-    <t>许多的作物还没有被发现。你可以通过港口派遣远征队去探险。探险队会寻找新的植物、树木、动物或是新的获取食物的方式。</t>
+    <t>很多作物还没有被发现。你可以通过港口派遣探险队去探险。探险队会寻找新的植物、树木、动物或是新的食物获取方式。</t>
   </si>
   <si>
     <t>Villagers can eat common plants as well. These plants can be collected by gatherers from bushes that grow mainly in forests. Let's build a gatherer's hut. Firstly, we have to flatten the area, as many buildings can not be built on slopes.</t>
@@ -3872,19 +3872,19 @@
     <t>Click on the button to open terraforming tools group.</t>
   </si>
   <si>
-    <t>打开“地形改造”按钮组。</t>
+    <t>打开&lt;地形改造&gt;按钮组。</t>
   </si>
   <si>
     <t>Now press the flatten button.</t>
   </si>
   <si>
-    <t>现在点击“平整”按钮。</t>
+    <t>现在点击&lt;平整&gt;按钮。</t>
   </si>
   <si>
     <t>Select a 12x12 area, click the left mouse button, then choose height level and confirm it by clicking the left mouse button again. Look at the time needed for flattening in the setup window - the lower the number, the quicker.</t>
   </si>
   <si>
-    <t>通过鼠标左键选择一个12*12的区域，然后单机鼠标左键以确认高度，这是需要注意平整窗口中的所需时间，数字越小，速度越快。</t>
+    <t>通过鼠标左键选择一块12*12的区域，然后单击[鼠标左键]以确认高度，这时需要注意窗口中的所需时间，数字越小，速度越快。</t>
   </si>
   <si>
     <t>Wait until workers finish flattening the ground.</t>
@@ -3896,13 +3896,13 @@
     <t>Let's build the gatherer's house on the area we've just terraformed. Open food production group.</t>
   </si>
   <si>
-    <t>让我们建造刚刚提到的“采集者小屋”。打开“食物生产”按钮组。</t>
+    <t>让我们建造刚刚提到的“采集者小屋”。打开&lt;食物生产&gt;按钮组。</t>
   </si>
   <si>
     <t>Press build gatherer's hut button.</t>
   </si>
   <si>
-    <t>点击建造“采集者小屋”按钮。</t>
+    <t>点击建造&lt;采集者小屋&gt;按钮。</t>
   </si>
   <si>
     <t>Place gatherer's hut on the recently terraformed area.</t>
@@ -3914,7 +3914,7 @@
     <t>We have now covered the basics. You will find many more opportunities in game and learn about them from tooltips. Just one more bit of advice to end on - keep an eye on your food and firewood balance. Don't let them deplete, or your people may starve and freeze to death. Good luck!</t>
   </si>
   <si>
-    <t>现在我们已经完成了基础教程。你可以在游戏中获得更多的机会，并且通过“小贴士”学习到更多的内容。另外请维持你的食物及木柴在一个平衡点，以免你的村民饿死或冻死。祝你好运！你也可以加入交流群：574083350 来进行交流。</t>
+    <t>现在我们已经完成了基础教程。你可以在游戏中获得更多的机会，并通过“小贴士”学习到更多的内容。另外请维持你的食物及木柴在一个平衡点，以免你的村民饿死或冻死。祝你好运！你也可以加入交流群：574083350 来进行交流。</t>
   </si>
   <si>
     <t>Improved shack</t>
@@ -3967,67 +3967,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4049,9 +3989,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4059,6 +4005,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4073,6 +4033,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -4081,7 +4048,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4095,16 +4078,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4143,7 +4143,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4161,7 +4245,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4173,55 +4281,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4233,79 +4305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4354,30 +4354,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4389,21 +4365,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4437,8 +4398,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4457,10 +4457,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4469,133 +4469,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4979,8 +4979,8 @@
   <sheetPr/>
   <dimension ref="A1:E799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A777" workbookViewId="0">
-      <selection activeCell="D779" sqref="D779"/>
+    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
+      <selection activeCell="D781" sqref="D781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302">
   <si>
     <t>ID</t>
   </si>
@@ -291,10 +291,10 @@
     <t>木材</t>
   </si>
   <si>
-    <t>Residential house</t>
-  </si>
-  <si>
-    <t>住宅</t>
+    <t>House</t>
+  </si>
+  <si>
+    <t>房屋</t>
   </si>
   <si>
     <t>Hostel</t>
@@ -537,7 +537,7 @@
     <t>一般信息</t>
   </si>
   <si>
-    <t>Residential houses</t>
+    <t>Houses</t>
   </si>
   <si>
     <t>Storage</t>
@@ -855,13 +855,13 @@
     <t>磨坊工人</t>
   </si>
   <si>
-    <t>Stonemason. Gets stone. Stone quarry required.</t>
+    <t>Stonemason. Collects stone. Stone quarry required.</t>
   </si>
   <si>
     <t>石工：开采石头。需要采石场。</t>
   </si>
   <si>
-    <t>Miner. Gets ore. Ore mine required.</t>
+    <t>Miner. Collects ore. Ore mine required.</t>
   </si>
   <si>
     <t>矿工：开采矿石。需要矿洞。</t>
@@ -915,7 +915,7 @@
     <t>采集者：采集植物。需要采集者小屋。</t>
   </si>
   <si>
-    <t>Farmer: grows crops and fruits. Fields or gardens required.</t>
+    <t>Farmer: grows crops and fruits. Field or garden required.</t>
   </si>
   <si>
     <t>农夫：种植作物及水果。需要农田或果园。</t>
@@ -927,7 +927,7 @@
     <t>教师：教育儿童。需要学校。</t>
   </si>
   <si>
-    <t>Herdsman. Cares about cattle. Pasture required.</t>
+    <t>Herdsman. Tends to cattle. Pasture required.</t>
   </si>
   <si>
     <t>牧民：照料牲口。需要牧场。</t>
@@ -1320,28 +1320,28 @@
     <t>儿童</t>
   </si>
   <si>
-    <t>Summer.</t>
-  </si>
-  <si>
-    <t>夏天.</t>
-  </si>
-  <si>
-    <t>Winter.</t>
-  </si>
-  <si>
-    <t>冬天.</t>
-  </si>
-  <si>
-    <t>Fall.</t>
-  </si>
-  <si>
-    <t>秋天.</t>
-  </si>
-  <si>
-    <t>Spring.</t>
-  </si>
-  <si>
-    <t>春天.</t>
+    <t>Summer -</t>
+  </si>
+  <si>
+    <t>夏天 -</t>
+  </si>
+  <si>
+    <t>Winter -</t>
+  </si>
+  <si>
+    <t>冬天 -</t>
+  </si>
+  <si>
+    <t>Fall -</t>
+  </si>
+  <si>
+    <t>秋天 -</t>
+  </si>
+  <si>
+    <t>Spring -</t>
+  </si>
+  <si>
+    <t>春天 -</t>
   </si>
   <si>
     <t>total</t>
@@ -1492,7 +1492,7 @@
     <t>你将失去所有当前进度。确定要重新开始吗？</t>
   </si>
   <si>
-    <t>New saved game</t>
+    <t>New Game Save</t>
   </si>
   <si>
     <t>保存新的存档</t>
@@ -1540,10 +1540,10 @@
     <t>这栋建筑没有任何工人</t>
   </si>
   <si>
-    <t>The building is full</t>
-  </si>
-  <si>
-    <t>这栋栋建筑已经满了</t>
+    <t>The building is almost full</t>
+  </si>
+  <si>
+    <t>这栋栋建筑几乎满了</t>
   </si>
   <si>
     <t>No fuel available for heating</t>
@@ -1777,52 +1777,52 @@
     <t>年份</t>
   </si>
   <si>
-    <t>Early summer.</t>
-  </si>
-  <si>
-    <t>初夏.</t>
-  </si>
-  <si>
-    <t>Late summer.</t>
-  </si>
-  <si>
-    <t>夏末.</t>
-  </si>
-  <si>
-    <t>Early spring.</t>
-  </si>
-  <si>
-    <t>初春.</t>
-  </si>
-  <si>
-    <t>Late spring.</t>
-  </si>
-  <si>
-    <t>春末.</t>
-  </si>
-  <si>
-    <t>Early winter.</t>
-  </si>
-  <si>
-    <t>初冬.</t>
-  </si>
-  <si>
-    <t>Late winter.</t>
-  </si>
-  <si>
-    <t>冬末.</t>
-  </si>
-  <si>
-    <t>Early fall.</t>
-  </si>
-  <si>
-    <t>初秋.</t>
-  </si>
-  <si>
-    <t>Late fall.</t>
-  </si>
-  <si>
-    <t>秋末.</t>
+    <t>Early summer -</t>
+  </si>
+  <si>
+    <t>初夏 -</t>
+  </si>
+  <si>
+    <t>Late summer -</t>
+  </si>
+  <si>
+    <t>夏末 -</t>
+  </si>
+  <si>
+    <t>Early spring -</t>
+  </si>
+  <si>
+    <t>初春 -</t>
+  </si>
+  <si>
+    <t>Late spring -</t>
+  </si>
+  <si>
+    <t>春末 -</t>
+  </si>
+  <si>
+    <t>Early winter -</t>
+  </si>
+  <si>
+    <t>初冬 -</t>
+  </si>
+  <si>
+    <t>Late winter -</t>
+  </si>
+  <si>
+    <t>冬末 -</t>
+  </si>
+  <si>
+    <t>Early fall -</t>
+  </si>
+  <si>
+    <t>初秋 -</t>
+  </si>
+  <si>
+    <t>Late fall -</t>
+  </si>
+  <si>
+    <t>秋末 -</t>
   </si>
   <si>
     <t>英语</t>
@@ -1861,10 +1861,10 @@
     <t>保存游戏出错</t>
   </si>
   <si>
-    <t>Small residential house</t>
-  </si>
-  <si>
-    <t>小型住宅</t>
+    <t>Small house</t>
+  </si>
+  <si>
+    <t>小型房屋</t>
   </si>
   <si>
     <t>Minimize or maximize the event log</t>
@@ -2035,9 +2035,6 @@
     <t>这条路被摧毁了</t>
   </si>
   <si>
-    <t>The building is almost full</t>
-  </si>
-  <si>
     <t>这栋建筑快满了</t>
   </si>
   <si>
@@ -2206,7 +2203,7 @@
     <t>你的村民无法在没有柴堆的情况下焚烧尸体，而且这可能会导致危险的瘟疫。建造足够的柴堆以避免滋生瘟疫。</t>
   </si>
   <si>
-    <t>Hunters aren't only used for the production of food, they also gather hides. Build a hunter's hovel at the borders of your village and hunters will protect your people from being infected with rabies by wild animals.</t>
+    <t>Hunters aren't only used for the production of food, they also gather hides. Build a hunting cabin at the borders of your village and hunters will protect your people from being infected with rabies by wild animals.</t>
   </si>
   <si>
     <t>猎人不光能收集食物，还可以收集毛皮。在你的村庄边缘建造一栋猎人小屋，那么猎人便可以保护你的村民不被野兽传染狂犬病。</t>
@@ -2296,10 +2293,10 @@
     <t>不要忘了在过冬的时候准备木柴，或是让你的村民被冻死。从资源收集分类建造樵场然后雇佣樵夫，他们会将木材加工成木柴。</t>
   </si>
   <si>
-    <t>Construct residential houses to increase the village population. People will settle into the houses, create families and bear children. Hostels can accommodate a lot of people, but villagers can't marry and bear children there.</t>
-  </si>
-  <si>
-    <t>建造住宅来增加村庄人口。人们将会在房子里定居，组建家庭，生下孩子。宿舍可以容纳很多人，但宿舍里的村民无法在那里结婚生子。</t>
+    <t>Construct houses to increase the village population. People will settle into the houses, create families and bear children. Hostels can accommodate a lot of people, but villagers can't marry and bear children there.</t>
+  </si>
+  <si>
+    <t>建造房屋来增加村庄人口。人们将会在房子里定居，组建家庭，生下孩子。宿舍可以容纳很多人，但宿舍里的村民无法在那里结婚生子。</t>
   </si>
   <si>
     <t>Villagers become unemployed if their house is destroyed or resources can not be gathered. So don't forget to give them other tasks. The best way to make it is via the profession window in the general information group. You can set the number of people who work in that profession there.</t>
@@ -2320,10 +2317,10 @@
     <t>果园及农田能提供大量资源，但并不是立刻。你必须选择该区域，建一个农田或果园，聘请农夫并选择一种作物类型。农夫会在该农田里播种，培育它并且在他们成熟后收割。</t>
   </si>
   <si>
-    <t>Before building a pasture make sure that you have free hunters to defend it. Also, don't forget to have food and water available for animals. Cows eat hay from a grass crop, chickens and pigs eat oats. All of these resources you can gather in fields.</t>
-  </si>
-  <si>
-    <t>在建一个牧场前要确保你有自由的猎人保护它。此外，不要忘了有足够的食物和水给牲口。牛吃干草，鸡和猪吃燕麦。所有的这些资源你都可以在农田获得。</t>
+    <t>Before building a pasture make sure that you have free hunters to defend it. Also, don't forget to have food and water available for animals. Cows and sheep eat hay from a grass crop, chickens and pigs eat oats. All of these resources you can gather in fields.</t>
+  </si>
+  <si>
+    <t>在建一个牧场前要确保你有自由的猎人保护它。此外，不要忘了有足够的食物和水给牲口。牛和羊吃干草，鸡和猪吃燕麦。所有的这些资源你都可以在农田获得。</t>
   </si>
   <si>
     <t>The higher the happiness level of your people, the better they work. Alcohol, crafted by an innkeeper in a tavern, can increase the level of happiness. Build a tavern from the city building group, hire an innkeeper and provide him with the necessary resources to craft alcohol.</t>
@@ -3934,10 +3931,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3967,7 +3964,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3989,13 +4023,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4003,15 +4031,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4026,37 +4078,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4070,39 +4100,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -4143,6 +4140,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4155,13 +4242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4173,13 +4254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4191,19 +4272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4215,25 +4290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4245,67 +4302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4354,17 +4351,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4386,17 +4394,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -4404,11 +4401,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4428,17 +4431,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4446,8 +4443,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4457,10 +4454,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4469,133 +4466,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4979,8 +4976,8 @@
   <sheetPr/>
   <dimension ref="A1:E799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
-      <selection activeCell="D781" sqref="D781"/>
+    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="D498" sqref="D498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -10429,11 +10426,11 @@
         <v>446</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>672</v>
+        <v>507</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E447" s="2"/>
     </row>
@@ -10442,11 +10439,11 @@
         <v>447</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E448" s="2"/>
     </row>
@@ -10455,11 +10452,11 @@
         <v>448</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E449" s="2"/>
     </row>
@@ -10468,11 +10465,11 @@
         <v>449</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E450" s="2"/>
     </row>
@@ -10481,11 +10478,11 @@
         <v>450</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E451" s="2"/>
     </row>
@@ -10494,13 +10491,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E452" s="2"/>
     </row>
@@ -10509,11 +10506,11 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E453" s="2"/>
     </row>
@@ -10522,11 +10519,11 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C454" s="3"/>
       <c r="D454" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E454" s="2"/>
     </row>
@@ -10535,11 +10532,11 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C455" s="3"/>
       <c r="D455" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E455" s="2"/>
     </row>
@@ -10548,11 +10545,11 @@
         <v>455</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C456" s="3"/>
       <c r="D456" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E456" s="2"/>
     </row>
@@ -10561,11 +10558,11 @@
         <v>456</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C457" s="3"/>
       <c r="D457" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E457" s="2"/>
     </row>
@@ -10574,11 +10571,11 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C458" s="3"/>
       <c r="D458" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E458" s="2"/>
     </row>
@@ -10587,11 +10584,11 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C459" s="3"/>
       <c r="D459" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E459" s="2"/>
     </row>
@@ -10600,11 +10597,11 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C460" s="3"/>
       <c r="D460" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E460" s="2"/>
     </row>
@@ -10613,11 +10610,11 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C461" s="3"/>
       <c r="D461" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E461" s="2"/>
     </row>
@@ -10626,11 +10623,11 @@
         <v>461</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C462" s="3"/>
       <c r="D462" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E462" s="2"/>
     </row>
@@ -10639,11 +10636,11 @@
         <v>462</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C463" s="3"/>
       <c r="D463" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E463" s="2"/>
     </row>
@@ -10652,7 +10649,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C464" s="3"/>
       <c r="D464" s="3" t="s">
@@ -10665,7 +10662,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C465" s="3"/>
       <c r="D465" s="3" t="s">
@@ -10678,7 +10675,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C466" s="3"/>
       <c r="D466" s="3" t="s">
@@ -10691,7 +10688,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C467" s="3"/>
       <c r="D467" s="3" t="s">
@@ -10704,11 +10701,11 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C468" s="3"/>
       <c r="D468" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E468" s="2"/>
     </row>
@@ -10717,7 +10714,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C469" s="3"/>
       <c r="D469" s="3" t="s">
@@ -10730,13 +10727,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E470" s="2"/>
     </row>
@@ -10745,13 +10742,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E471" s="2"/>
     </row>
@@ -10760,13 +10757,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E472" s="2"/>
     </row>
@@ -10775,13 +10772,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E473" s="2"/>
     </row>
@@ -10790,13 +10787,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E474" s="2"/>
     </row>
@@ -10805,13 +10802,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E475" s="2"/>
     </row>
@@ -10820,13 +10817,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E476" s="2"/>
     </row>
@@ -10835,13 +10832,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E477" s="2"/>
     </row>
@@ -10850,13 +10847,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E478" s="2"/>
     </row>
@@ -10865,13 +10862,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E479" s="2"/>
     </row>
@@ -10880,13 +10877,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E480" s="2"/>
     </row>
@@ -10895,13 +10892,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E481" s="2"/>
     </row>
@@ -10910,13 +10907,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E482" s="2"/>
     </row>
@@ -10925,13 +10922,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E483" s="2"/>
     </row>
@@ -10940,13 +10937,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E484" s="2"/>
     </row>
@@ -10955,13 +10952,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E485" s="2"/>
     </row>
@@ -10970,13 +10967,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E486" s="2"/>
     </row>
@@ -10985,13 +10982,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E487" s="2"/>
     </row>
@@ -11000,13 +10997,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E488" s="2"/>
     </row>
@@ -11015,13 +11012,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E489" s="2"/>
     </row>
@@ -11030,13 +11027,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E490" s="2"/>
     </row>
@@ -11045,13 +11042,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E491" s="2"/>
     </row>
@@ -11060,13 +11057,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E492" s="2"/>
     </row>
@@ -11075,13 +11072,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E493" s="2"/>
     </row>
@@ -11090,13 +11087,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E494" s="2"/>
     </row>
@@ -11105,13 +11102,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E495" s="2"/>
     </row>
@@ -11120,13 +11117,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E496" s="2"/>
     </row>
@@ -11135,13 +11132,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E497" s="2"/>
     </row>
@@ -11150,13 +11147,13 @@
         <v>497</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E498" s="2"/>
     </row>
@@ -11165,13 +11162,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E499" s="2"/>
     </row>
@@ -11180,13 +11177,13 @@
         <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E500" s="2"/>
     </row>
@@ -11195,13 +11192,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C501" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E501" s="2"/>
     </row>
@@ -11210,16 +11207,16 @@
         <v>501</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C502" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D502" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="E502" s="11" t="s">
         <v>776</v>
-      </c>
-      <c r="E502" s="11" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11227,13 +11224,13 @@
         <v>502</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C503" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D503" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E503" s="11"/>
     </row>
@@ -11242,11 +11239,11 @@
         <v>503</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C504" s="3"/>
       <c r="D504" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E504" s="11"/>
     </row>
@@ -11255,11 +11252,11 @@
         <v>504</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C505" s="3"/>
       <c r="D505" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E505" s="11"/>
     </row>
@@ -11268,11 +11265,11 @@
         <v>505</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C506" s="3"/>
       <c r="D506" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E506" s="11"/>
     </row>
@@ -11281,11 +11278,11 @@
         <v>506</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C507" s="3"/>
       <c r="D507" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E507" s="11"/>
     </row>
@@ -11294,11 +11291,11 @@
         <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C508" s="3"/>
       <c r="D508" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E508" s="11"/>
     </row>
@@ -11307,11 +11304,11 @@
         <v>508</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C509" s="3"/>
       <c r="D509" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E509" s="11"/>
     </row>
@@ -11320,11 +11317,11 @@
         <v>509</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C510" s="3"/>
       <c r="D510" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E510" s="11"/>
     </row>
@@ -11333,11 +11330,11 @@
         <v>510</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C511" s="3"/>
       <c r="D511" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E511" s="11"/>
     </row>
@@ -11346,11 +11343,11 @@
         <v>511</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C512" s="3"/>
       <c r="D512" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E512" s="11"/>
     </row>
@@ -11359,11 +11356,11 @@
         <v>512</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C513" s="3"/>
       <c r="D513" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E513" s="11"/>
     </row>
@@ -11372,11 +11369,11 @@
         <v>513</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C514" s="3"/>
       <c r="D514" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E514" s="11"/>
     </row>
@@ -11385,11 +11382,11 @@
         <v>514</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C515" s="3"/>
       <c r="D515" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E515" s="11"/>
     </row>
@@ -11398,13 +11395,13 @@
         <v>515</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C516" s="3">
         <v>20</v>
       </c>
       <c r="D516" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E516" s="11"/>
     </row>
@@ -11413,13 +11410,13 @@
         <v>516</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C517" s="3">
         <v>20</v>
       </c>
       <c r="D517" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E517" s="11"/>
     </row>
@@ -11428,13 +11425,13 @@
         <v>517</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C518" s="3">
         <v>20</v>
       </c>
       <c r="D518" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E518" s="11"/>
     </row>
@@ -11443,13 +11440,13 @@
         <v>518</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C519" s="3">
         <v>20</v>
       </c>
       <c r="D519" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E519" s="11"/>
     </row>
@@ -11458,13 +11455,13 @@
         <v>519</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C520" s="3">
         <v>20</v>
       </c>
       <c r="D520" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E520" s="11"/>
     </row>
@@ -11473,13 +11470,13 @@
         <v>520</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C521" s="3">
         <v>20</v>
       </c>
       <c r="D521" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E521" s="11"/>
     </row>
@@ -11488,11 +11485,11 @@
         <v>521</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C522" s="3"/>
       <c r="D522" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E522" s="11"/>
     </row>
@@ -11501,13 +11498,13 @@
         <v>522</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C523" s="3">
         <v>33</v>
       </c>
       <c r="D523" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E523" s="11"/>
     </row>
@@ -11516,11 +11513,11 @@
         <v>523</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C524" s="3"/>
       <c r="D524" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E524" s="11"/>
     </row>
@@ -11529,11 +11526,11 @@
         <v>524</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C525" s="3"/>
       <c r="D525" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E525" s="11"/>
     </row>
@@ -11542,11 +11539,11 @@
         <v>525</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C526" s="3"/>
       <c r="D526" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E526" s="11"/>
     </row>
@@ -11555,11 +11552,11 @@
         <v>526</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C527" s="3"/>
       <c r="D527" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E527" s="11"/>
     </row>
@@ -11568,11 +11565,11 @@
         <v>527</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C528" s="3"/>
       <c r="D528" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E528" s="11"/>
     </row>
@@ -11581,11 +11578,11 @@
         <v>528</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C529" s="3"/>
       <c r="D529" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E529" s="11"/>
     </row>
@@ -11612,11 +11609,11 @@
         <v>531</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C532" s="3"/>
       <c r="D532" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E532" s="11"/>
     </row>
@@ -11634,11 +11631,11 @@
         <v>533</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C534" s="3"/>
       <c r="D534" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E534" s="11"/>
     </row>
@@ -11647,13 +11644,13 @@
         <v>534</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C535" s="3">
         <v>16</v>
       </c>
       <c r="D535" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E535" s="11"/>
     </row>
@@ -11662,13 +11659,13 @@
         <v>535</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C536" s="3">
         <v>222</v>
       </c>
       <c r="D536" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E536" s="11"/>
     </row>
@@ -11677,13 +11674,13 @@
         <v>536</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C537" s="3">
         <v>222</v>
       </c>
       <c r="D537" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E537" s="11"/>
     </row>
@@ -11692,13 +11689,13 @@
         <v>537</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C538" s="3">
         <v>222</v>
       </c>
       <c r="D538" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E538" s="11"/>
     </row>
@@ -11707,13 +11704,13 @@
         <v>538</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C539" s="3">
         <v>222</v>
       </c>
       <c r="D539" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E539" s="11"/>
     </row>
@@ -11722,13 +11719,13 @@
         <v>539</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C540" s="3">
         <v>222</v>
       </c>
       <c r="D540" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E540" s="11"/>
     </row>
@@ -11737,13 +11734,13 @@
         <v>540</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C541" s="3">
         <v>222</v>
       </c>
       <c r="D541" s="10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E541" s="11"/>
     </row>
@@ -11752,11 +11749,11 @@
         <v>541</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C542" s="3"/>
       <c r="D542" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E542" s="11"/>
     </row>
@@ -11765,13 +11762,13 @@
         <v>542</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C543" s="3">
         <v>28</v>
       </c>
       <c r="D543" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E543" s="11"/>
     </row>
@@ -11780,13 +11777,13 @@
         <v>543</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C544" s="3">
         <v>30</v>
       </c>
       <c r="D544" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E544" s="11"/>
     </row>
@@ -11795,13 +11792,13 @@
         <v>544</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C545" s="3">
         <v>30</v>
       </c>
       <c r="D545" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E545" s="11"/>
     </row>
@@ -11810,13 +11807,13 @@
         <v>545</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C546" s="3">
         <v>30</v>
       </c>
       <c r="D546" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E546" s="11"/>
     </row>
@@ -11825,11 +11822,11 @@
         <v>546</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C547" s="3"/>
       <c r="D547" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E547" s="11"/>
     </row>
@@ -11838,11 +11835,11 @@
         <v>547</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C548" s="3"/>
       <c r="D548" s="10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E548" s="11"/>
     </row>
@@ -11851,11 +11848,11 @@
         <v>548</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C549" s="3"/>
       <c r="D549" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E549" s="11"/>
     </row>
@@ -11864,11 +11861,11 @@
         <v>549</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C550" s="3"/>
       <c r="D550" s="10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E550" s="11"/>
     </row>
@@ -11877,11 +11874,11 @@
         <v>550</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C551" s="3"/>
       <c r="D551" s="10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E551" s="11"/>
     </row>
@@ -11890,7 +11887,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C552" s="3"/>
       <c r="D552" s="10" t="s">
@@ -11903,11 +11900,11 @@
         <v>552</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C553" s="3"/>
       <c r="D553" s="10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E553" s="11"/>
     </row>
@@ -11916,11 +11913,11 @@
         <v>553</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C554" s="3"/>
       <c r="D554" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E554" s="11"/>
     </row>
@@ -11929,11 +11926,11 @@
         <v>554</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C555" s="3"/>
       <c r="D555" s="10" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E555" s="11"/>
     </row>
@@ -11942,11 +11939,11 @@
         <v>555</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C556" s="3"/>
       <c r="D556" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E556" s="11"/>
     </row>
@@ -11955,11 +11952,11 @@
         <v>556</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C557" s="3"/>
       <c r="D557" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E557" s="11"/>
     </row>
@@ -11968,11 +11965,11 @@
         <v>557</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C558" s="3"/>
       <c r="D558" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E558" s="11"/>
     </row>
@@ -11981,11 +11978,11 @@
         <v>558</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C559" s="3"/>
       <c r="D559" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E559" s="11"/>
     </row>
@@ -11994,11 +11991,11 @@
         <v>559</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C560" s="3"/>
       <c r="D560" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E560" s="11"/>
     </row>
@@ -12007,11 +12004,11 @@
         <v>560</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C561" s="3"/>
       <c r="D561" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E561" s="11"/>
     </row>
@@ -12020,11 +12017,11 @@
         <v>561</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C562" s="3"/>
       <c r="D562" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E562" s="11"/>
     </row>
@@ -12033,11 +12030,11 @@
         <v>562</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C563" s="3"/>
       <c r="D563" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E563" s="11"/>
     </row>
@@ -12046,11 +12043,11 @@
         <v>563</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C564" s="3"/>
       <c r="D564" s="10" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E564" s="11"/>
     </row>
@@ -12059,11 +12056,11 @@
         <v>564</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C565" s="3"/>
       <c r="D565" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E565" s="11"/>
     </row>
@@ -12072,11 +12069,11 @@
         <v>565</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E566" s="11"/>
     </row>
@@ -12085,11 +12082,11 @@
         <v>566</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C567" s="3"/>
       <c r="D567" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E567" s="11"/>
     </row>
@@ -12098,11 +12095,11 @@
         <v>567</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C568" s="3"/>
       <c r="D568" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E568" s="11"/>
     </row>
@@ -12120,11 +12117,11 @@
         <v>569</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C570" s="3"/>
       <c r="D570" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E570" s="11"/>
     </row>
@@ -12133,11 +12130,11 @@
         <v>570</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C571" s="3"/>
       <c r="D571" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E571" s="11"/>
     </row>
@@ -12146,11 +12143,11 @@
         <v>571</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C572" s="3"/>
       <c r="D572" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E572" s="11"/>
     </row>
@@ -12159,11 +12156,11 @@
         <v>572</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C573" s="3"/>
       <c r="D573" s="10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E573" s="11"/>
     </row>
@@ -12172,11 +12169,11 @@
         <v>573</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C574" s="3"/>
       <c r="D574" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E574" s="11"/>
     </row>
@@ -12203,11 +12200,11 @@
         <v>576</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C577" s="3"/>
       <c r="D577" s="10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E577" s="11"/>
     </row>
@@ -12216,11 +12213,11 @@
         <v>577</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C578" s="3"/>
       <c r="D578" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E578" s="11"/>
     </row>
@@ -12229,11 +12226,11 @@
         <v>578</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C579" s="3"/>
       <c r="D579" s="10" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E579" s="11"/>
     </row>
@@ -12242,11 +12239,11 @@
         <v>579</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C580" s="3"/>
       <c r="D580" s="10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E580" s="11"/>
     </row>
@@ -12255,11 +12252,11 @@
         <v>580</v>
       </c>
       <c r="B581" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C581" s="12"/>
       <c r="D581" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>4</v>
@@ -12279,11 +12276,11 @@
         <v>582</v>
       </c>
       <c r="B583" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C583" s="12"/>
       <c r="D583" s="12" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E583" s="2"/>
     </row>
@@ -12292,11 +12289,11 @@
         <v>583</v>
       </c>
       <c r="B584" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C584" s="13"/>
       <c r="D584" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E584" s="2"/>
     </row>
@@ -12305,11 +12302,11 @@
         <v>584</v>
       </c>
       <c r="B585" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C585" s="12"/>
       <c r="D585" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E585" s="2"/>
     </row>
@@ -12318,11 +12315,11 @@
         <v>585</v>
       </c>
       <c r="B586" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C586" s="13"/>
       <c r="D586" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E586" s="2"/>
     </row>
@@ -12331,11 +12328,11 @@
         <v>586</v>
       </c>
       <c r="B587" s="12" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C587" s="12"/>
       <c r="D587" s="12" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E587" s="2"/>
     </row>
@@ -12344,11 +12341,11 @@
         <v>587</v>
       </c>
       <c r="B588" s="13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C588" s="13"/>
       <c r="D588" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E588" s="2"/>
     </row>
@@ -12357,11 +12354,11 @@
         <v>588</v>
       </c>
       <c r="B589" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C589" s="12"/>
       <c r="D589" s="12" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E589" s="2"/>
     </row>
@@ -12370,11 +12367,11 @@
         <v>589</v>
       </c>
       <c r="B590" s="13" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C590" s="13"/>
       <c r="D590" s="13" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E590" s="2"/>
     </row>
@@ -12383,11 +12380,11 @@
         <v>590</v>
       </c>
       <c r="B591" s="12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C591" s="12"/>
       <c r="D591" s="12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E591" s="2"/>
     </row>
@@ -12396,11 +12393,11 @@
         <v>591</v>
       </c>
       <c r="B592" s="13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C592" s="13"/>
       <c r="D592" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E592" s="2"/>
     </row>
@@ -12409,11 +12406,11 @@
         <v>592</v>
       </c>
       <c r="B593" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C593" s="12"/>
       <c r="D593" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E593" s="2"/>
     </row>
@@ -12422,11 +12419,11 @@
         <v>593</v>
       </c>
       <c r="B594" s="13" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C594" s="13"/>
       <c r="D594" s="13" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E594" s="2"/>
     </row>
@@ -12435,11 +12432,11 @@
         <v>594</v>
       </c>
       <c r="B595" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C595" s="12"/>
       <c r="D595" s="12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E595" s="2"/>
     </row>
@@ -12448,11 +12445,11 @@
         <v>595</v>
       </c>
       <c r="B596" s="13" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C596" s="13"/>
       <c r="D596" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E596" s="2"/>
     </row>
@@ -12461,11 +12458,11 @@
         <v>596</v>
       </c>
       <c r="B597" s="12" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C597" s="12"/>
       <c r="D597" s="12" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E597" s="2"/>
     </row>
@@ -12474,11 +12471,11 @@
         <v>597</v>
       </c>
       <c r="B598" s="13" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C598" s="13"/>
       <c r="D598" s="13" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E598" s="2"/>
     </row>
@@ -12496,11 +12493,11 @@
         <v>599</v>
       </c>
       <c r="B600" s="13" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C600" s="13"/>
       <c r="D600" s="13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E600" s="2"/>
     </row>
@@ -12509,11 +12506,11 @@
         <v>600</v>
       </c>
       <c r="B601" s="12" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C601" s="12"/>
       <c r="D601" s="12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E601" s="2"/>
     </row>
@@ -12522,11 +12519,11 @@
         <v>601</v>
       </c>
       <c r="B602" s="13" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C602" s="13"/>
       <c r="D602" s="13" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E602" s="2"/>
     </row>
@@ -12535,11 +12532,11 @@
         <v>602</v>
       </c>
       <c r="B603" s="12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C603" s="12"/>
       <c r="D603" s="12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E603" s="2"/>
     </row>
@@ -12548,11 +12545,11 @@
         <v>603</v>
       </c>
       <c r="B604" s="13" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C604" s="13"/>
       <c r="D604" s="13" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E604" s="2"/>
     </row>
@@ -12561,11 +12558,11 @@
         <v>604</v>
       </c>
       <c r="B605" s="12" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C605" s="12"/>
       <c r="D605" s="12" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E605" s="2"/>
     </row>
@@ -12574,11 +12571,11 @@
         <v>605</v>
       </c>
       <c r="B606" s="13" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C606" s="13"/>
       <c r="D606" s="13" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E606" s="2"/>
     </row>
@@ -12587,11 +12584,11 @@
         <v>606</v>
       </c>
       <c r="B607" s="12" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C607" s="12"/>
       <c r="D607" s="12" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E607" s="2"/>
     </row>
@@ -12600,11 +12597,11 @@
         <v>607</v>
       </c>
       <c r="B608" s="13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C608" s="13"/>
       <c r="D608" s="13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E608" s="2"/>
     </row>
@@ -12613,13 +12610,13 @@
         <v>608</v>
       </c>
       <c r="B609" s="12" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C609" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D609" s="12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E609" s="2"/>
     </row>
@@ -12628,13 +12625,13 @@
         <v>609</v>
       </c>
       <c r="B610" s="13" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C610" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D610" s="13" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E610" s="2"/>
     </row>
@@ -12643,13 +12640,13 @@
         <v>610</v>
       </c>
       <c r="B611" s="12" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C611" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D611" s="12" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E611" s="2"/>
     </row>
@@ -12658,13 +12655,13 @@
         <v>611</v>
       </c>
       <c r="B612" s="13" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C612" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D612" s="13" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E612" s="2"/>
     </row>
@@ -12673,13 +12670,13 @@
         <v>612</v>
       </c>
       <c r="B613" s="12" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C613" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D613" s="12" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E613" s="2"/>
     </row>
@@ -12706,13 +12703,13 @@
         <v>615</v>
       </c>
       <c r="B616" s="13" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C616" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D616" s="13" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E616" s="2"/>
     </row>
@@ -12721,13 +12718,13 @@
         <v>616</v>
       </c>
       <c r="B617" s="12" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C617" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D617" s="12" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E617" s="2"/>
     </row>
@@ -12736,11 +12733,11 @@
         <v>617</v>
       </c>
       <c r="B618" s="13" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C618" s="13"/>
       <c r="D618" s="13" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E618" s="2"/>
     </row>
@@ -12749,11 +12746,11 @@
         <v>618</v>
       </c>
       <c r="B619" s="12" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C619" s="12"/>
       <c r="D619" s="12" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E619" s="2"/>
     </row>
@@ -12771,13 +12768,13 @@
         <v>620</v>
       </c>
       <c r="B621" s="12" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C621" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D621" s="12" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E621" s="2"/>
     </row>
@@ -12786,13 +12783,13 @@
         <v>621</v>
       </c>
       <c r="B622" s="13" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C622" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D622" s="13" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E622" s="2"/>
     </row>
@@ -12801,13 +12798,13 @@
         <v>622</v>
       </c>
       <c r="B623" s="12" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C623" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D623" s="12" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E623" s="2"/>
     </row>
@@ -12816,13 +12813,13 @@
         <v>623</v>
       </c>
       <c r="B624" s="13" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C624" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D624" s="13" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E624" s="2"/>
     </row>
@@ -12831,13 +12828,13 @@
         <v>624</v>
       </c>
       <c r="B625" s="12" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C625" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D625" s="12" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E625" s="2"/>
     </row>
@@ -12846,13 +12843,13 @@
         <v>625</v>
       </c>
       <c r="B626" s="13" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C626" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D626" s="13" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E626" s="2"/>
     </row>
@@ -12861,13 +12858,13 @@
         <v>626</v>
       </c>
       <c r="B627" s="12" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C627" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D627" s="12" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E627" s="2"/>
     </row>
@@ -12876,13 +12873,13 @@
         <v>627</v>
       </c>
       <c r="B628" s="13" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C628" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D628" s="13" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E628" s="2"/>
     </row>
@@ -12891,11 +12888,11 @@
         <v>628</v>
       </c>
       <c r="B629" s="12" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C629" s="12"/>
       <c r="D629" s="12" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E629" s="2"/>
     </row>
@@ -12904,11 +12901,11 @@
         <v>629</v>
       </c>
       <c r="B630" s="13" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C630" s="13"/>
       <c r="D630" s="13" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E630" s="2"/>
     </row>
@@ -12917,11 +12914,11 @@
         <v>630</v>
       </c>
       <c r="B631" s="12" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C631" s="12"/>
       <c r="D631" s="12" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E631" s="2"/>
     </row>
@@ -12930,13 +12927,13 @@
         <v>631</v>
       </c>
       <c r="B632" s="13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C632" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D632" s="13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E632" s="2"/>
     </row>
@@ -12954,13 +12951,13 @@
         <v>633</v>
       </c>
       <c r="B634" s="13" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C634" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D634" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E634" s="2"/>
     </row>
@@ -12969,13 +12966,13 @@
         <v>634</v>
       </c>
       <c r="B635" s="12" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C635" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D635" s="12" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E635" s="2"/>
     </row>
@@ -12984,13 +12981,13 @@
         <v>635</v>
       </c>
       <c r="B636" s="13" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C636" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D636" s="13" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E636" s="2"/>
     </row>
@@ -12999,13 +12996,13 @@
         <v>636</v>
       </c>
       <c r="B637" s="12" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C637" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D637" s="12" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E637" s="2"/>
     </row>
@@ -13014,13 +13011,13 @@
         <v>637</v>
       </c>
       <c r="B638" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C638" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D638" s="13" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E638" s="2"/>
     </row>
@@ -13029,13 +13026,13 @@
         <v>638</v>
       </c>
       <c r="B639" s="12" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C639" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D639" s="12" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E639" s="2"/>
     </row>
@@ -13044,13 +13041,13 @@
         <v>639</v>
       </c>
       <c r="B640" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C640" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D640" s="13" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E640" s="2"/>
     </row>
@@ -13059,13 +13056,13 @@
         <v>640</v>
       </c>
       <c r="B641" s="12" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C641" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D641" s="12" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E641" s="2"/>
     </row>
@@ -13074,11 +13071,11 @@
         <v>641</v>
       </c>
       <c r="B642" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C642" s="13"/>
       <c r="D642" s="13" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E642" s="2"/>
     </row>
@@ -13087,11 +13084,11 @@
         <v>642</v>
       </c>
       <c r="B643" s="12" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C643" s="12"/>
       <c r="D643" s="12" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E643" s="2"/>
     </row>
@@ -13100,13 +13097,13 @@
         <v>643</v>
       </c>
       <c r="B644" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C644" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D644" s="13" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E644" s="2"/>
     </row>
@@ -13115,13 +13112,13 @@
         <v>644</v>
       </c>
       <c r="B645" s="12" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C645" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D645" s="12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E645" s="2"/>
     </row>
@@ -13130,11 +13127,11 @@
         <v>645</v>
       </c>
       <c r="B646" s="13" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C646" s="13"/>
       <c r="D646" s="13" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E646" s="2"/>
     </row>
@@ -13143,11 +13140,11 @@
         <v>646</v>
       </c>
       <c r="B647" s="12" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C647" s="12"/>
       <c r="D647" s="12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E647" s="2"/>
     </row>
@@ -13156,11 +13153,11 @@
         <v>647</v>
       </c>
       <c r="B648" s="13" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C648" s="13"/>
       <c r="D648" s="13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E648" s="2"/>
     </row>
@@ -13169,11 +13166,11 @@
         <v>648</v>
       </c>
       <c r="B649" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C649" s="12"/>
       <c r="D649" s="12" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E649" s="2"/>
     </row>
@@ -13182,11 +13179,11 @@
         <v>649</v>
       </c>
       <c r="B650" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C650" s="13"/>
       <c r="D650" s="13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E650" s="2"/>
     </row>
@@ -13195,11 +13192,11 @@
         <v>650</v>
       </c>
       <c r="B651" s="12" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C651" s="12"/>
       <c r="D651" s="12" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E651" s="2"/>
     </row>
@@ -13253,11 +13250,11 @@
         <v>656</v>
       </c>
       <c r="B657" s="12" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C657" s="12"/>
       <c r="D657" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E657" s="2"/>
     </row>
@@ -13266,11 +13263,11 @@
         <v>657</v>
       </c>
       <c r="B658" s="13" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C658" s="13"/>
       <c r="D658" s="13" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E658" s="2"/>
     </row>
@@ -13279,11 +13276,11 @@
         <v>658</v>
       </c>
       <c r="B659" s="12" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C659" s="12"/>
       <c r="D659" s="12" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E659" s="2"/>
     </row>
@@ -13292,11 +13289,11 @@
         <v>659</v>
       </c>
       <c r="B660" s="13" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C660" s="13"/>
       <c r="D660" s="13" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E660" s="2"/>
     </row>
@@ -13305,11 +13302,11 @@
         <v>660</v>
       </c>
       <c r="B661" s="12" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C661" s="12"/>
       <c r="D661" s="12" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E661" s="2"/>
     </row>
@@ -13318,11 +13315,11 @@
         <v>661</v>
       </c>
       <c r="B662" s="13" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C662" s="13"/>
       <c r="D662" s="13" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E662" s="2"/>
     </row>
@@ -13331,11 +13328,11 @@
         <v>662</v>
       </c>
       <c r="B663" s="12" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C663" s="12"/>
       <c r="D663" s="12" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E663" s="2"/>
     </row>
@@ -13362,11 +13359,11 @@
         <v>665</v>
       </c>
       <c r="B666" s="13" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C666" s="13"/>
       <c r="D666" s="13" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E666" s="2"/>
     </row>
@@ -13375,11 +13372,11 @@
         <v>666</v>
       </c>
       <c r="B667" s="12" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C667" s="12"/>
       <c r="D667" s="12" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E667" s="2"/>
     </row>
@@ -13388,11 +13385,11 @@
         <v>667</v>
       </c>
       <c r="B668" s="13" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C668" s="13"/>
       <c r="D668" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E668" s="2"/>
     </row>
@@ -13428,11 +13425,11 @@
         <v>671</v>
       </c>
       <c r="B672" s="13" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C672" s="13"/>
       <c r="D672" s="13" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E672" s="2"/>
     </row>
@@ -13441,11 +13438,11 @@
         <v>672</v>
       </c>
       <c r="B673" s="12" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C673" s="12"/>
       <c r="D673" s="12" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E673" s="2"/>
     </row>
@@ -13454,11 +13451,11 @@
         <v>673</v>
       </c>
       <c r="B674" s="13" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C674" s="13"/>
       <c r="D674" s="13" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E674" s="2"/>
     </row>
@@ -13467,11 +13464,11 @@
         <v>674</v>
       </c>
       <c r="B675" s="12" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C675" s="12"/>
       <c r="D675" s="12" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E675" s="2"/>
     </row>
@@ -13480,11 +13477,11 @@
         <v>675</v>
       </c>
       <c r="B676" s="13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C676" s="13"/>
       <c r="D676" s="13" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E676" s="2"/>
     </row>
@@ -13493,11 +13490,11 @@
         <v>676</v>
       </c>
       <c r="B677" s="12" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C677" s="12"/>
       <c r="D677" s="12" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E677" s="2"/>
     </row>
@@ -13506,11 +13503,11 @@
         <v>677</v>
       </c>
       <c r="B678" s="13" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C678" s="13"/>
       <c r="D678" s="13" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E678" s="2"/>
     </row>
@@ -13519,11 +13516,11 @@
         <v>678</v>
       </c>
       <c r="B679" s="12" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C679" s="12"/>
       <c r="D679" s="12" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E679" s="2"/>
     </row>
@@ -13532,11 +13529,11 @@
         <v>679</v>
       </c>
       <c r="B680" s="13" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C680" s="13"/>
       <c r="D680" s="13" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E680" s="2"/>
     </row>
@@ -13545,11 +13542,11 @@
         <v>680</v>
       </c>
       <c r="B681" s="12" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C681" s="12"/>
       <c r="D681" s="12" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E681" s="2"/>
     </row>
@@ -13558,11 +13555,11 @@
         <v>681</v>
       </c>
       <c r="B682" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C682" s="13"/>
       <c r="D682" s="13" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E682" s="2"/>
     </row>
@@ -13571,11 +13568,11 @@
         <v>682</v>
       </c>
       <c r="B683" s="12" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C683" s="12"/>
       <c r="D683" s="12" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E683" s="2"/>
     </row>
@@ -13584,11 +13581,11 @@
         <v>683</v>
       </c>
       <c r="B684" s="13" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C684" s="13"/>
       <c r="D684" s="13" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E684" s="2"/>
     </row>
@@ -13606,11 +13603,11 @@
         <v>685</v>
       </c>
       <c r="B686" s="13" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C686" s="13"/>
       <c r="D686" s="13" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E686" s="2"/>
     </row>
@@ -13619,11 +13616,11 @@
         <v>686</v>
       </c>
       <c r="B687" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C687" s="12"/>
       <c r="D687" s="12" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E687" s="2"/>
     </row>
@@ -13632,11 +13629,11 @@
         <v>687</v>
       </c>
       <c r="B688" s="13" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C688" s="13"/>
       <c r="D688" s="13" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E688" s="2"/>
     </row>
@@ -13645,11 +13642,11 @@
         <v>688</v>
       </c>
       <c r="B689" s="12" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C689" s="12"/>
       <c r="D689" s="12" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E689" s="2"/>
     </row>
@@ -13667,13 +13664,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="12" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C691" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D691" s="12" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E691" s="2"/>
     </row>
@@ -13682,11 +13679,11 @@
         <v>691</v>
       </c>
       <c r="B692" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C692" s="13"/>
       <c r="D692" s="13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E692" s="2"/>
     </row>
@@ -13713,13 +13710,13 @@
         <v>694</v>
       </c>
       <c r="B695" s="12" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C695" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D695" s="12" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E695" s="2"/>
     </row>
@@ -13728,13 +13725,13 @@
         <v>695</v>
       </c>
       <c r="B696" s="13" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C696" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D696" s="13" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E696" s="2"/>
     </row>
@@ -13743,13 +13740,13 @@
         <v>696</v>
       </c>
       <c r="B697" s="12" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C697" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D697" s="12" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E697" s="2"/>
     </row>
@@ -13758,11 +13755,11 @@
         <v>697</v>
       </c>
       <c r="B698" s="13" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C698" s="13"/>
       <c r="D698" s="13" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E698" s="2"/>
     </row>
@@ -13771,13 +13768,13 @@
         <v>698</v>
       </c>
       <c r="B699" s="12" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C699" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D699" s="12" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E699" s="2"/>
     </row>
@@ -13786,11 +13783,11 @@
         <v>699</v>
       </c>
       <c r="B700" s="13" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C700" s="13"/>
       <c r="D700" s="13" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E700" s="2"/>
     </row>
@@ -13799,11 +13796,11 @@
         <v>700</v>
       </c>
       <c r="B701" s="12" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C701" s="12"/>
       <c r="D701" s="12" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E701" s="2"/>
     </row>
@@ -13812,11 +13809,11 @@
         <v>701</v>
       </c>
       <c r="B702" s="13" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C702" s="13"/>
       <c r="D702" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E702" s="2"/>
     </row>
@@ -13825,11 +13822,11 @@
         <v>702</v>
       </c>
       <c r="B703" s="12" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C703" s="12"/>
       <c r="D703" s="12" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E703" s="2"/>
     </row>
@@ -13838,11 +13835,11 @@
         <v>703</v>
       </c>
       <c r="B704" s="13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C704" s="13"/>
       <c r="D704" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E704" s="2"/>
     </row>
@@ -13851,13 +13848,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="12" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C705" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D705" s="12" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E705" s="2"/>
     </row>
@@ -13866,11 +13863,11 @@
         <v>705</v>
       </c>
       <c r="B706" s="13" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C706" s="13"/>
       <c r="D706" s="13" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E706" s="2"/>
     </row>
@@ -13879,13 +13876,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="12" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C707" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D707" s="12" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -13893,13 +13890,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="13" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C708" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D708" s="13" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -13907,13 +13904,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="12" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C709" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D709" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13921,13 +13918,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="13" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C710" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D710" s="13" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -13935,13 +13932,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="12" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C711" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D711" s="12" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -13949,11 +13946,11 @@
         <v>711</v>
       </c>
       <c r="B712" s="13" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C712" s="13"/>
       <c r="D712" s="13" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -13961,13 +13958,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="12" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C713" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D713" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13975,13 +13972,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C714" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D714" s="13" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -13989,13 +13986,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="12" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C715" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D715" s="12" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -14003,13 +14000,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C716" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D716" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -14017,13 +14014,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="12" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C717" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D717" s="12" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -14031,13 +14028,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="13" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C718" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D718" s="13" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -14045,13 +14042,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="12" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C719" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D719" s="12" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -14059,13 +14056,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="13" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C720" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D720" s="13" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -14073,13 +14070,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="12" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C721" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D721" s="12" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -14087,11 +14084,11 @@
         <v>721</v>
       </c>
       <c r="B722" s="13" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C722" s="13"/>
       <c r="D722" s="13" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -14099,13 +14096,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C723" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D723" s="12" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -14113,13 +14110,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="13" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C724" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D724" s="13" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -14127,13 +14124,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="12" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C725" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D725" s="12" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -14141,13 +14138,13 @@
         <v>725</v>
       </c>
       <c r="B726" s="13" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C726" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D726" s="13" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -14155,13 +14152,13 @@
         <v>726</v>
       </c>
       <c r="B727" s="12" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C727" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D727" s="12" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -14169,13 +14166,13 @@
         <v>727</v>
       </c>
       <c r="B728" s="13" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C728" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D728" s="13" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -14183,13 +14180,13 @@
         <v>728</v>
       </c>
       <c r="B729" s="12" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C729" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D729" s="12" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -14197,13 +14194,13 @@
         <v>729</v>
       </c>
       <c r="B730" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C730" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D730" s="13" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -14211,13 +14208,13 @@
         <v>730</v>
       </c>
       <c r="B731" s="12" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C731" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D731" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -14225,11 +14222,11 @@
         <v>731</v>
       </c>
       <c r="B732" s="13" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C732" s="13"/>
       <c r="D732" s="13" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -14237,13 +14234,13 @@
         <v>732</v>
       </c>
       <c r="B733" s="12" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C733" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D733" s="12" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -14251,13 +14248,13 @@
         <v>733</v>
       </c>
       <c r="B734" s="13" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C734" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D734" s="13" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -14265,11 +14262,11 @@
         <v>734</v>
       </c>
       <c r="B735" s="12" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C735" s="12"/>
       <c r="D735" s="12" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -14277,13 +14274,13 @@
         <v>735</v>
       </c>
       <c r="B736" s="13" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C736" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D736" s="13" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -14291,13 +14288,13 @@
         <v>736</v>
       </c>
       <c r="B737" s="12" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C737" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D737" s="12" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -14305,11 +14302,11 @@
         <v>737</v>
       </c>
       <c r="B738" s="13" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C738" s="13"/>
       <c r="D738" s="13" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -14317,13 +14314,13 @@
         <v>738</v>
       </c>
       <c r="B739" s="12" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C739" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D739" s="12" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -14331,13 +14328,13 @@
         <v>739</v>
       </c>
       <c r="B740" s="13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C740" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D740" s="13" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -14345,11 +14342,11 @@
         <v>740</v>
       </c>
       <c r="B741" s="12" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C741" s="12"/>
       <c r="D741" s="12" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -14357,13 +14354,13 @@
         <v>741</v>
       </c>
       <c r="B742" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C742" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D742" s="13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -14371,13 +14368,13 @@
         <v>742</v>
       </c>
       <c r="B743" s="12" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C743" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D743" s="12" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -14385,11 +14382,11 @@
         <v>743</v>
       </c>
       <c r="B744" s="13" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C744" s="13"/>
       <c r="D744" s="13" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -14397,11 +14394,11 @@
         <v>744</v>
       </c>
       <c r="B745" s="12" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C745" s="12"/>
       <c r="D745" s="12" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -14417,11 +14414,11 @@
         <v>746</v>
       </c>
       <c r="B747" s="12" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C747" s="12"/>
       <c r="D747" s="12" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -14429,11 +14426,11 @@
         <v>747</v>
       </c>
       <c r="B748" s="13" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C748" s="13"/>
       <c r="D748" s="13" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -14441,11 +14438,11 @@
         <v>748</v>
       </c>
       <c r="B749" s="12" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C749" s="12"/>
       <c r="D749" s="12" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -14453,13 +14450,13 @@
         <v>749</v>
       </c>
       <c r="B750" s="13" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C750" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D750" s="13" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -14467,11 +14464,11 @@
         <v>750</v>
       </c>
       <c r="B751" s="12" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C751" s="12"/>
       <c r="D751" s="12" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -14479,13 +14476,13 @@
         <v>751</v>
       </c>
       <c r="B752" s="13" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C752" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D752" s="13" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -14493,13 +14490,13 @@
         <v>752</v>
       </c>
       <c r="B753" s="12" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C753" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D753" s="12" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -14507,13 +14504,13 @@
         <v>753</v>
       </c>
       <c r="B754" s="13" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C754" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D754" s="13" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -14521,13 +14518,13 @@
         <v>754</v>
       </c>
       <c r="B755" s="12" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C755" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D755" s="12" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -14535,13 +14532,13 @@
         <v>755</v>
       </c>
       <c r="B756" s="13" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C756" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D756" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -14549,11 +14546,11 @@
         <v>756</v>
       </c>
       <c r="B757" s="12" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C757" s="12"/>
       <c r="D757" s="12" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -14561,13 +14558,13 @@
         <v>757</v>
       </c>
       <c r="B758" s="13" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C758" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D758" s="13" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -14575,11 +14572,11 @@
         <v>758</v>
       </c>
       <c r="B759" s="12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C759" s="12"/>
       <c r="D759" s="12" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -14587,13 +14584,13 @@
         <v>759</v>
       </c>
       <c r="B760" s="13" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C760" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D760" s="13" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -14601,11 +14598,11 @@
         <v>760</v>
       </c>
       <c r="B761" s="12" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C761" s="12"/>
       <c r="D761" s="12" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -14613,13 +14610,13 @@
         <v>761</v>
       </c>
       <c r="B762" s="13" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C762" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D762" s="13" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -14627,11 +14624,11 @@
         <v>762</v>
       </c>
       <c r="B763" s="12" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C763" s="12"/>
       <c r="D763" s="12" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -14639,11 +14636,11 @@
         <v>763</v>
       </c>
       <c r="B764" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C764" s="13"/>
       <c r="D764" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -14651,13 +14648,13 @@
         <v>764</v>
       </c>
       <c r="B765" s="12" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C765" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D765" s="12" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -14665,13 +14662,13 @@
         <v>765</v>
       </c>
       <c r="B766" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C766" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D766" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -14679,11 +14676,11 @@
         <v>766</v>
       </c>
       <c r="B767" s="12" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C767" s="12"/>
       <c r="D767" s="12" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -14691,11 +14688,11 @@
         <v>767</v>
       </c>
       <c r="B768" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C768" s="13"/>
       <c r="D768" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -14703,13 +14700,13 @@
         <v>768</v>
       </c>
       <c r="B769" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C769" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D769" s="12" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -14717,11 +14714,11 @@
         <v>769</v>
       </c>
       <c r="B770" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C770" s="13"/>
       <c r="D770" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -14729,11 +14726,11 @@
         <v>770</v>
       </c>
       <c r="B771" s="12" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C771" s="12"/>
       <c r="D771" s="12" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -14741,13 +14738,13 @@
         <v>771</v>
       </c>
       <c r="B772" s="13" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C772" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D772" s="13" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -14755,13 +14752,13 @@
         <v>772</v>
       </c>
       <c r="B773" s="12" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C773" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D773" s="12" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -14769,13 +14766,13 @@
         <v>773</v>
       </c>
       <c r="B774" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C774" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D774" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -14783,11 +14780,11 @@
         <v>774</v>
       </c>
       <c r="B775" s="12" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C775" s="12"/>
       <c r="D775" s="12" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -14795,11 +14792,11 @@
         <v>775</v>
       </c>
       <c r="B776" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C776" s="13"/>
       <c r="D776" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -14807,11 +14804,11 @@
         <v>776</v>
       </c>
       <c r="B777" s="12" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C777" s="12"/>
       <c r="D777" s="12" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -14819,13 +14816,13 @@
         <v>777</v>
       </c>
       <c r="B778" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C778" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D778" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -14833,11 +14830,11 @@
         <v>778</v>
       </c>
       <c r="B779" s="12" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C779" s="12"/>
       <c r="D779" s="12" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -14845,13 +14842,13 @@
         <v>779</v>
       </c>
       <c r="B780" s="13" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C780" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D780" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -14859,13 +14856,13 @@
         <v>780</v>
       </c>
       <c r="B781" s="12" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C781" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D781" s="12" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14873,13 +14870,13 @@
         <v>781</v>
       </c>
       <c r="B782" s="13" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C782" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D782" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -14887,11 +14884,11 @@
         <v>782</v>
       </c>
       <c r="B783" s="12" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C783" s="12"/>
       <c r="D783" s="12" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14899,11 +14896,11 @@
         <v>783</v>
       </c>
       <c r="B784" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C784" s="13"/>
       <c r="D784" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14911,13 +14908,13 @@
         <v>784</v>
       </c>
       <c r="B785" s="12" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C785" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D785" s="12" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -14925,11 +14922,11 @@
         <v>785</v>
       </c>
       <c r="B786" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C786" s="13"/>
       <c r="D786" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14937,13 +14934,13 @@
         <v>786</v>
       </c>
       <c r="B787" s="12" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C787" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D787" s="12" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14951,11 +14948,11 @@
         <v>787</v>
       </c>
       <c r="B788" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C788" s="13"/>
       <c r="D788" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -14963,11 +14960,11 @@
         <v>788</v>
       </c>
       <c r="B789" s="12" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C789" s="12"/>
       <c r="D789" s="12" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -14975,13 +14972,13 @@
         <v>789</v>
       </c>
       <c r="B790" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C790" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D790" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -15045,11 +15042,11 @@
         <v>797</v>
       </c>
       <c r="B798" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C798" s="13"/>
       <c r="D798" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -15057,13 +15054,13 @@
         <v>798</v>
       </c>
       <c r="B799" s="12" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C799" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D799" s="12" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
   </sheetData>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20880" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="zh-cn" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310">
   <si>
     <t>ID</t>
   </si>
@@ -2930,52 +2930,52 @@
     <t>地形对齐</t>
   </si>
   <si>
-    <t>Let you align area.</t>
-  </si>
-  <si>
-    <t>使你对齐区域。</t>
-  </si>
-  <si>
-    <t>Small size living place. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>小型住所。低怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
-  </si>
-  <si>
-    <t>Medium size living place. Above average pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>中型住所。高于平均的怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
-  </si>
-  <si>
-    <t>Improved medium size living place. Have extra bedrooms. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>进阶中型住所。有额外的卧室。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
-  </si>
-  <si>
-    <t>Large size living place. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>大型住所。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
-  </si>
-  <si>
-    <t>Improved large size living place. Have extra bedrooms. Extremely high pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>进阶大型住所。有额外的卧室。超高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
-  </si>
-  <si>
-    <t>Temporary house. Extremely low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>临时房屋。超低怀孕几率。容量：18个村民。幸福：+3。强度：+6。</t>
-  </si>
-  <si>
-    <t>Improved temporary house. Have extra living rooms. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>进阶临时房屋。有额外的起居室。低怀孕几率容量：18个村民。幸福：+3。强度：+6。</t>
+    <t>Let you flatten area.</t>
+  </si>
+  <si>
+    <t>使你平整区域。</t>
+  </si>
+  <si>
+    <t>Small size living place. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: 0. Strenght: 75.</t>
+  </si>
+  <si>
+    <t>小型住所。低怀孕几率。容量：%WORKER_COUNT%个村民。幸福：0。强度：75。</t>
+  </si>
+  <si>
+    <t>Medium size living place. Above average pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +10. Strenght: 110.</t>
+  </si>
+  <si>
+    <t>中型住所。高于平均的怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+10。强度：110。</t>
+  </si>
+  <si>
+    <t>Improved medium size living place. Have extra bedrooms. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +20. Strenght: 220.</t>
+  </si>
+  <si>
+    <t>进阶中型住所。有额外的卧室。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+20。强度：+220。</t>
+  </si>
+  <si>
+    <t>Large size living place. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +20. Strenght: 540.</t>
+  </si>
+  <si>
+    <t>大型住所。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+20。强度：540。</t>
+  </si>
+  <si>
+    <t>Improved large size living place. Have extra bedrooms. Extremely high pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +30. Strenght: 780.</t>
+  </si>
+  <si>
+    <t>进阶大型住所。有额外的卧室。超高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+30。强度：+780。</t>
+  </si>
+  <si>
+    <t>Temporary house. Extremely low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: 0. Strenght: 1000.</t>
+  </si>
+  <si>
+    <t>临时房屋。超低怀孕几率。容量：18个村民。幸福：0。强度：1000。</t>
+  </si>
+  <si>
+    <t>Improved temporary house. Have extra living rooms. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +5. Strenght: 1500.</t>
+  </si>
+  <si>
+    <t>进阶临时房屋。有额外的起居室。低怀孕几率容量：18个村民。幸福：+5。强度：1500。</t>
   </si>
   <si>
     <t>Clay gathering. Number of workers: %WORKER_COUNT%.</t>
@@ -3074,25 +3074,25 @@
     <t>焚烧尸体。每具尸体需要一堆柴。行动半径：%ACTION_RADIUS%。</t>
   </si>
   <si>
-    <t>Cows keeping for meat and milk gathering. Food: water, hay during cold time. Hunter required for the protection of wild enemies. Number of workers: %WORKER_COUNT%.</t>
+    <t>Cows keeping for meat and milk gathering. Food: water, hay during cold time. Hunter is required for the protection from wild animals. Number of workers: %WORKER_COUNT%.</t>
   </si>
   <si>
     <t>养牛保持肉类及奶制品补给。食物：水，干草在寒冷的时候。需要猎人保护。工人数量：%WORKER_COUNT%。</t>
   </si>
   <si>
-    <t>Chickens keeping for meat and eggs gathering. Food: water, oat. Hunter required for the protection of wild enemies. Number of workers: %WORKER_COUNT%.</t>
+    <t>Chickens keeping for meat and eggs gathering. Food: water, oat. Hunter is required for the protection from wild animals. Number of workers: %WORKER_COUNT%.</t>
   </si>
   <si>
     <t>养鸡保持肉类及鸡蛋补给。食物：水，燕麦。需要猎人保护。工人数量：%WORKER_COUNT%。</t>
   </si>
   <si>
-    <t>Pigs keeping for meat gathering. Food: water, oat. Hunter required for the protection of wild enemies. Number of workers: %WORKER_COUNT%.</t>
+    <t>Pigs keeping for meat gathering. Food: water, oat. Hunter is required for the protection from wild animals. Number of workers: %WORKER_COUNT%.</t>
   </si>
   <si>
     <t>养猪保持肉类补给。食物：水，燕麦。需要猎人保护。工人数量：%WORKER_COUNT%。</t>
   </si>
   <si>
-    <t>Sheeps keeping for meat and wool gathering. Food: water, hay during cold time. Hunter required for the protection of wild enemies. Number of workers: %WORKER_COUNT%.</t>
+    <t>Sheeps keeping for meat and wool gathering. Food: water, hay during cold time. Hunter is required for the protection from wild animals. Number of workers: %WORKER_COUNT%.</t>
   </si>
   <si>
     <t>养羊保持肉类及羊毛补给。食物：水，干草在寒冷的时候。需要猎人保护。工人数量：%WORKER_COUNT%。</t>
@@ -3536,7 +3536,7 @@
     <t>在屏幕的右上方可以看到“小地图”。它显示了整座岛的地图、计划及建造的房屋以及目前摄像机位置。</t>
   </si>
   <si>
-    <t>In the bottom left area of screen you can find the game events log. Besides the list there is panel of filter keys, which can be used to swicth on/off the display of certain events.</t>
+    <t>In the bottom left area of screen you can find the game events log. Besides the list there is panel of filter keys, which can be used to switch on/off the display of certain events.</t>
   </si>
   <si>
     <t>屏幕的左下角是游戏的“事件日志”。而且列表的右边还有过滤按钮面板，可以显示或者隐藏某些事件。</t>
@@ -3578,7 +3578,7 @@
     <t>你可以暂停游戏来给自己更多的时间分配任务给村民。在这种情况下所有的任务都会按照顺序保存。只需要按下&lt;暂停&gt;按钮。</t>
   </si>
   <si>
-    <t>Now open the group of common information by pressing the specified button.</t>
+    <t>Now open the group of general information by pressing the specified button.</t>
   </si>
   <si>
     <t>现在通过指定的按钮来打开&lt;一般信息&gt;按钮组。</t>
@@ -3698,10 +3698,10 @@
     <t>你还可以通过点击他的头像来直接控制他。</t>
   </si>
   <si>
-    <t>Now carry resources to barn - the large building with barrels at the entrance - which is situated near ghe well. Get close to the doorstep until you see hint about interaction and then leave resources there.</t>
-  </si>
-  <si>
-    <t>现在控制他靠近“谷仓”直到看到&lt;交互&gt;提示，然后根据提示单击[鼠标左键]将背负的资源放入谷仓。</t>
+    <t>Now carry resources to barn - the large building with barrels at the entrance - which is situated near the well. Get close to the doorstep until you see hint about interaction and then leave resources there.</t>
+  </si>
+  <si>
+    <t>现在控制他靠近“谷仓”（靠近水井，门口有桶的建筑物）直到看到&lt;交互&gt;提示，然后根据提示单击[鼠标左键]将背负的资源放入谷仓。</t>
   </si>
   <si>
     <t>If you leave resources lying on the ground, someone will come for them and move them to warehouse.</t>
@@ -3800,7 +3800,7 @@
     <t>等待你的建筑工完成“农田”的建造。</t>
   </si>
   <si>
-    <t>There are different crops, which you can plant on fields. Every crop has its own set of characteristics and weather and requirements for care.</t>
+    <t>There are different crops, which you can plant on fields. Every crop has its own set of characteristics and weather requirements for care.</t>
   </si>
   <si>
     <t>这里有多种不同的作物供你选择。每一种作物都有自己的特性以及对天气和湿度的要求。</t>
@@ -3872,10 +3872,10 @@
     <t>打开&lt;地形改造&gt;按钮组。</t>
   </si>
   <si>
-    <t>Now press the flatten button.</t>
-  </si>
-  <si>
-    <t>现在点击&lt;平整&gt;按钮。</t>
+    <t>Now press the raise area button.</t>
+  </si>
+  <si>
+    <t>现在点击&lt;抬升或者降低区域&gt;按钮。</t>
   </si>
   <si>
     <t>Select a 12x12 area, click the left mouse button, then choose height level and confirm it by clicking the left mouse button again. Look at the time needed for flattening in the setup window - the lower the number, the quicker.</t>
@@ -3920,10 +3920,34 @@
     <t>进阶棚屋</t>
   </si>
   <si>
-    <t>Improved small size living place. Have extra bedroom. Average pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +3. Strenght: +6.</t>
-  </si>
-  <si>
-    <t>进阶小型住所。高于平均的怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+3。强度：+6。</t>
+    <t>Improved small size living place. Have extra bedroom. Average pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +5. Strenght: 90.</t>
+  </si>
+  <si>
+    <t>进阶小型住所。高于平均的怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+5。强度：90。</t>
+  </si>
+  <si>
+    <t>To discover new means of producing food, such as through new crops or livestock, build a port. This allows the player to construct ships, organize expeditions and send people out to search for new kinds of crops, trees and even animals.</t>
+  </si>
+  <si>
+    <t>通过建造一座港口来发现新的粮食生产方式，比如新的农作物和牲畜。这将允许玩家建造船只，组织探险队并派遣人员去寻找新的作物、树木及物种。</t>
+  </si>
+  <si>
+    <t>Disasters</t>
+  </si>
+  <si>
+    <t>灾难</t>
+  </si>
+  <si>
+    <t>Mouse sensitivity</t>
+  </si>
+  <si>
+    <t>鼠标灵敏度</t>
+  </si>
+  <si>
+    <t>Mouse sensitivity in the first-person control mode</t>
+  </si>
+  <si>
+    <t>第一人称模式下的鼠标灵敏度</t>
   </si>
 </sst>
 </file>
@@ -3931,10 +3955,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3964,13 +3988,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3978,7 +3995,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4007,17 +4024,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4031,7 +4039,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -4039,46 +4046,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4101,9 +4070,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4140,7 +4164,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,7 +4236,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4170,49 +4296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4224,85 +4314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4351,6 +4375,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4373,6 +4406,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4402,21 +4444,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4431,20 +4458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4454,10 +4478,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4466,133 +4490,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4974,10 +4998,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E799"/>
+  <dimension ref="A1:E803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="D498" sqref="D498"/>
+    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
+      <selection activeCell="D800" sqref="D800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -15061,6 +15085,60 @@
       </c>
       <c r="D799" s="12" t="s">
         <v>1301</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4">
+      <c r="A800" s="13">
+        <v>799</v>
+      </c>
+      <c r="B800" s="13" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C800" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D800" s="13" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4">
+      <c r="A801" s="12">
+        <v>800</v>
+      </c>
+      <c r="B801" s="12" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C801" s="12">
+        <v>12</v>
+      </c>
+      <c r="D801" s="12" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4">
+      <c r="A802" s="13">
+        <v>801</v>
+      </c>
+      <c r="B802" s="13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C802" s="13">
+        <v>17</v>
+      </c>
+      <c r="D802" s="13" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4">
+      <c r="A803" s="12">
+        <v>802</v>
+      </c>
+      <c r="B803" s="12" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C803" s="12"/>
+      <c r="D803" s="12" t="s">
+        <v>1309</v>
       </c>
     </row>
   </sheetData>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="zh-cn" sheetId="1" r:id="rId1"/>
@@ -1531,19 +1531,19 @@
     <t>The building in standby mode</t>
   </si>
   <si>
-    <t>这栋建筑已经暂停施工</t>
+    <t>建筑物已经暂停施工</t>
   </si>
   <si>
     <t>No workers are assigned to the building</t>
   </si>
   <si>
-    <t>这栋建筑没有任何工人</t>
+    <t>建筑物没有任何工人</t>
   </si>
   <si>
     <t>The building is almost full</t>
   </si>
   <si>
-    <t>这栋栋建筑几乎满了</t>
+    <t>建筑物几乎满了</t>
   </si>
   <si>
     <t>No fuel available for heating</t>
@@ -1567,13 +1567,13 @@
     <t>The building is on fire</t>
   </si>
   <si>
-    <t>这栋建筑着火了</t>
+    <t>建筑物着火了</t>
   </si>
   <si>
     <t>The building has been destroyed</t>
   </si>
   <si>
-    <t>这栋建筑被摧毁了</t>
+    <t>建筑物被摧毁了</t>
   </si>
   <si>
     <t>The limit has been reached</t>
@@ -1693,7 +1693,7 @@
     <t>The building was destroyed, the area needs clearing</t>
   </si>
   <si>
-    <t>这栋建筑已损毁，需要清理废墟</t>
+    <t>建筑物已损毁，需要清理废墟</t>
   </si>
   <si>
     <t>Expedition was lost. Ship and crew has gone.</t>
@@ -2035,7 +2035,7 @@
     <t>这条路被摧毁了</t>
   </si>
   <si>
-    <t>这栋建筑快满了</t>
+    <t>建筑物快满了</t>
   </si>
   <si>
     <t>A baby has been born</t>
@@ -2272,7 +2272,7 @@
     <t>Wood gathering by laborers gives fast, but temporary resource growth. To collect wood choose the collect resources group. Click the 'collect wood' button and select an area - free villagers will start gathering wood immediately.</t>
   </si>
   <si>
-    <t>雇佣劳工收集木头会更快，但只是临时的。为了收集木材选择采集所有资源分类。点击“采集木材”按钮，然后选择一个区域，那些自由的村民便会立刻开始收集木材。</t>
+    <t>雇佣劳工收集木材会更快，但只是临时的。为了收集木材选择采集所有资源分类。点击“采集木材”按钮，然后选择一个区域，那些自由的村民便会立刻开始收集木材。</t>
   </si>
   <si>
     <t>Build a forester's lodge from the resource gathering group to create small, but steady flow of wood. Click on the building button for a forester's lodge and select a point deep in the forest to construct the building.</t>
@@ -2951,7 +2951,7 @@
     <t>Improved medium size living place. Have extra bedrooms. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +20. Strenght: 220.</t>
   </si>
   <si>
-    <t>进阶中型住所。有额外的卧室。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+20。强度：+220。</t>
+    <t>进阶中型住所。有额外的卧室。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+20。强度：220。</t>
   </si>
   <si>
     <t>Large size living place. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +20. Strenght: 540.</t>
@@ -2963,7 +2963,7 @@
     <t>Improved large size living place. Have extra bedrooms. Extremely high pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +30. Strenght: 780.</t>
   </si>
   <si>
-    <t>进阶大型住所。有额外的卧室。超高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+30。强度：+780。</t>
+    <t>进阶大型住所。有额外的卧室。超高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+30。强度：780。</t>
   </si>
   <si>
     <t>Temporary house. Extremely low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: 0. Strenght: 1000.</t>
@@ -3299,7 +3299,7 @@
     <t>Interact</t>
   </si>
   <si>
-    <t>交互</t>
+    <t>使用</t>
   </si>
   <si>
     <t>Cancel resource gathering in the area</t>
@@ -3431,7 +3431,7 @@
     <t>Press the residential buildings group button to open the list of available houses. Then press the build house button.</t>
   </si>
   <si>
-    <t>按下&lt;住宅&gt;按钮可以打开可用住宅列表。然后[左键单击] &lt;小型住宅&gt;按钮来建造一栋住宅。</t>
+    <t>按下&lt;房屋&gt;按钮可以打开可用房屋列表。然后[左键单击] &lt;小型房屋&gt;按钮来建造一栋房屋。</t>
   </si>
   <si>
     <t>In the building information window you can see the name, building area, necessary resources, building time and required number of builders. Choose the location of the building so that the whole building area is marked with only green tiles. Then left click to confirm construction.</t>
@@ -3521,7 +3521,7 @@
     <t>Below you can find the list of resources that villagers use to cope with hunger and to get warm during cold times. They will begin to move the resources as soon as they move in the house.</t>
   </si>
   <si>
-    <t>下面则显示了这所房屋内的村民用来充饥及取暖的资源列表。当他们在房子里时便会减少这些资源。</t>
+    <t>下面则显示了这所房屋内的村民用来充饥及取暖的资源列表。当他们在房子里时便会消耗这些资源。</t>
   </si>
   <si>
     <t>There are several types of houses in game, each of them have their own unique characteristics: number of dwellers, durability and happiness bonus, which affects workers productivity.</t>
@@ -3701,7 +3701,7 @@
     <t>Now carry resources to barn - the large building with barrels at the entrance - which is situated near the well. Get close to the doorstep until you see hint about interaction and then leave resources there.</t>
   </si>
   <si>
-    <t>现在控制他靠近“谷仓”（靠近水井，门口有桶的建筑物）直到看到&lt;交互&gt;提示，然后根据提示单击[鼠标左键]将背负的资源放入谷仓。</t>
+    <t>现在控制他靠近“谷仓”（靠近水井，门口有桶的建筑物）直到看到&lt;使用&gt;提示，然后根据提示单击[鼠标左键]将背负的资源放入谷仓。</t>
   </si>
   <si>
     <t>If you leave resources lying on the ground, someone will come for them and move them to warehouse.</t>
@@ -3719,7 +3719,7 @@
     <t>Besides food, you need to collect construction and craftable resources, like wood, which is used in the construction of almost every building.</t>
   </si>
   <si>
-    <t>除了食物，你还需要收集建筑及制作资源，比如大多数事情都要用到的“木头”。</t>
+    <t>除了食物，你还需要收集建筑及制作资源，比如大多数事情都要用到的“木材”。</t>
   </si>
   <si>
     <t>Open resource gathering group to send workers for wood cutting.</t>
@@ -3955,10 +3955,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3994,6 +3994,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -4001,31 +4016,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4039,40 +4031,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4083,11 +4046,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4115,19 +4077,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4164,7 +4164,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4176,97 +4266,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4284,7 +4290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4296,37 +4302,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4375,6 +4375,80 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4398,90 +4472,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4490,133 +4490,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5000,8 +5000,8 @@
   <sheetPr/>
   <dimension ref="A1:E803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
-      <selection activeCell="D800" sqref="D800"/>
+    <sheetView tabSelected="1" topLeftCell="A715" workbookViewId="0">
+      <selection activeCell="D758" sqref="D758"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="20880" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="zh-cn" sheetId="1" r:id="rId1"/>
@@ -3431,25 +3431,25 @@
     <t>Press the residential buildings group button to open the list of available houses. Then press the build house button.</t>
   </si>
   <si>
-    <t>按下&lt;房屋&gt;按钮可以打开可用房屋列表。然后[左键单击] &lt;小型房屋&gt;按钮来建造一栋房屋。</t>
+    <t>按下&lt;房屋&gt;按钮可以打开可用房屋列表。然后 左键单击 &lt;小型房屋&gt;按钮来建造一栋房屋。</t>
   </si>
   <si>
     <t>In the building information window you can see the name, building area, necessary resources, building time and required number of builders. Choose the location of the building so that the whole building area is marked with only green tiles. Then left click to confirm construction.</t>
   </si>
   <si>
-    <t>在建筑信息窗口中可以看到名称、建筑面积、所需资源、建筑时间以及所需的建筑工数量。选择你想建造的位置，使得整个建筑区域都变成绿色的格子。然后[左键单击]来确认该位置。</t>
+    <t>在建筑信息窗口中可以看到名称、建筑面积、所需资源、建筑时间以及所需的建筑工数量。选择你想建造的位置，使得整个建筑区域都变成绿色的格子。然后 左键单击 来确认该位置。</t>
   </si>
   <si>
     <t>Building construction site is now marked. All available laborers will prepare resources immediately. Right-click to switch off the building mode.</t>
   </si>
   <si>
-    <t>建筑工地现在已经被标记了。所有可用的劳工都会立即准备资源。[右键单击]来退出建筑模式。</t>
+    <t>建筑工地现在已经被标记了。所有可用的劳工都会立即准备资源。 右键单击 来退出建筑模式。</t>
   </si>
   <si>
     <t>Select construction site by clicking on it.</t>
   </si>
   <si>
-    <t>通过[左键单击]来选择建筑工地。</t>
+    <t>通过 左键单击 来选择建筑工地。</t>
   </si>
   <si>
     <t>You can see building construction progress bar in the upper part of window.</t>
@@ -3497,7 +3497,7 @@
     <t>Set two builders by using increase or decrease buttons or by pressing the necessary number instead of 0 on your keyboard.</t>
   </si>
   <si>
-    <t>通过&lt;加减&gt;按钮或是键盘[数字键]来设置两名建筑工。</t>
+    <t>通过&lt;加减&gt;按钮或是键盘 数字键 来设置两名建筑工。</t>
   </si>
   <si>
     <t>All the required resources are on site. Builders are assigned. Now simply wait for the house to be built.</t>
@@ -3545,7 +3545,7 @@
     <t>Some buildings can be upgraded. Workers will partially dissasemble and then rebuild it. Improved buildings have higher characteristics. Click the upgrade button in the window of newly built house.</t>
   </si>
   <si>
-    <t>部分建筑物是可以升级的。建筑工会拆除并重建它的某些部分。进阶的建筑拥有更高的特性。[左键单击]新建房屋窗口中的&lt;升级&gt;按钮。</t>
+    <t>部分建筑物是可以升级的。建筑工会拆除并重建它的某些部分。进阶的建筑拥有更高的特性。 左键单击 新建房屋窗口中的&lt;升级&gt;按钮。</t>
   </si>
   <si>
     <t>This is the upgrade information window. Here you can see the stats of the improved house and resources you need to perform the upgrade.</t>
@@ -3635,7 +3635,7 @@
     <t>To leave building mode, just click the second mouse button and continue.</t>
   </si>
   <si>
-    <t>要离开建筑模式只需要[鼠标右键]并继续。</t>
+    <t>要离开建筑模式只需要 鼠标右键 并继续。</t>
   </si>
   <si>
     <t>Wait until construction of fisherman's lodge has finished.</t>
@@ -3683,7 +3683,7 @@
     <t>The storage is full! One of the fishermen will be going to carry the catch to a barn. Left-click them.</t>
   </si>
   <si>
-    <t>存储空间充满！其中一个渔夫将要运送这些鱼到“谷仓”去。[鼠标左键]点击他。</t>
+    <t>存储空间充满！其中一个渔夫将要运送这些鱼到“谷仓”去。 鼠标左键 点击他。</t>
   </si>
   <si>
     <t>This is the villagers window. Each villager has a number of characteristics, one of which is age. You can see it to the right from the name. Below are scales of happiness, which affects productivity, clothing and its condition, and also tools condition scale. Further down you can see icons to show his/her home and workplace.</t>
@@ -3701,7 +3701,7 @@
     <t>Now carry resources to barn - the large building with barrels at the entrance - which is situated near the well. Get close to the doorstep until you see hint about interaction and then leave resources there.</t>
   </si>
   <si>
-    <t>现在控制他靠近“谷仓”（靠近水井，门口有桶的建筑物）直到看到&lt;使用&gt;提示，然后根据提示单击[鼠标左键]将背负的资源放入谷仓。</t>
+    <t>现在控制他靠近“谷仓”（靠近水井，门口有桶的建筑物）直到看到&lt;使用&gt;提示，然后根据提示单击 鼠标左键 将背负的资源放入谷仓。</t>
   </si>
   <si>
     <t>If you leave resources lying on the ground, someone will come for them and move them to warehouse.</t>
@@ -3713,7 +3713,7 @@
     <t>Press the Escape button to leave character control view.</t>
   </si>
   <si>
-    <t>按下[Escape]键退出村民控制模式。</t>
+    <t>按下 Escape 键退出村民控制模式。</t>
   </si>
   <si>
     <t>Besides food, you need to collect construction and craftable resources, like wood, which is used in the construction of almost every building.</t>
@@ -3731,13 +3731,13 @@
     <t>Now click on wood gathering, and then select an area with trees. Press the left mouse button to confirm wood cutting of it.</t>
   </si>
   <si>
-    <t>现在点击&lt;收集木材&gt;按钮然后选择一片区域。按下[鼠标左键]来确认。</t>
+    <t>现在点击&lt;收集木材&gt;按钮然后选择一片区域。按下 鼠标左键 来确认。</t>
   </si>
   <si>
     <t>Click right mouse button to leave resource gathering mode.</t>
   </si>
   <si>
-    <t>单击[鼠标右键]离开资源收集模式。</t>
+    <t>单击 鼠标右键 离开资源收集模式。</t>
   </si>
   <si>
     <t>Free labourers will start chopping trees and gather wood immediately.</t>
@@ -3761,7 +3761,7 @@
     <t>Use "Horn" ability by pressing 1 key. This will temporary speed up villagers, raising their spirit.</t>
   </si>
   <si>
-    <t>按下[1]键来使用“喇叭”技能。这将会临时加快村民的工作速度，提高他们的精神。</t>
+    <t>按下 1 键来使用“喇叭”技能。这将会临时加快村民的工作速度，提高他们的精神。</t>
   </si>
   <si>
     <t>When it is warm fields are one of the best food sources. Let's create it.</t>
@@ -3785,13 +3785,13 @@
     <t>Fields have a tunable size, so you need to click the left mouse button and, while holding it, move coursor, stretching its area.</t>
   </si>
   <si>
-    <t>“农田”是可以自由调节大小的，你只需要按住[鼠标左键]拉伸它的面积。</t>
+    <t>“农田”是可以自由调节大小的，你只需要按住 鼠标左键 拉伸它的面积。</t>
   </si>
   <si>
     <t>Click the right mouse button to leave from construction mode.</t>
   </si>
   <si>
-    <t>点击[鼠标右键]离开建造模式。</t>
+    <t>点击 鼠标右键 离开建造模式。</t>
   </si>
   <si>
     <t>Wait for your builders to construct the field.</t>
@@ -3881,7 +3881,7 @@
     <t>Select a 12x12 area, click the left mouse button, then choose height level and confirm it by clicking the left mouse button again. Look at the time needed for flattening in the setup window - the lower the number, the quicker.</t>
   </si>
   <si>
-    <t>通过鼠标左键选择一块12*12的区域，然后单击[鼠标左键]以确认高度，这时需要注意窗口中的所需时间，数字越小，速度越快。</t>
+    <t>通过鼠标左键选择一块12*12的区域，然后单击 鼠标左键 以确认高度，这时需要注意窗口中的所需时间，数字越小，速度越快。</t>
   </si>
   <si>
     <t>Wait until workers finish flattening the ground.</t>
@@ -3955,10 +3955,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3994,9 +3994,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4009,43 +4016,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -4069,32 +4040,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4108,9 +4070,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4125,9 +4101,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4164,19 +4164,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4194,55 +4236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4260,13 +4260,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4278,37 +4284,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4320,13 +4314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4376,6 +4376,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4392,11 +4407,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4427,48 +4464,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4478,10 +4478,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4490,133 +4490,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5000,8 +5000,8 @@
   <sheetPr/>
   <dimension ref="A1:E803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A715" workbookViewId="0">
-      <selection activeCell="D758" sqref="D758"/>
+    <sheetView tabSelected="1" topLeftCell="A751" workbookViewId="0">
+      <selection activeCell="D785" sqref="D785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309">
   <si>
     <t>ID</t>
   </si>
@@ -1320,28 +1320,28 @@
     <t>儿童</t>
   </si>
   <si>
-    <t>Summer -</t>
-  </si>
-  <si>
-    <t>夏天 -</t>
-  </si>
-  <si>
-    <t>Winter -</t>
-  </si>
-  <si>
-    <t>冬天 -</t>
-  </si>
-  <si>
-    <t>Fall -</t>
-  </si>
-  <si>
-    <t>秋天 -</t>
-  </si>
-  <si>
-    <t>Spring -</t>
-  </si>
-  <si>
-    <t>春天 -</t>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>夏天</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>冬天</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>秋天</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>春天</t>
   </si>
   <si>
     <t>total</t>
@@ -1423,7 +1423,7 @@
     <t>牛</t>
   </si>
   <si>
-    <t>Sheeps</t>
+    <t>Sheep</t>
   </si>
   <si>
     <t>羊</t>
@@ -1459,13 +1459,13 @@
     <t>否</t>
   </si>
   <si>
-    <t>There is no room to place the resources</t>
-  </si>
-  <si>
-    <t>没有空间放置资源</t>
-  </si>
-  <si>
-    <t>You will lose all current progress. Are you sure you want to load the game?</t>
+    <t>There is no room to store resources</t>
+  </si>
+  <si>
+    <t>没有空间存储资源</t>
+  </si>
+  <si>
+    <t>You will lose all current progress. Are you sure you want to load another save?</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1474,13 +1474,13 @@
     <t>你将失去所有当前进度。确定要载入吗？</t>
   </si>
   <si>
-    <t>Are you sure you want to rewrite the saved game?</t>
+    <t>Are you sure you want to overwrite the game save?</t>
   </si>
   <si>
     <t>你确定要覆盖这个存档吗？</t>
   </si>
   <si>
-    <t>Are you sure you want to delete this save game?</t>
+    <t>Are you sure you want to delete this game save?</t>
   </si>
   <si>
     <t>你确定要删除这个存档吗？</t>
@@ -1522,13 +1522,13 @@
     <t>制造资源不足</t>
   </si>
   <si>
-    <t>The resources are depleted</t>
-  </si>
-  <si>
-    <t>资源枯竭</t>
-  </si>
-  <si>
-    <t>The building in standby mode</t>
+    <t>The resources have depleted</t>
+  </si>
+  <si>
+    <t>资源已经枯竭</t>
+  </si>
+  <si>
+    <t>The building is in standby mode</t>
   </si>
   <si>
     <t>建筑物已经暂停施工</t>
@@ -1552,7 +1552,7 @@
     <t>没有可用的柴火取暖</t>
   </si>
   <si>
-    <t>No water for animals</t>
+    <t>No water available for animals</t>
   </si>
   <si>
     <t>没有水给动物</t>
@@ -1684,10 +1684,10 @@
     <t>取消</t>
   </si>
   <si>
-    <t>Expedition was sent</t>
-  </si>
-  <si>
-    <t>探险队已被派遣</t>
+    <t>Expedition has began</t>
+  </si>
+  <si>
+    <t>探险开始了</t>
   </si>
   <si>
     <t>The building was destroyed, the area needs clearing</t>
@@ -1696,10 +1696,10 @@
     <t>建筑物已损毁，需要清理废墟</t>
   </si>
   <si>
-    <t>Expedition was lost. Ship and crew has gone.</t>
-  </si>
-  <si>
-    <t>探险失败了。船和船员都没了。</t>
+    <t>Expedition was lost. Ship and crew will not return.</t>
+  </si>
+  <si>
+    <t>探险失败了。船和船员没回得来。</t>
   </si>
   <si>
     <t>Off</t>
@@ -1717,10 +1717,10 @@
     <t>高</t>
   </si>
   <si>
-    <t>Expedition successfully completed!</t>
-  </si>
-  <si>
-    <t>探险顺利完成！</t>
+    <t>Expedition was a success!</t>
+  </si>
+  <si>
+    <t>探险完成！</t>
   </si>
   <si>
     <t>New resources discovered:</t>
@@ -1777,52 +1777,52 @@
     <t>年份</t>
   </si>
   <si>
-    <t>Early summer -</t>
-  </si>
-  <si>
-    <t>初夏 -</t>
-  </si>
-  <si>
-    <t>Late summer -</t>
-  </si>
-  <si>
-    <t>夏末 -</t>
-  </si>
-  <si>
-    <t>Early spring -</t>
-  </si>
-  <si>
-    <t>初春 -</t>
-  </si>
-  <si>
-    <t>Late spring -</t>
-  </si>
-  <si>
-    <t>春末 -</t>
-  </si>
-  <si>
-    <t>Early winter -</t>
-  </si>
-  <si>
-    <t>初冬 -</t>
-  </si>
-  <si>
-    <t>Late winter -</t>
-  </si>
-  <si>
-    <t>冬末 -</t>
-  </si>
-  <si>
-    <t>Early fall -</t>
-  </si>
-  <si>
-    <t>初秋 -</t>
-  </si>
-  <si>
-    <t>Late fall -</t>
-  </si>
-  <si>
-    <t>秋末 -</t>
+    <t>Early Summer</t>
+  </si>
+  <si>
+    <t>初夏</t>
+  </si>
+  <si>
+    <t>Late Summer</t>
+  </si>
+  <si>
+    <t>夏末</t>
+  </si>
+  <si>
+    <t>Early Spring</t>
+  </si>
+  <si>
+    <t>初春</t>
+  </si>
+  <si>
+    <t>Late Spring</t>
+  </si>
+  <si>
+    <t>春末</t>
+  </si>
+  <si>
+    <t>Early Winter</t>
+  </si>
+  <si>
+    <t>初冬</t>
+  </si>
+  <si>
+    <t>Late Winter</t>
+  </si>
+  <si>
+    <t>冬末</t>
+  </si>
+  <si>
+    <t>Early Fall</t>
+  </si>
+  <si>
+    <t>初秋</t>
+  </si>
+  <si>
+    <t>Late Fall</t>
+  </si>
+  <si>
+    <t>秋末</t>
   </si>
   <si>
     <t>英语</t>
@@ -1936,13 +1936,13 @@
     <t>-</t>
   </si>
   <si>
-    <t>Gives water for watering plants in fields and gardens, as well as for providing water for cattle.</t>
-  </si>
-  <si>
-    <t>为农田、果园及牲口提供水。</t>
-  </si>
-  <si>
-    <t>builders</t>
+    <t>Provides water for both plants and cattle. Also provides water for fires.</t>
+  </si>
+  <si>
+    <t>为植物和牲口提供水。同时也可以用于火灾。</t>
+  </si>
+  <si>
+    <t>Builders</t>
   </si>
   <si>
     <t>Period</t>
@@ -1987,7 +1987,7 @@
     <t>: 已经开始建造</t>
   </si>
   <si>
-    <t>The building is destroyed</t>
+    <t>Building destroyed</t>
   </si>
   <si>
     <t>建筑已经被摧毁</t>
@@ -1999,16 +1999,16 @@
     <t>: 资源收集优先级增加</t>
   </si>
   <si>
-    <t>The building priority has increased</t>
+    <t>Building priority increased</t>
   </si>
   <si>
     <t>建筑优先级增加</t>
   </si>
   <si>
-    <t>A tornado was seen near your village</t>
-  </si>
-  <si>
-    <t>你的村庄附近有龙卷风</t>
+    <t>A tornado has been spotted near your village</t>
+  </si>
+  <si>
+    <t>你的村庄附近发现了龙卷风</t>
   </si>
   <si>
     <t>: upgrade started</t>
@@ -2023,16 +2023,16 @@
     <t>: 开始拆除</t>
   </si>
   <si>
-    <t>The road has been built</t>
-  </si>
-  <si>
-    <t>这条路铺好了</t>
-  </si>
-  <si>
-    <t>The road has been destroyed</t>
-  </si>
-  <si>
-    <t>这条路被摧毁了</t>
+    <t>Road built</t>
+  </si>
+  <si>
+    <t>路铺好了</t>
+  </si>
+  <si>
+    <t>Road destroyed</t>
+  </si>
+  <si>
+    <t>路被摧毁了</t>
   </si>
   <si>
     <t>建筑物快满了</t>
@@ -2062,61 +2062,61 @@
     <t>孩子</t>
   </si>
   <si>
-    <t>Do not hesitate to occupy villagers by clicking on their portraits. Use this mode to speed up the harvesting of fields, buildings construction, to protect your coops from wild animals or simply just ot wander around aimlessly.</t>
-  </si>
-  <si>
-    <t>毫不犹豫的点击村民的头像。使用这种模式加快农田收割、建筑建造、从野兽嘴下保护栏舍或者只是漫无目的的游走。</t>
-  </si>
-  <si>
-    <t>died because of inability to relocate</t>
+    <t>Remember, you can occupy villagers by clicking on their portraits! Use this mode to speed up the harvesting of fields, buildings construction, to protect your coops from wild animals or simply just to explore.</t>
+  </si>
+  <si>
+    <t>记住，你可以点击村民的头像来控制村民！使用这种模式加快农田收割、建筑建造、从野兽嘴下保护栏舍或者只是漫无目的的游走。</t>
+  </si>
+  <si>
+    <t>Died because of inability to relocate</t>
   </si>
   <si>
     <t>死于无法重新安置</t>
   </si>
   <si>
-    <t>starved to death</t>
+    <t>Starved to death</t>
   </si>
   <si>
     <t>饿死了</t>
   </si>
   <si>
-    <t>died from the hypothermia</t>
+    <t>Died from hypothermia</t>
   </si>
   <si>
     <t>冻死了</t>
   </si>
   <si>
-    <t>died during childbirth</t>
+    <t>Died during childbirth</t>
   </si>
   <si>
     <t>难产死亡</t>
   </si>
   <si>
-    <t>The child died during childbirth</t>
+    <t>Child died during childbirth</t>
   </si>
   <si>
     <t>孩子因难产死亡</t>
   </si>
   <si>
-    <t>died in an accident</t>
+    <t>Died in an accident</t>
   </si>
   <si>
     <t>在一次事故中死亡</t>
   </si>
   <si>
-    <t>died in an animal attack</t>
+    <t>Died in an animal attack</t>
   </si>
   <si>
     <t>在动物袭击中死亡</t>
   </si>
   <si>
-    <t>died of thirst</t>
-  </si>
-  <si>
-    <t>渴死了</t>
-  </si>
-  <si>
-    <t>died of old age</t>
+    <t>Died of dehydration</t>
+  </si>
+  <si>
+    <t>脱水死亡</t>
+  </si>
+  <si>
+    <t>Died of old age</t>
   </si>
   <si>
     <t>老死了</t>
@@ -2134,9 +2134,6 @@
     <t>Pig</t>
   </si>
   <si>
-    <t>Sheep</t>
-  </si>
-  <si>
     <t>Chicken</t>
   </si>
   <si>
@@ -2149,16 +2146,16 @@
     <t>Teenager</t>
   </si>
   <si>
-    <t>All crops and plants die in the winter. Before this, you will see a warning over the field. If this happens, you must harvest the ripe crops immediately.</t>
-  </si>
-  <si>
-    <t>所有的作物和植物都会在冬天死亡。在这之前，你会在农田看到警告。如果发生这样的情况，你必须立刻收割成熟的庄稼。</t>
-  </si>
-  <si>
-    <t>Fish is the most affordable source of food. Fishermen can extract fish during not only warm seasons but also during winter.</t>
-  </si>
-  <si>
-    <t>鱼是最实惠的食物来源。渔夫们不但可以在温暖的季节里捕鱼，在寒冷的冬季依然可以。</t>
+    <t>All crops and plants die in the winter. Before this happens, you will see a warning over the field. When this happens, you must harvest the ripe crops immediately.</t>
+  </si>
+  <si>
+    <t>所有的作物和植物都会在冬天死亡。在这之前，你会在农田看到警告。当发生这样的情况，你必须立刻收割作物。</t>
+  </si>
+  <si>
+    <t>Fish is the most affordable source of food. Fishermen can gather fish all year round.</t>
+  </si>
+  <si>
+    <t>鱼是最实惠的食物来源。渔夫们一年四季都可以捕鱼。</t>
   </si>
   <si>
     <t>Charcoal is much more effective than firewood, but it is more difficult to get. Build a kiln and hire a kilner to produce charcoal from firewood. You can build several kilns to increase charcoal productivity.</t>
@@ -2167,58 +2164,58 @@
     <t>木炭比木柴更有效率，但是更难获得。建造一个烧窑并且聘请一个窑工来用木柴生产木炭。你可以建立多个烧窑来提高木炭的生产力。</t>
   </si>
   <si>
-    <t>Build houses in the lowlands to avoid a lightning strike. The building will burn if struck by lightning. You must extinguish the fire as soon as you can with water from a well. So you must have at least one well in each settlement.</t>
-  </si>
-  <si>
-    <t>将房屋建造在低地已避免被闪电劈中。如果被闪电击中的话，建筑物会着火。你必须用水井中的水尽快的将火扑灭。所以你必须在每一个移民点都建造至少一口水井。</t>
-  </si>
-  <si>
-    <t>Plants in fields and animals in pastures needs water, you must build a well before starting field and pasture construction Most of the crops will grow very slowly without water, and animals will die of thirst.</t>
-  </si>
-  <si>
-    <t>农田中的植物以及牧场中的动物都需要水，你必须在建造农田或农场之前建造水井，不然的话大部分的作物都会由于缺水而生长缓慢，并且，动物会死于缺水。</t>
-  </si>
-  <si>
-    <t>Educated people are more productive than uneducated. Build a school, hire a teacher and send your children to study. Only young children can visit school, so it's very important to build a school as soon as you can.</t>
-  </si>
-  <si>
-    <t>受过教育的人比没受过教育的人更有效率。建立一所学校，聘请一名教师，并送你的孩子去学习。只有年幼的孩子可以上学，所以尽快建立一所学校是非常重要的。</t>
-  </si>
-  <si>
-    <t>There are many wild animals living in the forest, and they are not averse to eating cattle from your pastures. To avoid wild animal attacks you should build pastures as far as possible from the forest and protect these areas by assigning hunters.</t>
-  </si>
-  <si>
-    <t>有许多野生动物生活在森林中，它们并不介意吃掉你牧场里的牲口。为了避免野生动物的袭击，你应该在尽可能远离森林的地方建立牧场并且把这些地区纳入猎人的保护之下。</t>
-  </si>
-  <si>
-    <t>Villagers can only eat and keep warm in their houses, so homeless people can die of hunger and hypothermia. Don't forget to build houses and hostels for your people. You can identify these people easily – all homeless villagers have an icons over their heads.</t>
-  </si>
-  <si>
-    <t>村民只在他们的房子里吃饭和取暖，所以无家可归的人会死于饥饿和寒冷。不要忘了为你的人民建造房屋和旅馆。所有无家可归的人对会有一个图标顶在头上，你会很容易发现他们的。</t>
-  </si>
-  <si>
-    <t>Your villagers can't bury their dead without a pyre, and this can lead to dangerous contagious infections. Build enough pyres to avoid decomposition of bodies and the spread of disease.</t>
-  </si>
-  <si>
-    <t>你的村民无法在没有柴堆的情况下焚烧尸体，而且这可能会导致危险的瘟疫。建造足够的柴堆以避免滋生瘟疫。</t>
-  </si>
-  <si>
-    <t>Hunters aren't only used for the production of food, they also gather hides. Build a hunting cabin at the borders of your village and hunters will protect your people from being infected with rabies by wild animals.</t>
+    <t>Build houses in the lowlands to avoid a lightning strike. The building will burn if struck by lightning. You must extinguish the fire as soon as you can with water from a well - make sure you have at least one well in each settlement.</t>
+  </si>
+  <si>
+    <t>将房屋建造在低处已避免被闪电劈中。如果被闪电击中的话，建筑物会着火。你必须用水井中的水尽快的将火扑灭。确保你的每一个聚居点都有至少一口水井。</t>
+  </si>
+  <si>
+    <t>Both plants and animals need water, so build a well before starting field and pasture construction. Most crops will grow very slowly without water, and animals will die of thirst.</t>
+  </si>
+  <si>
+    <t>植物和牲口都需要水，你必须在建造农田或农场之前建造水井，不然的话大部分的作物都会由于缺水而生长缓慢，并且，牲口会死于缺水。</t>
+  </si>
+  <si>
+    <t>Educated people are more productive than uneducated. Build a school, hire a teacher and send your children to study. Only young children can attend school, so you may want to build a school as soon as you can.</t>
+  </si>
+  <si>
+    <t>受过教育的人比没受过教育的人更有效率。建立一所学校，聘请一名教师，并送你的孩子去学习。只有年幼的孩子可以上学，所以你必须尽快建立一所学校。</t>
+  </si>
+  <si>
+    <t>There are many wild animals living in the forest, and they are not adverse to eating cattle from your pastures. To avoid wild animal attacks you should build pastures as far as possible from the forest and protect these areas by assigning hunters.</t>
+  </si>
+  <si>
+    <t>有许多野生动物生活在森林中，它们并不介意吃掉你牧场里的牲口。为了避免野兽的袭击，你应该在尽可能远离森林的地方建立牧场并且把这些地区纳入猎人的保护之下。</t>
+  </si>
+  <si>
+    <t>Villagers can only eat and keep warm in their houses, so homeless people can die of hunger or hypothermia. Don't forget to build houses and hostels for your people. You can identify these people easily – all homeless villagers have an icon over their heads.</t>
+  </si>
+  <si>
+    <t>村民只在他们的房子里吃饭和取暖，所以无家可归的人会死于饥饿或寒冷。不要忘了为你的人民建造房屋和旅馆。所有无家可归的人对会有一个图标顶在头上，你会很容易发现他们的。</t>
+  </si>
+  <si>
+    <t>Your villagers can't bury their dead without a pyre, which can lead to dangerous contagious infections. Build enough pyres to avoid decomposition of bodies and prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>你的村民无法在没有柴堆的情况下焚烧尸体，这可能会导致危险的瘟疫。建造足够的柴堆以避免腐烂的尸体和瘟疫的滋生。</t>
+  </si>
+  <si>
+    <t>Hunters aren't only used for the production of food, they also gather hides. Build a hunting cabin at the borders of your village and hunters will protect your people from being infected with rabies from wild animals.</t>
   </si>
   <si>
     <t>猎人不光能收集食物，还可以收集毛皮。在你的村庄边缘建造一栋猎人小屋，那么猎人便可以保护你的村民不被野兽传染狂犬病。</t>
   </si>
   <si>
-    <t>Every crop has unique temperature and humidity requirements. So choose the crop wisely – it must be fit for the current weather and season, thus yielding a rich harvest.</t>
+    <t>Every crop has unique temperature and humidity requirements. So choose the crop wisely – it must be fit for the current weather and season, in order to yield a rich harvest.</t>
   </si>
   <si>
     <t>每一种植物都有着其独特的温度及湿度要求。因此，在适宜的天气和季节选择合适的作物，可以获得更高的产量。</t>
   </si>
   <si>
-    <t>Make clothes for your villagers to reduce firewood and coal consumption. Gather hides with the help of hunters, build weaver's workshops and make warm leather clothes.</t>
-  </si>
-  <si>
-    <t>为你的村民缝制衣物以减少木柴及煤炭的消耗。在猎人的帮助下收集毛皮，建造纺织工坊然后制作温暖的皮衣。</t>
+    <t>Make clothes for your villagers to reduce firewood and coal consumption. Gather hides with the help of hunters, build a weaver's workshop and make warm leather clothes.</t>
+  </si>
+  <si>
+    <t>为你的村民缝制衣物以减少木柴及煤炭的消耗。在猎人的帮助下收集毛皮，建造一间纺织工坊然后制作温暖的皮衣。</t>
   </si>
   <si>
     <t>Build a marketplace to provide a balanced diet for your citizens. If you don't do this your people could develop scurvy.</t>
@@ -2227,34 +2224,34 @@
     <t>建立一个集市，为你的村民提供均衡的饮食。如果你不这样做，你的人民可能会出现坏血病。</t>
   </si>
   <si>
-    <t>Clay is a required construction material for some buildings. You can gather clay only in a clay mine.</t>
+    <t>Clay is a required construction material for some buildings. You can only gather clay in a clay mine.</t>
   </si>
   <si>
     <t>粘土是某些建筑所需要的建筑材料。你只能在粘土矿挖掘粘土。</t>
   </si>
   <si>
-    <t>Your civilians walk faster on a road rather than on dirt or grass. Build pathways and roads between buildings to save time and increase workers productivity.</t>
+    <t>Your villagers walk faster on roads than on dirt or grass. Build pathways and roads between buildings to save time and increase workers' productivity.</t>
   </si>
   <si>
     <t>你的村民在道路上会走的更快，而不是在泥地或草地上。在建筑物之间铺设道路可以节省时间以提高生产力。</t>
   </si>
   <si>
-    <t>You can increase a villagers' productivity if you provide them with tools. A blacksmith makes tools in his blacksmith's shop with various ingredients.</t>
+    <t>You can increase a villagers' productivity by providing them with tools. A blacksmith makes tools in his blacksmith's shop with various resources.</t>
   </si>
   <si>
     <t>如果你为你的村民提供工具，可以增加他们的生产力。铁匠会在他的铁匠铺里用各种原料制造工具。</t>
   </si>
   <si>
-    <t>Trees grow over time, the older the tree is the more resources it contains. Don't rush to cut down small trees, let them grow and they will give you more wood. Cut down big trees first.</t>
+    <t>Trees grow over time, with older trees containing more resources. Don't rush to cut down small trees, let them grow and they will give you more wood. Cut down big trees first.</t>
   </si>
   <si>
     <t>随着时间的推移，树木年龄的增长，它们便能提供更多的资源。不要急于砍伐小树，让它们成长，它们便能给你更多的木材。记得先砍大树！</t>
   </si>
   <si>
-    <t>The only way to increase your village's population is childbearing. It will be available if you have space in your houses.</t>
-  </si>
-  <si>
-    <t>增加人口的唯一途径便是生育。如果你的房子还有空间它将可用。</t>
+    <t>Increase your village population through having children. Childbearing will be available if you have space in your houses.</t>
+  </si>
+  <si>
+    <t>通过造小人来增加村庄。如果你的房子还有空间便可以生育孩子。</t>
   </si>
   <si>
     <t>A fishermen's productivity depends on where they fish. If a lake is large and deep, fishermen will be able to supply the village with fish for a long time. If a lake is shallow and small, they will have to relocate to another fisherman's lodge soon.</t>
@@ -2263,22 +2260,22 @@
     <t>渔夫的生产力取决于他们捕鱼的地方。如果是一个又大又深的湖，那么渔夫便可以在很长一段时间内为这个村庄提供鱼。如果是一个又小又浅的湖，他们很快便会被迫搬迁至另一个渔人小屋。</t>
   </si>
   <si>
-    <t>A warehouse has limited capacity, and if you fill it up, your residents will not be able to add resources there. In the end, you will not be able to construct buildings and gather resources. To avoid this, your warehouses must always have free space.</t>
-  </si>
-  <si>
-    <t>一个仓库的容量是有限的，如果你填满了它，你的村民将无法继续向那里存储资源。最后，你将会无法建造建筑物以及收集资源。为了避免这一点，你必须保持仓库有一定的空余。</t>
-  </si>
-  <si>
-    <t>Wood gathering by laborers gives fast, but temporary resource growth. To collect wood choose the collect resources group. Click the 'collect wood' button and select an area - free villagers will start gathering wood immediately.</t>
+    <t>A warehouse has limited capacity. If you fill it up, your residents will not be able to add resources to it and you will not be able to construct buildings and gather resources. To avoid this, make sure your warehouses always have free space.</t>
+  </si>
+  <si>
+    <t>一个仓库的容量是有限的，如果你填满了它，你的村民将无法继续向那里存储资源，你将无法建造建筑物及收集资源。为了避免这一点，确保你的仓库有空余。</t>
+  </si>
+  <si>
+    <t>Wood gathering by laborers gives fast but temporary resource growth. To collect wood choose the collect resources group. Click the 'collect wood' button and select an area - free villagers will start gathering wood immediately.</t>
   </si>
   <si>
     <t>雇佣劳工收集木材会更快，但只是临时的。为了收集木材选择采集所有资源分类。点击“采集木材”按钮，然后选择一个区域，那些自由的村民便会立刻开始收集木材。</t>
   </si>
   <si>
-    <t>Build a forester's lodge from the resource gathering group to create small, but steady flow of wood. Click on the building button for a forester's lodge and select a point deep in the forest to construct the building.</t>
-  </si>
-  <si>
-    <t>从资源收集分类中建造一间森林小屋来提供稳定的木材来源。点击森林小屋的建造按钮，然后选择森林深处某一点来建造。</t>
+    <t>Build a forester's lodge from the resource gathering category to produce a small, steady flow of wood. Click on the building button for a forester's lodge and select an area in the forest to construct the building.</t>
+  </si>
+  <si>
+    <t>从资源收集分类中建造一间森林小屋来获得微小，稳定的木材来源。点击森林小屋的建造按钮，然后在森林中建造它。</t>
   </si>
   <si>
     <t>First, you must provide your villagers with food. Hunting or gathering is the easiest way to get food. Gathering is not available during winter, but hunting is available all year round.</t>
@@ -2287,7 +2284,7 @@
     <t>首先，你必须为你的村民提供食物。狩猎或者采集都是获取食物最简单的方式。采集在冬天不可用，但是狩猎却是一年四季都可以的。</t>
   </si>
   <si>
-    <t>Don't forget to harvest firewood for the winter, or your people will freeze to death. Build a lumberjack's lodge from the resource gathering group and hire lumberjacks - they will deliver wood to the lodge and make firewood.</t>
+    <t>Don't forget to collect firewood for the winter, or your people may freeze to death. Build a lumberjack's lodge from the resource gathering group and hire lumberjacks - they will deliver wood to the lodge and make firewood.</t>
   </si>
   <si>
     <t>不要忘了在过冬的时候准备木柴，或是让你的村民被冻死。从资源收集分类建造樵场然后雇佣樵夫，他们会将木材加工成木柴。</t>
@@ -2299,62 +2296,62 @@
     <t>建造房屋来增加村庄人口。人们将会在房子里定居，组建家庭，生下孩子。宿舍可以容纳很多人，但宿舍里的村民无法在那里结婚生子。</t>
   </si>
   <si>
-    <t>Villagers become unemployed if their house is destroyed or resources can not be gathered. So don't forget to give them other tasks. The best way to make it is via the profession window in the general information group. You can set the number of people who work in that profession there.</t>
-  </si>
-  <si>
-    <t>如果村民的房子被摧毁或是资源无法被收集，他们便会失业。所以不要忘了给他们其他任务。最好的方法便是通过一般信息内的职业窗口。你可以设置该职业的人数。</t>
-  </si>
-  <si>
-    <t>Build storage to store resources. Warehouse is designed for building material storage (wood, stone, ore), and a barn is necessary for food, firewood, tools and other resource storage.</t>
-  </si>
-  <si>
-    <t>建造仓储建筑来储存资源。仓库专门用来存储建造材料（木材、石头、矿石），谷仓用来存储必要的食物、木柴、工具、以及其他资源。</t>
-  </si>
-  <si>
-    <t>Gardens and fields provide many resources, but not immediately. You must select the area, build a field or garden, hire farmers and select a crop type. Farmers will seed the field, cultivate it and gather the harvest at the end of the growing season.</t>
-  </si>
-  <si>
-    <t>果园及农田能提供大量资源，但并不是立刻。你必须选择该区域，建一个农田或果园，聘请农夫并选择一种作物类型。农夫会在该农田里播种，培育它并且在他们成熟后收割。</t>
-  </si>
-  <si>
-    <t>Before building a pasture make sure that you have free hunters to defend it. Also, don't forget to have food and water available for animals. Cows and sheep eat hay from a grass crop, chickens and pigs eat oats. All of these resources you can gather in fields.</t>
-  </si>
-  <si>
-    <t>在建一个牧场前要确保你有自由的猎人保护它。此外，不要忘了有足够的食物和水给牲口。牛和羊吃干草，鸡和猪吃燕麦。所有的这些资源你都可以在农田获得。</t>
-  </si>
-  <si>
-    <t>The higher the happiness level of your people, the better they work. Alcohol, crafted by an innkeeper in a tavern, can increase the level of happiness. Build a tavern from the city building group, hire an innkeeper and provide him with the necessary resources to craft alcohol.</t>
+    <t>Villagers become unemployed if their house is destroyed or resources can not be gathered, so don't forget to give them other tasks. Click the profession window in the general information category. You can set the number of people who work in a profession there.</t>
+  </si>
+  <si>
+    <t>如果村民的房子被摧毁或是资源无法被收集，他们便会失业。所以不要忘了给他们其他任务。点击“一般信息”内的“职业窗口”。你可以设置某个职业的人数。</t>
+  </si>
+  <si>
+    <t>Build storage to store resources. A warehouse is designed for building-material storage (wood, stone, ore), while a barn is necessary for food, firewood, tools and other resource storage.</t>
+  </si>
+  <si>
+    <t>建造仓储建筑来储存资源。仓库专门用来存储建造材料（木材、石头、矿石），而谷仓用来存储必要的食物、木柴、工具、以及其他资源。</t>
+  </si>
+  <si>
+    <t>Gardens and fields provide many resources, but not immediately. You must select the area, build the field or garden, hire farmers and select a crop type. Farmers will seed the field, cultivate it and gather the harvest at the end of the growing season.</t>
+  </si>
+  <si>
+    <t>果园及农田能提供大量资源，但并不是立刻。你必须选择该区域，建造农田或是果园，聘请农夫并选择一种作物类型。农夫会在该农田里播种，培育它并且在他们成熟后收割。</t>
+  </si>
+  <si>
+    <t>Before building a pasture make sure that you have free hunters to defend it. Also, don't forget to have food and water available for animals. Cows and sheep eat hay from grass crops, while chickens and pigs eat oats. All of these resources can be gathered in fields.</t>
+  </si>
+  <si>
+    <t>在建一个牧场前要确保你有自由的猎人保护它。此外，不要忘了有足够的食物和水给牲口。牛和羊吃干草，而鸡和猪吃燕麦。所有的这些资源你都可以在农田获得。</t>
+  </si>
+  <si>
+    <t>The higher the happiness level of your people, the better they work. Alcohol, crafted by an innkeeper in a tavern, can increase the level of happiness. Build a tavern from the city building group, hire an innkeeper and provide them with the necessary resources to craft alcohol.</t>
   </si>
   <si>
     <t>你的村民越幸福，工作效率就越高。酒馆老板酿造的酒，可以增加幸福度。在城镇建筑分类中建造一间酒馆，雇佣一名酒馆老板并提供他们所需要的资源来酿酒。</t>
   </si>
   <si>
-    <t>In case of a breakout of disease, medicinal herbs will help you. Herbalist can gather herbs deep in the forest. But to treat serious diseases you will need a healer and a healer's shop from the city buildings group.</t>
-  </si>
-  <si>
-    <t>如果生病了，药草会帮助你。草药可以在森林深处采集。但是治疗严重疾病的话，你需要一个医生以及一间城镇建筑分类中的诊所。</t>
-  </si>
-  <si>
-    <t>You can learn building information by using the special tool from general information group.</t>
+    <t>If a disease breaks out, medicinal herbs will help you. A herbalist can gather herbs deep in the forest, but to treat serious diseases you will need a healer and a healer's shop from the city buildings group.</t>
+  </si>
+  <si>
+    <t>如果爆发了疾病，药草能够帮助你。草药可以在森林深处采集。但是治疗严重疾病的话，你需要一个医生以及一间城镇建筑分类中的诊所。</t>
+  </si>
+  <si>
+    <t>You can learn building information by using the special tool from the general information category.</t>
   </si>
   <si>
     <t>你可以通过一般信息分类中的特殊工具来查阅建筑信息。</t>
   </si>
   <si>
-    <t>No space for new buildings? Use terraforming tools to flatten an area to create more room for construction.</t>
-  </si>
-  <si>
-    <t>没有建筑空间？使用地形工具来平整出一块区域用于建造。</t>
+    <t>No space for new buildings? Use terraforming tools to flatten an area and create more room for construction.</t>
+  </si>
+  <si>
+    <t>没有建筑空间？使用地形工具来平整出一块区域并创建更多可以用于建造的空间。</t>
   </si>
   <si>
     <t>Translated By Edgar
 Proofread By George</t>
   </si>
   <si>
-    <t>Get new results by using the terraforming tools - choose the 'create slope' tool, select a cliff and workers will create a passable slope there.</t>
-  </si>
-  <si>
-    <t>使用地形改造工具获得新的结果 - 选择“创建坡度”，选定一个悬崖让工人创建一个可通行的斜坡。</t>
+    <t>Shape the island by using the terraforming tools - choose the 'create slope' tool, select a cliff and workers will create a passable slope there.</t>
+  </si>
+  <si>
+    <t>使用地形改造工具来改变小岛的地形 - 选择“创建坡度”，选定一个悬崖让工人创建一个可通行的斜坡。</t>
   </si>
   <si>
     <t>1 year</t>
@@ -2399,10 +2396,10 @@
     <t>燃料储量低</t>
   </si>
   <si>
-    <t>People icons</t>
-  </si>
-  <si>
-    <t>村民图标</t>
+    <t>Worker icons</t>
+  </si>
+  <si>
+    <t>工人图标</t>
   </si>
   <si>
     <t>Buildings icons</t>
@@ -2495,7 +2492,7 @@
     <t>价值</t>
   </si>
   <si>
-    <t>tile</t>
+    <t>Tile</t>
   </si>
   <si>
     <t>地块</t>
@@ -2531,10 +2528,10 @@
     <t>资源上限：</t>
   </si>
   <si>
-    <t>Let your mentor teach children. Educated people work faster and better than uneducated.</t>
-  </si>
-  <si>
-    <t>让你的教师去教导儿童。受过教育的村民比未受教育的工作的更快更好。</t>
+    <t>Let your teacher tutor children. Educated people work faster and more efficiently than uneducated.</t>
+  </si>
+  <si>
+    <t>让你的老师教导孩子们。受过教育的村民比没受教育的村名更有效率。</t>
   </si>
   <si>
     <t>Allows you to hire hunters to gather meat and skins, and also defend pastures and people from wild animals.</t>
@@ -2561,7 +2558,7 @@
     <t>允许你雇佣药师以收集草药用于治疗生病的村民。</t>
   </si>
   <si>
-    <t>Progress of building deconstruction</t>
+    <t>Building deconstruction progress</t>
   </si>
   <si>
     <t>建筑拆除进度</t>
@@ -2591,10 +2588,10 @@
     <t>重新安置所有动物</t>
   </si>
   <si>
-    <t>Allows you to burn corpses to avoid a plague outbreak. Avoid overfilling the pyre.</t>
-  </si>
-  <si>
-    <t>允许你焚烧尸体以防止瘟疫发生。同时避免柴堆的过度堆积。</t>
+    <t>Allows you to burn corpses to prevent plague outbreaks. Avoid overfilling the pyre.</t>
+  </si>
+  <si>
+    <t>允许你焚烧尸体以防止瘟疫发生。避免过度堆积柴堆。</t>
   </si>
   <si>
     <t>Current and maximum amount of resources</t>
@@ -2684,16 +2681,16 @@
     <t>移动速度</t>
   </si>
   <si>
-    <t>Flatten the ground area</t>
-  </si>
-  <si>
-    <t>平整区域</t>
-  </si>
-  <si>
-    <t>Raise or lower the ground area</t>
-  </si>
-  <si>
-    <t>抬升或者降低区域</t>
+    <t>Flatten the ground</t>
+  </si>
+  <si>
+    <t>平整地面</t>
+  </si>
+  <si>
+    <t>Raise or lower the ground</t>
+  </si>
+  <si>
+    <t>抬升或者降低地面</t>
   </si>
   <si>
     <t>Create a slope</t>
@@ -2738,7 +2735,7 @@
     <t>切换至第一人称视角</t>
   </si>
   <si>
-    <t>Track the villager</t>
+    <t>Follow the villager</t>
   </si>
   <si>
     <t>跟随村民</t>
@@ -2780,13 +2777,13 @@
     <t>选择一个配方</t>
   </si>
   <si>
-    <t>Set a building</t>
+    <t>Set building</t>
   </si>
   <si>
     <t>放置建筑物</t>
   </si>
   <si>
-    <t>Rotate a building</t>
+    <t>Rotate building</t>
   </si>
   <si>
     <t>旋转建筑物</t>
@@ -2798,13 +2795,13 @@
     <t>增加区域优先级</t>
   </si>
   <si>
-    <t>Change high priority area</t>
-  </si>
-  <si>
-    <t>更改高优先级区域</t>
-  </si>
-  <si>
-    <t>Deconstruct a building</t>
+    <t>Return area priority to normal</t>
+  </si>
+  <si>
+    <t>恢复区域优先级至正常水平</t>
+  </si>
+  <si>
+    <t>Deconstruct building</t>
   </si>
   <si>
     <t>拆除一栋建筑</t>
@@ -2882,7 +2879,7 @@
     <t>移除该区域的道路</t>
   </si>
   <si>
-    <t>Select a pasture of the same type or any empty one</t>
+    <t>Select a pasture of the same type or an empty pasture</t>
   </si>
   <si>
     <t>选择闲置或是同类型的牧场</t>
@@ -2894,10 +2891,10 @@
     <t>创造丘陵</t>
   </si>
   <si>
-    <t>Allows you to create hill or cavity.</t>
-  </si>
-  <si>
-    <t>允许你创造丘陵或山洞。</t>
+    <t>Allows you to create hill or cavity</t>
+  </si>
+  <si>
+    <t>允许你创造丘陵或山洞</t>
   </si>
   <si>
     <t>Create slope</t>
@@ -2906,10 +2903,10 @@
     <t>创建斜坡</t>
   </si>
   <si>
-    <t>Let you create routes.</t>
-  </si>
-  <si>
-    <t>使你创造道路。</t>
+    <t>Allows you to create routes</t>
+  </si>
+  <si>
+    <t>允许你铺设道路</t>
   </si>
   <si>
     <t>Area up</t>
@@ -2918,61 +2915,61 @@
     <t>面积</t>
   </si>
   <si>
-    <t>Let you raise or lower an area.</t>
-  </si>
-  <si>
-    <t>使你抬升或降低一个区域</t>
-  </si>
-  <si>
-    <t>Landscape align</t>
-  </si>
-  <si>
-    <t>地形对齐</t>
-  </si>
-  <si>
-    <t>Let you flatten area.</t>
-  </si>
-  <si>
-    <t>使你平整区域。</t>
-  </si>
-  <si>
-    <t>Small size living place. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: 0. Strenght: 75.</t>
+    <t>Allows you to raise or lower an area</t>
+  </si>
+  <si>
+    <t>允许你抬升或降低一个区域</t>
+  </si>
+  <si>
+    <t>Flatten land</t>
+  </si>
+  <si>
+    <t>平整土地</t>
+  </si>
+  <si>
+    <t>Allows you to flatten area.</t>
+  </si>
+  <si>
+    <t>允许你你平整区域。</t>
+  </si>
+  <si>
+    <t>Small size living space. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: 0. Strength: 75.</t>
   </si>
   <si>
     <t>小型住所。低怀孕几率。容量：%WORKER_COUNT%个村民。幸福：0。强度：75。</t>
   </si>
   <si>
-    <t>Medium size living place. Above average pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +10. Strenght: 110.</t>
+    <t>Medium size living space. Above average pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +10. Strength: 110.</t>
   </si>
   <si>
     <t>中型住所。高于平均的怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+10。强度：110。</t>
   </si>
   <si>
-    <t>Improved medium size living place. Have extra bedrooms. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +20. Strenght: 220.</t>
+    <t>Improved medium size living space with extra bedrooms. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +20. Strength: 220.</t>
   </si>
   <si>
     <t>进阶中型住所。有额外的卧室。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+20。强度：220。</t>
   </si>
   <si>
-    <t>Large size living place. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +20. Strenght: 540.</t>
+    <t>Large size living space. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +20. Strength: 540.</t>
   </si>
   <si>
     <t>大型住所。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+20。强度：540。</t>
   </si>
   <si>
-    <t>Improved large size living place. Have extra bedrooms. Extremely high pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +30. Strenght: 780.</t>
+    <t>Improved large size living space with extra bedrooms. Extremely high pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +30. Strength: 780.</t>
   </si>
   <si>
     <t>进阶大型住所。有额外的卧室。超高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+30。强度：780。</t>
   </si>
   <si>
-    <t>Temporary house. Extremely low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: 0. Strenght: 1000.</t>
+    <t>Temporary house. Extremely low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: 0. Strength: 1000.</t>
   </si>
   <si>
     <t>临时房屋。超低怀孕几率。容量：18个村民。幸福：0。强度：1000。</t>
   </si>
   <si>
-    <t>Improved temporary house. Have extra living rooms. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +5. Strenght: 1500.</t>
+    <t>Improved temporary house with extra living rooms. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +5. Strength: 1500.</t>
   </si>
   <si>
     <t>进阶临时房屋。有额外的起居室。低怀孕几率容量：18个村民。幸福：+5。强度：1500。</t>
@@ -3008,7 +3005,7 @@
     <t>在温暖季节采集植物及可食用根茎。工人数量：%WORKER_COUNT%。行动半径：%ACTION_RADIUS%。</t>
   </si>
   <si>
-    <t>Residents healing. Number of workers: %WORKER_COUNT%. Capacity: %VISITORS_COUNT% places.</t>
+    <t>Villager healing. Number of workers: %WORKER_COUNT%. Capacity: %VISITORS_COUNT% places.</t>
   </si>
   <si>
     <t>治疗村民。工人数量：%WORKER_COUNT%。容量：%VISITORS_COUNT%个位子。</t>
@@ -3020,13 +3017,13 @@
     <t>收集肉和兽皮，保护牧场。工人数量：%WORKER_COUNT%。行动半径：%ACTION_RADIUS%。</t>
   </si>
   <si>
-    <t>Improved firewood producing. Increased producing efficiency. Number of workers: %WORKER_COUNT%.</t>
-  </si>
-  <si>
-    <t>改进木柴生产。提高生产效率。工人数量：%WORKER_COUNT%。</t>
-  </si>
-  <si>
-    <t>Firewood producing for keeping heat in houses during cold seasons. Number of workers: %WORKER_COUNT%.</t>
+    <t>Improved firewood production. Increased production efficiency. Number of workers: %WORKER_COUNT%.</t>
+  </si>
+  <si>
+    <t>改进的木柴生产。提高生产效率。工人数量：%WORKER_COUNT%。</t>
+  </si>
+  <si>
+    <t>Firewood production in order to keep houses heated during cold seasons. Number of workers: %WORKER_COUNT%.</t>
   </si>
   <si>
     <t>在寒冷季节生产木柴保持室温。工人数量：%WORKER_COUNT%。</t>
@@ -3038,7 +3035,7 @@
     <t>提高生产力的儿童教育。工人数量：%WORKER_COUNT%。容量：%VISITORS_COUNT%个位子。</t>
   </si>
   <si>
-    <t>Tools producing. Number of workers: %WORKER_COUNT%.</t>
+    <t>Tool production. Number of workers: %WORKER_COUNT%.</t>
   </si>
   <si>
     <t>生产工具。工人数量：%WORKER_COUNT%。</t>
@@ -3056,22 +3053,22 @@
     <t>水源。</t>
   </si>
   <si>
-    <t>Herbal gathering for healing people. Number of workers: %WORKER_COUNT%. Action radius: %ACTION_RADIUS%.</t>
-  </si>
-  <si>
-    <t>为医生采集草药。工人数量：%WORKER_COUNT%。行动半径：%ACTION_RADIUS%。</t>
-  </si>
-  <si>
-    <t>Alcohol producing to improve happiness level. Number of workers: %WORKER_COUNT%. Max. visitors: %VISITORS_COUNT%.</t>
+    <t>Herbal gathering for healing villagers. Number of workers: %WORKER_COUNT%. Action radius: %ACTION_RADIUS%.</t>
+  </si>
+  <si>
+    <t>为治疗村名采集草药。工人数量：%WORKER_COUNT%。行动半径：%ACTION_RADIUS%。</t>
+  </si>
+  <si>
+    <t>Alcohol production to improve happiness level. Number of workers: %WORKER_COUNT%. Max. visitors: %VISITORS_COUNT%.</t>
   </si>
   <si>
     <t>生产酒以提高幸福度。工人数量：%WORKER_COUNT%。最大客人数：%VISITORS_COUNT%个位子。</t>
   </si>
   <si>
-    <t>Burning dead people. 1 pyre for 1 corpse in the area with action radius: %ACTION_RADIUS%.</t>
-  </si>
-  <si>
-    <t>焚烧尸体。每具尸体需要一堆柴。行动半径：%ACTION_RADIUS%。</t>
+    <t>Cremating the deceased. One pyre for one corpse in the area with action radius: %ACTION_RADIUS%.</t>
+  </si>
+  <si>
+    <t>焚烧尸体。一桩柴堆一具尸体。行动半径：%ACTION_RADIUS%。</t>
   </si>
   <si>
     <t>Cows keeping for meat and milk gathering. Food: water, hay during cold time. Hunter is required for the protection from wild animals. Number of workers: %WORKER_COUNT%.</t>
@@ -3955,9 +3952,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -3995,6 +3992,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4009,16 +4013,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4041,14 +4060,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4062,46 +4105,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4120,14 +4125,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4164,13 +4161,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4182,37 +4203,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4224,7 +4227,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4236,25 +4245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4272,19 +4263,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4296,13 +4293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4320,13 +4311,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4390,45 +4387,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4462,6 +4420,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4472,16 +4454,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4490,133 +4487,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5000,8 +4997,8 @@
   <sheetPr/>
   <dimension ref="A1:E803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A751" workbookViewId="0">
-      <selection activeCell="D785" sqref="D785"/>
+    <sheetView tabSelected="1" topLeftCell="A605" workbookViewId="0">
+      <selection activeCell="B636" sqref="B636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -10699,7 +10696,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>705</v>
+        <v>468</v>
       </c>
       <c r="C466" s="3"/>
       <c r="D466" s="3" t="s">
@@ -10712,7 +10709,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C467" s="3"/>
       <c r="D467" s="3" t="s">
@@ -10725,11 +10722,11 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C468" s="3"/>
       <c r="D468" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E468" s="2"/>
     </row>
@@ -10738,7 +10735,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C469" s="3"/>
       <c r="D469" s="3" t="s">
@@ -10751,13 +10748,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E470" s="2"/>
     </row>
@@ -10766,13 +10763,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E471" s="2"/>
     </row>
@@ -10781,13 +10778,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E472" s="2"/>
     </row>
@@ -10796,13 +10793,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E473" s="2"/>
     </row>
@@ -10811,13 +10808,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E474" s="2"/>
     </row>
@@ -10826,13 +10823,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E475" s="2"/>
     </row>
@@ -10841,13 +10838,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E476" s="2"/>
     </row>
@@ -10856,13 +10853,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E477" s="2"/>
     </row>
@@ -10871,13 +10868,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E478" s="2"/>
     </row>
@@ -10886,13 +10883,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E479" s="2"/>
     </row>
@@ -10901,13 +10898,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E480" s="2"/>
     </row>
@@ -10916,13 +10913,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E481" s="2"/>
     </row>
@@ -10931,13 +10928,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E482" s="2"/>
     </row>
@@ -10946,13 +10943,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E483" s="2"/>
     </row>
@@ -10961,13 +10958,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E484" s="2"/>
     </row>
@@ -10976,13 +10973,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E485" s="2"/>
     </row>
@@ -10991,13 +10988,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E486" s="2"/>
     </row>
@@ -11006,13 +11003,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E487" s="2"/>
     </row>
@@ -11021,13 +11018,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E488" s="2"/>
     </row>
@@ -11036,13 +11033,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E489" s="2"/>
     </row>
@@ -11051,13 +11048,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E490" s="2"/>
     </row>
@@ -11066,13 +11063,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E491" s="2"/>
     </row>
@@ -11081,13 +11078,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E492" s="2"/>
     </row>
@@ -11096,13 +11093,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E493" s="2"/>
     </row>
@@ -11111,13 +11108,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E494" s="2"/>
     </row>
@@ -11126,13 +11123,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E495" s="2"/>
     </row>
@@ -11141,13 +11138,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E496" s="2"/>
     </row>
@@ -11156,13 +11153,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E497" s="2"/>
     </row>
@@ -11171,13 +11168,13 @@
         <v>497</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E498" s="2"/>
     </row>
@@ -11186,13 +11183,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E499" s="2"/>
     </row>
@@ -11201,13 +11198,13 @@
         <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E500" s="2"/>
     </row>
@@ -11216,13 +11213,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C501" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E501" s="2"/>
     </row>
@@ -11231,16 +11228,16 @@
         <v>501</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C502" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D502" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="E502" s="11" t="s">
         <v>775</v>
-      </c>
-      <c r="E502" s="11" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11248,13 +11245,13 @@
         <v>502</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C503" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D503" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E503" s="11"/>
     </row>
@@ -11263,11 +11260,11 @@
         <v>503</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C504" s="3"/>
       <c r="D504" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E504" s="11"/>
     </row>
@@ -11276,11 +11273,11 @@
         <v>504</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C505" s="3"/>
       <c r="D505" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E505" s="11"/>
     </row>
@@ -11289,11 +11286,11 @@
         <v>505</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C506" s="3"/>
       <c r="D506" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E506" s="11"/>
     </row>
@@ -11302,11 +11299,11 @@
         <v>506</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C507" s="3"/>
       <c r="D507" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E507" s="11"/>
     </row>
@@ -11315,11 +11312,11 @@
         <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C508" s="3"/>
       <c r="D508" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E508" s="11"/>
     </row>
@@ -11328,11 +11325,11 @@
         <v>508</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C509" s="3"/>
       <c r="D509" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E509" s="11"/>
     </row>
@@ -11341,11 +11338,11 @@
         <v>509</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C510" s="3"/>
       <c r="D510" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E510" s="11"/>
     </row>
@@ -11354,11 +11351,11 @@
         <v>510</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C511" s="3"/>
       <c r="D511" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E511" s="11"/>
     </row>
@@ -11367,11 +11364,11 @@
         <v>511</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C512" s="3"/>
       <c r="D512" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E512" s="11"/>
     </row>
@@ -11380,11 +11377,11 @@
         <v>512</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C513" s="3"/>
       <c r="D513" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E513" s="11"/>
     </row>
@@ -11393,11 +11390,11 @@
         <v>513</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C514" s="3"/>
       <c r="D514" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E514" s="11"/>
     </row>
@@ -11406,11 +11403,11 @@
         <v>514</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C515" s="3"/>
       <c r="D515" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E515" s="11"/>
     </row>
@@ -11419,13 +11416,13 @@
         <v>515</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C516" s="3">
         <v>20</v>
       </c>
       <c r="D516" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E516" s="11"/>
     </row>
@@ -11434,13 +11431,13 @@
         <v>516</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C517" s="3">
         <v>20</v>
       </c>
       <c r="D517" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E517" s="11"/>
     </row>
@@ -11449,13 +11446,13 @@
         <v>517</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C518" s="3">
         <v>20</v>
       </c>
       <c r="D518" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E518" s="11"/>
     </row>
@@ -11464,13 +11461,13 @@
         <v>518</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C519" s="3">
         <v>20</v>
       </c>
       <c r="D519" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E519" s="11"/>
     </row>
@@ -11479,13 +11476,13 @@
         <v>519</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C520" s="3">
         <v>20</v>
       </c>
       <c r="D520" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E520" s="11"/>
     </row>
@@ -11494,13 +11491,13 @@
         <v>520</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C521" s="3">
         <v>20</v>
       </c>
       <c r="D521" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E521" s="11"/>
     </row>
@@ -11509,11 +11506,11 @@
         <v>521</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C522" s="3"/>
       <c r="D522" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E522" s="11"/>
     </row>
@@ -11522,13 +11519,13 @@
         <v>522</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C523" s="3">
         <v>33</v>
       </c>
       <c r="D523" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E523" s="11"/>
     </row>
@@ -11537,11 +11534,11 @@
         <v>523</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C524" s="3"/>
       <c r="D524" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E524" s="11"/>
     </row>
@@ -11550,11 +11547,11 @@
         <v>524</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C525" s="3"/>
       <c r="D525" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E525" s="11"/>
     </row>
@@ -11563,11 +11560,11 @@
         <v>525</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C526" s="3"/>
       <c r="D526" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E526" s="11"/>
     </row>
@@ -11576,11 +11573,11 @@
         <v>526</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C527" s="3"/>
       <c r="D527" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E527" s="11"/>
     </row>
@@ -11589,11 +11586,11 @@
         <v>527</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C528" s="3"/>
       <c r="D528" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E528" s="11"/>
     </row>
@@ -11602,11 +11599,11 @@
         <v>528</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C529" s="3"/>
       <c r="D529" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E529" s="11"/>
     </row>
@@ -11633,11 +11630,11 @@
         <v>531</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C532" s="3"/>
       <c r="D532" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E532" s="11"/>
     </row>
@@ -11655,11 +11652,11 @@
         <v>533</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C534" s="3"/>
       <c r="D534" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E534" s="11"/>
     </row>
@@ -11668,13 +11665,13 @@
         <v>534</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C535" s="3">
         <v>16</v>
       </c>
       <c r="D535" s="10" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E535" s="11"/>
     </row>
@@ -11683,13 +11680,13 @@
         <v>535</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C536" s="3">
         <v>222</v>
       </c>
       <c r="D536" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E536" s="11"/>
     </row>
@@ -11698,13 +11695,13 @@
         <v>536</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C537" s="3">
         <v>222</v>
       </c>
       <c r="D537" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E537" s="11"/>
     </row>
@@ -11713,13 +11710,13 @@
         <v>537</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C538" s="3">
         <v>222</v>
       </c>
       <c r="D538" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E538" s="11"/>
     </row>
@@ -11728,13 +11725,13 @@
         <v>538</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C539" s="3">
         <v>222</v>
       </c>
       <c r="D539" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E539" s="11"/>
     </row>
@@ -11743,13 +11740,13 @@
         <v>539</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C540" s="3">
         <v>222</v>
       </c>
       <c r="D540" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E540" s="11"/>
     </row>
@@ -11758,13 +11755,13 @@
         <v>540</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C541" s="3">
         <v>222</v>
       </c>
       <c r="D541" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E541" s="11"/>
     </row>
@@ -11773,11 +11770,11 @@
         <v>541</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C542" s="3"/>
       <c r="D542" s="10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E542" s="11"/>
     </row>
@@ -11786,13 +11783,13 @@
         <v>542</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C543" s="3">
         <v>28</v>
       </c>
       <c r="D543" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E543" s="11"/>
     </row>
@@ -11801,13 +11798,13 @@
         <v>543</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C544" s="3">
         <v>30</v>
       </c>
       <c r="D544" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E544" s="11"/>
     </row>
@@ -11816,13 +11813,13 @@
         <v>544</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C545" s="3">
         <v>30</v>
       </c>
       <c r="D545" s="10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E545" s="11"/>
     </row>
@@ -11831,13 +11828,13 @@
         <v>545</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C546" s="3">
         <v>30</v>
       </c>
       <c r="D546" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E546" s="11"/>
     </row>
@@ -11846,11 +11843,11 @@
         <v>546</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C547" s="3"/>
       <c r="D547" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E547" s="11"/>
     </row>
@@ -11859,11 +11856,11 @@
         <v>547</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C548" s="3"/>
       <c r="D548" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E548" s="11"/>
     </row>
@@ -11872,11 +11869,11 @@
         <v>548</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C549" s="3"/>
       <c r="D549" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E549" s="11"/>
     </row>
@@ -11885,11 +11882,11 @@
         <v>549</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C550" s="3"/>
       <c r="D550" s="10" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E550" s="11"/>
     </row>
@@ -11898,11 +11895,11 @@
         <v>550</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C551" s="3"/>
       <c r="D551" s="10" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E551" s="11"/>
     </row>
@@ -11911,7 +11908,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C552" s="3"/>
       <c r="D552" s="10" t="s">
@@ -11924,11 +11921,11 @@
         <v>552</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C553" s="3"/>
       <c r="D553" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E553" s="11"/>
     </row>
@@ -11937,11 +11934,11 @@
         <v>553</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C554" s="3"/>
       <c r="D554" s="10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E554" s="11"/>
     </row>
@@ -11950,11 +11947,11 @@
         <v>554</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C555" s="3"/>
       <c r="D555" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E555" s="11"/>
     </row>
@@ -11963,11 +11960,11 @@
         <v>555</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C556" s="3"/>
       <c r="D556" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E556" s="11"/>
     </row>
@@ -11976,11 +11973,11 @@
         <v>556</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C557" s="3"/>
       <c r="D557" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E557" s="11"/>
     </row>
@@ -11989,11 +11986,11 @@
         <v>557</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C558" s="3"/>
       <c r="D558" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E558" s="11"/>
     </row>
@@ -12002,11 +11999,11 @@
         <v>558</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C559" s="3"/>
       <c r="D559" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E559" s="11"/>
     </row>
@@ -12015,11 +12012,11 @@
         <v>559</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C560" s="3"/>
       <c r="D560" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E560" s="11"/>
     </row>
@@ -12028,11 +12025,11 @@
         <v>560</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C561" s="3"/>
       <c r="D561" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E561" s="11"/>
     </row>
@@ -12041,11 +12038,11 @@
         <v>561</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C562" s="3"/>
       <c r="D562" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E562" s="11"/>
     </row>
@@ -12054,11 +12051,11 @@
         <v>562</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C563" s="3"/>
       <c r="D563" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E563" s="11"/>
     </row>
@@ -12067,11 +12064,11 @@
         <v>563</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C564" s="3"/>
       <c r="D564" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E564" s="11"/>
     </row>
@@ -12080,11 +12077,11 @@
         <v>564</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C565" s="3"/>
       <c r="D565" s="10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E565" s="11"/>
     </row>
@@ -12093,11 +12090,11 @@
         <v>565</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E566" s="11"/>
     </row>
@@ -12106,11 +12103,11 @@
         <v>566</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C567" s="3"/>
       <c r="D567" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E567" s="11"/>
     </row>
@@ -12119,11 +12116,11 @@
         <v>567</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C568" s="3"/>
       <c r="D568" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E568" s="11"/>
     </row>
@@ -12141,11 +12138,11 @@
         <v>569</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C570" s="3"/>
       <c r="D570" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E570" s="11"/>
     </row>
@@ -12154,11 +12151,11 @@
         <v>570</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C571" s="3"/>
       <c r="D571" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E571" s="11"/>
     </row>
@@ -12167,11 +12164,11 @@
         <v>571</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C572" s="3"/>
       <c r="D572" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E572" s="11"/>
     </row>
@@ -12180,11 +12177,11 @@
         <v>572</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C573" s="3"/>
       <c r="D573" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E573" s="11"/>
     </row>
@@ -12193,11 +12190,11 @@
         <v>573</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C574" s="3"/>
       <c r="D574" s="10" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E574" s="11"/>
     </row>
@@ -12224,11 +12221,11 @@
         <v>576</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C577" s="3"/>
       <c r="D577" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E577" s="11"/>
     </row>
@@ -12237,11 +12234,11 @@
         <v>577</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C578" s="3"/>
       <c r="D578" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E578" s="11"/>
     </row>
@@ -12250,11 +12247,11 @@
         <v>578</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C579" s="3"/>
       <c r="D579" s="10" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E579" s="11"/>
     </row>
@@ -12263,11 +12260,11 @@
         <v>579</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C580" s="3"/>
       <c r="D580" s="10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E580" s="11"/>
     </row>
@@ -12276,11 +12273,11 @@
         <v>580</v>
       </c>
       <c r="B581" s="12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C581" s="12"/>
       <c r="D581" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>4</v>
@@ -12300,11 +12297,11 @@
         <v>582</v>
       </c>
       <c r="B583" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C583" s="12"/>
       <c r="D583" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E583" s="2"/>
     </row>
@@ -12313,11 +12310,11 @@
         <v>583</v>
       </c>
       <c r="B584" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C584" s="13"/>
       <c r="D584" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E584" s="2"/>
     </row>
@@ -12326,11 +12323,11 @@
         <v>584</v>
       </c>
       <c r="B585" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C585" s="12"/>
       <c r="D585" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E585" s="2"/>
     </row>
@@ -12339,11 +12336,11 @@
         <v>585</v>
       </c>
       <c r="B586" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C586" s="13"/>
       <c r="D586" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E586" s="2"/>
     </row>
@@ -12352,11 +12349,11 @@
         <v>586</v>
       </c>
       <c r="B587" s="12" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C587" s="12"/>
       <c r="D587" s="12" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E587" s="2"/>
     </row>
@@ -12365,11 +12362,11 @@
         <v>587</v>
       </c>
       <c r="B588" s="13" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C588" s="13"/>
       <c r="D588" s="13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E588" s="2"/>
     </row>
@@ -12378,11 +12375,11 @@
         <v>588</v>
       </c>
       <c r="B589" s="12" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C589" s="12"/>
       <c r="D589" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E589" s="2"/>
     </row>
@@ -12391,11 +12388,11 @@
         <v>589</v>
       </c>
       <c r="B590" s="13" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C590" s="13"/>
       <c r="D590" s="13" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E590" s="2"/>
     </row>
@@ -12404,11 +12401,11 @@
         <v>590</v>
       </c>
       <c r="B591" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C591" s="12"/>
       <c r="D591" s="12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E591" s="2"/>
     </row>
@@ -12417,11 +12414,11 @@
         <v>591</v>
       </c>
       <c r="B592" s="13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C592" s="13"/>
       <c r="D592" s="13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E592" s="2"/>
     </row>
@@ -12430,11 +12427,11 @@
         <v>592</v>
       </c>
       <c r="B593" s="12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C593" s="12"/>
       <c r="D593" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E593" s="2"/>
     </row>
@@ -12443,11 +12440,11 @@
         <v>593</v>
       </c>
       <c r="B594" s="13" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C594" s="13"/>
       <c r="D594" s="13" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E594" s="2"/>
     </row>
@@ -12456,11 +12453,11 @@
         <v>594</v>
       </c>
       <c r="B595" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C595" s="12"/>
       <c r="D595" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E595" s="2"/>
     </row>
@@ -12469,11 +12466,11 @@
         <v>595</v>
       </c>
       <c r="B596" s="13" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C596" s="13"/>
       <c r="D596" s="13" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E596" s="2"/>
     </row>
@@ -12482,11 +12479,11 @@
         <v>596</v>
       </c>
       <c r="B597" s="12" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C597" s="12"/>
       <c r="D597" s="12" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E597" s="2"/>
     </row>
@@ -12495,11 +12492,11 @@
         <v>597</v>
       </c>
       <c r="B598" s="13" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C598" s="13"/>
       <c r="D598" s="13" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E598" s="2"/>
     </row>
@@ -12517,11 +12514,11 @@
         <v>599</v>
       </c>
       <c r="B600" s="13" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C600" s="13"/>
       <c r="D600" s="13" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E600" s="2"/>
     </row>
@@ -12530,11 +12527,11 @@
         <v>600</v>
       </c>
       <c r="B601" s="12" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C601" s="12"/>
       <c r="D601" s="12" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E601" s="2"/>
     </row>
@@ -12543,11 +12540,11 @@
         <v>601</v>
       </c>
       <c r="B602" s="13" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C602" s="13"/>
       <c r="D602" s="13" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E602" s="2"/>
     </row>
@@ -12556,11 +12553,11 @@
         <v>602</v>
       </c>
       <c r="B603" s="12" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C603" s="12"/>
       <c r="D603" s="12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E603" s="2"/>
     </row>
@@ -12569,11 +12566,11 @@
         <v>603</v>
       </c>
       <c r="B604" s="13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C604" s="13"/>
       <c r="D604" s="13" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E604" s="2"/>
     </row>
@@ -12582,11 +12579,11 @@
         <v>604</v>
       </c>
       <c r="B605" s="12" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C605" s="12"/>
       <c r="D605" s="12" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E605" s="2"/>
     </row>
@@ -12595,11 +12592,11 @@
         <v>605</v>
       </c>
       <c r="B606" s="13" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C606" s="13"/>
       <c r="D606" s="13" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E606" s="2"/>
     </row>
@@ -12608,11 +12605,11 @@
         <v>606</v>
       </c>
       <c r="B607" s="12" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C607" s="12"/>
       <c r="D607" s="12" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E607" s="2"/>
     </row>
@@ -12621,11 +12618,11 @@
         <v>607</v>
       </c>
       <c r="B608" s="13" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C608" s="13"/>
       <c r="D608" s="13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E608" s="2"/>
     </row>
@@ -12634,13 +12631,13 @@
         <v>608</v>
       </c>
       <c r="B609" s="12" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C609" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D609" s="12" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E609" s="2"/>
     </row>
@@ -12649,13 +12646,13 @@
         <v>609</v>
       </c>
       <c r="B610" s="13" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C610" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D610" s="13" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E610" s="2"/>
     </row>
@@ -12664,13 +12661,13 @@
         <v>610</v>
       </c>
       <c r="B611" s="12" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C611" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D611" s="12" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E611" s="2"/>
     </row>
@@ -12679,13 +12676,13 @@
         <v>611</v>
       </c>
       <c r="B612" s="13" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C612" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D612" s="13" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E612" s="2"/>
     </row>
@@ -12694,13 +12691,13 @@
         <v>612</v>
       </c>
       <c r="B613" s="12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C613" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D613" s="12" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E613" s="2"/>
     </row>
@@ -12727,13 +12724,13 @@
         <v>615</v>
       </c>
       <c r="B616" s="13" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C616" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D616" s="13" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E616" s="2"/>
     </row>
@@ -12742,13 +12739,13 @@
         <v>616</v>
       </c>
       <c r="B617" s="12" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C617" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D617" s="12" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E617" s="2"/>
     </row>
@@ -12757,11 +12754,11 @@
         <v>617</v>
       </c>
       <c r="B618" s="13" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C618" s="13"/>
       <c r="D618" s="13" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E618" s="2"/>
     </row>
@@ -12770,11 +12767,11 @@
         <v>618</v>
       </c>
       <c r="B619" s="12" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C619" s="12"/>
       <c r="D619" s="12" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E619" s="2"/>
     </row>
@@ -12792,13 +12789,13 @@
         <v>620</v>
       </c>
       <c r="B621" s="12" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C621" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D621" s="12" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E621" s="2"/>
     </row>
@@ -12807,13 +12804,13 @@
         <v>621</v>
       </c>
       <c r="B622" s="13" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C622" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D622" s="13" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E622" s="2"/>
     </row>
@@ -12822,13 +12819,13 @@
         <v>622</v>
       </c>
       <c r="B623" s="12" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C623" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D623" s="12" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E623" s="2"/>
     </row>
@@ -12837,13 +12834,13 @@
         <v>623</v>
       </c>
       <c r="B624" s="13" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C624" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D624" s="13" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E624" s="2"/>
     </row>
@@ -12852,13 +12849,13 @@
         <v>624</v>
       </c>
       <c r="B625" s="12" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C625" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D625" s="12" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E625" s="2"/>
     </row>
@@ -12867,13 +12864,13 @@
         <v>625</v>
       </c>
       <c r="B626" s="13" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C626" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D626" s="13" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E626" s="2"/>
     </row>
@@ -12882,13 +12879,13 @@
         <v>626</v>
       </c>
       <c r="B627" s="12" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C627" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D627" s="12" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E627" s="2"/>
     </row>
@@ -12897,13 +12894,13 @@
         <v>627</v>
       </c>
       <c r="B628" s="13" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C628" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D628" s="13" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E628" s="2"/>
     </row>
@@ -12912,11 +12909,11 @@
         <v>628</v>
       </c>
       <c r="B629" s="12" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C629" s="12"/>
       <c r="D629" s="12" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E629" s="2"/>
     </row>
@@ -12925,11 +12922,11 @@
         <v>629</v>
       </c>
       <c r="B630" s="13" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C630" s="13"/>
       <c r="D630" s="13" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E630" s="2"/>
     </row>
@@ -12938,11 +12935,11 @@
         <v>630</v>
       </c>
       <c r="B631" s="12" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C631" s="12"/>
       <c r="D631" s="12" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E631" s="2"/>
     </row>
@@ -12951,13 +12948,13 @@
         <v>631</v>
       </c>
       <c r="B632" s="13" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C632" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D632" s="13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E632" s="2"/>
     </row>
@@ -12975,13 +12972,13 @@
         <v>633</v>
       </c>
       <c r="B634" s="13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C634" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D634" s="13" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E634" s="2"/>
     </row>
@@ -12990,13 +12987,13 @@
         <v>634</v>
       </c>
       <c r="B635" s="12" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C635" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D635" s="12" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E635" s="2"/>
     </row>
@@ -13005,13 +13002,13 @@
         <v>635</v>
       </c>
       <c r="B636" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C636" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D636" s="13" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E636" s="2"/>
     </row>
@@ -13020,13 +13017,13 @@
         <v>636</v>
       </c>
       <c r="B637" s="12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C637" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D637" s="12" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E637" s="2"/>
     </row>
@@ -13035,13 +13032,13 @@
         <v>637</v>
       </c>
       <c r="B638" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C638" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D638" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E638" s="2"/>
     </row>
@@ -13050,13 +13047,13 @@
         <v>638</v>
       </c>
       <c r="B639" s="12" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C639" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D639" s="12" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E639" s="2"/>
     </row>
@@ -13065,13 +13062,13 @@
         <v>639</v>
       </c>
       <c r="B640" s="13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C640" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D640" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E640" s="2"/>
     </row>
@@ -13080,13 +13077,13 @@
         <v>640</v>
       </c>
       <c r="B641" s="12" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C641" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D641" s="12" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E641" s="2"/>
     </row>
@@ -13095,11 +13092,11 @@
         <v>641</v>
       </c>
       <c r="B642" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C642" s="13"/>
       <c r="D642" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E642" s="2"/>
     </row>
@@ -13108,11 +13105,11 @@
         <v>642</v>
       </c>
       <c r="B643" s="12" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C643" s="12"/>
       <c r="D643" s="12" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E643" s="2"/>
     </row>
@@ -13121,13 +13118,13 @@
         <v>643</v>
       </c>
       <c r="B644" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C644" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D644" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E644" s="2"/>
     </row>
@@ -13136,13 +13133,13 @@
         <v>644</v>
       </c>
       <c r="B645" s="12" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C645" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D645" s="12" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E645" s="2"/>
     </row>
@@ -13151,11 +13148,11 @@
         <v>645</v>
       </c>
       <c r="B646" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C646" s="13"/>
       <c r="D646" s="13" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E646" s="2"/>
     </row>
@@ -13164,11 +13161,11 @@
         <v>646</v>
       </c>
       <c r="B647" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C647" s="12"/>
       <c r="D647" s="12" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E647" s="2"/>
     </row>
@@ -13177,11 +13174,11 @@
         <v>647</v>
       </c>
       <c r="B648" s="13" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C648" s="13"/>
       <c r="D648" s="13" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E648" s="2"/>
     </row>
@@ -13190,11 +13187,11 @@
         <v>648</v>
       </c>
       <c r="B649" s="12" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C649" s="12"/>
       <c r="D649" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E649" s="2"/>
     </row>
@@ -13203,11 +13200,11 @@
         <v>649</v>
       </c>
       <c r="B650" s="13" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C650" s="13"/>
       <c r="D650" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E650" s="2"/>
     </row>
@@ -13216,11 +13213,11 @@
         <v>650</v>
       </c>
       <c r="B651" s="12" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C651" s="12"/>
       <c r="D651" s="12" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E651" s="2"/>
     </row>
@@ -13274,11 +13271,11 @@
         <v>656</v>
       </c>
       <c r="B657" s="12" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C657" s="12"/>
       <c r="D657" s="12" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E657" s="2"/>
     </row>
@@ -13287,11 +13284,11 @@
         <v>657</v>
       </c>
       <c r="B658" s="13" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C658" s="13"/>
       <c r="D658" s="13" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E658" s="2"/>
     </row>
@@ -13300,11 +13297,11 @@
         <v>658</v>
       </c>
       <c r="B659" s="12" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C659" s="12"/>
       <c r="D659" s="12" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E659" s="2"/>
     </row>
@@ -13313,11 +13310,11 @@
         <v>659</v>
       </c>
       <c r="B660" s="13" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C660" s="13"/>
       <c r="D660" s="13" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E660" s="2"/>
     </row>
@@ -13326,11 +13323,11 @@
         <v>660</v>
       </c>
       <c r="B661" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C661" s="12"/>
       <c r="D661" s="12" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E661" s="2"/>
     </row>
@@ -13339,11 +13336,11 @@
         <v>661</v>
       </c>
       <c r="B662" s="13" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C662" s="13"/>
       <c r="D662" s="13" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E662" s="2"/>
     </row>
@@ -13352,11 +13349,11 @@
         <v>662</v>
       </c>
       <c r="B663" s="12" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C663" s="12"/>
       <c r="D663" s="12" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E663" s="2"/>
     </row>
@@ -13383,11 +13380,11 @@
         <v>665</v>
       </c>
       <c r="B666" s="13" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C666" s="13"/>
       <c r="D666" s="13" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E666" s="2"/>
     </row>
@@ -13396,11 +13393,11 @@
         <v>666</v>
       </c>
       <c r="B667" s="12" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C667" s="12"/>
       <c r="D667" s="12" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E667" s="2"/>
     </row>
@@ -13409,11 +13406,11 @@
         <v>667</v>
       </c>
       <c r="B668" s="13" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C668" s="13"/>
       <c r="D668" s="13" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E668" s="2"/>
     </row>
@@ -13449,11 +13446,11 @@
         <v>671</v>
       </c>
       <c r="B672" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C672" s="13"/>
       <c r="D672" s="13" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E672" s="2"/>
     </row>
@@ -13462,11 +13459,11 @@
         <v>672</v>
       </c>
       <c r="B673" s="12" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C673" s="12"/>
       <c r="D673" s="12" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E673" s="2"/>
     </row>
@@ -13475,11 +13472,11 @@
         <v>673</v>
       </c>
       <c r="B674" s="13" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C674" s="13"/>
       <c r="D674" s="13" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E674" s="2"/>
     </row>
@@ -13488,11 +13485,11 @@
         <v>674</v>
       </c>
       <c r="B675" s="12" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C675" s="12"/>
       <c r="D675" s="12" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E675" s="2"/>
     </row>
@@ -13501,11 +13498,11 @@
         <v>675</v>
       </c>
       <c r="B676" s="13" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C676" s="13"/>
       <c r="D676" s="13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E676" s="2"/>
     </row>
@@ -13514,11 +13511,11 @@
         <v>676</v>
       </c>
       <c r="B677" s="12" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C677" s="12"/>
       <c r="D677" s="12" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E677" s="2"/>
     </row>
@@ -13527,11 +13524,11 @@
         <v>677</v>
       </c>
       <c r="B678" s="13" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C678" s="13"/>
       <c r="D678" s="13" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E678" s="2"/>
     </row>
@@ -13540,11 +13537,11 @@
         <v>678</v>
       </c>
       <c r="B679" s="12" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C679" s="12"/>
       <c r="D679" s="12" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E679" s="2"/>
     </row>
@@ -13553,11 +13550,11 @@
         <v>679</v>
       </c>
       <c r="B680" s="13" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C680" s="13"/>
       <c r="D680" s="13" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E680" s="2"/>
     </row>
@@ -13566,11 +13563,11 @@
         <v>680</v>
       </c>
       <c r="B681" s="12" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C681" s="12"/>
       <c r="D681" s="12" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E681" s="2"/>
     </row>
@@ -13579,11 +13576,11 @@
         <v>681</v>
       </c>
       <c r="B682" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C682" s="13"/>
       <c r="D682" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E682" s="2"/>
     </row>
@@ -13592,11 +13589,11 @@
         <v>682</v>
       </c>
       <c r="B683" s="12" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C683" s="12"/>
       <c r="D683" s="12" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E683" s="2"/>
     </row>
@@ -13605,11 +13602,11 @@
         <v>683</v>
       </c>
       <c r="B684" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C684" s="13"/>
       <c r="D684" s="13" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E684" s="2"/>
     </row>
@@ -13627,11 +13624,11 @@
         <v>685</v>
       </c>
       <c r="B686" s="13" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C686" s="13"/>
       <c r="D686" s="13" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E686" s="2"/>
     </row>
@@ -13640,11 +13637,11 @@
         <v>686</v>
       </c>
       <c r="B687" s="12" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C687" s="12"/>
       <c r="D687" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E687" s="2"/>
     </row>
@@ -13653,11 +13650,11 @@
         <v>687</v>
       </c>
       <c r="B688" s="13" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C688" s="13"/>
       <c r="D688" s="13" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E688" s="2"/>
     </row>
@@ -13666,11 +13663,11 @@
         <v>688</v>
       </c>
       <c r="B689" s="12" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C689" s="12"/>
       <c r="D689" s="12" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E689" s="2"/>
     </row>
@@ -13688,13 +13685,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="12" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C691" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D691" s="12" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E691" s="2"/>
     </row>
@@ -13703,11 +13700,11 @@
         <v>691</v>
       </c>
       <c r="B692" s="13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C692" s="13"/>
       <c r="D692" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E692" s="2"/>
     </row>
@@ -13734,13 +13731,13 @@
         <v>694</v>
       </c>
       <c r="B695" s="12" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C695" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D695" s="12" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E695" s="2"/>
     </row>
@@ -13749,13 +13746,13 @@
         <v>695</v>
       </c>
       <c r="B696" s="13" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C696" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D696" s="13" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E696" s="2"/>
     </row>
@@ -13764,13 +13761,13 @@
         <v>696</v>
       </c>
       <c r="B697" s="12" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C697" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D697" s="12" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E697" s="2"/>
     </row>
@@ -13779,11 +13776,11 @@
         <v>697</v>
       </c>
       <c r="B698" s="13" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C698" s="13"/>
       <c r="D698" s="13" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E698" s="2"/>
     </row>
@@ -13792,13 +13789,13 @@
         <v>698</v>
       </c>
       <c r="B699" s="12" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C699" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D699" s="12" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E699" s="2"/>
     </row>
@@ -13807,11 +13804,11 @@
         <v>699</v>
       </c>
       <c r="B700" s="13" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C700" s="13"/>
       <c r="D700" s="13" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E700" s="2"/>
     </row>
@@ -13820,11 +13817,11 @@
         <v>700</v>
       </c>
       <c r="B701" s="12" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C701" s="12"/>
       <c r="D701" s="12" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E701" s="2"/>
     </row>
@@ -13833,11 +13830,11 @@
         <v>701</v>
       </c>
       <c r="B702" s="13" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C702" s="13"/>
       <c r="D702" s="13" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E702" s="2"/>
     </row>
@@ -13846,11 +13843,11 @@
         <v>702</v>
       </c>
       <c r="B703" s="12" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C703" s="12"/>
       <c r="D703" s="12" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E703" s="2"/>
     </row>
@@ -13859,11 +13856,11 @@
         <v>703</v>
       </c>
       <c r="B704" s="13" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C704" s="13"/>
       <c r="D704" s="13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E704" s="2"/>
     </row>
@@ -13872,13 +13869,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="12" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C705" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D705" s="12" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E705" s="2"/>
     </row>
@@ -13887,11 +13884,11 @@
         <v>705</v>
       </c>
       <c r="B706" s="13" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C706" s="13"/>
       <c r="D706" s="13" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E706" s="2"/>
     </row>
@@ -13900,13 +13897,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="12" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C707" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D707" s="12" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -13914,13 +13911,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="13" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C708" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D708" s="13" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -13928,13 +13925,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="12" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C709" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D709" s="12" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13942,13 +13939,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="13" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C710" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D710" s="13" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -13956,13 +13953,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="12" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C711" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D711" s="12" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -13970,11 +13967,11 @@
         <v>711</v>
       </c>
       <c r="B712" s="13" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C712" s="13"/>
       <c r="D712" s="13" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -13982,13 +13979,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="12" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C713" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D713" s="12" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13996,13 +13993,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="13" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C714" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D714" s="13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -14010,13 +14007,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C715" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D715" s="12" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -14024,13 +14021,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="13" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C716" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D716" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -14038,13 +14035,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C717" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D717" s="12" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -14052,13 +14049,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C718" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D718" s="13" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -14066,13 +14063,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="12" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C719" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D719" s="12" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -14080,13 +14077,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="13" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C720" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D720" s="13" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -14094,13 +14091,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="12" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C721" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D721" s="12" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -14108,11 +14105,11 @@
         <v>721</v>
       </c>
       <c r="B722" s="13" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C722" s="13"/>
       <c r="D722" s="13" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -14120,13 +14117,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="12" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C723" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D723" s="12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -14134,13 +14131,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="13" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C724" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D724" s="13" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -14148,13 +14145,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="12" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C725" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D725" s="12" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -14162,13 +14159,13 @@
         <v>725</v>
       </c>
       <c r="B726" s="13" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C726" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D726" s="13" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -14176,13 +14173,13 @@
         <v>726</v>
       </c>
       <c r="B727" s="12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C727" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D727" s="12" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -14190,13 +14187,13 @@
         <v>727</v>
       </c>
       <c r="B728" s="13" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C728" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D728" s="13" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -14204,13 +14201,13 @@
         <v>728</v>
       </c>
       <c r="B729" s="12" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C729" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D729" s="12" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -14218,13 +14215,13 @@
         <v>729</v>
       </c>
       <c r="B730" s="13" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C730" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D730" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -14232,13 +14229,13 @@
         <v>730</v>
       </c>
       <c r="B731" s="12" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C731" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D731" s="12" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -14246,11 +14243,11 @@
         <v>731</v>
       </c>
       <c r="B732" s="13" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C732" s="13"/>
       <c r="D732" s="13" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -14258,13 +14255,13 @@
         <v>732</v>
       </c>
       <c r="B733" s="12" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C733" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D733" s="12" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -14272,13 +14269,13 @@
         <v>733</v>
       </c>
       <c r="B734" s="13" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C734" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D734" s="13" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -14286,11 +14283,11 @@
         <v>734</v>
       </c>
       <c r="B735" s="12" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C735" s="12"/>
       <c r="D735" s="12" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -14298,13 +14295,13 @@
         <v>735</v>
       </c>
       <c r="B736" s="13" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C736" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D736" s="13" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -14312,13 +14309,13 @@
         <v>736</v>
       </c>
       <c r="B737" s="12" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C737" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D737" s="12" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -14326,11 +14323,11 @@
         <v>737</v>
       </c>
       <c r="B738" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C738" s="13"/>
       <c r="D738" s="13" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -14338,13 +14335,13 @@
         <v>738</v>
       </c>
       <c r="B739" s="12" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C739" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D739" s="12" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -14352,13 +14349,13 @@
         <v>739</v>
       </c>
       <c r="B740" s="13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C740" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D740" s="13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -14366,11 +14363,11 @@
         <v>740</v>
       </c>
       <c r="B741" s="12" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C741" s="12"/>
       <c r="D741" s="12" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -14378,13 +14375,13 @@
         <v>741</v>
       </c>
       <c r="B742" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C742" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D742" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -14392,13 +14389,13 @@
         <v>742</v>
       </c>
       <c r="B743" s="12" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C743" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D743" s="12" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -14406,11 +14403,11 @@
         <v>743</v>
       </c>
       <c r="B744" s="13" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C744" s="13"/>
       <c r="D744" s="13" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -14418,11 +14415,11 @@
         <v>744</v>
       </c>
       <c r="B745" s="12" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C745" s="12"/>
       <c r="D745" s="12" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -14438,11 +14435,11 @@
         <v>746</v>
       </c>
       <c r="B747" s="12" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C747" s="12"/>
       <c r="D747" s="12" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -14450,11 +14447,11 @@
         <v>747</v>
       </c>
       <c r="B748" s="13" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C748" s="13"/>
       <c r="D748" s="13" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -14462,11 +14459,11 @@
         <v>748</v>
       </c>
       <c r="B749" s="12" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C749" s="12"/>
       <c r="D749" s="12" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -14474,13 +14471,13 @@
         <v>749</v>
       </c>
       <c r="B750" s="13" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C750" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D750" s="13" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -14488,11 +14485,11 @@
         <v>750</v>
       </c>
       <c r="B751" s="12" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C751" s="12"/>
       <c r="D751" s="12" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -14500,13 +14497,13 @@
         <v>751</v>
       </c>
       <c r="B752" s="13" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C752" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D752" s="13" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -14514,13 +14511,13 @@
         <v>752</v>
       </c>
       <c r="B753" s="12" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C753" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D753" s="12" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -14528,13 +14525,13 @@
         <v>753</v>
       </c>
       <c r="B754" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C754" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D754" s="13" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -14542,13 +14539,13 @@
         <v>754</v>
       </c>
       <c r="B755" s="12" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C755" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D755" s="12" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -14556,13 +14553,13 @@
         <v>755</v>
       </c>
       <c r="B756" s="13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C756" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D756" s="13" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -14570,11 +14567,11 @@
         <v>756</v>
       </c>
       <c r="B757" s="12" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C757" s="12"/>
       <c r="D757" s="12" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -14582,13 +14579,13 @@
         <v>757</v>
       </c>
       <c r="B758" s="13" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C758" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D758" s="13" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -14596,11 +14593,11 @@
         <v>758</v>
       </c>
       <c r="B759" s="12" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C759" s="12"/>
       <c r="D759" s="12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -14608,13 +14605,13 @@
         <v>759</v>
       </c>
       <c r="B760" s="13" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C760" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D760" s="13" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -14622,11 +14619,11 @@
         <v>760</v>
       </c>
       <c r="B761" s="12" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C761" s="12"/>
       <c r="D761" s="12" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -14634,13 +14631,13 @@
         <v>761</v>
       </c>
       <c r="B762" s="13" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C762" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D762" s="13" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -14648,11 +14645,11 @@
         <v>762</v>
       </c>
       <c r="B763" s="12" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C763" s="12"/>
       <c r="D763" s="12" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -14660,11 +14657,11 @@
         <v>763</v>
       </c>
       <c r="B764" s="13" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C764" s="13"/>
       <c r="D764" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -14672,13 +14669,13 @@
         <v>764</v>
       </c>
       <c r="B765" s="12" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C765" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D765" s="12" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -14686,13 +14683,13 @@
         <v>765</v>
       </c>
       <c r="B766" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C766" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D766" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -14700,11 +14697,11 @@
         <v>766</v>
       </c>
       <c r="B767" s="12" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C767" s="12"/>
       <c r="D767" s="12" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -14712,11 +14709,11 @@
         <v>767</v>
       </c>
       <c r="B768" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C768" s="13"/>
       <c r="D768" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -14724,13 +14721,13 @@
         <v>768</v>
       </c>
       <c r="B769" s="12" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C769" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D769" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -14738,11 +14735,11 @@
         <v>769</v>
       </c>
       <c r="B770" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C770" s="13"/>
       <c r="D770" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -14750,11 +14747,11 @@
         <v>770</v>
       </c>
       <c r="B771" s="12" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C771" s="12"/>
       <c r="D771" s="12" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -14762,13 +14759,13 @@
         <v>771</v>
       </c>
       <c r="B772" s="13" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C772" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D772" s="13" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -14776,13 +14773,13 @@
         <v>772</v>
       </c>
       <c r="B773" s="12" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C773" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D773" s="12" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -14790,13 +14787,13 @@
         <v>773</v>
       </c>
       <c r="B774" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C774" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D774" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -14804,11 +14801,11 @@
         <v>774</v>
       </c>
       <c r="B775" s="12" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C775" s="12"/>
       <c r="D775" s="12" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -14816,11 +14813,11 @@
         <v>775</v>
       </c>
       <c r="B776" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C776" s="13"/>
       <c r="D776" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -14828,11 +14825,11 @@
         <v>776</v>
       </c>
       <c r="B777" s="12" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C777" s="12"/>
       <c r="D777" s="12" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -14840,13 +14837,13 @@
         <v>777</v>
       </c>
       <c r="B778" s="13" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C778" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D778" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -14854,11 +14851,11 @@
         <v>778</v>
       </c>
       <c r="B779" s="12" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C779" s="12"/>
       <c r="D779" s="12" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -14866,13 +14863,13 @@
         <v>779</v>
       </c>
       <c r="B780" s="13" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C780" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D780" s="13" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -14880,13 +14877,13 @@
         <v>780</v>
       </c>
       <c r="B781" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C781" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D781" s="12" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14894,13 +14891,13 @@
         <v>781</v>
       </c>
       <c r="B782" s="13" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C782" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D782" s="13" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -14908,11 +14905,11 @@
         <v>782</v>
       </c>
       <c r="B783" s="12" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C783" s="12"/>
       <c r="D783" s="12" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14920,11 +14917,11 @@
         <v>783</v>
       </c>
       <c r="B784" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C784" s="13"/>
       <c r="D784" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14932,13 +14929,13 @@
         <v>784</v>
       </c>
       <c r="B785" s="12" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C785" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D785" s="12" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -14946,11 +14943,11 @@
         <v>785</v>
       </c>
       <c r="B786" s="13" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C786" s="13"/>
       <c r="D786" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14958,13 +14955,13 @@
         <v>786</v>
       </c>
       <c r="B787" s="12" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C787" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D787" s="12" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14972,11 +14969,11 @@
         <v>787</v>
       </c>
       <c r="B788" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C788" s="13"/>
       <c r="D788" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -14984,11 +14981,11 @@
         <v>788</v>
       </c>
       <c r="B789" s="12" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C789" s="12"/>
       <c r="D789" s="12" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -14996,13 +14993,13 @@
         <v>789</v>
       </c>
       <c r="B790" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C790" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D790" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -15066,11 +15063,11 @@
         <v>797</v>
       </c>
       <c r="B798" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C798" s="13"/>
       <c r="D798" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -15078,13 +15075,13 @@
         <v>798</v>
       </c>
       <c r="B799" s="12" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C799" s="12" t="s">
         <v>483</v>
       </c>
       <c r="D799" s="12" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -15092,13 +15089,13 @@
         <v>799</v>
       </c>
       <c r="B800" s="13" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C800" s="13" t="s">
         <v>483</v>
       </c>
       <c r="D800" s="13" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -15106,13 +15103,13 @@
         <v>800</v>
       </c>
       <c r="B801" s="12" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C801" s="12">
         <v>12</v>
       </c>
       <c r="D801" s="12" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -15120,13 +15117,13 @@
         <v>801</v>
       </c>
       <c r="B802" s="13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C802" s="13">
         <v>17</v>
       </c>
       <c r="D802" s="13" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -15134,11 +15131,11 @@
         <v>802</v>
       </c>
       <c r="B803" s="12" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C803" s="12"/>
       <c r="D803" s="12" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
   </sheetData>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20880" windowHeight="10350"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="zh-cn" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389">
   <si>
     <t>ID</t>
   </si>
@@ -831,6 +831,12 @@
     <t>医生</t>
   </si>
   <si>
+    <t>Gardener</t>
+  </si>
+  <si>
+    <t>园丁</t>
+  </si>
+  <si>
     <t>Kilner</t>
   </si>
   <si>
@@ -915,10 +921,10 @@
     <t>采集者：采集植物。需要采集者小屋。</t>
   </si>
   <si>
-    <t>Farmer: grows crops and fruits. Field or garden required.</t>
-  </si>
-  <si>
-    <t>农夫：种植作物及水果。需要农田或果园。</t>
+    <t>Farmer: grows crops. Field required.</t>
+  </si>
+  <si>
+    <t>农夫：种植作物。需要农田。</t>
   </si>
   <si>
     <t>Teacher. Teaches children. School required.</t>
@@ -955,6 +961,12 @@
   </si>
   <si>
     <t>医生：给村民疾病。需要诊所。</t>
+  </si>
+  <si>
+    <t>Gardener: grows fruit trees. Garden required.</t>
+  </si>
+  <si>
+    <t>园丁：种植果树。需要果园。</t>
   </si>
   <si>
     <t>Baker. Makes bread and pies. Bakery required.</t>
@@ -1936,10 +1948,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>Provides water for both plants and cattle. Also provides water for fires.</t>
-  </si>
-  <si>
-    <t>为植物和牲口提供水。同时也可以用于火灾。</t>
+    <t>Provides water for both plants and cattle. Also provides water to extinguish fires.</t>
+  </si>
+  <si>
+    <t>为植物和牲口提供水。同时也可以用于灭火。</t>
   </si>
   <si>
     <t>Builders</t>
@@ -2092,10 +2104,10 @@
     <t>难产死亡</t>
   </si>
   <si>
-    <t>Child died during childbirth</t>
-  </si>
-  <si>
-    <t>孩子因难产死亡</t>
+    <t>Child died during birth</t>
+  </si>
+  <si>
+    <t>孩子出生时死亡</t>
   </si>
   <si>
     <t>Died in an accident</t>
@@ -2489,9 +2501,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>价值</t>
-  </si>
-  <si>
     <t>Tile</t>
   </si>
   <si>
@@ -2933,16 +2942,16 @@
     <t>允许你你平整区域。</t>
   </si>
   <si>
-    <t>Small size living space. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: 0. Strength: 75.</t>
-  </si>
-  <si>
-    <t>小型住所。低怀孕几率。容量：%WORKER_COUNT%个村民。幸福：0。强度：75。</t>
-  </si>
-  <si>
-    <t>Medium size living space. Above average pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +10. Strength: 110.</t>
-  </si>
-  <si>
-    <t>中型住所。高于平均的怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+10。强度：110。</t>
+    <t>Small size living space, where people eat and get warm during cold seasons. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: 0. Strength: 75.</t>
+  </si>
+  <si>
+    <t>小型住所，村民吃饭取暖的地方。低怀孕几率。容量：%WORKER_COUNT%个村民。幸福：0。强度：75。</t>
+  </si>
+  <si>
+    <t>Medium size living space, where people eat and get warm during cold seasons. Above average pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +10. Strength: 110.</t>
+  </si>
+  <si>
+    <t>中型住所，村民吃饭取暖的地方。高于平均的怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+10。强度：110。</t>
   </si>
   <si>
     <t>Improved medium size living space with extra bedrooms. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +20. Strength: 220.</t>
@@ -2951,10 +2960,10 @@
     <t>进阶中型住所。有额外的卧室。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+20。强度：220。</t>
   </si>
   <si>
-    <t>Large size living space. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +20. Strength: 540.</t>
-  </si>
-  <si>
-    <t>大型住所。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+20。强度：540。</t>
+    <t>Large size living space, where people eat and get warm during cold seasons. High pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +20. Strength: 540.</t>
+  </si>
+  <si>
+    <t>大型住所，村民吃饭取暖的地方。高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+20。强度：540。</t>
   </si>
   <si>
     <t>Improved large size living space with extra bedrooms. Extremely high pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +30. Strength: 780.</t>
@@ -2963,10 +2972,10 @@
     <t>进阶大型住所。有额外的卧室。超高怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+30。强度：780。</t>
   </si>
   <si>
-    <t>Temporary house. Extremely low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: 0. Strength: 1000.</t>
-  </si>
-  <si>
-    <t>临时房屋。超低怀孕几率。容量：18个村民。幸福：0。强度：1000。</t>
+    <t>Temporary house, where people eat and get warm during cold seasons. Extremely low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: 0. Strength: 1000.</t>
+  </si>
+  <si>
+    <t>临时房屋，村民吃饭取暖的地方。超低怀孕几率。容量：18个村民。幸福：0。强度：1000。</t>
   </si>
   <si>
     <t>Improved temporary house with extra living rooms. Low pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +5. Strength: 1500.</t>
@@ -3071,37 +3080,37 @@
     <t>焚烧尸体。一桩柴堆一具尸体。行动半径：%ACTION_RADIUS%。</t>
   </si>
   <si>
-    <t>Cows keeping for meat and milk gathering. Food: water, hay during cold time. Hunter is required for the protection from wild animals. Number of workers: %WORKER_COUNT%.</t>
-  </si>
-  <si>
-    <t>养牛保持肉类及奶制品补给。食物：水，干草在寒冷的时候。需要猎人保护。工人数量：%WORKER_COUNT%。</t>
-  </si>
-  <si>
-    <t>Chickens keeping for meat and eggs gathering. Food: water, oat. Hunter is required for the protection from wild animals. Number of workers: %WORKER_COUNT%.</t>
-  </si>
-  <si>
-    <t>养鸡保持肉类及鸡蛋补给。食物：水，燕麦。需要猎人保护。工人数量：%WORKER_COUNT%。</t>
-  </si>
-  <si>
-    <t>Pigs keeping for meat gathering. Food: water, oat. Hunter is required for the protection from wild animals. Number of workers: %WORKER_COUNT%.</t>
-  </si>
-  <si>
-    <t>养猪保持肉类补给。食物：水，燕麦。需要猎人保护。工人数量：%WORKER_COUNT%。</t>
-  </si>
-  <si>
-    <t>Sheeps keeping for meat and wool gathering. Food: water, hay during cold time. Hunter is required for the protection from wild animals. Number of workers: %WORKER_COUNT%.</t>
-  </si>
-  <si>
-    <t>养羊保持肉类及羊毛补给。食物：水，干草在寒冷的时候。需要猎人保护。工人数量：%WORKER_COUNT%。</t>
-  </si>
-  <si>
-    <t>Vegetables and fruits gathering in warm seasons. Number of workers: %WORKER_COUNT%.</t>
+    <t>Cows for meat and milk gathering. Food: Hay during winter and water. A hunter is required for protection from wild animals. Number of workers: %WORKER_COUNT%.</t>
+  </si>
+  <si>
+    <t>牛可以提供肉和奶。食物：干草及水。需要猎人保护。工人数量：%WORKER_COUNT%。</t>
+  </si>
+  <si>
+    <t>Chickens for meat and eggs gathering. Food: oats and water. A hunter is required for protection from wild animals. Number of workers: %WORKER_COUNT%.</t>
+  </si>
+  <si>
+    <t>鸡可以提供肉和鸡蛋。食物：燕麦及水。需要猎人保护。工人数量：%WORKER_COUNT%。</t>
+  </si>
+  <si>
+    <t>Pigs for meat gathering. Food: Oats and water. A hunter is required for protection from wild animals. Number of workers: %WORKER_COUNT%.</t>
+  </si>
+  <si>
+    <t>猪可以提供肉。食物：燕麦及水。需要猎人保护。工人数量：%WORKER_COUNT%。</t>
+  </si>
+  <si>
+    <t>Sheep for meat and wool gathering. Food: hay during Winter and water. A hunter is required for protection from wild animals. Number of workers: %WORKER_COUNT%.</t>
+  </si>
+  <si>
+    <t>羊可以提供肉和羊毛。食物：干草及水。需要猎人保护。工人数量：%WORKER_COUNT%。</t>
+  </si>
+  <si>
+    <t>Vegetable and fruit gathering in warm seasons. Number of workers: %WORKER_COUNT%.</t>
   </si>
   <si>
     <t>在温暖季节收集水果及蔬菜。工人数量：%WORKER_COUNT%。</t>
   </si>
   <si>
-    <t>Gathering of vegetables, crops and building materials in warm seasons. Number of workers: %WORKER_COUNT%.</t>
+    <t>Vegetables, crops and building material gathering during warm seasons. Number of workers: %WORKER_COUNT%.</t>
   </si>
   <si>
     <t>在温暖季节收集蔬菜，作物及建筑材料。工人数量：%WORKER_COUNT%。</t>
@@ -3119,16 +3128,16 @@
     <t>大幅提升速度。</t>
   </si>
   <si>
-    <t>Flour producing for bakery. Number of workers: %WORKER_COUNT%.</t>
-  </si>
-  <si>
-    <t>面粉生产。工人数量：%WORKER_COUNT%。</t>
-  </si>
-  <si>
-    <t>Bread and bakes producing. Windmill required. Number of workers: %WORKER_COUNT%.</t>
-  </si>
-  <si>
-    <t>面包烘焙生产。需要风车。工人数量：%WORKER_COUNT%。</t>
+    <t>Flour production. Number of workers: %WORKER_COUNT%.</t>
+  </si>
+  <si>
+    <t>生产面粉。工人数量：%WORKER_COUNT%。</t>
+  </si>
+  <si>
+    <t>Bread and baked goods production. Number of workers: %WORKER_COUNT%.</t>
+  </si>
+  <si>
+    <t>生产面包及烘焙食品。工人数量：%WORKER_COUNT%。</t>
   </si>
   <si>
     <t>Keeping resources for people.</t>
@@ -3149,13 +3158,13 @@
     <t>熔铁。工人数量：%WORKER_COUNT%。</t>
   </si>
   <si>
-    <t>Charcoal producing. Number of workers: %WORKER_COUNT%.</t>
+    <t>Charcoal production. Number of workers: %WORKER_COUNT%.</t>
   </si>
   <si>
     <t>生产木炭。工人数量：%WORKER_COUNT%。</t>
   </si>
   <si>
-    <t>Wooden tools producing. Number of workers: %WORKER_COUNT%.</t>
+    <t>Wooden tool production. Number of workers: %WORKER_COUNT%.</t>
   </si>
   <si>
     <t>生产木制工具。工人数量：%WORKER_COUNT%。</t>
@@ -3185,28 +3194,28 @@
     <t>存储中...</t>
   </si>
   <si>
-    <t>Pneumonia</t>
-  </si>
-  <si>
-    <t>肺炎</t>
-  </si>
-  <si>
-    <t>Scurvy</t>
-  </si>
-  <si>
-    <t>坏血病</t>
-  </si>
-  <si>
-    <t>Plague</t>
-  </si>
-  <si>
-    <t>瘟疫</t>
-  </si>
-  <si>
-    <t>Rabies</t>
-  </si>
-  <si>
-    <t>狂犬病</t>
+    <t>Pneumonia. Heal with herbs, collected by herbalists.</t>
+  </si>
+  <si>
+    <t>肺炎。通过草药治疗。</t>
+  </si>
+  <si>
+    <t>Scurvy. Heal with herbs, collected by herbalists.</t>
+  </si>
+  <si>
+    <t>坏血病。通过草药治疗。</t>
+  </si>
+  <si>
+    <t>Plague. Heal with herbs, collected by herbalists. Must also visit healer's shop.</t>
+  </si>
+  <si>
+    <t>瘟疫。通过草药治疗同时还必须要去诊所就诊。</t>
+  </si>
+  <si>
+    <t>Rabies. Heal with herbs, collected by herbalists. Must also visit healer's shop.</t>
+  </si>
+  <si>
+    <t>狂犬病。通过草药治疗同时还必须要去诊所就诊。</t>
   </si>
   <si>
     <t>Corner section</t>
@@ -3245,25 +3254,25 @@
     <t>收集干草</t>
   </si>
   <si>
-    <t>Kill the animal</t>
-  </si>
-  <si>
-    <t>杀掉这只动物</t>
-  </si>
-  <si>
-    <t>Take the resource</t>
-  </si>
-  <si>
-    <t>带上资源</t>
-  </si>
-  <si>
-    <t>Mine the resource</t>
+    <t>Kill animal</t>
+  </si>
+  <si>
+    <t>猎杀动物</t>
+  </si>
+  <si>
+    <t>Take resources</t>
+  </si>
+  <si>
+    <t>背起资源</t>
+  </si>
+  <si>
+    <t>Mine resource</t>
   </si>
   <si>
     <t>开采资源</t>
   </si>
   <si>
-    <t>Gather the resource</t>
+    <t>Gather resource</t>
   </si>
   <si>
     <t>采集资源</t>
@@ -3275,10 +3284,10 @@
     <t>建造</t>
   </si>
   <si>
-    <t>Quench</t>
-  </si>
-  <si>
-    <t>终止</t>
+    <t>Extinguish fire</t>
+  </si>
+  <si>
+    <t>灭火</t>
   </si>
   <si>
     <t>Repair</t>
@@ -3287,7 +3296,7 @@
     <t>修理</t>
   </si>
   <si>
-    <t>Drop the resource</t>
+    <t>Drop resource</t>
   </si>
   <si>
     <t>扔掉资源</t>
@@ -3329,10 +3338,10 @@
     <t>港口</t>
   </si>
   <si>
-    <t>Expedition organizing to search for usefull resources. Number of workers: %WORKER_COUNT%.</t>
-  </si>
-  <si>
-    <t>成立探险队寻找有用的资源。工人数量：%WORKER_COUNT%。</t>
+    <t>Expedition organization to search for useful resources. Number of workers: %WORKER_COUNT%.</t>
+  </si>
+  <si>
+    <t>组织探险队寻找有用的资源。工人数量：%WORKER_COUNT%。</t>
   </si>
   <si>
     <t>Loading save game list...</t>
@@ -3347,13 +3356,13 @@
     <t>开始为探险队建造一艘船。建造所需资源：</t>
   </si>
   <si>
-    <t>Start organizing and preparation expedition to be sent. Required materials and provision for journey.</t>
-  </si>
-  <si>
-    <t>开始组织及准备展开探险。探险所需资源及物资。</t>
-  </si>
-  <si>
-    <t>Build a ship to send an expedition. And then collect provisions for the journey.</t>
+    <t>Start organizing and preparing expedition. Requires materials and provisions for journey.</t>
+  </si>
+  <si>
+    <t>开始组织并准备探险。探险所需资源及物资。</t>
+  </si>
+  <si>
+    <t>Build a ship to send on an expedition, then collect provisions for the journey.</t>
   </si>
   <si>
     <t>为探险队建造一艘船。然后收集探险所需的物资。</t>
@@ -3365,10 +3374,10 @@
     <t>建造一艘船</t>
   </si>
   <si>
-    <t>Select the expedition goal and send it. You can select only one goal.</t>
-  </si>
-  <si>
-    <t>选择一个探险目标并派遣他们。你只能选择一个目标。</t>
+    <t>Select the goal then begin the expedition. You can only select one goal.</t>
+  </si>
+  <si>
+    <t>选择目标并开始探险。你只能选择一个目标。</t>
   </si>
   <si>
     <t>Look out for new trees</t>
@@ -3389,7 +3398,7 @@
     <t>寻找新的动物</t>
   </si>
   <si>
-    <t>Expedition completion</t>
+    <t>Expedition complete</t>
   </si>
   <si>
     <t>探险完成</t>
@@ -3401,10 +3410,10 @@
     <t>探险完成时间：</t>
   </si>
   <si>
-    <t>You will discover new kinds of resource production in case of success, and you will lose your ship and crew in case of failure.</t>
-  </si>
-  <si>
-    <t>顺利的话你会获得新的资源生产种类，失败的话你会失去你的船和船员。</t>
+    <t>A successful expedition will grant your village new varieties of resources to produce. You will lose your ship and crew if the expedition fails, however.</t>
+  </si>
+  <si>
+    <t>一次成功的谈些可以让你的村民获得一种新资源类型的生产方式。失败的话你会失去你的船和船员。</t>
   </si>
   <si>
     <t>Unfavorable season</t>
@@ -3425,7 +3434,7 @@
     <t>每个村民都需要住处，他们可以在里面吃饭、休息、在寒冷的冬天取暖并拥有一个家庭。如果村民没有一个可以庇护他的地方，他/她将无法吃东西或是取暖。在这种情况下，他们不是饿死，便是冻死。所有无家可归的人都会有一个特殊的图标标记。让我们给无家可归的人造一个住处吧。</t>
   </si>
   <si>
-    <t>Press the residential buildings group button to open the list of available houses. Then press the build house button.</t>
+    <t>Press the houses group button to open the list of available houses. Then press the build house button.</t>
   </si>
   <si>
     <t>按下&lt;房屋&gt;按钮可以打开可用房屋列表。然后 左键单击 &lt;小型房屋&gt;按钮来建造一栋房屋。</t>
@@ -3455,7 +3464,7 @@
     <t>在窗口的上部可以看到建筑的施工进度。</t>
   </si>
   <si>
-    <t>Below you can see the required resources and construction time. Prepared recourses are shown in the upper part of resource block while total needed amount is in the lower part.</t>
+    <t>Below you can see the required resources and construction time. Prepared resources are shown in the upper part of resource block while total needed amount is in the lower part.</t>
   </si>
   <si>
     <t>下面可以看到所需资源及建造时间。准备好的资源数目显示在上面一排，而所需资源数目显示在下面一排。</t>
@@ -3509,7 +3518,7 @@
     <t>选择已经造好的房子。</t>
   </si>
   <si>
-    <t>This window shows the list of all vilagers who live in the house, their gender, name, age and profession.</t>
+    <t>This window shows the list of all villagers who live in the house, their gender, name, age and profession.</t>
   </si>
   <si>
     <t>这个窗口显示了所有住户的性别、姓名、年龄和职业。</t>
@@ -3539,7 +3548,7 @@
     <t>屏幕的左下角是游戏的“事件日志”。而且列表的右边还有过滤按钮面板，可以显示或者隐藏某些事件。</t>
   </si>
   <si>
-    <t>Some buildings can be upgraded. Workers will partially dissasemble and then rebuild it. Improved buildings have higher characteristics. Click the upgrade button in the window of newly built house.</t>
+    <t>Some buildings can be upgraded. Workers will partially disassemble and then rebuild it. Improved buildings have higher characteristics. Click the upgrade button in the window of newly built house.</t>
   </si>
   <si>
     <t>部分建筑物是可以升级的。建筑工会拆除并重建它的某些部分。进阶的建筑拥有更高的特性。 左键单击 新建房屋窗口中的&lt;升级&gt;按钮。</t>
@@ -3671,7 +3680,7 @@
     <t>当他们捕到足够的鱼时，他们中的一个便会将这些鱼运送到“谷仓”。</t>
   </si>
   <si>
-    <t>Wait for a while untill the fisherman's lodge storrage is full.</t>
+    <t>Wait for a while until the fisherman's lodge storage is full.</t>
   </si>
   <si>
     <t>稍等片刻，直到“渔人小屋”的存储空间充满。</t>
@@ -3755,10 +3764,10 @@
     <t>切换到第一人称来进入村民控制模式。</t>
   </si>
   <si>
-    <t>Use "Horn" ability by pressing 1 key. This will temporary speed up villagers, raising their spirit.</t>
-  </si>
-  <si>
-    <t>按下 1 键来使用“喇叭”技能。这将会临时加快村民的工作速度，提高他们的精神。</t>
+    <t>Use "Horn" ability by pressing 1 key. This will temporarily speed up villagers, raising their spirit.</t>
+  </si>
+  <si>
+    <t>按下 1 键来使用“喇叭”技能。这将会在短时间内加快村民的工作速度，提高他们的精神。</t>
   </si>
   <si>
     <t>When it is warm fields are one of the best food sources. Let's create it.</t>
@@ -3779,7 +3788,7 @@
     <t>按下&lt;农田&gt;建造按钮。</t>
   </si>
   <si>
-    <t>Fields have a tunable size, so you need to click the left mouse button and, while holding it, move coursor, stretching its area.</t>
+    <t>Fields have a tunable size, so you need to click the left mouse button and, while holding it, move cursor, stretching its area.</t>
   </si>
   <si>
     <t>“农田”是可以自由调节大小的，你只需要按住 鼠标左键 拉伸它的面积。</t>
@@ -3875,10 +3884,10 @@
     <t>现在点击&lt;抬升或者降低区域&gt;按钮。</t>
   </si>
   <si>
-    <t>Select a 12x12 area, click the left mouse button, then choose height level and confirm it by clicking the left mouse button again. Look at the time needed for flattening in the setup window - the lower the number, the quicker.</t>
-  </si>
-  <si>
-    <t>通过鼠标左键选择一块12*12的区域，然后单击 鼠标左键 以确认高度，这时需要注意窗口中的所需时间，数字越小，速度越快。</t>
+    <t>Select a 10x10 area, click the left mouse button, then choose height level and confirm it by clicking the left mouse button again. Look at the time needed for flattening in the setup window - the lower the number, the quicker.</t>
+  </si>
+  <si>
+    <t>通过鼠标左键选择一块10*10的区域，然后单击 鼠标左键 以确认高度，这时需要注意窗口中的所需时间，数字越小，速度越快。</t>
   </si>
   <si>
     <t>Wait until workers finish flattening the ground.</t>
@@ -3917,13 +3926,13 @@
     <t>进阶棚屋</t>
   </si>
   <si>
-    <t>Improved small size living place. Have extra bedroom. Average pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +5. Strenght: 90.</t>
+    <t>Improved small size living place. Have extra bedroom. Average pregnancy chance. Capacity: %WORKER_COUNT% residents. Happiness: +5. Strength: 90.</t>
   </si>
   <si>
     <t>进阶小型住所。高于平均的怀孕几率。容量：%WORKER_COUNT%个村民。幸福：+5。强度：90。</t>
   </si>
   <si>
-    <t>To discover new means of producing food, such as through new crops or livestock, build a port. This allows the player to construct ships, organize expeditions and send people out to search for new kinds of crops, trees and even animals.</t>
+    <t>To discover new methods of food production - such as new crops or livestock - build a port. This allows the player to construct ships, organize expeditions and send people out to search for new kinds of crops, trees and even animals.</t>
   </si>
   <si>
     <t>通过建造一座港口来发现新的粮食生产方式，比如新的农作物和牲畜。这将允许玩家建造船只，组织探险队并派遣人员去寻找新的作物、树木及物种。</t>
@@ -3945,6 +3954,237 @@
   </si>
   <si>
     <t>第一人称模式下的鼠标灵敏度</t>
+  </si>
+  <si>
+    <t>Wooden gate</t>
+  </si>
+  <si>
+    <t>木质大门</t>
+  </si>
+  <si>
+    <t>Wooden wall</t>
+  </si>
+  <si>
+    <t>木质围墙</t>
+  </si>
+  <si>
+    <t>Wooden pillar</t>
+  </si>
+  <si>
+    <t>木柱子</t>
+  </si>
+  <si>
+    <t>Stone pillar</t>
+  </si>
+  <si>
+    <t>石柱子</t>
+  </si>
+  <si>
+    <t>Stone wall</t>
+  </si>
+  <si>
+    <t>石质围墙</t>
+  </si>
+  <si>
+    <t>Decorations</t>
+  </si>
+  <si>
+    <t>装饰品</t>
+  </si>
+  <si>
+    <t>Bag:</t>
+  </si>
+  <si>
+    <t>背包：</t>
+  </si>
+  <si>
+    <t>Carries resource</t>
+  </si>
+  <si>
+    <t>运送资源</t>
+  </si>
+  <si>
+    <t>Carries food to house</t>
+  </si>
+  <si>
+    <t>将食物运往房子</t>
+  </si>
+  <si>
+    <t>Carries fuel to house</t>
+  </si>
+  <si>
+    <t>将燃料运往房子</t>
+  </si>
+  <si>
+    <t>Carries to storage</t>
+  </si>
+  <si>
+    <t>运往仓库</t>
+  </si>
+  <si>
+    <t>Drinks alcohol</t>
+  </si>
+  <si>
+    <t>喝酒</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>Heals</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>Fishes</t>
+  </si>
+  <si>
+    <t>捕鱼</t>
+  </si>
+  <si>
+    <t>Gathers resource</t>
+  </si>
+  <si>
+    <t>Hunts</t>
+  </si>
+  <si>
+    <t>捕猎</t>
+  </si>
+  <si>
+    <t>Mines resource</t>
+  </si>
+  <si>
+    <t>Plants a tree</t>
+  </si>
+  <si>
+    <t>种植树木</t>
+  </si>
+  <si>
+    <t>Being treated</t>
+  </si>
+  <si>
+    <t>正在接受治疗</t>
+  </si>
+  <si>
+    <t>Waiting for healing</t>
+  </si>
+  <si>
+    <t>等待接受治疗</t>
+  </si>
+  <si>
+    <t>Goes for herbs</t>
+  </si>
+  <si>
+    <t>正在拿草药</t>
+  </si>
+  <si>
+    <t>Goes for tools</t>
+  </si>
+  <si>
+    <t>正在拿工具</t>
+  </si>
+  <si>
+    <t>Goes for clothing</t>
+  </si>
+  <si>
+    <t>正在拿衣服</t>
+  </si>
+  <si>
+    <t>Works in mine</t>
+  </si>
+  <si>
+    <t>开采中</t>
+  </si>
+  <si>
+    <t>Teaches children</t>
+  </si>
+  <si>
+    <t>教授学生</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>学习中</t>
+  </si>
+  <si>
+    <t>Slautering animal</t>
+  </si>
+  <si>
+    <t>屠宰动物</t>
+  </si>
+  <si>
+    <t>Cares about cattle</t>
+  </si>
+  <si>
+    <t>照顾牲口</t>
+  </si>
+  <si>
+    <t>Waters plants</t>
+  </si>
+  <si>
+    <t>浇灌作物</t>
+  </si>
+  <si>
+    <t>Looses earth</t>
+  </si>
+  <si>
+    <t>松土</t>
+  </si>
+  <si>
+    <t>Weeds earth</t>
+  </si>
+  <si>
+    <t>除草</t>
+  </si>
+  <si>
+    <t>Seeds plants</t>
+  </si>
+  <si>
+    <t>种植作物</t>
+  </si>
+  <si>
+    <t>Harvesting</t>
+  </si>
+  <si>
+    <t>收割中</t>
+  </si>
+  <si>
+    <t>Cleaning garden</t>
+  </si>
+  <si>
+    <t>清理果园</t>
+  </si>
+  <si>
+    <t>Repairing</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Cultivating</t>
+  </si>
+  <si>
+    <t>种植</t>
+  </si>
+  <si>
+    <t>Eating</t>
+  </si>
+  <si>
+    <t>进食</t>
+  </si>
+  <si>
+    <t>Getting warm</t>
+  </si>
+  <si>
+    <t>取暖</t>
+  </si>
+  <si>
+    <t>Extinguishing fire</t>
   </si>
 </sst>
 </file>
@@ -3952,10 +4192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3991,6 +4231,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -3999,25 +4254,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4060,7 +4299,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4075,54 +4361,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4161,67 +4401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4239,7 +4425,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4251,19 +4515,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4281,49 +4563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4372,17 +4612,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4390,17 +4624,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4435,11 +4660,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4454,31 +4709,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4490,13 +4730,13 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4505,115 +4745,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4995,10 +5235,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E803"/>
+  <dimension ref="A1:E854"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A605" workbookViewId="0">
-      <selection activeCell="B636" sqref="B636"/>
+    <sheetView tabSelected="1" topLeftCell="A801" workbookViewId="0">
+      <selection activeCell="D845" sqref="D845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6957,11 +7197,15 @@
       <c r="A152" s="3">
         <v>151</v>
       </c>
-      <c r="B152" s="5"/>
+      <c r="B152" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="C152" s="3">
         <v>12</v>
       </c>
-      <c r="D152" s="3"/>
+      <c r="D152" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="E152" s="2"/>
     </row>
     <row r="153" spans="1:5">
@@ -6969,13 +7213,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C153" s="3">
         <v>12</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E153" s="2"/>
     </row>
@@ -6984,13 +7228,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C154" s="3">
         <v>12</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E154" s="2"/>
     </row>
@@ -6999,13 +7243,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C155" s="3">
         <v>12</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E155" s="2"/>
     </row>
@@ -7014,13 +7258,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C156" s="3">
         <v>12</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E156" s="2"/>
     </row>
@@ -7029,11 +7273,11 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E157" s="2"/>
     </row>
@@ -7042,11 +7286,11 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E158" s="2"/>
     </row>
@@ -7055,11 +7299,11 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E159" s="2"/>
     </row>
@@ -7068,11 +7312,11 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E160" s="2"/>
     </row>
@@ -7090,11 +7334,11 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E162" s="2"/>
     </row>
@@ -7103,11 +7347,11 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E163" s="2"/>
     </row>
@@ -7116,11 +7360,11 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E164" s="2"/>
     </row>
@@ -7138,11 +7382,11 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E166" s="2"/>
     </row>
@@ -7151,11 +7395,11 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E167" s="2"/>
     </row>
@@ -7164,11 +7408,11 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E168" s="2"/>
     </row>
@@ -7177,11 +7421,11 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E169" s="2"/>
     </row>
@@ -7190,11 +7434,11 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E170" s="2"/>
     </row>
@@ -7203,11 +7447,11 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E171" s="2"/>
     </row>
@@ -7216,11 +7460,11 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E172" s="2"/>
     </row>
@@ -7229,11 +7473,11 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -7242,11 +7486,11 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E174" s="2"/>
     </row>
@@ -7255,11 +7499,11 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E175" s="2"/>
     </row>
@@ -7267,9 +7511,13 @@
       <c r="A176" s="3">
         <v>175</v>
       </c>
-      <c r="B176" s="5"/>
+      <c r="B176" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
+      <c r="D176" s="3" t="s">
+        <v>316</v>
+      </c>
       <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5">
@@ -7277,11 +7525,11 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E177" s="2"/>
     </row>
@@ -7290,11 +7538,11 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E178" s="2"/>
     </row>
@@ -7303,11 +7551,11 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E179" s="2"/>
     </row>
@@ -7316,11 +7564,11 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E180" s="2"/>
     </row>
@@ -7329,11 +7577,11 @@
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E181" s="2"/>
     </row>
@@ -7342,11 +7590,11 @@
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E182" s="2"/>
     </row>
@@ -7355,11 +7603,11 @@
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E183" s="2"/>
     </row>
@@ -7368,11 +7616,11 @@
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E184" s="2"/>
     </row>
@@ -7381,11 +7629,11 @@
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E185" s="2"/>
     </row>
@@ -7394,11 +7642,11 @@
         <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E186" s="2"/>
     </row>
@@ -7407,11 +7655,11 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E187" s="2"/>
     </row>
@@ -7420,11 +7668,11 @@
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E188" s="2"/>
     </row>
@@ -7433,11 +7681,11 @@
         <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E189" s="2"/>
     </row>
@@ -7446,11 +7694,11 @@
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E190" s="2"/>
     </row>
@@ -7459,11 +7707,11 @@
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E191" s="2"/>
     </row>
@@ -7472,11 +7720,11 @@
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E192" s="2"/>
     </row>
@@ -7485,11 +7733,11 @@
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E193" s="2"/>
     </row>
@@ -7498,11 +7746,11 @@
         <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E194" s="2"/>
     </row>
@@ -7511,11 +7759,11 @@
         <v>194</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -7524,11 +7772,11 @@
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E196" s="2"/>
     </row>
@@ -7537,11 +7785,11 @@
         <v>196</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E197" s="2"/>
     </row>
@@ -7550,11 +7798,11 @@
         <v>197</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E198" s="2"/>
     </row>
@@ -7563,11 +7811,11 @@
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E199" s="2"/>
     </row>
@@ -7576,11 +7824,11 @@
         <v>199</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E200" s="2"/>
     </row>
@@ -7589,11 +7837,11 @@
         <v>200</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E201" s="2"/>
     </row>
@@ -7602,11 +7850,11 @@
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E202" s="2"/>
     </row>
@@ -7615,11 +7863,11 @@
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E203" s="2"/>
     </row>
@@ -7628,11 +7876,11 @@
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E204" s="2"/>
     </row>
@@ -7641,11 +7889,11 @@
         <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E205" s="2"/>
     </row>
@@ -7663,11 +7911,11 @@
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E207" s="2"/>
     </row>
@@ -7676,11 +7924,11 @@
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E208" s="2"/>
     </row>
@@ -7689,11 +7937,11 @@
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E209" s="2"/>
     </row>
@@ -7702,11 +7950,11 @@
         <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E210" s="2"/>
     </row>
@@ -7715,11 +7963,11 @@
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E211" s="2"/>
     </row>
@@ -8151,11 +8399,11 @@
         <v>258</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E259" s="2"/>
     </row>
@@ -8164,11 +8412,11 @@
         <v>259</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E260" s="2"/>
     </row>
@@ -8177,11 +8425,11 @@
         <v>260</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E261" s="2"/>
     </row>
@@ -8190,11 +8438,11 @@
         <v>261</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E262" s="2"/>
     </row>
@@ -8203,11 +8451,11 @@
         <v>262</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E263" s="2"/>
     </row>
@@ -8216,11 +8464,11 @@
         <v>263</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E264" s="2"/>
     </row>
@@ -8247,11 +8495,11 @@
         <v>266</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E267" s="2"/>
     </row>
@@ -8260,11 +8508,11 @@
         <v>267</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E268" s="2"/>
     </row>
@@ -8273,11 +8521,11 @@
         <v>268</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E269" s="2"/>
     </row>
@@ -8286,11 +8534,11 @@
         <v>269</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E270" s="2"/>
     </row>
@@ -8299,11 +8547,11 @@
         <v>270</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E271" s="2"/>
     </row>
@@ -8312,11 +8560,11 @@
         <v>271</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E272" s="2"/>
     </row>
@@ -8325,11 +8573,11 @@
         <v>272</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E273" s="2"/>
     </row>
@@ -8338,11 +8586,11 @@
         <v>273</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E274" s="2"/>
     </row>
@@ -8351,11 +8599,11 @@
         <v>274</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E275" s="2"/>
     </row>
@@ -8364,11 +8612,11 @@
         <v>275</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E276" s="2"/>
     </row>
@@ -8377,11 +8625,11 @@
         <v>276</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E277" s="2"/>
     </row>
@@ -8390,11 +8638,11 @@
         <v>277</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E278" s="2"/>
     </row>
@@ -8403,11 +8651,11 @@
         <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E279" s="2"/>
     </row>
@@ -8416,11 +8664,11 @@
         <v>279</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E280" s="2"/>
     </row>
@@ -8447,11 +8695,11 @@
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E283" s="2"/>
     </row>
@@ -8460,11 +8708,11 @@
         <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E284" s="2"/>
     </row>
@@ -8473,11 +8721,11 @@
         <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E285" s="2"/>
     </row>
@@ -8486,11 +8734,11 @@
         <v>285</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E286" s="2"/>
     </row>
@@ -8508,11 +8756,11 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E288" s="2"/>
     </row>
@@ -8521,11 +8769,11 @@
         <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E289" s="2"/>
     </row>
@@ -8534,11 +8782,11 @@
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E290" s="2"/>
     </row>
@@ -8547,11 +8795,11 @@
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E291" s="2"/>
     </row>
@@ -8560,11 +8808,11 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E292" s="2"/>
     </row>
@@ -8573,11 +8821,11 @@
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E293" s="2"/>
     </row>
@@ -8586,11 +8834,11 @@
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E294" s="2"/>
     </row>
@@ -8599,11 +8847,11 @@
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E295" s="2"/>
     </row>
@@ -8612,11 +8860,11 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E296" s="2"/>
     </row>
@@ -8625,11 +8873,11 @@
         <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E297" s="2"/>
     </row>
@@ -8638,11 +8886,11 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E298" s="2"/>
     </row>
@@ -8651,11 +8899,11 @@
         <v>298</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E299" s="2"/>
     </row>
@@ -8664,14 +8912,14 @@
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E300" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8679,11 +8927,11 @@
         <v>300</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E301" s="7"/>
     </row>
@@ -8692,11 +8940,11 @@
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E302" s="7"/>
     </row>
@@ -8705,11 +8953,11 @@
         <v>302</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E303" s="7"/>
     </row>
@@ -8718,11 +8966,11 @@
         <v>303</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E304" s="7"/>
     </row>
@@ -8731,11 +8979,11 @@
         <v>304</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E305" s="7"/>
     </row>
@@ -8780,11 +9028,11 @@
         <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E310" s="7"/>
     </row>
@@ -8793,7 +9041,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3" t="s">
@@ -8860,11 +9108,11 @@
         <v>317</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E318" s="7"/>
     </row>
@@ -8873,11 +9121,11 @@
         <v>318</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E319" s="7"/>
     </row>
@@ -8886,11 +9134,11 @@
         <v>319</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E320" s="7"/>
     </row>
@@ -8899,11 +9147,11 @@
         <v>320</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E321" s="7"/>
     </row>
@@ -8912,11 +9160,11 @@
         <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E322" s="7"/>
     </row>
@@ -8925,11 +9173,11 @@
         <v>322</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E323" s="7"/>
     </row>
@@ -8938,11 +9186,11 @@
         <v>323</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E324" s="7"/>
     </row>
@@ -8951,11 +9199,11 @@
         <v>324</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E325" s="7"/>
     </row>
@@ -8964,13 +9212,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E326" s="7"/>
     </row>
@@ -8979,11 +9227,11 @@
         <v>326</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E327" s="7"/>
     </row>
@@ -8992,11 +9240,11 @@
         <v>327</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E328" s="7"/>
     </row>
@@ -9005,13 +9253,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E329" s="7"/>
     </row>
@@ -9020,11 +9268,11 @@
         <v>329</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E330" s="7"/>
     </row>
@@ -9051,11 +9299,11 @@
         <v>332</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C333" s="3"/>
       <c r="D333" s="3" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E333" s="7"/>
     </row>
@@ -9064,11 +9312,11 @@
         <v>333</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E334" s="7"/>
     </row>
@@ -9077,11 +9325,11 @@
         <v>334</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E335" s="7"/>
     </row>
@@ -9090,11 +9338,11 @@
         <v>335</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E336" s="7"/>
     </row>
@@ -9103,11 +9351,11 @@
         <v>336</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E337" s="7"/>
     </row>
@@ -9116,11 +9364,11 @@
         <v>337</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C338" s="3"/>
       <c r="D338" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E338" s="7"/>
     </row>
@@ -9129,11 +9377,11 @@
         <v>338</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E339" s="7"/>
     </row>
@@ -9142,11 +9390,11 @@
         <v>339</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" s="5" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E340" s="7"/>
     </row>
@@ -9155,11 +9403,11 @@
         <v>340</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E341" s="7"/>
     </row>
@@ -9168,11 +9416,11 @@
         <v>341</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E342" s="7"/>
     </row>
@@ -9181,11 +9429,11 @@
         <v>342</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E343" s="7"/>
     </row>
@@ -9194,11 +9442,11 @@
         <v>343</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E344" s="7"/>
     </row>
@@ -9207,11 +9455,11 @@
         <v>344</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E345" s="7"/>
     </row>
@@ -9220,11 +9468,11 @@
         <v>345</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="3" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E346" s="7"/>
     </row>
@@ -9242,11 +9490,11 @@
         <v>347</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E348" s="7"/>
     </row>
@@ -9264,11 +9512,11 @@
         <v>349</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="3" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E350" s="7"/>
     </row>
@@ -9277,11 +9525,11 @@
         <v>350</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="3" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E351" s="7"/>
     </row>
@@ -9290,11 +9538,11 @@
         <v>351</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="3" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E352" s="7"/>
     </row>
@@ -9303,11 +9551,11 @@
         <v>352</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="3" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E353" s="7"/>
     </row>
@@ -9316,11 +9564,11 @@
         <v>353</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E354" s="7"/>
     </row>
@@ -9329,11 +9577,11 @@
         <v>354</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="3" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E355" s="7"/>
     </row>
@@ -9342,11 +9590,11 @@
         <v>355</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" s="3" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E356" s="7"/>
     </row>
@@ -9355,11 +9603,11 @@
         <v>356</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="3" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E357" s="7"/>
     </row>
@@ -9368,11 +9616,11 @@
         <v>357</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C358" s="3"/>
       <c r="D358" s="3" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E358" s="7"/>
     </row>
@@ -9381,11 +9629,11 @@
         <v>358</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C359" s="3"/>
       <c r="D359" s="3" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E359" s="7"/>
     </row>
@@ -9394,11 +9642,11 @@
         <v>359</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="3" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E360" s="7"/>
     </row>
@@ -9407,11 +9655,11 @@
         <v>360</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E361" s="7"/>
     </row>
@@ -9420,11 +9668,11 @@
         <v>361</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C362" s="3"/>
       <c r="D362" s="3" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E362" s="7"/>
     </row>
@@ -9433,11 +9681,11 @@
         <v>362</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E363" s="7"/>
     </row>
@@ -9446,11 +9694,11 @@
         <v>363</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E364" s="7"/>
     </row>
@@ -9459,11 +9707,11 @@
         <v>364</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E365" s="7"/>
     </row>
@@ -9472,11 +9720,11 @@
         <v>365</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E366" s="7"/>
     </row>
@@ -9485,11 +9733,11 @@
         <v>366</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E367" s="7"/>
     </row>
@@ -9498,11 +9746,11 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E368" s="7"/>
     </row>
@@ -9511,11 +9759,11 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E369" s="7"/>
     </row>
@@ -9524,11 +9772,11 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E370" s="7"/>
     </row>
@@ -9537,11 +9785,11 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C371" s="3"/>
       <c r="D371" s="3" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E371" s="7"/>
     </row>
@@ -9550,11 +9798,11 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E372" s="7"/>
     </row>
@@ -9572,11 +9820,11 @@
         <v>373</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E374" s="7"/>
     </row>
@@ -9594,11 +9842,11 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="E376" s="7"/>
     </row>
@@ -9607,11 +9855,11 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="E377" s="7"/>
     </row>
@@ -9620,11 +9868,11 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C378" s="3"/>
       <c r="D378" s="3" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="E378" s="7"/>
     </row>
@@ -9633,11 +9881,11 @@
         <v>378</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C379" s="3"/>
       <c r="D379" s="3" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E379" s="7"/>
     </row>
@@ -9673,11 +9921,11 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C383" s="3"/>
       <c r="D383" s="3" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E383" s="7"/>
     </row>
@@ -9686,11 +9934,11 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E384" s="7"/>
     </row>
@@ -9699,11 +9947,11 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C385" s="3"/>
       <c r="D385" s="3" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E385" s="7"/>
     </row>
@@ -9739,11 +9987,11 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C389" s="3"/>
       <c r="D389" s="3" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E389" s="7"/>
     </row>
@@ -9761,11 +10009,11 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E391" s="7"/>
     </row>
@@ -9774,11 +10022,11 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E392" s="7"/>
     </row>
@@ -9787,11 +10035,11 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C393" s="3"/>
       <c r="D393" s="3" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E393" s="7"/>
     </row>
@@ -9800,11 +10048,11 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C394" s="3"/>
       <c r="D394" s="3" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E394" s="7"/>
     </row>
@@ -9813,11 +10061,11 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E395" s="7"/>
     </row>
@@ -9826,11 +10074,11 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C396" s="3"/>
       <c r="D396" s="3" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E396" s="7"/>
     </row>
@@ -9839,11 +10087,11 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C397" s="3"/>
       <c r="D397" s="3" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="E397" s="7"/>
     </row>
@@ -9852,11 +10100,11 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C398" s="3"/>
       <c r="D398" s="3" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E398" s="7"/>
     </row>
@@ -9878,7 +10126,7 @@
       </c>
       <c r="C400" s="3"/>
       <c r="D400" s="3" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E400" s="7"/>
     </row>
@@ -9887,11 +10135,11 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="3" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E401" s="7"/>
     </row>
@@ -9900,11 +10148,11 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C402" s="3"/>
       <c r="D402" s="3" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>4</v>
@@ -9915,11 +10163,11 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C403" s="3"/>
       <c r="D403" s="3" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E403" s="2"/>
     </row>
@@ -9928,7 +10176,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C404" s="3"/>
       <c r="D404" s="3" t="s">
@@ -9941,11 +10189,11 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C405" s="3"/>
       <c r="D405" s="3" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E405" s="2"/>
     </row>
@@ -9972,11 +10220,11 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C408" s="3"/>
       <c r="D408" s="3" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E408" s="2"/>
     </row>
@@ -9985,11 +10233,11 @@
         <v>408</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C409" s="3"/>
       <c r="D409" s="3" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E409" s="2"/>
     </row>
@@ -10016,11 +10264,11 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C412" s="3"/>
       <c r="D412" s="3" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E412" s="2"/>
     </row>
@@ -10029,11 +10277,11 @@
         <v>412</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C413" s="3"/>
       <c r="D413" s="3" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="E413" s="2"/>
     </row>
@@ -10042,11 +10290,11 @@
         <v>413</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C414" s="3"/>
       <c r="D414" s="3" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E414" s="2"/>
     </row>
@@ -10055,11 +10303,11 @@
         <v>414</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C415" s="3"/>
       <c r="D415" s="3" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="E415" s="2"/>
     </row>
@@ -10068,11 +10316,11 @@
         <v>415</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C416" s="3"/>
       <c r="D416" s="3" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E416" s="2"/>
     </row>
@@ -10081,11 +10329,11 @@
         <v>416</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="3" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E417" s="2"/>
     </row>
@@ -10103,11 +10351,11 @@
         <v>418</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C419" s="3"/>
       <c r="D419" s="3" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E419" s="2"/>
     </row>
@@ -10116,11 +10364,11 @@
         <v>419</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C420" s="3"/>
       <c r="D420" s="3" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="E420" s="2"/>
     </row>
@@ -10129,11 +10377,11 @@
         <v>420</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="3" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E421" s="2"/>
     </row>
@@ -10142,11 +10390,11 @@
         <v>421</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C422" s="3"/>
       <c r="D422" s="3" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="E422" s="2"/>
     </row>
@@ -10155,11 +10403,11 @@
         <v>422</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C423" s="3"/>
       <c r="D423" s="3" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E423" s="2"/>
     </row>
@@ -10168,11 +10416,11 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="3" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="E424" s="2"/>
     </row>
@@ -10190,13 +10438,13 @@
         <v>425</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C426" s="3">
         <v>222</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="E426" s="2"/>
     </row>
@@ -10205,7 +10453,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3" t="s">
@@ -10218,13 +10466,13 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C428" s="3">
         <v>7</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E428" s="2"/>
     </row>
@@ -10233,13 +10481,13 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C429" s="3">
         <v>9</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="E429" s="2"/>
     </row>
@@ -10254,11 +10502,11 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E431" s="2"/>
     </row>
@@ -10282,11 +10530,11 @@
         <v>433</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E434" s="2"/>
     </row>
@@ -10295,11 +10543,11 @@
         <v>434</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C435" s="3"/>
       <c r="D435" s="3" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E435" s="2"/>
     </row>
@@ -10308,11 +10556,11 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="E436" s="2"/>
     </row>
@@ -10321,11 +10569,11 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="E437" s="2"/>
     </row>
@@ -10334,11 +10582,11 @@
         <v>437</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="E438" s="2"/>
     </row>
@@ -10347,11 +10595,11 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="E439" s="2"/>
     </row>
@@ -10360,11 +10608,11 @@
         <v>439</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="E440" s="2"/>
     </row>
@@ -10373,11 +10621,11 @@
         <v>440</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="3" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="E441" s="2"/>
     </row>
@@ -10386,11 +10634,11 @@
         <v>441</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="3" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="E442" s="2"/>
     </row>
@@ -10399,11 +10647,11 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="3" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="E443" s="2"/>
     </row>
@@ -10412,11 +10660,11 @@
         <v>443</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="E444" s="2"/>
     </row>
@@ -10425,11 +10673,11 @@
         <v>444</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E445" s="2"/>
     </row>
@@ -10447,11 +10695,11 @@
         <v>446</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E447" s="2"/>
     </row>
@@ -10460,11 +10708,11 @@
         <v>447</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E448" s="2"/>
     </row>
@@ -10473,11 +10721,11 @@
         <v>448</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E449" s="2"/>
     </row>
@@ -10486,11 +10734,11 @@
         <v>449</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="E450" s="2"/>
     </row>
@@ -10499,11 +10747,11 @@
         <v>450</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="E451" s="2"/>
     </row>
@@ -10512,13 +10760,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="E452" s="2"/>
     </row>
@@ -10527,11 +10775,11 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E453" s="2"/>
     </row>
@@ -10540,11 +10788,11 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C454" s="3"/>
       <c r="D454" s="3" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E454" s="2"/>
     </row>
@@ -10553,11 +10801,11 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C455" s="3"/>
       <c r="D455" s="3" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="E455" s="2"/>
     </row>
@@ -10566,11 +10814,11 @@
         <v>455</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C456" s="3"/>
       <c r="D456" s="3" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="E456" s="2"/>
     </row>
@@ -10579,11 +10827,11 @@
         <v>456</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C457" s="3"/>
       <c r="D457" s="3" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="E457" s="2"/>
     </row>
@@ -10592,11 +10840,11 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C458" s="3"/>
       <c r="D458" s="3" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="E458" s="2"/>
     </row>
@@ -10605,11 +10853,11 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C459" s="3"/>
       <c r="D459" s="3" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="E459" s="2"/>
     </row>
@@ -10618,11 +10866,11 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C460" s="3"/>
       <c r="D460" s="3" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="E460" s="2"/>
     </row>
@@ -10631,11 +10879,11 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C461" s="3"/>
       <c r="D461" s="3" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="E461" s="2"/>
     </row>
@@ -10644,11 +10892,11 @@
         <v>461</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C462" s="3"/>
       <c r="D462" s="9" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="E462" s="2"/>
     </row>
@@ -10657,11 +10905,11 @@
         <v>462</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C463" s="3"/>
       <c r="D463" s="9" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="E463" s="2"/>
     </row>
@@ -10670,11 +10918,11 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C464" s="3"/>
       <c r="D464" s="3" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E464" s="2"/>
     </row>
@@ -10683,11 +10931,11 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C465" s="3"/>
       <c r="D465" s="3" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E465" s="2"/>
     </row>
@@ -10696,11 +10944,11 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C466" s="3"/>
       <c r="D466" s="3" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E466" s="2"/>
     </row>
@@ -10709,11 +10957,11 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C467" s="3"/>
       <c r="D467" s="3" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E467" s="2"/>
     </row>
@@ -10722,11 +10970,11 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C468" s="3"/>
       <c r="D468" s="3" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="E468" s="2"/>
     </row>
@@ -10735,11 +10983,11 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C469" s="3"/>
       <c r="D469" s="3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E469" s="2"/>
     </row>
@@ -10748,13 +10996,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="E470" s="2"/>
     </row>
@@ -10763,13 +11011,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="E471" s="2"/>
     </row>
@@ -10778,13 +11026,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="E472" s="2"/>
     </row>
@@ -10793,13 +11041,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E473" s="2"/>
     </row>
@@ -10808,13 +11056,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="E474" s="2"/>
     </row>
@@ -10823,13 +11071,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="E475" s="2"/>
     </row>
@@ -10838,13 +11086,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E476" s="2"/>
     </row>
@@ -10853,13 +11101,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="E477" s="2"/>
     </row>
@@ -10868,13 +11116,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="E478" s="2"/>
     </row>
@@ -10883,13 +11131,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="E479" s="2"/>
     </row>
@@ -10898,13 +11146,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="E480" s="2"/>
     </row>
@@ -10913,13 +11161,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="E481" s="2"/>
     </row>
@@ -10928,13 +11176,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="E482" s="2"/>
     </row>
@@ -10943,13 +11191,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="E483" s="2"/>
     </row>
@@ -10958,13 +11206,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="E484" s="2"/>
     </row>
@@ -10973,13 +11221,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="E485" s="2"/>
     </row>
@@ -10988,13 +11236,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="E486" s="2"/>
     </row>
@@ -11003,13 +11251,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="E487" s="2"/>
     </row>
@@ -11018,13 +11266,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="E488" s="2"/>
     </row>
@@ -11033,13 +11281,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="E489" s="2"/>
     </row>
@@ -11048,13 +11296,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="E490" s="2"/>
     </row>
@@ -11063,13 +11311,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="E491" s="2"/>
     </row>
@@ -11078,13 +11326,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="E492" s="2"/>
     </row>
@@ -11093,13 +11341,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="E493" s="2"/>
     </row>
@@ -11108,13 +11356,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E494" s="2"/>
     </row>
@@ -11123,13 +11371,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E495" s="2"/>
     </row>
@@ -11138,13 +11386,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="E496" s="2"/>
     </row>
@@ -11153,13 +11401,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E497" s="2"/>
     </row>
@@ -11168,13 +11416,13 @@
         <v>497</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="E498" s="2"/>
     </row>
@@ -11183,13 +11431,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E499" s="2"/>
     </row>
@@ -11198,13 +11446,13 @@
         <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E500" s="2"/>
     </row>
@@ -11213,13 +11461,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E501" s="2"/>
     </row>
@@ -11228,16 +11476,16 @@
         <v>501</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D502" s="10" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E502" s="11" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11245,13 +11493,13 @@
         <v>502</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D503" s="10" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="E503" s="11"/>
     </row>
@@ -11260,11 +11508,11 @@
         <v>503</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C504" s="3"/>
       <c r="D504" s="10" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="E504" s="11"/>
     </row>
@@ -11273,11 +11521,11 @@
         <v>504</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C505" s="3"/>
       <c r="D505" s="10" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="E505" s="11"/>
     </row>
@@ -11286,11 +11534,11 @@
         <v>505</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C506" s="3"/>
       <c r="D506" s="10" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="E506" s="11"/>
     </row>
@@ -11299,11 +11547,11 @@
         <v>506</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C507" s="3"/>
       <c r="D507" s="10" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="E507" s="11"/>
     </row>
@@ -11312,11 +11560,11 @@
         <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C508" s="3"/>
       <c r="D508" s="10" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="E508" s="11"/>
     </row>
@@ -11325,11 +11573,11 @@
         <v>508</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C509" s="3"/>
       <c r="D509" s="10" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="E509" s="11"/>
     </row>
@@ -11338,11 +11586,11 @@
         <v>509</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C510" s="3"/>
       <c r="D510" s="10" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="E510" s="11"/>
     </row>
@@ -11351,11 +11599,11 @@
         <v>510</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C511" s="3"/>
       <c r="D511" s="10" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="E511" s="11"/>
     </row>
@@ -11364,11 +11612,11 @@
         <v>511</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C512" s="3"/>
       <c r="D512" s="10" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="E512" s="11"/>
     </row>
@@ -11377,11 +11625,11 @@
         <v>512</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C513" s="3"/>
       <c r="D513" s="10" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="E513" s="11"/>
     </row>
@@ -11390,11 +11638,11 @@
         <v>513</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C514" s="3"/>
       <c r="D514" s="10" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="E514" s="11"/>
     </row>
@@ -11403,11 +11651,11 @@
         <v>514</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C515" s="3"/>
       <c r="D515" s="10" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="E515" s="11"/>
     </row>
@@ -11416,13 +11664,13 @@
         <v>515</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C516" s="3">
         <v>20</v>
       </c>
       <c r="D516" s="10" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="E516" s="11"/>
     </row>
@@ -11431,13 +11679,13 @@
         <v>516</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C517" s="3">
         <v>20</v>
       </c>
       <c r="D517" s="10" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="E517" s="11"/>
     </row>
@@ -11446,13 +11694,13 @@
         <v>517</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C518" s="3">
         <v>20</v>
       </c>
       <c r="D518" s="10" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="E518" s="11"/>
     </row>
@@ -11461,13 +11709,13 @@
         <v>518</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C519" s="3">
         <v>20</v>
       </c>
       <c r="D519" s="10" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E519" s="11"/>
     </row>
@@ -11476,13 +11724,13 @@
         <v>519</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C520" s="3">
         <v>20</v>
       </c>
       <c r="D520" s="10" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="E520" s="11"/>
     </row>
@@ -11491,13 +11739,13 @@
         <v>520</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C521" s="3">
         <v>20</v>
       </c>
       <c r="D521" s="10" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="E521" s="11"/>
     </row>
@@ -11506,11 +11754,11 @@
         <v>521</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C522" s="3"/>
       <c r="D522" s="10" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="E522" s="11"/>
     </row>
@@ -11519,13 +11767,13 @@
         <v>522</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C523" s="3">
         <v>33</v>
       </c>
       <c r="D523" s="10" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E523" s="11"/>
     </row>
@@ -11534,11 +11782,11 @@
         <v>523</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C524" s="3"/>
       <c r="D524" s="10" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="E524" s="11"/>
     </row>
@@ -11547,11 +11795,11 @@
         <v>524</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C525" s="3"/>
       <c r="D525" s="10" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="E525" s="11"/>
     </row>
@@ -11560,11 +11808,11 @@
         <v>525</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C526" s="3"/>
       <c r="D526" s="10" t="s">
-        <v>823</v>
+        <v>610</v>
       </c>
       <c r="E526" s="11"/>
     </row>
@@ -11573,11 +11821,11 @@
         <v>526</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C527" s="3"/>
       <c r="D527" s="10" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E527" s="11"/>
     </row>
@@ -11586,11 +11834,11 @@
         <v>527</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C528" s="3"/>
       <c r="D528" s="10" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E528" s="11"/>
     </row>
@@ -11599,11 +11847,11 @@
         <v>528</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C529" s="3"/>
       <c r="D529" s="10" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="E529" s="11"/>
     </row>
@@ -11630,11 +11878,11 @@
         <v>531</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C532" s="3"/>
       <c r="D532" s="10" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="E532" s="11"/>
     </row>
@@ -11652,11 +11900,11 @@
         <v>533</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C534" s="3"/>
       <c r="D534" s="10" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="E534" s="11"/>
     </row>
@@ -11665,13 +11913,13 @@
         <v>534</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C535" s="3">
         <v>16</v>
       </c>
       <c r="D535" s="10" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="E535" s="11"/>
     </row>
@@ -11680,13 +11928,13 @@
         <v>535</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C536" s="3">
         <v>222</v>
       </c>
       <c r="D536" s="10" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="E536" s="11"/>
     </row>
@@ -11695,13 +11943,13 @@
         <v>536</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C537" s="3">
         <v>222</v>
       </c>
       <c r="D537" s="10" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="E537" s="11"/>
     </row>
@@ -11710,13 +11958,13 @@
         <v>537</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C538" s="3">
         <v>222</v>
       </c>
       <c r="D538" s="10" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="E538" s="11"/>
     </row>
@@ -11725,13 +11973,13 @@
         <v>538</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C539" s="3">
         <v>222</v>
       </c>
       <c r="D539" s="10" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E539" s="11"/>
     </row>
@@ -11740,13 +11988,13 @@
         <v>539</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C540" s="3">
         <v>222</v>
       </c>
       <c r="D540" s="10" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E540" s="11"/>
     </row>
@@ -11755,13 +12003,13 @@
         <v>540</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C541" s="3">
         <v>222</v>
       </c>
       <c r="D541" s="10" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="E541" s="11"/>
     </row>
@@ -11770,11 +12018,11 @@
         <v>541</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C542" s="3"/>
       <c r="D542" s="10" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E542" s="11"/>
     </row>
@@ -11783,13 +12031,13 @@
         <v>542</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C543" s="3">
         <v>28</v>
       </c>
       <c r="D543" s="10" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E543" s="11"/>
     </row>
@@ -11798,13 +12046,13 @@
         <v>543</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C544" s="3">
         <v>30</v>
       </c>
       <c r="D544" s="10" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="E544" s="11"/>
     </row>
@@ -11813,13 +12061,13 @@
         <v>544</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C545" s="3">
         <v>30</v>
       </c>
       <c r="D545" s="10" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E545" s="11"/>
     </row>
@@ -11828,13 +12076,13 @@
         <v>545</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C546" s="3">
         <v>30</v>
       </c>
       <c r="D546" s="10" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E546" s="11"/>
     </row>
@@ -11843,11 +12091,11 @@
         <v>546</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C547" s="3"/>
       <c r="D547" s="10" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E547" s="11"/>
     </row>
@@ -11856,11 +12104,11 @@
         <v>547</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C548" s="3"/>
       <c r="D548" s="10" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E548" s="11"/>
     </row>
@@ -11869,11 +12117,11 @@
         <v>548</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C549" s="3"/>
       <c r="D549" s="10" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="E549" s="11"/>
     </row>
@@ -11882,11 +12130,11 @@
         <v>549</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C550" s="3"/>
       <c r="D550" s="10" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="E550" s="11"/>
     </row>
@@ -11895,11 +12143,11 @@
         <v>550</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C551" s="3"/>
       <c r="D551" s="10" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="E551" s="11"/>
     </row>
@@ -11908,11 +12156,11 @@
         <v>551</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C552" s="3"/>
       <c r="D552" s="10" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E552" s="11"/>
     </row>
@@ -11921,11 +12169,11 @@
         <v>552</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C553" s="3"/>
       <c r="D553" s="10" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E553" s="11"/>
     </row>
@@ -11934,11 +12182,11 @@
         <v>553</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C554" s="3"/>
       <c r="D554" s="10" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="E554" s="11"/>
     </row>
@@ -11947,11 +12195,11 @@
         <v>554</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C555" s="3"/>
       <c r="D555" s="10" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E555" s="11"/>
     </row>
@@ -11960,11 +12208,11 @@
         <v>555</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C556" s="3"/>
       <c r="D556" s="10" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="E556" s="11"/>
     </row>
@@ -11973,11 +12221,11 @@
         <v>556</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C557" s="3"/>
       <c r="D557" s="10" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="E557" s="11"/>
     </row>
@@ -11986,11 +12234,11 @@
         <v>557</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C558" s="3"/>
       <c r="D558" s="10" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="E558" s="11"/>
     </row>
@@ -11999,11 +12247,11 @@
         <v>558</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C559" s="3"/>
       <c r="D559" s="10" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="E559" s="11"/>
     </row>
@@ -12012,11 +12260,11 @@
         <v>559</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C560" s="3"/>
       <c r="D560" s="10" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="E560" s="11"/>
     </row>
@@ -12025,11 +12273,11 @@
         <v>560</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C561" s="3"/>
       <c r="D561" s="10" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="E561" s="11"/>
     </row>
@@ -12038,11 +12286,11 @@
         <v>561</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C562" s="3"/>
       <c r="D562" s="10" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="E562" s="11"/>
     </row>
@@ -12051,11 +12299,11 @@
         <v>562</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C563" s="3"/>
       <c r="D563" s="10" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="E563" s="11"/>
     </row>
@@ -12064,11 +12312,11 @@
         <v>563</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C564" s="3"/>
       <c r="D564" s="10" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="E564" s="11"/>
     </row>
@@ -12077,11 +12325,11 @@
         <v>564</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C565" s="3"/>
       <c r="D565" s="10" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="E565" s="11"/>
     </row>
@@ -12090,11 +12338,11 @@
         <v>565</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="10" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="E566" s="11"/>
     </row>
@@ -12103,11 +12351,11 @@
         <v>566</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C567" s="3"/>
       <c r="D567" s="10" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="E567" s="11"/>
     </row>
@@ -12116,11 +12364,11 @@
         <v>567</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C568" s="3"/>
       <c r="D568" s="10" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="E568" s="11"/>
     </row>
@@ -12138,11 +12386,11 @@
         <v>569</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C570" s="3"/>
       <c r="D570" s="10" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="E570" s="11"/>
     </row>
@@ -12151,11 +12399,11 @@
         <v>570</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C571" s="3"/>
       <c r="D571" s="10" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="E571" s="11"/>
     </row>
@@ -12164,11 +12412,11 @@
         <v>571</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C572" s="3"/>
       <c r="D572" s="10" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="E572" s="11"/>
     </row>
@@ -12177,11 +12425,11 @@
         <v>572</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C573" s="3"/>
       <c r="D573" s="10" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="E573" s="11"/>
     </row>
@@ -12190,11 +12438,11 @@
         <v>573</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="C574" s="3"/>
       <c r="D574" s="10" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E574" s="11"/>
     </row>
@@ -12221,11 +12469,11 @@
         <v>576</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="C577" s="3"/>
       <c r="D577" s="10" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="E577" s="11"/>
     </row>
@@ -12234,11 +12482,11 @@
         <v>577</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C578" s="3"/>
       <c r="D578" s="10" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E578" s="11"/>
     </row>
@@ -12247,11 +12495,11 @@
         <v>578</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C579" s="3"/>
       <c r="D579" s="10" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="E579" s="11"/>
     </row>
@@ -12260,11 +12508,11 @@
         <v>579</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C580" s="3"/>
       <c r="D580" s="10" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="E580" s="11"/>
     </row>
@@ -12273,11 +12521,11 @@
         <v>580</v>
       </c>
       <c r="B581" s="12" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="C581" s="12"/>
       <c r="D581" s="12" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>4</v>
@@ -12297,11 +12545,11 @@
         <v>582</v>
       </c>
       <c r="B583" s="12" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="C583" s="12"/>
       <c r="D583" s="12" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="E583" s="2"/>
     </row>
@@ -12310,11 +12558,11 @@
         <v>583</v>
       </c>
       <c r="B584" s="13" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C584" s="13"/>
       <c r="D584" s="13" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="E584" s="2"/>
     </row>
@@ -12323,11 +12571,11 @@
         <v>584</v>
       </c>
       <c r="B585" s="12" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="C585" s="12"/>
       <c r="D585" s="12" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="E585" s="2"/>
     </row>
@@ -12336,11 +12584,11 @@
         <v>585</v>
       </c>
       <c r="B586" s="13" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="C586" s="13"/>
       <c r="D586" s="13" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="E586" s="2"/>
     </row>
@@ -12349,11 +12597,11 @@
         <v>586</v>
       </c>
       <c r="B587" s="12" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C587" s="12"/>
       <c r="D587" s="12" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="E587" s="2"/>
     </row>
@@ -12362,11 +12610,11 @@
         <v>587</v>
       </c>
       <c r="B588" s="13" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="C588" s="13"/>
       <c r="D588" s="13" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E588" s="2"/>
     </row>
@@ -12375,11 +12623,11 @@
         <v>588</v>
       </c>
       <c r="B589" s="12" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C589" s="12"/>
       <c r="D589" s="12" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="E589" s="2"/>
     </row>
@@ -12388,11 +12636,11 @@
         <v>589</v>
       </c>
       <c r="B590" s="13" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C590" s="13"/>
       <c r="D590" s="13" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="E590" s="2"/>
     </row>
@@ -12401,11 +12649,11 @@
         <v>590</v>
       </c>
       <c r="B591" s="12" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C591" s="12"/>
       <c r="D591" s="12" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="E591" s="2"/>
     </row>
@@ -12414,11 +12662,11 @@
         <v>591</v>
       </c>
       <c r="B592" s="13" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C592" s="13"/>
       <c r="D592" s="13" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="E592" s="2"/>
     </row>
@@ -12427,11 +12675,11 @@
         <v>592</v>
       </c>
       <c r="B593" s="12" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C593" s="12"/>
       <c r="D593" s="12" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="E593" s="2"/>
     </row>
@@ -12440,11 +12688,11 @@
         <v>593</v>
       </c>
       <c r="B594" s="13" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C594" s="13"/>
       <c r="D594" s="13" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="E594" s="2"/>
     </row>
@@ -12453,11 +12701,11 @@
         <v>594</v>
       </c>
       <c r="B595" s="12" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C595" s="12"/>
       <c r="D595" s="12" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="E595" s="2"/>
     </row>
@@ -12466,11 +12714,11 @@
         <v>595</v>
       </c>
       <c r="B596" s="13" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C596" s="13"/>
       <c r="D596" s="13" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="E596" s="2"/>
     </row>
@@ -12479,11 +12727,11 @@
         <v>596</v>
       </c>
       <c r="B597" s="12" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C597" s="12"/>
       <c r="D597" s="12" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="E597" s="2"/>
     </row>
@@ -12492,11 +12740,11 @@
         <v>597</v>
       </c>
       <c r="B598" s="13" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="C598" s="13"/>
       <c r="D598" s="13" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="E598" s="2"/>
     </row>
@@ -12514,11 +12762,11 @@
         <v>599</v>
       </c>
       <c r="B600" s="13" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C600" s="13"/>
       <c r="D600" s="13" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="E600" s="2"/>
     </row>
@@ -12527,11 +12775,11 @@
         <v>600</v>
       </c>
       <c r="B601" s="12" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C601" s="12"/>
       <c r="D601" s="12" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E601" s="2"/>
     </row>
@@ -12540,11 +12788,11 @@
         <v>601</v>
       </c>
       <c r="B602" s="13" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="C602" s="13"/>
       <c r="D602" s="13" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E602" s="2"/>
     </row>
@@ -12553,11 +12801,11 @@
         <v>602</v>
       </c>
       <c r="B603" s="12" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C603" s="12"/>
       <c r="D603" s="12" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E603" s="2"/>
     </row>
@@ -12566,11 +12814,11 @@
         <v>603</v>
       </c>
       <c r="B604" s="13" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C604" s="13"/>
       <c r="D604" s="13" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="E604" s="2"/>
     </row>
@@ -12579,11 +12827,11 @@
         <v>604</v>
       </c>
       <c r="B605" s="12" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C605" s="12"/>
       <c r="D605" s="12" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="E605" s="2"/>
     </row>
@@ -12592,11 +12840,11 @@
         <v>605</v>
       </c>
       <c r="B606" s="13" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C606" s="13"/>
       <c r="D606" s="13" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="E606" s="2"/>
     </row>
@@ -12605,11 +12853,11 @@
         <v>606</v>
       </c>
       <c r="B607" s="12" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C607" s="12"/>
       <c r="D607" s="12" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="E607" s="2"/>
     </row>
@@ -12618,11 +12866,11 @@
         <v>607</v>
       </c>
       <c r="B608" s="13" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C608" s="13"/>
       <c r="D608" s="13" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="E608" s="2"/>
     </row>
@@ -12631,13 +12879,13 @@
         <v>608</v>
       </c>
       <c r="B609" s="12" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C609" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D609" s="12" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E609" s="2"/>
     </row>
@@ -12646,13 +12894,13 @@
         <v>609</v>
       </c>
       <c r="B610" s="13" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C610" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D610" s="13" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="E610" s="2"/>
     </row>
@@ -12661,13 +12909,13 @@
         <v>610</v>
       </c>
       <c r="B611" s="12" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="C611" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D611" s="12" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="E611" s="2"/>
     </row>
@@ -12676,13 +12924,13 @@
         <v>611</v>
       </c>
       <c r="B612" s="13" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C612" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D612" s="13" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="E612" s="2"/>
     </row>
@@ -12691,13 +12939,13 @@
         <v>612</v>
       </c>
       <c r="B613" s="12" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C613" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D613" s="12" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="E613" s="2"/>
     </row>
@@ -12724,13 +12972,13 @@
         <v>615</v>
       </c>
       <c r="B616" s="13" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="C616" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D616" s="13" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E616" s="2"/>
     </row>
@@ -12739,13 +12987,13 @@
         <v>616</v>
       </c>
       <c r="B617" s="12" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="C617" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D617" s="12" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="E617" s="2"/>
     </row>
@@ -12754,11 +13002,11 @@
         <v>617</v>
       </c>
       <c r="B618" s="13" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C618" s="13"/>
       <c r="D618" s="13" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="E618" s="2"/>
     </row>
@@ -12767,11 +13015,11 @@
         <v>618</v>
       </c>
       <c r="B619" s="12" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="C619" s="12"/>
       <c r="D619" s="12" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="E619" s="2"/>
     </row>
@@ -12789,13 +13037,13 @@
         <v>620</v>
       </c>
       <c r="B621" s="12" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C621" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D621" s="12" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E621" s="2"/>
     </row>
@@ -12804,13 +13052,13 @@
         <v>621</v>
       </c>
       <c r="B622" s="13" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C622" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D622" s="13" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="E622" s="2"/>
     </row>
@@ -12819,13 +13067,13 @@
         <v>622</v>
       </c>
       <c r="B623" s="12" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="C623" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D623" s="12" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="E623" s="2"/>
     </row>
@@ -12834,13 +13082,13 @@
         <v>623</v>
       </c>
       <c r="B624" s="13" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="C624" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D624" s="13" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="E624" s="2"/>
     </row>
@@ -12849,13 +13097,13 @@
         <v>624</v>
       </c>
       <c r="B625" s="12" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="C625" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D625" s="12" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="E625" s="2"/>
     </row>
@@ -12864,13 +13112,13 @@
         <v>625</v>
       </c>
       <c r="B626" s="13" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C626" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D626" s="13" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E626" s="2"/>
     </row>
@@ -12879,13 +13127,13 @@
         <v>626</v>
       </c>
       <c r="B627" s="12" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C627" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D627" s="12" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E627" s="2"/>
     </row>
@@ -12894,13 +13142,13 @@
         <v>627</v>
       </c>
       <c r="B628" s="13" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C628" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D628" s="13" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="E628" s="2"/>
     </row>
@@ -12909,11 +13157,11 @@
         <v>628</v>
       </c>
       <c r="B629" s="12" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C629" s="12"/>
       <c r="D629" s="12" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="E629" s="2"/>
     </row>
@@ -12922,11 +13170,11 @@
         <v>629</v>
       </c>
       <c r="B630" s="13" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C630" s="13"/>
       <c r="D630" s="13" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E630" s="2"/>
     </row>
@@ -12935,11 +13183,11 @@
         <v>630</v>
       </c>
       <c r="B631" s="12" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C631" s="12"/>
       <c r="D631" s="12" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="E631" s="2"/>
     </row>
@@ -12948,13 +13196,13 @@
         <v>631</v>
       </c>
       <c r="B632" s="13" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="C632" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D632" s="13" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="E632" s="2"/>
     </row>
@@ -12972,13 +13220,13 @@
         <v>633</v>
       </c>
       <c r="B634" s="13" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="C634" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D634" s="13" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="E634" s="2"/>
     </row>
@@ -12987,13 +13235,13 @@
         <v>634</v>
       </c>
       <c r="B635" s="12" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C635" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D635" s="12" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="E635" s="2"/>
     </row>
@@ -13002,13 +13250,13 @@
         <v>635</v>
       </c>
       <c r="B636" s="13" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="C636" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D636" s="13" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="E636" s="2"/>
     </row>
@@ -13017,13 +13265,13 @@
         <v>636</v>
       </c>
       <c r="B637" s="12" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C637" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D637" s="12" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E637" s="2"/>
     </row>
@@ -13032,13 +13280,13 @@
         <v>637</v>
       </c>
       <c r="B638" s="13" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="C638" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D638" s="13" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="E638" s="2"/>
     </row>
@@ -13047,13 +13295,13 @@
         <v>638</v>
       </c>
       <c r="B639" s="12" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="C639" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D639" s="12" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="E639" s="2"/>
     </row>
@@ -13062,13 +13310,13 @@
         <v>639</v>
       </c>
       <c r="B640" s="13" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="C640" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D640" s="13" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="E640" s="2"/>
     </row>
@@ -13077,13 +13325,13 @@
         <v>640</v>
       </c>
       <c r="B641" s="12" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="C641" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D641" s="12" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="E641" s="2"/>
     </row>
@@ -13092,11 +13340,11 @@
         <v>641</v>
       </c>
       <c r="B642" s="13" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C642" s="13"/>
       <c r="D642" s="13" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="E642" s="2"/>
     </row>
@@ -13105,11 +13353,11 @@
         <v>642</v>
       </c>
       <c r="B643" s="12" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C643" s="12"/>
       <c r="D643" s="12" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E643" s="2"/>
     </row>
@@ -13118,13 +13366,13 @@
         <v>643</v>
       </c>
       <c r="B644" s="13" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C644" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D644" s="13" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="E644" s="2"/>
     </row>
@@ -13133,13 +13381,13 @@
         <v>644</v>
       </c>
       <c r="B645" s="12" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="C645" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D645" s="12" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="E645" s="2"/>
     </row>
@@ -13148,11 +13396,11 @@
         <v>645</v>
       </c>
       <c r="B646" s="13" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C646" s="13"/>
       <c r="D646" s="13" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="E646" s="2"/>
     </row>
@@ -13161,11 +13409,11 @@
         <v>646</v>
       </c>
       <c r="B647" s="12" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C647" s="12"/>
       <c r="D647" s="12" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="E647" s="2"/>
     </row>
@@ -13174,11 +13422,11 @@
         <v>647</v>
       </c>
       <c r="B648" s="13" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C648" s="13"/>
       <c r="D648" s="13" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="E648" s="2"/>
     </row>
@@ -13187,11 +13435,11 @@
         <v>648</v>
       </c>
       <c r="B649" s="12" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="C649" s="12"/>
       <c r="D649" s="12" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="E649" s="2"/>
     </row>
@@ -13200,11 +13448,11 @@
         <v>649</v>
       </c>
       <c r="B650" s="13" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="C650" s="13"/>
       <c r="D650" s="13" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="E650" s="2"/>
     </row>
@@ -13213,11 +13461,11 @@
         <v>650</v>
       </c>
       <c r="B651" s="12" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C651" s="12"/>
       <c r="D651" s="12" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="E651" s="2"/>
     </row>
@@ -13271,11 +13519,11 @@
         <v>656</v>
       </c>
       <c r="B657" s="12" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C657" s="12"/>
       <c r="D657" s="12" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="E657" s="2"/>
     </row>
@@ -13284,11 +13532,11 @@
         <v>657</v>
       </c>
       <c r="B658" s="13" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C658" s="13"/>
       <c r="D658" s="13" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="E658" s="2"/>
     </row>
@@ -13297,11 +13545,11 @@
         <v>658</v>
       </c>
       <c r="B659" s="12" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C659" s="12"/>
       <c r="D659" s="12" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="E659" s="2"/>
     </row>
@@ -13310,11 +13558,11 @@
         <v>659</v>
       </c>
       <c r="B660" s="13" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C660" s="13"/>
       <c r="D660" s="13" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="E660" s="2"/>
     </row>
@@ -13323,11 +13571,11 @@
         <v>660</v>
       </c>
       <c r="B661" s="12" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C661" s="12"/>
       <c r="D661" s="12" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="E661" s="2"/>
     </row>
@@ -13336,11 +13584,13 @@
         <v>661</v>
       </c>
       <c r="B662" s="13" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C662" s="13"/>
+        <v>1062</v>
+      </c>
+      <c r="C662" s="13" t="s">
+        <v>487</v>
+      </c>
       <c r="D662" s="13" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="E662" s="2"/>
     </row>
@@ -13349,11 +13599,13 @@
         <v>662</v>
       </c>
       <c r="B663" s="12" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C663" s="12"/>
+        <v>1064</v>
+      </c>
+      <c r="C663" s="12" t="s">
+        <v>487</v>
+      </c>
       <c r="D663" s="12" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="E663" s="2"/>
     </row>
@@ -13380,11 +13632,11 @@
         <v>665</v>
       </c>
       <c r="B666" s="13" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="C666" s="13"/>
       <c r="D666" s="13" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="E666" s="2"/>
     </row>
@@ -13393,11 +13645,11 @@
         <v>666</v>
       </c>
       <c r="B667" s="12" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="C667" s="12"/>
       <c r="D667" s="12" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="E667" s="2"/>
     </row>
@@ -13406,11 +13658,11 @@
         <v>667</v>
       </c>
       <c r="B668" s="13" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C668" s="13"/>
       <c r="D668" s="13" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="E668" s="2"/>
     </row>
@@ -13446,11 +13698,11 @@
         <v>671</v>
       </c>
       <c r="B672" s="13" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="C672" s="13"/>
       <c r="D672" s="13" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="E672" s="2"/>
     </row>
@@ -13459,11 +13711,11 @@
         <v>672</v>
       </c>
       <c r="B673" s="12" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="C673" s="12"/>
       <c r="D673" s="12" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="E673" s="2"/>
     </row>
@@ -13472,11 +13724,11 @@
         <v>673</v>
       </c>
       <c r="B674" s="13" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="C674" s="13"/>
       <c r="D674" s="13" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="E674" s="2"/>
     </row>
@@ -13485,11 +13737,11 @@
         <v>674</v>
       </c>
       <c r="B675" s="12" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="C675" s="12"/>
       <c r="D675" s="12" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="E675" s="2"/>
     </row>
@@ -13498,11 +13750,11 @@
         <v>675</v>
       </c>
       <c r="B676" s="13" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="C676" s="13"/>
       <c r="D676" s="13" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="E676" s="2"/>
     </row>
@@ -13511,11 +13763,11 @@
         <v>676</v>
       </c>
       <c r="B677" s="12" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C677" s="12"/>
       <c r="D677" s="12" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="E677" s="2"/>
     </row>
@@ -13524,11 +13776,11 @@
         <v>677</v>
       </c>
       <c r="B678" s="13" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="C678" s="13"/>
       <c r="D678" s="13" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="E678" s="2"/>
     </row>
@@ -13537,11 +13789,11 @@
         <v>678</v>
       </c>
       <c r="B679" s="12" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="C679" s="12"/>
       <c r="D679" s="12" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="E679" s="2"/>
     </row>
@@ -13550,11 +13802,11 @@
         <v>679</v>
       </c>
       <c r="B680" s="13" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="C680" s="13"/>
       <c r="D680" s="13" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="E680" s="2"/>
     </row>
@@ -13563,11 +13815,11 @@
         <v>680</v>
       </c>
       <c r="B681" s="12" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C681" s="12"/>
       <c r="D681" s="12" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E681" s="2"/>
     </row>
@@ -13576,11 +13828,11 @@
         <v>681</v>
       </c>
       <c r="B682" s="13" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="C682" s="13"/>
       <c r="D682" s="13" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="E682" s="2"/>
     </row>
@@ -13589,11 +13841,11 @@
         <v>682</v>
       </c>
       <c r="B683" s="12" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C683" s="12"/>
       <c r="D683" s="12" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="E683" s="2"/>
     </row>
@@ -13602,11 +13854,11 @@
         <v>683</v>
       </c>
       <c r="B684" s="13" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="C684" s="13"/>
       <c r="D684" s="13" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="E684" s="2"/>
     </row>
@@ -13624,11 +13876,11 @@
         <v>685</v>
       </c>
       <c r="B686" s="13" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="C686" s="13"/>
       <c r="D686" s="13" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="E686" s="2"/>
     </row>
@@ -13637,11 +13889,11 @@
         <v>686</v>
       </c>
       <c r="B687" s="12" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="C687" s="12"/>
       <c r="D687" s="12" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E687" s="2"/>
     </row>
@@ -13650,11 +13902,11 @@
         <v>687</v>
       </c>
       <c r="B688" s="13" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="C688" s="13"/>
       <c r="D688" s="13" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="E688" s="2"/>
     </row>
@@ -13663,11 +13915,11 @@
         <v>688</v>
       </c>
       <c r="B689" s="12" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="C689" s="12"/>
       <c r="D689" s="12" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="E689" s="2"/>
     </row>
@@ -13685,13 +13937,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="12" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="C691" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D691" s="12" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="E691" s="2"/>
     </row>
@@ -13700,11 +13952,11 @@
         <v>691</v>
       </c>
       <c r="B692" s="13" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="C692" s="13"/>
       <c r="D692" s="13" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="E692" s="2"/>
     </row>
@@ -13731,13 +13983,13 @@
         <v>694</v>
       </c>
       <c r="B695" s="12" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="C695" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D695" s="12" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="E695" s="2"/>
     </row>
@@ -13746,13 +13998,13 @@
         <v>695</v>
       </c>
       <c r="B696" s="13" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="C696" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D696" s="13" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="E696" s="2"/>
     </row>
@@ -13761,13 +14013,13 @@
         <v>696</v>
       </c>
       <c r="B697" s="12" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C697" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D697" s="12" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="E697" s="2"/>
     </row>
@@ -13776,11 +14028,11 @@
         <v>697</v>
       </c>
       <c r="B698" s="13" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C698" s="13"/>
       <c r="D698" s="13" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="E698" s="2"/>
     </row>
@@ -13789,13 +14041,13 @@
         <v>698</v>
       </c>
       <c r="B699" s="12" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="C699" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D699" s="12" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="E699" s="2"/>
     </row>
@@ -13804,11 +14056,11 @@
         <v>699</v>
       </c>
       <c r="B700" s="13" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="C700" s="13"/>
       <c r="D700" s="13" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="E700" s="2"/>
     </row>
@@ -13817,11 +14069,11 @@
         <v>700</v>
       </c>
       <c r="B701" s="12" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C701" s="12"/>
       <c r="D701" s="12" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="E701" s="2"/>
     </row>
@@ -13830,11 +14082,11 @@
         <v>701</v>
       </c>
       <c r="B702" s="13" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="C702" s="13"/>
       <c r="D702" s="13" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="E702" s="2"/>
     </row>
@@ -13843,11 +14095,11 @@
         <v>702</v>
       </c>
       <c r="B703" s="12" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="C703" s="12"/>
       <c r="D703" s="12" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="E703" s="2"/>
     </row>
@@ -13856,11 +14108,11 @@
         <v>703</v>
       </c>
       <c r="B704" s="13" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="C704" s="13"/>
       <c r="D704" s="13" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="E704" s="2"/>
     </row>
@@ -13869,13 +14121,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="12" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="C705" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D705" s="12" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="E705" s="2"/>
     </row>
@@ -13884,11 +14136,11 @@
         <v>705</v>
       </c>
       <c r="B706" s="13" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="C706" s="13"/>
       <c r="D706" s="13" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="E706" s="2"/>
     </row>
@@ -13897,13 +14149,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="12" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="C707" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D707" s="12" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -13911,13 +14163,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="13" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="C708" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D708" s="13" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -13925,13 +14177,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="12" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="C709" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D709" s="12" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13939,13 +14191,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="13" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="C710" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D710" s="13" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -13953,13 +14205,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="12" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="C711" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D711" s="12" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -13967,11 +14219,11 @@
         <v>711</v>
       </c>
       <c r="B712" s="13" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C712" s="13"/>
       <c r="D712" s="13" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -13979,13 +14231,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="12" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="C713" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D713" s="12" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13993,13 +14245,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="13" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="C714" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D714" s="13" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -14007,13 +14259,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="12" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="C715" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D715" s="12" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -14021,13 +14273,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="13" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="C716" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D716" s="13" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -14035,13 +14287,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="12" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="C717" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D717" s="12" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -14049,13 +14301,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="13" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="C718" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D718" s="13" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -14063,13 +14315,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="12" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="C719" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D719" s="12" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -14077,13 +14329,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="13" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="C720" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D720" s="13" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -14091,13 +14343,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="12" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C721" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D721" s="12" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -14105,11 +14357,11 @@
         <v>721</v>
       </c>
       <c r="B722" s="13" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="C722" s="13"/>
       <c r="D722" s="13" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -14117,13 +14369,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="12" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="C723" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D723" s="12" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -14131,13 +14383,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="13" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="C724" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D724" s="13" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -14145,13 +14397,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="12" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="C725" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D725" s="12" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -14159,13 +14411,13 @@
         <v>725</v>
       </c>
       <c r="B726" s="13" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="C726" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D726" s="13" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -14173,13 +14425,13 @@
         <v>726</v>
       </c>
       <c r="B727" s="12" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="C727" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D727" s="12" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -14187,13 +14439,13 @@
         <v>727</v>
       </c>
       <c r="B728" s="13" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="C728" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D728" s="13" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -14201,13 +14453,13 @@
         <v>728</v>
       </c>
       <c r="B729" s="12" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="C729" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D729" s="12" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -14215,13 +14467,13 @@
         <v>729</v>
       </c>
       <c r="B730" s="13" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="C730" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D730" s="13" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -14229,13 +14481,13 @@
         <v>730</v>
       </c>
       <c r="B731" s="12" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="C731" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D731" s="12" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -14243,11 +14495,11 @@
         <v>731</v>
       </c>
       <c r="B732" s="13" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="C732" s="13"/>
       <c r="D732" s="13" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -14255,13 +14507,13 @@
         <v>732</v>
       </c>
       <c r="B733" s="12" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C733" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D733" s="12" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -14269,13 +14521,13 @@
         <v>733</v>
       </c>
       <c r="B734" s="13" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="C734" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D734" s="13" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -14283,11 +14535,11 @@
         <v>734</v>
       </c>
       <c r="B735" s="12" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="C735" s="12"/>
       <c r="D735" s="12" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -14295,13 +14547,13 @@
         <v>735</v>
       </c>
       <c r="B736" s="13" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C736" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D736" s="13" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -14309,13 +14561,13 @@
         <v>736</v>
       </c>
       <c r="B737" s="12" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="C737" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D737" s="12" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -14323,11 +14575,11 @@
         <v>737</v>
       </c>
       <c r="B738" s="13" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="C738" s="13"/>
       <c r="D738" s="13" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -14335,13 +14587,13 @@
         <v>738</v>
       </c>
       <c r="B739" s="12" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="C739" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D739" s="12" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -14349,13 +14601,13 @@
         <v>739</v>
       </c>
       <c r="B740" s="13" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="C740" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D740" s="13" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -14363,11 +14615,11 @@
         <v>740</v>
       </c>
       <c r="B741" s="12" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="C741" s="12"/>
       <c r="D741" s="12" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -14375,13 +14627,13 @@
         <v>741</v>
       </c>
       <c r="B742" s="13" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="C742" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D742" s="13" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -14389,13 +14641,13 @@
         <v>742</v>
       </c>
       <c r="B743" s="12" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="C743" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D743" s="12" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -14403,11 +14655,11 @@
         <v>743</v>
       </c>
       <c r="B744" s="13" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="C744" s="13"/>
       <c r="D744" s="13" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -14415,11 +14667,11 @@
         <v>744</v>
       </c>
       <c r="B745" s="12" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="C745" s="12"/>
       <c r="D745" s="12" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -14435,11 +14687,11 @@
         <v>746</v>
       </c>
       <c r="B747" s="12" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C747" s="12"/>
       <c r="D747" s="12" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -14447,11 +14699,11 @@
         <v>747</v>
       </c>
       <c r="B748" s="13" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="C748" s="13"/>
       <c r="D748" s="13" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -14459,11 +14711,11 @@
         <v>748</v>
       </c>
       <c r="B749" s="12" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="C749" s="12"/>
       <c r="D749" s="12" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -14471,13 +14723,13 @@
         <v>749</v>
       </c>
       <c r="B750" s="13" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="C750" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D750" s="13" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -14485,11 +14737,11 @@
         <v>750</v>
       </c>
       <c r="B751" s="12" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="C751" s="12"/>
       <c r="D751" s="12" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -14497,13 +14749,13 @@
         <v>751</v>
       </c>
       <c r="B752" s="13" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="C752" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D752" s="13" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -14511,13 +14763,13 @@
         <v>752</v>
       </c>
       <c r="B753" s="12" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="C753" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D753" s="12" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -14525,13 +14777,13 @@
         <v>753</v>
       </c>
       <c r="B754" s="13" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="C754" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D754" s="13" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -14539,13 +14791,13 @@
         <v>754</v>
       </c>
       <c r="B755" s="12" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="C755" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D755" s="12" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -14553,13 +14805,13 @@
         <v>755</v>
       </c>
       <c r="B756" s="13" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="C756" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D756" s="13" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -14567,11 +14819,11 @@
         <v>756</v>
       </c>
       <c r="B757" s="12" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="C757" s="12"/>
       <c r="D757" s="12" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -14579,13 +14831,13 @@
         <v>757</v>
       </c>
       <c r="B758" s="13" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="C758" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D758" s="13" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -14593,11 +14845,11 @@
         <v>758</v>
       </c>
       <c r="B759" s="12" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="C759" s="12"/>
       <c r="D759" s="12" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -14605,13 +14857,13 @@
         <v>759</v>
       </c>
       <c r="B760" s="13" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="C760" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D760" s="13" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -14619,11 +14871,11 @@
         <v>760</v>
       </c>
       <c r="B761" s="12" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="C761" s="12"/>
       <c r="D761" s="12" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -14631,13 +14883,13 @@
         <v>761</v>
       </c>
       <c r="B762" s="13" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="C762" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D762" s="13" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -14645,11 +14897,11 @@
         <v>762</v>
       </c>
       <c r="B763" s="12" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="C763" s="12"/>
       <c r="D763" s="12" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -14657,11 +14909,11 @@
         <v>763</v>
       </c>
       <c r="B764" s="13" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="C764" s="13"/>
       <c r="D764" s="13" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -14669,13 +14921,13 @@
         <v>764</v>
       </c>
       <c r="B765" s="12" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="C765" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D765" s="12" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -14683,13 +14935,13 @@
         <v>765</v>
       </c>
       <c r="B766" s="13" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="C766" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D766" s="13" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -14697,11 +14949,11 @@
         <v>766</v>
       </c>
       <c r="B767" s="12" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="C767" s="12"/>
       <c r="D767" s="12" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -14709,11 +14961,11 @@
         <v>767</v>
       </c>
       <c r="B768" s="13" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="C768" s="13"/>
       <c r="D768" s="13" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -14721,13 +14973,13 @@
         <v>768</v>
       </c>
       <c r="B769" s="12" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="C769" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D769" s="12" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -14735,11 +14987,11 @@
         <v>769</v>
       </c>
       <c r="B770" s="13" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="C770" s="13"/>
       <c r="D770" s="13" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -14747,11 +14999,11 @@
         <v>770</v>
       </c>
       <c r="B771" s="12" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="C771" s="12"/>
       <c r="D771" s="12" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -14759,13 +15011,13 @@
         <v>771</v>
       </c>
       <c r="B772" s="13" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C772" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D772" s="13" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -14773,13 +15025,13 @@
         <v>772</v>
       </c>
       <c r="B773" s="12" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="C773" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D773" s="12" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -14787,13 +15039,13 @@
         <v>773</v>
       </c>
       <c r="B774" s="13" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="C774" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D774" s="13" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -14801,11 +15053,11 @@
         <v>774</v>
       </c>
       <c r="B775" s="12" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="C775" s="12"/>
       <c r="D775" s="12" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -14813,11 +15065,11 @@
         <v>775</v>
       </c>
       <c r="B776" s="13" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="C776" s="13"/>
       <c r="D776" s="13" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -14825,11 +15077,11 @@
         <v>776</v>
       </c>
       <c r="B777" s="12" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="C777" s="12"/>
       <c r="D777" s="12" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -14837,13 +15089,13 @@
         <v>777</v>
       </c>
       <c r="B778" s="13" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="C778" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D778" s="13" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -14851,11 +15103,11 @@
         <v>778</v>
       </c>
       <c r="B779" s="12" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="C779" s="12"/>
       <c r="D779" s="12" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -14863,13 +15115,13 @@
         <v>779</v>
       </c>
       <c r="B780" s="13" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="C780" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D780" s="13" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -14877,13 +15129,13 @@
         <v>780</v>
       </c>
       <c r="B781" s="12" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="C781" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D781" s="12" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14891,13 +15143,13 @@
         <v>781</v>
       </c>
       <c r="B782" s="13" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="C782" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D782" s="13" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -14905,11 +15157,11 @@
         <v>782</v>
       </c>
       <c r="B783" s="12" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="C783" s="12"/>
       <c r="D783" s="12" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14917,11 +15169,11 @@
         <v>783</v>
       </c>
       <c r="B784" s="13" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="C784" s="13"/>
       <c r="D784" s="13" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14929,13 +15181,13 @@
         <v>784</v>
       </c>
       <c r="B785" s="12" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="C785" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D785" s="12" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -14943,11 +15195,11 @@
         <v>785</v>
       </c>
       <c r="B786" s="13" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="C786" s="13"/>
       <c r="D786" s="13" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14955,13 +15207,13 @@
         <v>786</v>
       </c>
       <c r="B787" s="12" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="C787" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D787" s="12" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14969,11 +15221,11 @@
         <v>787</v>
       </c>
       <c r="B788" s="13" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="C788" s="13"/>
       <c r="D788" s="13" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -14981,11 +15233,11 @@
         <v>788</v>
       </c>
       <c r="B789" s="12" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="C789" s="12"/>
       <c r="D789" s="12" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -14993,13 +15245,13 @@
         <v>789</v>
       </c>
       <c r="B790" s="13" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="C790" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D790" s="13" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -15063,11 +15315,11 @@
         <v>797</v>
       </c>
       <c r="B798" s="13" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C798" s="13"/>
       <c r="D798" s="13" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -15075,13 +15327,13 @@
         <v>798</v>
       </c>
       <c r="B799" s="12" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="C799" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D799" s="12" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -15089,13 +15341,13 @@
         <v>799</v>
       </c>
       <c r="B800" s="13" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="C800" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D800" s="13" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -15103,13 +15355,13 @@
         <v>800</v>
       </c>
       <c r="B801" s="12" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="C801" s="12">
         <v>12</v>
       </c>
       <c r="D801" s="12" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -15117,13 +15369,13 @@
         <v>801</v>
       </c>
       <c r="B802" s="13" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="C802" s="13">
         <v>17</v>
       </c>
       <c r="D802" s="13" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -15131,11 +15383,583 @@
         <v>802</v>
       </c>
       <c r="B803" s="12" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="C803" s="12"/>
       <c r="D803" s="12" t="s">
-        <v>1308</v>
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4">
+      <c r="A804" s="13">
+        <v>803</v>
+      </c>
+      <c r="B804" s="13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C804" s="13"/>
+      <c r="D804" s="13" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4">
+      <c r="A805" s="12">
+        <v>804</v>
+      </c>
+      <c r="B805" s="12" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C805" s="12"/>
+      <c r="D805" s="12" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4">
+      <c r="A806" s="13">
+        <v>805</v>
+      </c>
+      <c r="B806" s="13" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C806" s="13"/>
+      <c r="D806" s="13" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4">
+      <c r="A807" s="12">
+        <v>806</v>
+      </c>
+      <c r="B807" s="12" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C807" s="12"/>
+      <c r="D807" s="12" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4">
+      <c r="A808" s="13">
+        <v>807</v>
+      </c>
+      <c r="B808" s="13" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C808" s="13"/>
+      <c r="D808" s="13" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4">
+      <c r="A809" s="12">
+        <v>808</v>
+      </c>
+      <c r="B809" s="12"/>
+      <c r="C809" s="12"/>
+      <c r="D809" s="12"/>
+    </row>
+    <row r="810" spans="1:4">
+      <c r="A810" s="13">
+        <v>809</v>
+      </c>
+      <c r="B810" s="13"/>
+      <c r="C810" s="13"/>
+      <c r="D810" s="13"/>
+    </row>
+    <row r="811" spans="1:4">
+      <c r="A811" s="12">
+        <v>810</v>
+      </c>
+      <c r="B811" s="12"/>
+      <c r="C811" s="12"/>
+      <c r="D811" s="12"/>
+    </row>
+    <row r="812" spans="1:4">
+      <c r="A812" s="13">
+        <v>811</v>
+      </c>
+      <c r="B812" s="13"/>
+      <c r="C812" s="13"/>
+      <c r="D812" s="13"/>
+    </row>
+    <row r="813" spans="1:4">
+      <c r="A813" s="12">
+        <v>812</v>
+      </c>
+      <c r="B813" s="12"/>
+      <c r="C813" s="12"/>
+      <c r="D813" s="12"/>
+    </row>
+    <row r="814" spans="1:4">
+      <c r="A814" s="13">
+        <v>813</v>
+      </c>
+      <c r="B814" s="13" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C814" s="13"/>
+      <c r="D814" s="13" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4">
+      <c r="A815" s="12">
+        <v>814</v>
+      </c>
+      <c r="B815" s="12"/>
+      <c r="C815" s="12"/>
+      <c r="D815" s="12"/>
+    </row>
+    <row r="816" spans="1:4">
+      <c r="A816" s="13">
+        <v>815</v>
+      </c>
+      <c r="B816" s="13"/>
+      <c r="C816" s="13"/>
+      <c r="D816" s="13"/>
+    </row>
+    <row r="817" spans="1:4">
+      <c r="A817" s="12">
+        <v>816</v>
+      </c>
+      <c r="B817" s="12"/>
+      <c r="C817" s="12"/>
+      <c r="D817" s="12"/>
+    </row>
+    <row r="818" spans="1:4">
+      <c r="A818" s="13">
+        <v>817</v>
+      </c>
+      <c r="B818" s="13"/>
+      <c r="C818" s="13"/>
+      <c r="D818" s="13"/>
+    </row>
+    <row r="819" spans="1:4">
+      <c r="A819" s="12">
+        <v>818</v>
+      </c>
+      <c r="B819" s="12"/>
+      <c r="C819" s="12"/>
+      <c r="D819" s="12"/>
+    </row>
+    <row r="820" spans="1:4">
+      <c r="A820" s="13">
+        <v>819</v>
+      </c>
+      <c r="B820" s="13" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C820" s="13"/>
+      <c r="D820" s="13" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4">
+      <c r="A821" s="12">
+        <v>820</v>
+      </c>
+      <c r="B821" s="12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C821" s="12"/>
+      <c r="D821" s="12" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4">
+      <c r="A822" s="13">
+        <v>821</v>
+      </c>
+      <c r="B822" s="13" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C822" s="13"/>
+      <c r="D822" s="13" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4">
+      <c r="A823" s="12">
+        <v>822</v>
+      </c>
+      <c r="B823" s="12" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C823" s="12"/>
+      <c r="D823" s="12" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4">
+      <c r="A824" s="13">
+        <v>823</v>
+      </c>
+      <c r="B824" s="13" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C824" s="13"/>
+      <c r="D824" s="13" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4">
+      <c r="A825" s="12">
+        <v>824</v>
+      </c>
+      <c r="B825" s="12" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C825" s="12"/>
+      <c r="D825" s="12" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4">
+      <c r="A826" s="13">
+        <v>825</v>
+      </c>
+      <c r="B826" s="13" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C826" s="13"/>
+      <c r="D826" s="13" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4">
+      <c r="A827" s="12">
+        <v>826</v>
+      </c>
+      <c r="B827" s="12" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C827" s="12"/>
+      <c r="D827" s="12" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4">
+      <c r="A828" s="13">
+        <v>827</v>
+      </c>
+      <c r="B828" s="13" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C828" s="13"/>
+      <c r="D828" s="13" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4">
+      <c r="A829" s="12">
+        <v>828</v>
+      </c>
+      <c r="B829" s="12" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C829" s="12"/>
+      <c r="D829" s="12" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4">
+      <c r="A830" s="13">
+        <v>829</v>
+      </c>
+      <c r="B830" s="13" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C830" s="13"/>
+      <c r="D830" s="13" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4">
+      <c r="A831" s="12">
+        <v>830</v>
+      </c>
+      <c r="B831" s="12" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C831" s="12"/>
+      <c r="D831" s="12" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4">
+      <c r="A832" s="13">
+        <v>831</v>
+      </c>
+      <c r="B832" s="13" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C832" s="13"/>
+      <c r="D832" s="13" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4">
+      <c r="A833" s="12">
+        <v>832</v>
+      </c>
+      <c r="B833" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C833" s="12"/>
+      <c r="D833" s="12" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4">
+      <c r="A834" s="13">
+        <v>833</v>
+      </c>
+      <c r="B834" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C834" s="13"/>
+      <c r="D834" s="13" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4">
+      <c r="A835" s="12">
+        <v>834</v>
+      </c>
+      <c r="B835" s="12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C835" s="12"/>
+      <c r="D835" s="12" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4">
+      <c r="A836" s="13">
+        <v>835</v>
+      </c>
+      <c r="B836" s="13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C836" s="13"/>
+      <c r="D836" s="13" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4">
+      <c r="A837" s="12">
+        <v>836</v>
+      </c>
+      <c r="B837" s="12" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C837" s="12"/>
+      <c r="D837" s="12" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4">
+      <c r="A838" s="13">
+        <v>837</v>
+      </c>
+      <c r="B838" s="13" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C838" s="13"/>
+      <c r="D838" s="13" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4">
+      <c r="A839" s="12">
+        <v>838</v>
+      </c>
+      <c r="B839" s="12" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C839" s="12"/>
+      <c r="D839" s="12" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4">
+      <c r="A840" s="13">
+        <v>839</v>
+      </c>
+      <c r="B840" s="13" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C840" s="13"/>
+      <c r="D840" s="13" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4">
+      <c r="A841" s="12">
+        <v>840</v>
+      </c>
+      <c r="B841" s="12" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C841" s="12"/>
+      <c r="D841" s="12" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4">
+      <c r="A842" s="13">
+        <v>841</v>
+      </c>
+      <c r="B842" s="13" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C842" s="13"/>
+      <c r="D842" s="13" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4">
+      <c r="A843" s="12">
+        <v>842</v>
+      </c>
+      <c r="B843" s="12" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C843" s="12"/>
+      <c r="D843" s="12" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4">
+      <c r="A844" s="13">
+        <v>843</v>
+      </c>
+      <c r="B844" s="13" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C844" s="13"/>
+      <c r="D844" s="13" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4">
+      <c r="A845" s="12">
+        <v>844</v>
+      </c>
+      <c r="B845" s="12" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C845" s="12"/>
+      <c r="D845" s="12" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4">
+      <c r="A846" s="13">
+        <v>845</v>
+      </c>
+      <c r="B846" s="13" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C846" s="13"/>
+      <c r="D846" s="13" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4">
+      <c r="A847" s="12">
+        <v>846</v>
+      </c>
+      <c r="B847" s="12" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C847" s="12"/>
+      <c r="D847" s="12" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4">
+      <c r="A848" s="13">
+        <v>847</v>
+      </c>
+      <c r="B848" s="13" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C848" s="13"/>
+      <c r="D848" s="13" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4">
+      <c r="A849" s="12">
+        <v>848</v>
+      </c>
+      <c r="B849" s="12" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C849" s="12"/>
+      <c r="D849" s="12" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4">
+      <c r="A850" s="13">
+        <v>849</v>
+      </c>
+      <c r="B850" s="13" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C850" s="13"/>
+      <c r="D850" s="13" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4">
+      <c r="A851" s="12">
+        <v>850</v>
+      </c>
+      <c r="B851" s="12" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C851" s="12"/>
+      <c r="D851" s="12" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4">
+      <c r="A852" s="13">
+        <v>851</v>
+      </c>
+      <c r="B852" s="13" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C852" s="13"/>
+      <c r="D852" s="13" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4">
+      <c r="A853" s="12">
+        <v>852</v>
+      </c>
+      <c r="B853" s="12" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C853" s="12"/>
+      <c r="D853" s="12" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4">
+      <c r="A854" s="13">
+        <v>853</v>
+      </c>
+      <c r="B854" s="13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C854" s="13"/>
+      <c r="D854" s="13" t="s">
+        <v>1089</v>
       </c>
     </row>
   </sheetData>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492">
   <si>
     <t>ID</t>
   </si>
@@ -1510,6 +1510,18 @@
     <t>保存新的存档</t>
   </si>
   <si>
+    <t>Current mood level</t>
+  </si>
+  <si>
+    <t>当前情绪水平</t>
+  </si>
+  <si>
+    <t>Clothing Durability</t>
+  </si>
+  <si>
+    <t>衣物耐久度</t>
+  </si>
+  <si>
     <t>The villager does not have a job</t>
   </si>
   <si>
@@ -1592,6 +1604,12 @@
   </si>
   <si>
     <t>已经达到上限</t>
+  </si>
+  <si>
+    <t>Tool Durability</t>
+  </si>
+  <si>
+    <t>工具耐久度</t>
   </si>
   <si>
     <t>Fire quenching</t>
@@ -3998,31 +4016,31 @@
     <t>背包：</t>
   </si>
   <si>
-    <t>Carries resource</t>
+    <t>Carrying resource</t>
   </si>
   <si>
     <t>运送资源</t>
   </si>
   <si>
-    <t>Carries food to house</t>
+    <t>Carrying food to house</t>
   </si>
   <si>
     <t>将食物运往房子</t>
   </si>
   <si>
-    <t>Carries fuel to house</t>
+    <t>Carrying fuel to house</t>
   </si>
   <si>
     <t>将燃料运往房子</t>
   </si>
   <si>
-    <t>Carries to storage</t>
+    <t>Carrying to storage</t>
   </si>
   <si>
     <t>运往仓库</t>
   </si>
   <si>
-    <t>Drinks alcohol</t>
+    <t>Drinking alcohol</t>
   </si>
   <si>
     <t>喝酒</t>
@@ -4034,31 +4052,31 @@
     <t>工作</t>
   </si>
   <si>
-    <t>Heals</t>
+    <t>Healing</t>
   </si>
   <si>
     <t>治疗</t>
   </si>
   <si>
-    <t>Fishes</t>
+    <t>Fishing</t>
   </si>
   <si>
     <t>捕鱼</t>
   </si>
   <si>
-    <t>Gathers resource</t>
-  </si>
-  <si>
-    <t>Hunts</t>
+    <t>Gathering resource</t>
+  </si>
+  <si>
+    <t>Hunting</t>
   </si>
   <si>
     <t>捕猎</t>
   </si>
   <si>
-    <t>Mines resource</t>
-  </si>
-  <si>
-    <t>Plants a tree</t>
+    <t>Mining resource</t>
+  </si>
+  <si>
+    <t>Planting a tree</t>
   </si>
   <si>
     <t>种植树木</t>
@@ -4076,31 +4094,31 @@
     <t>等待接受治疗</t>
   </si>
   <si>
-    <t>Goes for herbs</t>
+    <t>Going for herbs</t>
   </si>
   <si>
     <t>正在拿草药</t>
   </si>
   <si>
-    <t>Goes for tools</t>
+    <t>Going for tools</t>
   </si>
   <si>
     <t>正在拿工具</t>
   </si>
   <si>
-    <t>Goes for clothing</t>
+    <t>Going for clothing</t>
   </si>
   <si>
     <t>正在拿衣服</t>
   </si>
   <si>
-    <t>Works in mine</t>
+    <t>Working in mine</t>
   </si>
   <si>
     <t>开采中</t>
   </si>
   <si>
-    <t>Teaches children</t>
+    <t>Teaching children</t>
   </si>
   <si>
     <t>教授学生</t>
@@ -4112,37 +4130,37 @@
     <t>学习中</t>
   </si>
   <si>
-    <t>Slautering animal</t>
+    <t>Slaughtering animal</t>
   </si>
   <si>
     <t>屠宰动物</t>
   </si>
   <si>
-    <t>Cares about cattle</t>
+    <t>Looking after cattle</t>
   </si>
   <si>
     <t>照顾牲口</t>
   </si>
   <si>
-    <t>Waters plants</t>
+    <t>Watering plants</t>
   </si>
   <si>
     <t>浇灌作物</t>
   </si>
   <si>
-    <t>Looses earth</t>
+    <t>Loosening earth</t>
   </si>
   <si>
     <t>松土</t>
   </si>
   <si>
-    <t>Weeds earth</t>
+    <t>Weeding earth</t>
   </si>
   <si>
     <t>除草</t>
   </si>
   <si>
-    <t>Seeds plants</t>
+    <t>Seeding plants</t>
   </si>
   <si>
     <t>种植作物</t>
@@ -4185,6 +4203,297 @@
   </si>
   <si>
     <t>Extinguishing fire</t>
+  </si>
+  <si>
+    <t>Caravan Stables</t>
+  </si>
+  <si>
+    <t>大篷车马厩</t>
+  </si>
+  <si>
+    <t>Let you set transport routes between storages to deliver goods.</t>
+  </si>
+  <si>
+    <t>使你可以在两个仓库之间设置货物运输路线。</t>
+  </si>
+  <si>
+    <t>Add one stable and increase maximum number of transport routes.</t>
+  </si>
+  <si>
+    <t>添加一条稳定且运输量庞大的运输路线。</t>
+  </si>
+  <si>
+    <t>Small pointer</t>
+  </si>
+  <si>
+    <t>小指示牌</t>
+  </si>
+  <si>
+    <t>Big pointer</t>
+  </si>
+  <si>
+    <t>大指示牌</t>
+  </si>
+  <si>
+    <t>Stone gate</t>
+  </si>
+  <si>
+    <t>石质大门</t>
+  </si>
+  <si>
+    <t>Villagers can only be fed and warmed in their own home, which is why homeless villagers quickly perish. Homeless villagers are easily identified by the house icon above their head.</t>
+  </si>
+  <si>
+    <t>村民只在他们的房子里吃饭和取暖，这就是为什么无家可归的人会死亡的原因。无家可归的人可以很容易的通过头上的图标确定。</t>
+  </si>
+  <si>
+    <t>There is only one way to increase the population of the village – children. Children are born when there are free spaces in a house.</t>
+  </si>
+  <si>
+    <t>只有之中增加人口的方式便是，你的房屋还有空位。</t>
+  </si>
+  <si>
+    <t>Building houses helps increase the population. The people will occupy the houses, form families and have children. Improved (upgraded) homes provide faster population growth. Hostels house lots of people, but villagers cannot form families or have children there.</t>
+  </si>
+  <si>
+    <t>房屋有助于增加人口。村民会占据房屋，组建家庭，怀上孩子。进阶的（升级后）的住房能提供更高的增长速度。旅馆能容纳很多人，但是不会对繁衍有什么帮助。</t>
+  </si>
+  <si>
+    <t>The more free spaces you have in homes, the higher your population growth. Try not to build too many houses if you don't have surplus food – otherwise the sharp increase in population could lead to starvation.</t>
+  </si>
+  <si>
+    <t>房屋内的空余空间越多，人口的增长速度就越快。如果你没有足够的食物，那就尽量不要建造太多的住宅，否则快速增长的人口会导致严重的饥荒。</t>
+  </si>
+  <si>
+    <t>Try not to place buildings right next to each other without first making sure that there's a way to get to them – otherwise villagers won't be able to approach them. Apart from that, fires spread faster when buildings are close together.</t>
+  </si>
+  <si>
+    <t>尽量不要让建筑物紧挨着彼此，而是要首先确保该建筑的大门不会被堵住。除此之外，过于靠近的建筑物会加快火灾的蔓延。</t>
+  </si>
+  <si>
+    <t>If you've placed a building incorrectly and there is no access to it, you can create access using the terraforming tools.</t>
+  </si>
+  <si>
+    <t>如果你选择了一个无法建造建筑的地方，你可以使用地形改造工具改变它。</t>
+  </si>
+  <si>
+    <t>Try to place buildings at a minimum distance from each other – the greater the distance, the more time villagers lose on the road, making their work less effective.</t>
+  </si>
+  <si>
+    <t>尝试着缩小建筑物之间的距离吧，过远的距离会让村民在路上花费更多的时间，间接的降低了效率。</t>
+  </si>
+  <si>
+    <t>No space for new buildings? Use the terraforming tools to level the terrain in preparation for construction.</t>
+  </si>
+  <si>
+    <t>没有更多的可建筑空间了？试着用一下地形改造工具把。</t>
+  </si>
+  <si>
+    <t>Roads, tools and clothing significantly increase your workers' effectiveness. Roads allow them to move more quickly, tools speed up work, and good clothing keeps your villagers warm and allows them to stay away from home longer.</t>
+  </si>
+  <si>
+    <t>道路、工具以及衣物都可能增加村民的效率。道路可以加快移动速度，工具可以加快工作速度，衣服可以延长村民的工作半径让他走的更远。</t>
+  </si>
+  <si>
+    <t>Gathering wood, stones and ore with the help of laborers provides a temporary boost to these resources. To constantly increase your resources, build a forester's lodge and mines.</t>
+  </si>
+  <si>
+    <t>If a building is lost or resources cannot be collected, villagers are released from work. Don't forget to assign them new jobs. The easiest way to do this is through the Professions window under General Information – just set the current number of workers for a given profession.</t>
+  </si>
+  <si>
+    <t>Lay new pathways using the terraforming tools – select the "Create slope" tool, highlight the cliff face and the workers will turn it into a traversable slope.</t>
+  </si>
+  <si>
+    <t>The older the tree, the more resources it contains. Chop down old trees first, as they contain the most resources. If you don't chop it down, the tree will fall and the resource will be lost.</t>
+  </si>
+  <si>
+    <t>In addition to using the WASD or arrow keys, you can also move the camera by moving the cursor to the edge of the screen.</t>
+  </si>
+  <si>
+    <t>Use the keys 1, 2, 3 and 4 to control the game speed, and use Space to pause the game.</t>
+  </si>
+  <si>
+    <t>To lock the window on the screen, simply drag it to the side. If a building window is currently open on screen, you can quickly move to that building by double-clicking the title of the window.</t>
+  </si>
+  <si>
+    <t>If a villager does not have a job to do, they stand idle. However, if you give the order for resource gathering, idle workers will get to work.</t>
+  </si>
+  <si>
+    <t>The first thing to do is provide the villagers with food. Hunting, gathering and fishing are the easiest and cheapest ways to get food. Gathering is not available in winter, but hunting and fishing are available all year round.</t>
+  </si>
+  <si>
+    <t>Fish is the most widely available food source. Fishermen can catch fish in summer and winter.</t>
+  </si>
+  <si>
+    <t>Fishermen's productivity depends on the lake they are fishing in. If the lake is big and deep, the fishermen will supply the village with enough fish to last a long time. If the lake is small and shallow, the fishermen will soon catch all the fish, and you will have to build a fisherman's lodge next to a different lake.</t>
+  </si>
+  <si>
+    <t>You need to build the gatherer's hut in the forest, since that's where most bushes are located.</t>
+  </si>
+  <si>
+    <t>Bushes die in the winter, so your gatherers will have to be reassigned to other professions at that time of year.</t>
+  </si>
+  <si>
+    <t>Animals mainly inhabit forests, so for maximum effectiveness, hunting cabins should be built in the forest.</t>
+  </si>
+  <si>
+    <t>Hunters can be used for more than just hunting meat and hides. A hunting cabin placed in the village will protect the villagers from attacks by wild animals that can infect them with rabies.</t>
+  </si>
+  <si>
+    <t>You can go to first-person mode and manually kill animals that stray onto the pasture.</t>
+  </si>
+  <si>
+    <t>Only apple trees are available in gardens to start with, other trees are unlocked via sea expeditions at the port.</t>
+  </si>
+  <si>
+    <t>Fields grow hay (grass), which is used to feed livestock.</t>
+  </si>
+  <si>
+    <t>To increase the productivity of a gardener or farmer, build a well and a barn nearby and build roads. To speed up harvesting, you must also build roads.</t>
+  </si>
+  <si>
+    <t>Don't forget that educated workers equipped with good tools are far more effective than uneducated workers without tools.</t>
+  </si>
+  <si>
+    <t>Gardens and fields produce a lot of resources, but over time.</t>
+  </si>
+  <si>
+    <t>Gardens don't provide a harvest in the first year, but grow for several years. Fields provide a harvest each year, or sometimes even several times per year, but must be sown anew each time.</t>
+  </si>
+  <si>
+    <t>Gardens and fields can be placed on flatlands and hills.</t>
+  </si>
+  <si>
+    <t>Some crops are not available for planting in fields – they are unlocked via sea expeditions at the port.</t>
+  </si>
+  <si>
+    <t>All crops and plants in fields die in the winter, but trees in gardens grow for several years. If you see a warning about cold over the field, immediately start harvesting your crops, or your harvest might die off from the cold before your workers can gather it.</t>
+  </si>
+  <si>
+    <t>Every crop has its own temperature and humidity requirements, so choose a crop that is suitable for the current weather to get maximum results.</t>
+  </si>
+  <si>
+    <t>If you see that the gardener or farmer is too slow when working the field, you can temporarily speed him up by taking control of any villager and using the morale boost ability (press 1).</t>
+  </si>
+  <si>
+    <t>Before you build a pasture, make sure you have enough available hunters to protect it, and enough food and water for the animals. Cows and sheep eat hay, and chickens and pigs eat oats. All of the resources can be sourced from fields.</t>
+  </si>
+  <si>
+    <t>If you chop down the entire forest next to a pasture, wild animals will rarely attack it.</t>
+  </si>
+  <si>
+    <t>The player can take control of a villager and manually kill an animal that strays onto the pasture.</t>
+  </si>
+  <si>
+    <t>If you build a pasture containing cows or sheep and you discover that there isn't any hay for them to eat, quickly free up some workers and gather hay from the bushes on the surface of the land.</t>
+  </si>
+  <si>
+    <t>Locked pastures can only be unlocked by sending an expedition at the port.</t>
+  </si>
+  <si>
+    <t>If the last remaining animal in a pasture is eaten, build another pasture and develop it. When another animal appears in the new pasture, move it to the empty pasture to activate it too.</t>
+  </si>
+  <si>
+    <t>The mill makes grain into flour, and at the bakery, flour and other ingredients are used to make bread and pies.</t>
+  </si>
+  <si>
+    <t>During the colder months, every villager needs a warm home to make sure they don't freeze. Villagers can feed the stove with firewood or charcoal, which produces more heat. Firewood is made from logs at the lumberjack's lodge, and charcoal is made from firewood in the coal kiln.</t>
+  </si>
+  <si>
+    <t>Charcoal is much more effective than firewood, but it is harder to obtain. To get coal from firewood, build a coal kiln and hire kilners. You can build several kilns to speed up charcoal production.</t>
+  </si>
+  <si>
+    <t>To save on firewood, provide your villagers with warm clothing. Use hunters to get hides, build a weaver's workshop and make warm clothing from hides and other ingredients.</t>
+  </si>
+  <si>
+    <t>To get small but regular amounts of wood, build a forester's lodge. Click on the construction button for forester's lodge in Resource Gathering and select an area deep in the forest for building.</t>
+  </si>
+  <si>
+    <t>Clear the bushes, stones and ore around the forester's lodge so the forester can have more space for planting trees.</t>
+  </si>
+  <si>
+    <t>How to avoid infections: Pneumonia (infectious) – warm clothing, enough fuel for homes. Scurvy – give villagers a plentiful and varied diet. Plague (infectious) – burn all bodies on а pyre. Rabies (infectious) – make sure that hunters stop animals from entering the village.</t>
+  </si>
+  <si>
+    <t>Serious diseases (pneumonia, scurvy) are treated in the herbalist's hut, while serious illnesses (plague, rabies) are treated at the healer's shop.</t>
+  </si>
+  <si>
+    <t>The healer's shop needs a herbalist's hut to work, so that it can get healing herbs. The herbalist works only in the warm time of year, so it makes sense to stock up on as many herbs as possible during the summer so that they'll last through the winter when people get ill more often.</t>
+  </si>
+  <si>
+    <t>If there are no pyres, villagers are left unburied, which can lead to outbreaks of dangerous diseases. Build pyres to prevent the decomposition of villagers' bodies and spreading of disease.</t>
+  </si>
+  <si>
+    <t>If an outbreak occurs, you can treat it with herbs that you can get from the herbalist. But for serious diseases, you need to go to the healer at his shop.</t>
+  </si>
+  <si>
+    <t>Mines not only allow you to collect far more ore and stone, but also make it far faster to do.</t>
+  </si>
+  <si>
+    <t>Clay is required for construction of certain buildings. The only way to get clay is to build a clay mine near a clay deposit.</t>
+  </si>
+  <si>
+    <t>Tools increase villagers' productivity. You can improve your villagers' work performance by giving them tools.</t>
+  </si>
+  <si>
+    <t>The blacksmith makes tools using various materials in the blacksmith's shop.</t>
+  </si>
+  <si>
+    <t>The carpenter makes more easily accessible, but less effective simple tools out of easily available materials.</t>
+  </si>
+  <si>
+    <t>Young villagers aged between 3 and 5 study in the school.</t>
+  </si>
+  <si>
+    <t>Educated villagers are much more effective than uneducated villagers. Build a school, hire a teacher and send the children to learn. Children can only attend school at an early age, so it is important to build a school as soon as possible.</t>
+  </si>
+  <si>
+    <t>As your villagers' happiness level goes up, so does their productivity. Their happiness level can be boosted by alcohol, which is produced by the innkeeper in the tavern. Build a tavern, hire an innkeeper and provide him with resources to produce alcohol.</t>
+  </si>
+  <si>
+    <t>Villagers can travel faster along roads than on earth or grass, so roads can make any work go faster.</t>
+  </si>
+  <si>
+    <t>Build dirt roads or paved roads to save time and increase the productivity of your workers. Stone roads are more effective, but also require more resources.</t>
+  </si>
+  <si>
+    <t>To increase the productivity of all villagers, take control of a villager and press 1.</t>
+  </si>
+  <si>
+    <t>When you are controlling a villager, you can hunt, gather food and herbs and do much more.</t>
+  </si>
+  <si>
+    <t>Build houses in the lowlands to reduce the risk of a lightning strike – lightning strikes in the hills and mountains more than in valleys.</t>
+  </si>
+  <si>
+    <t>If a building is struck by lightning, it will catch fire. In this situation, your villagers must extinguish the fire as quickly as possible with water from the well. So don't forget to build wells near buildings, even if there are no fields and pastures nearby.</t>
+  </si>
+  <si>
+    <t>Tornadoes appear from time to time, destroying everything in their path, including buildings in the village. This cannot be prevented, but you can upgrade buildings to make them sturdier and more resilient in the face of a tornado, fires and other elemental disasters.</t>
+  </si>
+  <si>
+    <t>Trees grow over time, and the older the tree, the more resources it contains. So don't rush to chop down young trees: pick out the taller, older trees for chopping.</t>
+  </si>
+  <si>
+    <t>The forester always cuts down the oldest trees first.</t>
+  </si>
+  <si>
+    <t>Build a warehouse to store resources. The warehouse is designed to store building materials (wood, stone, ore), and the barn is for storing food, firewood, tools and other resources.</t>
+  </si>
+  <si>
+    <t>The warehouse has a limited capacity, and if you reach its capacity your villagers will not be able to store any more resources there. This means that you won't be able to construct buildings and get resources. So make sure that your warehouses always have enough free space.</t>
+  </si>
+  <si>
+    <t>Villagers always carry resources to the closest available warehouse, so try to build them near locations where resources are gathered or produced.</t>
+  </si>
+  <si>
+    <t>Ports let you dispatch sea expeditions that will unlock previously unavailable types of resources: new types of trees and crops, and new types of domesticated animals.</t>
+  </si>
+  <si>
+    <t>To send out an expedition in search of new resources, you need to build a port. Then you need to build a ship and equip the expedition with the necessary resources: provisions, clothing and tools.</t>
+  </si>
+  <si>
+    <t>Requirements</t>
   </si>
 </sst>
 </file>
@@ -4192,10 +4501,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -4225,7 +4534,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4246,37 +4629,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4298,60 +4661,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -4361,10 +4670,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4401,7 +4710,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4413,31 +4734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4449,7 +4746,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4461,37 +4770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4509,7 +4788,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4521,13 +4818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4539,7 +4830,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4551,19 +4860,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4615,15 +4924,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -4631,16 +4931,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4656,6 +4956,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4685,27 +5005,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4715,10 +5024,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4727,133 +5036,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5235,10 +5544,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E854"/>
+  <dimension ref="A1:E951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A801" workbookViewId="0">
-      <selection activeCell="D845" sqref="D845"/>
+    <sheetView tabSelected="1" topLeftCell="A865" workbookViewId="0">
+      <selection activeCell="D884" sqref="D884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -9280,18 +9589,26 @@
       <c r="A331" s="3">
         <v>330</v>
       </c>
-      <c r="B331" s="5"/>
+      <c r="B331" s="5" t="s">
+        <v>497</v>
+      </c>
       <c r="C331" s="3"/>
-      <c r="D331" s="3"/>
+      <c r="D331" s="3" t="s">
+        <v>498</v>
+      </c>
       <c r="E331" s="7"/>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="3">
         <v>331</v>
       </c>
-      <c r="B332" s="5"/>
+      <c r="B332" s="5" t="s">
+        <v>499</v>
+      </c>
       <c r="C332" s="3"/>
-      <c r="D332" s="3"/>
+      <c r="D332" s="3" t="s">
+        <v>500</v>
+      </c>
       <c r="E332" s="7"/>
     </row>
     <row r="333" spans="1:5">
@@ -9299,11 +9616,11 @@
         <v>332</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C333" s="3"/>
       <c r="D333" s="3" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E333" s="7"/>
     </row>
@@ -9312,11 +9629,11 @@
         <v>333</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E334" s="7"/>
     </row>
@@ -9325,11 +9642,11 @@
         <v>334</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E335" s="7"/>
     </row>
@@ -9338,11 +9655,11 @@
         <v>335</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E336" s="7"/>
     </row>
@@ -9351,11 +9668,11 @@
         <v>336</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E337" s="7"/>
     </row>
@@ -9364,11 +9681,11 @@
         <v>337</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C338" s="3"/>
       <c r="D338" s="3" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E338" s="7"/>
     </row>
@@ -9377,11 +9694,11 @@
         <v>338</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E339" s="7"/>
     </row>
@@ -9390,11 +9707,11 @@
         <v>339</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" s="5" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E340" s="7"/>
     </row>
@@ -9403,11 +9720,11 @@
         <v>340</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E341" s="7"/>
     </row>
@@ -9416,11 +9733,11 @@
         <v>341</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E342" s="7"/>
     </row>
@@ -9429,11 +9746,11 @@
         <v>342</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E343" s="7"/>
     </row>
@@ -9442,11 +9759,11 @@
         <v>343</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E344" s="7"/>
     </row>
@@ -9455,11 +9772,11 @@
         <v>344</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E345" s="7"/>
     </row>
@@ -9468,11 +9785,11 @@
         <v>345</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="3" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E346" s="7"/>
     </row>
@@ -9480,9 +9797,13 @@
       <c r="A347" s="3">
         <v>346</v>
       </c>
-      <c r="B347" s="5"/>
+      <c r="B347" s="5" t="s">
+        <v>529</v>
+      </c>
       <c r="C347" s="3"/>
-      <c r="D347" s="3"/>
+      <c r="D347" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="E347" s="7"/>
     </row>
     <row r="348" spans="1:5">
@@ -9490,11 +9811,11 @@
         <v>347</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="E348" s="7"/>
     </row>
@@ -9512,11 +9833,11 @@
         <v>349</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="3" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="E350" s="7"/>
     </row>
@@ -9525,11 +9846,11 @@
         <v>350</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="3" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="E351" s="7"/>
     </row>
@@ -9538,11 +9859,11 @@
         <v>351</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="3" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="E352" s="7"/>
     </row>
@@ -9551,11 +9872,11 @@
         <v>352</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="3" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="E353" s="7"/>
     </row>
@@ -9564,11 +9885,11 @@
         <v>353</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E354" s="7"/>
     </row>
@@ -9577,11 +9898,11 @@
         <v>354</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="3" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="E355" s="7"/>
     </row>
@@ -9590,11 +9911,11 @@
         <v>355</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" s="3" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="E356" s="7"/>
     </row>
@@ -9603,11 +9924,11 @@
         <v>356</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="3" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="E357" s="7"/>
     </row>
@@ -9616,11 +9937,11 @@
         <v>357</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C358" s="3"/>
       <c r="D358" s="3" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E358" s="7"/>
     </row>
@@ -9629,11 +9950,11 @@
         <v>358</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C359" s="3"/>
       <c r="D359" s="3" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="E359" s="7"/>
     </row>
@@ -9642,11 +9963,11 @@
         <v>359</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="3" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E360" s="7"/>
     </row>
@@ -9655,11 +9976,11 @@
         <v>360</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E361" s="7"/>
     </row>
@@ -9668,11 +9989,11 @@
         <v>361</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C362" s="3"/>
       <c r="D362" s="3" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="E362" s="7"/>
     </row>
@@ -9681,11 +10002,11 @@
         <v>362</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="E363" s="7"/>
     </row>
@@ -9694,11 +10015,11 @@
         <v>363</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="E364" s="7"/>
     </row>
@@ -9707,11 +10028,11 @@
         <v>364</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="E365" s="7"/>
     </row>
@@ -9720,11 +10041,11 @@
         <v>365</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="E366" s="7"/>
     </row>
@@ -9733,11 +10054,11 @@
         <v>366</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E367" s="7"/>
     </row>
@@ -9746,11 +10067,11 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="E368" s="7"/>
     </row>
@@ -9759,7 +10080,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3" t="s">
@@ -9772,11 +10093,11 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E370" s="7"/>
     </row>
@@ -9785,11 +10106,11 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C371" s="3"/>
       <c r="D371" s="3" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="E371" s="7"/>
     </row>
@@ -9798,11 +10119,11 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="E372" s="7"/>
     </row>
@@ -9820,11 +10141,11 @@
         <v>373</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="E374" s="7"/>
     </row>
@@ -9842,11 +10163,11 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="E376" s="7"/>
     </row>
@@ -9855,11 +10176,11 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="E377" s="7"/>
     </row>
@@ -9868,11 +10189,11 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C378" s="3"/>
       <c r="D378" s="3" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="E378" s="7"/>
     </row>
@@ -9881,11 +10202,11 @@
         <v>378</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C379" s="3"/>
       <c r="D379" s="3" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E379" s="7"/>
     </row>
@@ -9921,11 +10242,11 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C383" s="3"/>
       <c r="D383" s="3" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="E383" s="7"/>
     </row>
@@ -9934,11 +10255,11 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E384" s="7"/>
     </row>
@@ -9947,11 +10268,11 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C385" s="3"/>
       <c r="D385" s="3" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="E385" s="7"/>
     </row>
@@ -9987,11 +10308,11 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C389" s="3"/>
       <c r="D389" s="3" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="E389" s="7"/>
     </row>
@@ -10009,11 +10330,11 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="E391" s="7"/>
     </row>
@@ -10022,11 +10343,11 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="E392" s="7"/>
     </row>
@@ -10035,11 +10356,11 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C393" s="3"/>
       <c r="D393" s="3" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="E393" s="7"/>
     </row>
@@ -10048,11 +10369,11 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C394" s="3"/>
       <c r="D394" s="3" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="E394" s="7"/>
     </row>
@@ -10061,11 +10382,11 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="E395" s="7"/>
     </row>
@@ -10074,11 +10395,11 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C396" s="3"/>
       <c r="D396" s="3" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="E396" s="7"/>
     </row>
@@ -10087,11 +10408,11 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C397" s="3"/>
       <c r="D397" s="3" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="E397" s="7"/>
     </row>
@@ -10100,11 +10421,11 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C398" s="3"/>
       <c r="D398" s="3" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="E398" s="7"/>
     </row>
@@ -10126,7 +10447,7 @@
       </c>
       <c r="C400" s="3"/>
       <c r="D400" s="3" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E400" s="7"/>
     </row>
@@ -10135,11 +10456,11 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="3" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="E401" s="7"/>
     </row>
@@ -10148,11 +10469,11 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C402" s="3"/>
       <c r="D402" s="3" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>4</v>
@@ -10163,11 +10484,11 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C403" s="3"/>
       <c r="D403" s="3" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="E403" s="2"/>
     </row>
@@ -10176,7 +10497,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C404" s="3"/>
       <c r="D404" s="3" t="s">
@@ -10189,11 +10510,11 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C405" s="3"/>
       <c r="D405" s="3" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="E405" s="2"/>
     </row>
@@ -10220,11 +10541,11 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C408" s="3"/>
       <c r="D408" s="3" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="E408" s="2"/>
     </row>
@@ -10233,11 +10554,11 @@
         <v>408</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C409" s="3"/>
       <c r="D409" s="3" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="E409" s="2"/>
     </row>
@@ -10264,11 +10585,11 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C412" s="3"/>
       <c r="D412" s="3" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="E412" s="2"/>
     </row>
@@ -10277,11 +10598,11 @@
         <v>412</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C413" s="3"/>
       <c r="D413" s="3" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="E413" s="2"/>
     </row>
@@ -10290,11 +10611,11 @@
         <v>413</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C414" s="3"/>
       <c r="D414" s="3" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="E414" s="2"/>
     </row>
@@ -10303,11 +10624,11 @@
         <v>414</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="C415" s="3"/>
       <c r="D415" s="3" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="E415" s="2"/>
     </row>
@@ -10316,11 +10637,11 @@
         <v>415</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C416" s="3"/>
       <c r="D416" s="3" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="E416" s="2"/>
     </row>
@@ -10329,11 +10650,11 @@
         <v>416</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="3" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="E417" s="2"/>
     </row>
@@ -10351,11 +10672,11 @@
         <v>418</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C419" s="3"/>
       <c r="D419" s="3" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="E419" s="2"/>
     </row>
@@ -10364,11 +10685,11 @@
         <v>419</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C420" s="3"/>
       <c r="D420" s="3" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="E420" s="2"/>
     </row>
@@ -10377,11 +10698,11 @@
         <v>420</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="3" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="E421" s="2"/>
     </row>
@@ -10390,11 +10711,11 @@
         <v>421</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C422" s="3"/>
       <c r="D422" s="3" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="E422" s="2"/>
     </row>
@@ -10403,11 +10724,11 @@
         <v>422</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C423" s="3"/>
       <c r="D423" s="3" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="E423" s="2"/>
     </row>
@@ -10416,11 +10737,11 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="3" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="E424" s="2"/>
     </row>
@@ -10438,13 +10759,13 @@
         <v>425</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C426" s="3">
         <v>222</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="E426" s="2"/>
     </row>
@@ -10453,7 +10774,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3" t="s">
@@ -10466,13 +10787,13 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="C428" s="3">
         <v>7</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="E428" s="2"/>
     </row>
@@ -10481,13 +10802,13 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="C429" s="3">
         <v>9</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="E429" s="2"/>
     </row>
@@ -10502,11 +10823,11 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="E431" s="2"/>
     </row>
@@ -10530,11 +10851,11 @@
         <v>433</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="E434" s="2"/>
     </row>
@@ -10543,11 +10864,11 @@
         <v>434</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="C435" s="3"/>
       <c r="D435" s="3" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E435" s="2"/>
     </row>
@@ -10556,11 +10877,11 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="E436" s="2"/>
     </row>
@@ -10569,11 +10890,11 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="E437" s="2"/>
     </row>
@@ -10582,11 +10903,11 @@
         <v>437</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="E438" s="2"/>
     </row>
@@ -10595,11 +10916,11 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="E439" s="2"/>
     </row>
@@ -10608,11 +10929,11 @@
         <v>439</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="E440" s="2"/>
     </row>
@@ -10621,11 +10942,11 @@
         <v>440</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="3" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="E441" s="2"/>
     </row>
@@ -10634,11 +10955,11 @@
         <v>441</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="3" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="E442" s="2"/>
     </row>
@@ -10647,11 +10968,11 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="3" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="E443" s="2"/>
     </row>
@@ -10660,11 +10981,11 @@
         <v>443</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="E444" s="2"/>
     </row>
@@ -10673,11 +10994,11 @@
         <v>444</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="E445" s="2"/>
     </row>
@@ -10695,11 +11016,11 @@
         <v>446</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="E447" s="2"/>
     </row>
@@ -10708,11 +11029,11 @@
         <v>447</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="E448" s="2"/>
     </row>
@@ -10721,11 +11042,11 @@
         <v>448</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="E449" s="2"/>
     </row>
@@ -10734,11 +11055,11 @@
         <v>449</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="E450" s="2"/>
     </row>
@@ -10747,11 +11068,11 @@
         <v>450</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="E451" s="2"/>
     </row>
@@ -10760,13 +11081,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="E452" s="2"/>
     </row>
@@ -10775,11 +11096,11 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="E453" s="2"/>
     </row>
@@ -10788,11 +11109,11 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C454" s="3"/>
       <c r="D454" s="3" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="E454" s="2"/>
     </row>
@@ -10801,11 +11122,11 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C455" s="3"/>
       <c r="D455" s="3" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="E455" s="2"/>
     </row>
@@ -10814,11 +11135,11 @@
         <v>455</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="C456" s="3"/>
       <c r="D456" s="3" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="E456" s="2"/>
     </row>
@@ -10827,11 +11148,11 @@
         <v>456</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C457" s="3"/>
       <c r="D457" s="3" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="E457" s="2"/>
     </row>
@@ -10840,11 +11161,11 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C458" s="3"/>
       <c r="D458" s="3" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="E458" s="2"/>
     </row>
@@ -10853,11 +11174,11 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C459" s="3"/>
       <c r="D459" s="3" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="E459" s="2"/>
     </row>
@@ -10866,11 +11187,11 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C460" s="3"/>
       <c r="D460" s="3" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="E460" s="2"/>
     </row>
@@ -10879,11 +11200,11 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C461" s="3"/>
       <c r="D461" s="3" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="E461" s="2"/>
     </row>
@@ -10892,11 +11213,11 @@
         <v>461</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="C462" s="3"/>
       <c r="D462" s="9" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="E462" s="2"/>
     </row>
@@ -10905,11 +11226,11 @@
         <v>462</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C463" s="3"/>
       <c r="D463" s="9" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E463" s="2"/>
     </row>
@@ -10918,7 +11239,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C464" s="3"/>
       <c r="D464" s="3" t="s">
@@ -10931,7 +11252,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="C465" s="3"/>
       <c r="D465" s="3" t="s">
@@ -10957,7 +11278,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C467" s="3"/>
       <c r="D467" s="3" t="s">
@@ -10970,11 +11291,11 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="C468" s="3"/>
       <c r="D468" s="3" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="E468" s="2"/>
     </row>
@@ -10983,7 +11304,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="C469" s="3"/>
       <c r="D469" s="3" t="s">
@@ -10996,13 +11317,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="E470" s="2"/>
     </row>
@@ -11011,13 +11332,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="E471" s="2"/>
     </row>
@@ -11026,13 +11347,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="E472" s="2"/>
     </row>
@@ -11041,13 +11362,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="E473" s="2"/>
     </row>
@@ -11056,13 +11377,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="E474" s="2"/>
     </row>
@@ -11071,13 +11392,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="E475" s="2"/>
     </row>
@@ -11086,13 +11407,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="E476" s="2"/>
     </row>
@@ -11101,13 +11422,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="E477" s="2"/>
     </row>
@@ -11116,13 +11437,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="E478" s="2"/>
     </row>
@@ -11131,13 +11452,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="E479" s="2"/>
     </row>
@@ -11146,13 +11467,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E480" s="2"/>
     </row>
@@ -11161,13 +11482,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="E481" s="2"/>
     </row>
@@ -11176,13 +11497,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="E482" s="2"/>
     </row>
@@ -11191,13 +11512,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="E483" s="2"/>
     </row>
@@ -11206,13 +11527,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="E484" s="2"/>
     </row>
@@ -11221,13 +11542,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E485" s="2"/>
     </row>
@@ -11236,13 +11557,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="E486" s="2"/>
     </row>
@@ -11251,13 +11572,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="E487" s="2"/>
     </row>
@@ -11266,13 +11587,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="E488" s="2"/>
     </row>
@@ -11281,13 +11602,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="E489" s="2"/>
     </row>
@@ -11296,13 +11617,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="E490" s="2"/>
     </row>
@@ -11311,13 +11632,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E491" s="2"/>
     </row>
@@ -11326,13 +11647,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="E492" s="2"/>
     </row>
@@ -11341,13 +11662,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="E493" s="2"/>
     </row>
@@ -11356,13 +11677,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="E494" s="2"/>
     </row>
@@ -11371,13 +11692,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="E495" s="2"/>
     </row>
@@ -11386,13 +11707,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="E496" s="2"/>
     </row>
@@ -11401,13 +11722,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="E497" s="2"/>
     </row>
@@ -11416,13 +11737,13 @@
         <v>497</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="E498" s="2"/>
     </row>
@@ -11431,13 +11752,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="E499" s="2"/>
     </row>
@@ -11446,13 +11767,13 @@
         <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="E500" s="2"/>
     </row>
@@ -11461,13 +11782,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C501" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="E501" s="2"/>
     </row>
@@ -11476,16 +11797,16 @@
         <v>501</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C502" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D502" s="10" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="E502" s="11" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11493,13 +11814,13 @@
         <v>502</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="C503" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D503" s="10" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="E503" s="11"/>
     </row>
@@ -11508,11 +11829,11 @@
         <v>503</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="C504" s="3"/>
       <c r="D504" s="10" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="E504" s="11"/>
     </row>
@@ -11521,11 +11842,11 @@
         <v>504</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="C505" s="3"/>
       <c r="D505" s="10" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="E505" s="11"/>
     </row>
@@ -11534,11 +11855,11 @@
         <v>505</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="C506" s="3"/>
       <c r="D506" s="10" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="E506" s="11"/>
     </row>
@@ -11547,11 +11868,11 @@
         <v>506</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C507" s="3"/>
       <c r="D507" s="10" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="E507" s="11"/>
     </row>
@@ -11560,11 +11881,11 @@
         <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="C508" s="3"/>
       <c r="D508" s="10" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E508" s="11"/>
     </row>
@@ -11573,11 +11894,11 @@
         <v>508</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="C509" s="3"/>
       <c r="D509" s="10" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="E509" s="11"/>
     </row>
@@ -11586,11 +11907,11 @@
         <v>509</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="C510" s="3"/>
       <c r="D510" s="10" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="E510" s="11"/>
     </row>
@@ -11599,11 +11920,11 @@
         <v>510</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="C511" s="3"/>
       <c r="D511" s="10" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="E511" s="11"/>
     </row>
@@ -11612,11 +11933,11 @@
         <v>511</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="C512" s="3"/>
       <c r="D512" s="10" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="E512" s="11"/>
     </row>
@@ -11625,11 +11946,11 @@
         <v>512</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C513" s="3"/>
       <c r="D513" s="10" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="E513" s="11"/>
     </row>
@@ -11638,11 +11959,11 @@
         <v>513</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C514" s="3"/>
       <c r="D514" s="10" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="E514" s="11"/>
     </row>
@@ -11651,11 +11972,11 @@
         <v>514</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="C515" s="3"/>
       <c r="D515" s="10" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="E515" s="11"/>
     </row>
@@ -11664,13 +11985,13 @@
         <v>515</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="C516" s="3">
         <v>20</v>
       </c>
       <c r="D516" s="10" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E516" s="11"/>
     </row>
@@ -11679,13 +12000,13 @@
         <v>516</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="C517" s="3">
         <v>20</v>
       </c>
       <c r="D517" s="10" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="E517" s="11"/>
     </row>
@@ -11694,13 +12015,13 @@
         <v>517</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="C518" s="3">
         <v>20</v>
       </c>
       <c r="D518" s="10" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="E518" s="11"/>
     </row>
@@ -11709,13 +12030,13 @@
         <v>518</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="C519" s="3">
         <v>20</v>
       </c>
       <c r="D519" s="10" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="E519" s="11"/>
     </row>
@@ -11724,13 +12045,13 @@
         <v>519</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="C520" s="3">
         <v>20</v>
       </c>
       <c r="D520" s="10" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="E520" s="11"/>
     </row>
@@ -11739,13 +12060,13 @@
         <v>520</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="C521" s="3">
         <v>20</v>
       </c>
       <c r="D521" s="10" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="E521" s="11"/>
     </row>
@@ -11754,11 +12075,11 @@
         <v>521</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="C522" s="3"/>
       <c r="D522" s="10" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="E522" s="11"/>
     </row>
@@ -11767,13 +12088,13 @@
         <v>522</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="C523" s="3">
         <v>33</v>
       </c>
       <c r="D523" s="10" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="E523" s="11"/>
     </row>
@@ -11782,11 +12103,11 @@
         <v>523</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="C524" s="3"/>
       <c r="D524" s="10" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="E524" s="11"/>
     </row>
@@ -11795,11 +12116,11 @@
         <v>524</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="C525" s="3"/>
       <c r="D525" s="10" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="E525" s="11"/>
     </row>
@@ -11808,11 +12129,11 @@
         <v>525</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="C526" s="3"/>
       <c r="D526" s="10" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="E526" s="11"/>
     </row>
@@ -11821,11 +12142,11 @@
         <v>526</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C527" s="3"/>
       <c r="D527" s="10" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E527" s="11"/>
     </row>
@@ -11834,11 +12155,11 @@
         <v>527</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C528" s="3"/>
       <c r="D528" s="10" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="E528" s="11"/>
     </row>
@@ -11847,11 +12168,11 @@
         <v>528</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C529" s="3"/>
       <c r="D529" s="10" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="E529" s="11"/>
     </row>
@@ -11878,11 +12199,11 @@
         <v>531</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="C532" s="3"/>
       <c r="D532" s="10" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="E532" s="11"/>
     </row>
@@ -11900,11 +12221,11 @@
         <v>533</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C534" s="3"/>
       <c r="D534" s="10" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="E534" s="11"/>
     </row>
@@ -11913,13 +12234,13 @@
         <v>534</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="C535" s="3">
         <v>16</v>
       </c>
       <c r="D535" s="10" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="E535" s="11"/>
     </row>
@@ -11928,13 +12249,13 @@
         <v>535</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="C536" s="3">
         <v>222</v>
       </c>
       <c r="D536" s="10" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="E536" s="11"/>
     </row>
@@ -11943,13 +12264,13 @@
         <v>536</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C537" s="3">
         <v>222</v>
       </c>
       <c r="D537" s="10" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="E537" s="11"/>
     </row>
@@ -11958,13 +12279,13 @@
         <v>537</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C538" s="3">
         <v>222</v>
       </c>
       <c r="D538" s="10" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="E538" s="11"/>
     </row>
@@ -11973,13 +12294,13 @@
         <v>538</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C539" s="3">
         <v>222</v>
       </c>
       <c r="D539" s="10" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="E539" s="11"/>
     </row>
@@ -11988,13 +12309,13 @@
         <v>539</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="C540" s="3">
         <v>222</v>
       </c>
       <c r="D540" s="10" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="E540" s="11"/>
     </row>
@@ -12003,13 +12324,13 @@
         <v>540</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="C541" s="3">
         <v>222</v>
       </c>
       <c r="D541" s="10" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="E541" s="11"/>
     </row>
@@ -12018,11 +12339,11 @@
         <v>541</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="C542" s="3"/>
       <c r="D542" s="10" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="E542" s="11"/>
     </row>
@@ -12031,13 +12352,13 @@
         <v>542</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="C543" s="3">
         <v>28</v>
       </c>
       <c r="D543" s="10" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="E543" s="11"/>
     </row>
@@ -12046,13 +12367,13 @@
         <v>543</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="C544" s="3">
         <v>30</v>
       </c>
       <c r="D544" s="10" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="E544" s="11"/>
     </row>
@@ -12061,13 +12382,13 @@
         <v>544</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="C545" s="3">
         <v>30</v>
       </c>
       <c r="D545" s="10" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="E545" s="11"/>
     </row>
@@ -12076,13 +12397,13 @@
         <v>545</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="C546" s="3">
         <v>30</v>
       </c>
       <c r="D546" s="10" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="E546" s="11"/>
     </row>
@@ -12091,11 +12412,11 @@
         <v>546</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="C547" s="3"/>
       <c r="D547" s="10" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="E547" s="11"/>
     </row>
@@ -12104,11 +12425,11 @@
         <v>547</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="C548" s="3"/>
       <c r="D548" s="10" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="E548" s="11"/>
     </row>
@@ -12117,11 +12438,11 @@
         <v>548</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="C549" s="3"/>
       <c r="D549" s="10" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="E549" s="11"/>
     </row>
@@ -12130,11 +12451,11 @@
         <v>549</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="C550" s="3"/>
       <c r="D550" s="10" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="E550" s="11"/>
     </row>
@@ -12143,11 +12464,11 @@
         <v>550</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="C551" s="3"/>
       <c r="D551" s="10" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="E551" s="11"/>
     </row>
@@ -12156,7 +12477,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="C552" s="3"/>
       <c r="D552" s="10" t="s">
@@ -12169,11 +12490,11 @@
         <v>552</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="C553" s="3"/>
       <c r="D553" s="10" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="E553" s="11"/>
     </row>
@@ -12182,11 +12503,11 @@
         <v>553</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C554" s="3"/>
       <c r="D554" s="10" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="E554" s="11"/>
     </row>
@@ -12195,11 +12516,11 @@
         <v>554</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="C555" s="3"/>
       <c r="D555" s="10" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="E555" s="11"/>
     </row>
@@ -12208,11 +12529,11 @@
         <v>555</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="C556" s="3"/>
       <c r="D556" s="10" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="E556" s="11"/>
     </row>
@@ -12221,11 +12542,11 @@
         <v>556</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="C557" s="3"/>
       <c r="D557" s="10" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="E557" s="11"/>
     </row>
@@ -12234,11 +12555,11 @@
         <v>557</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="C558" s="3"/>
       <c r="D558" s="10" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="E558" s="11"/>
     </row>
@@ -12247,11 +12568,11 @@
         <v>558</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="C559" s="3"/>
       <c r="D559" s="10" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="E559" s="11"/>
     </row>
@@ -12260,11 +12581,11 @@
         <v>559</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C560" s="3"/>
       <c r="D560" s="10" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="E560" s="11"/>
     </row>
@@ -12273,11 +12594,11 @@
         <v>560</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="C561" s="3"/>
       <c r="D561" s="10" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="E561" s="11"/>
     </row>
@@ -12286,11 +12607,11 @@
         <v>561</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C562" s="3"/>
       <c r="D562" s="10" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="E562" s="11"/>
     </row>
@@ -12299,11 +12620,11 @@
         <v>562</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="C563" s="3"/>
       <c r="D563" s="10" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="E563" s="11"/>
     </row>
@@ -12312,11 +12633,11 @@
         <v>563</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="C564" s="3"/>
       <c r="D564" s="10" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="E564" s="11"/>
     </row>
@@ -12325,11 +12646,11 @@
         <v>564</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C565" s="3"/>
       <c r="D565" s="10" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E565" s="11"/>
     </row>
@@ -12338,11 +12659,11 @@
         <v>565</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="10" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E566" s="11"/>
     </row>
@@ -12351,11 +12672,11 @@
         <v>566</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="C567" s="3"/>
       <c r="D567" s="10" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="E567" s="11"/>
     </row>
@@ -12364,11 +12685,11 @@
         <v>567</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="C568" s="3"/>
       <c r="D568" s="10" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="E568" s="11"/>
     </row>
@@ -12386,11 +12707,11 @@
         <v>569</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="C570" s="3"/>
       <c r="D570" s="10" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="E570" s="11"/>
     </row>
@@ -12399,11 +12720,11 @@
         <v>570</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="C571" s="3"/>
       <c r="D571" s="10" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="E571" s="11"/>
     </row>
@@ -12412,11 +12733,11 @@
         <v>571</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="C572" s="3"/>
       <c r="D572" s="10" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="E572" s="11"/>
     </row>
@@ -12425,11 +12746,11 @@
         <v>572</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="C573" s="3"/>
       <c r="D573" s="10" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E573" s="11"/>
     </row>
@@ -12438,11 +12759,11 @@
         <v>573</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="C574" s="3"/>
       <c r="D574" s="10" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="E574" s="11"/>
     </row>
@@ -12469,11 +12790,11 @@
         <v>576</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="C577" s="3"/>
       <c r="D577" s="10" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="E577" s="11"/>
     </row>
@@ -12482,11 +12803,11 @@
         <v>577</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="C578" s="3"/>
       <c r="D578" s="10" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="E578" s="11"/>
     </row>
@@ -12495,11 +12816,11 @@
         <v>578</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="C579" s="3"/>
       <c r="D579" s="10" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="E579" s="11"/>
     </row>
@@ -12508,11 +12829,11 @@
         <v>579</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="C580" s="3"/>
       <c r="D580" s="10" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="E580" s="11"/>
     </row>
@@ -12521,11 +12842,11 @@
         <v>580</v>
       </c>
       <c r="B581" s="12" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="C581" s="12"/>
       <c r="D581" s="12" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>4</v>
@@ -12545,11 +12866,11 @@
         <v>582</v>
       </c>
       <c r="B583" s="12" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="C583" s="12"/>
       <c r="D583" s="12" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="E583" s="2"/>
     </row>
@@ -12558,11 +12879,11 @@
         <v>583</v>
       </c>
       <c r="B584" s="13" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="C584" s="13"/>
       <c r="D584" s="13" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="E584" s="2"/>
     </row>
@@ -12571,11 +12892,11 @@
         <v>584</v>
       </c>
       <c r="B585" s="12" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="C585" s="12"/>
       <c r="D585" s="12" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E585" s="2"/>
     </row>
@@ -12584,11 +12905,11 @@
         <v>585</v>
       </c>
       <c r="B586" s="13" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="C586" s="13"/>
       <c r="D586" s="13" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="E586" s="2"/>
     </row>
@@ -12597,11 +12918,11 @@
         <v>586</v>
       </c>
       <c r="B587" s="12" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="C587" s="12"/>
       <c r="D587" s="12" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="E587" s="2"/>
     </row>
@@ -12610,11 +12931,11 @@
         <v>587</v>
       </c>
       <c r="B588" s="13" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="C588" s="13"/>
       <c r="D588" s="13" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="E588" s="2"/>
     </row>
@@ -12623,11 +12944,11 @@
         <v>588</v>
       </c>
       <c r="B589" s="12" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="C589" s="12"/>
       <c r="D589" s="12" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="E589" s="2"/>
     </row>
@@ -12636,11 +12957,11 @@
         <v>589</v>
       </c>
       <c r="B590" s="13" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="C590" s="13"/>
       <c r="D590" s="13" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="E590" s="2"/>
     </row>
@@ -12649,11 +12970,11 @@
         <v>590</v>
       </c>
       <c r="B591" s="12" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="C591" s="12"/>
       <c r="D591" s="12" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="E591" s="2"/>
     </row>
@@ -12662,11 +12983,11 @@
         <v>591</v>
       </c>
       <c r="B592" s="13" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="C592" s="13"/>
       <c r="D592" s="13" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="E592" s="2"/>
     </row>
@@ -12675,11 +12996,11 @@
         <v>592</v>
       </c>
       <c r="B593" s="12" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="C593" s="12"/>
       <c r="D593" s="12" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="E593" s="2"/>
     </row>
@@ -12688,11 +13009,11 @@
         <v>593</v>
       </c>
       <c r="B594" s="13" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="C594" s="13"/>
       <c r="D594" s="13" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="E594" s="2"/>
     </row>
@@ -12701,11 +13022,11 @@
         <v>594</v>
       </c>
       <c r="B595" s="12" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C595" s="12"/>
       <c r="D595" s="12" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="E595" s="2"/>
     </row>
@@ -12714,11 +13035,11 @@
         <v>595</v>
       </c>
       <c r="B596" s="13" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="C596" s="13"/>
       <c r="D596" s="13" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="E596" s="2"/>
     </row>
@@ -12727,11 +13048,11 @@
         <v>596</v>
       </c>
       <c r="B597" s="12" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="C597" s="12"/>
       <c r="D597" s="12" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="E597" s="2"/>
     </row>
@@ -12740,11 +13061,11 @@
         <v>597</v>
       </c>
       <c r="B598" s="13" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="C598" s="13"/>
       <c r="D598" s="13" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="E598" s="2"/>
     </row>
@@ -12762,11 +13083,11 @@
         <v>599</v>
       </c>
       <c r="B600" s="13" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="C600" s="13"/>
       <c r="D600" s="13" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="E600" s="2"/>
     </row>
@@ -12775,11 +13096,11 @@
         <v>600</v>
       </c>
       <c r="B601" s="12" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="C601" s="12"/>
       <c r="D601" s="12" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="E601" s="2"/>
     </row>
@@ -12788,11 +13109,11 @@
         <v>601</v>
       </c>
       <c r="B602" s="13" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="C602" s="13"/>
       <c r="D602" s="13" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="E602" s="2"/>
     </row>
@@ -12801,11 +13122,11 @@
         <v>602</v>
       </c>
       <c r="B603" s="12" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="C603" s="12"/>
       <c r="D603" s="12" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="E603" s="2"/>
     </row>
@@ -12814,11 +13135,11 @@
         <v>603</v>
       </c>
       <c r="B604" s="13" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="C604" s="13"/>
       <c r="D604" s="13" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="E604" s="2"/>
     </row>
@@ -12827,11 +13148,11 @@
         <v>604</v>
       </c>
       <c r="B605" s="12" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="C605" s="12"/>
       <c r="D605" s="12" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="E605" s="2"/>
     </row>
@@ -12840,11 +13161,11 @@
         <v>605</v>
       </c>
       <c r="B606" s="13" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="C606" s="13"/>
       <c r="D606" s="13" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="E606" s="2"/>
     </row>
@@ -12853,11 +13174,11 @@
         <v>606</v>
       </c>
       <c r="B607" s="12" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="C607" s="12"/>
       <c r="D607" s="12" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="E607" s="2"/>
     </row>
@@ -12866,11 +13187,11 @@
         <v>607</v>
       </c>
       <c r="B608" s="13" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="C608" s="13"/>
       <c r="D608" s="13" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="E608" s="2"/>
     </row>
@@ -12879,13 +13200,13 @@
         <v>608</v>
       </c>
       <c r="B609" s="12" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="C609" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D609" s="12" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="E609" s="2"/>
     </row>
@@ -12894,13 +13215,13 @@
         <v>609</v>
       </c>
       <c r="B610" s="13" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="C610" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D610" s="13" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="E610" s="2"/>
     </row>
@@ -12909,13 +13230,13 @@
         <v>610</v>
       </c>
       <c r="B611" s="12" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="C611" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D611" s="12" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="E611" s="2"/>
     </row>
@@ -12924,13 +13245,13 @@
         <v>611</v>
       </c>
       <c r="B612" s="13" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="C612" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D612" s="13" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="E612" s="2"/>
     </row>
@@ -12939,13 +13260,13 @@
         <v>612</v>
       </c>
       <c r="B613" s="12" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="C613" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D613" s="12" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="E613" s="2"/>
     </row>
@@ -12972,13 +13293,13 @@
         <v>615</v>
       </c>
       <c r="B616" s="13" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="C616" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D616" s="13" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="E616" s="2"/>
     </row>
@@ -12987,13 +13308,13 @@
         <v>616</v>
       </c>
       <c r="B617" s="12" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="C617" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D617" s="12" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E617" s="2"/>
     </row>
@@ -13002,11 +13323,11 @@
         <v>617</v>
       </c>
       <c r="B618" s="13" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="C618" s="13"/>
       <c r="D618" s="13" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E618" s="2"/>
     </row>
@@ -13015,11 +13336,11 @@
         <v>618</v>
       </c>
       <c r="B619" s="12" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="C619" s="12"/>
       <c r="D619" s="12" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="E619" s="2"/>
     </row>
@@ -13037,13 +13358,13 @@
         <v>620</v>
       </c>
       <c r="B621" s="12" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="C621" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D621" s="12" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E621" s="2"/>
     </row>
@@ -13052,13 +13373,13 @@
         <v>621</v>
       </c>
       <c r="B622" s="13" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="C622" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D622" s="13" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="E622" s="2"/>
     </row>
@@ -13067,13 +13388,13 @@
         <v>622</v>
       </c>
       <c r="B623" s="12" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="C623" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D623" s="12" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="E623" s="2"/>
     </row>
@@ -13082,13 +13403,13 @@
         <v>623</v>
       </c>
       <c r="B624" s="13" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="C624" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D624" s="13" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E624" s="2"/>
     </row>
@@ -13097,13 +13418,13 @@
         <v>624</v>
       </c>
       <c r="B625" s="12" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C625" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D625" s="12" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E625" s="2"/>
     </row>
@@ -13112,13 +13433,13 @@
         <v>625</v>
       </c>
       <c r="B626" s="13" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="C626" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D626" s="13" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="E626" s="2"/>
     </row>
@@ -13127,13 +13448,13 @@
         <v>626</v>
       </c>
       <c r="B627" s="12" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="C627" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D627" s="12" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="E627" s="2"/>
     </row>
@@ -13142,13 +13463,13 @@
         <v>627</v>
       </c>
       <c r="B628" s="13" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="C628" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D628" s="13" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E628" s="2"/>
     </row>
@@ -13157,11 +13478,11 @@
         <v>628</v>
       </c>
       <c r="B629" s="12" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="C629" s="12"/>
       <c r="D629" s="12" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="E629" s="2"/>
     </row>
@@ -13170,11 +13491,11 @@
         <v>629</v>
       </c>
       <c r="B630" s="13" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C630" s="13"/>
       <c r="D630" s="13" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="E630" s="2"/>
     </row>
@@ -13183,11 +13504,11 @@
         <v>630</v>
       </c>
       <c r="B631" s="12" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="C631" s="12"/>
       <c r="D631" s="12" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="E631" s="2"/>
     </row>
@@ -13196,13 +13517,13 @@
         <v>631</v>
       </c>
       <c r="B632" s="13" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="C632" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D632" s="13" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="E632" s="2"/>
     </row>
@@ -13220,13 +13541,13 @@
         <v>633</v>
       </c>
       <c r="B634" s="13" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="C634" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D634" s="13" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E634" s="2"/>
     </row>
@@ -13235,13 +13556,13 @@
         <v>634</v>
       </c>
       <c r="B635" s="12" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="C635" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D635" s="12" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="E635" s="2"/>
     </row>
@@ -13250,13 +13571,13 @@
         <v>635</v>
       </c>
       <c r="B636" s="13" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="C636" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D636" s="13" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="E636" s="2"/>
     </row>
@@ -13265,13 +13586,13 @@
         <v>636</v>
       </c>
       <c r="B637" s="12" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="C637" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D637" s="12" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="E637" s="2"/>
     </row>
@@ -13280,13 +13601,13 @@
         <v>637</v>
       </c>
       <c r="B638" s="13" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="C638" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D638" s="13" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="E638" s="2"/>
     </row>
@@ -13295,13 +13616,13 @@
         <v>638</v>
       </c>
       <c r="B639" s="12" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="C639" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D639" s="12" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="E639" s="2"/>
     </row>
@@ -13310,13 +13631,13 @@
         <v>639</v>
       </c>
       <c r="B640" s="13" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="C640" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D640" s="13" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="E640" s="2"/>
     </row>
@@ -13325,13 +13646,13 @@
         <v>640</v>
       </c>
       <c r="B641" s="12" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="C641" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D641" s="12" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="E641" s="2"/>
     </row>
@@ -13340,11 +13661,11 @@
         <v>641</v>
       </c>
       <c r="B642" s="13" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C642" s="13"/>
       <c r="D642" s="13" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="E642" s="2"/>
     </row>
@@ -13353,11 +13674,11 @@
         <v>642</v>
       </c>
       <c r="B643" s="12" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="C643" s="12"/>
       <c r="D643" s="12" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="E643" s="2"/>
     </row>
@@ -13366,13 +13687,13 @@
         <v>643</v>
       </c>
       <c r="B644" s="13" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="C644" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D644" s="13" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="E644" s="2"/>
     </row>
@@ -13381,13 +13702,13 @@
         <v>644</v>
       </c>
       <c r="B645" s="12" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="C645" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D645" s="12" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="E645" s="2"/>
     </row>
@@ -13396,11 +13717,11 @@
         <v>645</v>
       </c>
       <c r="B646" s="13" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="C646" s="13"/>
       <c r="D646" s="13" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="E646" s="2"/>
     </row>
@@ -13409,11 +13730,11 @@
         <v>646</v>
       </c>
       <c r="B647" s="12" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="C647" s="12"/>
       <c r="D647" s="12" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="E647" s="2"/>
     </row>
@@ -13422,11 +13743,11 @@
         <v>647</v>
       </c>
       <c r="B648" s="13" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="C648" s="13"/>
       <c r="D648" s="13" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="E648" s="2"/>
     </row>
@@ -13435,11 +13756,11 @@
         <v>648</v>
       </c>
       <c r="B649" s="12" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="C649" s="12"/>
       <c r="D649" s="12" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="E649" s="2"/>
     </row>
@@ -13448,11 +13769,11 @@
         <v>649</v>
       </c>
       <c r="B650" s="13" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="C650" s="13"/>
       <c r="D650" s="13" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="E650" s="2"/>
     </row>
@@ -13461,11 +13782,11 @@
         <v>650</v>
       </c>
       <c r="B651" s="12" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="C651" s="12"/>
       <c r="D651" s="12" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="E651" s="2"/>
     </row>
@@ -13519,11 +13840,11 @@
         <v>656</v>
       </c>
       <c r="B657" s="12" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="C657" s="12"/>
       <c r="D657" s="12" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="E657" s="2"/>
     </row>
@@ -13532,11 +13853,11 @@
         <v>657</v>
       </c>
       <c r="B658" s="13" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="C658" s="13"/>
       <c r="D658" s="13" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="E658" s="2"/>
     </row>
@@ -13545,11 +13866,11 @@
         <v>658</v>
       </c>
       <c r="B659" s="12" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="C659" s="12"/>
       <c r="D659" s="12" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="E659" s="2"/>
     </row>
@@ -13558,11 +13879,11 @@
         <v>659</v>
       </c>
       <c r="B660" s="13" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="C660" s="13"/>
       <c r="D660" s="13" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="E660" s="2"/>
     </row>
@@ -13571,11 +13892,11 @@
         <v>660</v>
       </c>
       <c r="B661" s="12" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="C661" s="12"/>
       <c r="D661" s="12" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="E661" s="2"/>
     </row>
@@ -13584,13 +13905,13 @@
         <v>661</v>
       </c>
       <c r="B662" s="13" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="C662" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D662" s="13" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="E662" s="2"/>
     </row>
@@ -13599,13 +13920,13 @@
         <v>662</v>
       </c>
       <c r="B663" s="12" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="C663" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D663" s="12" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="E663" s="2"/>
     </row>
@@ -13632,11 +13953,11 @@
         <v>665</v>
       </c>
       <c r="B666" s="13" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="C666" s="13"/>
       <c r="D666" s="13" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="E666" s="2"/>
     </row>
@@ -13645,11 +13966,11 @@
         <v>666</v>
       </c>
       <c r="B667" s="12" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="C667" s="12"/>
       <c r="D667" s="12" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="E667" s="2"/>
     </row>
@@ -13658,11 +13979,11 @@
         <v>667</v>
       </c>
       <c r="B668" s="13" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="C668" s="13"/>
       <c r="D668" s="13" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="E668" s="2"/>
     </row>
@@ -13698,11 +14019,11 @@
         <v>671</v>
       </c>
       <c r="B672" s="13" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="C672" s="13"/>
       <c r="D672" s="13" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="E672" s="2"/>
     </row>
@@ -13711,11 +14032,11 @@
         <v>672</v>
       </c>
       <c r="B673" s="12" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="C673" s="12"/>
       <c r="D673" s="12" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="E673" s="2"/>
     </row>
@@ -13724,11 +14045,11 @@
         <v>673</v>
       </c>
       <c r="B674" s="13" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="C674" s="13"/>
       <c r="D674" s="13" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="E674" s="2"/>
     </row>
@@ -13737,11 +14058,11 @@
         <v>674</v>
       </c>
       <c r="B675" s="12" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="C675" s="12"/>
       <c r="D675" s="12" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="E675" s="2"/>
     </row>
@@ -13750,11 +14071,11 @@
         <v>675</v>
       </c>
       <c r="B676" s="13" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="C676" s="13"/>
       <c r="D676" s="13" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="E676" s="2"/>
     </row>
@@ -13763,11 +14084,11 @@
         <v>676</v>
       </c>
       <c r="B677" s="12" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="C677" s="12"/>
       <c r="D677" s="12" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="E677" s="2"/>
     </row>
@@ -13776,11 +14097,11 @@
         <v>677</v>
       </c>
       <c r="B678" s="13" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="C678" s="13"/>
       <c r="D678" s="13" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="E678" s="2"/>
     </row>
@@ -13789,11 +14110,11 @@
         <v>678</v>
       </c>
       <c r="B679" s="12" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="C679" s="12"/>
       <c r="D679" s="12" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="E679" s="2"/>
     </row>
@@ -13802,11 +14123,11 @@
         <v>679</v>
       </c>
       <c r="B680" s="13" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="C680" s="13"/>
       <c r="D680" s="13" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="E680" s="2"/>
     </row>
@@ -13815,11 +14136,11 @@
         <v>680</v>
       </c>
       <c r="B681" s="12" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="C681" s="12"/>
       <c r="D681" s="12" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="E681" s="2"/>
     </row>
@@ -13828,11 +14149,11 @@
         <v>681</v>
       </c>
       <c r="B682" s="13" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="C682" s="13"/>
       <c r="D682" s="13" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="E682" s="2"/>
     </row>
@@ -13841,11 +14162,11 @@
         <v>682</v>
       </c>
       <c r="B683" s="12" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="C683" s="12"/>
       <c r="D683" s="12" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="E683" s="2"/>
     </row>
@@ -13854,11 +14175,11 @@
         <v>683</v>
       </c>
       <c r="B684" s="13" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="C684" s="13"/>
       <c r="D684" s="13" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="E684" s="2"/>
     </row>
@@ -13876,11 +14197,11 @@
         <v>685</v>
       </c>
       <c r="B686" s="13" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="C686" s="13"/>
       <c r="D686" s="13" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="E686" s="2"/>
     </row>
@@ -13889,11 +14210,11 @@
         <v>686</v>
       </c>
       <c r="B687" s="12" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="C687" s="12"/>
       <c r="D687" s="12" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="E687" s="2"/>
     </row>
@@ -13902,11 +14223,11 @@
         <v>687</v>
       </c>
       <c r="B688" s="13" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
       <c r="C688" s="13"/>
       <c r="D688" s="13" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="E688" s="2"/>
     </row>
@@ -13915,11 +14236,11 @@
         <v>688</v>
       </c>
       <c r="B689" s="12" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="C689" s="12"/>
       <c r="D689" s="12" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="E689" s="2"/>
     </row>
@@ -13937,13 +14258,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="12" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="C691" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D691" s="12" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="E691" s="2"/>
     </row>
@@ -13952,11 +14273,11 @@
         <v>691</v>
       </c>
       <c r="B692" s="13" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="C692" s="13"/>
       <c r="D692" s="13" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="E692" s="2"/>
     </row>
@@ -13983,13 +14304,13 @@
         <v>694</v>
       </c>
       <c r="B695" s="12" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="C695" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D695" s="12" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="E695" s="2"/>
     </row>
@@ -13998,13 +14319,13 @@
         <v>695</v>
       </c>
       <c r="B696" s="13" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="C696" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D696" s="13" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="E696" s="2"/>
     </row>
@@ -14013,13 +14334,13 @@
         <v>696</v>
       </c>
       <c r="B697" s="12" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="C697" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D697" s="12" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="E697" s="2"/>
     </row>
@@ -14028,11 +14349,11 @@
         <v>697</v>
       </c>
       <c r="B698" s="13" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="C698" s="13"/>
       <c r="D698" s="13" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="E698" s="2"/>
     </row>
@@ -14041,13 +14362,13 @@
         <v>698</v>
       </c>
       <c r="B699" s="12" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="C699" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D699" s="12" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="E699" s="2"/>
     </row>
@@ -14056,11 +14377,11 @@
         <v>699</v>
       </c>
       <c r="B700" s="13" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="C700" s="13"/>
       <c r="D700" s="13" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="E700" s="2"/>
     </row>
@@ -14069,11 +14390,11 @@
         <v>700</v>
       </c>
       <c r="B701" s="12" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="C701" s="12"/>
       <c r="D701" s="12" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="E701" s="2"/>
     </row>
@@ -14082,11 +14403,11 @@
         <v>701</v>
       </c>
       <c r="B702" s="13" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="C702" s="13"/>
       <c r="D702" s="13" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="E702" s="2"/>
     </row>
@@ -14095,11 +14416,11 @@
         <v>702</v>
       </c>
       <c r="B703" s="12" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="C703" s="12"/>
       <c r="D703" s="12" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="E703" s="2"/>
     </row>
@@ -14108,11 +14429,11 @@
         <v>703</v>
       </c>
       <c r="B704" s="13" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="C704" s="13"/>
       <c r="D704" s="13" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="E704" s="2"/>
     </row>
@@ -14121,13 +14442,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="12" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="C705" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D705" s="12" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="E705" s="2"/>
     </row>
@@ -14136,11 +14457,11 @@
         <v>705</v>
       </c>
       <c r="B706" s="13" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="C706" s="13"/>
       <c r="D706" s="13" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="E706" s="2"/>
     </row>
@@ -14149,13 +14470,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="12" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="C707" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D707" s="12" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -14163,13 +14484,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="13" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="C708" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D708" s="13" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -14177,13 +14498,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="12" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="C709" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D709" s="12" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -14191,13 +14512,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="13" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="C710" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D710" s="13" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -14205,13 +14526,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="12" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="C711" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D711" s="12" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -14219,11 +14540,11 @@
         <v>711</v>
       </c>
       <c r="B712" s="13" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="C712" s="13"/>
       <c r="D712" s="13" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -14231,13 +14552,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="12" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="C713" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D713" s="12" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -14245,13 +14566,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="13" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="C714" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D714" s="13" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -14259,13 +14580,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="12" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="C715" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D715" s="12" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -14273,13 +14594,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="13" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="C716" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D716" s="13" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -14287,13 +14608,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="12" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="C717" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D717" s="12" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -14301,13 +14622,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="13" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="C718" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D718" s="13" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -14315,13 +14636,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="12" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="C719" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D719" s="12" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -14329,13 +14650,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="13" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="C720" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D720" s="13" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -14343,13 +14664,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="12" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
       <c r="C721" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D721" s="12" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -14357,11 +14678,11 @@
         <v>721</v>
       </c>
       <c r="B722" s="13" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="C722" s="13"/>
       <c r="D722" s="13" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -14369,13 +14690,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="12" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="C723" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D723" s="12" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -14383,13 +14704,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="13" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="C724" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D724" s="13" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -14397,13 +14718,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="12" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="C725" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D725" s="12" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -14411,13 +14732,13 @@
         <v>725</v>
       </c>
       <c r="B726" s="13" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="C726" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D726" s="13" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -14425,13 +14746,13 @@
         <v>726</v>
       </c>
       <c r="B727" s="12" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="C727" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D727" s="12" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -14439,13 +14760,13 @@
         <v>727</v>
       </c>
       <c r="B728" s="13" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="C728" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D728" s="13" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -14453,13 +14774,13 @@
         <v>728</v>
       </c>
       <c r="B729" s="12" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="C729" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D729" s="12" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -14467,13 +14788,13 @@
         <v>729</v>
       </c>
       <c r="B730" s="13" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
       <c r="C730" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D730" s="13" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -14481,13 +14802,13 @@
         <v>730</v>
       </c>
       <c r="B731" s="12" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="C731" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D731" s="12" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -14495,11 +14816,11 @@
         <v>731</v>
       </c>
       <c r="B732" s="13" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="C732" s="13"/>
       <c r="D732" s="13" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -14507,13 +14828,13 @@
         <v>732</v>
       </c>
       <c r="B733" s="12" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="C733" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D733" s="12" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -14521,13 +14842,13 @@
         <v>733</v>
       </c>
       <c r="B734" s="13" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="C734" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D734" s="13" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -14535,11 +14856,11 @@
         <v>734</v>
       </c>
       <c r="B735" s="12" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="C735" s="12"/>
       <c r="D735" s="12" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -14547,13 +14868,13 @@
         <v>735</v>
       </c>
       <c r="B736" s="13" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="C736" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D736" s="13" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -14561,13 +14882,13 @@
         <v>736</v>
       </c>
       <c r="B737" s="12" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="C737" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D737" s="12" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -14575,11 +14896,11 @@
         <v>737</v>
       </c>
       <c r="B738" s="13" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="C738" s="13"/>
       <c r="D738" s="13" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -14587,13 +14908,13 @@
         <v>738</v>
       </c>
       <c r="B739" s="12" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="C739" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D739" s="12" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -14601,13 +14922,13 @@
         <v>739</v>
       </c>
       <c r="B740" s="13" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="C740" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D740" s="13" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -14615,11 +14936,11 @@
         <v>740</v>
       </c>
       <c r="B741" s="12" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="C741" s="12"/>
       <c r="D741" s="12" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -14627,13 +14948,13 @@
         <v>741</v>
       </c>
       <c r="B742" s="13" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="C742" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D742" s="13" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -14641,13 +14962,13 @@
         <v>742</v>
       </c>
       <c r="B743" s="12" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="C743" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D743" s="12" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -14655,11 +14976,11 @@
         <v>743</v>
       </c>
       <c r="B744" s="13" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="C744" s="13"/>
       <c r="D744" s="13" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -14667,11 +14988,11 @@
         <v>744</v>
       </c>
       <c r="B745" s="12" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
       <c r="C745" s="12"/>
       <c r="D745" s="12" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -14687,11 +15008,11 @@
         <v>746</v>
       </c>
       <c r="B747" s="12" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="C747" s="12"/>
       <c r="D747" s="12" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -14699,11 +15020,11 @@
         <v>747</v>
       </c>
       <c r="B748" s="13" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="C748" s="13"/>
       <c r="D748" s="13" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -14711,11 +15032,11 @@
         <v>748</v>
       </c>
       <c r="B749" s="12" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="C749" s="12"/>
       <c r="D749" s="12" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -14723,13 +15044,13 @@
         <v>749</v>
       </c>
       <c r="B750" s="13" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="C750" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D750" s="13" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -14737,11 +15058,11 @@
         <v>750</v>
       </c>
       <c r="B751" s="12" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="C751" s="12"/>
       <c r="D751" s="12" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -14749,13 +15070,13 @@
         <v>751</v>
       </c>
       <c r="B752" s="13" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="C752" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D752" s="13" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -14763,13 +15084,13 @@
         <v>752</v>
       </c>
       <c r="B753" s="12" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="C753" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D753" s="12" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -14777,13 +15098,13 @@
         <v>753</v>
       </c>
       <c r="B754" s="13" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
       <c r="C754" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D754" s="13" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -14791,13 +15112,13 @@
         <v>754</v>
       </c>
       <c r="B755" s="12" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="C755" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D755" s="12" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -14805,13 +15126,13 @@
         <v>755</v>
       </c>
       <c r="B756" s="13" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="C756" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D756" s="13" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -14819,11 +15140,11 @@
         <v>756</v>
       </c>
       <c r="B757" s="12" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="C757" s="12"/>
       <c r="D757" s="12" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -14831,13 +15152,13 @@
         <v>757</v>
       </c>
       <c r="B758" s="13" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="C758" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D758" s="13" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -14845,11 +15166,11 @@
         <v>758</v>
       </c>
       <c r="B759" s="12" t="s">
-        <v>1236</v>
+        <v>1242</v>
       </c>
       <c r="C759" s="12"/>
       <c r="D759" s="12" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -14857,13 +15178,13 @@
         <v>759</v>
       </c>
       <c r="B760" s="13" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
       <c r="C760" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D760" s="13" t="s">
-        <v>1239</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -14871,11 +15192,11 @@
         <v>760</v>
       </c>
       <c r="B761" s="12" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
       <c r="C761" s="12"/>
       <c r="D761" s="12" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -14883,13 +15204,13 @@
         <v>761</v>
       </c>
       <c r="B762" s="13" t="s">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="C762" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D762" s="13" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -14897,11 +15218,11 @@
         <v>762</v>
       </c>
       <c r="B763" s="12" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="C763" s="12"/>
       <c r="D763" s="12" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -14909,11 +15230,11 @@
         <v>763</v>
       </c>
       <c r="B764" s="13" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="C764" s="13"/>
       <c r="D764" s="13" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -14921,13 +15242,13 @@
         <v>764</v>
       </c>
       <c r="B765" s="12" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="C765" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D765" s="12" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -14935,13 +15256,13 @@
         <v>765</v>
       </c>
       <c r="B766" s="13" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="C766" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D766" s="13" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -14949,11 +15270,11 @@
         <v>766</v>
       </c>
       <c r="B767" s="12" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="C767" s="12"/>
       <c r="D767" s="12" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -14961,11 +15282,11 @@
         <v>767</v>
       </c>
       <c r="B768" s="13" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="C768" s="13"/>
       <c r="D768" s="13" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -14973,13 +15294,13 @@
         <v>768</v>
       </c>
       <c r="B769" s="12" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="C769" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D769" s="12" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -14987,11 +15308,11 @@
         <v>769</v>
       </c>
       <c r="B770" s="13" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
       <c r="C770" s="13"/>
       <c r="D770" s="13" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -14999,11 +15320,11 @@
         <v>770</v>
       </c>
       <c r="B771" s="12" t="s">
-        <v>1260</v>
+        <v>1266</v>
       </c>
       <c r="C771" s="12"/>
       <c r="D771" s="12" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -15011,13 +15332,13 @@
         <v>771</v>
       </c>
       <c r="B772" s="13" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="C772" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D772" s="13" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -15025,13 +15346,13 @@
         <v>772</v>
       </c>
       <c r="B773" s="12" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="C773" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D773" s="12" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -15039,13 +15360,13 @@
         <v>773</v>
       </c>
       <c r="B774" s="13" t="s">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="C774" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D774" s="13" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -15053,11 +15374,11 @@
         <v>774</v>
       </c>
       <c r="B775" s="12" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C775" s="12"/>
       <c r="D775" s="12" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -15065,11 +15386,11 @@
         <v>775</v>
       </c>
       <c r="B776" s="13" t="s">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="C776" s="13"/>
       <c r="D776" s="13" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -15077,11 +15398,11 @@
         <v>776</v>
       </c>
       <c r="B777" s="12" t="s">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="C777" s="12"/>
       <c r="D777" s="12" t="s">
-        <v>1273</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -15089,13 +15410,13 @@
         <v>777</v>
       </c>
       <c r="B778" s="13" t="s">
-        <v>1274</v>
+        <v>1280</v>
       </c>
       <c r="C778" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D778" s="13" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -15103,11 +15424,11 @@
         <v>778</v>
       </c>
       <c r="B779" s="12" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="C779" s="12"/>
       <c r="D779" s="12" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -15115,13 +15436,13 @@
         <v>779</v>
       </c>
       <c r="B780" s="13" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="C780" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D780" s="13" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -15129,13 +15450,13 @@
         <v>780</v>
       </c>
       <c r="B781" s="12" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="C781" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D781" s="12" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -15143,13 +15464,13 @@
         <v>781</v>
       </c>
       <c r="B782" s="13" t="s">
-        <v>1282</v>
+        <v>1288</v>
       </c>
       <c r="C782" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D782" s="13" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -15157,11 +15478,11 @@
         <v>782</v>
       </c>
       <c r="B783" s="12" t="s">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="C783" s="12"/>
       <c r="D783" s="12" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -15169,11 +15490,11 @@
         <v>783</v>
       </c>
       <c r="B784" s="13" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="C784" s="13"/>
       <c r="D784" s="13" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -15181,13 +15502,13 @@
         <v>784</v>
       </c>
       <c r="B785" s="12" t="s">
-        <v>1288</v>
+        <v>1294</v>
       </c>
       <c r="C785" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D785" s="12" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -15195,11 +15516,11 @@
         <v>785</v>
       </c>
       <c r="B786" s="13" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="C786" s="13"/>
       <c r="D786" s="13" t="s">
-        <v>1291</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -15207,13 +15528,13 @@
         <v>786</v>
       </c>
       <c r="B787" s="12" t="s">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="C787" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D787" s="12" t="s">
-        <v>1293</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -15221,11 +15542,11 @@
         <v>787</v>
       </c>
       <c r="B788" s="13" t="s">
-        <v>1294</v>
+        <v>1300</v>
       </c>
       <c r="C788" s="13"/>
       <c r="D788" s="13" t="s">
-        <v>1295</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -15233,11 +15554,11 @@
         <v>788</v>
       </c>
       <c r="B789" s="12" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="C789" s="12"/>
       <c r="D789" s="12" t="s">
-        <v>1297</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -15245,13 +15566,13 @@
         <v>789</v>
       </c>
       <c r="B790" s="13" t="s">
-        <v>1298</v>
+        <v>1304</v>
       </c>
       <c r="C790" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D790" s="13" t="s">
-        <v>1299</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -15315,11 +15636,11 @@
         <v>797</v>
       </c>
       <c r="B798" s="13" t="s">
-        <v>1300</v>
+        <v>1306</v>
       </c>
       <c r="C798" s="13"/>
       <c r="D798" s="13" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -15327,13 +15648,13 @@
         <v>798</v>
       </c>
       <c r="B799" s="12" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="C799" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D799" s="12" t="s">
-        <v>1303</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -15341,13 +15662,13 @@
         <v>799</v>
       </c>
       <c r="B800" s="13" t="s">
-        <v>1304</v>
+        <v>1310</v>
       </c>
       <c r="C800" s="13" t="s">
         <v>487</v>
       </c>
       <c r="D800" s="13" t="s">
-        <v>1305</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -15355,13 +15676,13 @@
         <v>800</v>
       </c>
       <c r="B801" s="12" t="s">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="C801" s="12">
         <v>12</v>
       </c>
       <c r="D801" s="12" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -15369,13 +15690,13 @@
         <v>801</v>
       </c>
       <c r="B802" s="13" t="s">
-        <v>1308</v>
+        <v>1314</v>
       </c>
       <c r="C802" s="13">
         <v>17</v>
       </c>
       <c r="D802" s="13" t="s">
-        <v>1309</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -15383,11 +15704,11 @@
         <v>802</v>
       </c>
       <c r="B803" s="12" t="s">
-        <v>1310</v>
+        <v>1316</v>
       </c>
       <c r="C803" s="12"/>
       <c r="D803" s="12" t="s">
-        <v>1311</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -15395,11 +15716,11 @@
         <v>803</v>
       </c>
       <c r="B804" s="13" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="C804" s="13"/>
       <c r="D804" s="13" t="s">
-        <v>1313</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -15407,11 +15728,11 @@
         <v>804</v>
       </c>
       <c r="B805" s="12" t="s">
-        <v>1314</v>
+        <v>1320</v>
       </c>
       <c r="C805" s="12"/>
       <c r="D805" s="12" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -15419,11 +15740,11 @@
         <v>805</v>
       </c>
       <c r="B806" s="13" t="s">
-        <v>1316</v>
+        <v>1322</v>
       </c>
       <c r="C806" s="13"/>
       <c r="D806" s="13" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -15431,11 +15752,11 @@
         <v>806</v>
       </c>
       <c r="B807" s="12" t="s">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="C807" s="12"/>
       <c r="D807" s="12" t="s">
-        <v>1319</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -15443,11 +15764,11 @@
         <v>807</v>
       </c>
       <c r="B808" s="13" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="C808" s="13"/>
       <c r="D808" s="13" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -15495,11 +15816,11 @@
         <v>813</v>
       </c>
       <c r="B814" s="13" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
       <c r="C814" s="13"/>
       <c r="D814" s="13" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -15547,11 +15868,11 @@
         <v>819</v>
       </c>
       <c r="B820" s="13" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="C820" s="13"/>
       <c r="D820" s="13" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -15559,11 +15880,11 @@
         <v>820</v>
       </c>
       <c r="B821" s="12" t="s">
-        <v>1326</v>
+        <v>1332</v>
       </c>
       <c r="C821" s="12"/>
       <c r="D821" s="12" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -15571,11 +15892,11 @@
         <v>821</v>
       </c>
       <c r="B822" s="13" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
       <c r="C822" s="13"/>
       <c r="D822" s="13" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -15583,11 +15904,11 @@
         <v>822</v>
       </c>
       <c r="B823" s="12" t="s">
-        <v>1330</v>
+        <v>1336</v>
       </c>
       <c r="C823" s="12"/>
       <c r="D823" s="12" t="s">
-        <v>1331</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -15595,11 +15916,11 @@
         <v>823</v>
       </c>
       <c r="B824" s="13" t="s">
-        <v>1332</v>
+        <v>1338</v>
       </c>
       <c r="C824" s="13"/>
       <c r="D824" s="13" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -15607,11 +15928,11 @@
         <v>824</v>
       </c>
       <c r="B825" s="12" t="s">
-        <v>1334</v>
+        <v>1340</v>
       </c>
       <c r="C825" s="12"/>
       <c r="D825" s="12" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -15619,11 +15940,11 @@
         <v>825</v>
       </c>
       <c r="B826" s="13" t="s">
-        <v>1336</v>
+        <v>1342</v>
       </c>
       <c r="C826" s="13"/>
       <c r="D826" s="13" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -15631,11 +15952,11 @@
         <v>826</v>
       </c>
       <c r="B827" s="12" t="s">
-        <v>1338</v>
+        <v>1344</v>
       </c>
       <c r="C827" s="12"/>
       <c r="D827" s="12" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -15643,11 +15964,11 @@
         <v>827</v>
       </c>
       <c r="B828" s="13" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="C828" s="13"/>
       <c r="D828" s="13" t="s">
-        <v>1341</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -15655,11 +15976,11 @@
         <v>828</v>
       </c>
       <c r="B829" s="12" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="C829" s="12"/>
       <c r="D829" s="12" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -15667,11 +15988,11 @@
         <v>829</v>
       </c>
       <c r="B830" s="13" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="C830" s="13"/>
       <c r="D830" s="13" t="s">
-        <v>1344</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -15679,11 +16000,11 @@
         <v>830</v>
       </c>
       <c r="B831" s="12" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="C831" s="12"/>
       <c r="D831" s="12" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -15691,11 +16012,11 @@
         <v>831</v>
       </c>
       <c r="B832" s="13" t="s">
-        <v>1346</v>
+        <v>1352</v>
       </c>
       <c r="C832" s="13"/>
       <c r="D832" s="13" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -15703,11 +16024,11 @@
         <v>832</v>
       </c>
       <c r="B833" s="12" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
       <c r="C833" s="12"/>
       <c r="D833" s="12" t="s">
-        <v>1349</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -15715,11 +16036,11 @@
         <v>833</v>
       </c>
       <c r="B834" s="13" t="s">
-        <v>1350</v>
+        <v>1356</v>
       </c>
       <c r="C834" s="13"/>
       <c r="D834" s="13" t="s">
-        <v>1351</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -15727,11 +16048,11 @@
         <v>834</v>
       </c>
       <c r="B835" s="12" t="s">
-        <v>1352</v>
+        <v>1358</v>
       </c>
       <c r="C835" s="12"/>
       <c r="D835" s="12" t="s">
-        <v>1353</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -15739,11 +16060,11 @@
         <v>835</v>
       </c>
       <c r="B836" s="13" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="C836" s="13"/>
       <c r="D836" s="13" t="s">
-        <v>1355</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="837" spans="1:4">
@@ -15751,11 +16072,11 @@
         <v>836</v>
       </c>
       <c r="B837" s="12" t="s">
-        <v>1356</v>
+        <v>1362</v>
       </c>
       <c r="C837" s="12"/>
       <c r="D837" s="12" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -15763,11 +16084,11 @@
         <v>837</v>
       </c>
       <c r="B838" s="13" t="s">
-        <v>1358</v>
+        <v>1364</v>
       </c>
       <c r="C838" s="13"/>
       <c r="D838" s="13" t="s">
-        <v>1359</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -15775,11 +16096,11 @@
         <v>838</v>
       </c>
       <c r="B839" s="12" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
       <c r="C839" s="12"/>
       <c r="D839" s="12" t="s">
-        <v>1361</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -15787,11 +16108,11 @@
         <v>839</v>
       </c>
       <c r="B840" s="13" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
       <c r="C840" s="13"/>
       <c r="D840" s="13" t="s">
-        <v>1363</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -15799,11 +16120,11 @@
         <v>840</v>
       </c>
       <c r="B841" s="12" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="C841" s="12"/>
       <c r="D841" s="12" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -15811,11 +16132,11 @@
         <v>841</v>
       </c>
       <c r="B842" s="13" t="s">
-        <v>1366</v>
+        <v>1372</v>
       </c>
       <c r="C842" s="13"/>
       <c r="D842" s="13" t="s">
-        <v>1367</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -15823,11 +16144,11 @@
         <v>842</v>
       </c>
       <c r="B843" s="12" t="s">
-        <v>1368</v>
+        <v>1374</v>
       </c>
       <c r="C843" s="12"/>
       <c r="D843" s="12" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -15835,11 +16156,11 @@
         <v>843</v>
       </c>
       <c r="B844" s="13" t="s">
-        <v>1370</v>
+        <v>1376</v>
       </c>
       <c r="C844" s="13"/>
       <c r="D844" s="13" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -15847,11 +16168,11 @@
         <v>844</v>
       </c>
       <c r="B845" s="12" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
       <c r="C845" s="12"/>
       <c r="D845" s="12" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -15859,11 +16180,11 @@
         <v>845</v>
       </c>
       <c r="B846" s="13" t="s">
-        <v>1374</v>
+        <v>1380</v>
       </c>
       <c r="C846" s="13"/>
       <c r="D846" s="13" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -15871,11 +16192,11 @@
         <v>846</v>
       </c>
       <c r="B847" s="12" t="s">
-        <v>1376</v>
+        <v>1382</v>
       </c>
       <c r="C847" s="12"/>
       <c r="D847" s="12" t="s">
-        <v>1377</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -15883,11 +16204,11 @@
         <v>847</v>
       </c>
       <c r="B848" s="13" t="s">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="C848" s="13"/>
       <c r="D848" s="13" t="s">
-        <v>1379</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -15895,11 +16216,11 @@
         <v>848</v>
       </c>
       <c r="B849" s="12" t="s">
-        <v>1380</v>
+        <v>1386</v>
       </c>
       <c r="C849" s="12"/>
       <c r="D849" s="12" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -15907,11 +16228,11 @@
         <v>849</v>
       </c>
       <c r="B850" s="13" t="s">
-        <v>1381</v>
+        <v>1387</v>
       </c>
       <c r="C850" s="13"/>
       <c r="D850" s="13" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -15919,11 +16240,11 @@
         <v>850</v>
       </c>
       <c r="B851" s="12" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
       <c r="C851" s="12"/>
       <c r="D851" s="12" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -15931,11 +16252,11 @@
         <v>851</v>
       </c>
       <c r="B852" s="13" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="C852" s="13"/>
       <c r="D852" s="13" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -15943,11 +16264,11 @@
         <v>852</v>
       </c>
       <c r="B853" s="12" t="s">
-        <v>1386</v>
+        <v>1392</v>
       </c>
       <c r="C853" s="12"/>
       <c r="D853" s="12" t="s">
-        <v>1387</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -15955,12 +16276,1012 @@
         <v>853</v>
       </c>
       <c r="B854" s="13" t="s">
-        <v>1388</v>
+        <v>1394</v>
       </c>
       <c r="C854" s="13"/>
       <c r="D854" s="13" t="s">
-        <v>1089</v>
-      </c>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4">
+      <c r="A855" s="12">
+        <v>854</v>
+      </c>
+      <c r="B855" s="12" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C855" s="12"/>
+      <c r="D855" s="12" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4">
+      <c r="A856" s="13">
+        <v>855</v>
+      </c>
+      <c r="B856" s="13" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C856" s="13"/>
+      <c r="D856" s="12" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4">
+      <c r="A857" s="12">
+        <v>856</v>
+      </c>
+      <c r="B857" s="12" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C857" s="12"/>
+      <c r="D857" s="12" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4">
+      <c r="A858" s="13">
+        <v>857</v>
+      </c>
+      <c r="B858" s="13" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C858" s="13"/>
+      <c r="D858" s="12" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4">
+      <c r="A859" s="12">
+        <v>858</v>
+      </c>
+      <c r="B859" s="12"/>
+      <c r="C859" s="12"/>
+      <c r="D859" s="12"/>
+    </row>
+    <row r="860" spans="1:4">
+      <c r="A860" s="13">
+        <v>859</v>
+      </c>
+      <c r="B860" s="13"/>
+      <c r="C860" s="13"/>
+      <c r="D860" s="13"/>
+    </row>
+    <row r="861" spans="1:4">
+      <c r="A861" s="12">
+        <v>860</v>
+      </c>
+      <c r="B861" s="12"/>
+      <c r="C861" s="12"/>
+      <c r="D861" s="12"/>
+    </row>
+    <row r="862" spans="1:4">
+      <c r="A862" s="13">
+        <v>861</v>
+      </c>
+      <c r="B862" s="13"/>
+      <c r="C862" s="13"/>
+      <c r="D862" s="13"/>
+    </row>
+    <row r="863" spans="1:4">
+      <c r="A863" s="12">
+        <v>862</v>
+      </c>
+      <c r="B863" s="12" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C863" s="12"/>
+      <c r="D863" s="12" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4">
+      <c r="A864" s="13">
+        <v>863</v>
+      </c>
+      <c r="B864" s="13" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C864" s="13"/>
+      <c r="D864" s="13" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4">
+      <c r="A865" s="12">
+        <v>864</v>
+      </c>
+      <c r="B865" s="12"/>
+      <c r="C865" s="12"/>
+      <c r="D865" s="12"/>
+    </row>
+    <row r="866" spans="1:4">
+      <c r="A866" s="13">
+        <v>865</v>
+      </c>
+      <c r="B866" s="13"/>
+      <c r="C866" s="13"/>
+      <c r="D866" s="13"/>
+    </row>
+    <row r="867" spans="1:4">
+      <c r="A867" s="12">
+        <v>866</v>
+      </c>
+      <c r="B867" s="12" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C867" s="12"/>
+      <c r="D867" s="12" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4">
+      <c r="A868" s="13">
+        <v>867</v>
+      </c>
+      <c r="B868" s="13" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C868" s="13"/>
+      <c r="D868" s="13" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4">
+      <c r="A869" s="12">
+        <v>868</v>
+      </c>
+      <c r="B869" s="12"/>
+      <c r="C869" s="12"/>
+      <c r="D869" s="12"/>
+    </row>
+    <row r="870" spans="1:4">
+      <c r="A870" s="13">
+        <v>869</v>
+      </c>
+      <c r="B870" s="13"/>
+      <c r="C870" s="13"/>
+      <c r="D870" s="13"/>
+    </row>
+    <row r="871" spans="1:4">
+      <c r="A871" s="12">
+        <v>870</v>
+      </c>
+      <c r="B871" s="12"/>
+      <c r="C871" s="12"/>
+      <c r="D871" s="12"/>
+    </row>
+    <row r="872" spans="1:4">
+      <c r="A872" s="13">
+        <v>871</v>
+      </c>
+      <c r="B872" s="13"/>
+      <c r="C872" s="13"/>
+      <c r="D872" s="13"/>
+    </row>
+    <row r="873" spans="1:4">
+      <c r="A873" s="12">
+        <v>872</v>
+      </c>
+      <c r="B873" s="12" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C873" s="12"/>
+      <c r="D873" s="12" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4">
+      <c r="A874" s="13">
+        <v>873</v>
+      </c>
+      <c r="B874" s="13"/>
+      <c r="C874" s="13"/>
+      <c r="D874" s="13"/>
+    </row>
+    <row r="875" spans="1:4">
+      <c r="A875" s="12">
+        <v>874</v>
+      </c>
+      <c r="B875" s="12"/>
+      <c r="C875" s="12"/>
+      <c r="D875" s="12"/>
+    </row>
+    <row r="876" spans="1:4">
+      <c r="A876" s="13">
+        <v>875</v>
+      </c>
+      <c r="B876" s="13" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C876" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D876" s="13" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4">
+      <c r="A877" s="12">
+        <v>876</v>
+      </c>
+      <c r="B877" s="12" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C877" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D877" s="12" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4">
+      <c r="A878" s="13">
+        <v>877</v>
+      </c>
+      <c r="B878" s="13" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C878" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D878" s="13" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4">
+      <c r="A879" s="12">
+        <v>878</v>
+      </c>
+      <c r="B879" s="12" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C879" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D879" s="12" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4">
+      <c r="A880" s="13">
+        <v>879</v>
+      </c>
+      <c r="B880" s="13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C880" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D880" s="13" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4">
+      <c r="A881" s="12">
+        <v>880</v>
+      </c>
+      <c r="B881" s="12" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C881" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D881" s="12" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4">
+      <c r="A882" s="13">
+        <v>881</v>
+      </c>
+      <c r="B882" s="13" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C882" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D882" s="13" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4">
+      <c r="A883" s="12">
+        <v>882</v>
+      </c>
+      <c r="B883" s="12" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C883" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D883" s="12" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4">
+      <c r="A884" s="13">
+        <v>883</v>
+      </c>
+      <c r="B884" s="13" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C884" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D884" s="13" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4">
+      <c r="A885" s="12">
+        <v>884</v>
+      </c>
+      <c r="B885" s="12" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C885" s="12"/>
+      <c r="D885" s="12"/>
+    </row>
+    <row r="886" spans="1:4">
+      <c r="A886" s="13">
+        <v>885</v>
+      </c>
+      <c r="B886" s="13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C886" s="13"/>
+      <c r="D886" s="13"/>
+    </row>
+    <row r="887" spans="1:4">
+      <c r="A887" s="12">
+        <v>886</v>
+      </c>
+      <c r="B887" s="12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C887" s="12"/>
+      <c r="D887" s="12"/>
+    </row>
+    <row r="888" spans="1:4">
+      <c r="A888" s="13">
+        <v>887</v>
+      </c>
+      <c r="B888" s="13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C888" s="13"/>
+      <c r="D888" s="13"/>
+    </row>
+    <row r="889" spans="1:4">
+      <c r="A889" s="12">
+        <v>888</v>
+      </c>
+      <c r="B889" s="12" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C889" s="12"/>
+      <c r="D889" s="12"/>
+    </row>
+    <row r="890" spans="1:4">
+      <c r="A890" s="13">
+        <v>889</v>
+      </c>
+      <c r="B890" s="13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C890" s="13"/>
+      <c r="D890" s="13"/>
+    </row>
+    <row r="891" spans="1:4">
+      <c r="A891" s="12">
+        <v>890</v>
+      </c>
+      <c r="B891" s="12" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C891" s="12"/>
+      <c r="D891" s="12"/>
+    </row>
+    <row r="892" spans="1:4">
+      <c r="A892" s="13">
+        <v>891</v>
+      </c>
+      <c r="B892" s="13" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C892" s="13"/>
+      <c r="D892" s="13"/>
+    </row>
+    <row r="893" spans="1:4">
+      <c r="A893" s="12">
+        <v>892</v>
+      </c>
+      <c r="B893" s="12" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C893" s="12"/>
+      <c r="D893" s="12"/>
+    </row>
+    <row r="894" spans="1:4">
+      <c r="A894" s="13">
+        <v>893</v>
+      </c>
+      <c r="B894" s="13" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C894" s="13"/>
+      <c r="D894" s="13"/>
+    </row>
+    <row r="895" spans="1:4">
+      <c r="A895" s="12">
+        <v>894</v>
+      </c>
+      <c r="B895" s="12" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C895" s="12"/>
+      <c r="D895" s="12"/>
+    </row>
+    <row r="896" spans="1:4">
+      <c r="A896" s="13">
+        <v>895</v>
+      </c>
+      <c r="B896" s="13" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C896" s="13"/>
+      <c r="D896" s="13"/>
+    </row>
+    <row r="897" spans="1:4">
+      <c r="A897" s="12">
+        <v>896</v>
+      </c>
+      <c r="B897" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C897" s="12"/>
+      <c r="D897" s="12"/>
+    </row>
+    <row r="898" spans="1:4">
+      <c r="A898" s="13">
+        <v>897</v>
+      </c>
+      <c r="B898" s="13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C898" s="13"/>
+      <c r="D898" s="13"/>
+    </row>
+    <row r="899" spans="1:4">
+      <c r="A899" s="12">
+        <v>898</v>
+      </c>
+      <c r="B899" s="12" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C899" s="12"/>
+      <c r="D899" s="12"/>
+    </row>
+    <row r="900" spans="1:4">
+      <c r="A900" s="13">
+        <v>899</v>
+      </c>
+      <c r="B900" s="13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C900" s="13"/>
+      <c r="D900" s="13"/>
+    </row>
+    <row r="901" spans="1:4">
+      <c r="A901" s="12">
+        <v>900</v>
+      </c>
+      <c r="B901" s="12" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C901" s="12"/>
+      <c r="D901" s="12"/>
+    </row>
+    <row r="902" spans="1:4">
+      <c r="A902" s="13">
+        <v>901</v>
+      </c>
+      <c r="B902" s="13" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C902" s="13"/>
+      <c r="D902" s="13"/>
+    </row>
+    <row r="903" spans="1:4">
+      <c r="A903" s="12">
+        <v>902</v>
+      </c>
+      <c r="B903" s="12" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C903" s="12"/>
+      <c r="D903" s="12"/>
+    </row>
+    <row r="904" spans="1:4">
+      <c r="A904" s="13">
+        <v>903</v>
+      </c>
+      <c r="B904" s="13" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C904" s="13"/>
+      <c r="D904" s="13"/>
+    </row>
+    <row r="905" spans="1:4">
+      <c r="A905" s="12">
+        <v>904</v>
+      </c>
+      <c r="B905" s="12" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C905" s="12"/>
+      <c r="D905" s="12"/>
+    </row>
+    <row r="906" spans="1:4">
+      <c r="A906" s="13">
+        <v>905</v>
+      </c>
+      <c r="B906" s="13" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C906" s="13"/>
+      <c r="D906" s="13"/>
+    </row>
+    <row r="907" spans="1:4">
+      <c r="A907" s="12">
+        <v>906</v>
+      </c>
+      <c r="B907" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C907" s="12"/>
+      <c r="D907" s="12"/>
+    </row>
+    <row r="908" spans="1:4">
+      <c r="A908" s="13">
+        <v>907</v>
+      </c>
+      <c r="B908" s="13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C908" s="13"/>
+      <c r="D908" s="13"/>
+    </row>
+    <row r="909" spans="1:4">
+      <c r="A909" s="12">
+        <v>908</v>
+      </c>
+      <c r="B909" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C909" s="12"/>
+      <c r="D909" s="12"/>
+    </row>
+    <row r="910" spans="1:4">
+      <c r="A910" s="13">
+        <v>909</v>
+      </c>
+      <c r="B910" s="13" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C910" s="13"/>
+      <c r="D910" s="13"/>
+    </row>
+    <row r="911" spans="1:4">
+      <c r="A911" s="12">
+        <v>910</v>
+      </c>
+      <c r="B911" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C911" s="12"/>
+      <c r="D911" s="12"/>
+    </row>
+    <row r="912" spans="1:4">
+      <c r="A912" s="13">
+        <v>911</v>
+      </c>
+      <c r="B912" s="13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C912" s="13"/>
+      <c r="D912" s="13"/>
+    </row>
+    <row r="913" spans="1:4">
+      <c r="A913" s="12">
+        <v>912</v>
+      </c>
+      <c r="B913" s="12" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C913" s="12"/>
+      <c r="D913" s="12"/>
+    </row>
+    <row r="914" spans="1:4">
+      <c r="A914" s="13">
+        <v>913</v>
+      </c>
+      <c r="B914" s="13" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C914" s="13"/>
+      <c r="D914" s="13"/>
+    </row>
+    <row r="915" spans="1:4">
+      <c r="A915" s="12">
+        <v>914</v>
+      </c>
+      <c r="B915" s="12" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C915" s="12"/>
+      <c r="D915" s="12"/>
+    </row>
+    <row r="916" spans="1:4">
+      <c r="A916" s="13">
+        <v>915</v>
+      </c>
+      <c r="B916" s="13" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C916" s="13"/>
+      <c r="D916" s="13"/>
+    </row>
+    <row r="917" spans="1:4">
+      <c r="A917" s="12">
+        <v>916</v>
+      </c>
+      <c r="B917" s="12" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C917" s="12"/>
+      <c r="D917" s="12"/>
+    </row>
+    <row r="918" spans="1:4">
+      <c r="A918" s="13">
+        <v>917</v>
+      </c>
+      <c r="B918" s="13" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C918" s="13"/>
+      <c r="D918" s="13"/>
+    </row>
+    <row r="919" spans="1:4">
+      <c r="A919" s="12">
+        <v>918</v>
+      </c>
+      <c r="B919" s="12" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C919" s="12"/>
+      <c r="D919" s="12"/>
+    </row>
+    <row r="920" spans="1:4">
+      <c r="A920" s="13">
+        <v>919</v>
+      </c>
+      <c r="B920" s="13" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C920" s="13"/>
+      <c r="D920" s="13"/>
+    </row>
+    <row r="921" spans="1:4">
+      <c r="A921" s="12">
+        <v>920</v>
+      </c>
+      <c r="B921" s="12" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C921" s="12"/>
+      <c r="D921" s="12"/>
+    </row>
+    <row r="922" spans="1:4">
+      <c r="A922" s="13">
+        <v>921</v>
+      </c>
+      <c r="B922" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C922" s="13"/>
+      <c r="D922" s="13"/>
+    </row>
+    <row r="923" spans="1:4">
+      <c r="A923" s="12">
+        <v>922</v>
+      </c>
+      <c r="B923" s="12" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C923" s="12"/>
+      <c r="D923" s="12"/>
+    </row>
+    <row r="924" spans="1:4">
+      <c r="A924" s="13">
+        <v>923</v>
+      </c>
+      <c r="B924" s="13" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C924" s="13"/>
+      <c r="D924" s="13"/>
+    </row>
+    <row r="925" spans="1:4">
+      <c r="A925" s="12">
+        <v>924</v>
+      </c>
+      <c r="B925" s="12" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C925" s="12"/>
+      <c r="D925" s="12"/>
+    </row>
+    <row r="926" spans="1:4">
+      <c r="A926" s="13">
+        <v>925</v>
+      </c>
+      <c r="B926" s="13" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C926" s="13"/>
+      <c r="D926" s="13"/>
+    </row>
+    <row r="927" spans="1:4">
+      <c r="A927" s="12">
+        <v>926</v>
+      </c>
+      <c r="B927" s="12" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C927" s="12"/>
+      <c r="D927" s="12"/>
+    </row>
+    <row r="928" spans="1:4">
+      <c r="A928" s="13">
+        <v>927</v>
+      </c>
+      <c r="B928" s="13" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C928" s="13"/>
+      <c r="D928" s="13"/>
+    </row>
+    <row r="929" spans="1:4">
+      <c r="A929" s="12">
+        <v>928</v>
+      </c>
+      <c r="B929" s="12" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C929" s="12"/>
+      <c r="D929" s="12"/>
+    </row>
+    <row r="930" spans="1:4">
+      <c r="A930" s="13">
+        <v>929</v>
+      </c>
+      <c r="B930" s="13" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C930" s="13"/>
+      <c r="D930" s="13"/>
+    </row>
+    <row r="931" spans="1:4">
+      <c r="A931" s="12">
+        <v>930</v>
+      </c>
+      <c r="B931" s="12" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C931" s="12"/>
+      <c r="D931" s="12"/>
+    </row>
+    <row r="932" spans="1:4">
+      <c r="A932" s="13">
+        <v>931</v>
+      </c>
+      <c r="B932" s="13" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C932" s="13"/>
+      <c r="D932" s="13"/>
+    </row>
+    <row r="933" spans="1:4">
+      <c r="A933" s="12">
+        <v>932</v>
+      </c>
+      <c r="B933" s="12" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C933" s="12"/>
+      <c r="D933" s="12"/>
+    </row>
+    <row r="934" spans="1:4">
+      <c r="A934" s="13">
+        <v>933</v>
+      </c>
+      <c r="B934" s="13" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C934" s="13"/>
+      <c r="D934" s="13"/>
+    </row>
+    <row r="935" spans="1:4">
+      <c r="A935" s="12">
+        <v>934</v>
+      </c>
+      <c r="B935" s="12" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C935" s="12"/>
+      <c r="D935" s="12"/>
+    </row>
+    <row r="936" spans="1:4">
+      <c r="A936" s="13">
+        <v>935</v>
+      </c>
+      <c r="B936" s="13" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C936" s="13"/>
+      <c r="D936" s="13"/>
+    </row>
+    <row r="937" spans="1:4">
+      <c r="A937" s="12">
+        <v>936</v>
+      </c>
+      <c r="B937" s="12" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C937" s="12"/>
+      <c r="D937" s="12"/>
+    </row>
+    <row r="938" spans="1:4">
+      <c r="A938" s="13">
+        <v>937</v>
+      </c>
+      <c r="B938" s="13" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C938" s="13"/>
+      <c r="D938" s="13"/>
+    </row>
+    <row r="939" spans="1:4">
+      <c r="A939" s="12">
+        <v>938</v>
+      </c>
+      <c r="B939" s="12" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C939" s="12"/>
+      <c r="D939" s="12"/>
+    </row>
+    <row r="940" spans="1:4">
+      <c r="A940" s="13">
+        <v>939</v>
+      </c>
+      <c r="B940" s="13" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C940" s="13"/>
+      <c r="D940" s="13"/>
+    </row>
+    <row r="941" spans="1:4">
+      <c r="A941" s="12">
+        <v>940</v>
+      </c>
+      <c r="B941" s="12" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C941" s="12"/>
+      <c r="D941" s="12"/>
+    </row>
+    <row r="942" spans="1:4">
+      <c r="A942" s="13">
+        <v>941</v>
+      </c>
+      <c r="B942" s="13" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C942" s="13"/>
+      <c r="D942" s="13"/>
+    </row>
+    <row r="943" spans="1:4">
+      <c r="A943" s="12">
+        <v>942</v>
+      </c>
+      <c r="B943" s="12" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C943" s="12"/>
+      <c r="D943" s="12"/>
+    </row>
+    <row r="944" spans="1:4">
+      <c r="A944" s="13">
+        <v>943</v>
+      </c>
+      <c r="B944" s="13" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C944" s="13"/>
+      <c r="D944" s="13"/>
+    </row>
+    <row r="945" spans="1:4">
+      <c r="A945" s="12">
+        <v>944</v>
+      </c>
+      <c r="B945" s="12" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C945" s="12"/>
+      <c r="D945" s="12"/>
+    </row>
+    <row r="946" spans="1:4">
+      <c r="A946" s="13">
+        <v>945</v>
+      </c>
+      <c r="B946" s="13" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C946" s="13"/>
+      <c r="D946" s="13"/>
+    </row>
+    <row r="947" spans="1:4">
+      <c r="A947" s="12">
+        <v>946</v>
+      </c>
+      <c r="B947" s="12" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C947" s="12"/>
+      <c r="D947" s="12"/>
+    </row>
+    <row r="948" spans="1:4">
+      <c r="A948" s="13">
+        <v>947</v>
+      </c>
+      <c r="B948" s="13" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C948" s="13"/>
+      <c r="D948" s="13"/>
+    </row>
+    <row r="949" spans="1:4">
+      <c r="A949" s="12">
+        <v>948</v>
+      </c>
+      <c r="B949" s="12" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C949" s="12"/>
+      <c r="D949" s="12"/>
+    </row>
+    <row r="950" spans="1:4">
+      <c r="A950" s="13">
+        <v>949</v>
+      </c>
+      <c r="B950" s="13" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C950" s="13"/>
+      <c r="D950" s="13"/>
+    </row>
+    <row r="951" spans="1:4">
+      <c r="A951" s="12">
+        <v>950</v>
+      </c>
+      <c r="B951" s="12" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C951" s="12"/>
+      <c r="D951" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558">
   <si>
     <t>ID</t>
   </si>
@@ -834,7 +834,7 @@
     <t>Gardener</t>
   </si>
   <si>
-    <t>园丁</t>
+    <t>果农</t>
   </si>
   <si>
     <t>Kilner</t>
@@ -966,7 +966,7 @@
     <t>Gardener: grows fruit trees. Garden required.</t>
   </si>
   <si>
-    <t>园丁：种植果树。需要果园。</t>
+    <t>果农：种植果树。需要果园。</t>
   </si>
   <si>
     <t>Baker. Makes bread and pies. Bakery required.</t>
@@ -4298,202 +4298,400 @@
     <t>Gathering wood, stones and ore with the help of laborers provides a temporary boost to these resources. To constantly increase your resources, build a forester's lodge and mines.</t>
   </si>
   <si>
+    <t>在劳工的帮助下收集木材、石头和矿石以临时的刺激产量。或者建造森林小屋和矿洞来不断的增加资源。</t>
+  </si>
+  <si>
     <t>If a building is lost or resources cannot be collected, villagers are released from work. Don't forget to assign them new jobs. The easiest way to do this is through the Professions window under General Information – just set the current number of workers for a given profession.</t>
   </si>
   <si>
+    <t>如果你损失了一座建筑物或者资源无法生产，请将该建筑的工人释放。别忘了给他们分配新的工作。最简单的方式便是通过一般信息下的职业窗口来分配特定职业的人数。</t>
+  </si>
+  <si>
     <t>Lay new pathways using the terraforming tools – select the "Create slope" tool, highlight the cliff face and the workers will turn it into a traversable slope.</t>
   </si>
   <si>
+    <t>使用地形改造工具中的“创建坡度”来选择悬崖，劳工们便会把它变成一个可通行的斜坡斜坡。</t>
+  </si>
+  <si>
     <t>The older the tree, the more resources it contains. Chop down old trees first, as they contain the most resources. If you don't chop it down, the tree will fall and the resource will be lost.</t>
   </si>
   <si>
+    <t>树的年龄越大，所包含的资源就会越多。所以要优先砍伐较老的树木，因为它会包含更多的木材。如果你没有去砍它，它便会腐朽死去。</t>
+  </si>
+  <si>
     <t>In addition to using the WASD or arrow keys, you can also move the camera by moving the cursor to the edge of the screen.</t>
   </si>
   <si>
+    <t>除了通过WASD和方向键，你还可以使用光标移动到屏幕边缘来移动相机。</t>
+  </si>
+  <si>
     <t>Use the keys 1, 2, 3 and 4 to control the game speed, and use Space to pause the game.</t>
   </si>
   <si>
+    <t>使用1、2、3、4来控制游戏的速度，或是使用空格键来暂停游戏。</t>
+  </si>
+  <si>
     <t>To lock the window on the screen, simply drag it to the side. If a building window is currently open on screen, you can quickly move to that building by double-clicking the title of the window.</t>
   </si>
   <si>
+    <t>想要锁定窗口只需要把它拖到一边。你还可以通过双击窗口来快速定位到对应的建筑物。</t>
+  </si>
+  <si>
     <t>If a villager does not have a job to do, they stand idle. However, if you give the order for resource gathering, idle workers will get to work.</t>
   </si>
   <si>
+    <t>空闲的村民会站着发呆。但是如果你设置了资源收集任务，那么闲置的村民便会继续忙碌。</t>
+  </si>
+  <si>
     <t>The first thing to do is provide the villagers with food. Hunting, gathering and fishing are the easiest and cheapest ways to get food. Gathering is not available in winter, but hunting and fishing are available all year round.</t>
   </si>
   <si>
+    <t>首先要做的便是为你的村民提供食物。狩猎、采集和捕鱼都是获取食物最便利的方式。采集在冬天无法进行，但是狩猎和捕鱼是全年都可以进行的。</t>
+  </si>
+  <si>
     <t>Fish is the most widely available food source. Fishermen can catch fish in summer and winter.</t>
   </si>
   <si>
+    <t>鱼是最实惠的食物来源。渔夫们在夏天或是冬天都可以钓到鱼。</t>
+  </si>
+  <si>
     <t>Fishermen's productivity depends on the lake they are fishing in. If the lake is big and deep, the fishermen will supply the village with enough fish to last a long time. If the lake is small and shallow, the fishermen will soon catch all the fish, and you will have to build a fisherman's lodge next to a different lake.</t>
   </si>
   <si>
+    <t>渔夫的生产力取决于他们捕鱼的地方。如果是一个又大又深的湖，那么渔夫便可以在很长一段时间内为这个村庄提供鱼。如果是一个又小又浅的湖，那么很快的你就需要另外找一个湖了。</t>
+  </si>
+  <si>
     <t>You need to build the gatherer's hut in the forest, since that's where most bushes are located.</t>
   </si>
   <si>
+    <t>你需要在森林里建造采集小屋，因为森林里的灌木丛更多。</t>
+  </si>
+  <si>
     <t>Bushes die in the winter, so your gatherers will have to be reassigned to other professions at that time of year.</t>
   </si>
   <si>
+    <t>冬天灌木丛会枯萎，所以在这一年最后的时间里你需要把村民分配到其他任务上。</t>
+  </si>
+  <si>
     <t>Animals mainly inhabit forests, so for maximum effectiveness, hunting cabins should be built in the forest.</t>
   </si>
   <si>
+    <t>野生动物主要分布在树林里，所以为了效率最大化，你应该将猎人小屋建造在森林里。</t>
+  </si>
+  <si>
     <t>Hunters can be used for more than just hunting meat and hides. A hunting cabin placed in the village will protect the villagers from attacks by wild animals that can infect them with rabies.</t>
   </si>
   <si>
+    <t>猎人不仅用于打猎获取皮毛和兽肉。在村子里建造一间猎人小屋还可以保护村民免受野兽的袭击或是感染狂犬病。</t>
+  </si>
+  <si>
     <t>You can go to first-person mode and manually kill animals that stray onto the pasture.</t>
   </si>
   <si>
+    <t>你可以使用第一人称模式杀死在牧场周围徘徊的野兽。</t>
+  </si>
+  <si>
     <t>Only apple trees are available in gardens to start with, other trees are unlocked via sea expeditions at the port.</t>
   </si>
   <si>
+    <t>一开始只有苹果树是果园内可用的，其他的果树都需要通过使用港口来探险解锁。</t>
+  </si>
+  <si>
     <t>Fields grow hay (grass), which is used to feed livestock.</t>
   </si>
   <si>
+    <t>农田可以种植用来喂牲畜的干草（草）。</t>
+  </si>
+  <si>
     <t>To increase the productivity of a gardener or farmer, build a well and a barn nearby and build roads. To speed up harvesting, you must also build roads.</t>
   </si>
   <si>
+    <t>为了提高果农和农夫的效率，你可以常识在附近建造水井、谷仓以及道路。为了加快收割的速度，你必须要铺设道路。</t>
+  </si>
+  <si>
     <t>Don't forget that educated workers equipped with good tools are far more effective than uneducated workers without tools.</t>
   </si>
   <si>
+    <t>别忘了受过教育并且配备了优质工具的人远比既没有配备工具也没有受过教育的人更有效率。</t>
+  </si>
+  <si>
     <t>Gardens and fields produce a lot of resources, but over time.</t>
   </si>
   <si>
+    <t>果园及农田能提供大量资源，但并不是持续的。</t>
+  </si>
+  <si>
     <t>Gardens don't provide a harvest in the first year, but grow for several years. Fields provide a harvest each year, or sometimes even several times per year, but must be sown anew each time.</t>
   </si>
   <si>
+    <t>果园在最初的一年里不会有收成，但是在接下来的几年里会提供果子。农田每年都能收获，有时甚至一年几次，但是每一次都必须要播种。</t>
+  </si>
+  <si>
     <t>Gardens and fields can be placed on flatlands and hills.</t>
   </si>
   <si>
+    <t>果园和农田可以放置在平原以及丘陵上。</t>
+  </si>
+  <si>
     <t>Some crops are not available for planting in fields – they are unlocked via sea expeditions at the port.</t>
   </si>
   <si>
+    <t>农田内不可用的作物需要使用港口探险才能解锁。</t>
+  </si>
+  <si>
     <t>All crops and plants in fields die in the winter, but trees in gardens grow for several years. If you see a warning about cold over the field, immediately start harvesting your crops, or your harvest might die off from the cold before your workers can gather it.</t>
   </si>
   <si>
+    <t>农田里的作物会在冬天死去，但是果园里的树木却能生长好几年。如果你看到农田上出现寒冷的警告，你便要立即开始收割，不然你很容易便会失去它们。</t>
+  </si>
+  <si>
     <t>Every crop has its own temperature and humidity requirements, so choose a crop that is suitable for the current weather to get maximum results.</t>
   </si>
   <si>
+    <t>每一种作物都有着其独特的温度及湿度要求。因此，在适宜的天气和季节选择合适的作物，可以获得更高的产量。</t>
+  </si>
+  <si>
     <t>If you see that the gardener or farmer is too slow when working the field, you can temporarily speed him up by taking control of any villager and using the morale boost ability (press 1).</t>
   </si>
   <si>
+    <t>如果你觉得当前区域内的果农或是农夫工作的太慢，你可以控制他们并使用士气提升技能（按键1）。</t>
+  </si>
+  <si>
     <t>Before you build a pasture, make sure you have enough available hunters to protect it, and enough food and water for the animals. Cows and sheep eat hay, and chickens and pigs eat oats. All of the resources can be sourced from fields.</t>
   </si>
   <si>
+    <t>在你准备建造牧场之前，请确保你有足够的猎人保护它，以及是否有足够的食物和水来喂养它们。牛和羊吃干草，鸡和猪吃燕麦。所有的这些资源都可以在农田中种植。</t>
+  </si>
+  <si>
     <t>If you chop down the entire forest next to a pasture, wild animals will rarely attack it.</t>
   </si>
   <si>
+    <t>如果你把牧场周边的树木全部砍掉，那么野生动物就很少再会袭击它了。</t>
+  </si>
+  <si>
     <t>The player can take control of a villager and manually kill an animal that strays onto the pasture.</t>
   </si>
   <si>
+    <t>玩家可以手动控制村民来杀死在牧场周围徘徊的野兽。</t>
+  </si>
+  <si>
     <t>If you build a pasture containing cows or sheep and you discover that there isn't any hay for them to eat, quickly free up some workers and gather hay from the bushes on the surface of the land.</t>
   </si>
   <si>
+    <t>如果你建立了一个牧场，养了一些牛或是羊，但是却没有足够的干草喂养它们，这时候你可以迅速的调走一些工人，让他们从地上采集干草。</t>
+  </si>
+  <si>
     <t>Locked pastures can only be unlocked by sending an expedition at the port.</t>
   </si>
   <si>
+    <t>被禁用的牧场只能通过港口探险来解锁。</t>
+  </si>
+  <si>
     <t>If the last remaining animal in a pasture is eaten, build another pasture and develop it. When another animal appears in the new pasture, move it to the empty pasture to activate it too.</t>
   </si>
   <si>
+    <t>如果你牧场内的最后一直动物也死了，你可以尝试着造一些新的牧场，然后讲新牧场里的动物全部移动到原来的牧场里去。</t>
+  </si>
+  <si>
     <t>The mill makes grain into flour, and at the bakery, flour and other ingredients are used to make bread and pies.</t>
   </si>
   <si>
+    <t>磨坊可以将谷物磨成面粉，而面包房可以用面粉以及其他材料制作面包和馅饼。</t>
+  </si>
+  <si>
     <t>During the colder months, every villager needs a warm home to make sure they don't freeze. Villagers can feed the stove with firewood or charcoal, which produces more heat. Firewood is made from logs at the lumberjack's lodge, and charcoal is made from firewood in the coal kiln.</t>
   </si>
   <si>
+    <t>在寒冷的季节里，每个村民都需要一个温暖的家，以确保不会冻死。村民们会使用木柴或是木炭太取暖。木柴在樵场中加工，而木炭需要烧窑。</t>
+  </si>
+  <si>
     <t>Charcoal is much more effective than firewood, but it is harder to obtain. To get coal from firewood, build a coal kiln and hire kilners. You can build several kilns to speed up charcoal production.</t>
   </si>
   <si>
+    <t>木炭的效率要比木柴大得多，但是获取起来也更麻烦一些。你需要建造一些烧窑并且雇佣一些陶工来讲木柴加工成木炭。当然你也可以造很多烧窑来增大产量。</t>
+  </si>
+  <si>
     <t>To save on firewood, provide your villagers with warm clothing. Use hunters to get hides, build a weaver's workshop and make warm clothing from hides and other ingredients.</t>
   </si>
   <si>
+    <t>为了节约燃料，你可以为你的村民提供暖和的衣服。让猎人去猎取毛皮，并且建造纺织工坊来使用兽皮及其他材料制作衣服。</t>
+  </si>
+  <si>
     <t>To get small but regular amounts of wood, build a forester's lodge. Click on the construction button for forester's lodge in Resource Gathering and select an area deep in the forest for building.</t>
   </si>
   <si>
+    <t>建造一座森林小屋来获取少量但持续的木材产出。点击资源收集内的森林小屋并建造在森林里。</t>
+  </si>
+  <si>
     <t>Clear the bushes, stones and ore around the forester's lodge so the forester can have more space for planting trees.</t>
   </si>
   <si>
+    <t>清理掉森林小屋附近的灌木、石头以及矿石可以提供更多种树的空间。</t>
+  </si>
+  <si>
     <t>How to avoid infections: Pneumonia (infectious) – warm clothing, enough fuel for homes. Scurvy – give villagers a plentiful and varied diet. Plague (infectious) – burn all bodies on а pyre. Rabies (infectious) – make sure that hunters stop animals from entering the village.</t>
   </si>
   <si>
+    <t>如何避免生病：肺炎（传染性）——温暖的衣服，足够的燃料；坏血病——丰富饮食；瘟疫（传染性）——焚烧尸体；狂犬病（传染性）——确保野兽不会进入村子。</t>
+  </si>
+  <si>
     <t>Serious diseases (pneumonia, scurvy) are treated in the herbalist's hut, while serious illnesses (plague, rabies) are treated at the healer's shop.</t>
   </si>
   <si>
+    <t>肺炎和坏血病何以通过草药治疗，而瘟疫和狂犬病需要诊所。</t>
+  </si>
+  <si>
     <t>The healer's shop needs a herbalist's hut to work, so that it can get healing herbs. The herbalist works only in the warm time of year, so it makes sense to stock up on as many herbs as possible during the summer so that they'll last through the winter when people get ill more often.</t>
   </si>
   <si>
+    <t>诊所需要炼金小屋产出的草药才能工作。药师只能在温暖的季节里才能采集草药，所以在温暖的时候尽可能的囤积草药。</t>
+  </si>
+  <si>
     <t>If there are no pyres, villagers are left unburied, which can lead to outbreaks of dangerous diseases. Build pyres to prevent the decomposition of villagers' bodies and spreading of disease.</t>
   </si>
   <si>
+    <t>如果没有足够的柴堆，任由村民的尸体腐烂，便有可能爆发瘟疫。建造柴堆来火化尸体以防止发生瘟疫。</t>
+  </si>
+  <si>
     <t>If an outbreak occurs, you can treat it with herbs that you can get from the herbalist. But for serious diseases, you need to go to the healer at his shop.</t>
   </si>
   <si>
+    <t>如果爆发了疾病，药草能够帮助你。但是对于严重的疾病，你需要一座诊所。</t>
+  </si>
+  <si>
     <t>Mines not only allow you to collect far more ore and stone, but also make it far faster to do.</t>
   </si>
   <si>
+    <t>矿工们能让你不仅能让你获得更多的石头或是矿石，而且能获取的更快。</t>
+  </si>
+  <si>
     <t>Clay is required for construction of certain buildings. The only way to get clay is to build a clay mine near a clay deposit.</t>
   </si>
   <si>
+    <t>粘土是某些建筑所需要的建筑材料。获取粘土的唯一途径便是在粘土矿床上建造黏土矿。</t>
+  </si>
+  <si>
     <t>Tools increase villagers' productivity. You can improve your villagers' work performance by giving them tools.</t>
   </si>
   <si>
+    <t>工具提高村民的生产效率。你可以为他们提供工具来改善你的村民的工作效率。</t>
+  </si>
+  <si>
     <t>The blacksmith makes tools using various materials in the blacksmith's shop.</t>
   </si>
   <si>
+    <t>铁匠在铁匠铺中使用多种材料制造工具。</t>
+  </si>
+  <si>
     <t>The carpenter makes more easily accessible, but less effective simple tools out of easily available materials.</t>
   </si>
   <si>
+    <t>木匠可以使用更容易获取的材料来制造低耐久的原始工具。</t>
+  </si>
+  <si>
     <t>Young villagers aged between 3 and 5 study in the school.</t>
   </si>
   <si>
+    <t>3到5岁之间的年轻村民可以在学校学习。</t>
+  </si>
+  <si>
     <t>Educated villagers are much more effective than uneducated villagers. Build a school, hire a teacher and send the children to learn. Children can only attend school at an early age, so it is important to build a school as soon as possible.</t>
   </si>
   <si>
     <t>As your villagers' happiness level goes up, so does their productivity. Their happiness level can be boosted by alcohol, which is produced by the innkeeper in the tavern. Build a tavern, hire an innkeeper and provide him with resources to produce alcohol.</t>
   </si>
   <si>
+    <t>如果你的村民的幸福水平上升，他们的生产力也会随之上升。他们的幸福水平可以通过酒馆老版的酒来提高。建造一座酒馆，雇佣一名酒馆老板，并为他提供材料酿酒。</t>
+  </si>
+  <si>
     <t>Villagers can travel faster along roads than on earth or grass, so roads can make any work go faster.</t>
   </si>
   <si>
+    <t>村民在道路上比泥地或草地上走得更快，所以道路可以使任何工作都变得更快。</t>
+  </si>
+  <si>
     <t>Build dirt roads or paved roads to save time and increase the productivity of your workers. Stone roads are more effective, but also require more resources.</t>
   </si>
   <si>
+    <t>建造土路或公路以节省时间并提高工人的工作效率。石头的道路更有效率,但同时也需要更多的资源。</t>
+  </si>
+  <si>
     <t>To increase the productivity of all villagers, take control of a villager and press 1.</t>
   </si>
   <si>
+    <t>控制一个村民，并按1，可以提高所有村民的生产率。</t>
+  </si>
+  <si>
     <t>When you are controlling a villager, you can hunt, gather food and herbs and do much more.</t>
   </si>
   <si>
+    <t>当你控制一个村民时,你可以做诸如狩猎、采集食物、草药等更多事情。</t>
+  </si>
+  <si>
     <t>Build houses in the lowlands to reduce the risk of a lightning strike – lightning strikes in the hills and mountains more than in valleys.</t>
   </si>
   <si>
+    <t>将房屋建造在低地来降低被雷击的风险——在丘陵和山区会更容易被雷击。</t>
+  </si>
+  <si>
     <t>If a building is struck by lightning, it will catch fire. In this situation, your villagers must extinguish the fire as quickly as possible with water from the well. So don't forget to build wells near buildings, even if there are no fields and pastures nearby.</t>
   </si>
   <si>
+    <t>如果建筑被闪电击中，便会着火。在这种情况下，你的村民必须尽快取水灭火。所以别忘了在建筑群附近建造水井，即使附近没有农田和牧场。</t>
+  </si>
+  <si>
     <t>Tornadoes appear from time to time, destroying everything in their path, including buildings in the village. This cannot be prevented, but you can upgrade buildings to make them sturdier and more resilient in the face of a tornado, fires and other elemental disasters.</t>
   </si>
   <si>
+    <t>龙卷风会不时出现，摧毁经过的路径上的一切。这是无法阻止的，不过你可以升级建筑物，使它们更结实、更坚韧从而抵挡龙卷风，火灾或者其他的灾难。</t>
+  </si>
+  <si>
     <t>Trees grow over time, and the older the tree, the more resources it contains. So don't rush to chop down young trees: pick out the taller, older trees for chopping.</t>
   </si>
   <si>
+    <t>树木随着时间的推移会慢慢的长大，它会包含更多的木材。所以不要急于砍小树：挑那些又高又大的树砍。</t>
+  </si>
+  <si>
     <t>The forester always cuts down the oldest trees first.</t>
   </si>
   <si>
+    <t>守林人会优先砍伐树龄更老的树。</t>
+  </si>
+  <si>
     <t>Build a warehouse to store resources. The warehouse is designed to store building materials (wood, stone, ore), and the barn is for storing food, firewood, tools and other resources.</t>
   </si>
   <si>
+    <t>建造一座仓库用来存储资源。仓库是用来存储建筑材料(木材、石头、矿石)的，谷仓是储存食物、柴火、工具以及其他资源的。</t>
+  </si>
+  <si>
     <t>The warehouse has a limited capacity, and if you reach its capacity your villagers will not be able to store any more resources there. This means that you won't be able to construct buildings and get resources. So make sure that your warehouses always have enough free space.</t>
   </si>
   <si>
+    <t>仓库容量有限,如果你的仓库容量满了，村民将无法存储更多的资源。这意味着你不能建造建筑物和获得资源。所以确保你的仓库总是有足够的空余。</t>
+  </si>
+  <si>
     <t>Villagers always carry resources to the closest available warehouse, so try to build them near locations where resources are gathered or produced.</t>
   </si>
   <si>
+    <t>村民会总是会讲资源运往最近的仓库，所以尽量在生产区域附近建造他们。</t>
+  </si>
+  <si>
     <t>Ports let you dispatch sea expeditions that will unlock previously unavailable types of resources: new types of trees and crops, and new types of domesticated animals.</t>
   </si>
   <si>
+    <t>港口可以让你开展海上探险，解锁之前不可用的资源：新的树种，新的作物以及新的牲畜。</t>
+  </si>
+  <si>
     <t>To send out an expedition in search of new resources, you need to build a port. Then you need to build a ship and equip the expedition with the necessary resources: provisions, clothing and tools.</t>
   </si>
   <si>
+    <t>你需要通过建造一座港口来派遣探险队以寻找新的资源。之后你需要建造一艘船，以及准备探险所需的资源：食物、衣服以及工具。</t>
+  </si>
+  <si>
     <t>Requirements</t>
+  </si>
+  <si>
+    <t>需求</t>
   </si>
 </sst>
 </file>
@@ -4502,9 +4700,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -4534,6 +4732,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4541,36 +4754,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4584,24 +4768,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4639,23 +4845,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4663,17 +4853,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4710,31 +4908,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4746,79 +4932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4836,7 +4950,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4848,31 +5052,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4921,30 +5119,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4963,8 +5137,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4976,6 +5174,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5003,31 +5216,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5036,133 +5234,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5546,8 +5744,8 @@
   <sheetPr/>
   <dimension ref="A1:E951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A865" workbookViewId="0">
-      <selection activeCell="D884" sqref="D884"/>
+    <sheetView tabSelected="1" topLeftCell="A918" workbookViewId="0">
+      <selection activeCell="B526" sqref="B526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -16620,668 +16818,924 @@
       <c r="B885" s="12" t="s">
         <v>1425</v>
       </c>
-      <c r="C885" s="12"/>
-      <c r="D885" s="12"/>
+      <c r="C885" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D885" s="12" t="s">
+        <v>1426</v>
+      </c>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="13">
         <v>885</v>
       </c>
       <c r="B886" s="13" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C886" s="13"/>
-      <c r="D886" s="13"/>
+        <v>1427</v>
+      </c>
+      <c r="C886" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D886" s="13" t="s">
+        <v>1428</v>
+      </c>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="12">
         <v>886</v>
       </c>
       <c r="B887" s="12" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C887" s="12"/>
-      <c r="D887" s="12"/>
+        <v>1429</v>
+      </c>
+      <c r="C887" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D887" s="12" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="13">
         <v>887</v>
       </c>
       <c r="B888" s="13" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C888" s="13"/>
-      <c r="D888" s="13"/>
+        <v>1431</v>
+      </c>
+      <c r="C888" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D888" s="13" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="12">
         <v>888</v>
       </c>
       <c r="B889" s="12" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C889" s="12"/>
-      <c r="D889" s="12"/>
+        <v>1433</v>
+      </c>
+      <c r="C889" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D889" s="12" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="13">
         <v>889</v>
       </c>
       <c r="B890" s="13" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C890" s="13"/>
-      <c r="D890" s="13"/>
+        <v>1435</v>
+      </c>
+      <c r="C890" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D890" s="13" t="s">
+        <v>1436</v>
+      </c>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="12">
         <v>890</v>
       </c>
       <c r="B891" s="12" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C891" s="12"/>
-      <c r="D891" s="12"/>
+        <v>1437</v>
+      </c>
+      <c r="C891" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D891" s="12" t="s">
+        <v>1438</v>
+      </c>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="13">
         <v>891</v>
       </c>
       <c r="B892" s="13" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C892" s="13"/>
-      <c r="D892" s="13"/>
+        <v>1439</v>
+      </c>
+      <c r="C892" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D892" s="13" t="s">
+        <v>1440</v>
+      </c>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="12">
         <v>892</v>
       </c>
       <c r="B893" s="12" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C893" s="12"/>
-      <c r="D893" s="12"/>
+        <v>1441</v>
+      </c>
+      <c r="C893" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D893" s="12" t="s">
+        <v>1442</v>
+      </c>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="13">
         <v>893</v>
       </c>
       <c r="B894" s="13" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C894" s="13"/>
-      <c r="D894" s="13"/>
+        <v>1443</v>
+      </c>
+      <c r="C894" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D894" s="13" t="s">
+        <v>1444</v>
+      </c>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="12">
         <v>894</v>
       </c>
       <c r="B895" s="12" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C895" s="12"/>
-      <c r="D895" s="12"/>
+        <v>1445</v>
+      </c>
+      <c r="C895" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D895" s="12" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="13">
         <v>895</v>
       </c>
       <c r="B896" s="13" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C896" s="13"/>
-      <c r="D896" s="13"/>
+        <v>1447</v>
+      </c>
+      <c r="C896" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D896" s="13" t="s">
+        <v>1448</v>
+      </c>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="12">
         <v>896</v>
       </c>
       <c r="B897" s="12" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C897" s="12"/>
-      <c r="D897" s="12"/>
+        <v>1449</v>
+      </c>
+      <c r="C897" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D897" s="12" t="s">
+        <v>1450</v>
+      </c>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="13">
         <v>897</v>
       </c>
       <c r="B898" s="13" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C898" s="13"/>
-      <c r="D898" s="13"/>
+        <v>1451</v>
+      </c>
+      <c r="C898" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D898" s="13" t="s">
+        <v>1452</v>
+      </c>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="12">
         <v>898</v>
       </c>
       <c r="B899" s="12" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C899" s="12"/>
-      <c r="D899" s="12"/>
+        <v>1453</v>
+      </c>
+      <c r="C899" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D899" s="12" t="s">
+        <v>1454</v>
+      </c>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="13">
         <v>899</v>
       </c>
       <c r="B900" s="13" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C900" s="13"/>
-      <c r="D900" s="13"/>
+        <v>1455</v>
+      </c>
+      <c r="C900" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D900" s="13" t="s">
+        <v>1456</v>
+      </c>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="12">
         <v>900</v>
       </c>
       <c r="B901" s="12" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C901" s="12"/>
-      <c r="D901" s="12"/>
+        <v>1457</v>
+      </c>
+      <c r="C901" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D901" s="12" t="s">
+        <v>1458</v>
+      </c>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="13">
         <v>901</v>
       </c>
       <c r="B902" s="13" t="s">
-        <v>1442</v>
+        <v>1459</v>
       </c>
       <c r="C902" s="13"/>
-      <c r="D902" s="13"/>
+      <c r="D902" s="13" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="12">
         <v>902</v>
       </c>
       <c r="B903" s="12" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C903" s="12"/>
-      <c r="D903" s="12"/>
+        <v>1461</v>
+      </c>
+      <c r="C903" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D903" s="12" t="s">
+        <v>1462</v>
+      </c>
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="13">
         <v>903</v>
       </c>
       <c r="B904" s="13" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C904" s="13"/>
-      <c r="D904" s="13"/>
+        <v>1463</v>
+      </c>
+      <c r="C904" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D904" s="13" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="12">
         <v>904</v>
       </c>
       <c r="B905" s="12" t="s">
-        <v>1445</v>
+        <v>1465</v>
       </c>
       <c r="C905" s="12"/>
-      <c r="D905" s="12"/>
+      <c r="D905" s="12" t="s">
+        <v>1466</v>
+      </c>
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="13">
         <v>905</v>
       </c>
       <c r="B906" s="13" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C906" s="13"/>
-      <c r="D906" s="13"/>
+        <v>1467</v>
+      </c>
+      <c r="C906" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D906" s="13" t="s">
+        <v>1468</v>
+      </c>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="12">
         <v>906</v>
       </c>
       <c r="B907" s="12" t="s">
-        <v>1447</v>
+        <v>1469</v>
       </c>
       <c r="C907" s="12"/>
-      <c r="D907" s="12"/>
+      <c r="D907" s="12" t="s">
+        <v>1470</v>
+      </c>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="13">
         <v>907</v>
       </c>
       <c r="B908" s="13" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C908" s="13"/>
-      <c r="D908" s="13"/>
+        <v>1471</v>
+      </c>
+      <c r="C908" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D908" s="13" t="s">
+        <v>1472</v>
+      </c>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="12">
         <v>908</v>
       </c>
       <c r="B909" s="12" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C909" s="12"/>
-      <c r="D909" s="12"/>
+        <v>1473</v>
+      </c>
+      <c r="C909" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D909" s="12" t="s">
+        <v>1474</v>
+      </c>
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="13">
         <v>909</v>
       </c>
       <c r="B910" s="13" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C910" s="13"/>
-      <c r="D910" s="13"/>
+        <v>1475</v>
+      </c>
+      <c r="C910" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D910" s="13" t="s">
+        <v>1476</v>
+      </c>
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="12">
         <v>910</v>
       </c>
       <c r="B911" s="12" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C911" s="12"/>
-      <c r="D911" s="12"/>
+        <v>1477</v>
+      </c>
+      <c r="C911" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D911" s="12" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="13">
         <v>911</v>
       </c>
       <c r="B912" s="13" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C912" s="13"/>
-      <c r="D912" s="13"/>
+        <v>1479</v>
+      </c>
+      <c r="C912" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D912" s="13" t="s">
+        <v>1480</v>
+      </c>
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="12">
         <v>912</v>
       </c>
       <c r="B913" s="12" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C913" s="12"/>
-      <c r="D913" s="12"/>
+        <v>1481</v>
+      </c>
+      <c r="C913" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D913" s="12" t="s">
+        <v>1482</v>
+      </c>
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="13">
         <v>913</v>
       </c>
       <c r="B914" s="13" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C914" s="13"/>
-      <c r="D914" s="13"/>
+        <v>1483</v>
+      </c>
+      <c r="C914" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D914" s="13" t="s">
+        <v>1484</v>
+      </c>
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="12">
         <v>914</v>
       </c>
       <c r="B915" s="12" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C915" s="12"/>
-      <c r="D915" s="12"/>
+        <v>1485</v>
+      </c>
+      <c r="C915" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D915" s="12" t="s">
+        <v>1486</v>
+      </c>
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="13">
         <v>915</v>
       </c>
       <c r="B916" s="13" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C916" s="13"/>
-      <c r="D916" s="13"/>
+        <v>1487</v>
+      </c>
+      <c r="C916" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D916" s="13" t="s">
+        <v>1488</v>
+      </c>
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="12">
         <v>916</v>
       </c>
       <c r="B917" s="12" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C917" s="12"/>
-      <c r="D917" s="12"/>
+        <v>1489</v>
+      </c>
+      <c r="C917" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D917" s="12" t="s">
+        <v>1490</v>
+      </c>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="13">
         <v>917</v>
       </c>
       <c r="B918" s="13" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C918" s="13"/>
-      <c r="D918" s="13"/>
+        <v>1491</v>
+      </c>
+      <c r="C918" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D918" s="13" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="12">
         <v>918</v>
       </c>
       <c r="B919" s="12" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C919" s="12"/>
-      <c r="D919" s="12"/>
+        <v>1493</v>
+      </c>
+      <c r="C919" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D919" s="12" t="s">
+        <v>1494</v>
+      </c>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="13">
         <v>919</v>
       </c>
       <c r="B920" s="13" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C920" s="13"/>
-      <c r="D920" s="13"/>
+        <v>1495</v>
+      </c>
+      <c r="C920" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D920" s="13" t="s">
+        <v>1496</v>
+      </c>
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="12">
         <v>920</v>
       </c>
       <c r="B921" s="12" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C921" s="12"/>
-      <c r="D921" s="12"/>
+        <v>1497</v>
+      </c>
+      <c r="C921" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D921" s="12" t="s">
+        <v>1498</v>
+      </c>
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="13">
         <v>921</v>
       </c>
       <c r="B922" s="13" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C922" s="13"/>
-      <c r="D922" s="13"/>
+        <v>1499</v>
+      </c>
+      <c r="C922" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D922" s="13" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="12">
         <v>922</v>
       </c>
       <c r="B923" s="12" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C923" s="12"/>
-      <c r="D923" s="12"/>
+        <v>1501</v>
+      </c>
+      <c r="C923" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D923" s="12" t="s">
+        <v>1502</v>
+      </c>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="13">
         <v>923</v>
       </c>
       <c r="B924" s="13" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C924" s="13"/>
-      <c r="D924" s="13"/>
+        <v>1503</v>
+      </c>
+      <c r="C924" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D924" s="13" t="s">
+        <v>1504</v>
+      </c>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="12">
         <v>924</v>
       </c>
       <c r="B925" s="12" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C925" s="12"/>
-      <c r="D925" s="12"/>
+        <v>1505</v>
+      </c>
+      <c r="C925" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D925" s="12" t="s">
+        <v>1506</v>
+      </c>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="13">
         <v>925</v>
       </c>
       <c r="B926" s="13" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C926" s="13"/>
-      <c r="D926" s="13"/>
+        <v>1507</v>
+      </c>
+      <c r="C926" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D926" s="13" t="s">
+        <v>1508</v>
+      </c>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="12">
         <v>926</v>
       </c>
       <c r="B927" s="12" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C927" s="12"/>
-      <c r="D927" s="12"/>
+        <v>1509</v>
+      </c>
+      <c r="C927" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D927" s="12" t="s">
+        <v>1510</v>
+      </c>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="13">
         <v>927</v>
       </c>
       <c r="B928" s="13" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C928" s="13"/>
-      <c r="D928" s="13"/>
+        <v>1511</v>
+      </c>
+      <c r="C928" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D928" s="13" t="s">
+        <v>1512</v>
+      </c>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="12">
         <v>928</v>
       </c>
       <c r="B929" s="12" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C929" s="12"/>
-      <c r="D929" s="12"/>
+        <v>1513</v>
+      </c>
+      <c r="C929" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D929" s="12" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="13">
         <v>929</v>
       </c>
       <c r="B930" s="13" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C930" s="13"/>
-      <c r="D930" s="13"/>
+        <v>1515</v>
+      </c>
+      <c r="C930" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D930" s="13" t="s">
+        <v>1516</v>
+      </c>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="12">
         <v>930</v>
       </c>
       <c r="B931" s="12" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C931" s="12"/>
-      <c r="D931" s="12"/>
+        <v>1517</v>
+      </c>
+      <c r="C931" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D931" s="12" t="s">
+        <v>1518</v>
+      </c>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="13">
         <v>931</v>
       </c>
       <c r="B932" s="13" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C932" s="13"/>
-      <c r="D932" s="13"/>
+        <v>1519</v>
+      </c>
+      <c r="C932" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D932" s="13" t="s">
+        <v>1520</v>
+      </c>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="12">
         <v>932</v>
       </c>
       <c r="B933" s="12" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C933" s="12"/>
-      <c r="D933" s="12"/>
+        <v>1521</v>
+      </c>
+      <c r="C933" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D933" s="12" t="s">
+        <v>1522</v>
+      </c>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="13">
         <v>933</v>
       </c>
       <c r="B934" s="13" t="s">
-        <v>1474</v>
+        <v>1523</v>
       </c>
       <c r="C934" s="13"/>
-      <c r="D934" s="13"/>
+      <c r="D934" s="12" t="s">
+        <v>1524</v>
+      </c>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="12">
         <v>934</v>
       </c>
       <c r="B935" s="12" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C935" s="12"/>
-      <c r="D935" s="12"/>
+        <v>1525</v>
+      </c>
+      <c r="C935" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D935" s="13" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="13">
         <v>935</v>
       </c>
       <c r="B936" s="13" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C936" s="13"/>
-      <c r="D936" s="13"/>
+        <v>1526</v>
+      </c>
+      <c r="C936" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D936" s="12" t="s">
+        <v>1527</v>
+      </c>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="12">
         <v>936</v>
       </c>
       <c r="B937" s="12" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C937" s="12"/>
-      <c r="D937" s="12"/>
+        <v>1528</v>
+      </c>
+      <c r="C937" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D937" s="12" t="s">
+        <v>1529</v>
+      </c>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="13">
         <v>937</v>
       </c>
       <c r="B938" s="13" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C938" s="13"/>
-      <c r="D938" s="13"/>
+        <v>1530</v>
+      </c>
+      <c r="C938" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D938" s="13" t="s">
+        <v>1531</v>
+      </c>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="12">
         <v>938</v>
       </c>
       <c r="B939" s="12" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C939" s="12"/>
-      <c r="D939" s="12"/>
+        <v>1532</v>
+      </c>
+      <c r="C939" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D939" s="12" t="s">
+        <v>1533</v>
+      </c>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="13">
         <v>939</v>
       </c>
       <c r="B940" s="13" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C940" s="13"/>
-      <c r="D940" s="13"/>
+        <v>1534</v>
+      </c>
+      <c r="C940" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D940" s="12" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="12">
         <v>940</v>
       </c>
       <c r="B941" s="12" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C941" s="12"/>
-      <c r="D941" s="12"/>
+        <v>1536</v>
+      </c>
+      <c r="C941" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D941" s="13" t="s">
+        <v>1537</v>
+      </c>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="13">
         <v>941</v>
       </c>
       <c r="B942" s="13" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C942" s="13"/>
-      <c r="D942" s="13"/>
+        <v>1538</v>
+      </c>
+      <c r="C942" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D942" s="12" t="s">
+        <v>1539</v>
+      </c>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="12">
         <v>942</v>
       </c>
       <c r="B943" s="12" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C943" s="12"/>
-      <c r="D943" s="12"/>
+        <v>1540</v>
+      </c>
+      <c r="C943" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D943" s="12" t="s">
+        <v>1541</v>
+      </c>
     </row>
     <row r="944" spans="1:4">
       <c r="A944" s="13">
         <v>943</v>
       </c>
       <c r="B944" s="13" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C944" s="13"/>
-      <c r="D944" s="13"/>
+        <v>1542</v>
+      </c>
+      <c r="C944" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D944" s="13" t="s">
+        <v>1543</v>
+      </c>
     </row>
     <row r="945" spans="1:4">
       <c r="A945" s="12">
         <v>944</v>
       </c>
       <c r="B945" s="12" t="s">
-        <v>1485</v>
+        <v>1544</v>
       </c>
       <c r="C945" s="12"/>
-      <c r="D945" s="12"/>
+      <c r="D945" s="12" t="s">
+        <v>1545</v>
+      </c>
     </row>
     <row r="946" spans="1:4">
       <c r="A946" s="13">
         <v>945</v>
       </c>
       <c r="B946" s="13" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C946" s="13"/>
-      <c r="D946" s="13"/>
+        <v>1546</v>
+      </c>
+      <c r="C946" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D946" s="12" t="s">
+        <v>1547</v>
+      </c>
     </row>
     <row r="947" spans="1:4">
       <c r="A947" s="12">
         <v>946</v>
       </c>
       <c r="B947" s="12" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C947" s="12"/>
-      <c r="D947" s="12"/>
+        <v>1548</v>
+      </c>
+      <c r="C947" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D947" s="13" t="s">
+        <v>1549</v>
+      </c>
     </row>
     <row r="948" spans="1:4">
       <c r="A948" s="13">
         <v>947</v>
       </c>
       <c r="B948" s="13" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C948" s="13"/>
-      <c r="D948" s="13"/>
+        <v>1550</v>
+      </c>
+      <c r="C948" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D948" s="12" t="s">
+        <v>1551</v>
+      </c>
     </row>
     <row r="949" spans="1:4">
       <c r="A949" s="12">
         <v>948</v>
       </c>
       <c r="B949" s="12" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C949" s="12"/>
-      <c r="D949" s="12"/>
+        <v>1552</v>
+      </c>
+      <c r="C949" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D949" s="12" t="s">
+        <v>1553</v>
+      </c>
     </row>
     <row r="950" spans="1:4">
       <c r="A950" s="13">
         <v>949</v>
       </c>
       <c r="B950" s="13" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C950" s="13"/>
-      <c r="D950" s="13"/>
+        <v>1554</v>
+      </c>
+      <c r="C950" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D950" s="13" t="s">
+        <v>1555</v>
+      </c>
     </row>
     <row r="951" spans="1:4">
       <c r="A951" s="12">
         <v>950</v>
       </c>
       <c r="B951" s="12" t="s">
-        <v>1491</v>
+        <v>1556</v>
       </c>
       <c r="C951" s="12"/>
-      <c r="D951" s="12"/>
+      <c r="D951" s="12" t="s">
+        <v>1557</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="20880" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="zh-cn" sheetId="1" r:id="rId1"/>
@@ -3206,7 +3206,7 @@
     <t>Are you sure you want to quit?</t>
   </si>
   <si>
-    <t>你确定要退出游戏？退出后来官方中文交流群：574083350 交流一下游戏心得吧！</t>
+    <t>你确定要退出游戏？退出后来官方中文交流群：574083350 交流一下游戏心得吧！更多最新最快的游戏消息敬请关注领地人生部落！</t>
   </si>
   <si>
     <t>Saving...</t>
@@ -3446,7 +3446,7 @@
     <t>This is your new village. During the next several minutes we will show you the game basics and teach you the main principles.</t>
   </si>
   <si>
-    <t>这是你的新村庄。在接下来的几分钟时间里，我们将向你展示游戏的基础知识，并教你一些主要的原则。你也可以加入交流群：574083350 来进行交流。</t>
+    <t>这是你的新村庄。在接下来的几分钟时间里，我们将向你展示游戏的基础知识，并教你一些主要的原则。你也可以加入交流群：574083350 来进行交流。更多最新最快的游戏消息敬请关注领地人生部落！</t>
   </si>
   <si>
     <t>Each villager must have a living space, where they can eat, get warm during the cold months and have a family. If the villager does not have a shelter he/she will not be able to eat or get warm. In this case they will either freeze to death or die from starvation. All homeless people are marked with a special icon. Let's build a dwelling for this homeless one.</t>
@@ -3938,7 +3938,7 @@
     <t>We have now covered the basics. You will find many more opportunities in game and learn about them from tooltips. Just one more bit of advice to end on - keep an eye on your food and firewood balance. Don't let them deplete, or your people may starve and freeze to death. Good luck!</t>
   </si>
   <si>
-    <t>现在我们已经完成了基础教程。你可以在游戏中获得更多的机会，并通过“小贴士”学习到更多的内容。另外请维持你的食物及木柴在一个平衡点，以免你的村民饿死或冻死。祝你好运！你也可以加入交流群：574083350 来进行交流。</t>
+    <t>现在我们已经完成了基础教程。你可以在游戏中获得更多的机会，并通过“小贴士”学习到更多的内容。另外请维持你的食物及木柴在一个平衡点，以免你的村民饿死或冻死。祝你好运！你也可以加入交流群：574083350 来进行交流。更多最新最快的游戏消息敬请关注领地人生部落！</t>
   </si>
   <si>
     <t>Improved shack</t>
@@ -4806,8 +4806,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -4837,14 +4837,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4860,51 +4868,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4926,9 +4889,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4936,21 +4936,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4972,9 +4957,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5013,7 +5013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5025,13 +5025,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5043,13 +5079,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5061,25 +5145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5091,91 +5163,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5226,8 +5226,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5237,7 +5239,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5272,28 +5289,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5301,8 +5301,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5327,10 +5327,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5339,133 +5339,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5849,8 +5849,8 @@
   <sheetPr/>
   <dimension ref="A1:E989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A958" workbookViewId="0">
-      <selection activeCell="D988" sqref="D988"/>
+    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
+      <selection activeCell="D658" sqref="D658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/ForestVillage_texts zh-CN.XLSX
+++ b/ForestVillage_texts zh-CN.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20880" windowHeight="10350"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="zh-cn" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635">
   <si>
     <t>ID</t>
   </si>
@@ -1987,6 +1987,9 @@
     <t>生长期</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Provides water for both plants and cattle. Also provides water to extinguish fires.</t>
   </si>
   <si>
@@ -2302,7 +2305,7 @@
     <t>Increase your village population through having children. Childbearing will be available if you have space in your houses.</t>
   </si>
   <si>
-    <t>通过造小人来增加村庄。如果你的房子还有空间便可以生育孩子。</t>
+    <t>通过造小人来增加村庄人口。如果你的房子还有空间村民们便会造小人。</t>
   </si>
   <si>
     <t>A fishermen's productivity depends on where they fish. If a lake is large and deep, fishermen will be able to supply the village with fish for a long time. If a lake is shallow and small, they will have to relocate to another fisherman's lodge soon.</t>
@@ -2927,10 +2930,10 @@
     <t>移除该区域的道路</t>
   </si>
   <si>
-    <t>Select a pasture of the same type or an empty pasture</t>
-  </si>
-  <si>
-    <t>选择闲置或是同类型的牧场</t>
+    <t>Select a building of the same type</t>
+  </si>
+  <si>
+    <t>选择同一类型的建筑</t>
   </si>
   <si>
     <t>Allows you to create hill or cavity.</t>
@@ -3089,6 +3092,12 @@
     <t>为治疗村名采集草药。工人数量：%WORKER_COUNT%。行动半径：%ACTION_RADIUS%。</t>
   </si>
   <si>
+    <t>No place to settle the pack mule.</t>
+  </si>
+  <si>
+    <t>没有空闲的位置放骡子了。</t>
+  </si>
+  <si>
     <t>Alcohol production to improve happiness level. Number of workers: %WORKER_COUNT%. Max. visitors: %VISITORS_COUNT%.</t>
   </si>
   <si>
@@ -3206,7 +3215,7 @@
     <t>Are you sure you want to quit?</t>
   </si>
   <si>
-    <t>你确定要退出游戏？退出后来官方中文交流群：574083350 交流一下游戏心得吧！更多最新最快的游戏消息敬请关注领地人生部落！</t>
+    <t>你确定要退出游戏？退出后来官方中文交流群：574083350 交流一下游戏心得吧！更多最新最快的游戏消息敬请关注领地人生微信公众号及领地人生部落！</t>
   </si>
   <si>
     <t>Saving...</t>
@@ -4691,12 +4700,6 @@
     <t>你需要通过建造一座港口来派遣探险队以寻找新的资源。之后你需要建造一艘船，以及准备探险所需的资源：食物、衣服以及工具。</t>
   </si>
   <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>需求</t>
-  </si>
-  <si>
     <t>Transport route already exists.</t>
   </si>
   <si>
@@ -4797,6 +4800,129 @@
   </si>
   <si>
     <t>沙盒</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>视频</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Invert mouse</t>
+  </si>
+  <si>
+    <t>鼠标反转</t>
+  </si>
+  <si>
+    <t>Swap mouse buttons</t>
+  </si>
+  <si>
+    <t>鼠标左右键互换</t>
+  </si>
+  <si>
+    <t>Route list</t>
+  </si>
+  <si>
+    <t>运输线路列表</t>
+  </si>
+  <si>
+    <t>Play or pause route works</t>
+  </si>
+  <si>
+    <t>开始或暂停运输线路</t>
+  </si>
+  <si>
+    <t>Current and maximum number of routes</t>
+  </si>
+  <si>
+    <t>运输线路的当前及最高数量</t>
+  </si>
+  <si>
+    <t>Create new route</t>
+  </si>
+  <si>
+    <t>创建一条新的运输线路</t>
+  </si>
+  <si>
+    <t>Select the resource to deliver</t>
+  </si>
+  <si>
+    <t>选择需要运输的资源</t>
+  </si>
+  <si>
+    <t>Number of mules in the stables</t>
+  </si>
+  <si>
+    <t>马厩内的骡子数量</t>
+  </si>
+  <si>
+    <t>Relocate one mule to another stables</t>
+  </si>
+  <si>
+    <t>移动骡子到另一个马厩</t>
+  </si>
+  <si>
+    <t>Crypt</t>
+  </si>
+  <si>
+    <t>公墓</t>
+  </si>
+  <si>
+    <t>Burial the deceased. Have capacity for 5 corpses.</t>
+  </si>
+  <si>
+    <t>埋葬尸体。可以埋葬5具尸体</t>
+  </si>
+  <si>
+    <t>Scarecrow</t>
+  </si>
+  <si>
+    <t>稻草人</t>
+  </si>
+  <si>
+    <t>Deters birds and accelerates growth of crops and trees.</t>
+  </si>
+  <si>
+    <t>驱赶鸟类及促进农作物和树木生长。</t>
+  </si>
+  <si>
+    <t>Delete the route</t>
+  </si>
+  <si>
+    <t>删除这条运输线路</t>
+  </si>
+  <si>
+    <t>Allows you to bury corpses to prevent plague outbreaks. Have capacity for 5 corpses.</t>
+  </si>
+  <si>
+    <t>允许你埋葬尸体以防止瘟疫爆发。可以埋葬5具尸体</t>
+  </si>
+  <si>
+    <t>Duration of burial</t>
+  </si>
+  <si>
+    <t>埋葬时间</t>
+  </si>
+  <si>
+    <t>Go to the storage-giver</t>
+  </si>
+  <si>
+    <t>定位到出货仓库</t>
+  </si>
+  <si>
+    <t>Go to the storage-receiver</t>
+  </si>
+  <si>
+    <t>定位到交货仓库</t>
   </si>
 </sst>
 </file>
@@ -4804,10 +4930,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -4836,13 +4962,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4852,7 +4972,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4873,6 +4993,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -4890,52 +5061,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4957,13 +5090,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -4974,7 +5100,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5013,7 +5139,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5031,25 +5193,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5061,97 +5283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5163,19 +5301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5235,26 +5361,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5307,16 +5433,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -5327,10 +5453,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5339,133 +5465,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5847,10 +5973,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E989"/>
+  <dimension ref="A1:E1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
-      <selection activeCell="D658" sqref="D658"/>
+    <sheetView tabSelected="1" topLeftCell="A985" workbookViewId="0">
+      <selection activeCell="D1016" sqref="D1016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -11057,9 +11183,13 @@
       <c r="A424" s="3">
         <v>423</v>
       </c>
-      <c r="B424" s="4"/>
+      <c r="B424" s="4" t="s">
+        <v>656</v>
+      </c>
       <c r="C424" s="3"/>
-      <c r="D424" s="3"/>
+      <c r="D424" s="3" t="s">
+        <v>656</v>
+      </c>
       <c r="E424" s="2"/>
     </row>
     <row r="425" spans="1:5">
@@ -11076,13 +11206,13 @@
         <v>425</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C426" s="3">
         <v>222</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E426" s="2"/>
     </row>
@@ -11091,7 +11221,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3" t="s">
@@ -11104,13 +11234,13 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C428" s="3">
         <v>7</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E428" s="2"/>
     </row>
@@ -11119,13 +11249,13 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C429" s="3">
         <v>9</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E429" s="2"/>
     </row>
@@ -11140,11 +11270,11 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E431" s="2"/>
     </row>
@@ -11159,11 +11289,11 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C433" s="3"/>
       <c r="D433" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E433" s="2"/>
     </row>
@@ -11172,11 +11302,11 @@
         <v>433</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E434" s="2"/>
     </row>
@@ -11185,11 +11315,11 @@
         <v>434</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C435" s="3"/>
       <c r="D435" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E435" s="2"/>
     </row>
@@ -11198,11 +11328,11 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E436" s="2"/>
     </row>
@@ -11211,11 +11341,11 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E437" s="2"/>
     </row>
@@ -11224,11 +11354,11 @@
         <v>437</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E438" s="2"/>
     </row>
@@ -11237,11 +11367,11 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E439" s="2"/>
     </row>
@@ -11250,11 +11380,11 @@
         <v>439</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E440" s="2"/>
     </row>
@@ -11263,11 +11393,11 @@
         <v>440</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E441" s="2"/>
     </row>
@@ -11276,11 +11406,11 @@
         <v>441</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E442" s="2"/>
     </row>
@@ -11289,11 +11419,11 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E443" s="2"/>
     </row>
@@ -11302,11 +11432,11 @@
         <v>443</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E444" s="2"/>
     </row>
@@ -11315,11 +11445,11 @@
         <v>444</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E445" s="2"/>
     </row>
@@ -11341,7 +11471,7 @@
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E447" s="2"/>
     </row>
@@ -11350,11 +11480,11 @@
         <v>447</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E448" s="2"/>
     </row>
@@ -11363,11 +11493,11 @@
         <v>448</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E449" s="2"/>
     </row>
@@ -11376,11 +11506,11 @@
         <v>449</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E450" s="2"/>
     </row>
@@ -11389,11 +11519,11 @@
         <v>450</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E451" s="2"/>
     </row>
@@ -11402,13 +11532,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E452" s="2"/>
     </row>
@@ -11417,11 +11547,11 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E453" s="2"/>
     </row>
@@ -11430,11 +11560,11 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C454" s="3"/>
       <c r="D454" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E454" s="2"/>
     </row>
@@ -11443,11 +11573,11 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C455" s="3"/>
       <c r="D455" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E455" s="2"/>
     </row>
@@ -11456,11 +11586,11 @@
         <v>455</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C456" s="3"/>
       <c r="D456" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E456" s="2"/>
     </row>
@@ -11469,11 +11599,11 @@
         <v>456</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C457" s="3"/>
       <c r="D457" s="3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E457" s="2"/>
     </row>
@@ -11482,11 +11612,11 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C458" s="3"/>
       <c r="D458" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E458" s="2"/>
     </row>
@@ -11495,11 +11625,11 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C459" s="3"/>
       <c r="D459" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E459" s="2"/>
     </row>
@@ -11508,11 +11638,11 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C460" s="3"/>
       <c r="D460" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E460" s="2"/>
     </row>
@@ -11521,11 +11651,11 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C461" s="3"/>
       <c r="D461" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E461" s="2"/>
     </row>
@@ -11552,7 +11682,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C464" s="3"/>
       <c r="D464" s="3" t="s">
@@ -11565,7 +11695,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C465" s="3"/>
       <c r="D465" s="3" t="s">
@@ -11591,7 +11721,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C467" s="3"/>
       <c r="D467" s="3" t="s">
@@ -11604,11 +11734,11 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C468" s="3"/>
       <c r="D468" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E468" s="2"/>
     </row>
@@ -11617,7 +11747,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C469" s="3"/>
       <c r="D469" s="3" t="s">
@@ -11630,13 +11760,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E470" s="2"/>
     </row>
@@ -11645,13 +11775,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E471" s="2"/>
     </row>
@@ -11660,13 +11790,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E472" s="2"/>
     </row>
@@ -11675,13 +11805,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E473" s="2"/>
     </row>
@@ -11690,13 +11820,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E474" s="2"/>
     </row>
@@ -11705,13 +11835,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E475" s="2"/>
     </row>
@@ -11720,13 +11850,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E476" s="2"/>
     </row>
@@ -11735,13 +11865,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E477" s="2"/>
     </row>
@@ -11750,13 +11880,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E478" s="2"/>
     </row>
@@ -11765,13 +11895,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E479" s="2"/>
     </row>
@@ -11780,13 +11910,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E480" s="2"/>
     </row>
@@ -11795,13 +11925,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E481" s="2"/>
     </row>
@@ -11810,13 +11940,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E482" s="2"/>
     </row>
@@ -11825,13 +11955,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E483" s="2"/>
     </row>
@@ -11840,13 +11970,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E484" s="2"/>
     </row>
@@ -11855,13 +11985,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E485" s="2"/>
     </row>
@@ -11870,13 +12000,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E486" s="2"/>
     </row>
@@ -11885,13 +12015,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E487" s="2"/>
     </row>
@@ -11900,13 +12030,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E488" s="2"/>
     </row>
@@ -11915,13 +12045,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E489" s="2"/>
     </row>
@@ -11930,13 +12060,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E490" s="2"/>
     </row>
@@ -11945,13 +12075,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E491" s="2"/>
     </row>
@@ -11960,13 +12090,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E492" s="2"/>
     </row>
@@ -11975,13 +12105,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E493" s="2"/>
     </row>
@@ -11990,13 +12120,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E494" s="2"/>
     </row>
@@ -12005,13 +12135,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E495" s="2"/>
     </row>
@@ -12020,13 +12150,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E496" s="2"/>
     </row>
@@ -12035,13 +12165,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E497" s="2"/>
     </row>
@@ -12050,13 +12180,13 @@
         <v>497</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E498" s="2"/>
     </row>
@@ -12065,13 +12195,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E499" s="2"/>
     </row>
@@ -12080,13 +12210,13 @@
         <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E500" s="2"/>
     </row>
@@ -12095,13 +12225,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C501" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E501" s="2"/>
     </row>
@@ -12110,16 +12240,16 @@
         <v>501</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C502" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D502" s="10" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E502" s="11" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -12127,13 +12257,13 @@
         <v>502</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C503" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D503" s="10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E503" s="11"/>
     </row>
@@ -12142,11 +12272,11 @@
         <v>503</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C504" s="3"/>
       <c r="D504" s="10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E504" s="11"/>
     </row>
@@ -12155,11 +12285,11 @@
         <v>504</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C505" s="3"/>
       <c r="D505" s="10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E505" s="11"/>
     </row>
@@ -12168,11 +12298,11 @@
         <v>505</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C506" s="3"/>
       <c r="D506" s="10" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E506" s="11"/>
     </row>
@@ -12181,11 +12311,11 @@
         <v>506</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C507" s="3"/>
       <c r="D507" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E507" s="11"/>
     </row>
@@ -12194,11 +12324,11 @@
         <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C508" s="3"/>
       <c r="D508" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E508" s="11"/>
     </row>
@@ -12207,11 +12337,11 @@
         <v>508</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C509" s="3"/>
       <c r="D509" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E509" s="11"/>
     </row>
@@ -12220,11 +12350,11 @@
         <v>509</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C510" s="3"/>
       <c r="D510" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E510" s="11"/>
     </row>
@@ -12233,11 +12363,11 @@
         <v>510</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C511" s="3"/>
       <c r="D511" s="10" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E511" s="11"/>
     </row>
@@ -12246,11 +12376,11 @@
         <v>511</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C512" s="3"/>
       <c r="D512" s="10" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E512" s="11"/>
     </row>
@@ -12259,11 +12389,11 @@
         <v>512</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C513" s="3"/>
       <c r="D513" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E513" s="11"/>
     </row>
@@ -12272,11 +12402,11 @@
         <v>513</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C514" s="3"/>
       <c r="D514" s="10" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E514" s="11"/>
     </row>
@@ -12285,11 +12415,11 @@
         <v>514</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C515" s="3"/>
       <c r="D515" s="10" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E515" s="11"/>
     </row>
@@ -12298,13 +12428,13 @@
         <v>515</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C516" s="3">
         <v>20</v>
       </c>
       <c r="D516" s="10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E516" s="11"/>
     </row>
@@ -12313,13 +12443,13 @@
         <v>516</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C517" s="3">
         <v>20</v>
       </c>
       <c r="D517" s="10" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E517" s="11"/>
     </row>
@@ -12328,13 +12458,13 @@
         <v>517</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C518" s="3">
         <v>20</v>
       </c>
       <c r="D518" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E518" s="11"/>
     </row>
@@ -12343,13 +12473,13 @@
         <v>518</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C519" s="3">
         <v>20</v>
       </c>
       <c r="D519" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E519" s="11"/>
     </row>
@@ -12358,13 +12488,13 @@
         <v>519</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C520" s="3">
         <v>20</v>
       </c>
       <c r="D520" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E520" s="11"/>
     </row>
@@ -12373,13 +12503,13 @@
         <v>520</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C521" s="3">
         <v>20</v>
       </c>
       <c r="D521" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E521" s="11"/>
     </row>
@@ -12388,11 +12518,11 @@
         <v>521</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C522" s="3"/>
       <c r="D522" s="10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E522" s="11"/>
     </row>
@@ -12401,13 +12531,13 @@
         <v>522</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C523" s="3">
         <v>33</v>
       </c>
       <c r="D523" s="10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E523" s="11"/>
     </row>
@@ -12416,11 +12546,11 @@
         <v>523</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C524" s="3"/>
       <c r="D524" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E524" s="11"/>
     </row>
@@ -12429,11 +12559,11 @@
         <v>524</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C525" s="3"/>
       <c r="D525" s="10" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E525" s="11"/>
     </row>
@@ -12442,7 +12572,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C526" s="3"/>
       <c r="D526" s="10" t="s">
@@ -12455,11 +12585,11 @@
         <v>526</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C527" s="3"/>
       <c r="D527" s="10" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E527" s="11"/>
     </row>
@@ -12468,11 +12598,11 @@
         <v>527</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C528" s="3"/>
       <c r="D528" s="10" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E528" s="11"/>
     </row>
@@ -12481,11 +12611,11 @@
         <v>528</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C529" s="3"/>
       <c r="D529" s="10" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E529" s="11"/>
     </row>
@@ -12512,11 +12642,11 @@
         <v>531</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C532" s="3"/>
       <c r="D532" s="10" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E532" s="11"/>
     </row>
@@ -12534,11 +12664,11 @@
         <v>533</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C534" s="3"/>
       <c r="D534" s="10" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E534" s="11"/>
     </row>
@@ -12547,13 +12677,13 @@
         <v>534</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C535" s="3">
         <v>16</v>
       </c>
       <c r="D535" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E535" s="11"/>
     </row>
@@ -12562,13 +12692,13 @@
         <v>535</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C536" s="3">
         <v>222</v>
       </c>
       <c r="D536" s="10" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E536" s="11"/>
     </row>
@@ -12577,13 +12707,13 @@
         <v>536</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C537" s="3">
         <v>222</v>
       </c>
       <c r="D537" s="10" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E537" s="11"/>
     </row>
@@ -12592,13 +12722,13 @@
         <v>537</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C538" s="3">
         <v>222</v>
       </c>
       <c r="D538" s="10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E538" s="11"/>
     </row>
@@ -12607,13 +12737,13 @@
         <v>538</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C539" s="3">
         <v>222</v>
       </c>
       <c r="D539" s="10" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E539" s="11"/>
     </row>
@@ -12622,13 +12752,13 @@
         <v>539</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C540" s="3">
         <v>222</v>
       </c>
       <c r="D540" s="10" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E540" s="11"/>
     </row>
@@ -12637,13 +12767,13 @@
         <v>540</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C541" s="3">
         <v>222</v>
       </c>
       <c r="D541" s="10" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E541" s="11"/>
     </row>
@@ -12652,11 +12782,11 @@
         <v>541</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C542" s="3"/>
       <c r="D542" s="10" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E542" s="11"/>
     </row>
@@ -12665,13 +12795,13 @@
         <v>542</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C543" s="3">
         <v>28</v>
       </c>
       <c r="D543" s="10" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E543" s="11"/>
     </row>
@@ -12680,13 +12810,13 @@
         <v>543</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C544" s="3">
         <v>30</v>
       </c>
       <c r="D544" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E544" s="11"/>
     </row>
@@ -12695,13 +12825,13 @@
         <v>544</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C545" s="3">
         <v>30</v>
       </c>
       <c r="D545" s="10" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E545" s="11"/>
     </row>
@@ -12710,13 +12840,13 @@
         <v>545</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C546" s="3">
         <v>30</v>
       </c>
       <c r="D546" s="10" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E546" s="11"/>
     </row>
@@ -12725,11 +12855,11 @@
         <v>546</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C547" s="3"/>
       <c r="D547" s="10" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E547" s="11"/>
     </row>
@@ -12738,11 +12868,11 @@
         <v>547</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C548" s="3"/>
       <c r="D548" s="10" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E548" s="11"/>
     </row>
@@ -12751,11 +12881,11 @@
         <v>548</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C549" s="3"/>
       <c r="D549" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E549" s="11"/>
     </row>
@@ -12764,11 +12894,11 @@
         <v>549</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C550" s="3"/>
       <c r="D550" s="10" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E550" s="11"/>
     </row>
@@ -12777,11 +12907,11 @@
         <v>550</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C551" s="3"/>
       <c r="D551" s="10" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E551" s="11"/>
     </row>
@@ -12790,7 +12920,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C552" s="3"/>
       <c r="D552" s="10" t="s">
@@ -12803,11 +12933,11 @@
         <v>552</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C553" s="3"/>
       <c r="D553" s="10" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E553" s="11"/>
     </row>
@@ -12816,11 +12946,11 @@
         <v>553</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C554" s="3"/>
       <c r="D554" s="10" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E554" s="11"/>
     </row>
@@ -12829,11 +12959,11 @@
         <v>554</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C555" s="3"/>
       <c r="D555" s="10" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E555" s="11"/>
     </row>
@@ -12842,11 +12972,11 @@
         <v>555</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C556" s="3"/>
       <c r="D556" s="10" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E556" s="11"/>
     </row>
@@ -12855,11 +12985,11 @@
         <v>556</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C557" s="3"/>
       <c r="D557" s="10" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E557" s="11"/>
     </row>
@@ -12868,11 +12998,11 @@
         <v>557</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C558" s="3"/>
       <c r="D558" s="10" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E558" s="11"/>
     </row>
@@ -12881,11 +13011,11 @@
         <v>558</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C559" s="3"/>
       <c r="D559" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E559" s="11"/>
     </row>
@@ -12894,11 +13024,11 @@
         <v>559</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C560" s="3"/>
       <c r="D560" s="10" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E560" s="11"/>
     </row>
@@ -12907,11 +13037,11 @@
         <v>560</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C561" s="3"/>
       <c r="D561" s="10" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E561" s="11"/>
     </row>
@@ -12920,11 +13050,11 @@
         <v>561</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C562" s="3"/>
       <c r="D562" s="10" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E562" s="11"/>
     </row>
@@ -12933,11 +13063,11 @@
         <v>562</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C563" s="3"/>
       <c r="D563" s="10" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E563" s="11"/>
     </row>
@@ -12946,11 +13076,11 @@
         <v>563</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C564" s="3"/>
       <c r="D564" s="10" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E564" s="11"/>
     </row>
@@ -12959,11 +13089,11 @@
         <v>564</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C565" s="3"/>
       <c r="D565" s="10" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E565" s="11"/>
     </row>
@@ -12972,11 +13102,11 @@
         <v>565</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="10" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E566" s="11"/>
     </row>
@@ -12985,11 +13115,11 @@
         <v>566</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C567" s="3"/>
       <c r="D567" s="10" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E567" s="11"/>
     </row>
@@ -12998,11 +13128,11 @@
         <v>567</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C568" s="3"/>
       <c r="D568" s="10" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E568" s="11"/>
     </row>
@@ -13020,11 +13150,11 @@
         <v>569</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C570" s="3"/>
       <c r="D570" s="10" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E570" s="11"/>
     </row>
@@ -13033,11 +13163,11 @@
         <v>570</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C571" s="3"/>
       <c r="D571" s="10" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E571" s="11"/>
     </row>
@@ -13046,11 +13176,11 @@
         <v>571</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C572" s="3"/>
       <c r="D572" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E572" s="11"/>
     </row>
@@ -13059,11 +13189,11 @@
         <v>572</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C573" s="3"/>
       <c r="D573" s="10" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E573" s="11"/>
     </row>
@@ -13072,11 +13202,11 @@
         <v>573</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C574" s="3"/>
       <c r="D574" s="10" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E574" s="11"/>
     </row>
@@ -13103,11 +13233,11 @@
         <v>576</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C577" s="3"/>
       <c r="D577" s="10" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E577" s="11"/>
     </row>
@@ -13116,11 +13246,11 @@
         <v>577</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C578" s="3"/>
       <c r="D578" s="10" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E578" s="11"/>
     </row>
@@ -13129,11 +13259,11 @@
         <v>578</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C579" s="3"/>
       <c r="D579" s="10" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E579" s="11"/>
     </row>
@@ -13142,11 +13272,11 @@
         <v>579</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C580" s="3"/>
       <c r="D580" s="10" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E580" s="11"/>
     </row>
@@ -13155,11 +13285,11 @@
         <v>580</v>
       </c>
       <c r="B581" s="12" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C581" s="12"/>
       <c r="D581" s="12" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>4</v>
@@ -13179,11 +13309,11 @@
         <v>582</v>
       </c>
       <c r="B583" s="12" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C583" s="12"/>
       <c r="D583" s="12" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E583" s="2"/>
     </row>
@@ -13192,11 +13322,11 @@
         <v>583</v>
       </c>
       <c r="B584" s="13" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C584" s="13"/>
       <c r="D584" s="13" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E584" s="2"/>
     </row>
@@ -13205,11 +13335,11 @@
         <v>584</v>
       </c>
       <c r="B585" s="12" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C585" s="12"/>
       <c r="D585" s="12" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E585" s="2"/>
     </row>
@@ -13218,11 +13348,11 @@
         <v>585</v>
       </c>
       <c r="B586" s="13" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C586" s="13"/>
       <c r="D586" s="13" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E586" s="2"/>
     </row>
@@ -13231,11 +13361,11 @@
         <v>586</v>
       </c>
       <c r="B587" s="12" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C587" s="12"/>
       <c r="D587" s="12" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E587" s="2"/>
     </row>
@@ -13244,11 +13374,11 @@
         <v>587</v>
       </c>
       <c r="B588" s="13" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C588" s="13"/>
       <c r="D588" s="13" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E588" s="2"/>
     </row>
@@ -13257,11 +13387,11 @@
         <v>588</v>
       </c>
       <c r="B589" s="12" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C589" s="12"/>
       <c r="D589" s="12" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E589" s="2"/>
     </row>
@@ -13270,11 +13400,11 @@
         <v>589</v>
       </c>
       <c r="B590" s="13" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C590" s="13"/>
       <c r="D590" s="13" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E590" s="2"/>
     </row>
@@ -13283,11 +13413,11 @@
         <v>590</v>
       </c>
       <c r="B591" s="12" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C591" s="12"/>
       <c r="D591" s="12" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E591" s="2"/>
     </row>
@@ -13296,11 +13426,11 @@
         <v>591</v>
       </c>
       <c r="B592" s="13" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C592" s="13"/>
       <c r="D592" s="13" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E592" s="2"/>
     </row>
@@ -13309,11 +13439,11 @@
         <v>592</v>
       </c>
       <c r="B593" s="12" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C593" s="12"/>
       <c r="D593" s="12" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E593" s="2"/>
     </row>
@@ -13322,11 +13452,11 @@
         <v>593</v>
       </c>
       <c r="B594" s="13" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C594" s="13"/>
       <c r="D594" s="13" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E594" s="2"/>
     </row>
@@ -13335,11 +13465,11 @@
         <v>594</v>
       </c>
       <c r="B595" s="12" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C595" s="12"/>
       <c r="D595" s="12" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E595" s="2"/>
     </row>
@@ -13348,11 +13478,11 @@
         <v>595</v>
       </c>
       <c r="B596" s="13" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C596" s="13"/>
       <c r="D596" s="13" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E596" s="2"/>
     </row>
@@ -13361,11 +13491,11 @@
         <v>596</v>
       </c>
       <c r="B597" s="12" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C597" s="12"/>
       <c r="D597" s="12" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E597" s="2"/>
     </row>
@@ -13374,11 +13504,11 @@
         <v>597</v>
       </c>
       <c r="B598" s="13" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C598" s="13"/>
       <c r="D598" s="13" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E598" s="2"/>
     </row>
@@ -13396,11 +13526,11 @@
         <v>599</v>
       </c>
       <c r="B600" s="13" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C600" s="13"/>
       <c r="D600" s="13" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E600" s="2"/>
     </row>
@@ -13418,11 +13548,11 @@
         <v>601</v>
       </c>
       <c r="B602" s="13" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C602" s="13"/>
       <c r="D602" s="13" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E602" s="2"/>
     </row>
@@ -13440,11 +13570,11 @@
         <v>603</v>
       </c>
       <c r="B604" s="13" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C604" s="13"/>
       <c r="D604" s="13" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E604" s="2"/>
     </row>
@@ -13462,11 +13592,11 @@
         <v>605</v>
       </c>
       <c r="B606" s="13" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C606" s="13"/>
       <c r="D606" s="13" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E606" s="2"/>
     </row>
@@ -13484,11 +13614,11 @@
         <v>607</v>
       </c>
       <c r="B608" s="13" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C608" s="13"/>
       <c r="D608" s="13" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E608" s="2"/>
     </row>
@@ -13497,13 +13627,13 @@
         <v>608</v>
       </c>
       <c r="B609" s="12" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C609" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D609" s="12" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E609" s="2"/>
     </row>
@@ -13512,13 +13642,13 @@
         <v>609</v>
       </c>
       <c r="B610" s="13" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C610" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D610" s="13" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E610" s="2"/>
     </row>
@@ -13527,13 +13657,13 @@
         <v>610</v>
       </c>
       <c r="B611" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C611" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D611" s="12" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E611" s="2"/>
     </row>
@@ -13542,13 +13672,13 @@
         <v>611</v>
       </c>
       <c r="B612" s="13" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C612" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D612" s="13" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E612" s="2"/>
     </row>
@@ -13557,13 +13687,13 @@
         <v>612</v>
       </c>
       <c r="B613" s="12" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C613" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D613" s="12" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E613" s="2"/>
     </row>
@@ -13590,13 +13720,13 @@
         <v>615</v>
       </c>
       <c r="B616" s="13" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C616" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D616" s="13" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E616" s="2"/>
     </row>
@@ -13605,13 +13735,13 @@
         <v>616</v>
       </c>
       <c r="B617" s="12" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C617" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D617" s="12" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E617" s="2"/>
     </row>
@@ -13620,11 +13750,11 @@
         <v>617</v>
       </c>
       <c r="B618" s="13" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C618" s="13"/>
       <c r="D618" s="13" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E618" s="2"/>
     </row>
@@ -13633,11 +13763,11 @@
         <v>618</v>
       </c>
       <c r="B619" s="12" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C619" s="12"/>
       <c r="D619" s="12" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E619" s="2"/>
     </row>
@@ -13646,11 +13776,11 @@
         <v>619</v>
       </c>
       <c r="B620" s="13" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C620" s="13"/>
       <c r="D620" s="13" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E620" s="2"/>
     </row>
@@ -13659,13 +13789,13 @@
         <v>620</v>
       </c>
       <c r="B621" s="12" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C621" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D621" s="12" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E621" s="2"/>
     </row>
@@ -13674,13 +13804,13 @@
         <v>621</v>
       </c>
       <c r="B622" s="13" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C622" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D622" s="13" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E622" s="2"/>
     </row>
@@ -13689,13 +13819,13 @@
         <v>622</v>
       </c>
       <c r="B623" s="12" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C623" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D623" s="12" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E623" s="2"/>
     </row>
@@ -13704,13 +13834,13 @@
         <v>623</v>
       </c>
       <c r="B624" s="13" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C624" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D624" s="13" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E624" s="2"/>
     </row>
@@ -13719,13 +13849,13 @@
         <v>624</v>
       </c>
       <c r="B625" s="12" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C625" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D625" s="12" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E625" s="2"/>
     </row>
@@ -13734,13 +13864,13 @@
         <v>625</v>
       </c>
       <c r="B626" s="13" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C626" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D626" s="13" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E626" s="2"/>
     </row>
@@ -13749,13 +13879,13 @@
         <v>626</v>
       </c>
       <c r="B627" s="12" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C627" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D627" s="12" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E627" s="2"/>
     </row>
@@ -13764,13 +13894,13 @@
         <v>627</v>
       </c>
       <c r="B628" s="13" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C628" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D628" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E628" s="2"/>
     </row>
@@ -13779,11 +13909,11 @@
         <v>628</v>
       </c>
       <c r="B629" s="12" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C629" s="12"/>
       <c r="D629" s="12" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E629" s="2"/>
     </row>
@@ -13792,11 +13922,11 @@
         <v>629</v>
       </c>
       <c r="B630" s="13" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C630" s="13"/>
       <c r="D630" s="13" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E630" s="2"/>
     </row>
@@ -13805,11 +13935,11 @@
         <v>630</v>
       </c>
       <c r="B631" s="12" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C631" s="12"/>
       <c r="D631" s="12" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E631" s="2"/>
     </row>
@@ -13818,13 +13948,13 @@
         <v>631</v>
       </c>
       <c r="B632" s="13" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C632" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D632" s="13" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E632" s="2"/>
     </row>
@@ -13832,9 +13962,13 @@
       <c r="A633" s="12">
         <v>632</v>
       </c>
-      <c r="B633" s="12"/>
+      <c r="B633" s="12" t="s">
+        <v>1024</v>
+      </c>
       <c r="C633" s="12"/>
-      <c r="D633" s="12"/>
+      <c r="D633" s="12" t="s">
+        <v>1025</v>
+      </c>
       <c r="E633" s="2"/>
     </row>
     <row r="634" spans="1:5">
@@ -13842,13 +13976,13 @@
         <v>633</v>
       </c>
       <c r="B634" s="13" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="C634" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D634" s="13" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="E634" s="2"/>
     </row>
@@ -13857,13 +13991,13 @@
         <v>634</v>
       </c>
       <c r="B635" s="12" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="C635" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D635" s="12" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="E635" s="2"/>
     </row>
@@ -13872,13 +14006,13 @@
         <v>635</v>
       </c>
       <c r="B636" s="13" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="C636" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D636" s="13" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="E636" s="2"/>
     </row>
@@ -13887,13 +14021,13 @@
         <v>636</v>
       </c>
       <c r="B637" s="12" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C637" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D637" s="12" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="E637" s="2"/>
     </row>
@@ -13902,13 +14036,13 @@
         <v>637</v>
       </c>
       <c r="B638" s="13" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C638" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D638" s="13" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E638" s="2"/>
     </row>
@@ -13917,13 +14051,13 @@
         <v>638</v>
       </c>
       <c r="B639" s="12" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C639" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D639" s="12" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="E639" s="2"/>
     </row>
@@ -13932,13 +14066,13 @@
         <v>639</v>
       </c>
       <c r="B640" s="13" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="C640" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D640" s="13" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="E640" s="2"/>
     </row>
@@ -13947,13 +14081,13 @@
         <v>640</v>
       </c>
       <c r="B641" s="12" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C641" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D641" s="12" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="E641" s="2"/>
     </row>
@@ -13962,11 +14096,11 @@
         <v>641</v>
       </c>
       <c r="B642" s="13" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C642" s="13"/>
       <c r="D642" s="13" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="E642" s="2"/>
     </row>
@@ -13975,11 +14109,11 @@
         <v>642</v>
       </c>
       <c r="B643" s="12" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C643" s="12"/>
       <c r="D643" s="12" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="E643" s="2"/>
     </row>
@@ -13988,13 +14122,13 @@
         <v>643</v>
       </c>
       <c r="B644" s="13" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="C644" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D644" s="13" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="E644" s="2"/>
     </row>
@@ -14003,13 +14137,13 @@
         <v>644</v>
       </c>
       <c r="B645" s="12" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="C645" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D645" s="12" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="E645" s="2"/>
     </row>
@@ -14018,11 +14152,11 @@
         <v>645</v>
       </c>
       <c r="B646" s="13" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C646" s="13"/>
       <c r="D646" s="13" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="E646" s="2"/>
     </row>
@@ -14031,11 +14165,11 @@
         <v>646</v>
       </c>
       <c r="B647" s="12" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C647" s="12"/>
       <c r="D647" s="12" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="E647" s="2"/>
     </row>
@@ -14044,11 +14178,11 @@
         <v>647</v>
       </c>
       <c r="B648" s="13" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C648" s="13"/>
       <c r="D648" s="13" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="E648" s="2"/>
     </row>
@@ -14057,11 +14191,11 @@
         <v>648</v>
       </c>
       <c r="B649" s="12" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C649" s="12"/>
       <c r="D649" s="12" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="E649" s="2"/>
     </row>
@@ -14070,11 +14204,11 @@
         <v>649</v>
       </c>
       <c r="B650" s="13" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C650" s="13"/>
       <c r="D650" s="13" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="E650" s="2"/>
     </row>
@@ -14083,11 +14217,11 @@
         <v>650</v>
       </c>
       <c r="B651" s="12" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C651" s="12"/>
       <c r="D651" s="12" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="E651" s="2"/>
     </row>
@@ -14141,11 +14275,11 @@
         <v>656</v>
       </c>
       <c r="B657" s="12" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C657" s="12"/>
       <c r="D657" s="12" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="E657" s="2"/>
     </row>
@@ -14154,11 +14288,11 @@
         <v>657</v>
       </c>
       <c r="B658" s="13" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C658" s="13"/>
       <c r="D658" s="13" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="E658" s="2"/>
     </row>
@@ -14167,11 +14301,11 @@
         <v>658</v>
       </c>
       <c r="B659" s="12" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="C659" s="12"/>
       <c r="D659" s="12" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="E659" s="2"/>
     </row>
@@ -14180,11 +14314,11 @@
         <v>659</v>
       </c>
       <c r="B660" s="13" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="C660" s="13"/>
       <c r="D660" s="13" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="E660" s="2"/>
     </row>
@@ -14193,11 +14327,11 @@
         <v>660</v>
       </c>
       <c r="B661" s="12" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C661" s="12"/>
       <c r="D661" s="12" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="E661" s="2"/>
     </row>
@@ -14206,13 +14340,13 @@
         <v>661</v>
       </c>
       <c r="B662" s="13" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="C662" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D662" s="13" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="E662" s="2"/>
     </row>
@@ -14221,13 +14355,13 @@
         <v>662</v>
       </c>
       <c r="B663" s="12" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="C663" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D663" s="12" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="E663" s="2"/>
     </row>
@@ -14254,11 +14388,11 @@
         <v>665</v>
       </c>
       <c r="B666" s="13" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="C666" s="13"/>
       <c r="D666" s="13" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="E666" s="2"/>
     </row>
@@ -14267,11 +14401,11 @@
         <v>666</v>
       </c>
       <c r="B667" s="12" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="C667" s="12"/>
       <c r="D667" s="12" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="E667" s="2"/>
     </row>
@@ -14280,11 +14414,11 @@
         <v>667</v>
       </c>
       <c r="B668" s="13" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="C668" s="13"/>
       <c r="D668" s="13" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="E668" s="2"/>
     </row>
@@ -14320,11 +14454,11 @@
         <v>671</v>
       </c>
       <c r="B672" s="13" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C672" s="13"/>
       <c r="D672" s="13" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="E672" s="2"/>
     </row>
@@ -14333,11 +14467,11 @@
         <v>672</v>
       </c>
       <c r="B673" s="12" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="C673" s="12"/>
       <c r="D673" s="12" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="E673" s="2"/>
     </row>
@@ -14346,11 +14480,11 @@
         <v>673</v>
       </c>
       <c r="B674" s="13" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="C674" s="13"/>
       <c r="D674" s="13" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="E674" s="2"/>
     </row>
@@ -14359,11 +14493,11 @@
         <v>674</v>
       </c>
       <c r="B675" s="12" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="C675" s="12"/>
       <c r="D675" s="12" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="E675" s="2"/>
     </row>
@@ -14372,11 +14506,11 @@
         <v>675</v>
       </c>
       <c r="B676" s="13" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C676" s="13"/>
       <c r="D676" s="13" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E676" s="2"/>
     </row>
@@ -14385,11 +14519,11 @@
         <v>676</v>
       </c>
       <c r="B677" s="12" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="C677" s="12"/>
       <c r="D677" s="12" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="E677" s="2"/>
     </row>
@@ -14398,11 +14532,11 @@
         <v>677</v>
       </c>
       <c r="B678" s="13" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C678" s="13"/>
       <c r="D678" s="13" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="E678" s="2"/>
     </row>
@@ -14411,11 +14545,11 @@
         <v>678</v>
       </c>
       <c r="B679" s="12" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="C679" s="12"/>
       <c r="D679" s="12" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="E679" s="2"/>
     </row>
@@ -14424,11 +14558,11 @@
         <v>679</v>
       </c>
       <c r="B680" s="13" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="C680" s="13"/>
       <c r="D680" s="13" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="E680" s="2"/>
     </row>
@@ -14437,11 +14571,11 @@
         <v>680</v>
       </c>
       <c r="B681" s="12" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="C681" s="12"/>
       <c r="D681" s="12" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E681" s="2"/>
     </row>
@@ -14450,11 +14584,11 @@
         <v>681</v>
       </c>
       <c r="B682" s="13" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="C682" s="13"/>
       <c r="D682" s="13" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="E682" s="2"/>
     </row>
@@ -14463,11 +14597,11 @@
         <v>682</v>
       </c>
       <c r="B683" s="12" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="C683" s="12"/>
       <c r="D683" s="12" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="E683" s="2"/>
     </row>
@@ -14476,11 +14610,11 @@
         <v>683</v>
       </c>
       <c r="B684" s="13" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="C684" s="13"/>
       <c r="D684" s="13" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="E684" s="2"/>
     </row>
@@ -14498,11 +14632,11 @@
         <v>685</v>
       </c>
       <c r="B686" s="13" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="C686" s="13"/>
       <c r="D686" s="13" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="E686" s="2"/>
     </row>
@@ -14511,11 +14645,11 @@
         <v>686</v>
       </c>
       <c r="B687" s="12" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="C687" s="12"/>
       <c r="D687" s="12" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="E687" s="2"/>
     </row>
@@ -14524,11 +14658,11 @@
         <v>687</v>
       </c>
       <c r="B688" s="13" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="C688" s="13"/>
       <c r="D688" s="13" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="E688" s="2"/>
     </row>
@@ -14537,11 +14671,11 @@
         <v>688</v>
       </c>
       <c r="B689" s="12" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C689" s="12"/>
       <c r="D689" s="12" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="E689" s="2"/>
     </row>
@@ -14559,13 +14693,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="12" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C691" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D691" s="12" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="E691" s="2"/>
     </row>
@@ -14574,11 +14708,11 @@
         <v>691</v>
       </c>
       <c r="B692" s="13" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="C692" s="13"/>
       <c r="D692" s="13" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="E692" s="2"/>
     </row>
@@ -14605,13 +14739,13 @@
         <v>694</v>
       </c>
       <c r="B695" s="12" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="C695" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D695" s="12" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="E695" s="2"/>
     </row>
@@ -14620,13 +14754,13 @@
         <v>695</v>
       </c>
       <c r="B696" s="13" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C696" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D696" s="13" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="E696" s="2"/>
     </row>
@@ -14635,13 +14769,13 @@
         <v>696</v>
       </c>
       <c r="B697" s="12" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="C697" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D697" s="12" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="E697" s="2"/>
     </row>
@@ -14650,11 +14784,11 @@
         <v>697</v>
       </c>
       <c r="B698" s="13" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="C698" s="13"/>
       <c r="D698" s="13" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="E698" s="2"/>
     </row>
@@ -14663,13 +14797,13 @@
         <v>698</v>
       </c>
       <c r="B699" s="12" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="C699" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D699" s="12" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="E699" s="2"/>
     </row>
@@ -14678,11 +14812,11 @@
         <v>699</v>
       </c>
       <c r="B700" s="13" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="C700" s="13"/>
       <c r="D700" s="13" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="E700" s="2"/>
     </row>
@@ -14691,11 +14825,11 @@
         <v>700</v>
       </c>
       <c r="B701" s="12" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="C701" s="12"/>
       <c r="D701" s="12" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="E701" s="2"/>
     </row>
@@ -14704,11 +14838,11 @@
         <v>701</v>
       </c>
       <c r="B702" s="13" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="C702" s="13"/>
       <c r="D702" s="13" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="E702" s="2"/>
     </row>
@@ -14717,11 +14851,11 @@
         <v>702</v>
       </c>
       <c r="B703" s="12" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="C703" s="12"/>
       <c r="D703" s="12" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="E703" s="2"/>
     </row>
@@ -14730,11 +14864,11 @@
         <v>703</v>
       </c>
       <c r="B704" s="13" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="C704" s="13"/>
       <c r="D704" s="13" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="E704" s="2"/>
     </row>
@@ -14743,13 +14877,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="12" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="C705" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D705" s="12" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="E705" s="2"/>
     </row>
@@ -14758,11 +14892,11 @@
         <v>705</v>
       </c>
       <c r="B706" s="13" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="C706" s="13"/>
       <c r="D706" s="13" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="E706" s="2"/>
     </row>
@@ -14771,13 +14905,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="12" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C707" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D707" s="12" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -14785,13 +14919,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="13" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="C708" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D708" s="13" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -14799,13 +14933,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="12" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="C709" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D709" s="12" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -14813,13 +14947,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="13" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="C710" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D710" s="13" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -14827,13 +14961,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="12" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="C711" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D711" s="12" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -14841,11 +14975,11 @@
         <v>711</v>
       </c>
       <c r="B712" s="13" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="C712" s="13"/>
       <c r="D712" s="13" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -14853,13 +14987,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="12" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="C713" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D713" s="12" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -14867,13 +15001,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="13" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="C714" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D714" s="13" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -14881,13 +15015,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="12" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="C715" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D715" s="12" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -14895,13 +15029,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="13" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C716" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D716" s="13" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -14909,13 +15043,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="12" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="C717" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D717" s="12" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -14923,13 +15057,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="13" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="C718" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D718" s="13" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -14937,13 +15071,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="12" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="C719" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D719" s="12" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -14951,13 +15085,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="13" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="C720" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D720" s="13" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -14965,13 +15099,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="12" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="C721" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D721" s="12" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -14979,11 +15113,11 @@
         <v>721</v>
       </c>
       <c r="B722" s="13" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="C722" s="13"/>
       <c r="D722" s="13" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -14991,13 +15125,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="12" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="C723" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D723" s="12" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -15005,13 +15139,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="13" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="C724" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D724" s="13" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -15019,13 +15153,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="12" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="C725" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D725" s="12" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -15033,13 +15167,13 @@
         <v>725</v>
       </c>
       <c r="B726" s="13" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="C726" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D726" s="13" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -15047,13 +15181,13 @@
         <v>726</v>
       </c>
       <c r="B727" s="12" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="C727" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D727" s="12" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -15061,13 +15195,13 @@
         <v>727</v>
       </c>
       <c r="B728" s="13" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C728" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D728" s="13" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -15075,13 +15209,13 @@
         <v>728</v>
       </c>
       <c r="B729" s="12" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="C729" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D729" s="12" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -15089,13 +15223,13 @@
         <v>729</v>
       </c>
       <c r="B730" s="13" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="C730" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D730" s="13" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -15103,13 +15237,13 @@
         <v>730</v>
       </c>
       <c r="B731" s="12" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C731" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D731" s="12" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -15117,11 +15251,11 @@
         <v>731</v>
       </c>
       <c r="B732" s="13" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="C732" s="13"/>
       <c r="D732" s="13" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -15129,13 +15263,13 @@
         <v>732</v>
       </c>
       <c r="B733" s="12" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="C733" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D733" s="12" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -15143,13 +15277,13 @@
         <v>733</v>
       </c>
       <c r="B734" s="13" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="C734" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D734" s="13" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -15157,11 +15291,11 @@
         <v>734</v>
       </c>
       <c r="B735" s="12" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="C735" s="12"/>
       <c r="D735" s="12" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -15169,13 +15303,13 @@
         <v>735</v>
       </c>
       <c r="B736" s="13" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="C736" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D736" s="13" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -15183,13 +15317,13 @@
         <v>736</v>
       </c>
       <c r="B737" s="12" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="C737" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D737" s="12" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -15197,11 +15331,11 @@
         <v>737</v>
       </c>
       <c r="B738" s="13" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="C738" s="13"/>
       <c r="D738" s="13" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -15209,13 +15343,13 @@
         <v>738</v>
       </c>
       <c r="B739" s="12" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="C739" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D739" s="12" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -15223,13 +15357,13 @@
         <v>739</v>
       </c>
       <c r="B740" s="13" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="C740" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D740" s="13" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -15237,11 +15371,11 @@
         <v>740</v>
       </c>
       <c r="B741" s="12" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C741" s="12"/>
       <c r="D741" s="12" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -15249,13 +15383,13 @@
         <v>741</v>
       </c>
       <c r="B742" s="13" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="C742" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D742" s="13" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -15263,13 +15397,13 @@
         <v>742</v>
       </c>
       <c r="B743" s="12" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="C743" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D743" s="12" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -15277,11 +15411,11 @@
         <v>743</v>
       </c>
       <c r="B744" s="13" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="C744" s="13"/>
       <c r="D744" s="13" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -15289,11 +15423,11 @@
         <v>744</v>
       </c>
       <c r="B745" s="12" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="C745" s="12"/>
       <c r="D745" s="12" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -15309,11 +15443,11 @@
         <v>746</v>
       </c>
       <c r="B747" s="12" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="C747" s="12"/>
       <c r="D747" s="12" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -15321,11 +15455,11 @@
         <v>747</v>
       </c>
       <c r="B748" s="13" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="C748" s="13"/>
       <c r="D748" s="13" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -15333,11 +15467,11 @@
         <v>748</v>
       </c>
       <c r="B749" s="12" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="C749" s="12"/>
       <c r="D749" s="12" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -15345,13 +15479,13 @@
         <v>749</v>
       </c>
       <c r="B750" s="13" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="C750" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D750" s="13" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -15359,11 +15493,11 @@
         <v>750</v>
       </c>
       <c r="B751" s="12" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="C751" s="12"/>
       <c r="D751" s="12" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -15371,13 +15505,13 @@
         <v>751</v>
       </c>
       <c r="B752" s="13" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="C752" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D752" s="13" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -15385,13 +15519,13 @@
         <v>752</v>
       </c>
       <c r="B753" s="12" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="C753" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D753" s="12" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -15399,13 +15533,13 @@
         <v>753</v>
       </c>
       <c r="B754" s="13" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="C754" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D754" s="13" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -15413,13 +15547,13 @@
         <v>754</v>
       </c>
       <c r="B755" s="12" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="C755" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D755" s="12" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -15427,13 +15561,13 @@
         <v>755</v>
       </c>
       <c r="B756" s="13" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="C756" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D756" s="13" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -15441,11 +15575,11 @@
         <v>756</v>
       </c>
       <c r="B757" s="12" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="C757" s="12"/>
       <c r="D757" s="12" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -15453,13 +15587,13 @@
         <v>757</v>
       </c>
       <c r="B758" s="13" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="C758" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D758" s="13" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -15467,11 +15601,11 @@
         <v>758</v>
       </c>
       <c r="B759" s="12" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="C759" s="12"/>
       <c r="D759" s="12" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -15479,13 +15613,13 @@
         <v>759</v>
       </c>
       <c r="B760" s="13" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="C760" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D760" s="13" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -15493,11 +15627,11 @@
         <v>760</v>
       </c>
       <c r="B761" s="12" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="C761" s="12"/>
       <c r="D761" s="12" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -15505,13 +15639,13 @@
         <v>761</v>
       </c>
       <c r="B762" s="13" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="C762" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D762" s="13" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -15519,11 +15653,11 @@
         <v>762</v>
       </c>
       <c r="B763" s="12" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="C763" s="12"/>
       <c r="D763" s="12" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -15531,11 +15665,11 @@
         <v>763</v>
       </c>
       <c r="B764" s="13" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="C764" s="13"/>
       <c r="D764"